--- a/config_Release/shoping_config_vivo.xlsx
+++ b/config_Release/shoping_config_vivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3599" uniqueCount="1594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3648" uniqueCount="1618">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7246,6 +7246,100 @@
   </si>
   <si>
     <t>100000,5,3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>立冬福袋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","10万小游戏币","水滴*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1",</t>
+  </si>
+  <si>
+    <t>二龙腾飞</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>立冬福袋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","15万小游戏币","水滴*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,150000,8,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>三阳开泰</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>立冬福袋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","30万小游戏币","阳光*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,300000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","60万小游戏币","阳光*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,600000,8,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>五福临门</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2980万金币","90万小游戏币","阳光*12",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>六六大顺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","150万小游戏币","铁锹*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_3",</t>
+  </si>
+  <si>
+    <t>49800000,1500000,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>七星高照</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币","300万小游戏币","铁锹*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>99800000,3000000,5,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -7434,7 +7528,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7604,6 +7698,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10056,13 +10156,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM433"/>
+  <dimension ref="A1:AM440"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H417" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A77" sqref="A77:XFD77"/>
+      <selection pane="bottomRight" activeCell="A434" sqref="A434:XFD440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -37518,6 +37618,461 @@
         <v>1</v>
       </c>
     </row>
+    <row r="434" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A434" s="57">
+        <v>433</v>
+      </c>
+      <c r="B434" s="57">
+        <v>10350</v>
+      </c>
+      <c r="F434" s="57">
+        <v>1</v>
+      </c>
+      <c r="G434" s="57" t="s">
+        <v>1453</v>
+      </c>
+      <c r="H434" s="57" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I434" s="57" t="s">
+        <v>1595</v>
+      </c>
+      <c r="K434" s="57">
+        <v>-31</v>
+      </c>
+      <c r="L434" s="57">
+        <v>0</v>
+      </c>
+      <c r="M434" s="57">
+        <v>0</v>
+      </c>
+      <c r="N434" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="O434" s="57">
+        <v>1800</v>
+      </c>
+      <c r="P434" s="57" t="s">
+        <v>1596</v>
+      </c>
+      <c r="Q434" s="58" t="s">
+        <v>1457</v>
+      </c>
+      <c r="V434" s="57" t="s">
+        <v>529</v>
+      </c>
+      <c r="W434" s="57">
+        <v>9999999</v>
+      </c>
+      <c r="X434" s="57">
+        <v>1604359800</v>
+      </c>
+      <c r="Y434" s="57">
+        <v>1604937599</v>
+      </c>
+      <c r="AG434" s="57">
+        <v>1</v>
+      </c>
+      <c r="AH434" s="57">
+        <v>1</v>
+      </c>
+      <c r="AK434" s="57">
+        <v>1</v>
+      </c>
+      <c r="AL434" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A435" s="57">
+        <v>434</v>
+      </c>
+      <c r="B435" s="57">
+        <v>10351</v>
+      </c>
+      <c r="F435" s="57">
+        <v>1</v>
+      </c>
+      <c r="G435" s="57" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H435" s="57" t="s">
+        <v>1598</v>
+      </c>
+      <c r="I435" s="57" t="s">
+        <v>1599</v>
+      </c>
+      <c r="K435" s="57">
+        <v>-31</v>
+      </c>
+      <c r="L435" s="57">
+        <v>0</v>
+      </c>
+      <c r="M435" s="57">
+        <v>0</v>
+      </c>
+      <c r="N435" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="O435" s="57">
+        <v>4800</v>
+      </c>
+      <c r="P435" s="57" t="s">
+        <v>1596</v>
+      </c>
+      <c r="Q435" s="58" t="s">
+        <v>1600</v>
+      </c>
+      <c r="V435" s="57" t="s">
+        <v>529</v>
+      </c>
+      <c r="W435" s="57">
+        <v>9999999</v>
+      </c>
+      <c r="X435" s="57">
+        <v>1604359800</v>
+      </c>
+      <c r="Y435" s="57">
+        <v>1604937599</v>
+      </c>
+      <c r="AG435" s="57">
+        <v>1</v>
+      </c>
+      <c r="AH435" s="57">
+        <v>1</v>
+      </c>
+      <c r="AK435" s="57">
+        <v>1</v>
+      </c>
+      <c r="AL435" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A436" s="57">
+        <v>435</v>
+      </c>
+      <c r="B436" s="57">
+        <v>10352</v>
+      </c>
+      <c r="F436" s="57">
+        <v>1</v>
+      </c>
+      <c r="G436" s="57" t="s">
+        <v>1601</v>
+      </c>
+      <c r="H436" s="57" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I436" s="57" t="s">
+        <v>1603</v>
+      </c>
+      <c r="K436" s="57">
+        <v>-31</v>
+      </c>
+      <c r="L436" s="57">
+        <v>0</v>
+      </c>
+      <c r="M436" s="57">
+        <v>0</v>
+      </c>
+      <c r="N436" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="O436" s="57">
+        <v>9800</v>
+      </c>
+      <c r="P436" s="57" t="s">
+        <v>1604</v>
+      </c>
+      <c r="Q436" s="58" t="s">
+        <v>1605</v>
+      </c>
+      <c r="V436" s="57" t="s">
+        <v>529</v>
+      </c>
+      <c r="W436" s="57">
+        <v>9999999</v>
+      </c>
+      <c r="X436" s="57">
+        <v>1604359800</v>
+      </c>
+      <c r="Y436" s="57">
+        <v>1604937599</v>
+      </c>
+      <c r="AG436" s="57">
+        <v>1</v>
+      </c>
+      <c r="AH436" s="57">
+        <v>1</v>
+      </c>
+      <c r="AK436" s="57">
+        <v>1</v>
+      </c>
+      <c r="AL436" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A437" s="57">
+        <v>436</v>
+      </c>
+      <c r="B437" s="57">
+        <v>10353</v>
+      </c>
+      <c r="F437" s="57">
+        <v>1</v>
+      </c>
+      <c r="G437" s="57" t="s">
+        <v>1467</v>
+      </c>
+      <c r="H437" s="57" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I437" s="57" t="s">
+        <v>1606</v>
+      </c>
+      <c r="K437" s="57">
+        <v>-31</v>
+      </c>
+      <c r="L437" s="57">
+        <v>0</v>
+      </c>
+      <c r="M437" s="57">
+        <v>0</v>
+      </c>
+      <c r="N437" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="O437" s="57">
+        <v>19800</v>
+      </c>
+      <c r="P437" s="57" t="s">
+        <v>1607</v>
+      </c>
+      <c r="Q437" s="58" t="s">
+        <v>1608</v>
+      </c>
+      <c r="V437" s="57" t="s">
+        <v>529</v>
+      </c>
+      <c r="W437" s="57">
+        <v>9999999</v>
+      </c>
+      <c r="X437" s="57">
+        <v>1604359800</v>
+      </c>
+      <c r="Y437" s="57">
+        <v>1604937599</v>
+      </c>
+      <c r="AG437" s="57">
+        <v>1</v>
+      </c>
+      <c r="AH437" s="57">
+        <v>1</v>
+      </c>
+      <c r="AK437" s="57">
+        <v>1</v>
+      </c>
+      <c r="AL437" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A438" s="57">
+        <v>437</v>
+      </c>
+      <c r="B438" s="57">
+        <v>10354</v>
+      </c>
+      <c r="F438" s="57">
+        <v>1</v>
+      </c>
+      <c r="G438" s="57" t="s">
+        <v>1609</v>
+      </c>
+      <c r="H438" s="57" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I438" s="57" t="s">
+        <v>1610</v>
+      </c>
+      <c r="K438" s="57">
+        <v>-31</v>
+      </c>
+      <c r="L438" s="57">
+        <v>0</v>
+      </c>
+      <c r="M438" s="57">
+        <v>0</v>
+      </c>
+      <c r="N438" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="O438" s="57">
+        <v>29800</v>
+      </c>
+      <c r="P438" s="57" t="s">
+        <v>1604</v>
+      </c>
+      <c r="Q438" s="58" t="s">
+        <v>1473</v>
+      </c>
+      <c r="V438" s="57" t="s">
+        <v>529</v>
+      </c>
+      <c r="W438" s="57">
+        <v>9999999</v>
+      </c>
+      <c r="X438" s="57">
+        <v>1604359800</v>
+      </c>
+      <c r="Y438" s="57">
+        <v>1604937599</v>
+      </c>
+      <c r="AG438" s="57">
+        <v>1</v>
+      </c>
+      <c r="AH438" s="57">
+        <v>1</v>
+      </c>
+      <c r="AK438" s="57">
+        <v>1</v>
+      </c>
+      <c r="AL438" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A439" s="57">
+        <v>438</v>
+      </c>
+      <c r="B439" s="57">
+        <v>10355</v>
+      </c>
+      <c r="F439" s="57">
+        <v>1</v>
+      </c>
+      <c r="G439" s="57" t="s">
+        <v>1611</v>
+      </c>
+      <c r="H439" s="57" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I439" s="57" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K439" s="57">
+        <v>-31</v>
+      </c>
+      <c r="L439" s="57">
+        <v>0</v>
+      </c>
+      <c r="M439" s="57">
+        <v>0</v>
+      </c>
+      <c r="N439" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="O439" s="57">
+        <v>49800</v>
+      </c>
+      <c r="P439" s="57" t="s">
+        <v>1613</v>
+      </c>
+      <c r="Q439" s="58" t="s">
+        <v>1614</v>
+      </c>
+      <c r="V439" s="57" t="s">
+        <v>529</v>
+      </c>
+      <c r="W439" s="57">
+        <v>9999999</v>
+      </c>
+      <c r="X439" s="57">
+        <v>1604359800</v>
+      </c>
+      <c r="Y439" s="57">
+        <v>1604937599</v>
+      </c>
+      <c r="AG439" s="57">
+        <v>1</v>
+      </c>
+      <c r="AH439" s="57">
+        <v>1</v>
+      </c>
+      <c r="AK439" s="57">
+        <v>1</v>
+      </c>
+      <c r="AL439" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A440" s="57">
+        <v>439</v>
+      </c>
+      <c r="B440" s="57">
+        <v>10356</v>
+      </c>
+      <c r="F440" s="57">
+        <v>1</v>
+      </c>
+      <c r="G440" s="57" t="s">
+        <v>1615</v>
+      </c>
+      <c r="H440" s="57" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I440" s="57" t="s">
+        <v>1616</v>
+      </c>
+      <c r="K440" s="57">
+        <v>-31</v>
+      </c>
+      <c r="L440" s="57">
+        <v>0</v>
+      </c>
+      <c r="M440" s="57">
+        <v>0</v>
+      </c>
+      <c r="N440" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="O440" s="57">
+        <v>99800</v>
+      </c>
+      <c r="P440" s="57" t="s">
+        <v>1613</v>
+      </c>
+      <c r="Q440" s="58" t="s">
+        <v>1617</v>
+      </c>
+      <c r="V440" s="57" t="s">
+        <v>529</v>
+      </c>
+      <c r="W440" s="57">
+        <v>9999999</v>
+      </c>
+      <c r="X440" s="57">
+        <v>1604359800</v>
+      </c>
+      <c r="Y440" s="57">
+        <v>1604937599</v>
+      </c>
+      <c r="AG440" s="57">
+        <v>1</v>
+      </c>
+      <c r="AH440" s="57">
+        <v>1</v>
+      </c>
+      <c r="AK440" s="57">
+        <v>1</v>
+      </c>
+      <c r="AL440" s="57">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_Release/shoping_config_vivo.xlsx
+++ b/config_Release/shoping_config_vivo.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3648" uniqueCount="1618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3684" uniqueCount="1639">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7340,6 +7340,90 @@
   </si>
   <si>
     <t>99800000,3000000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一498元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万","200万小游戏币","抽奖券*50",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_11.11_cjq",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,2000000,50,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一198元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万","50万小游戏币","抽奖券*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,500000,30,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一98元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万","10万小游戏币","抽奖券*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,100000,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一48元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万","3万小游戏币","抽奖券*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,30000,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一20元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万","1万小游戏币","抽奖券*4",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,10000,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一6元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万","3000小游戏币","抽奖券*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,3000,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -10156,13 +10240,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM440"/>
+  <dimension ref="A1:AM446"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H417" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A434" sqref="A434:XFD440"/>
+      <selection pane="bottomRight" activeCell="A441" sqref="A441:XFD446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -38073,6 +38157,378 @@
         <v>1</v>
       </c>
     </row>
+    <row r="441" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A441" s="55">
+        <v>440</v>
+      </c>
+      <c r="B441" s="55">
+        <v>10357</v>
+      </c>
+      <c r="F441" s="55">
+        <v>1</v>
+      </c>
+      <c r="G441" s="55" t="s">
+        <v>1618</v>
+      </c>
+      <c r="I441" s="55" t="s">
+        <v>1619</v>
+      </c>
+      <c r="K441" s="55">
+        <v>-31</v>
+      </c>
+      <c r="L441" s="55">
+        <v>0</v>
+      </c>
+      <c r="M441" s="55">
+        <v>0</v>
+      </c>
+      <c r="N441" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="O441" s="55">
+        <v>49800</v>
+      </c>
+      <c r="P441" s="55" t="s">
+        <v>1620</v>
+      </c>
+      <c r="Q441" s="56" t="s">
+        <v>1621</v>
+      </c>
+      <c r="V441" s="55" t="s">
+        <v>1622</v>
+      </c>
+      <c r="W441" s="55">
+        <v>9999999</v>
+      </c>
+      <c r="X441" s="55">
+        <v>1604966400</v>
+      </c>
+      <c r="Y441" s="55">
+        <v>1605542399</v>
+      </c>
+      <c r="AG441" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH441" s="55">
+        <v>1</v>
+      </c>
+      <c r="AK441" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL441" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A442" s="55">
+        <v>441</v>
+      </c>
+      <c r="B442" s="55">
+        <v>10358</v>
+      </c>
+      <c r="F442" s="55">
+        <v>1</v>
+      </c>
+      <c r="G442" s="55" t="s">
+        <v>1623</v>
+      </c>
+      <c r="I442" s="55" t="s">
+        <v>1624</v>
+      </c>
+      <c r="K442" s="55">
+        <v>-31</v>
+      </c>
+      <c r="L442" s="55">
+        <v>0</v>
+      </c>
+      <c r="M442" s="55">
+        <v>0</v>
+      </c>
+      <c r="N442" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="O442" s="55">
+        <v>19800</v>
+      </c>
+      <c r="P442" s="55" t="s">
+        <v>1620</v>
+      </c>
+      <c r="Q442" s="56" t="s">
+        <v>1625</v>
+      </c>
+      <c r="V442" s="55" t="s">
+        <v>1622</v>
+      </c>
+      <c r="W442" s="55">
+        <v>9999999</v>
+      </c>
+      <c r="X442" s="55">
+        <v>1604966400</v>
+      </c>
+      <c r="Y442" s="55">
+        <v>1605542399</v>
+      </c>
+      <c r="AG442" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH442" s="55">
+        <v>1</v>
+      </c>
+      <c r="AK442" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL442" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A443" s="55">
+        <v>442</v>
+      </c>
+      <c r="B443" s="55">
+        <v>10359</v>
+      </c>
+      <c r="F443" s="55">
+        <v>1</v>
+      </c>
+      <c r="G443" s="55" t="s">
+        <v>1626</v>
+      </c>
+      <c r="I443" s="55" t="s">
+        <v>1627</v>
+      </c>
+      <c r="K443" s="55">
+        <v>-31</v>
+      </c>
+      <c r="L443" s="55">
+        <v>0</v>
+      </c>
+      <c r="M443" s="55">
+        <v>0</v>
+      </c>
+      <c r="N443" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="O443" s="55">
+        <v>9800</v>
+      </c>
+      <c r="P443" s="55" t="s">
+        <v>1620</v>
+      </c>
+      <c r="Q443" s="56" t="s">
+        <v>1628</v>
+      </c>
+      <c r="V443" s="55" t="s">
+        <v>1622</v>
+      </c>
+      <c r="W443" s="55">
+        <v>9999999</v>
+      </c>
+      <c r="X443" s="55">
+        <v>1604966400</v>
+      </c>
+      <c r="Y443" s="55">
+        <v>1605542399</v>
+      </c>
+      <c r="AG443" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH443" s="55">
+        <v>1</v>
+      </c>
+      <c r="AK443" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL443" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A444" s="55">
+        <v>443</v>
+      </c>
+      <c r="B444" s="55">
+        <v>10360</v>
+      </c>
+      <c r="F444" s="55">
+        <v>1</v>
+      </c>
+      <c r="G444" s="55" t="s">
+        <v>1629</v>
+      </c>
+      <c r="I444" s="55" t="s">
+        <v>1630</v>
+      </c>
+      <c r="K444" s="55">
+        <v>-31</v>
+      </c>
+      <c r="L444" s="55">
+        <v>0</v>
+      </c>
+      <c r="M444" s="55">
+        <v>0</v>
+      </c>
+      <c r="N444" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="O444" s="55">
+        <v>4800</v>
+      </c>
+      <c r="P444" s="55" t="s">
+        <v>1620</v>
+      </c>
+      <c r="Q444" s="56" t="s">
+        <v>1631</v>
+      </c>
+      <c r="V444" s="55" t="s">
+        <v>1632</v>
+      </c>
+      <c r="W444" s="55">
+        <v>9999999</v>
+      </c>
+      <c r="X444" s="55">
+        <v>1604966400</v>
+      </c>
+      <c r="Y444" s="55">
+        <v>1605542399</v>
+      </c>
+      <c r="AG444" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH444" s="55">
+        <v>1</v>
+      </c>
+      <c r="AK444" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL444" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A445" s="55">
+        <v>444</v>
+      </c>
+      <c r="B445" s="55">
+        <v>10361</v>
+      </c>
+      <c r="F445" s="55">
+        <v>1</v>
+      </c>
+      <c r="G445" s="55" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I445" s="55" t="s">
+        <v>1634</v>
+      </c>
+      <c r="K445" s="55">
+        <v>-31</v>
+      </c>
+      <c r="L445" s="55">
+        <v>0</v>
+      </c>
+      <c r="M445" s="55">
+        <v>0</v>
+      </c>
+      <c r="N445" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="O445" s="55">
+        <v>2000</v>
+      </c>
+      <c r="P445" s="55" t="s">
+        <v>1620</v>
+      </c>
+      <c r="Q445" s="56" t="s">
+        <v>1635</v>
+      </c>
+      <c r="V445" s="55" t="s">
+        <v>1266</v>
+      </c>
+      <c r="W445" s="55">
+        <v>9999999</v>
+      </c>
+      <c r="X445" s="55">
+        <v>1604966400</v>
+      </c>
+      <c r="Y445" s="55">
+        <v>1605542399</v>
+      </c>
+      <c r="AG445" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH445" s="55">
+        <v>1</v>
+      </c>
+      <c r="AK445" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL445" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A446" s="55">
+        <v>445</v>
+      </c>
+      <c r="B446" s="55">
+        <v>10362</v>
+      </c>
+      <c r="F446" s="55">
+        <v>1</v>
+      </c>
+      <c r="G446" s="55" t="s">
+        <v>1636</v>
+      </c>
+      <c r="I446" s="55" t="s">
+        <v>1637</v>
+      </c>
+      <c r="K446" s="55">
+        <v>-31</v>
+      </c>
+      <c r="L446" s="55">
+        <v>0</v>
+      </c>
+      <c r="M446" s="55">
+        <v>0</v>
+      </c>
+      <c r="N446" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="O446" s="55">
+        <v>600</v>
+      </c>
+      <c r="P446" s="55" t="s">
+        <v>1620</v>
+      </c>
+      <c r="Q446" s="56" t="s">
+        <v>1638</v>
+      </c>
+      <c r="V446" s="55" t="s">
+        <v>1266</v>
+      </c>
+      <c r="W446" s="55">
+        <v>9999999</v>
+      </c>
+      <c r="X446" s="55">
+        <v>1604966400</v>
+      </c>
+      <c r="Y446" s="55">
+        <v>1605542399</v>
+      </c>
+      <c r="AG446" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH446" s="55">
+        <v>1</v>
+      </c>
+      <c r="AK446" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL446" s="55">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_Release/shoping_config_vivo.xlsx
+++ b/config_Release/shoping_config_vivo.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3684" uniqueCount="1639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3901" uniqueCount="1768">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7424,6 +7424,480 @@
   </si>
   <si>
     <t>600000,3000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算8元-1</t>
+  </si>
+  <si>
+    <t>聚划算8元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"80万金币","2.4万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>824000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算8元-2</t>
+  </si>
+  <si>
+    <t>聚划算8元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"80万金币","4.8万金币",</t>
+  </si>
+  <si>
+    <t>848000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算8元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算8元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"80万金币","4.8万金币","0.8万",</t>
+  </si>
+  <si>
+    <t>856000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算38元-1</t>
+  </si>
+  <si>
+    <t>聚划算38元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"380万金币","11万金币",</t>
+  </si>
+  <si>
+    <t>3910000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算38元-2</t>
+  </si>
+  <si>
+    <t>聚划算38元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"380万金币","22.8万金币",</t>
+  </si>
+  <si>
+    <t>4028000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算38元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算38元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"380万金币","22.8万金币","3.8万",</t>
+  </si>
+  <si>
+    <t>4066000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算98元-1</t>
+  </si>
+  <si>
+    <t>聚划算98元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","29万金币",</t>
+  </si>
+  <si>
+    <t>10090000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算98元-2</t>
+  </si>
+  <si>
+    <t>聚划算98元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","58.8万金币",</t>
+  </si>
+  <si>
+    <t>10388000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算98元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算98元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","58.8万金币","9.8万",</t>
+  </si>
+  <si>
+    <t>聚划算198元-1</t>
+  </si>
+  <si>
+    <t>聚划算198元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","59万金币",</t>
+  </si>
+  <si>
+    <t>20390000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算198元-2</t>
+  </si>
+  <si>
+    <t>聚划算198元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","118.8万金币",</t>
+  </si>
+  <si>
+    <t>20988000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算198元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算198元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","118.8万金币","19.8万",</t>
+  </si>
+  <si>
+    <t>21186000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算498元-1</t>
+  </si>
+  <si>
+    <t>聚划算498元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","149万金币",</t>
+  </si>
+  <si>
+    <t>51290000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算498元-2</t>
+  </si>
+  <si>
+    <t>聚划算498元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","298.8万金币",</t>
+  </si>
+  <si>
+    <t>52788000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算498元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算498元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","298.8万金币","49.8万",</t>
+  </si>
+  <si>
+    <t>53286000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算998元-1</t>
+  </si>
+  <si>
+    <t>聚划算998元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币","299万金币",</t>
+  </si>
+  <si>
+    <t>102790000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算998元-2</t>
+  </si>
+  <si>
+    <t>聚划算998元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币","598.8万金币",</t>
+  </si>
+  <si>
+    <t>105788000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算998元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算998元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币","598.8万金币","99.8万",</t>
+  </si>
+  <si>
+    <t>106786000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算2498元-1</t>
+  </si>
+  <si>
+    <t>聚划算2498元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"24980万金币","749万金币",</t>
+  </si>
+  <si>
+    <t>257290000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算2498元-2</t>
+  </si>
+  <si>
+    <t>聚划算2498元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"24980万金币","1498.8万金币",</t>
+  </si>
+  <si>
+    <t>264788000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算2498元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算2498元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"24980万金币","1498.8万金币","249.8万",</t>
+  </si>
+  <si>
+    <t>267286000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一本万利</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一本万利</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"300万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"680万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>铂金礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1,0</t>
+  </si>
+  <si>
+    <t>钻石礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>星耀礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>王者礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>99800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣耀礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10365,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10363,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10368,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10366,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10371,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10369,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10374,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10372,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10377,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10375,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10380,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10378,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10383,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10381,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>250000000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2.5亿金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10486000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -7502,7 +7976,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7547,12 +8021,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -7566,6 +8034,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7612,7 +8098,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7754,22 +8240,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -7778,17 +8258,44 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8189,7 +8696,7 @@
       <c r="D4" s="32" t="s">
         <v>1530</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="51" t="s">
         <v>1531</v>
       </c>
       <c r="F4" s="18" t="s">
@@ -10240,13 +10747,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM446"/>
+  <dimension ref="A1:AM475"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H417" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="O444" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A441" sqref="A441:XFD446"/>
+      <selection pane="bottomRight" activeCell="Q455" sqref="Q455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -34585,615 +35092,615 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:38" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A386" s="47">
+    <row r="386" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A386" s="19">
         <v>385</v>
       </c>
-      <c r="B386" s="47">
+      <c r="B386" s="19">
         <v>10302</v>
       </c>
-      <c r="F386" s="47">
-        <v>1</v>
-      </c>
-      <c r="G386" s="47" t="s">
+      <c r="F386" s="19">
+        <v>1</v>
+      </c>
+      <c r="G386" s="19" t="s">
         <v>1375</v>
       </c>
-      <c r="H386" s="47" t="s">
+      <c r="H386" s="19" t="s">
         <v>1376</v>
       </c>
-      <c r="I386" s="47" t="s">
+      <c r="I386" s="19" t="s">
         <v>1377</v>
       </c>
-      <c r="K386" s="47">
+      <c r="K386" s="19">
         <v>-31</v>
       </c>
-      <c r="L386" s="47">
-        <v>0</v>
-      </c>
-      <c r="M386" s="47">
-        <v>0</v>
-      </c>
-      <c r="N386" s="47" t="s">
+      <c r="L386" s="19">
+        <v>0</v>
+      </c>
+      <c r="M386" s="19">
+        <v>0</v>
+      </c>
+      <c r="N386" s="19" t="s">
         <v>482</v>
       </c>
-      <c r="O386" s="47">
+      <c r="O386" s="19">
         <v>1800</v>
       </c>
-      <c r="P386" s="47" t="s">
+      <c r="P386" s="19" t="s">
         <v>1378</v>
       </c>
-      <c r="Q386" s="48" t="s">
+      <c r="Q386" s="39" t="s">
         <v>1379</v>
       </c>
-      <c r="V386" s="47" t="s">
+      <c r="V386" s="19" t="s">
         <v>536</v>
       </c>
-      <c r="W386" s="47">
+      <c r="W386" s="19">
         <v>9999999</v>
       </c>
-      <c r="X386" s="47">
-        <v>1602547200</v>
-      </c>
-      <c r="Y386" s="47">
-        <v>1603123199</v>
-      </c>
-      <c r="Z386" s="47">
+      <c r="X386" s="49">
+        <v>1605571200</v>
+      </c>
+      <c r="Y386" s="49">
+        <v>1606147199</v>
+      </c>
+      <c r="Z386" s="19">
         <v>44</v>
       </c>
-      <c r="AG386" s="47">
-        <v>1</v>
-      </c>
-      <c r="AH386" s="47">
-        <v>1</v>
-      </c>
-      <c r="AK386" s="47">
-        <v>1</v>
-      </c>
-      <c r="AL386" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387" spans="1:38" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A387" s="47">
+      <c r="AG386" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH386" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK386" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL386" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="19">
         <v>386</v>
       </c>
-      <c r="B387" s="47">
+      <c r="B387" s="19">
         <v>10303</v>
       </c>
-      <c r="F387" s="47">
-        <v>1</v>
-      </c>
-      <c r="G387" s="47" t="s">
+      <c r="F387" s="19">
+        <v>1</v>
+      </c>
+      <c r="G387" s="19" t="s">
         <v>1380</v>
       </c>
-      <c r="H387" s="47" t="s">
+      <c r="H387" s="19" t="s">
         <v>1381</v>
       </c>
-      <c r="I387" s="47" t="s">
+      <c r="I387" s="19" t="s">
         <v>1382</v>
       </c>
-      <c r="K387" s="47">
+      <c r="K387" s="19">
         <v>-31</v>
       </c>
-      <c r="L387" s="47">
-        <v>0</v>
-      </c>
-      <c r="M387" s="47">
-        <v>0</v>
-      </c>
-      <c r="N387" s="47" t="s">
+      <c r="L387" s="19">
+        <v>0</v>
+      </c>
+      <c r="M387" s="19">
+        <v>0</v>
+      </c>
+      <c r="N387" s="19" t="s">
         <v>1383</v>
       </c>
-      <c r="O387" s="47">
+      <c r="O387" s="19">
         <v>3000</v>
       </c>
-      <c r="P387" s="47" t="s">
+      <c r="P387" s="19" t="s">
         <v>1384</v>
       </c>
-      <c r="Q387" s="48" t="s">
+      <c r="Q387" s="39" t="s">
         <v>1385</v>
       </c>
-      <c r="V387" s="47" t="s">
+      <c r="V387" s="19" t="s">
         <v>536</v>
       </c>
-      <c r="W387" s="47">
+      <c r="W387" s="19">
         <v>9999999</v>
       </c>
-      <c r="X387" s="47">
-        <v>1602547200</v>
-      </c>
-      <c r="Y387" s="47">
-        <v>1603123199</v>
-      </c>
-      <c r="Z387" s="47">
+      <c r="X387" s="49">
+        <v>1605571200</v>
+      </c>
+      <c r="Y387" s="49">
+        <v>1606147199</v>
+      </c>
+      <c r="Z387" s="19">
         <v>44</v>
       </c>
-      <c r="AG387" s="47">
-        <v>1</v>
-      </c>
-      <c r="AH387" s="47">
-        <v>1</v>
-      </c>
-      <c r="AK387" s="47">
-        <v>1</v>
-      </c>
-      <c r="AL387" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="388" spans="1:38" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A388" s="47">
+      <c r="AG387" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH387" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK387" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL387" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="19">
         <v>387</v>
       </c>
-      <c r="B388" s="47">
+      <c r="B388" s="19">
         <v>10304</v>
       </c>
-      <c r="F388" s="47">
-        <v>1</v>
-      </c>
-      <c r="G388" s="47" t="s">
+      <c r="F388" s="19">
+        <v>1</v>
+      </c>
+      <c r="G388" s="19" t="s">
         <v>1386</v>
       </c>
-      <c r="H388" s="47" t="s">
+      <c r="H388" s="19" t="s">
         <v>1387</v>
       </c>
-      <c r="I388" s="47" t="s">
+      <c r="I388" s="19" t="s">
         <v>1388</v>
       </c>
-      <c r="K388" s="47">
+      <c r="K388" s="19">
         <v>-31</v>
       </c>
-      <c r="L388" s="47">
-        <v>0</v>
-      </c>
-      <c r="M388" s="47">
-        <v>0</v>
-      </c>
-      <c r="N388" s="47" t="s">
+      <c r="L388" s="19">
+        <v>0</v>
+      </c>
+      <c r="M388" s="19">
+        <v>0</v>
+      </c>
+      <c r="N388" s="19" t="s">
         <v>1389</v>
       </c>
-      <c r="O388" s="47">
+      <c r="O388" s="19">
         <v>4800</v>
       </c>
-      <c r="P388" s="47" t="s">
+      <c r="P388" s="19" t="s">
         <v>1390</v>
       </c>
-      <c r="Q388" s="48" t="s">
+      <c r="Q388" s="39" t="s">
         <v>1391</v>
       </c>
-      <c r="V388" s="47" t="s">
+      <c r="V388" s="19" t="s">
         <v>1392</v>
       </c>
-      <c r="W388" s="47">
+      <c r="W388" s="19">
         <v>9999999</v>
       </c>
-      <c r="X388" s="47">
-        <v>1602547200</v>
-      </c>
-      <c r="Y388" s="47">
-        <v>1603123199</v>
-      </c>
-      <c r="Z388" s="47">
+      <c r="X388" s="49">
+        <v>1605571200</v>
+      </c>
+      <c r="Y388" s="49">
+        <v>1606147199</v>
+      </c>
+      <c r="Z388" s="19">
         <v>44</v>
       </c>
-      <c r="AG388" s="47">
-        <v>1</v>
-      </c>
-      <c r="AH388" s="47">
-        <v>1</v>
-      </c>
-      <c r="AK388" s="47">
-        <v>1</v>
-      </c>
-      <c r="AL388" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389" spans="1:38" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A389" s="47">
+      <c r="AG388" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH388" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK388" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL388" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="19">
         <v>388</v>
       </c>
-      <c r="B389" s="47">
+      <c r="B389" s="19">
         <v>10305</v>
       </c>
-      <c r="F389" s="47">
-        <v>1</v>
-      </c>
-      <c r="G389" s="47" t="s">
+      <c r="F389" s="19">
+        <v>1</v>
+      </c>
+      <c r="G389" s="19" t="s">
         <v>1393</v>
       </c>
-      <c r="H389" s="47" t="s">
+      <c r="H389" s="19" t="s">
         <v>1394</v>
       </c>
-      <c r="I389" s="47" t="s">
+      <c r="I389" s="19" t="s">
         <v>1395</v>
       </c>
-      <c r="K389" s="47">
+      <c r="K389" s="19">
         <v>-31</v>
       </c>
-      <c r="L389" s="47">
-        <v>0</v>
-      </c>
-      <c r="M389" s="47">
-        <v>0</v>
-      </c>
-      <c r="N389" s="47" t="s">
+      <c r="L389" s="19">
+        <v>0</v>
+      </c>
+      <c r="M389" s="19">
+        <v>0</v>
+      </c>
+      <c r="N389" s="19" t="s">
         <v>1396</v>
       </c>
-      <c r="O389" s="47">
+      <c r="O389" s="19">
         <v>4800</v>
       </c>
-      <c r="P389" s="47" t="s">
+      <c r="P389" s="19" t="s">
         <v>1397</v>
       </c>
-      <c r="Q389" s="48" t="s">
+      <c r="Q389" s="39" t="s">
         <v>1391</v>
       </c>
-      <c r="V389" s="47" t="s">
+      <c r="V389" s="19" t="s">
         <v>536</v>
       </c>
-      <c r="W389" s="47">
+      <c r="W389" s="19">
         <v>9999999</v>
       </c>
-      <c r="X389" s="47">
-        <v>1602547200</v>
-      </c>
-      <c r="Y389" s="47">
-        <v>1603123199</v>
-      </c>
-      <c r="Z389" s="47">
+      <c r="X389" s="63">
+        <v>1605571200</v>
+      </c>
+      <c r="Y389" s="63">
+        <v>1606147199</v>
+      </c>
+      <c r="Z389" s="19">
         <v>45</v>
       </c>
-      <c r="AG389" s="47">
-        <v>1</v>
-      </c>
-      <c r="AH389" s="47">
-        <v>1</v>
-      </c>
-      <c r="AK389" s="47">
-        <v>1</v>
-      </c>
-      <c r="AL389" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="390" spans="1:38" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A390" s="47">
+      <c r="AG389" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH389" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK389" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL389" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A390" s="19">
         <v>389</v>
       </c>
-      <c r="B390" s="47">
+      <c r="B390" s="19">
         <v>10306</v>
       </c>
-      <c r="F390" s="47">
-        <v>1</v>
-      </c>
-      <c r="G390" s="47" t="s">
+      <c r="F390" s="19">
+        <v>1</v>
+      </c>
+      <c r="G390" s="19" t="s">
         <v>1380</v>
       </c>
-      <c r="H390" s="47" t="s">
+      <c r="H390" s="19" t="s">
         <v>1207</v>
       </c>
-      <c r="I390" s="47" t="s">
+      <c r="I390" s="19" t="s">
         <v>1398</v>
       </c>
-      <c r="K390" s="47">
+      <c r="K390" s="19">
         <v>-31</v>
       </c>
-      <c r="L390" s="47">
-        <v>0</v>
-      </c>
-      <c r="M390" s="47">
-        <v>0</v>
-      </c>
-      <c r="N390" s="47" t="s">
+      <c r="L390" s="19">
+        <v>0</v>
+      </c>
+      <c r="M390" s="19">
+        <v>0</v>
+      </c>
+      <c r="N390" s="19" t="s">
         <v>482</v>
       </c>
-      <c r="O390" s="47">
+      <c r="O390" s="19">
         <v>9800</v>
       </c>
-      <c r="P390" s="47" t="s">
+      <c r="P390" s="19" t="s">
         <v>1399</v>
       </c>
-      <c r="Q390" s="48" t="s">
+      <c r="Q390" s="39" t="s">
         <v>1400</v>
       </c>
-      <c r="V390" s="47" t="s">
+      <c r="V390" s="19" t="s">
         <v>536</v>
       </c>
-      <c r="W390" s="47">
+      <c r="W390" s="19">
         <v>9999999</v>
       </c>
-      <c r="X390" s="47">
-        <v>1602547200</v>
-      </c>
-      <c r="Y390" s="47">
-        <v>1603123199</v>
-      </c>
-      <c r="Z390" s="47">
+      <c r="X390" s="63">
+        <v>1605571200</v>
+      </c>
+      <c r="Y390" s="63">
+        <v>1606147199</v>
+      </c>
+      <c r="Z390" s="19">
         <v>45</v>
       </c>
-      <c r="AG390" s="47">
-        <v>1</v>
-      </c>
-      <c r="AH390" s="47">
-        <v>1</v>
-      </c>
-      <c r="AK390" s="47">
-        <v>1</v>
-      </c>
-      <c r="AL390" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A391" s="5">
+      <c r="AG390" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH390" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK390" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL390" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="19">
         <v>390</v>
       </c>
-      <c r="B391" s="5">
+      <c r="B391" s="19">
         <v>10307</v>
       </c>
-      <c r="F391" s="5">
-        <v>1</v>
-      </c>
-      <c r="G391" s="5" t="s">
+      <c r="F391" s="19">
+        <v>1</v>
+      </c>
+      <c r="G391" s="19" t="s">
         <v>1401</v>
       </c>
-      <c r="H391" s="5" t="s">
+      <c r="H391" s="19" t="s">
         <v>1394</v>
       </c>
-      <c r="I391" s="5" t="s">
+      <c r="I391" s="19" t="s">
         <v>1402</v>
       </c>
-      <c r="K391" s="5">
+      <c r="K391" s="19">
         <v>-31</v>
       </c>
-      <c r="L391" s="5">
-        <v>0</v>
-      </c>
-      <c r="M391" s="5">
-        <v>0</v>
-      </c>
-      <c r="N391" s="5" t="s">
+      <c r="L391" s="19">
+        <v>0</v>
+      </c>
+      <c r="M391" s="19">
+        <v>0</v>
+      </c>
+      <c r="N391" s="19" t="s">
         <v>482</v>
       </c>
-      <c r="O391" s="5">
+      <c r="O391" s="19">
         <v>19800</v>
       </c>
-      <c r="P391" s="5" t="s">
+      <c r="P391" s="19" t="s">
         <v>1403</v>
       </c>
-      <c r="Q391" s="10" t="s">
+      <c r="Q391" s="39" t="s">
         <v>1404</v>
       </c>
-      <c r="V391" s="5" t="s">
+      <c r="V391" s="19" t="s">
         <v>536</v>
       </c>
-      <c r="W391" s="5">
+      <c r="W391" s="19">
         <v>9999999</v>
       </c>
-      <c r="X391" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y391" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z391" s="5">
+      <c r="X391" s="63">
+        <v>1605571200</v>
+      </c>
+      <c r="Y391" s="63">
+        <v>1606147199</v>
+      </c>
+      <c r="Z391" s="19">
         <v>45</v>
       </c>
-      <c r="AG391" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH391" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK391" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL391" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A392" s="5">
+      <c r="AG391" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH391" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK391" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL391" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A392" s="19">
         <v>391</v>
       </c>
-      <c r="B392" s="5">
+      <c r="B392" s="19">
         <v>10308</v>
       </c>
-      <c r="F392" s="5">
-        <v>1</v>
-      </c>
-      <c r="G392" s="5" t="s">
+      <c r="F392" s="19">
+        <v>1</v>
+      </c>
+      <c r="G392" s="19" t="s">
         <v>1375</v>
       </c>
-      <c r="H392" s="5" t="s">
+      <c r="H392" s="19" t="s">
         <v>1405</v>
       </c>
-      <c r="I392" s="5" t="s">
+      <c r="I392" s="19" t="s">
         <v>1406</v>
       </c>
-      <c r="K392" s="5">
+      <c r="K392" s="19">
         <v>-31</v>
       </c>
-      <c r="L392" s="5">
-        <v>0</v>
-      </c>
-      <c r="M392" s="5">
-        <v>0</v>
-      </c>
-      <c r="N392" s="5" t="s">
+      <c r="L392" s="19">
+        <v>0</v>
+      </c>
+      <c r="M392" s="19">
+        <v>0</v>
+      </c>
+      <c r="N392" s="19" t="s">
         <v>482</v>
       </c>
-      <c r="O392" s="5">
+      <c r="O392" s="19">
         <v>9800</v>
       </c>
-      <c r="P392" s="5" t="s">
+      <c r="P392" s="19" t="s">
         <v>1407</v>
       </c>
-      <c r="Q392" s="10" t="s">
+      <c r="Q392" s="39" t="s">
         <v>1408</v>
       </c>
-      <c r="V392" s="5" t="s">
+      <c r="V392" s="19" t="s">
         <v>536</v>
       </c>
-      <c r="W392" s="5">
+      <c r="W392" s="19">
         <v>9999999</v>
       </c>
-      <c r="X392" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y392" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z392" s="5">
+      <c r="X392" s="49">
+        <v>1605571200</v>
+      </c>
+      <c r="Y392" s="49">
+        <v>1606147199</v>
+      </c>
+      <c r="Z392" s="19">
         <v>46</v>
       </c>
-      <c r="AG392" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH392" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK392" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL392" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A393" s="5">
+      <c r="AG392" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH392" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK392" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL392" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A393" s="19">
         <v>392</v>
       </c>
-      <c r="B393" s="5">
+      <c r="B393" s="19">
         <v>10309</v>
       </c>
-      <c r="F393" s="5">
-        <v>1</v>
-      </c>
-      <c r="G393" s="5" t="s">
+      <c r="F393" s="19">
+        <v>1</v>
+      </c>
+      <c r="G393" s="19" t="s">
         <v>1380</v>
       </c>
-      <c r="H393" s="5" t="s">
+      <c r="H393" s="19" t="s">
         <v>1409</v>
       </c>
-      <c r="I393" s="5" t="s">
+      <c r="I393" s="19" t="s">
         <v>1410</v>
       </c>
-      <c r="K393" s="5">
+      <c r="K393" s="19">
         <v>-31</v>
       </c>
-      <c r="L393" s="5">
-        <v>0</v>
-      </c>
-      <c r="M393" s="5">
-        <v>0</v>
-      </c>
-      <c r="N393" s="5" t="s">
+      <c r="L393" s="19">
+        <v>0</v>
+      </c>
+      <c r="M393" s="19">
+        <v>0</v>
+      </c>
+      <c r="N393" s="19" t="s">
         <v>482</v>
       </c>
-      <c r="O393" s="5">
+      <c r="O393" s="19">
         <v>19800</v>
       </c>
-      <c r="P393" s="5" t="s">
+      <c r="P393" s="19" t="s">
         <v>1411</v>
       </c>
-      <c r="Q393" s="10" t="s">
+      <c r="Q393" s="39" t="s">
         <v>1404</v>
       </c>
-      <c r="V393" s="5" t="s">
+      <c r="V393" s="19" t="s">
         <v>536</v>
       </c>
-      <c r="W393" s="5">
+      <c r="W393" s="19">
         <v>9999999</v>
       </c>
-      <c r="X393" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y393" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z393" s="5">
+      <c r="X393" s="49">
+        <v>1605571200</v>
+      </c>
+      <c r="Y393" s="49">
+        <v>1606147199</v>
+      </c>
+      <c r="Z393" s="19">
         <v>46</v>
       </c>
-      <c r="AG393" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH393" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK393" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL393" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="394" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A394" s="5">
+      <c r="AG393" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH393" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK393" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL393" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A394" s="19">
         <v>393</v>
       </c>
-      <c r="B394" s="5">
+      <c r="B394" s="19">
         <v>10310</v>
       </c>
-      <c r="F394" s="5">
-        <v>1</v>
-      </c>
-      <c r="G394" s="5" t="s">
+      <c r="F394" s="19">
+        <v>1</v>
+      </c>
+      <c r="G394" s="19" t="s">
         <v>1386</v>
       </c>
-      <c r="H394" s="5" t="s">
+      <c r="H394" s="19" t="s">
         <v>1412</v>
       </c>
-      <c r="I394" s="5" t="s">
+      <c r="I394" s="19" t="s">
         <v>1413</v>
       </c>
-      <c r="K394" s="5">
+      <c r="K394" s="19">
         <v>-31</v>
       </c>
-      <c r="L394" s="5">
-        <v>0</v>
-      </c>
-      <c r="M394" s="5">
-        <v>0</v>
-      </c>
-      <c r="N394" s="5" t="s">
+      <c r="L394" s="19">
+        <v>0</v>
+      </c>
+      <c r="M394" s="19">
+        <v>0</v>
+      </c>
+      <c r="N394" s="19" t="s">
         <v>1414</v>
       </c>
-      <c r="O394" s="5">
+      <c r="O394" s="19">
         <v>49800</v>
       </c>
-      <c r="P394" s="5" t="s">
+      <c r="P394" s="19" t="s">
         <v>1415</v>
       </c>
-      <c r="Q394" s="10" t="s">
+      <c r="Q394" s="39" t="s">
         <v>1416</v>
       </c>
-      <c r="V394" s="5" t="s">
+      <c r="V394" s="19" t="s">
         <v>536</v>
       </c>
-      <c r="W394" s="5">
+      <c r="W394" s="19">
         <v>9999999</v>
       </c>
-      <c r="X394" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y394" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z394" s="5">
+      <c r="X394" s="49">
+        <v>1605571200</v>
+      </c>
+      <c r="Y394" s="49">
+        <v>1606147199</v>
+      </c>
+      <c r="Z394" s="19">
         <v>46</v>
       </c>
-      <c r="AG394" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH394" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK394" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL394" s="5">
+      <c r="AG394" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH394" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK394" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL394" s="19">
         <v>1</v>
       </c>
     </row>
@@ -36024,393 +36531,393 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:38" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A408" s="51">
+    <row r="408" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A408" s="49">
         <v>407</v>
       </c>
-      <c r="B408" s="51">
+      <c r="B408" s="49">
         <v>10324</v>
       </c>
-      <c r="F408" s="51">
-        <v>1</v>
-      </c>
-      <c r="G408" s="51" t="s">
+      <c r="F408" s="49">
+        <v>1</v>
+      </c>
+      <c r="G408" s="49" t="s">
         <v>1505</v>
       </c>
-      <c r="I408" s="51" t="s">
+      <c r="I408" s="49" t="s">
         <v>1506</v>
       </c>
-      <c r="K408" s="51">
+      <c r="K408" s="49">
         <v>-31</v>
       </c>
-      <c r="L408" s="51">
-        <v>0</v>
-      </c>
-      <c r="M408" s="51">
-        <v>0</v>
-      </c>
-      <c r="N408" s="51" t="s">
+      <c r="L408" s="49">
+        <v>0</v>
+      </c>
+      <c r="M408" s="49">
+        <v>0</v>
+      </c>
+      <c r="N408" s="49" t="s">
         <v>1507</v>
       </c>
-      <c r="O408" s="51">
+      <c r="O408" s="49">
         <v>600</v>
       </c>
-      <c r="P408" s="51" t="s">
+      <c r="P408" s="49" t="s">
         <v>1508</v>
       </c>
-      <c r="Q408" s="52" t="s">
+      <c r="Q408" s="50" t="s">
         <v>1509</v>
       </c>
-      <c r="V408" s="51" t="s">
+      <c r="V408" s="49" t="s">
         <v>568</v>
       </c>
-      <c r="W408" s="51">
+      <c r="W408" s="49">
         <v>99999999</v>
       </c>
-      <c r="X408" s="51">
+      <c r="X408" s="49">
         <v>1603152000</v>
       </c>
-      <c r="Y408" s="51">
+      <c r="Y408" s="49">
         <v>1603727999</v>
       </c>
-      <c r="Z408" s="51">
+      <c r="Z408" s="49">
         <v>48</v>
       </c>
-      <c r="AG408" s="51">
-        <v>1</v>
-      </c>
-      <c r="AH408" s="51">
-        <v>1</v>
-      </c>
-      <c r="AK408" s="51">
-        <v>1</v>
-      </c>
-      <c r="AL408" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="409" spans="1:38" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A409" s="51">
+      <c r="AG408" s="49">
+        <v>1</v>
+      </c>
+      <c r="AH408" s="49">
+        <v>1</v>
+      </c>
+      <c r="AK408" s="49">
+        <v>1</v>
+      </c>
+      <c r="AL408" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A409" s="49">
         <v>408</v>
       </c>
-      <c r="B409" s="51">
+      <c r="B409" s="49">
         <v>10325</v>
       </c>
-      <c r="F409" s="51">
-        <v>1</v>
-      </c>
-      <c r="G409" s="51" t="s">
+      <c r="F409" s="49">
+        <v>1</v>
+      </c>
+      <c r="G409" s="49" t="s">
         <v>1496</v>
       </c>
-      <c r="I409" s="51" t="s">
+      <c r="I409" s="49" t="s">
         <v>1510</v>
       </c>
-      <c r="K409" s="51">
+      <c r="K409" s="49">
         <v>-31</v>
       </c>
-      <c r="L409" s="51">
-        <v>0</v>
-      </c>
-      <c r="M409" s="51">
-        <v>0</v>
-      </c>
-      <c r="N409" s="51" t="s">
+      <c r="L409" s="49">
+        <v>0</v>
+      </c>
+      <c r="M409" s="49">
+        <v>0</v>
+      </c>
+      <c r="N409" s="49" t="s">
         <v>1507</v>
       </c>
-      <c r="O409" s="51">
+      <c r="O409" s="49">
         <v>2000</v>
       </c>
-      <c r="P409" s="51" t="s">
+      <c r="P409" s="49" t="s">
         <v>1508</v>
       </c>
-      <c r="Q409" s="52" t="s">
+      <c r="Q409" s="50" t="s">
         <v>1511</v>
       </c>
-      <c r="V409" s="51" t="s">
+      <c r="V409" s="49" t="s">
         <v>1512</v>
       </c>
-      <c r="W409" s="51">
+      <c r="W409" s="49">
         <v>99999999</v>
       </c>
-      <c r="X409" s="51">
+      <c r="X409" s="49">
         <v>1603152000</v>
       </c>
-      <c r="Y409" s="51">
+      <c r="Y409" s="49">
         <v>1603727999</v>
       </c>
-      <c r="Z409" s="51">
+      <c r="Z409" s="49">
         <v>48</v>
       </c>
-      <c r="AG409" s="51">
-        <v>1</v>
-      </c>
-      <c r="AH409" s="51">
-        <v>1</v>
-      </c>
-      <c r="AK409" s="51">
-        <v>1</v>
-      </c>
-      <c r="AL409" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="410" spans="1:38" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A410" s="51">
+      <c r="AG409" s="49">
+        <v>1</v>
+      </c>
+      <c r="AH409" s="49">
+        <v>1</v>
+      </c>
+      <c r="AK409" s="49">
+        <v>1</v>
+      </c>
+      <c r="AL409" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A410" s="49">
         <v>409</v>
       </c>
-      <c r="B410" s="51">
+      <c r="B410" s="49">
         <v>10326</v>
       </c>
-      <c r="F410" s="51">
-        <v>1</v>
-      </c>
-      <c r="G410" s="51" t="s">
+      <c r="F410" s="49">
+        <v>1</v>
+      </c>
+      <c r="G410" s="49" t="s">
         <v>1497</v>
       </c>
-      <c r="I410" s="51" t="s">
+      <c r="I410" s="49" t="s">
         <v>1513</v>
       </c>
-      <c r="K410" s="51">
+      <c r="K410" s="49">
         <v>-31</v>
       </c>
-      <c r="L410" s="51">
-        <v>0</v>
-      </c>
-      <c r="M410" s="51">
-        <v>0</v>
-      </c>
-      <c r="N410" s="51" t="s">
+      <c r="L410" s="49">
+        <v>0</v>
+      </c>
+      <c r="M410" s="49">
+        <v>0</v>
+      </c>
+      <c r="N410" s="49" t="s">
         <v>1507</v>
       </c>
-      <c r="O410" s="51">
+      <c r="O410" s="49">
         <v>4800</v>
       </c>
-      <c r="P410" s="51" t="s">
+      <c r="P410" s="49" t="s">
         <v>1508</v>
       </c>
-      <c r="Q410" s="52" t="s">
+      <c r="Q410" s="50" t="s">
         <v>1514</v>
       </c>
-      <c r="V410" s="51" t="s">
+      <c r="V410" s="49" t="s">
         <v>568</v>
       </c>
-      <c r="W410" s="51">
+      <c r="W410" s="49">
         <v>99999999</v>
       </c>
-      <c r="X410" s="51">
+      <c r="X410" s="49">
         <v>1603152000</v>
       </c>
-      <c r="Y410" s="51">
+      <c r="Y410" s="49">
         <v>1603727999</v>
       </c>
-      <c r="Z410" s="51">
+      <c r="Z410" s="49">
         <v>48</v>
       </c>
-      <c r="AG410" s="51">
-        <v>1</v>
-      </c>
-      <c r="AH410" s="51">
-        <v>1</v>
-      </c>
-      <c r="AK410" s="51">
-        <v>1</v>
-      </c>
-      <c r="AL410" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="411" spans="1:38" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A411" s="51">
+      <c r="AG410" s="49">
+        <v>1</v>
+      </c>
+      <c r="AH410" s="49">
+        <v>1</v>
+      </c>
+      <c r="AK410" s="49">
+        <v>1</v>
+      </c>
+      <c r="AL410" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A411" s="49">
         <v>410</v>
       </c>
-      <c r="B411" s="51">
+      <c r="B411" s="49">
         <v>10327</v>
       </c>
-      <c r="F411" s="51">
-        <v>1</v>
-      </c>
-      <c r="G411" s="51" t="s">
+      <c r="F411" s="49">
+        <v>1</v>
+      </c>
+      <c r="G411" s="49" t="s">
         <v>1515</v>
       </c>
-      <c r="I411" s="51" t="s">
+      <c r="I411" s="49" t="s">
         <v>1498</v>
       </c>
-      <c r="K411" s="51">
+      <c r="K411" s="49">
         <v>-31</v>
       </c>
-      <c r="L411" s="51">
-        <v>0</v>
-      </c>
-      <c r="M411" s="51">
-        <v>0</v>
-      </c>
-      <c r="N411" s="51" t="s">
+      <c r="L411" s="49">
+        <v>0</v>
+      </c>
+      <c r="M411" s="49">
+        <v>0</v>
+      </c>
+      <c r="N411" s="49" t="s">
         <v>484</v>
       </c>
-      <c r="O411" s="51">
+      <c r="O411" s="49">
         <v>9800</v>
       </c>
-      <c r="P411" s="51" t="s">
+      <c r="P411" s="49" t="s">
         <v>1508</v>
       </c>
-      <c r="Q411" s="52" t="s">
+      <c r="Q411" s="50" t="s">
         <v>1516</v>
       </c>
-      <c r="V411" s="51" t="s">
+      <c r="V411" s="49" t="s">
         <v>1512</v>
       </c>
-      <c r="W411" s="51">
+      <c r="W411" s="49">
         <v>99999999</v>
       </c>
-      <c r="X411" s="51">
+      <c r="X411" s="49">
         <v>1603152000</v>
       </c>
-      <c r="Y411" s="51">
+      <c r="Y411" s="49">
         <v>1603727999</v>
       </c>
-      <c r="Z411" s="51">
+      <c r="Z411" s="49">
         <v>48</v>
       </c>
-      <c r="AG411" s="51">
-        <v>1</v>
-      </c>
-      <c r="AH411" s="51">
-        <v>1</v>
-      </c>
-      <c r="AK411" s="51">
-        <v>1</v>
-      </c>
-      <c r="AL411" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="412" spans="1:38" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A412" s="51">
+      <c r="AG411" s="49">
+        <v>1</v>
+      </c>
+      <c r="AH411" s="49">
+        <v>1</v>
+      </c>
+      <c r="AK411" s="49">
+        <v>1</v>
+      </c>
+      <c r="AL411" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A412" s="49">
         <v>411</v>
       </c>
-      <c r="B412" s="51">
+      <c r="B412" s="49">
         <v>10328</v>
       </c>
-      <c r="F412" s="51">
-        <v>1</v>
-      </c>
-      <c r="G412" s="51" t="s">
+      <c r="F412" s="49">
+        <v>1</v>
+      </c>
+      <c r="G412" s="49" t="s">
         <v>1517</v>
       </c>
-      <c r="I412" s="51" t="s">
+      <c r="I412" s="49" t="s">
         <v>1518</v>
       </c>
-      <c r="K412" s="51">
+      <c r="K412" s="49">
         <v>-31</v>
       </c>
-      <c r="L412" s="51">
-        <v>0</v>
-      </c>
-      <c r="M412" s="51">
-        <v>0</v>
-      </c>
-      <c r="N412" s="51" t="s">
+      <c r="L412" s="49">
+        <v>0</v>
+      </c>
+      <c r="M412" s="49">
+        <v>0</v>
+      </c>
+      <c r="N412" s="49" t="s">
         <v>484</v>
       </c>
-      <c r="O412" s="51">
+      <c r="O412" s="49">
         <v>19800</v>
       </c>
-      <c r="P412" s="51" t="s">
+      <c r="P412" s="49" t="s">
         <v>1495</v>
       </c>
-      <c r="Q412" s="52" t="s">
+      <c r="Q412" s="50" t="s">
         <v>1519</v>
       </c>
-      <c r="V412" s="51" t="s">
+      <c r="V412" s="49" t="s">
         <v>568</v>
       </c>
-      <c r="W412" s="51">
+      <c r="W412" s="49">
         <v>99999999</v>
       </c>
-      <c r="X412" s="51">
+      <c r="X412" s="49">
         <v>1603152000</v>
       </c>
-      <c r="Y412" s="51">
+      <c r="Y412" s="49">
         <v>1603727999</v>
       </c>
-      <c r="Z412" s="51">
+      <c r="Z412" s="49">
         <v>48</v>
       </c>
-      <c r="AG412" s="51">
-        <v>1</v>
-      </c>
-      <c r="AH412" s="51">
-        <v>1</v>
-      </c>
-      <c r="AK412" s="51">
-        <v>1</v>
-      </c>
-      <c r="AL412" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="413" spans="1:38" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A413" s="51">
+      <c r="AG412" s="49">
+        <v>1</v>
+      </c>
+      <c r="AH412" s="49">
+        <v>1</v>
+      </c>
+      <c r="AK412" s="49">
+        <v>1</v>
+      </c>
+      <c r="AL412" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A413" s="49">
         <v>412</v>
       </c>
-      <c r="B413" s="51">
+      <c r="B413" s="49">
         <v>10329</v>
       </c>
-      <c r="F413" s="51">
-        <v>1</v>
-      </c>
-      <c r="G413" s="51" t="s">
+      <c r="F413" s="49">
+        <v>1</v>
+      </c>
+      <c r="G413" s="49" t="s">
         <v>1520</v>
       </c>
-      <c r="I413" s="51" t="s">
+      <c r="I413" s="49" t="s">
         <v>1521</v>
       </c>
-      <c r="K413" s="51">
+      <c r="K413" s="49">
         <v>-31</v>
       </c>
-      <c r="L413" s="51">
-        <v>0</v>
-      </c>
-      <c r="M413" s="51">
-        <v>0</v>
-      </c>
-      <c r="N413" s="51" t="s">
+      <c r="L413" s="49">
+        <v>0</v>
+      </c>
+      <c r="M413" s="49">
+        <v>0</v>
+      </c>
+      <c r="N413" s="49" t="s">
         <v>484</v>
       </c>
-      <c r="O413" s="51">
+      <c r="O413" s="49">
         <v>49800</v>
       </c>
-      <c r="P413" s="51" t="s">
+      <c r="P413" s="49" t="s">
         <v>1495</v>
       </c>
-      <c r="Q413" s="52" t="s">
+      <c r="Q413" s="50" t="s">
         <v>1522</v>
       </c>
-      <c r="V413" s="51" t="s">
+      <c r="V413" s="49" t="s">
         <v>1512</v>
       </c>
-      <c r="W413" s="51">
+      <c r="W413" s="49">
         <v>99999999</v>
       </c>
-      <c r="X413" s="51">
+      <c r="X413" s="49">
         <v>1603152000</v>
       </c>
-      <c r="Y413" s="51">
+      <c r="Y413" s="49">
         <v>1603727999</v>
       </c>
-      <c r="Z413" s="51">
+      <c r="Z413" s="49">
         <v>48</v>
       </c>
-      <c r="AG413" s="51">
-        <v>1</v>
-      </c>
-      <c r="AH413" s="51">
-        <v>1</v>
-      </c>
-      <c r="AK413" s="51">
-        <v>1</v>
-      </c>
-      <c r="AL413" s="51">
+      <c r="AG413" s="49">
+        <v>1</v>
+      </c>
+      <c r="AH413" s="49">
+        <v>1</v>
+      </c>
+      <c r="AK413" s="49">
+        <v>1</v>
+      </c>
+      <c r="AL413" s="49">
         <v>1</v>
       </c>
     </row>
@@ -36507,7 +37014,7 @@
       <c r="P415" s="5" t="s">
         <v>1538</v>
       </c>
-      <c r="Q415" s="54" t="s">
+      <c r="Q415" s="52" t="s">
         <v>1539</v>
       </c>
       <c r="V415" s="6" t="s">
@@ -36575,7 +37082,7 @@
       <c r="P416" s="5" t="s">
         <v>1541</v>
       </c>
-      <c r="Q416" s="54" t="s">
+      <c r="Q416" s="52" t="s">
         <v>1539</v>
       </c>
       <c r="V416" s="6" t="s">
@@ -36643,7 +37150,7 @@
       <c r="P417" s="5" t="s">
         <v>1195</v>
       </c>
-      <c r="Q417" s="54" t="s">
+      <c r="Q417" s="52" t="s">
         <v>1539</v>
       </c>
       <c r="V417" s="6" t="s">
@@ -36711,7 +37218,7 @@
       <c r="P418" s="5" t="s">
         <v>1197</v>
       </c>
-      <c r="Q418" s="54" t="s">
+      <c r="Q418" s="52" t="s">
         <v>1191</v>
       </c>
       <c r="V418" s="6" t="s">
@@ -36779,7 +37286,7 @@
       <c r="P419" s="5" t="s">
         <v>1199</v>
       </c>
-      <c r="Q419" s="54" t="s">
+      <c r="Q419" s="52" t="s">
         <v>1539</v>
       </c>
       <c r="V419" s="6" t="s">
@@ -36847,7 +37354,7 @@
       <c r="P420" s="5" t="s">
         <v>1200</v>
       </c>
-      <c r="Q420" s="54" t="s">
+      <c r="Q420" s="52" t="s">
         <v>1539</v>
       </c>
       <c r="V420" s="6" t="s">
@@ -36946,207 +37453,207 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A422" s="55">
+    <row r="422" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A422" s="53">
         <v>421</v>
       </c>
-      <c r="B422" s="55">
+      <c r="B422" s="53">
         <v>10338</v>
       </c>
-      <c r="F422" s="55">
-        <v>1</v>
-      </c>
-      <c r="G422" s="55" t="s">
+      <c r="F422" s="53">
+        <v>1</v>
+      </c>
+      <c r="G422" s="53" t="s">
         <v>1578</v>
       </c>
-      <c r="H422" s="55" t="s">
+      <c r="H422" s="53" t="s">
         <v>1579</v>
       </c>
-      <c r="I422" s="55" t="s">
+      <c r="I422" s="53" t="s">
         <v>1580</v>
       </c>
-      <c r="K422" s="55">
+      <c r="K422" s="53">
         <v>-31</v>
       </c>
-      <c r="L422" s="55">
-        <v>0</v>
-      </c>
-      <c r="M422" s="55">
-        <v>0</v>
-      </c>
-      <c r="N422" s="55" t="s">
+      <c r="L422" s="53">
+        <v>0</v>
+      </c>
+      <c r="M422" s="53">
+        <v>0</v>
+      </c>
+      <c r="N422" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="O422" s="55">
+      <c r="O422" s="53">
         <v>2000</v>
       </c>
-      <c r="P422" s="55" t="s">
+      <c r="P422" s="53" t="s">
         <v>1581</v>
       </c>
-      <c r="Q422" s="56" t="s">
+      <c r="Q422" s="54" t="s">
         <v>1582</v>
       </c>
-      <c r="V422" s="55" t="s">
+      <c r="V422" s="53" t="s">
         <v>1583</v>
       </c>
-      <c r="W422" s="55">
+      <c r="W422" s="53">
         <v>99999999</v>
       </c>
-      <c r="X422" s="55">
+      <c r="X422" s="53">
         <v>1603756800</v>
       </c>
-      <c r="Y422" s="55">
+      <c r="Y422" s="53">
         <v>2552233600</v>
       </c>
-      <c r="Z422" s="55">
+      <c r="Z422" s="53">
         <v>51</v>
       </c>
-      <c r="AG422" s="55">
-        <v>1</v>
-      </c>
-      <c r="AH422" s="55">
-        <v>1</v>
-      </c>
-      <c r="AK422" s="55">
-        <v>1</v>
-      </c>
-      <c r="AL422" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A423" s="55">
+      <c r="AG422" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH422" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK422" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL422" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A423" s="53">
         <v>422</v>
       </c>
-      <c r="B423" s="55">
+      <c r="B423" s="53">
         <v>10339</v>
       </c>
-      <c r="F423" s="55">
-        <v>1</v>
-      </c>
-      <c r="G423" s="55" t="s">
+      <c r="F423" s="53">
+        <v>1</v>
+      </c>
+      <c r="G423" s="53" t="s">
         <v>1554</v>
       </c>
-      <c r="H423" s="55" t="s">
+      <c r="H423" s="53" t="s">
         <v>1553</v>
       </c>
-      <c r="I423" s="55" t="s">
+      <c r="I423" s="53" t="s">
         <v>1584</v>
       </c>
-      <c r="K423" s="55">
+      <c r="K423" s="53">
         <v>-31</v>
       </c>
-      <c r="L423" s="55">
-        <v>0</v>
-      </c>
-      <c r="M423" s="55">
-        <v>0</v>
-      </c>
-      <c r="N423" s="55" t="s">
+      <c r="L423" s="53">
+        <v>0</v>
+      </c>
+      <c r="M423" s="53">
+        <v>0</v>
+      </c>
+      <c r="N423" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="O423" s="55">
+      <c r="O423" s="53">
         <v>5800</v>
       </c>
-      <c r="P423" s="55" t="s">
+      <c r="P423" s="53" t="s">
         <v>1585</v>
       </c>
-      <c r="Q423" s="56" t="s">
+      <c r="Q423" s="54" t="s">
         <v>1586</v>
       </c>
-      <c r="V423" s="55" t="s">
+      <c r="V423" s="53" t="s">
         <v>1052</v>
       </c>
-      <c r="W423" s="55">
+      <c r="W423" s="53">
         <v>99999999</v>
       </c>
-      <c r="X423" s="55">
+      <c r="X423" s="53">
         <v>1603756800</v>
       </c>
-      <c r="Y423" s="55">
+      <c r="Y423" s="53">
         <v>2552233600</v>
       </c>
-      <c r="Z423" s="55">
+      <c r="Z423" s="53">
         <v>51</v>
       </c>
-      <c r="AG423" s="55">
-        <v>1</v>
-      </c>
-      <c r="AH423" s="55">
-        <v>1</v>
-      </c>
-      <c r="AK423" s="55">
-        <v>1</v>
-      </c>
-      <c r="AL423" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A424" s="55">
+      <c r="AG423" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH423" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK423" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL423" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A424" s="53">
         <v>423</v>
       </c>
-      <c r="B424" s="55">
+      <c r="B424" s="53">
         <v>10340</v>
       </c>
-      <c r="F424" s="55">
-        <v>1</v>
-      </c>
-      <c r="G424" s="55" t="s">
+      <c r="F424" s="53">
+        <v>1</v>
+      </c>
+      <c r="G424" s="53" t="s">
         <v>1587</v>
       </c>
-      <c r="H424" s="55" t="s">
+      <c r="H424" s="53" t="s">
         <v>1553</v>
       </c>
-      <c r="I424" s="55" t="s">
+      <c r="I424" s="53" t="s">
         <v>1588</v>
       </c>
-      <c r="K424" s="55">
+      <c r="K424" s="53">
         <v>-31</v>
       </c>
-      <c r="L424" s="55">
-        <v>0</v>
-      </c>
-      <c r="M424" s="55">
-        <v>0</v>
-      </c>
-      <c r="N424" s="55" t="s">
+      <c r="L424" s="53">
+        <v>0</v>
+      </c>
+      <c r="M424" s="53">
+        <v>0</v>
+      </c>
+      <c r="N424" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="O424" s="55">
+      <c r="O424" s="53">
         <v>12800</v>
       </c>
-      <c r="P424" s="55" t="s">
+      <c r="P424" s="53" t="s">
         <v>1589</v>
       </c>
-      <c r="Q424" s="56" t="s">
+      <c r="Q424" s="54" t="s">
         <v>1590</v>
       </c>
-      <c r="V424" s="55" t="s">
+      <c r="V424" s="53" t="s">
         <v>1052</v>
       </c>
-      <c r="W424" s="55">
+      <c r="W424" s="53">
         <v>99999999</v>
       </c>
-      <c r="X424" s="55">
+      <c r="X424" s="53">
         <v>1603756800</v>
       </c>
-      <c r="Y424" s="55">
+      <c r="Y424" s="53">
         <v>2552233600</v>
       </c>
-      <c r="Z424" s="55">
+      <c r="Z424" s="53">
         <v>51</v>
       </c>
-      <c r="AG424" s="55">
-        <v>1</v>
-      </c>
-      <c r="AH424" s="55">
-        <v>1</v>
-      </c>
-      <c r="AK424" s="55">
-        <v>1</v>
-      </c>
-      <c r="AL424" s="55">
+      <c r="AG424" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH424" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK424" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL424" s="53">
         <v>1</v>
       </c>
     </row>
@@ -37184,7 +37691,7 @@
       <c r="P425" s="6" t="s">
         <v>1557</v>
       </c>
-      <c r="Q425" s="54" t="s">
+      <c r="Q425" s="52" t="s">
         <v>1558</v>
       </c>
       <c r="V425" s="6" t="s">
@@ -37240,7 +37747,7 @@
       <c r="P426" s="6" t="s">
         <v>1561</v>
       </c>
-      <c r="Q426" s="54" t="s">
+      <c r="Q426" s="52" t="s">
         <v>1558</v>
       </c>
       <c r="V426" s="6" t="s">
@@ -37296,7 +37803,7 @@
       <c r="P427" s="6" t="s">
         <v>1563</v>
       </c>
-      <c r="Q427" s="54" t="s">
+      <c r="Q427" s="52" t="s">
         <v>1558</v>
       </c>
       <c r="V427" s="6" t="s">
@@ -37352,7 +37859,7 @@
       <c r="P428" s="6" t="s">
         <v>1566</v>
       </c>
-      <c r="Q428" s="54" t="s">
+      <c r="Q428" s="52" t="s">
         <v>1558</v>
       </c>
       <c r="V428" s="6" t="s">
@@ -37408,7 +37915,7 @@
       <c r="P429" s="6" t="s">
         <v>1568</v>
       </c>
-      <c r="Q429" s="54" t="s">
+      <c r="Q429" s="52" t="s">
         <v>1558</v>
       </c>
       <c r="V429" s="6" t="s">
@@ -37702,830 +38209,2757 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A434" s="57">
+    <row r="434" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A434" s="55">
         <v>433</v>
       </c>
-      <c r="B434" s="57">
+      <c r="B434" s="55">
         <v>10350</v>
       </c>
-      <c r="F434" s="57">
-        <v>1</v>
-      </c>
-      <c r="G434" s="57" t="s">
+      <c r="F434" s="55">
+        <v>1</v>
+      </c>
+      <c r="G434" s="55" t="s">
         <v>1453</v>
       </c>
-      <c r="H434" s="57" t="s">
+      <c r="H434" s="55" t="s">
         <v>1594</v>
       </c>
-      <c r="I434" s="57" t="s">
+      <c r="I434" s="55" t="s">
         <v>1595</v>
       </c>
-      <c r="K434" s="57">
+      <c r="K434" s="55">
         <v>-31</v>
       </c>
-      <c r="L434" s="57">
-        <v>0</v>
-      </c>
-      <c r="M434" s="57">
-        <v>0</v>
-      </c>
-      <c r="N434" s="57" t="s">
+      <c r="L434" s="55">
+        <v>0</v>
+      </c>
+      <c r="M434" s="55">
+        <v>0</v>
+      </c>
+      <c r="N434" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="O434" s="57">
+      <c r="O434" s="55">
         <v>1800</v>
       </c>
-      <c r="P434" s="57" t="s">
+      <c r="P434" s="55" t="s">
         <v>1596</v>
       </c>
-      <c r="Q434" s="58" t="s">
+      <c r="Q434" s="56" t="s">
         <v>1457</v>
       </c>
-      <c r="V434" s="57" t="s">
+      <c r="V434" s="55" t="s">
         <v>529</v>
       </c>
-      <c r="W434" s="57">
+      <c r="W434" s="55">
         <v>9999999</v>
       </c>
-      <c r="X434" s="57">
+      <c r="X434" s="55">
         <v>1604359800</v>
       </c>
-      <c r="Y434" s="57">
+      <c r="Y434" s="55">
         <v>1604937599</v>
       </c>
-      <c r="AG434" s="57">
-        <v>1</v>
-      </c>
-      <c r="AH434" s="57">
-        <v>1</v>
-      </c>
-      <c r="AK434" s="57">
-        <v>1</v>
-      </c>
-      <c r="AL434" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="435" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A435" s="57">
+      <c r="AG434" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH434" s="55">
+        <v>1</v>
+      </c>
+      <c r="AK434" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL434" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A435" s="55">
         <v>434</v>
       </c>
-      <c r="B435" s="57">
+      <c r="B435" s="55">
         <v>10351</v>
       </c>
-      <c r="F435" s="57">
-        <v>1</v>
-      </c>
-      <c r="G435" s="57" t="s">
+      <c r="F435" s="55">
+        <v>1</v>
+      </c>
+      <c r="G435" s="55" t="s">
         <v>1597</v>
       </c>
-      <c r="H435" s="57" t="s">
+      <c r="H435" s="55" t="s">
         <v>1598</v>
       </c>
-      <c r="I435" s="57" t="s">
+      <c r="I435" s="55" t="s">
         <v>1599</v>
       </c>
-      <c r="K435" s="57">
+      <c r="K435" s="55">
         <v>-31</v>
       </c>
-      <c r="L435" s="57">
-        <v>0</v>
-      </c>
-      <c r="M435" s="57">
-        <v>0</v>
-      </c>
-      <c r="N435" s="57" t="s">
+      <c r="L435" s="55">
+        <v>0</v>
+      </c>
+      <c r="M435" s="55">
+        <v>0</v>
+      </c>
+      <c r="N435" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="O435" s="57">
+      <c r="O435" s="55">
         <v>4800</v>
       </c>
-      <c r="P435" s="57" t="s">
+      <c r="P435" s="55" t="s">
         <v>1596</v>
       </c>
-      <c r="Q435" s="58" t="s">
+      <c r="Q435" s="56" t="s">
         <v>1600</v>
       </c>
-      <c r="V435" s="57" t="s">
+      <c r="V435" s="55" t="s">
         <v>529</v>
       </c>
-      <c r="W435" s="57">
+      <c r="W435" s="55">
         <v>9999999</v>
       </c>
-      <c r="X435" s="57">
+      <c r="X435" s="55">
         <v>1604359800</v>
       </c>
-      <c r="Y435" s="57">
+      <c r="Y435" s="55">
         <v>1604937599</v>
       </c>
-      <c r="AG435" s="57">
-        <v>1</v>
-      </c>
-      <c r="AH435" s="57">
-        <v>1</v>
-      </c>
-      <c r="AK435" s="57">
-        <v>1</v>
-      </c>
-      <c r="AL435" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="436" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A436" s="57">
+      <c r="AG435" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH435" s="55">
+        <v>1</v>
+      </c>
+      <c r="AK435" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL435" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A436" s="55">
         <v>435</v>
       </c>
-      <c r="B436" s="57">
+      <c r="B436" s="55">
         <v>10352</v>
       </c>
-      <c r="F436" s="57">
-        <v>1</v>
-      </c>
-      <c r="G436" s="57" t="s">
+      <c r="F436" s="55">
+        <v>1</v>
+      </c>
+      <c r="G436" s="55" t="s">
         <v>1601</v>
       </c>
-      <c r="H436" s="57" t="s">
+      <c r="H436" s="55" t="s">
         <v>1602</v>
       </c>
-      <c r="I436" s="57" t="s">
+      <c r="I436" s="55" t="s">
         <v>1603</v>
       </c>
-      <c r="K436" s="57">
+      <c r="K436" s="55">
         <v>-31</v>
       </c>
-      <c r="L436" s="57">
-        <v>0</v>
-      </c>
-      <c r="M436" s="57">
-        <v>0</v>
-      </c>
-      <c r="N436" s="57" t="s">
+      <c r="L436" s="55">
+        <v>0</v>
+      </c>
+      <c r="M436" s="55">
+        <v>0</v>
+      </c>
+      <c r="N436" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="O436" s="57">
+      <c r="O436" s="55">
         <v>9800</v>
       </c>
-      <c r="P436" s="57" t="s">
+      <c r="P436" s="55" t="s">
         <v>1604</v>
       </c>
-      <c r="Q436" s="58" t="s">
+      <c r="Q436" s="56" t="s">
         <v>1605</v>
       </c>
-      <c r="V436" s="57" t="s">
+      <c r="V436" s="55" t="s">
         <v>529</v>
       </c>
-      <c r="W436" s="57">
+      <c r="W436" s="55">
         <v>9999999</v>
       </c>
-      <c r="X436" s="57">
+      <c r="X436" s="55">
         <v>1604359800</v>
       </c>
-      <c r="Y436" s="57">
+      <c r="Y436" s="55">
         <v>1604937599</v>
       </c>
-      <c r="AG436" s="57">
-        <v>1</v>
-      </c>
-      <c r="AH436" s="57">
-        <v>1</v>
-      </c>
-      <c r="AK436" s="57">
-        <v>1</v>
-      </c>
-      <c r="AL436" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="437" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A437" s="57">
+      <c r="AG436" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH436" s="55">
+        <v>1</v>
+      </c>
+      <c r="AK436" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL436" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A437" s="55">
         <v>436</v>
       </c>
-      <c r="B437" s="57">
+      <c r="B437" s="55">
         <v>10353</v>
       </c>
-      <c r="F437" s="57">
-        <v>1</v>
-      </c>
-      <c r="G437" s="57" t="s">
+      <c r="F437" s="55">
+        <v>1</v>
+      </c>
+      <c r="G437" s="55" t="s">
         <v>1467</v>
       </c>
-      <c r="H437" s="57" t="s">
+      <c r="H437" s="55" t="s">
         <v>1594</v>
       </c>
-      <c r="I437" s="57" t="s">
+      <c r="I437" s="55" t="s">
         <v>1606</v>
       </c>
-      <c r="K437" s="57">
+      <c r="K437" s="55">
         <v>-31</v>
       </c>
-      <c r="L437" s="57">
-        <v>0</v>
-      </c>
-      <c r="M437" s="57">
-        <v>0</v>
-      </c>
-      <c r="N437" s="57" t="s">
+      <c r="L437" s="55">
+        <v>0</v>
+      </c>
+      <c r="M437" s="55">
+        <v>0</v>
+      </c>
+      <c r="N437" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="O437" s="57">
+      <c r="O437" s="55">
         <v>19800</v>
       </c>
-      <c r="P437" s="57" t="s">
+      <c r="P437" s="55" t="s">
         <v>1607</v>
       </c>
-      <c r="Q437" s="58" t="s">
+      <c r="Q437" s="56" t="s">
         <v>1608</v>
       </c>
-      <c r="V437" s="57" t="s">
+      <c r="V437" s="55" t="s">
         <v>529</v>
       </c>
-      <c r="W437" s="57">
+      <c r="W437" s="55">
         <v>9999999</v>
       </c>
-      <c r="X437" s="57">
+      <c r="X437" s="55">
         <v>1604359800</v>
       </c>
-      <c r="Y437" s="57">
+      <c r="Y437" s="55">
         <v>1604937599</v>
       </c>
-      <c r="AG437" s="57">
-        <v>1</v>
-      </c>
-      <c r="AH437" s="57">
-        <v>1</v>
-      </c>
-      <c r="AK437" s="57">
-        <v>1</v>
-      </c>
-      <c r="AL437" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="438" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A438" s="57">
+      <c r="AG437" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH437" s="55">
+        <v>1</v>
+      </c>
+      <c r="AK437" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL437" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A438" s="55">
         <v>437</v>
       </c>
-      <c r="B438" s="57">
+      <c r="B438" s="55">
         <v>10354</v>
       </c>
-      <c r="F438" s="57">
-        <v>1</v>
-      </c>
-      <c r="G438" s="57" t="s">
+      <c r="F438" s="55">
+        <v>1</v>
+      </c>
+      <c r="G438" s="55" t="s">
         <v>1609</v>
       </c>
-      <c r="H438" s="57" t="s">
+      <c r="H438" s="55" t="s">
         <v>1594</v>
       </c>
-      <c r="I438" s="57" t="s">
+      <c r="I438" s="55" t="s">
         <v>1610</v>
       </c>
-      <c r="K438" s="57">
+      <c r="K438" s="55">
         <v>-31</v>
       </c>
-      <c r="L438" s="57">
-        <v>0</v>
-      </c>
-      <c r="M438" s="57">
-        <v>0</v>
-      </c>
-      <c r="N438" s="57" t="s">
+      <c r="L438" s="55">
+        <v>0</v>
+      </c>
+      <c r="M438" s="55">
+        <v>0</v>
+      </c>
+      <c r="N438" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="O438" s="57">
+      <c r="O438" s="55">
         <v>29800</v>
       </c>
-      <c r="P438" s="57" t="s">
+      <c r="P438" s="55" t="s">
         <v>1604</v>
       </c>
-      <c r="Q438" s="58" t="s">
+      <c r="Q438" s="56" t="s">
         <v>1473</v>
       </c>
-      <c r="V438" s="57" t="s">
+      <c r="V438" s="55" t="s">
         <v>529</v>
       </c>
-      <c r="W438" s="57">
+      <c r="W438" s="55">
         <v>9999999</v>
       </c>
-      <c r="X438" s="57">
+      <c r="X438" s="55">
         <v>1604359800</v>
       </c>
-      <c r="Y438" s="57">
+      <c r="Y438" s="55">
         <v>1604937599</v>
       </c>
-      <c r="AG438" s="57">
-        <v>1</v>
-      </c>
-      <c r="AH438" s="57">
-        <v>1</v>
-      </c>
-      <c r="AK438" s="57">
-        <v>1</v>
-      </c>
-      <c r="AL438" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="439" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A439" s="57">
+      <c r="AG438" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH438" s="55">
+        <v>1</v>
+      </c>
+      <c r="AK438" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL438" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A439" s="55">
         <v>438</v>
       </c>
-      <c r="B439" s="57">
+      <c r="B439" s="55">
         <v>10355</v>
       </c>
-      <c r="F439" s="57">
-        <v>1</v>
-      </c>
-      <c r="G439" s="57" t="s">
+      <c r="F439" s="55">
+        <v>1</v>
+      </c>
+      <c r="G439" s="55" t="s">
         <v>1611</v>
       </c>
-      <c r="H439" s="57" t="s">
+      <c r="H439" s="55" t="s">
         <v>1594</v>
       </c>
-      <c r="I439" s="57" t="s">
+      <c r="I439" s="55" t="s">
         <v>1612</v>
       </c>
-      <c r="K439" s="57">
+      <c r="K439" s="55">
         <v>-31</v>
       </c>
-      <c r="L439" s="57">
-        <v>0</v>
-      </c>
-      <c r="M439" s="57">
-        <v>0</v>
-      </c>
-      <c r="N439" s="57" t="s">
+      <c r="L439" s="55">
+        <v>0</v>
+      </c>
+      <c r="M439" s="55">
+        <v>0</v>
+      </c>
+      <c r="N439" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="O439" s="57">
+      <c r="O439" s="55">
         <v>49800</v>
       </c>
-      <c r="P439" s="57" t="s">
+      <c r="P439" s="55" t="s">
         <v>1613</v>
       </c>
-      <c r="Q439" s="58" t="s">
+      <c r="Q439" s="56" t="s">
         <v>1614</v>
       </c>
-      <c r="V439" s="57" t="s">
+      <c r="V439" s="55" t="s">
         <v>529</v>
       </c>
-      <c r="W439" s="57">
+      <c r="W439" s="55">
         <v>9999999</v>
       </c>
-      <c r="X439" s="57">
+      <c r="X439" s="55">
         <v>1604359800</v>
       </c>
-      <c r="Y439" s="57">
+      <c r="Y439" s="55">
         <v>1604937599</v>
       </c>
-      <c r="AG439" s="57">
-        <v>1</v>
-      </c>
-      <c r="AH439" s="57">
-        <v>1</v>
-      </c>
-      <c r="AK439" s="57">
-        <v>1</v>
-      </c>
-      <c r="AL439" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="440" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A440" s="57">
+      <c r="AG439" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH439" s="55">
+        <v>1</v>
+      </c>
+      <c r="AK439" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL439" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A440" s="55">
         <v>439</v>
       </c>
-      <c r="B440" s="57">
+      <c r="B440" s="55">
         <v>10356</v>
       </c>
-      <c r="F440" s="57">
-        <v>1</v>
-      </c>
-      <c r="G440" s="57" t="s">
+      <c r="F440" s="55">
+        <v>1</v>
+      </c>
+      <c r="G440" s="55" t="s">
         <v>1615</v>
       </c>
-      <c r="H440" s="57" t="s">
+      <c r="H440" s="55" t="s">
         <v>1602</v>
       </c>
-      <c r="I440" s="57" t="s">
+      <c r="I440" s="55" t="s">
         <v>1616</v>
       </c>
-      <c r="K440" s="57">
+      <c r="K440" s="55">
         <v>-31</v>
       </c>
-      <c r="L440" s="57">
-        <v>0</v>
-      </c>
-      <c r="M440" s="57">
-        <v>0</v>
-      </c>
-      <c r="N440" s="57" t="s">
+      <c r="L440" s="55">
+        <v>0</v>
+      </c>
+      <c r="M440" s="55">
+        <v>0</v>
+      </c>
+      <c r="N440" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="O440" s="57">
+      <c r="O440" s="55">
         <v>99800</v>
       </c>
-      <c r="P440" s="57" t="s">
+      <c r="P440" s="55" t="s">
         <v>1613</v>
       </c>
-      <c r="Q440" s="58" t="s">
+      <c r="Q440" s="56" t="s">
         <v>1617</v>
       </c>
-      <c r="V440" s="57" t="s">
+      <c r="V440" s="55" t="s">
         <v>529</v>
       </c>
-      <c r="W440" s="57">
+      <c r="W440" s="55">
         <v>9999999</v>
       </c>
-      <c r="X440" s="57">
+      <c r="X440" s="55">
         <v>1604359800</v>
       </c>
-      <c r="Y440" s="57">
+      <c r="Y440" s="55">
         <v>1604937599</v>
       </c>
-      <c r="AG440" s="57">
-        <v>1</v>
-      </c>
-      <c r="AH440" s="57">
-        <v>1</v>
-      </c>
-      <c r="AK440" s="57">
-        <v>1</v>
-      </c>
-      <c r="AL440" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="441" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A441" s="55">
+      <c r="AG440" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH440" s="55">
+        <v>1</v>
+      </c>
+      <c r="AK440" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL440" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A441" s="53">
         <v>440</v>
       </c>
-      <c r="B441" s="55">
+      <c r="B441" s="53">
         <v>10357</v>
       </c>
-      <c r="F441" s="55">
-        <v>1</v>
-      </c>
-      <c r="G441" s="55" t="s">
+      <c r="F441" s="53">
+        <v>1</v>
+      </c>
+      <c r="G441" s="53" t="s">
         <v>1618</v>
       </c>
-      <c r="I441" s="55" t="s">
+      <c r="I441" s="53" t="s">
         <v>1619</v>
       </c>
-      <c r="K441" s="55">
+      <c r="K441" s="53">
         <v>-31</v>
       </c>
-      <c r="L441" s="55">
-        <v>0</v>
-      </c>
-      <c r="M441" s="55">
-        <v>0</v>
-      </c>
-      <c r="N441" s="55" t="s">
+      <c r="L441" s="53">
+        <v>0</v>
+      </c>
+      <c r="M441" s="53">
+        <v>0</v>
+      </c>
+      <c r="N441" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="O441" s="55">
+      <c r="O441" s="53">
         <v>49800</v>
       </c>
-      <c r="P441" s="55" t="s">
+      <c r="P441" s="53" t="s">
         <v>1620</v>
       </c>
-      <c r="Q441" s="56" t="s">
+      <c r="Q441" s="54" t="s">
         <v>1621</v>
       </c>
-      <c r="V441" s="55" t="s">
+      <c r="V441" s="53" t="s">
         <v>1622</v>
       </c>
-      <c r="W441" s="55">
+      <c r="W441" s="53">
         <v>9999999</v>
       </c>
-      <c r="X441" s="55">
+      <c r="X441" s="53">
         <v>1604966400</v>
       </c>
-      <c r="Y441" s="55">
+      <c r="Y441" s="53">
         <v>1605542399</v>
       </c>
-      <c r="AG441" s="55">
-        <v>1</v>
-      </c>
-      <c r="AH441" s="55">
-        <v>1</v>
-      </c>
-      <c r="AK441" s="55">
-        <v>1</v>
-      </c>
-      <c r="AL441" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="442" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A442" s="55">
+      <c r="AG441" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH441" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK441" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL441" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A442" s="53">
         <v>441</v>
       </c>
-      <c r="B442" s="55">
+      <c r="B442" s="53">
         <v>10358</v>
       </c>
-      <c r="F442" s="55">
-        <v>1</v>
-      </c>
-      <c r="G442" s="55" t="s">
+      <c r="F442" s="53">
+        <v>1</v>
+      </c>
+      <c r="G442" s="53" t="s">
         <v>1623</v>
       </c>
-      <c r="I442" s="55" t="s">
+      <c r="I442" s="53" t="s">
         <v>1624</v>
       </c>
-      <c r="K442" s="55">
+      <c r="K442" s="53">
         <v>-31</v>
       </c>
-      <c r="L442" s="55">
-        <v>0</v>
-      </c>
-      <c r="M442" s="55">
-        <v>0</v>
-      </c>
-      <c r="N442" s="55" t="s">
+      <c r="L442" s="53">
+        <v>0</v>
+      </c>
+      <c r="M442" s="53">
+        <v>0</v>
+      </c>
+      <c r="N442" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="O442" s="55">
+      <c r="O442" s="53">
         <v>19800</v>
       </c>
-      <c r="P442" s="55" t="s">
+      <c r="P442" s="53" t="s">
         <v>1620</v>
       </c>
-      <c r="Q442" s="56" t="s">
+      <c r="Q442" s="54" t="s">
         <v>1625</v>
       </c>
-      <c r="V442" s="55" t="s">
+      <c r="V442" s="53" t="s">
         <v>1622</v>
       </c>
-      <c r="W442" s="55">
+      <c r="W442" s="53">
         <v>9999999</v>
       </c>
-      <c r="X442" s="55">
+      <c r="X442" s="53">
         <v>1604966400</v>
       </c>
-      <c r="Y442" s="55">
+      <c r="Y442" s="53">
         <v>1605542399</v>
       </c>
-      <c r="AG442" s="55">
-        <v>1</v>
-      </c>
-      <c r="AH442" s="55">
-        <v>1</v>
-      </c>
-      <c r="AK442" s="55">
-        <v>1</v>
-      </c>
-      <c r="AL442" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="443" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A443" s="55">
+      <c r="AG442" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH442" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK442" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL442" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A443" s="53">
         <v>442</v>
       </c>
-      <c r="B443" s="55">
+      <c r="B443" s="53">
         <v>10359</v>
       </c>
-      <c r="F443" s="55">
-        <v>1</v>
-      </c>
-      <c r="G443" s="55" t="s">
+      <c r="F443" s="53">
+        <v>1</v>
+      </c>
+      <c r="G443" s="53" t="s">
         <v>1626</v>
       </c>
-      <c r="I443" s="55" t="s">
+      <c r="I443" s="53" t="s">
         <v>1627</v>
       </c>
-      <c r="K443" s="55">
+      <c r="K443" s="53">
         <v>-31</v>
       </c>
-      <c r="L443" s="55">
-        <v>0</v>
-      </c>
-      <c r="M443" s="55">
-        <v>0</v>
-      </c>
-      <c r="N443" s="55" t="s">
+      <c r="L443" s="53">
+        <v>0</v>
+      </c>
+      <c r="M443" s="53">
+        <v>0</v>
+      </c>
+      <c r="N443" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="O443" s="55">
+      <c r="O443" s="53">
         <v>9800</v>
       </c>
-      <c r="P443" s="55" t="s">
+      <c r="P443" s="53" t="s">
         <v>1620</v>
       </c>
-      <c r="Q443" s="56" t="s">
+      <c r="Q443" s="54" t="s">
         <v>1628</v>
       </c>
-      <c r="V443" s="55" t="s">
+      <c r="V443" s="53" t="s">
         <v>1622</v>
       </c>
-      <c r="W443" s="55">
+      <c r="W443" s="53">
         <v>9999999</v>
       </c>
-      <c r="X443" s="55">
+      <c r="X443" s="53">
         <v>1604966400</v>
       </c>
-      <c r="Y443" s="55">
+      <c r="Y443" s="53">
         <v>1605542399</v>
       </c>
-      <c r="AG443" s="55">
-        <v>1</v>
-      </c>
-      <c r="AH443" s="55">
-        <v>1</v>
-      </c>
-      <c r="AK443" s="55">
-        <v>1</v>
-      </c>
-      <c r="AL443" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="444" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A444" s="55">
+      <c r="AG443" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH443" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK443" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL443" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A444" s="53">
         <v>443</v>
       </c>
-      <c r="B444" s="55">
+      <c r="B444" s="53">
         <v>10360</v>
       </c>
-      <c r="F444" s="55">
-        <v>1</v>
-      </c>
-      <c r="G444" s="55" t="s">
+      <c r="F444" s="53">
+        <v>1</v>
+      </c>
+      <c r="G444" s="53" t="s">
         <v>1629</v>
       </c>
-      <c r="I444" s="55" t="s">
+      <c r="I444" s="53" t="s">
         <v>1630</v>
       </c>
-      <c r="K444" s="55">
+      <c r="K444" s="53">
         <v>-31</v>
       </c>
-      <c r="L444" s="55">
-        <v>0</v>
-      </c>
-      <c r="M444" s="55">
-        <v>0</v>
-      </c>
-      <c r="N444" s="55" t="s">
+      <c r="L444" s="53">
+        <v>0</v>
+      </c>
+      <c r="M444" s="53">
+        <v>0</v>
+      </c>
+      <c r="N444" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="O444" s="55">
+      <c r="O444" s="53">
         <v>4800</v>
       </c>
-      <c r="P444" s="55" t="s">
+      <c r="P444" s="53" t="s">
         <v>1620</v>
       </c>
-      <c r="Q444" s="56" t="s">
+      <c r="Q444" s="54" t="s">
         <v>1631</v>
       </c>
-      <c r="V444" s="55" t="s">
+      <c r="V444" s="53" t="s">
         <v>1632</v>
       </c>
-      <c r="W444" s="55">
+      <c r="W444" s="53">
         <v>9999999</v>
       </c>
-      <c r="X444" s="55">
+      <c r="X444" s="53">
         <v>1604966400</v>
       </c>
-      <c r="Y444" s="55">
+      <c r="Y444" s="53">
         <v>1605542399</v>
       </c>
-      <c r="AG444" s="55">
-        <v>1</v>
-      </c>
-      <c r="AH444" s="55">
-        <v>1</v>
-      </c>
-      <c r="AK444" s="55">
-        <v>1</v>
-      </c>
-      <c r="AL444" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="445" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A445" s="55">
+      <c r="AG444" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH444" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK444" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL444" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A445" s="53">
         <v>444</v>
       </c>
-      <c r="B445" s="55">
+      <c r="B445" s="53">
         <v>10361</v>
       </c>
-      <c r="F445" s="55">
-        <v>1</v>
-      </c>
-      <c r="G445" s="55" t="s">
+      <c r="F445" s="53">
+        <v>1</v>
+      </c>
+      <c r="G445" s="53" t="s">
         <v>1633</v>
       </c>
-      <c r="I445" s="55" t="s">
+      <c r="I445" s="53" t="s">
         <v>1634</v>
       </c>
-      <c r="K445" s="55">
+      <c r="K445" s="53">
         <v>-31</v>
       </c>
-      <c r="L445" s="55">
-        <v>0</v>
-      </c>
-      <c r="M445" s="55">
-        <v>0</v>
-      </c>
-      <c r="N445" s="55" t="s">
+      <c r="L445" s="53">
+        <v>0</v>
+      </c>
+      <c r="M445" s="53">
+        <v>0</v>
+      </c>
+      <c r="N445" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="O445" s="55">
+      <c r="O445" s="53">
         <v>2000</v>
       </c>
-      <c r="P445" s="55" t="s">
+      <c r="P445" s="53" t="s">
         <v>1620</v>
       </c>
-      <c r="Q445" s="56" t="s">
+      <c r="Q445" s="54" t="s">
         <v>1635</v>
       </c>
-      <c r="V445" s="55" t="s">
+      <c r="V445" s="53" t="s">
         <v>1266</v>
       </c>
-      <c r="W445" s="55">
+      <c r="W445" s="53">
         <v>9999999</v>
       </c>
-      <c r="X445" s="55">
+      <c r="X445" s="53">
         <v>1604966400</v>
       </c>
-      <c r="Y445" s="55">
+      <c r="Y445" s="53">
         <v>1605542399</v>
       </c>
-      <c r="AG445" s="55">
-        <v>1</v>
-      </c>
-      <c r="AH445" s="55">
-        <v>1</v>
-      </c>
-      <c r="AK445" s="55">
-        <v>1</v>
-      </c>
-      <c r="AL445" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="446" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A446" s="55">
+      <c r="AG445" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH445" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK445" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL445" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A446" s="53">
         <v>445</v>
       </c>
-      <c r="B446" s="55">
+      <c r="B446" s="53">
         <v>10362</v>
       </c>
-      <c r="F446" s="55">
-        <v>1</v>
-      </c>
-      <c r="G446" s="55" t="s">
+      <c r="F446" s="53">
+        <v>1</v>
+      </c>
+      <c r="G446" s="53" t="s">
         <v>1636</v>
       </c>
-      <c r="I446" s="55" t="s">
+      <c r="I446" s="53" t="s">
         <v>1637</v>
       </c>
-      <c r="K446" s="55">
+      <c r="K446" s="53">
         <v>-31</v>
       </c>
-      <c r="L446" s="55">
-        <v>0</v>
-      </c>
-      <c r="M446" s="55">
-        <v>0</v>
-      </c>
-      <c r="N446" s="55" t="s">
+      <c r="L446" s="53">
+        <v>0</v>
+      </c>
+      <c r="M446" s="53">
+        <v>0</v>
+      </c>
+      <c r="N446" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="O446" s="55">
+      <c r="O446" s="53">
         <v>600</v>
       </c>
-      <c r="P446" s="55" t="s">
+      <c r="P446" s="53" t="s">
         <v>1620</v>
       </c>
-      <c r="Q446" s="56" t="s">
+      <c r="Q446" s="54" t="s">
         <v>1638</v>
       </c>
-      <c r="V446" s="55" t="s">
+      <c r="V446" s="53" t="s">
         <v>1266</v>
       </c>
-      <c r="W446" s="55">
+      <c r="W446" s="53">
         <v>9999999</v>
       </c>
-      <c r="X446" s="55">
+      <c r="X446" s="53">
         <v>1604966400</v>
       </c>
-      <c r="Y446" s="55">
+      <c r="Y446" s="53">
         <v>1605542399</v>
       </c>
-      <c r="AG446" s="55">
-        <v>1</v>
-      </c>
-      <c r="AH446" s="55">
-        <v>1</v>
-      </c>
-      <c r="AK446" s="55">
-        <v>1</v>
-      </c>
-      <c r="AL446" s="55">
+      <c r="AG446" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH446" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK446" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL446" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A447" s="57">
+        <v>446</v>
+      </c>
+      <c r="B447" s="57">
+        <v>10363</v>
+      </c>
+      <c r="F447" s="57">
+        <v>1</v>
+      </c>
+      <c r="G447" s="57" t="s">
+        <v>1639</v>
+      </c>
+      <c r="H447" s="57" t="s">
+        <v>1640</v>
+      </c>
+      <c r="I447" s="57" t="s">
+        <v>1641</v>
+      </c>
+      <c r="K447" s="57">
+        <v>-31</v>
+      </c>
+      <c r="L447" s="57">
+        <v>0</v>
+      </c>
+      <c r="M447" s="57">
+        <v>0</v>
+      </c>
+      <c r="N447" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="O447" s="57">
+        <v>800</v>
+      </c>
+      <c r="P447" s="57" t="s">
+        <v>1642</v>
+      </c>
+      <c r="Q447" s="58" t="s">
+        <v>1643</v>
+      </c>
+      <c r="V447" s="5" t="s">
+        <v>1266</v>
+      </c>
+      <c r="W447" s="57">
+        <v>9999999</v>
+      </c>
+      <c r="X447" s="57">
+        <v>1605571200</v>
+      </c>
+      <c r="Y447" s="57">
+        <v>2552233600</v>
+      </c>
+      <c r="Z447" s="57">
+        <v>52</v>
+      </c>
+      <c r="AG447" s="57">
+        <v>1</v>
+      </c>
+      <c r="AH447" s="57">
+        <v>1</v>
+      </c>
+      <c r="AK447" s="57">
+        <v>1</v>
+      </c>
+      <c r="AL447" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A448" s="57">
+        <v>447</v>
+      </c>
+      <c r="B448" s="57">
+        <v>10364</v>
+      </c>
+      <c r="F448" s="57">
+        <v>1</v>
+      </c>
+      <c r="G448" s="57" t="s">
+        <v>1644</v>
+      </c>
+      <c r="H448" s="57" t="s">
+        <v>1645</v>
+      </c>
+      <c r="I448" s="57" t="s">
+        <v>1646</v>
+      </c>
+      <c r="K448" s="57">
+        <v>-31</v>
+      </c>
+      <c r="L448" s="57">
+        <v>0</v>
+      </c>
+      <c r="M448" s="57">
+        <v>0</v>
+      </c>
+      <c r="N448" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="O448" s="57">
+        <v>800</v>
+      </c>
+      <c r="P448" s="57" t="s">
+        <v>1642</v>
+      </c>
+      <c r="Q448" s="58" t="s">
+        <v>1647</v>
+      </c>
+      <c r="V448" s="5" t="s">
+        <v>1648</v>
+      </c>
+      <c r="W448" s="57">
+        <v>9999999</v>
+      </c>
+      <c r="X448" s="57">
+        <v>1605571200</v>
+      </c>
+      <c r="Y448" s="57">
+        <v>2552233600</v>
+      </c>
+      <c r="AG448" s="57">
+        <v>1</v>
+      </c>
+      <c r="AH448" s="57">
+        <v>1</v>
+      </c>
+      <c r="AK448" s="57">
+        <v>1</v>
+      </c>
+      <c r="AL448" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A449" s="57">
+        <v>448</v>
+      </c>
+      <c r="B449" s="57">
+        <v>10365</v>
+      </c>
+      <c r="F449" s="57">
+        <v>1</v>
+      </c>
+      <c r="G449" s="57" t="s">
+        <v>1649</v>
+      </c>
+      <c r="H449" s="57" t="s">
+        <v>1650</v>
+      </c>
+      <c r="I449" s="57" t="s">
+        <v>1651</v>
+      </c>
+      <c r="K449" s="57">
+        <v>-31</v>
+      </c>
+      <c r="L449" s="57">
+        <v>0</v>
+      </c>
+      <c r="M449" s="57">
+        <v>0</v>
+      </c>
+      <c r="N449" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="O449" s="57">
+        <v>800</v>
+      </c>
+      <c r="P449" s="57" t="s">
+        <v>1642</v>
+      </c>
+      <c r="Q449" s="58" t="s">
+        <v>1652</v>
+      </c>
+      <c r="V449" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="W449" s="57">
+        <v>9999999</v>
+      </c>
+      <c r="X449" s="57">
+        <v>1605571200</v>
+      </c>
+      <c r="Y449" s="57">
+        <v>2552233600</v>
+      </c>
+      <c r="Z449" s="57">
+        <v>53</v>
+      </c>
+      <c r="AG449" s="57">
+        <v>1</v>
+      </c>
+      <c r="AH449" s="57">
+        <v>1</v>
+      </c>
+      <c r="AK449" s="57">
+        <v>1</v>
+      </c>
+      <c r="AL449" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A450" s="59">
+        <v>449</v>
+      </c>
+      <c r="B450" s="59">
+        <v>10366</v>
+      </c>
+      <c r="F450" s="59">
+        <v>1</v>
+      </c>
+      <c r="G450" s="59" t="s">
+        <v>1653</v>
+      </c>
+      <c r="H450" s="59" t="s">
+        <v>1654</v>
+      </c>
+      <c r="I450" s="59" t="s">
+        <v>1655</v>
+      </c>
+      <c r="K450" s="59">
+        <v>-31</v>
+      </c>
+      <c r="L450" s="59">
+        <v>0</v>
+      </c>
+      <c r="M450" s="59">
+        <v>0</v>
+      </c>
+      <c r="N450" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="O450" s="59">
+        <v>3800</v>
+      </c>
+      <c r="P450" s="59" t="s">
+        <v>1642</v>
+      </c>
+      <c r="Q450" s="60" t="s">
+        <v>1656</v>
+      </c>
+      <c r="V450" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="W450" s="59">
+        <v>9999999</v>
+      </c>
+      <c r="X450" s="59">
+        <v>1605571200</v>
+      </c>
+      <c r="Y450" s="59">
+        <v>2552233600</v>
+      </c>
+      <c r="Z450" s="59">
+        <v>54</v>
+      </c>
+      <c r="AG450" s="59">
+        <v>1</v>
+      </c>
+      <c r="AH450" s="59">
+        <v>1</v>
+      </c>
+      <c r="AK450" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL450" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A451" s="59">
+        <v>450</v>
+      </c>
+      <c r="B451" s="59">
+        <v>10367</v>
+      </c>
+      <c r="F451" s="59">
+        <v>1</v>
+      </c>
+      <c r="G451" s="59" t="s">
+        <v>1657</v>
+      </c>
+      <c r="H451" s="59" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I451" s="59" t="s">
+        <v>1659</v>
+      </c>
+      <c r="K451" s="59">
+        <v>-31</v>
+      </c>
+      <c r="L451" s="59">
+        <v>0</v>
+      </c>
+      <c r="M451" s="59">
+        <v>0</v>
+      </c>
+      <c r="N451" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="O451" s="59">
+        <v>3800</v>
+      </c>
+      <c r="P451" s="59" t="s">
+        <v>1642</v>
+      </c>
+      <c r="Q451" s="60" t="s">
+        <v>1660</v>
+      </c>
+      <c r="V451" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="W451" s="59">
+        <v>9999999</v>
+      </c>
+      <c r="X451" s="59">
+        <v>1605571200</v>
+      </c>
+      <c r="Y451" s="59">
+        <v>2552233600</v>
+      </c>
+      <c r="AG451" s="59">
+        <v>1</v>
+      </c>
+      <c r="AH451" s="59">
+        <v>1</v>
+      </c>
+      <c r="AK451" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL451" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:38" s="59" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A452" s="59">
+        <v>451</v>
+      </c>
+      <c r="B452" s="59">
+        <v>10368</v>
+      </c>
+      <c r="F452" s="59">
+        <v>1</v>
+      </c>
+      <c r="G452" s="59" t="s">
+        <v>1661</v>
+      </c>
+      <c r="H452" s="59" t="s">
+        <v>1662</v>
+      </c>
+      <c r="I452" s="59" t="s">
+        <v>1663</v>
+      </c>
+      <c r="K452" s="59">
+        <v>-31</v>
+      </c>
+      <c r="L452" s="59">
+        <v>0</v>
+      </c>
+      <c r="M452" s="59">
+        <v>0</v>
+      </c>
+      <c r="N452" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="O452" s="59">
+        <v>3800</v>
+      </c>
+      <c r="P452" s="59" t="s">
+        <v>1642</v>
+      </c>
+      <c r="Q452" s="60" t="s">
+        <v>1664</v>
+      </c>
+      <c r="V452" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="W452" s="59">
+        <v>9999999</v>
+      </c>
+      <c r="X452" s="59">
+        <v>1605571200</v>
+      </c>
+      <c r="Y452" s="59">
+        <v>2552233600</v>
+      </c>
+      <c r="Z452" s="59">
+        <v>55</v>
+      </c>
+      <c r="AG452" s="59">
+        <v>1</v>
+      </c>
+      <c r="AH452" s="59">
+        <v>1</v>
+      </c>
+      <c r="AK452" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL452" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A453" s="57">
+        <v>452</v>
+      </c>
+      <c r="B453" s="57">
+        <v>10369</v>
+      </c>
+      <c r="F453" s="57">
+        <v>1</v>
+      </c>
+      <c r="G453" s="57" t="s">
+        <v>1665</v>
+      </c>
+      <c r="H453" s="57" t="s">
+        <v>1666</v>
+      </c>
+      <c r="I453" s="57" t="s">
+        <v>1667</v>
+      </c>
+      <c r="K453" s="57">
+        <v>-31</v>
+      </c>
+      <c r="L453" s="57">
+        <v>0</v>
+      </c>
+      <c r="M453" s="57">
+        <v>0</v>
+      </c>
+      <c r="N453" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="O453" s="57">
+        <v>9800</v>
+      </c>
+      <c r="P453" s="57" t="s">
+        <v>1642</v>
+      </c>
+      <c r="Q453" s="58" t="s">
+        <v>1668</v>
+      </c>
+      <c r="V453" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="W453" s="57">
+        <v>9999999</v>
+      </c>
+      <c r="X453" s="57">
+        <v>1605571200</v>
+      </c>
+      <c r="Y453" s="57">
+        <v>2552233600</v>
+      </c>
+      <c r="Z453" s="57">
+        <v>56</v>
+      </c>
+      <c r="AG453" s="57">
+        <v>1</v>
+      </c>
+      <c r="AH453" s="57">
+        <v>1</v>
+      </c>
+      <c r="AK453" s="57">
+        <v>1</v>
+      </c>
+      <c r="AL453" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A454" s="57">
+        <v>453</v>
+      </c>
+      <c r="B454" s="57">
+        <v>10370</v>
+      </c>
+      <c r="F454" s="57">
+        <v>1</v>
+      </c>
+      <c r="G454" s="57" t="s">
+        <v>1669</v>
+      </c>
+      <c r="H454" s="57" t="s">
+        <v>1670</v>
+      </c>
+      <c r="I454" s="57" t="s">
+        <v>1671</v>
+      </c>
+      <c r="K454" s="57">
+        <v>-31</v>
+      </c>
+      <c r="L454" s="57">
+        <v>0</v>
+      </c>
+      <c r="M454" s="57">
+        <v>0</v>
+      </c>
+      <c r="N454" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="O454" s="57">
+        <v>9800</v>
+      </c>
+      <c r="P454" s="57" t="s">
+        <v>1059</v>
+      </c>
+      <c r="Q454" s="58" t="s">
+        <v>1672</v>
+      </c>
+      <c r="V454" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="W454" s="57">
+        <v>9999999</v>
+      </c>
+      <c r="X454" s="57">
+        <v>1605571200</v>
+      </c>
+      <c r="Y454" s="57">
+        <v>2552233600</v>
+      </c>
+      <c r="AG454" s="57">
+        <v>1</v>
+      </c>
+      <c r="AH454" s="57">
+        <v>1</v>
+      </c>
+      <c r="AK454" s="57">
+        <v>1</v>
+      </c>
+      <c r="AL454" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A455" s="57">
+        <v>454</v>
+      </c>
+      <c r="B455" s="57">
+        <v>10371</v>
+      </c>
+      <c r="F455" s="57">
+        <v>1</v>
+      </c>
+      <c r="G455" s="57" t="s">
+        <v>1673</v>
+      </c>
+      <c r="H455" s="57" t="s">
+        <v>1674</v>
+      </c>
+      <c r="I455" s="57" t="s">
+        <v>1675</v>
+      </c>
+      <c r="K455" s="57">
+        <v>-31</v>
+      </c>
+      <c r="L455" s="57">
+        <v>0</v>
+      </c>
+      <c r="M455" s="57">
+        <v>0</v>
+      </c>
+      <c r="N455" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="O455" s="57">
+        <v>9800</v>
+      </c>
+      <c r="P455" s="57" t="s">
+        <v>1642</v>
+      </c>
+      <c r="Q455" s="58" t="s">
+        <v>1767</v>
+      </c>
+      <c r="V455" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="W455" s="57">
+        <v>9999999</v>
+      </c>
+      <c r="X455" s="57">
+        <v>1605571200</v>
+      </c>
+      <c r="Y455" s="57">
+        <v>2552233600</v>
+      </c>
+      <c r="Z455" s="57">
+        <v>57</v>
+      </c>
+      <c r="AG455" s="57">
+        <v>1</v>
+      </c>
+      <c r="AH455" s="57">
+        <v>1</v>
+      </c>
+      <c r="AK455" s="57">
+        <v>1</v>
+      </c>
+      <c r="AL455" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A456" s="59">
+        <v>455</v>
+      </c>
+      <c r="B456" s="59">
+        <v>10372</v>
+      </c>
+      <c r="F456" s="59">
+        <v>1</v>
+      </c>
+      <c r="G456" s="59" t="s">
+        <v>1676</v>
+      </c>
+      <c r="H456" s="59" t="s">
+        <v>1677</v>
+      </c>
+      <c r="I456" s="59" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K456" s="59">
+        <v>-31</v>
+      </c>
+      <c r="L456" s="59">
+        <v>0</v>
+      </c>
+      <c r="M456" s="59">
+        <v>0</v>
+      </c>
+      <c r="N456" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="O456" s="59">
+        <v>19800</v>
+      </c>
+      <c r="P456" s="59" t="s">
+        <v>1059</v>
+      </c>
+      <c r="Q456" s="60" t="s">
+        <v>1679</v>
+      </c>
+      <c r="V456" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="W456" s="59">
+        <v>9999999</v>
+      </c>
+      <c r="X456" s="59">
+        <v>1605571200</v>
+      </c>
+      <c r="Y456" s="59">
+        <v>2552233600</v>
+      </c>
+      <c r="Z456" s="59">
+        <v>58</v>
+      </c>
+      <c r="AG456" s="59">
+        <v>1</v>
+      </c>
+      <c r="AH456" s="59">
+        <v>1</v>
+      </c>
+      <c r="AK456" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL456" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="59">
+        <v>456</v>
+      </c>
+      <c r="B457" s="59">
+        <v>10373</v>
+      </c>
+      <c r="F457" s="59">
+        <v>1</v>
+      </c>
+      <c r="G457" s="59" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H457" s="59" t="s">
+        <v>1681</v>
+      </c>
+      <c r="I457" s="59" t="s">
+        <v>1682</v>
+      </c>
+      <c r="K457" s="59">
+        <v>-31</v>
+      </c>
+      <c r="L457" s="59">
+        <v>0</v>
+      </c>
+      <c r="M457" s="59">
+        <v>0</v>
+      </c>
+      <c r="N457" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="O457" s="59">
+        <v>19800</v>
+      </c>
+      <c r="P457" s="59" t="s">
+        <v>1642</v>
+      </c>
+      <c r="Q457" s="60" t="s">
+        <v>1683</v>
+      </c>
+      <c r="V457" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="W457" s="59">
+        <v>9999999</v>
+      </c>
+      <c r="X457" s="59">
+        <v>1605571200</v>
+      </c>
+      <c r="Y457" s="59">
+        <v>2552233600</v>
+      </c>
+      <c r="AG457" s="59">
+        <v>1</v>
+      </c>
+      <c r="AH457" s="59">
+        <v>1</v>
+      </c>
+      <c r="AK457" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL457" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A458" s="59">
+        <v>457</v>
+      </c>
+      <c r="B458" s="59">
+        <v>10374</v>
+      </c>
+      <c r="F458" s="59">
+        <v>1</v>
+      </c>
+      <c r="G458" s="59" t="s">
+        <v>1684</v>
+      </c>
+      <c r="H458" s="59" t="s">
+        <v>1685</v>
+      </c>
+      <c r="I458" s="59" t="s">
+        <v>1686</v>
+      </c>
+      <c r="K458" s="59">
+        <v>-31</v>
+      </c>
+      <c r="L458" s="59">
+        <v>0</v>
+      </c>
+      <c r="M458" s="59">
+        <v>0</v>
+      </c>
+      <c r="N458" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="O458" s="59">
+        <v>19800</v>
+      </c>
+      <c r="P458" s="59" t="s">
+        <v>1059</v>
+      </c>
+      <c r="Q458" s="60" t="s">
+        <v>1687</v>
+      </c>
+      <c r="V458" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="W458" s="59">
+        <v>9999999</v>
+      </c>
+      <c r="X458" s="59">
+        <v>1605571200</v>
+      </c>
+      <c r="Y458" s="59">
+        <v>2552233600</v>
+      </c>
+      <c r="Z458" s="59">
+        <v>59</v>
+      </c>
+      <c r="AG458" s="59">
+        <v>1</v>
+      </c>
+      <c r="AH458" s="59">
+        <v>1</v>
+      </c>
+      <c r="AK458" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL458" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A459" s="57">
+        <v>458</v>
+      </c>
+      <c r="B459" s="57">
+        <v>10375</v>
+      </c>
+      <c r="F459" s="57">
+        <v>1</v>
+      </c>
+      <c r="G459" s="57" t="s">
+        <v>1688</v>
+      </c>
+      <c r="H459" s="57" t="s">
+        <v>1689</v>
+      </c>
+      <c r="I459" s="57" t="s">
+        <v>1690</v>
+      </c>
+      <c r="K459" s="57">
+        <v>-31</v>
+      </c>
+      <c r="L459" s="57">
+        <v>0</v>
+      </c>
+      <c r="M459" s="57">
+        <v>0</v>
+      </c>
+      <c r="N459" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="O459" s="57">
+        <v>49800</v>
+      </c>
+      <c r="P459" s="57" t="s">
+        <v>1642</v>
+      </c>
+      <c r="Q459" s="58" t="s">
+        <v>1691</v>
+      </c>
+      <c r="V459" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="W459" s="57">
+        <v>9999999</v>
+      </c>
+      <c r="X459" s="57">
+        <v>1605571200</v>
+      </c>
+      <c r="Y459" s="57">
+        <v>2552233600</v>
+      </c>
+      <c r="Z459" s="57">
+        <v>60</v>
+      </c>
+      <c r="AG459" s="57">
+        <v>1</v>
+      </c>
+      <c r="AH459" s="57">
+        <v>1</v>
+      </c>
+      <c r="AK459" s="57">
+        <v>1</v>
+      </c>
+      <c r="AL459" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A460" s="57">
+        <v>459</v>
+      </c>
+      <c r="B460" s="57">
+        <v>10376</v>
+      </c>
+      <c r="F460" s="57">
+        <v>1</v>
+      </c>
+      <c r="G460" s="57" t="s">
+        <v>1692</v>
+      </c>
+      <c r="H460" s="57" t="s">
+        <v>1693</v>
+      </c>
+      <c r="I460" s="57" t="s">
+        <v>1694</v>
+      </c>
+      <c r="K460" s="57">
+        <v>-31</v>
+      </c>
+      <c r="L460" s="57">
+        <v>0</v>
+      </c>
+      <c r="M460" s="57">
+        <v>0</v>
+      </c>
+      <c r="N460" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="O460" s="57">
+        <v>49800</v>
+      </c>
+      <c r="P460" s="57" t="s">
+        <v>1642</v>
+      </c>
+      <c r="Q460" s="58" t="s">
+        <v>1695</v>
+      </c>
+      <c r="V460" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="W460" s="57">
+        <v>9999999</v>
+      </c>
+      <c r="X460" s="57">
+        <v>1605571200</v>
+      </c>
+      <c r="Y460" s="57">
+        <v>2552233600</v>
+      </c>
+      <c r="AG460" s="57">
+        <v>1</v>
+      </c>
+      <c r="AH460" s="57">
+        <v>1</v>
+      </c>
+      <c r="AK460" s="57">
+        <v>1</v>
+      </c>
+      <c r="AL460" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A461" s="57">
+        <v>460</v>
+      </c>
+      <c r="B461" s="57">
+        <v>10377</v>
+      </c>
+      <c r="F461" s="57">
+        <v>1</v>
+      </c>
+      <c r="G461" s="57" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H461" s="57" t="s">
+        <v>1697</v>
+      </c>
+      <c r="I461" s="57" t="s">
+        <v>1698</v>
+      </c>
+      <c r="K461" s="57">
+        <v>-31</v>
+      </c>
+      <c r="L461" s="57">
+        <v>0</v>
+      </c>
+      <c r="M461" s="57">
+        <v>0</v>
+      </c>
+      <c r="N461" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="O461" s="57">
+        <v>49800</v>
+      </c>
+      <c r="P461" s="57" t="s">
+        <v>1642</v>
+      </c>
+      <c r="Q461" s="58" t="s">
+        <v>1699</v>
+      </c>
+      <c r="V461" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="W461" s="57">
+        <v>9999999</v>
+      </c>
+      <c r="X461" s="57">
+        <v>1605571200</v>
+      </c>
+      <c r="Y461" s="57">
+        <v>2552233600</v>
+      </c>
+      <c r="Z461" s="57">
+        <v>61</v>
+      </c>
+      <c r="AG461" s="57">
+        <v>1</v>
+      </c>
+      <c r="AH461" s="57">
+        <v>1</v>
+      </c>
+      <c r="AK461" s="57">
+        <v>1</v>
+      </c>
+      <c r="AL461" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A462" s="59">
+        <v>461</v>
+      </c>
+      <c r="B462" s="59">
+        <v>10378</v>
+      </c>
+      <c r="F462" s="59">
+        <v>1</v>
+      </c>
+      <c r="G462" s="59" t="s">
+        <v>1700</v>
+      </c>
+      <c r="H462" s="59" t="s">
+        <v>1701</v>
+      </c>
+      <c r="I462" s="59" t="s">
+        <v>1702</v>
+      </c>
+      <c r="K462" s="59">
+        <v>-31</v>
+      </c>
+      <c r="L462" s="59">
+        <v>0</v>
+      </c>
+      <c r="M462" s="59">
+        <v>0</v>
+      </c>
+      <c r="N462" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="O462" s="59">
+        <v>99800</v>
+      </c>
+      <c r="P462" s="59" t="s">
+        <v>1059</v>
+      </c>
+      <c r="Q462" s="60" t="s">
+        <v>1703</v>
+      </c>
+      <c r="V462" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="W462" s="59">
+        <v>9999999</v>
+      </c>
+      <c r="X462" s="59">
+        <v>1605571200</v>
+      </c>
+      <c r="Y462" s="59">
+        <v>2552233600</v>
+      </c>
+      <c r="Z462" s="59">
+        <v>62</v>
+      </c>
+      <c r="AG462" s="59">
+        <v>1</v>
+      </c>
+      <c r="AH462" s="59">
+        <v>1</v>
+      </c>
+      <c r="AK462" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL462" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A463" s="59">
+        <v>462</v>
+      </c>
+      <c r="B463" s="59">
+        <v>10379</v>
+      </c>
+      <c r="F463" s="59">
+        <v>1</v>
+      </c>
+      <c r="G463" s="59" t="s">
+        <v>1704</v>
+      </c>
+      <c r="H463" s="59" t="s">
+        <v>1705</v>
+      </c>
+      <c r="I463" s="59" t="s">
+        <v>1706</v>
+      </c>
+      <c r="K463" s="59">
+        <v>-31</v>
+      </c>
+      <c r="L463" s="59">
+        <v>0</v>
+      </c>
+      <c r="M463" s="59">
+        <v>0</v>
+      </c>
+      <c r="N463" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="O463" s="59">
+        <v>99800</v>
+      </c>
+      <c r="P463" s="59" t="s">
+        <v>1642</v>
+      </c>
+      <c r="Q463" s="60" t="s">
+        <v>1707</v>
+      </c>
+      <c r="V463" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="W463" s="59">
+        <v>9999999</v>
+      </c>
+      <c r="X463" s="59">
+        <v>1605571200</v>
+      </c>
+      <c r="Y463" s="59">
+        <v>2552233600</v>
+      </c>
+      <c r="AG463" s="59">
+        <v>1</v>
+      </c>
+      <c r="AH463" s="59">
+        <v>1</v>
+      </c>
+      <c r="AK463" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL463" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="59">
+        <v>463</v>
+      </c>
+      <c r="B464" s="59">
+        <v>10380</v>
+      </c>
+      <c r="F464" s="59">
+        <v>1</v>
+      </c>
+      <c r="G464" s="59" t="s">
+        <v>1708</v>
+      </c>
+      <c r="H464" s="59" t="s">
+        <v>1709</v>
+      </c>
+      <c r="I464" s="59" t="s">
+        <v>1710</v>
+      </c>
+      <c r="K464" s="59">
+        <v>-31</v>
+      </c>
+      <c r="L464" s="59">
+        <v>0</v>
+      </c>
+      <c r="M464" s="59">
+        <v>0</v>
+      </c>
+      <c r="N464" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="O464" s="59">
+        <v>99800</v>
+      </c>
+      <c r="P464" s="59" t="s">
+        <v>1059</v>
+      </c>
+      <c r="Q464" s="60" t="s">
+        <v>1711</v>
+      </c>
+      <c r="V464" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="W464" s="59">
+        <v>9999999</v>
+      </c>
+      <c r="X464" s="59">
+        <v>1605571200</v>
+      </c>
+      <c r="Y464" s="59">
+        <v>2552233600</v>
+      </c>
+      <c r="Z464" s="59">
+        <v>63</v>
+      </c>
+      <c r="AG464" s="59">
+        <v>1</v>
+      </c>
+      <c r="AH464" s="59">
+        <v>1</v>
+      </c>
+      <c r="AK464" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL464" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A465" s="57">
+        <v>464</v>
+      </c>
+      <c r="B465" s="57">
+        <v>10381</v>
+      </c>
+      <c r="F465" s="57">
+        <v>1</v>
+      </c>
+      <c r="G465" s="57" t="s">
+        <v>1712</v>
+      </c>
+      <c r="H465" s="57" t="s">
+        <v>1713</v>
+      </c>
+      <c r="I465" s="57" t="s">
+        <v>1714</v>
+      </c>
+      <c r="K465" s="57">
+        <v>-31</v>
+      </c>
+      <c r="L465" s="57">
+        <v>0</v>
+      </c>
+      <c r="M465" s="57">
+        <v>0</v>
+      </c>
+      <c r="N465" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="O465" s="57">
+        <v>249800</v>
+      </c>
+      <c r="P465" s="57" t="s">
+        <v>1642</v>
+      </c>
+      <c r="Q465" s="58" t="s">
+        <v>1715</v>
+      </c>
+      <c r="V465" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="W465" s="57">
+        <v>9999999</v>
+      </c>
+      <c r="X465" s="57">
+        <v>1605571200</v>
+      </c>
+      <c r="Y465" s="57">
+        <v>2552233600</v>
+      </c>
+      <c r="Z465" s="57">
+        <v>64</v>
+      </c>
+      <c r="AG465" s="57">
+        <v>1</v>
+      </c>
+      <c r="AH465" s="57">
+        <v>1</v>
+      </c>
+      <c r="AK465" s="57">
+        <v>1</v>
+      </c>
+      <c r="AL465" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A466" s="57">
+        <v>465</v>
+      </c>
+      <c r="B466" s="57">
+        <v>10382</v>
+      </c>
+      <c r="F466" s="57">
+        <v>1</v>
+      </c>
+      <c r="G466" s="57" t="s">
+        <v>1716</v>
+      </c>
+      <c r="H466" s="57" t="s">
+        <v>1717</v>
+      </c>
+      <c r="I466" s="57" t="s">
+        <v>1718</v>
+      </c>
+      <c r="K466" s="57">
+        <v>-31</v>
+      </c>
+      <c r="L466" s="57">
+        <v>0</v>
+      </c>
+      <c r="M466" s="57">
+        <v>0</v>
+      </c>
+      <c r="N466" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="O466" s="57">
+        <v>249800</v>
+      </c>
+      <c r="P466" s="57" t="s">
+        <v>1642</v>
+      </c>
+      <c r="Q466" s="58" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V466" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="W466" s="57">
+        <v>9999999</v>
+      </c>
+      <c r="X466" s="57">
+        <v>1605571200</v>
+      </c>
+      <c r="Y466" s="57">
+        <v>2552233600</v>
+      </c>
+      <c r="AG466" s="57">
+        <v>1</v>
+      </c>
+      <c r="AH466" s="57">
+        <v>1</v>
+      </c>
+      <c r="AK466" s="57">
+        <v>1</v>
+      </c>
+      <c r="AL466" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="57">
+        <v>466</v>
+      </c>
+      <c r="B467" s="57">
+        <v>10383</v>
+      </c>
+      <c r="F467" s="57">
+        <v>1</v>
+      </c>
+      <c r="G467" s="57" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H467" s="57" t="s">
+        <v>1721</v>
+      </c>
+      <c r="I467" s="57" t="s">
+        <v>1722</v>
+      </c>
+      <c r="K467" s="57">
+        <v>-31</v>
+      </c>
+      <c r="L467" s="57">
+        <v>0</v>
+      </c>
+      <c r="M467" s="57">
+        <v>0</v>
+      </c>
+      <c r="N467" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="O467" s="57">
+        <v>249800</v>
+      </c>
+      <c r="P467" s="57" t="s">
+        <v>1642</v>
+      </c>
+      <c r="Q467" s="58" t="s">
+        <v>1723</v>
+      </c>
+      <c r="V467" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="W467" s="57">
+        <v>9999999</v>
+      </c>
+      <c r="X467" s="57">
+        <v>1605571200</v>
+      </c>
+      <c r="Y467" s="57">
+        <v>2552233600</v>
+      </c>
+      <c r="Z467" s="57">
+        <v>65</v>
+      </c>
+      <c r="AG467" s="57">
+        <v>1</v>
+      </c>
+      <c r="AH467" s="57">
+        <v>1</v>
+      </c>
+      <c r="AK467" s="57">
+        <v>1</v>
+      </c>
+      <c r="AL467" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A468" s="61">
+        <v>467</v>
+      </c>
+      <c r="B468" s="61">
+        <v>10384</v>
+      </c>
+      <c r="F468" s="61">
+        <v>1</v>
+      </c>
+      <c r="G468" s="61" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H468" s="61" t="s">
+        <v>1725</v>
+      </c>
+      <c r="I468" s="61" t="s">
+        <v>1726</v>
+      </c>
+      <c r="K468" s="61">
+        <v>-31</v>
+      </c>
+      <c r="L468" s="61">
+        <v>0</v>
+      </c>
+      <c r="M468" s="61">
+        <v>0</v>
+      </c>
+      <c r="N468" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="O468" s="61">
+        <v>600</v>
+      </c>
+      <c r="P468" s="61" t="s">
+        <v>1642</v>
+      </c>
+      <c r="Q468" s="62" t="s">
+        <v>1727</v>
+      </c>
+      <c r="V468" s="61" t="s">
+        <v>1729</v>
+      </c>
+      <c r="W468" s="61">
+        <v>9999999</v>
+      </c>
+      <c r="X468" s="61">
+        <v>1605571200</v>
+      </c>
+      <c r="Y468" s="61">
+        <v>2552233600</v>
+      </c>
+      <c r="AG468" s="61">
+        <v>1</v>
+      </c>
+      <c r="AH468" s="61">
+        <v>1</v>
+      </c>
+      <c r="AK468" s="61">
+        <v>1</v>
+      </c>
+      <c r="AL468" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="61">
+        <v>468</v>
+      </c>
+      <c r="B469" s="61">
+        <v>10385</v>
+      </c>
+      <c r="F469" s="61">
+        <v>1</v>
+      </c>
+      <c r="G469" s="61" t="s">
+        <v>1730</v>
+      </c>
+      <c r="H469" s="61" t="s">
+        <v>1731</v>
+      </c>
+      <c r="I469" s="61" t="s">
+        <v>1732</v>
+      </c>
+      <c r="K469" s="61">
+        <v>-31</v>
+      </c>
+      <c r="L469" s="61">
+        <v>0</v>
+      </c>
+      <c r="M469" s="61">
+        <v>0</v>
+      </c>
+      <c r="N469" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="O469" s="61">
+        <v>3000</v>
+      </c>
+      <c r="P469" s="61" t="s">
+        <v>1059</v>
+      </c>
+      <c r="Q469" s="62" t="s">
+        <v>1733</v>
+      </c>
+      <c r="V469" s="61" t="s">
+        <v>1728</v>
+      </c>
+      <c r="W469" s="61">
+        <v>9999999</v>
+      </c>
+      <c r="X469" s="61">
+        <v>1605571200</v>
+      </c>
+      <c r="Y469" s="61">
+        <v>2552233600</v>
+      </c>
+      <c r="AG469" s="61">
+        <v>1</v>
+      </c>
+      <c r="AH469" s="61">
+        <v>1</v>
+      </c>
+      <c r="AK469" s="61">
+        <v>1</v>
+      </c>
+      <c r="AL469" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="61">
+        <v>469</v>
+      </c>
+      <c r="B470" s="61">
+        <v>10386</v>
+      </c>
+      <c r="F470" s="61">
+        <v>1</v>
+      </c>
+      <c r="G470" s="61" t="s">
+        <v>1734</v>
+      </c>
+      <c r="H470" s="61" t="s">
+        <v>1731</v>
+      </c>
+      <c r="I470" s="61" t="s">
+        <v>1735</v>
+      </c>
+      <c r="K470" s="61">
+        <v>-31</v>
+      </c>
+      <c r="L470" s="61">
+        <v>0</v>
+      </c>
+      <c r="M470" s="61">
+        <v>0</v>
+      </c>
+      <c r="N470" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="O470" s="61">
+        <v>6800</v>
+      </c>
+      <c r="P470" s="61" t="s">
+        <v>1642</v>
+      </c>
+      <c r="Q470" s="62" t="s">
+        <v>1736</v>
+      </c>
+      <c r="V470" s="61" t="s">
+        <v>1729</v>
+      </c>
+      <c r="W470" s="61">
+        <v>9999999</v>
+      </c>
+      <c r="X470" s="61">
+        <v>1605571200</v>
+      </c>
+      <c r="Y470" s="61">
+        <v>2552233600</v>
+      </c>
+      <c r="AG470" s="61">
+        <v>1</v>
+      </c>
+      <c r="AH470" s="61">
+        <v>1</v>
+      </c>
+      <c r="AK470" s="61">
+        <v>1</v>
+      </c>
+      <c r="AL470" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="61">
+        <v>470</v>
+      </c>
+      <c r="B471" s="61">
+        <v>10387</v>
+      </c>
+      <c r="F471" s="61">
+        <v>1</v>
+      </c>
+      <c r="G471" s="61" t="s">
+        <v>1737</v>
+      </c>
+      <c r="H471" s="61" t="s">
+        <v>1725</v>
+      </c>
+      <c r="I471" s="61" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K471" s="61">
+        <v>-31</v>
+      </c>
+      <c r="L471" s="61">
+        <v>0</v>
+      </c>
+      <c r="M471" s="61">
+        <v>0</v>
+      </c>
+      <c r="N471" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="O471" s="61">
+        <v>9800</v>
+      </c>
+      <c r="P471" s="61" t="s">
+        <v>1642</v>
+      </c>
+      <c r="Q471" s="62" t="s">
+        <v>1739</v>
+      </c>
+      <c r="V471" s="61" t="s">
+        <v>1740</v>
+      </c>
+      <c r="W471" s="61">
+        <v>9999999</v>
+      </c>
+      <c r="X471" s="61">
+        <v>1605571200</v>
+      </c>
+      <c r="Y471" s="61">
+        <v>2552233600</v>
+      </c>
+      <c r="AG471" s="61">
+        <v>1</v>
+      </c>
+      <c r="AH471" s="61">
+        <v>1</v>
+      </c>
+      <c r="AK471" s="61">
+        <v>1</v>
+      </c>
+      <c r="AL471" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A472" s="61">
+        <v>471</v>
+      </c>
+      <c r="B472" s="61">
+        <v>10388</v>
+      </c>
+      <c r="F472" s="61">
+        <v>1</v>
+      </c>
+      <c r="G472" s="61" t="s">
+        <v>1741</v>
+      </c>
+      <c r="H472" s="61" t="s">
+        <v>1725</v>
+      </c>
+      <c r="I472" s="61" t="s">
+        <v>1742</v>
+      </c>
+      <c r="K472" s="61">
+        <v>-31</v>
+      </c>
+      <c r="L472" s="61">
+        <v>0</v>
+      </c>
+      <c r="M472" s="61">
+        <v>0</v>
+      </c>
+      <c r="N472" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="O472" s="61">
+        <v>19800</v>
+      </c>
+      <c r="P472" s="61" t="s">
+        <v>1059</v>
+      </c>
+      <c r="Q472" s="62" t="s">
+        <v>1743</v>
+      </c>
+      <c r="V472" s="61" t="s">
+        <v>1740</v>
+      </c>
+      <c r="W472" s="61">
+        <v>9999999</v>
+      </c>
+      <c r="X472" s="61">
+        <v>1605571200</v>
+      </c>
+      <c r="Y472" s="61">
+        <v>2552233600</v>
+      </c>
+      <c r="AG472" s="61">
+        <v>1</v>
+      </c>
+      <c r="AH472" s="61">
+        <v>1</v>
+      </c>
+      <c r="AK472" s="61">
+        <v>1</v>
+      </c>
+      <c r="AL472" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A473" s="61">
+        <v>472</v>
+      </c>
+      <c r="B473" s="61">
+        <v>10389</v>
+      </c>
+      <c r="F473" s="61">
+        <v>1</v>
+      </c>
+      <c r="G473" s="61" t="s">
+        <v>1744</v>
+      </c>
+      <c r="H473" s="61" t="s">
+        <v>1731</v>
+      </c>
+      <c r="I473" s="61" t="s">
+        <v>1745</v>
+      </c>
+      <c r="K473" s="61">
+        <v>-31</v>
+      </c>
+      <c r="L473" s="61">
+        <v>0</v>
+      </c>
+      <c r="M473" s="61">
+        <v>0</v>
+      </c>
+      <c r="N473" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="O473" s="61">
+        <v>49800</v>
+      </c>
+      <c r="P473" s="61" t="s">
+        <v>1642</v>
+      </c>
+      <c r="Q473" s="62" t="s">
+        <v>1746</v>
+      </c>
+      <c r="V473" s="61" t="s">
+        <v>1740</v>
+      </c>
+      <c r="W473" s="61">
+        <v>9999999</v>
+      </c>
+      <c r="X473" s="61">
+        <v>1605571200</v>
+      </c>
+      <c r="Y473" s="61">
+        <v>2552233600</v>
+      </c>
+      <c r="AG473" s="61">
+        <v>1</v>
+      </c>
+      <c r="AH473" s="61">
+        <v>1</v>
+      </c>
+      <c r="AK473" s="61">
+        <v>1</v>
+      </c>
+      <c r="AL473" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A474" s="57">
+        <v>473</v>
+      </c>
+      <c r="B474" s="57">
+        <v>10390</v>
+      </c>
+      <c r="F474" s="55">
+        <v>1</v>
+      </c>
+      <c r="G474" s="55" t="s">
+        <v>1747</v>
+      </c>
+      <c r="H474" s="55" t="s">
+        <v>1731</v>
+      </c>
+      <c r="I474" s="55" t="s">
+        <v>1748</v>
+      </c>
+      <c r="K474" s="55">
+        <v>-31</v>
+      </c>
+      <c r="L474" s="55">
+        <v>0</v>
+      </c>
+      <c r="M474" s="55">
+        <v>0</v>
+      </c>
+      <c r="N474" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="O474" s="55">
+        <v>99800</v>
+      </c>
+      <c r="P474" s="55" t="s">
+        <v>1642</v>
+      </c>
+      <c r="Q474" s="56" t="s">
+        <v>1749</v>
+      </c>
+      <c r="V474" s="61" t="s">
+        <v>1740</v>
+      </c>
+      <c r="W474" s="55">
+        <v>9999999</v>
+      </c>
+      <c r="X474" s="55">
+        <v>1605571200</v>
+      </c>
+      <c r="Y474" s="55">
+        <v>2552233600</v>
+      </c>
+      <c r="AG474" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH474" s="55">
+        <v>1</v>
+      </c>
+      <c r="AK474" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL474" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A475" s="57">
+        <v>474</v>
+      </c>
+      <c r="B475" s="57">
+        <v>10391</v>
+      </c>
+      <c r="F475" s="55">
+        <v>1</v>
+      </c>
+      <c r="G475" s="55" t="s">
+        <v>1750</v>
+      </c>
+      <c r="H475" s="55" t="s">
+        <v>1731</v>
+      </c>
+      <c r="I475" s="55" t="s">
+        <v>1766</v>
+      </c>
+      <c r="K475" s="55">
+        <v>-31</v>
+      </c>
+      <c r="L475" s="55">
+        <v>0</v>
+      </c>
+      <c r="M475" s="55">
+        <v>0</v>
+      </c>
+      <c r="N475" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="O475" s="55">
+        <v>249800</v>
+      </c>
+      <c r="P475" s="55" t="s">
+        <v>1642</v>
+      </c>
+      <c r="Q475" s="56" t="s">
+        <v>1765</v>
+      </c>
+      <c r="V475" s="61" t="s">
+        <v>1740</v>
+      </c>
+      <c r="W475" s="55">
+        <v>9999999</v>
+      </c>
+      <c r="X475" s="55">
+        <v>1605571200</v>
+      </c>
+      <c r="Y475" s="55">
+        <v>2552233600</v>
+      </c>
+      <c r="AG475" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH475" s="55">
+        <v>1</v>
+      </c>
+      <c r="AK475" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL475" s="55">
         <v>1</v>
       </c>
     </row>
@@ -38539,10 +40973,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -39216,74 +41650,270 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="49">
+    <row r="48" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="47">
         <v>47</v>
       </c>
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="48" t="s">
         <v>1484</v>
       </c>
-      <c r="C48" s="49">
-        <v>1</v>
-      </c>
-      <c r="D48" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="49">
+      <c r="C48" s="47">
+        <v>1</v>
+      </c>
+      <c r="D48" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="47">
         <v>48</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="48" t="s">
         <v>1500</v>
       </c>
-      <c r="C49" s="49">
-        <v>1</v>
-      </c>
-      <c r="D49" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="49">
+      <c r="C49" s="47">
+        <v>1</v>
+      </c>
+      <c r="D49" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="47">
         <v>49</v>
       </c>
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="48" t="s">
         <v>1501</v>
       </c>
-      <c r="C50" s="49">
-        <v>1</v>
-      </c>
-      <c r="D50" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="49">
+      <c r="C50" s="47">
+        <v>1</v>
+      </c>
+      <c r="D50" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="47">
         <v>50</v>
       </c>
-      <c r="B51" s="50" t="s">
+      <c r="B51" s="48" t="s">
         <v>1502</v>
       </c>
-      <c r="C51" s="49">
-        <v>1</v>
-      </c>
-      <c r="D51" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="49">
+      <c r="C51" s="47">
+        <v>1</v>
+      </c>
+      <c r="D51" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="47">
         <v>51</v>
       </c>
-      <c r="B52" s="50" t="s">
+      <c r="B52" s="48" t="s">
         <v>1503</v>
       </c>
-      <c r="C52" s="49">
-        <v>1</v>
-      </c>
-      <c r="D52" s="49">
-        <v>0</v>
+      <c r="C52" s="47">
+        <v>1</v>
+      </c>
+      <c r="D52" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="64">
+        <v>52</v>
+      </c>
+      <c r="B53" s="65" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C53" s="64">
+        <v>1</v>
+      </c>
+      <c r="D53" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="64">
+        <v>53</v>
+      </c>
+      <c r="B54" s="65" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C54" s="64">
+        <v>1</v>
+      </c>
+      <c r="D54" s="64">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="64">
+        <v>54</v>
+      </c>
+      <c r="B55" s="65" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C55" s="64">
+        <v>1</v>
+      </c>
+      <c r="D55" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="64">
+        <v>55</v>
+      </c>
+      <c r="B56" s="65" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C56" s="64">
+        <v>1</v>
+      </c>
+      <c r="D56" s="64">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="64">
+        <v>56</v>
+      </c>
+      <c r="B57" s="65" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C57" s="64">
+        <v>1</v>
+      </c>
+      <c r="D57" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="64">
+        <v>57</v>
+      </c>
+      <c r="B58" s="65" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C58" s="64">
+        <v>1</v>
+      </c>
+      <c r="D58" s="64">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="64">
+        <v>58</v>
+      </c>
+      <c r="B59" s="65" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C59" s="64">
+        <v>1</v>
+      </c>
+      <c r="D59" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="64">
+        <v>59</v>
+      </c>
+      <c r="B60" s="65" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C60" s="64">
+        <v>1</v>
+      </c>
+      <c r="D60" s="64">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="64">
+        <v>60</v>
+      </c>
+      <c r="B61" s="65" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C61" s="64">
+        <v>1</v>
+      </c>
+      <c r="D61" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="64">
+        <v>61</v>
+      </c>
+      <c r="B62" s="65" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C62" s="64">
+        <v>1</v>
+      </c>
+      <c r="D62" s="64">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="64">
+        <v>62</v>
+      </c>
+      <c r="B63" s="65" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C63" s="64">
+        <v>1</v>
+      </c>
+      <c r="D63" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="65" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C64" s="64">
+        <v>1</v>
+      </c>
+      <c r="D64" s="64">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="64">
+        <v>64</v>
+      </c>
+      <c r="B65" s="65" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C65" s="64">
+        <v>1</v>
+      </c>
+      <c r="D65" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="64">
+        <v>65</v>
+      </c>
+      <c r="B66" s="65" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C66" s="64">
+        <v>1</v>
+      </c>
+      <c r="D66" s="64">
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/shoping_config_vivo.xlsx
+++ b/config_Release/shoping_config_vivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -7991,11 +7991,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>250000000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>"2.5亿金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>250000000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8892,7 +8892,7 @@
   <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F24"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9117,7 +9117,9 @@
         <v>41</v>
       </c>
       <c r="E3" s="24"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>85</v>
+      </c>
       <c r="G3" s="11" t="s">
         <v>42</v>
       </c>
@@ -9197,7 +9199,9 @@
         <v>41</v>
       </c>
       <c r="E4" s="24"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>86</v>
+      </c>
       <c r="G4" s="11" t="s">
         <v>42</v>
       </c>
@@ -9277,7 +9281,9 @@
         <v>41</v>
       </c>
       <c r="E5" s="24"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>87</v>
+      </c>
       <c r="G5" s="11" t="s">
         <v>42</v>
       </c>
@@ -9357,7 +9363,9 @@
         <v>41</v>
       </c>
       <c r="E6" s="24"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>88</v>
+      </c>
       <c r="G6" s="11" t="s">
         <v>42</v>
       </c>
@@ -9437,7 +9445,9 @@
         <v>41</v>
       </c>
       <c r="E7" s="24"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>89</v>
+      </c>
       <c r="G7" s="11" t="s">
         <v>42</v>
       </c>
@@ -9517,7 +9527,9 @@
         <v>41</v>
       </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>109</v>
+      </c>
       <c r="G8" s="11" t="s">
         <v>42</v>
       </c>
@@ -9597,7 +9609,9 @@
         <v>41</v>
       </c>
       <c r="E9" s="23"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>10044</v>
+      </c>
       <c r="G9" s="11" t="s">
         <v>42</v>
       </c>
@@ -9676,6 +9690,9 @@
         <v>41</v>
       </c>
       <c r="E10" s="23"/>
+      <c r="F10" s="11">
+        <v>10045</v>
+      </c>
       <c r="G10" s="11" t="s">
         <v>42</v>
       </c>
@@ -9756,7 +9773,9 @@
       <c r="E11" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="11">
+        <v>90</v>
+      </c>
       <c r="G11" s="2" t="s">
         <v>42</v>
       </c>
@@ -10758,7 +10777,9 @@
         <v>41</v>
       </c>
       <c r="E24" s="46"/>
-      <c r="F24" s="11"/>
+      <c r="F24" s="11">
+        <v>10189</v>
+      </c>
       <c r="G24" s="2" t="s">
         <v>1117</v>
       </c>
@@ -10860,10 +10881,10 @@
   <dimension ref="A1:AM479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H455" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="AI401" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F475" sqref="F475"/>
+      <selection pane="bottomRight" activeCell="AN1" sqref="AN1:AN1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -14653,7 +14674,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="69" t="s">
         <v>223</v>
@@ -14709,7 +14730,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="69" t="s">
         <v>225</v>
@@ -14765,7 +14786,7 @@
         <v>4</v>
       </c>
       <c r="F69" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="69" t="s">
         <v>227</v>
@@ -14821,7 +14842,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="69" t="s">
         <v>229</v>
@@ -14877,7 +14898,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="69" t="s">
         <v>230</v>
@@ -16210,7 +16231,7 @@
         <v>109</v>
       </c>
       <c r="F94" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="69" t="s">
         <v>254</v>
@@ -18244,7 +18265,7 @@
         <v>108</v>
       </c>
       <c r="F128" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" s="69" t="s">
         <v>320</v>
@@ -18300,7 +18321,7 @@
         <v>110</v>
       </c>
       <c r="F129" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" s="69" t="s">
         <v>1204</v>
@@ -27585,7 +27606,7 @@
         <v>111</v>
       </c>
       <c r="F273" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G273" s="69" t="s">
         <v>522</v>
@@ -41025,7 +41046,7 @@
         <v>1711</v>
       </c>
       <c r="I475" s="55" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="K475" s="55">
         <v>-31</v>
@@ -41046,7 +41067,7 @@
         <v>1622</v>
       </c>
       <c r="Q475" s="56" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="V475" s="61" t="s">
         <v>1720</v>

--- a/config_Release/shoping_config_vivo.xlsx
+++ b/config_Release/shoping_config_vivo.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3901" uniqueCount="1768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="1791">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -4072,81 +4072,7 @@
     <t>"50万金币",</t>
   </si>
   <si>
-    <t>"75万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"318万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"538万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1108万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2218万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3288万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4388万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5488万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"6488万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"7688万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_3d_fish_summon_fish","prop_3d_fish_lock",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>750000,1,1,</t>
-  </si>
-  <si>
-    <t>3180000,5,5,</t>
-  </si>
-  <si>
-    <t>22180000,40,40,</t>
-  </si>
-  <si>
-    <t>32880000,68,60,</t>
-  </si>
-  <si>
-    <t>54880000,110,100,</t>
-  </si>
-  <si>
-    <t>64880000,148,100,</t>
-  </si>
-  <si>
-    <t>76880000,158,100,</t>
-  </si>
-  <si>
-    <t>5380000,10,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>11080000,20,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>43880000,88,80,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>9999999999,1,0</t>
@@ -7889,15 +7815,187 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>"75万金币","水滴*1","玩具锤*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"318万金币","水滴*2","玩具锤*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3180000,2,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"538万金币","水滴*3","玩具锤*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5380000,3,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1108万金币","水滴*4","玩具锤*4",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>11080000,4,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2218万金币","水滴*5","玩具锤*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>22180000,5,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3288万金币","水滴*6","玩具锤*6",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>32880000,6,6,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4388万金币","水滴*7","玩具锤*7",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>43880000,7,7,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5488万金币","水滴*8","玩具锤*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>54880000,8,8,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"6488万金币","水滴*10","玩具锤*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>64880000,10,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"7688万金币","水滴*20","玩具锤*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>76880000,20,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>498元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","40万鱼币","传说宝箱*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_gej_cs",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,400000,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>198元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","30万鱼币","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,300000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","20万鱼币","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_gej_ss",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>48元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","10万鱼币","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_gej_xy",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,100000,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10486000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2.5亿金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>250000000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2.5亿金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>10486000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -7976,7 +8074,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8055,6 +8153,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -8098,7 +8208,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8296,6 +8406,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="15" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8694,16 +8825,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>1530</v>
+        <v>1510</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>1531</v>
+        <v>1511</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>1532</v>
+        <v>1512</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>1529</v>
+        <v>1509</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -8761,7 +8892,7 @@
   <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F2" sqref="F2:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8802,7 +8933,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1084</v>
+        <v>1064</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -8853,7 +8984,7 @@
         <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1105</v>
+        <v>1085</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>29</v>
@@ -8917,7 +9048,7 @@
         <v>43</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>1085</v>
+        <v>1065</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>44</v>
@@ -8947,14 +9078,14 @@
         <v>1</v>
       </c>
       <c r="T2" s="33" t="s">
-        <v>1106</v>
+        <v>1086</v>
       </c>
       <c r="U2" s="33" t="s">
-        <v>1086</v>
+        <v>1066</v>
       </c>
       <c r="V2" s="11"/>
       <c r="W2" s="33" t="s">
-        <v>1107</v>
+        <v>1087</v>
       </c>
       <c r="X2" s="11" t="s">
         <v>47</v>
@@ -8963,7 +9094,7 @@
         <v>634</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>1108</v>
+        <v>1088</v>
       </c>
       <c r="AC2" s="11">
         <v>1</v>
@@ -8986,9 +9117,7 @@
         <v>41</v>
       </c>
       <c r="E3" s="24"/>
-      <c r="F3" s="2">
-        <v>85</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="11" t="s">
         <v>42</v>
       </c>
@@ -8999,7 +9128,7 @@
         <v>43</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>1087</v>
+        <v>1067</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>44</v>
@@ -9029,14 +9158,14 @@
         <v>2</v>
       </c>
       <c r="T3" s="33" t="s">
-        <v>1109</v>
+        <v>1089</v>
       </c>
       <c r="U3" s="33" t="s">
-        <v>1088</v>
+        <v>1068</v>
       </c>
       <c r="V3" s="11"/>
       <c r="W3" s="33" t="s">
-        <v>1107</v>
+        <v>1087</v>
       </c>
       <c r="X3" s="11" t="s">
         <v>49</v>
@@ -9068,9 +9197,7 @@
         <v>41</v>
       </c>
       <c r="E4" s="24"/>
-      <c r="F4" s="2">
-        <v>86</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="11" t="s">
         <v>42</v>
       </c>
@@ -9081,7 +9208,7 @@
         <v>43</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>1089</v>
+        <v>1069</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>44</v>
@@ -9111,14 +9238,14 @@
         <v>3</v>
       </c>
       <c r="T4" s="33" t="s">
-        <v>1110</v>
+        <v>1090</v>
       </c>
       <c r="U4" s="33" t="s">
-        <v>1111</v>
+        <v>1091</v>
       </c>
       <c r="V4" s="11"/>
       <c r="W4" s="33" t="s">
-        <v>1107</v>
+        <v>1087</v>
       </c>
       <c r="X4" s="11" t="s">
         <v>50</v>
@@ -9150,9 +9277,7 @@
         <v>41</v>
       </c>
       <c r="E5" s="24"/>
-      <c r="F5" s="2">
-        <v>87</v>
-      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="11" t="s">
         <v>42</v>
       </c>
@@ -9163,7 +9288,7 @@
         <v>43</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>1090</v>
+        <v>1070</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>44</v>
@@ -9193,14 +9318,14 @@
         <v>4</v>
       </c>
       <c r="T5" s="33" t="s">
-        <v>1091</v>
+        <v>1071</v>
       </c>
       <c r="U5" s="33" t="s">
-        <v>1112</v>
+        <v>1092</v>
       </c>
       <c r="V5" s="11"/>
       <c r="W5" s="33" t="s">
-        <v>1107</v>
+        <v>1087</v>
       </c>
       <c r="X5" s="11" t="s">
         <v>51</v>
@@ -9232,9 +9357,7 @@
         <v>41</v>
       </c>
       <c r="E6" s="24"/>
-      <c r="F6" s="2">
-        <v>88</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="11" t="s">
         <v>42</v>
       </c>
@@ -9245,7 +9368,7 @@
         <v>43</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>1092</v>
+        <v>1072</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>44</v>
@@ -9275,14 +9398,14 @@
         <v>5</v>
       </c>
       <c r="T6" s="33" t="s">
-        <v>1113</v>
+        <v>1093</v>
       </c>
       <c r="U6" s="33" t="s">
-        <v>1113</v>
+        <v>1093</v>
       </c>
       <c r="V6" s="11"/>
       <c r="W6" s="33" t="s">
-        <v>1107</v>
+        <v>1087</v>
       </c>
       <c r="X6" s="11" t="s">
         <v>52</v>
@@ -9314,9 +9437,7 @@
         <v>41</v>
       </c>
       <c r="E7" s="24"/>
-      <c r="F7" s="2">
-        <v>89</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="11" t="s">
         <v>42</v>
       </c>
@@ -9327,7 +9448,7 @@
         <v>43</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>1093</v>
+        <v>1073</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>44</v>
@@ -9357,14 +9478,14 @@
         <v>7</v>
       </c>
       <c r="T7" s="33" t="s">
+        <v>1074</v>
+      </c>
+      <c r="U7" s="33" t="s">
         <v>1094</v>
-      </c>
-      <c r="U7" s="33" t="s">
-        <v>1114</v>
       </c>
       <c r="V7" s="11"/>
       <c r="W7" s="33" t="s">
-        <v>1107</v>
+        <v>1087</v>
       </c>
       <c r="X7" s="11" t="s">
         <v>53</v>
@@ -9396,9 +9517,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="2">
-        <v>109</v>
-      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="11" t="s">
         <v>42</v>
       </c>
@@ -9409,7 +9528,7 @@
         <v>43</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>1095</v>
+        <v>1075</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>44</v>
@@ -9439,14 +9558,14 @@
         <v>8</v>
       </c>
       <c r="T8" s="33" t="s">
-        <v>1115</v>
+        <v>1095</v>
       </c>
       <c r="U8" s="33" t="s">
-        <v>1116</v>
+        <v>1096</v>
       </c>
       <c r="V8" s="11"/>
       <c r="W8" s="33" t="s">
-        <v>1107</v>
+        <v>1087</v>
       </c>
       <c r="X8" s="11" t="s">
         <v>54</v>
@@ -9478,9 +9597,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="23"/>
-      <c r="F9" s="2">
-        <v>10044</v>
-      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="11" t="s">
         <v>42</v>
       </c>
@@ -9491,7 +9608,7 @@
         <v>43</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>1103</v>
+        <v>1083</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>44</v>
@@ -9521,13 +9638,13 @@
         <v>9</v>
       </c>
       <c r="T9" s="33" t="s">
-        <v>1117</v>
+        <v>1097</v>
       </c>
       <c r="U9" s="33" t="s">
-        <v>1117</v>
+        <v>1097</v>
       </c>
       <c r="W9" s="33" t="s">
-        <v>1118</v>
+        <v>1098</v>
       </c>
       <c r="X9" s="11" t="s">
         <v>55</v>
@@ -9559,9 +9676,6 @@
         <v>41</v>
       </c>
       <c r="E10" s="23"/>
-      <c r="F10" s="11">
-        <v>10045</v>
-      </c>
       <c r="G10" s="11" t="s">
         <v>42</v>
       </c>
@@ -9572,7 +9686,7 @@
         <v>43</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>1119</v>
+        <v>1099</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>44</v>
@@ -9602,13 +9716,13 @@
         <v>10</v>
       </c>
       <c r="T10" s="33" t="s">
-        <v>1120</v>
+        <v>1100</v>
       </c>
       <c r="U10" s="33" t="s">
-        <v>1120</v>
+        <v>1100</v>
       </c>
       <c r="W10" s="33" t="s">
-        <v>1118</v>
+        <v>1098</v>
       </c>
       <c r="X10" s="11" t="s">
         <v>56</v>
@@ -9642,9 +9756,7 @@
       <c r="E11" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="11">
-        <v>90</v>
-      </c>
+      <c r="F11" s="11"/>
       <c r="G11" s="2" t="s">
         <v>42</v>
       </c>
@@ -9655,7 +9767,7 @@
         <v>43</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>1097</v>
+        <v>1077</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>44</v>
@@ -9736,7 +9848,7 @@
         <v>43</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>1098</v>
+        <v>1078</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>44</v>
@@ -9817,7 +9929,7 @@
         <v>43</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>44</v>
@@ -9898,7 +10010,7 @@
         <v>43</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>1100</v>
+        <v>1080</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>44</v>
@@ -9979,7 +10091,7 @@
         <v>43</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>1101</v>
+        <v>1081</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>44</v>
@@ -10060,7 +10172,7 @@
         <v>43</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1104</v>
+        <v>1084</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>44</v>
@@ -10090,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>1121</v>
+        <v>1101</v>
       </c>
       <c r="U16" s="2">
         <v>66</v>
@@ -10134,7 +10246,7 @@
         <v>78</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>1122</v>
+        <v>1102</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>44</v>
@@ -10164,10 +10276,10 @@
         <v>1</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>1123</v>
+        <v>1103</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>1123</v>
+        <v>1103</v>
       </c>
       <c r="W17" s="2" t="s">
         <v>46</v>
@@ -10208,7 +10320,7 @@
         <v>78</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>1124</v>
+        <v>1104</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>44</v>
@@ -10238,10 +10350,10 @@
         <v>2</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>1125</v>
+        <v>1105</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>1125</v>
+        <v>1105</v>
       </c>
       <c r="W18" s="2" t="s">
         <v>46</v>
@@ -10282,7 +10394,7 @@
         <v>78</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>1126</v>
+        <v>1106</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>44</v>
@@ -10312,10 +10424,10 @@
         <v>3</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>1102</v>
+        <v>1082</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>1127</v>
+        <v>1107</v>
       </c>
       <c r="W19" s="2" t="s">
         <v>46</v>
@@ -10356,7 +10468,7 @@
         <v>78</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>1128</v>
+        <v>1108</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>44</v>
@@ -10386,10 +10498,10 @@
         <v>4</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>1129</v>
+        <v>1109</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>1130</v>
+        <v>1110</v>
       </c>
       <c r="W20" s="2" t="s">
         <v>46</v>
@@ -10430,7 +10542,7 @@
         <v>78</v>
       </c>
       <c r="J21" s="33" t="s">
-        <v>1131</v>
+        <v>1111</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>44</v>
@@ -10460,10 +10572,10 @@
         <v>5</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>1132</v>
+        <v>1112</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>1132</v>
+        <v>1112</v>
       </c>
       <c r="W21" s="2" t="s">
         <v>46</v>
@@ -10504,7 +10616,7 @@
         <v>78</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>1133</v>
+        <v>1113</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>44</v>
@@ -10534,10 +10646,10 @@
         <v>6</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>1134</v>
+        <v>1114</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>1134</v>
+        <v>1114</v>
       </c>
       <c r="W22" s="2" t="s">
         <v>46</v>
@@ -10578,7 +10690,7 @@
         <v>78</v>
       </c>
       <c r="J23" s="33" t="s">
-        <v>1135</v>
+        <v>1115</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>44</v>
@@ -10608,10 +10720,10 @@
         <v>7</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>1136</v>
+        <v>1116</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>1136</v>
+        <v>1116</v>
       </c>
       <c r="W23" s="2" t="s">
         <v>46</v>
@@ -10646,29 +10758,27 @@
         <v>41</v>
       </c>
       <c r="E24" s="46"/>
-      <c r="F24" s="11">
-        <v>10189</v>
-      </c>
+      <c r="F24" s="11"/>
       <c r="G24" s="2" t="s">
-        <v>1137</v>
+        <v>1117</v>
       </c>
       <c r="H24" s="11">
         <v>19800</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>1138</v>
+        <v>1118</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>1486</v>
+        <v>1466</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>1139</v>
+        <v>1119</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>1140</v>
+        <v>1120</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>1141</v>
+        <v>1121</v>
       </c>
       <c r="N24" s="2">
         <v>1</v>
@@ -10689,16 +10799,16 @@
         <v>6</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>1142</v>
+        <v>1122</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>1142</v>
+        <v>1122</v>
       </c>
       <c r="W24" s="33" t="s">
-        <v>1096</v>
+        <v>1076</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>1143</v>
+        <v>1123</v>
       </c>
       <c r="Y24" s="11" t="s">
         <v>642</v>
@@ -10747,13 +10857,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM475"/>
+  <dimension ref="A1:AM479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="O444" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H455" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q455" sqref="Q455"/>
+      <selection pane="bottomRight" activeCell="F475" sqref="F475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -10815,10 +10925,10 @@
         <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1221</v>
+        <v>1201</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1246</v>
+        <v>1226</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>83</v>
@@ -11148,7 +11258,7 @@
         <v>110</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>1066</v>
+        <v>1046</v>
       </c>
       <c r="AG5" s="5">
         <v>1</v>
@@ -14484,7 +14594,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>1222</v>
+        <v>1202</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>960</v>
@@ -14532,283 +14642,283 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="5">
+    <row r="67" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="69">
         <v>66</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" s="69">
         <v>85</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="69">
         <v>2</v>
       </c>
-      <c r="F67" s="5">
-        <v>1</v>
-      </c>
-      <c r="G67" s="5" t="s">
+      <c r="F67" s="69">
+        <v>0</v>
+      </c>
+      <c r="G67" s="69" t="s">
         <v>223</v>
       </c>
-      <c r="K67" s="5">
+      <c r="K67" s="69">
         <v>-4</v>
       </c>
-      <c r="L67" s="5">
-        <v>0</v>
-      </c>
-      <c r="M67" s="5">
-        <v>0</v>
-      </c>
-      <c r="N67" s="5" t="s">
+      <c r="L67" s="69">
+        <v>0</v>
+      </c>
+      <c r="M67" s="69">
+        <v>0</v>
+      </c>
+      <c r="N67" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O67" s="5">
+      <c r="O67" s="69">
         <v>1500</v>
       </c>
-      <c r="P67" s="5" t="s">
+      <c r="P67" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q67" s="5" t="s">
-        <v>1488</v>
-      </c>
-      <c r="V67" s="5" t="s">
+      <c r="Q67" s="69" t="s">
+        <v>1468</v>
+      </c>
+      <c r="V67" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W67" s="14" t="s">
+      <c r="W67" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X67" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y67" s="5">
+      <c r="X67" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG67" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH67" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="5">
+      <c r="AG67" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH67" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="69">
         <v>67</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="69">
         <v>86</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="69">
         <v>3</v>
       </c>
-      <c r="F68" s="5">
-        <v>1</v>
-      </c>
-      <c r="G68" s="5" t="s">
+      <c r="F68" s="69">
+        <v>0</v>
+      </c>
+      <c r="G68" s="69" t="s">
         <v>225</v>
       </c>
-      <c r="K68" s="5">
+      <c r="K68" s="69">
         <v>-4</v>
       </c>
-      <c r="L68" s="5">
-        <v>0</v>
-      </c>
-      <c r="M68" s="5">
-        <v>0</v>
-      </c>
-      <c r="N68" s="5" t="s">
+      <c r="L68" s="69">
+        <v>0</v>
+      </c>
+      <c r="M68" s="69">
+        <v>0</v>
+      </c>
+      <c r="N68" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O68" s="5">
+      <c r="O68" s="69">
         <v>3000</v>
       </c>
-      <c r="P68" s="5" t="s">
+      <c r="P68" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q68" s="5" t="s">
-        <v>1504</v>
-      </c>
-      <c r="V68" s="5" t="s">
+      <c r="Q68" s="69" t="s">
+        <v>1484</v>
+      </c>
+      <c r="V68" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W68" s="14" t="s">
+      <c r="W68" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X68" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y68" s="5">
+      <c r="X68" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG68" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH68" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="5">
+      <c r="AG68" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH68" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="69">
         <v>68</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="69">
         <v>87</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="69">
         <v>4</v>
       </c>
-      <c r="F69" s="5">
-        <v>1</v>
-      </c>
-      <c r="G69" s="5" t="s">
+      <c r="F69" s="69">
+        <v>0</v>
+      </c>
+      <c r="G69" s="69" t="s">
         <v>227</v>
       </c>
-      <c r="K69" s="5">
+      <c r="K69" s="69">
         <v>-4</v>
       </c>
-      <c r="L69" s="5">
-        <v>0</v>
-      </c>
-      <c r="M69" s="5">
-        <v>0</v>
-      </c>
-      <c r="N69" s="5" t="s">
+      <c r="L69" s="69">
+        <v>0</v>
+      </c>
+      <c r="M69" s="69">
+        <v>0</v>
+      </c>
+      <c r="N69" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O69" s="5">
+      <c r="O69" s="69">
         <v>5000</v>
       </c>
-      <c r="P69" s="5" t="s">
+      <c r="P69" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q69" s="5" t="s">
-        <v>1489</v>
-      </c>
-      <c r="V69" s="5" t="s">
+      <c r="Q69" s="69" t="s">
+        <v>1469</v>
+      </c>
+      <c r="V69" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W69" s="14" t="s">
+      <c r="W69" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X69" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y69" s="5">
+      <c r="X69" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG69" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH69" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="5">
+      <c r="AG69" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH69" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="69">
         <v>69</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70" s="69">
         <v>88</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="69">
         <v>5</v>
       </c>
-      <c r="F70" s="5">
-        <v>1</v>
-      </c>
-      <c r="G70" s="5" t="s">
+      <c r="F70" s="69">
+        <v>0</v>
+      </c>
+      <c r="G70" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="K70" s="5">
+      <c r="K70" s="69">
         <v>-4</v>
       </c>
-      <c r="L70" s="5">
-        <v>0</v>
-      </c>
-      <c r="M70" s="5">
-        <v>0</v>
-      </c>
-      <c r="N70" s="5" t="s">
+      <c r="L70" s="69">
+        <v>0</v>
+      </c>
+      <c r="M70" s="69">
+        <v>0</v>
+      </c>
+      <c r="N70" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O70" s="5">
+      <c r="O70" s="69">
         <v>9800</v>
       </c>
-      <c r="P70" s="5" t="s">
+      <c r="P70" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q70" s="5" t="s">
-        <v>1490</v>
-      </c>
-      <c r="V70" s="5" t="s">
+      <c r="Q70" s="69" t="s">
+        <v>1470</v>
+      </c>
+      <c r="V70" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W70" s="14" t="s">
+      <c r="W70" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X70" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y70" s="5">
+      <c r="X70" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG70" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH70" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="5">
+      <c r="AG70" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH70" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="69">
         <v>70</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71" s="69">
         <v>89</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="69">
         <v>6</v>
       </c>
-      <c r="F71" s="5">
-        <v>1</v>
-      </c>
-      <c r="G71" s="5" t="s">
+      <c r="F71" s="69">
+        <v>0</v>
+      </c>
+      <c r="G71" s="69" t="s">
         <v>230</v>
       </c>
-      <c r="K71" s="5">
+      <c r="K71" s="69">
         <v>-4</v>
       </c>
-      <c r="L71" s="5">
-        <v>0</v>
-      </c>
-      <c r="M71" s="5">
-        <v>0</v>
-      </c>
-      <c r="N71" s="5" t="s">
+      <c r="L71" s="69">
+        <v>0</v>
+      </c>
+      <c r="M71" s="69">
+        <v>0</v>
+      </c>
+      <c r="N71" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O71" s="5">
+      <c r="O71" s="69">
         <v>49800</v>
       </c>
-      <c r="P71" s="5" t="s">
+      <c r="P71" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q71" s="5" t="s">
-        <v>1491</v>
-      </c>
-      <c r="V71" s="5" t="s">
+      <c r="Q71" s="69" t="s">
+        <v>1471</v>
+      </c>
+      <c r="V71" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W71" s="14" t="s">
+      <c r="W71" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X71" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y71" s="5">
+      <c r="X71" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG71" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH71" s="5">
+      <c r="AG71" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH71" s="69">
         <v>1</v>
       </c>
     </row>
@@ -15124,7 +15234,7 @@
         <v>236</v>
       </c>
       <c r="I77" s="19" t="s">
-        <v>1591</v>
+        <v>1571</v>
       </c>
       <c r="K77" s="19">
         <v>-20</v>
@@ -15142,10 +15252,10 @@
         <v>100</v>
       </c>
       <c r="P77" s="19" t="s">
-        <v>1592</v>
+        <v>1572</v>
       </c>
       <c r="Q77" s="39" t="s">
-        <v>1593</v>
+        <v>1573</v>
       </c>
       <c r="V77" s="19" t="s">
         <v>526</v>
@@ -15180,7 +15290,7 @@
         <v>237</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>1425</v>
+        <v>1405</v>
       </c>
       <c r="K78" s="19">
         <v>-20</v>
@@ -15198,10 +15308,10 @@
         <v>1000</v>
       </c>
       <c r="P78" s="19" t="s">
-        <v>1426</v>
+        <v>1406</v>
       </c>
       <c r="Q78" s="39" t="s">
-        <v>1427</v>
+        <v>1407</v>
       </c>
       <c r="V78" s="19" t="s">
         <v>526</v>
@@ -15219,10 +15329,10 @@
         <v>78</v>
       </c>
       <c r="AB78" s="19" t="s">
-        <v>1428</v>
+        <v>1408</v>
       </c>
       <c r="AC78" s="39" t="s">
-        <v>1429</v>
+        <v>1409</v>
       </c>
       <c r="AG78" s="19">
         <v>1</v>
@@ -15242,7 +15352,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>1223</v>
+        <v>1203</v>
       </c>
       <c r="I79" s="5" t="s">
         <v>824</v>
@@ -15396,10 +15506,10 @@
         <v>4800</v>
       </c>
       <c r="P81" s="19" t="s">
-        <v>1430</v>
+        <v>1410</v>
       </c>
       <c r="Q81" s="39" t="s">
-        <v>1431</v>
+        <v>1411</v>
       </c>
       <c r="V81" s="19" t="s">
         <v>526</v>
@@ -15414,10 +15524,10 @@
         <v>2552233600</v>
       </c>
       <c r="AA81" s="19" t="s">
-        <v>1432</v>
+        <v>1412</v>
       </c>
       <c r="AB81" s="19" t="s">
-        <v>1433</v>
+        <v>1413</v>
       </c>
       <c r="AG81" s="19">
         <v>1</v>
@@ -15626,10 +15736,10 @@
         <v>4800</v>
       </c>
       <c r="P85" s="5" t="s">
-        <v>1420</v>
+        <v>1400</v>
       </c>
       <c r="Q85" s="5" t="s">
-        <v>1423</v>
+        <v>1403</v>
       </c>
       <c r="V85" s="5" t="s">
         <v>528</v>
@@ -15732,10 +15842,10 @@
         <v>9600</v>
       </c>
       <c r="P87" s="5" t="s">
-        <v>1421</v>
+        <v>1401</v>
       </c>
       <c r="Q87" s="5" t="s">
-        <v>1424</v>
+        <v>1404</v>
       </c>
       <c r="V87" s="5" t="s">
         <v>528</v>
@@ -16092,56 +16202,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="5">
+    <row r="94" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="69">
         <v>93</v>
       </c>
-      <c r="B94" s="5">
+      <c r="B94" s="69">
         <v>109</v>
       </c>
-      <c r="F94" s="5">
-        <v>1</v>
-      </c>
-      <c r="G94" s="5" t="s">
+      <c r="F94" s="69">
+        <v>0</v>
+      </c>
+      <c r="G94" s="69" t="s">
         <v>254</v>
       </c>
-      <c r="K94" s="5">
+      <c r="K94" s="69">
         <v>-4</v>
       </c>
-      <c r="L94" s="5">
-        <v>0</v>
-      </c>
-      <c r="M94" s="5">
-        <v>0</v>
-      </c>
-      <c r="N94" s="5" t="s">
+      <c r="L94" s="69">
+        <v>0</v>
+      </c>
+      <c r="M94" s="69">
+        <v>0</v>
+      </c>
+      <c r="N94" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O94" s="5">
+      <c r="O94" s="69">
         <v>100000</v>
       </c>
-      <c r="P94" s="5" t="s">
+      <c r="P94" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q94" s="5" t="s">
+      <c r="Q94" s="69" t="s">
         <v>695</v>
       </c>
-      <c r="V94" s="5" t="s">
+      <c r="V94" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W94" s="14" t="s">
+      <c r="W94" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X94" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="5">
+      <c r="X94" s="69">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG94" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH94" s="5">
+      <c r="AG94" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH94" s="69">
         <v>1</v>
       </c>
     </row>
@@ -18123,115 +18233,115 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="5">
+    <row r="128" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="69">
         <v>127</v>
       </c>
-      <c r="B128" s="5">
+      <c r="B128" s="69">
         <v>10044</v>
       </c>
-      <c r="D128" s="5">
+      <c r="D128" s="69">
         <v>108</v>
       </c>
-      <c r="F128" s="5">
-        <v>1</v>
-      </c>
-      <c r="G128" s="5" t="s">
+      <c r="F128" s="69">
+        <v>0</v>
+      </c>
+      <c r="G128" s="69" t="s">
         <v>320</v>
       </c>
-      <c r="K128" s="5">
+      <c r="K128" s="69">
         <v>-10</v>
       </c>
-      <c r="L128" s="5">
-        <v>0</v>
-      </c>
-      <c r="M128" s="5">
-        <v>0</v>
-      </c>
-      <c r="N128" s="5" t="s">
+      <c r="L128" s="69">
+        <v>0</v>
+      </c>
+      <c r="M128" s="69">
+        <v>0</v>
+      </c>
+      <c r="N128" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O128" s="5">
+      <c r="O128" s="69">
         <v>99800</v>
       </c>
-      <c r="P128" s="5" t="s">
+      <c r="P128" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q128" s="5" t="s">
-        <v>1493</v>
-      </c>
-      <c r="V128" s="5" t="s">
+      <c r="Q128" s="69" t="s">
+        <v>1473</v>
+      </c>
+      <c r="V128" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W128" s="14" t="s">
+      <c r="W128" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X128" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y128" s="5">
+      <c r="X128" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y128" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG128" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH128" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="5">
+      <c r="AG128" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH128" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:38" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="69">
         <v>128</v>
       </c>
-      <c r="B129" s="5">
+      <c r="B129" s="69">
         <v>10045</v>
       </c>
-      <c r="D129" s="5">
+      <c r="D129" s="69">
         <v>110</v>
       </c>
-      <c r="F129" s="5">
-        <v>1</v>
-      </c>
-      <c r="G129" s="5" t="s">
-        <v>1224</v>
-      </c>
-      <c r="K129" s="5">
+      <c r="F129" s="69">
+        <v>0</v>
+      </c>
+      <c r="G129" s="69" t="s">
+        <v>1204</v>
+      </c>
+      <c r="K129" s="69">
         <v>-11</v>
       </c>
-      <c r="L129" s="5">
-        <v>0</v>
-      </c>
-      <c r="M129" s="5">
-        <v>0</v>
-      </c>
-      <c r="N129" s="5" t="s">
+      <c r="L129" s="69">
+        <v>0</v>
+      </c>
+      <c r="M129" s="69">
+        <v>0</v>
+      </c>
+      <c r="N129" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O129" s="5">
+      <c r="O129" s="69">
         <v>249800</v>
       </c>
-      <c r="P129" s="5" t="s">
+      <c r="P129" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q129" s="5" t="s">
-        <v>1492</v>
-      </c>
-      <c r="V129" s="5" t="s">
+      <c r="Q129" s="69" t="s">
+        <v>1472</v>
+      </c>
+      <c r="V129" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W129" s="14" t="s">
+      <c r="W129" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X129" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y129" s="5">
+      <c r="X129" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y129" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG129" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH129" s="5">
+      <c r="AG129" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH129" s="69">
         <v>1</v>
       </c>
     </row>
@@ -18798,7 +18908,7 @@
         <v>1</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>1225</v>
+        <v>1205</v>
       </c>
       <c r="H139" s="8"/>
       <c r="I139" s="5" t="s">
@@ -18858,7 +18968,7 @@
         <v>1</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>1226</v>
+        <v>1206</v>
       </c>
       <c r="H140" s="8"/>
       <c r="I140" s="5" t="s">
@@ -20616,7 +20726,7 @@
         <v>360</v>
       </c>
       <c r="I168" s="19" t="s">
-        <v>1056</v>
+        <v>1036</v>
       </c>
       <c r="K168" s="19">
         <v>-28</v>
@@ -20634,10 +20744,10 @@
         <v>600</v>
       </c>
       <c r="P168" s="19" t="s">
-        <v>1059</v>
+        <v>1039</v>
       </c>
       <c r="Q168" s="19" t="s">
-        <v>1060</v>
+        <v>1040</v>
       </c>
       <c r="V168" s="19" t="s">
         <v>526</v>
@@ -20678,10 +20788,10 @@
         <v>1</v>
       </c>
       <c r="G169" s="19" t="s">
-        <v>1227</v>
+        <v>1207</v>
       </c>
       <c r="I169" s="19" t="s">
-        <v>1057</v>
+        <v>1037</v>
       </c>
       <c r="K169" s="19">
         <v>-28</v>
@@ -20699,10 +20809,10 @@
         <v>3000</v>
       </c>
       <c r="P169" s="19" t="s">
-        <v>1059</v>
+        <v>1039</v>
       </c>
       <c r="Q169" s="19" t="s">
-        <v>1061</v>
+        <v>1041</v>
       </c>
       <c r="V169" s="19" t="s">
         <v>600</v>
@@ -20743,7 +20853,7 @@
         <v>361</v>
       </c>
       <c r="I170" s="19" t="s">
-        <v>1058</v>
+        <v>1038</v>
       </c>
       <c r="K170" s="19">
         <v>-28</v>
@@ -20761,10 +20871,10 @@
         <v>19800</v>
       </c>
       <c r="P170" s="19" t="s">
-        <v>1059</v>
+        <v>1039</v>
       </c>
       <c r="Q170" s="19" t="s">
-        <v>1062</v>
+        <v>1042</v>
       </c>
       <c r="V170" s="19" t="s">
         <v>600</v>
@@ -20802,10 +20912,10 @@
         <v>1</v>
       </c>
       <c r="G171" s="19" t="s">
-        <v>1228</v>
+        <v>1208</v>
       </c>
       <c r="H171" s="19" t="s">
-        <v>1247</v>
+        <v>1227</v>
       </c>
       <c r="I171" s="19" t="s">
         <v>983</v>
@@ -20870,10 +20980,10 @@
         <v>1</v>
       </c>
       <c r="G172" s="19" t="s">
+        <v>1208</v>
+      </c>
+      <c r="H172" s="19" t="s">
         <v>1228</v>
-      </c>
-      <c r="H172" s="19" t="s">
-        <v>1248</v>
       </c>
       <c r="I172" s="19" t="s">
         <v>984</v>
@@ -20938,10 +21048,10 @@
         <v>1</v>
       </c>
       <c r="G173" s="19" t="s">
+        <v>1209</v>
+      </c>
+      <c r="H173" s="19" t="s">
         <v>1229</v>
-      </c>
-      <c r="H173" s="19" t="s">
-        <v>1249</v>
       </c>
       <c r="I173" s="19" t="s">
         <v>985</v>
@@ -21006,10 +21116,10 @@
         <v>1</v>
       </c>
       <c r="G174" s="19" t="s">
-        <v>1229</v>
+        <v>1209</v>
       </c>
       <c r="H174" s="19" t="s">
-        <v>1250</v>
+        <v>1230</v>
       </c>
       <c r="I174" s="19" t="s">
         <v>986</v>
@@ -21074,10 +21184,10 @@
         <v>1</v>
       </c>
       <c r="G175" s="19" t="s">
-        <v>1229</v>
+        <v>1209</v>
       </c>
       <c r="H175" s="19" t="s">
-        <v>1251</v>
+        <v>1231</v>
       </c>
       <c r="I175" s="19" t="s">
         <v>997</v>
@@ -21142,10 +21252,10 @@
         <v>1</v>
       </c>
       <c r="G176" s="19" t="s">
-        <v>1229</v>
+        <v>1209</v>
       </c>
       <c r="H176" s="19" t="s">
-        <v>1252</v>
+        <v>1232</v>
       </c>
       <c r="I176" s="19" t="s">
         <v>998</v>
@@ -21210,10 +21320,10 @@
         <v>1</v>
       </c>
       <c r="G177" s="19" t="s">
-        <v>1228</v>
+        <v>1208</v>
       </c>
       <c r="H177" s="19" t="s">
-        <v>1253</v>
+        <v>1233</v>
       </c>
       <c r="I177" s="19" t="s">
         <v>999</v>
@@ -21278,7 +21388,7 @@
         <v>1</v>
       </c>
       <c r="G178" s="19" t="s">
-        <v>1229</v>
+        <v>1209</v>
       </c>
       <c r="H178" s="19" t="s">
         <v>490</v>
@@ -21346,10 +21456,10 @@
         <v>1</v>
       </c>
       <c r="G179" s="19" t="s">
-        <v>1228</v>
+        <v>1208</v>
       </c>
       <c r="H179" s="19" t="s">
-        <v>1254</v>
+        <v>1234</v>
       </c>
       <c r="I179" s="19" t="s">
         <v>1001</v>
@@ -21414,10 +21524,10 @@
         <v>1</v>
       </c>
       <c r="G180" s="19" t="s">
-        <v>1229</v>
+        <v>1209</v>
       </c>
       <c r="H180" s="19" t="s">
-        <v>1255</v>
+        <v>1235</v>
       </c>
       <c r="I180" s="19" t="s">
         <v>991</v>
@@ -21482,10 +21592,10 @@
         <v>1</v>
       </c>
       <c r="G181" s="19" t="s">
-        <v>1229</v>
+        <v>1209</v>
       </c>
       <c r="H181" s="19" t="s">
-        <v>1256</v>
+        <v>1236</v>
       </c>
       <c r="I181" s="19" t="s">
         <v>1002</v>
@@ -21550,10 +21660,10 @@
         <v>1</v>
       </c>
       <c r="G182" s="19" t="s">
-        <v>1228</v>
+        <v>1208</v>
       </c>
       <c r="H182" s="19" t="s">
-        <v>1257</v>
+        <v>1237</v>
       </c>
       <c r="I182" s="19" t="s">
         <v>1003</v>
@@ -21618,10 +21728,10 @@
         <v>1</v>
       </c>
       <c r="G183" s="19" t="s">
-        <v>1229</v>
+        <v>1209</v>
       </c>
       <c r="H183" s="19" t="s">
-        <v>1258</v>
+        <v>1238</v>
       </c>
       <c r="I183" s="19" t="s">
         <v>1004</v>
@@ -21686,10 +21796,10 @@
         <v>1</v>
       </c>
       <c r="G184" s="19" t="s">
-        <v>1229</v>
+        <v>1209</v>
       </c>
       <c r="H184" s="19" t="s">
-        <v>1259</v>
+        <v>1239</v>
       </c>
       <c r="I184" s="19" t="s">
         <v>1003</v>
@@ -21754,10 +21864,10 @@
         <v>1</v>
       </c>
       <c r="G185" s="19" t="s">
-        <v>1228</v>
+        <v>1208</v>
       </c>
       <c r="H185" s="19" t="s">
-        <v>1260</v>
+        <v>1240</v>
       </c>
       <c r="I185" s="19" t="s">
         <v>1005</v>
@@ -26066,7 +26176,7 @@
         <v>600</v>
       </c>
       <c r="P251" s="5" t="s">
-        <v>1075</v>
+        <v>1055</v>
       </c>
       <c r="Q251" s="5" t="s">
         <v>784</v>
@@ -26237,7 +26347,7 @@
         <v>1</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>1230</v>
+        <v>1210</v>
       </c>
       <c r="I254" s="5" t="s">
         <v>948</v>
@@ -26432,7 +26542,7 @@
         <v>0</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>1231</v>
+        <v>1211</v>
       </c>
       <c r="I257" s="5" t="s">
         <v>883</v>
@@ -26955,7 +27065,7 @@
         <v>0</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>1232</v>
+        <v>1212</v>
       </c>
       <c r="I265" s="5" t="s">
         <v>889</v>
@@ -27215,7 +27325,7 @@
         <v>0</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>1233</v>
+        <v>1213</v>
       </c>
       <c r="I269" s="5" t="s">
         <v>891</v>
@@ -27464,59 +27574,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A273" s="5">
+    <row r="273" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A273" s="69">
         <v>272</v>
       </c>
-      <c r="B273" s="5">
+      <c r="B273" s="69">
         <v>10189</v>
       </c>
-      <c r="D273" s="11">
+      <c r="D273" s="72">
         <v>111</v>
       </c>
-      <c r="F273" s="5">
-        <v>1</v>
-      </c>
-      <c r="G273" s="5" t="s">
+      <c r="F273" s="69">
+        <v>0</v>
+      </c>
+      <c r="G273" s="69" t="s">
         <v>522</v>
       </c>
-      <c r="K273" s="5">
+      <c r="K273" s="69">
         <v>-10</v>
       </c>
-      <c r="L273" s="5">
-        <v>0</v>
-      </c>
-      <c r="M273" s="5">
-        <v>0</v>
-      </c>
-      <c r="N273" s="5" t="s">
+      <c r="L273" s="69">
+        <v>0</v>
+      </c>
+      <c r="M273" s="69">
+        <v>0</v>
+      </c>
+      <c r="N273" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O273" s="5">
+      <c r="O273" s="69">
         <v>19800</v>
       </c>
-      <c r="P273" s="5" t="s">
+      <c r="P273" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q273" s="5" t="s">
-        <v>1494</v>
-      </c>
-      <c r="V273" s="5" t="s">
+      <c r="Q273" s="69" t="s">
+        <v>1474</v>
+      </c>
+      <c r="V273" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W273" s="14" t="s">
+      <c r="W273" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X273" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y273" s="5">
+      <c r="X273" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y273" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG273" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH273" s="5">
+      <c r="AG273" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH273" s="69">
         <v>1</v>
       </c>
     </row>
@@ -27737,7 +27847,7 @@
         <v>0</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>1234</v>
+        <v>1214</v>
       </c>
       <c r="I277" s="5" t="s">
         <v>895</v>
@@ -27802,7 +27912,7 @@
         <v>0</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>1235</v>
+        <v>1215</v>
       </c>
       <c r="I278" s="5" t="s">
         <v>896</v>
@@ -27867,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>1236</v>
+        <v>1216</v>
       </c>
       <c r="I279" s="5" t="s">
         <v>897</v>
@@ -27932,7 +28042,7 @@
         <v>0</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>1237</v>
+        <v>1217</v>
       </c>
       <c r="I280" s="5" t="s">
         <v>894</v>
@@ -30421,10 +30531,10 @@
         <v>1</v>
       </c>
       <c r="G320" s="5" t="s">
-        <v>1238</v>
+        <v>1218</v>
       </c>
       <c r="I320" s="5" t="s">
-        <v>1422</v>
+        <v>1402</v>
       </c>
       <c r="K320" s="5">
         <v>-25</v>
@@ -30477,7 +30587,7 @@
         <v>1</v>
       </c>
       <c r="G321" s="5" t="s">
-        <v>1239</v>
+        <v>1219</v>
       </c>
       <c r="I321" s="5" t="s">
         <v>921</v>
@@ -30539,7 +30649,7 @@
         <v>1</v>
       </c>
       <c r="G322" s="5" t="s">
-        <v>1240</v>
+        <v>1220</v>
       </c>
       <c r="I322" s="5" t="s">
         <v>625</v>
@@ -30770,7 +30880,7 @@
         <v>1</v>
       </c>
       <c r="G325" s="19" t="s">
-        <v>1241</v>
+        <v>1221</v>
       </c>
       <c r="H325" s="19"/>
       <c r="I325" s="19" t="s">
@@ -30850,7 +30960,7 @@
         <v>1</v>
       </c>
       <c r="G326" s="40" t="s">
-        <v>1242</v>
+        <v>1222</v>
       </c>
       <c r="I326" s="40" t="s">
         <v>1011</v>
@@ -30871,7 +30981,7 @@
         <v>100</v>
       </c>
       <c r="V326" s="40" t="s">
-        <v>1052</v>
+        <v>1032</v>
       </c>
       <c r="W326" s="40">
         <v>9999999</v>
@@ -30909,7 +31019,7 @@
         <v>1</v>
       </c>
       <c r="G327" s="43" t="s">
-        <v>1243</v>
+        <v>1223</v>
       </c>
       <c r="I327" s="43" t="s">
         <v>1030</v>
@@ -30933,7 +31043,7 @@
         <v>1018</v>
       </c>
       <c r="Q327" s="43" t="s">
-        <v>1054</v>
+        <v>1034</v>
       </c>
       <c r="V327" s="43" t="s">
         <v>1019</v>
@@ -30978,7 +31088,7 @@
       </c>
       <c r="H328" s="43"/>
       <c r="I328" s="43" t="s">
-        <v>1031</v>
+        <v>1745</v>
       </c>
       <c r="J328" s="43"/>
       <c r="K328" s="43">
@@ -30991,23 +31101,23 @@
         <v>0</v>
       </c>
       <c r="N328" s="43" t="s">
-        <v>1009</v>
+        <v>1746</v>
       </c>
       <c r="O328" s="43">
         <v>600</v>
       </c>
       <c r="P328" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q328" s="43" t="s">
-        <v>1042</v>
+        <v>1747</v>
+      </c>
+      <c r="Q328" s="66" t="s">
+        <v>1031</v>
       </c>
       <c r="R328" s="43"/>
       <c r="S328" s="43"/>
       <c r="T328" s="43"/>
       <c r="U328" s="43"/>
       <c r="V328" s="43" t="s">
-        <v>1052</v>
+        <v>1748</v>
       </c>
       <c r="W328" s="43">
         <v>99999999</v>
@@ -31060,7 +31170,7 @@
       </c>
       <c r="H329" s="43"/>
       <c r="I329" s="43" t="s">
-        <v>1032</v>
+        <v>1749</v>
       </c>
       <c r="J329" s="43"/>
       <c r="K329" s="43">
@@ -31073,23 +31183,23 @@
         <v>0</v>
       </c>
       <c r="N329" s="43" t="s">
-        <v>1009</v>
+        <v>1750</v>
       </c>
       <c r="O329" s="43">
         <v>2800</v>
       </c>
       <c r="P329" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q329" s="43" t="s">
-        <v>1043</v>
+        <v>1751</v>
+      </c>
+      <c r="Q329" s="66" t="s">
+        <v>1752</v>
       </c>
       <c r="R329" s="43"/>
       <c r="S329" s="43"/>
       <c r="T329" s="43"/>
       <c r="U329" s="43"/>
       <c r="V329" s="43" t="s">
-        <v>1052</v>
+        <v>1530</v>
       </c>
       <c r="W329" s="43">
         <v>99999999</v>
@@ -31142,7 +31252,7 @@
       </c>
       <c r="H330" s="43"/>
       <c r="I330" s="43" t="s">
-        <v>1033</v>
+        <v>1753</v>
       </c>
       <c r="J330" s="43"/>
       <c r="K330" s="43">
@@ -31155,23 +31265,23 @@
         <v>0</v>
       </c>
       <c r="N330" s="43" t="s">
-        <v>1009</v>
+        <v>1750</v>
       </c>
       <c r="O330" s="43">
         <v>4800</v>
       </c>
       <c r="P330" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q330" s="43" t="s">
-        <v>1049</v>
+        <v>1747</v>
+      </c>
+      <c r="Q330" s="66" t="s">
+        <v>1754</v>
       </c>
       <c r="R330" s="43"/>
       <c r="S330" s="43"/>
       <c r="T330" s="43"/>
       <c r="U330" s="43"/>
       <c r="V330" s="43" t="s">
-        <v>1052</v>
+        <v>1530</v>
       </c>
       <c r="W330" s="43">
         <v>99999999</v>
@@ -31224,7 +31334,7 @@
       </c>
       <c r="H331" s="43"/>
       <c r="I331" s="43" t="s">
-        <v>1034</v>
+        <v>1755</v>
       </c>
       <c r="J331" s="43"/>
       <c r="K331" s="43">
@@ -31243,17 +31353,17 @@
         <v>9900</v>
       </c>
       <c r="P331" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q331" s="43" t="s">
-        <v>1050</v>
+        <v>1756</v>
+      </c>
+      <c r="Q331" s="66" t="s">
+        <v>1757</v>
       </c>
       <c r="R331" s="43"/>
       <c r="S331" s="43"/>
       <c r="T331" s="43"/>
       <c r="U331" s="43"/>
       <c r="V331" s="43" t="s">
-        <v>1052</v>
+        <v>1530</v>
       </c>
       <c r="W331" s="43">
         <v>99999999</v>
@@ -31306,7 +31416,7 @@
       </c>
       <c r="H332" s="43"/>
       <c r="I332" s="43" t="s">
-        <v>1035</v>
+        <v>1758</v>
       </c>
       <c r="J332" s="43"/>
       <c r="K332" s="43">
@@ -31319,23 +31429,23 @@
         <v>0</v>
       </c>
       <c r="N332" s="43" t="s">
-        <v>1009</v>
+        <v>1750</v>
       </c>
       <c r="O332" s="43">
         <v>19800</v>
       </c>
       <c r="P332" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q332" s="43" t="s">
-        <v>1044</v>
+        <v>1747</v>
+      </c>
+      <c r="Q332" s="66" t="s">
+        <v>1759</v>
       </c>
       <c r="R332" s="43"/>
       <c r="S332" s="43"/>
       <c r="T332" s="43"/>
       <c r="U332" s="43"/>
       <c r="V332" s="43" t="s">
-        <v>1052</v>
+        <v>1530</v>
       </c>
       <c r="W332" s="43">
         <v>99999999</v>
@@ -31388,7 +31498,7 @@
       </c>
       <c r="H333" s="43"/>
       <c r="I333" s="43" t="s">
-        <v>1036</v>
+        <v>1760</v>
       </c>
       <c r="J333" s="43"/>
       <c r="K333" s="43">
@@ -31407,17 +31517,17 @@
         <v>29800</v>
       </c>
       <c r="P333" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q333" s="43" t="s">
-        <v>1045</v>
+        <v>1747</v>
+      </c>
+      <c r="Q333" s="66" t="s">
+        <v>1761</v>
       </c>
       <c r="R333" s="43"/>
       <c r="S333" s="43"/>
       <c r="T333" s="43"/>
       <c r="U333" s="43"/>
       <c r="V333" s="43" t="s">
-        <v>1052</v>
+        <v>1762</v>
       </c>
       <c r="W333" s="43">
         <v>99999999</v>
@@ -31470,7 +31580,7 @@
       </c>
       <c r="H334" s="43"/>
       <c r="I334" s="43" t="s">
-        <v>1037</v>
+        <v>1763</v>
       </c>
       <c r="J334" s="43"/>
       <c r="K334" s="43">
@@ -31483,23 +31593,23 @@
         <v>0</v>
       </c>
       <c r="N334" s="43" t="s">
-        <v>1009</v>
+        <v>1764</v>
       </c>
       <c r="O334" s="43">
         <v>39800</v>
       </c>
       <c r="P334" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q334" s="43" t="s">
-        <v>1051</v>
+        <v>1765</v>
+      </c>
+      <c r="Q334" s="66" t="s">
+        <v>1766</v>
       </c>
       <c r="R334" s="43"/>
       <c r="S334" s="43"/>
       <c r="T334" s="43"/>
       <c r="U334" s="43"/>
       <c r="V334" s="43" t="s">
-        <v>1052</v>
+        <v>1762</v>
       </c>
       <c r="W334" s="43">
         <v>99999999</v>
@@ -31552,7 +31662,7 @@
       </c>
       <c r="H335" s="43"/>
       <c r="I335" s="43" t="s">
-        <v>1038</v>
+        <v>1767</v>
       </c>
       <c r="J335" s="43"/>
       <c r="K335" s="43">
@@ -31565,23 +31675,23 @@
         <v>0</v>
       </c>
       <c r="N335" s="43" t="s">
-        <v>1009</v>
+        <v>1750</v>
       </c>
       <c r="O335" s="43">
         <v>49800</v>
       </c>
       <c r="P335" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q335" s="43" t="s">
-        <v>1046</v>
+        <v>1747</v>
+      </c>
+      <c r="Q335" s="66" t="s">
+        <v>1768</v>
       </c>
       <c r="R335" s="43"/>
       <c r="S335" s="43"/>
       <c r="T335" s="43"/>
       <c r="U335" s="43"/>
       <c r="V335" s="43" t="s">
-        <v>1052</v>
+        <v>1530</v>
       </c>
       <c r="W335" s="43">
         <v>99999999</v>
@@ -31634,7 +31744,7 @@
       </c>
       <c r="H336" s="43"/>
       <c r="I336" s="43" t="s">
-        <v>1039</v>
+        <v>1769</v>
       </c>
       <c r="J336" s="43"/>
       <c r="K336" s="43">
@@ -31647,23 +31757,23 @@
         <v>0</v>
       </c>
       <c r="N336" s="43" t="s">
-        <v>1009</v>
+        <v>1750</v>
       </c>
       <c r="O336" s="43">
         <v>59800</v>
       </c>
       <c r="P336" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q336" s="43" t="s">
-        <v>1047</v>
+        <v>1756</v>
+      </c>
+      <c r="Q336" s="66" t="s">
+        <v>1770</v>
       </c>
       <c r="R336" s="43"/>
       <c r="S336" s="43"/>
       <c r="T336" s="43"/>
       <c r="U336" s="43"/>
       <c r="V336" s="43" t="s">
-        <v>1052</v>
+        <v>1748</v>
       </c>
       <c r="W336" s="43">
         <v>99999999</v>
@@ -31716,7 +31826,7 @@
       </c>
       <c r="H337" s="43"/>
       <c r="I337" s="43" t="s">
-        <v>1040</v>
+        <v>1771</v>
       </c>
       <c r="J337" s="43"/>
       <c r="K337" s="43">
@@ -31729,23 +31839,23 @@
         <v>0</v>
       </c>
       <c r="N337" s="43" t="s">
-        <v>1009</v>
+        <v>1750</v>
       </c>
       <c r="O337" s="43">
         <v>69800</v>
       </c>
       <c r="P337" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q337" s="43" t="s">
-        <v>1048</v>
+        <v>1756</v>
+      </c>
+      <c r="Q337" s="66" t="s">
+        <v>1772</v>
       </c>
       <c r="R337" s="43"/>
       <c r="S337" s="43"/>
       <c r="T337" s="43"/>
       <c r="U337" s="43"/>
       <c r="V337" s="43" t="s">
-        <v>1052</v>
+        <v>1748</v>
       </c>
       <c r="W337" s="43">
         <v>99999999</v>
@@ -31791,10 +31901,10 @@
         <v>1</v>
       </c>
       <c r="G338" s="19" t="s">
-        <v>1244</v>
+        <v>1224</v>
       </c>
       <c r="I338" s="19" t="s">
-        <v>1069</v>
+        <v>1049</v>
       </c>
       <c r="K338" s="19">
         <v>-31</v>
@@ -31812,10 +31922,10 @@
         <v>19800</v>
       </c>
       <c r="P338" s="19" t="s">
-        <v>1067</v>
+        <v>1047</v>
       </c>
       <c r="Q338" s="19" t="s">
-        <v>1073</v>
+        <v>1053</v>
       </c>
       <c r="V338" s="19" t="s">
         <v>526</v>
@@ -31830,10 +31940,10 @@
         <v>2552233600</v>
       </c>
       <c r="AA338" s="19" t="s">
-        <v>1068</v>
+        <v>1048</v>
       </c>
       <c r="AB338" s="19" t="s">
-        <v>1076</v>
+        <v>1056</v>
       </c>
       <c r="AG338" s="19">
         <v>1</v>
@@ -31866,7 +31976,7 @@
       </c>
       <c r="H339" s="19"/>
       <c r="I339" s="19" t="s">
-        <v>1071</v>
+        <v>1051</v>
       </c>
       <c r="J339" s="19"/>
       <c r="K339" s="19">
@@ -31885,10 +31995,10 @@
         <v>30000</v>
       </c>
       <c r="P339" s="19" t="s">
-        <v>1067</v>
+        <v>1047</v>
       </c>
       <c r="Q339" s="19" t="s">
-        <v>1074</v>
+        <v>1054</v>
       </c>
       <c r="R339" s="19"/>
       <c r="S339" s="19"/>
@@ -31908,10 +32018,10 @@
       </c>
       <c r="Z339" s="19"/>
       <c r="AA339" s="19" t="s">
-        <v>1068</v>
+        <v>1048</v>
       </c>
       <c r="AB339" s="19" t="s">
-        <v>1077</v>
+        <v>1057</v>
       </c>
       <c r="AC339" s="19"/>
       <c r="AD339" s="19"/>
@@ -31946,11 +32056,11 @@
         <v>1</v>
       </c>
       <c r="G340" s="19" t="s">
-        <v>1245</v>
+        <v>1225</v>
       </c>
       <c r="H340" s="19"/>
       <c r="I340" s="19" t="s">
-        <v>1070</v>
+        <v>1050</v>
       </c>
       <c r="J340" s="19"/>
       <c r="K340" s="19">
@@ -31969,10 +32079,10 @@
         <v>78000</v>
       </c>
       <c r="P340" s="19" t="s">
-        <v>1067</v>
+        <v>1047</v>
       </c>
       <c r="Q340" s="19" t="s">
-        <v>1072</v>
+        <v>1052</v>
       </c>
       <c r="R340" s="19"/>
       <c r="S340" s="19"/>
@@ -31992,10 +32102,10 @@
       </c>
       <c r="Z340" s="19"/>
       <c r="AA340" s="19" t="s">
-        <v>1068</v>
+        <v>1048</v>
       </c>
       <c r="AB340" s="19" t="s">
-        <v>1078</v>
+        <v>1058</v>
       </c>
       <c r="AC340" s="19"/>
       <c r="AD340" s="19"/>
@@ -32027,11 +32137,11 @@
         <v>1</v>
       </c>
       <c r="G341" s="6" t="s">
-        <v>1261</v>
+        <v>1241</v>
       </c>
       <c r="H341" s="6"/>
       <c r="I341" s="5" t="s">
-        <v>1262</v>
+        <v>1242</v>
       </c>
       <c r="K341" s="5">
         <v>-31</v>
@@ -32043,19 +32153,19 @@
         <v>0</v>
       </c>
       <c r="N341" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O341" s="5">
         <v>600</v>
       </c>
       <c r="P341" s="5" t="s">
-        <v>1264</v>
+        <v>1244</v>
       </c>
       <c r="Q341" s="10" t="s">
-        <v>1265</v>
+        <v>1245</v>
       </c>
       <c r="V341" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W341" s="5">
         <v>9999999</v>
@@ -32070,10 +32180,10 @@
         <v>26</v>
       </c>
       <c r="AA341" s="5" t="s">
-        <v>1267</v>
+        <v>1247</v>
       </c>
       <c r="AB341" s="5" t="s">
-        <v>1268</v>
+        <v>1248</v>
       </c>
       <c r="AG341" s="5">
         <v>1</v>
@@ -32099,10 +32209,10 @@
         <v>1</v>
       </c>
       <c r="G342" s="6" t="s">
-        <v>1269</v>
+        <v>1249</v>
       </c>
       <c r="I342" s="5" t="s">
-        <v>1270</v>
+        <v>1250</v>
       </c>
       <c r="K342" s="5">
         <v>-31</v>
@@ -32114,19 +32224,19 @@
         <v>0</v>
       </c>
       <c r="N342" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O342" s="5">
         <v>600</v>
       </c>
       <c r="P342" s="5" t="s">
-        <v>1264</v>
+        <v>1244</v>
       </c>
       <c r="Q342" s="10" t="s">
-        <v>1172</v>
+        <v>1152</v>
       </c>
       <c r="V342" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W342" s="5">
         <v>9999999</v>
@@ -32141,10 +32251,10 @@
         <v>27</v>
       </c>
       <c r="AA342" s="5" t="s">
-        <v>1267</v>
+        <v>1247</v>
       </c>
       <c r="AB342" s="5" t="s">
-        <v>1271</v>
+        <v>1251</v>
       </c>
       <c r="AG342" s="5">
         <v>1</v>
@@ -32170,10 +32280,10 @@
         <v>1</v>
       </c>
       <c r="G343" s="6" t="s">
-        <v>1272</v>
+        <v>1252</v>
       </c>
       <c r="I343" s="5" t="s">
-        <v>1273</v>
+        <v>1253</v>
       </c>
       <c r="K343" s="5">
         <v>-31</v>
@@ -32185,19 +32295,19 @@
         <v>0</v>
       </c>
       <c r="N343" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O343" s="5">
         <v>600</v>
       </c>
       <c r="P343" s="5" t="s">
-        <v>1264</v>
+        <v>1244</v>
       </c>
       <c r="Q343" s="10" t="s">
-        <v>1173</v>
+        <v>1153</v>
       </c>
       <c r="V343" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W343" s="5">
         <v>9999999</v>
@@ -32212,10 +32322,10 @@
         <v>28</v>
       </c>
       <c r="AA343" s="5" t="s">
-        <v>1267</v>
+        <v>1247</v>
       </c>
       <c r="AB343" s="5" t="s">
-        <v>1274</v>
+        <v>1254</v>
       </c>
       <c r="AG343" s="5">
         <v>1</v>
@@ -32241,10 +32351,10 @@
         <v>1</v>
       </c>
       <c r="G344" s="6" t="s">
-        <v>1275</v>
+        <v>1255</v>
       </c>
       <c r="I344" s="5" t="s">
-        <v>1276</v>
+        <v>1256</v>
       </c>
       <c r="K344" s="5">
         <v>-31</v>
@@ -32256,19 +32366,19 @@
         <v>0</v>
       </c>
       <c r="N344" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O344" s="5">
         <v>4800</v>
       </c>
       <c r="P344" s="5" t="s">
-        <v>1264</v>
+        <v>1244</v>
       </c>
       <c r="Q344" s="10" t="s">
-        <v>1277</v>
+        <v>1257</v>
       </c>
       <c r="V344" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W344" s="5">
         <v>9999999</v>
@@ -32283,10 +32393,10 @@
         <v>29</v>
       </c>
       <c r="AA344" s="5" t="s">
-        <v>1267</v>
+        <v>1247</v>
       </c>
       <c r="AB344" s="5" t="s">
-        <v>1278</v>
+        <v>1258</v>
       </c>
       <c r="AG344" s="5">
         <v>1</v>
@@ -32312,10 +32422,10 @@
         <v>1</v>
       </c>
       <c r="G345" s="6" t="s">
-        <v>1174</v>
+        <v>1154</v>
       </c>
       <c r="I345" s="5" t="s">
-        <v>1279</v>
+        <v>1259</v>
       </c>
       <c r="K345" s="5">
         <v>-31</v>
@@ -32327,19 +32437,19 @@
         <v>0</v>
       </c>
       <c r="N345" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O345" s="5">
         <v>4800</v>
       </c>
       <c r="P345" s="5" t="s">
-        <v>1264</v>
+        <v>1244</v>
       </c>
       <c r="Q345" s="10" t="s">
-        <v>1175</v>
+        <v>1155</v>
       </c>
       <c r="V345" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W345" s="5">
         <v>9999999</v>
@@ -32354,10 +32464,10 @@
         <v>30</v>
       </c>
       <c r="AA345" s="5" t="s">
-        <v>1267</v>
+        <v>1247</v>
       </c>
       <c r="AB345" s="5" t="s">
-        <v>1280</v>
+        <v>1260</v>
       </c>
       <c r="AG345" s="5">
         <v>1</v>
@@ -32383,10 +32493,10 @@
         <v>1</v>
       </c>
       <c r="G346" s="6" t="s">
-        <v>1176</v>
+        <v>1156</v>
       </c>
       <c r="I346" s="5" t="s">
-        <v>1281</v>
+        <v>1261</v>
       </c>
       <c r="K346" s="5">
         <v>-31</v>
@@ -32398,19 +32508,19 @@
         <v>0</v>
       </c>
       <c r="N346" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O346" s="5">
         <v>4800</v>
       </c>
       <c r="P346" s="5" t="s">
-        <v>1264</v>
+        <v>1244</v>
       </c>
       <c r="Q346" s="10" t="s">
-        <v>1177</v>
+        <v>1157</v>
       </c>
       <c r="V346" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W346" s="5">
         <v>9999999</v>
@@ -32425,10 +32535,10 @@
         <v>31</v>
       </c>
       <c r="AA346" s="5" t="s">
-        <v>1267</v>
+        <v>1247</v>
       </c>
       <c r="AB346" s="5" t="s">
-        <v>1282</v>
+        <v>1262</v>
       </c>
       <c r="AG346" s="5">
         <v>1</v>
@@ -32454,10 +32564,10 @@
         <v>1</v>
       </c>
       <c r="G347" s="6" t="s">
-        <v>1178</v>
+        <v>1158</v>
       </c>
       <c r="I347" s="5" t="s">
-        <v>1283</v>
+        <v>1263</v>
       </c>
       <c r="K347" s="5">
         <v>-31</v>
@@ -32469,19 +32579,19 @@
         <v>0</v>
       </c>
       <c r="N347" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O347" s="5">
         <v>9800</v>
       </c>
       <c r="P347" s="5" t="s">
+        <v>1244</v>
+      </c>
+      <c r="Q347" s="10" t="s">
         <v>1264</v>
       </c>
-      <c r="Q347" s="10" t="s">
-        <v>1284</v>
-      </c>
       <c r="V347" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W347" s="5">
         <v>9999999</v>
@@ -32496,10 +32606,10 @@
         <v>32</v>
       </c>
       <c r="AA347" s="5" t="s">
-        <v>1267</v>
+        <v>1247</v>
       </c>
       <c r="AB347" s="5" t="s">
-        <v>1285</v>
+        <v>1265</v>
       </c>
       <c r="AG347" s="5">
         <v>1</v>
@@ -32525,10 +32635,10 @@
         <v>1</v>
       </c>
       <c r="G348" s="6" t="s">
-        <v>1179</v>
+        <v>1159</v>
       </c>
       <c r="I348" s="5" t="s">
-        <v>1286</v>
+        <v>1266</v>
       </c>
       <c r="K348" s="5">
         <v>-31</v>
@@ -32540,19 +32650,19 @@
         <v>0</v>
       </c>
       <c r="N348" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O348" s="5">
         <v>9800</v>
       </c>
       <c r="P348" s="5" t="s">
-        <v>1264</v>
+        <v>1244</v>
       </c>
       <c r="Q348" s="10" t="s">
-        <v>1287</v>
+        <v>1267</v>
       </c>
       <c r="V348" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W348" s="5">
         <v>9999999</v>
@@ -32567,10 +32677,10 @@
         <v>33</v>
       </c>
       <c r="AA348" s="5" t="s">
-        <v>1267</v>
+        <v>1247</v>
       </c>
       <c r="AB348" s="5" t="s">
-        <v>1288</v>
+        <v>1268</v>
       </c>
       <c r="AG348" s="5">
         <v>1</v>
@@ -32596,10 +32706,10 @@
         <v>1</v>
       </c>
       <c r="G349" s="6" t="s">
-        <v>1180</v>
+        <v>1160</v>
       </c>
       <c r="I349" s="5" t="s">
-        <v>1289</v>
+        <v>1269</v>
       </c>
       <c r="K349" s="5">
         <v>-31</v>
@@ -32617,13 +32727,13 @@
         <v>9800</v>
       </c>
       <c r="P349" s="5" t="s">
-        <v>1264</v>
+        <v>1244</v>
       </c>
       <c r="Q349" s="10" t="s">
-        <v>1290</v>
+        <v>1270</v>
       </c>
       <c r="V349" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W349" s="5">
         <v>9999999</v>
@@ -32638,10 +32748,10 @@
         <v>34</v>
       </c>
       <c r="AA349" s="5" t="s">
-        <v>1267</v>
+        <v>1247</v>
       </c>
       <c r="AB349" s="5" t="s">
-        <v>1181</v>
+        <v>1161</v>
       </c>
       <c r="AG349" s="5">
         <v>1</v>
@@ -32667,10 +32777,10 @@
         <v>1</v>
       </c>
       <c r="G350" s="6" t="s">
-        <v>1182</v>
+        <v>1162</v>
       </c>
       <c r="I350" s="5" t="s">
-        <v>1291</v>
+        <v>1271</v>
       </c>
       <c r="K350" s="5">
         <v>-31</v>
@@ -32691,10 +32801,10 @@
         <v>987</v>
       </c>
       <c r="Q350" s="10" t="s">
-        <v>1292</v>
+        <v>1272</v>
       </c>
       <c r="V350" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W350" s="5">
         <v>9999999</v>
@@ -32712,7 +32822,7 @@
         <v>446</v>
       </c>
       <c r="AB350" s="5" t="s">
-        <v>1293</v>
+        <v>1273</v>
       </c>
       <c r="AG350" s="5">
         <v>1</v>
@@ -32738,10 +32848,10 @@
         <v>1</v>
       </c>
       <c r="G351" s="6" t="s">
-        <v>1183</v>
+        <v>1163</v>
       </c>
       <c r="I351" s="5" t="s">
-        <v>1294</v>
+        <v>1274</v>
       </c>
       <c r="K351" s="5">
         <v>-31</v>
@@ -32753,7 +32863,7 @@
         <v>0</v>
       </c>
       <c r="N351" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O351" s="5">
         <v>19800</v>
@@ -32762,10 +32872,10 @@
         <v>987</v>
       </c>
       <c r="Q351" s="10" t="s">
-        <v>1184</v>
+        <v>1164</v>
       </c>
       <c r="V351" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W351" s="5">
         <v>9999999</v>
@@ -32783,7 +32893,7 @@
         <v>446</v>
       </c>
       <c r="AB351" s="5" t="s">
-        <v>1295</v>
+        <v>1275</v>
       </c>
       <c r="AG351" s="5">
         <v>1</v>
@@ -32809,10 +32919,10 @@
         <v>1</v>
       </c>
       <c r="G352" s="6" t="s">
-        <v>1185</v>
+        <v>1165</v>
       </c>
       <c r="I352" s="5" t="s">
-        <v>1186</v>
+        <v>1166</v>
       </c>
       <c r="K352" s="5">
         <v>-31</v>
@@ -32833,7 +32943,7 @@
         <v>987</v>
       </c>
       <c r="Q352" s="10" t="s">
-        <v>1296</v>
+        <v>1276</v>
       </c>
       <c r="V352" s="5" t="s">
         <v>568</v>
@@ -32851,10 +32961,10 @@
         <v>37</v>
       </c>
       <c r="AA352" s="5" t="s">
-        <v>1267</v>
+        <v>1247</v>
       </c>
       <c r="AB352" s="5" t="s">
-        <v>1187</v>
+        <v>1167</v>
       </c>
       <c r="AG352" s="5">
         <v>1</v>
@@ -32880,13 +32990,13 @@
         <v>0</v>
       </c>
       <c r="G353" s="5" t="s">
-        <v>1297</v>
+        <v>1277</v>
       </c>
       <c r="H353" s="5" t="s">
-        <v>1189</v>
+        <v>1169</v>
       </c>
       <c r="I353" s="5" t="s">
-        <v>1190</v>
+        <v>1170</v>
       </c>
       <c r="K353" s="5">
         <v>-31</v>
@@ -32904,13 +33014,13 @@
         <v>600</v>
       </c>
       <c r="P353" s="5" t="s">
-        <v>1298</v>
+        <v>1278</v>
       </c>
       <c r="Q353" s="10" t="s">
-        <v>1299</v>
+        <v>1279</v>
       </c>
       <c r="V353" s="5" t="s">
-        <v>1300</v>
+        <v>1280</v>
       </c>
       <c r="W353" s="5">
         <v>9999999</v>
@@ -32948,13 +33058,13 @@
         <v>0</v>
       </c>
       <c r="G354" s="5" t="s">
-        <v>1301</v>
+        <v>1281</v>
       </c>
       <c r="H354" s="5" t="s">
-        <v>1189</v>
+        <v>1169</v>
       </c>
       <c r="I354" s="5" t="s">
-        <v>1302</v>
+        <v>1282</v>
       </c>
       <c r="K354" s="5">
         <v>-31</v>
@@ -32966,19 +33076,19 @@
         <v>0</v>
       </c>
       <c r="N354" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O354" s="5">
         <v>1200</v>
       </c>
       <c r="P354" s="5" t="s">
-        <v>1193</v>
+        <v>1173</v>
       </c>
       <c r="Q354" s="10" t="s">
-        <v>1299</v>
+        <v>1279</v>
       </c>
       <c r="V354" s="5" t="s">
-        <v>1300</v>
+        <v>1280</v>
       </c>
       <c r="W354" s="5">
         <v>9999999</v>
@@ -33016,13 +33126,13 @@
         <v>0</v>
       </c>
       <c r="G355" s="5" t="s">
-        <v>1303</v>
+        <v>1283</v>
       </c>
       <c r="H355" s="5" t="s">
-        <v>1304</v>
+        <v>1284</v>
       </c>
       <c r="I355" s="5" t="s">
-        <v>1190</v>
+        <v>1170</v>
       </c>
       <c r="K355" s="5">
         <v>-31</v>
@@ -33034,16 +33144,16 @@
         <v>0</v>
       </c>
       <c r="N355" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O355" s="5">
         <v>1800</v>
       </c>
       <c r="P355" s="5" t="s">
-        <v>1195</v>
+        <v>1175</v>
       </c>
       <c r="Q355" s="10" t="s">
-        <v>1191</v>
+        <v>1171</v>
       </c>
       <c r="V355" s="5" t="s">
         <v>597</v>
@@ -33084,13 +33194,13 @@
         <v>0</v>
       </c>
       <c r="G356" s="5" t="s">
-        <v>1188</v>
+        <v>1168</v>
       </c>
       <c r="H356" s="5" t="s">
-        <v>1196</v>
+        <v>1176</v>
       </c>
       <c r="I356" s="5" t="s">
-        <v>1190</v>
+        <v>1170</v>
       </c>
       <c r="K356" s="5">
         <v>-31</v>
@@ -33108,13 +33218,13 @@
         <v>4800</v>
       </c>
       <c r="P356" s="5" t="s">
-        <v>1197</v>
+        <v>1177</v>
       </c>
       <c r="Q356" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V356" s="5" t="s">
-        <v>1198</v>
+        <v>1178</v>
       </c>
       <c r="W356" s="5">
         <v>9999999</v>
@@ -33152,13 +33262,13 @@
         <v>0</v>
       </c>
       <c r="G357" s="5" t="s">
-        <v>1301</v>
+        <v>1281</v>
       </c>
       <c r="H357" s="5" t="s">
-        <v>1196</v>
+        <v>1176</v>
       </c>
       <c r="I357" s="5" t="s">
-        <v>1190</v>
+        <v>1170</v>
       </c>
       <c r="K357" s="5">
         <v>-31</v>
@@ -33170,19 +33280,19 @@
         <v>0</v>
       </c>
       <c r="N357" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O357" s="5">
         <v>9800</v>
       </c>
       <c r="P357" s="5" t="s">
-        <v>1199</v>
+        <v>1179</v>
       </c>
       <c r="Q357" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V357" s="5" t="s">
-        <v>1198</v>
+        <v>1178</v>
       </c>
       <c r="W357" s="5">
         <v>9999999</v>
@@ -33220,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G358" s="5" t="s">
-        <v>1194</v>
+        <v>1174</v>
       </c>
       <c r="H358" s="5" t="s">
-        <v>1196</v>
+        <v>1176</v>
       </c>
       <c r="I358" s="5" t="s">
-        <v>1302</v>
+        <v>1282</v>
       </c>
       <c r="K358" s="5">
         <v>-31</v>
@@ -33238,13 +33348,13 @@
         <v>0</v>
       </c>
       <c r="N358" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O358" s="5">
         <v>19800</v>
       </c>
       <c r="P358" s="5" t="s">
-        <v>1200</v>
+        <v>1180</v>
       </c>
       <c r="Q358" s="10" t="s">
         <v>272</v>
@@ -33288,13 +33398,13 @@
         <v>0</v>
       </c>
       <c r="G359" s="5" t="s">
-        <v>1188</v>
+        <v>1168</v>
       </c>
       <c r="H359" s="5" t="s">
-        <v>1201</v>
+        <v>1181</v>
       </c>
       <c r="I359" s="5" t="s">
-        <v>1302</v>
+        <v>1282</v>
       </c>
       <c r="K359" s="5">
         <v>-31</v>
@@ -33306,19 +33416,19 @@
         <v>0</v>
       </c>
       <c r="N359" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O359" s="5">
         <v>9800</v>
       </c>
       <c r="P359" s="5" t="s">
-        <v>1202</v>
+        <v>1182</v>
       </c>
       <c r="Q359" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V359" s="5" t="s">
-        <v>1198</v>
+        <v>1178</v>
       </c>
       <c r="W359" s="5">
         <v>9999999</v>
@@ -33356,13 +33466,13 @@
         <v>0</v>
       </c>
       <c r="G360" s="5" t="s">
-        <v>1192</v>
+        <v>1172</v>
       </c>
       <c r="H360" s="5" t="s">
-        <v>1201</v>
+        <v>1181</v>
       </c>
       <c r="I360" s="5" t="s">
-        <v>1302</v>
+        <v>1282</v>
       </c>
       <c r="K360" s="5">
         <v>-31</v>
@@ -33374,19 +33484,19 @@
         <v>0</v>
       </c>
       <c r="N360" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O360" s="5">
         <v>19800</v>
       </c>
       <c r="P360" s="5" t="s">
-        <v>1203</v>
+        <v>1183</v>
       </c>
       <c r="Q360" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V360" s="5" t="s">
-        <v>1198</v>
+        <v>1178</v>
       </c>
       <c r="W360" s="5">
         <v>9999999</v>
@@ -33424,13 +33534,13 @@
         <v>0</v>
       </c>
       <c r="G361" s="5" t="s">
-        <v>1194</v>
+        <v>1174</v>
       </c>
       <c r="H361" s="5" t="s">
-        <v>1201</v>
+        <v>1181</v>
       </c>
       <c r="I361" s="5" t="s">
-        <v>1302</v>
+        <v>1282</v>
       </c>
       <c r="K361" s="5">
         <v>-31</v>
@@ -33442,19 +33552,19 @@
         <v>0</v>
       </c>
       <c r="N361" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O361" s="5">
         <v>49800</v>
       </c>
       <c r="P361" s="5" t="s">
-        <v>1204</v>
+        <v>1184</v>
       </c>
       <c r="Q361" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V361" s="5" t="s">
-        <v>1305</v>
+        <v>1285</v>
       </c>
       <c r="W361" s="5">
         <v>9999999</v>
@@ -33492,13 +33602,13 @@
         <v>0</v>
       </c>
       <c r="G362" s="5" t="s">
-        <v>1303</v>
+        <v>1283</v>
       </c>
       <c r="H362" s="5" t="s">
-        <v>1189</v>
+        <v>1169</v>
       </c>
       <c r="I362" s="5" t="s">
-        <v>1302</v>
+        <v>1282</v>
       </c>
       <c r="K362" s="5">
         <v>-31</v>
@@ -33516,10 +33626,10 @@
         <v>1800</v>
       </c>
       <c r="P362" s="5" t="s">
-        <v>1195</v>
+        <v>1175</v>
       </c>
       <c r="Q362" s="10" t="s">
-        <v>1299</v>
+        <v>1279</v>
       </c>
       <c r="V362" s="5" t="s">
         <v>568</v>
@@ -33537,10 +33647,10 @@
         <v>38</v>
       </c>
       <c r="AA362" s="5" t="s">
-        <v>1306</v>
+        <v>1286</v>
       </c>
       <c r="AB362" s="5" t="s">
-        <v>1206</v>
+        <v>1186</v>
       </c>
       <c r="AG362" s="5">
         <v>1</v>
@@ -33566,13 +33676,13 @@
         <v>0</v>
       </c>
       <c r="G363" s="5" t="s">
-        <v>1303</v>
+        <v>1283</v>
       </c>
       <c r="H363" s="5" t="s">
-        <v>1207</v>
+        <v>1187</v>
       </c>
       <c r="I363" s="5" t="s">
-        <v>1302</v>
+        <v>1282</v>
       </c>
       <c r="K363" s="5">
         <v>-31</v>
@@ -33584,19 +33694,19 @@
         <v>0</v>
       </c>
       <c r="N363" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O363" s="5">
         <v>19800</v>
       </c>
       <c r="P363" s="5" t="s">
-        <v>1200</v>
+        <v>1180</v>
       </c>
       <c r="Q363" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V363" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W363" s="5">
         <v>9999999</v>
@@ -33611,10 +33721,10 @@
         <v>39</v>
       </c>
       <c r="AA363" s="5" t="s">
-        <v>1306</v>
+        <v>1286</v>
       </c>
       <c r="AB363" s="5" t="s">
-        <v>1208</v>
+        <v>1188</v>
       </c>
       <c r="AG363" s="5">
         <v>1</v>
@@ -33640,13 +33750,13 @@
         <v>0</v>
       </c>
       <c r="G364" s="5" t="s">
-        <v>1303</v>
+        <v>1283</v>
       </c>
       <c r="H364" s="5" t="s">
-        <v>1201</v>
+        <v>1181</v>
       </c>
       <c r="I364" s="5" t="s">
-        <v>1190</v>
+        <v>1170</v>
       </c>
       <c r="K364" s="5">
         <v>-31</v>
@@ -33658,19 +33768,19 @@
         <v>0</v>
       </c>
       <c r="N364" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O364" s="5">
         <v>49800</v>
       </c>
       <c r="P364" s="5" t="s">
-        <v>1204</v>
+        <v>1184</v>
       </c>
       <c r="Q364" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V364" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W364" s="5">
         <v>9999999</v>
@@ -33685,10 +33795,10 @@
         <v>40</v>
       </c>
       <c r="AA364" s="5" t="s">
-        <v>1205</v>
+        <v>1185</v>
       </c>
       <c r="AB364" s="5" t="s">
-        <v>1307</v>
+        <v>1287</v>
       </c>
       <c r="AG364" s="5">
         <v>1</v>
@@ -33714,10 +33824,10 @@
         <v>1</v>
       </c>
       <c r="G365" s="5" t="s">
-        <v>1308</v>
+        <v>1288</v>
       </c>
       <c r="I365" s="5" t="s">
-        <v>1209</v>
+        <v>1189</v>
       </c>
       <c r="K365" s="5">
         <v>-31</v>
@@ -33729,16 +33839,16 @@
         <v>0</v>
       </c>
       <c r="N365" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O365" s="5">
         <v>131400</v>
       </c>
       <c r="P365" s="5" t="s">
-        <v>1309</v>
+        <v>1289</v>
       </c>
       <c r="Q365" s="10" t="s">
-        <v>1310</v>
+        <v>1290</v>
       </c>
       <c r="V365" s="5" t="s">
         <v>568</v>
@@ -33779,10 +33889,10 @@
         <v>1</v>
       </c>
       <c r="G366" s="5" t="s">
-        <v>1311</v>
+        <v>1291</v>
       </c>
       <c r="I366" s="5" t="s">
-        <v>1312</v>
+        <v>1292</v>
       </c>
       <c r="K366" s="5">
         <v>-31</v>
@@ -33794,16 +33904,16 @@
         <v>0</v>
       </c>
       <c r="N366" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O366" s="5">
         <v>52000</v>
       </c>
       <c r="P366" s="5" t="s">
-        <v>1210</v>
+        <v>1190</v>
       </c>
       <c r="Q366" s="10" t="s">
-        <v>1313</v>
+        <v>1293</v>
       </c>
       <c r="V366" s="5" t="s">
         <v>568</v>
@@ -33844,10 +33954,10 @@
         <v>1</v>
       </c>
       <c r="G367" s="5" t="s">
-        <v>1314</v>
+        <v>1294</v>
       </c>
       <c r="I367" s="5" t="s">
-        <v>1211</v>
+        <v>1191</v>
       </c>
       <c r="K367" s="5">
         <v>-31</v>
@@ -33859,19 +33969,19 @@
         <v>0</v>
       </c>
       <c r="N367" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O367" s="5">
         <v>25800</v>
       </c>
       <c r="P367" s="5" t="s">
-        <v>1210</v>
+        <v>1190</v>
       </c>
       <c r="Q367" s="10" t="s">
-        <v>1315</v>
+        <v>1295</v>
       </c>
       <c r="V367" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W367" s="5">
         <v>9999999</v>
@@ -33909,10 +34019,10 @@
         <v>1</v>
       </c>
       <c r="G368" s="5" t="s">
-        <v>1316</v>
+        <v>1296</v>
       </c>
       <c r="I368" s="5" t="s">
-        <v>1212</v>
+        <v>1192</v>
       </c>
       <c r="K368" s="5">
         <v>-31</v>
@@ -33924,16 +34034,16 @@
         <v>0</v>
       </c>
       <c r="N368" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O368" s="5">
         <v>14700</v>
       </c>
       <c r="P368" s="5" t="s">
-        <v>1309</v>
+        <v>1289</v>
       </c>
       <c r="Q368" s="10" t="s">
-        <v>1317</v>
+        <v>1297</v>
       </c>
       <c r="V368" s="5" t="s">
         <v>568</v>
@@ -33974,10 +34084,10 @@
         <v>1</v>
       </c>
       <c r="G369" s="5" t="s">
-        <v>1318</v>
+        <v>1298</v>
       </c>
       <c r="I369" s="5" t="s">
-        <v>1213</v>
+        <v>1193</v>
       </c>
       <c r="K369" s="5">
         <v>-31</v>
@@ -33995,13 +34105,13 @@
         <v>5200</v>
       </c>
       <c r="P369" s="5" t="s">
-        <v>1210</v>
+        <v>1190</v>
       </c>
       <c r="Q369" s="10" t="s">
-        <v>1214</v>
+        <v>1194</v>
       </c>
       <c r="V369" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W369" s="5">
         <v>9999999</v>
@@ -34039,10 +34149,10 @@
         <v>1</v>
       </c>
       <c r="G370" s="5" t="s">
-        <v>1215</v>
+        <v>1195</v>
       </c>
       <c r="I370" s="5" t="s">
-        <v>1319</v>
+        <v>1299</v>
       </c>
       <c r="K370" s="5">
         <v>-31</v>
@@ -34060,7 +34170,7 @@
         <v>1800</v>
       </c>
       <c r="P370" s="5" t="s">
-        <v>1320</v>
+        <v>1300</v>
       </c>
       <c r="Q370" s="10" t="s">
         <v>745</v>
@@ -34101,10 +34211,10 @@
         <v>1</v>
       </c>
       <c r="G371" s="5" t="s">
-        <v>1321</v>
+        <v>1301</v>
       </c>
       <c r="I371" s="5" t="s">
-        <v>1216</v>
+        <v>1196</v>
       </c>
       <c r="K371" s="5">
         <v>-31</v>
@@ -34122,10 +34232,10 @@
         <v>4800</v>
       </c>
       <c r="P371" s="5" t="s">
-        <v>1320</v>
+        <v>1300</v>
       </c>
       <c r="Q371" s="10" t="s">
-        <v>1322</v>
+        <v>1302</v>
       </c>
       <c r="V371" s="5" t="s">
         <v>598</v>
@@ -34163,10 +34273,10 @@
         <v>1</v>
       </c>
       <c r="G372" s="5" t="s">
-        <v>1217</v>
+        <v>1197</v>
       </c>
       <c r="I372" s="5" t="s">
-        <v>1323</v>
+        <v>1303</v>
       </c>
       <c r="K372" s="5">
         <v>-31</v>
@@ -34184,7 +34294,7 @@
         <v>9800</v>
       </c>
       <c r="P372" s="5" t="s">
-        <v>1320</v>
+        <v>1300</v>
       </c>
       <c r="Q372" s="10" t="s">
         <v>749</v>
@@ -34225,10 +34335,10 @@
         <v>1</v>
       </c>
       <c r="G373" s="5" t="s">
-        <v>1218</v>
+        <v>1198</v>
       </c>
       <c r="I373" s="5" t="s">
-        <v>1324</v>
+        <v>1304</v>
       </c>
       <c r="K373" s="5">
         <v>-31</v>
@@ -34246,13 +34356,13 @@
         <v>19800</v>
       </c>
       <c r="P373" s="5" t="s">
-        <v>1320</v>
+        <v>1300</v>
       </c>
       <c r="Q373" s="10" t="s">
         <v>750</v>
       </c>
       <c r="V373" s="5" t="s">
-        <v>1325</v>
+        <v>1305</v>
       </c>
       <c r="W373" s="5">
         <v>9999999</v>
@@ -34287,13 +34397,13 @@
         <v>1</v>
       </c>
       <c r="G374" s="5" t="s">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="H374" s="5" t="s">
-        <v>1220</v>
+        <v>1200</v>
       </c>
       <c r="I374" s="5" t="s">
-        <v>1485</v>
+        <v>1465</v>
       </c>
       <c r="K374" s="5">
         <v>-31</v>
@@ -34305,7 +34415,7 @@
         <v>0</v>
       </c>
       <c r="N374" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O374" s="5">
         <v>600</v>
@@ -34314,7 +34424,7 @@
         <v>525</v>
       </c>
       <c r="Q374" s="10" t="s">
-        <v>1265</v>
+        <v>1245</v>
       </c>
       <c r="V374" s="5" t="s">
         <v>568</v>
@@ -34355,13 +34465,13 @@
         <v>1</v>
       </c>
       <c r="G375" s="5" t="s">
-        <v>1342</v>
+        <v>1322</v>
       </c>
       <c r="H375" s="5" t="s">
-        <v>1343</v>
+        <v>1323</v>
       </c>
       <c r="I375" s="5" t="s">
-        <v>1344</v>
+        <v>1324</v>
       </c>
       <c r="K375" s="5">
         <v>-31</v>
@@ -34373,19 +34483,19 @@
         <v>0</v>
       </c>
       <c r="N375" s="5" t="s">
-        <v>1345</v>
+        <v>1325</v>
       </c>
       <c r="O375" s="5">
         <v>300</v>
       </c>
       <c r="P375" s="5" t="s">
-        <v>1346</v>
+        <v>1326</v>
       </c>
       <c r="Q375" s="10" t="s">
-        <v>1347</v>
+        <v>1327</v>
       </c>
       <c r="V375" s="5" t="s">
-        <v>1348</v>
+        <v>1328</v>
       </c>
       <c r="W375" s="5">
         <v>9999999</v>
@@ -34423,13 +34533,13 @@
         <v>1</v>
       </c>
       <c r="G376" s="5" t="s">
-        <v>1350</v>
+        <v>1330</v>
       </c>
       <c r="H376" s="5" t="s">
-        <v>1352</v>
+        <v>1332</v>
       </c>
       <c r="I376" s="5" t="s">
-        <v>1353</v>
+        <v>1333</v>
       </c>
       <c r="K376" s="5">
         <v>-31</v>
@@ -34441,19 +34551,19 @@
         <v>0</v>
       </c>
       <c r="N376" s="5" t="s">
-        <v>1345</v>
+        <v>1325</v>
       </c>
       <c r="O376" s="5">
         <v>0</v>
       </c>
       <c r="P376" s="5" t="s">
-        <v>1355</v>
+        <v>1335</v>
       </c>
       <c r="Q376" s="10" t="s">
-        <v>1356</v>
+        <v>1336</v>
       </c>
       <c r="V376" s="5" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="W376" s="5">
         <v>9999999</v>
@@ -34491,10 +34601,10 @@
         <v>1</v>
       </c>
       <c r="G377" s="5" t="s">
-        <v>1350</v>
+        <v>1330</v>
       </c>
       <c r="H377" s="5" t="s">
-        <v>1352</v>
+        <v>1332</v>
       </c>
       <c r="I377" s="5" t="s">
         <v>1014</v>
@@ -34509,19 +34619,19 @@
         <v>0</v>
       </c>
       <c r="N377" s="5" t="s">
-        <v>1345</v>
+        <v>1325</v>
       </c>
       <c r="O377" s="5">
         <v>300</v>
       </c>
       <c r="P377" s="5" t="s">
-        <v>1354</v>
+        <v>1334</v>
       </c>
       <c r="Q377" s="10" t="s">
-        <v>1358</v>
+        <v>1338</v>
       </c>
       <c r="V377" s="5" t="s">
-        <v>1348</v>
+        <v>1328</v>
       </c>
       <c r="W377" s="5">
         <v>9999999</v>
@@ -34559,13 +34669,13 @@
         <v>1</v>
       </c>
       <c r="G378" s="5" t="s">
-        <v>1350</v>
+        <v>1330</v>
       </c>
       <c r="H378" s="5" t="s">
-        <v>1351</v>
+        <v>1331</v>
       </c>
       <c r="I378" s="5" t="s">
-        <v>1359</v>
+        <v>1339</v>
       </c>
       <c r="K378" s="5">
         <v>-31</v>
@@ -34583,13 +34693,13 @@
         <v>600</v>
       </c>
       <c r="P378" s="5" t="s">
-        <v>1355</v>
+        <v>1335</v>
       </c>
       <c r="Q378" s="10" t="s">
-        <v>1360</v>
+        <v>1340</v>
       </c>
       <c r="V378" s="5" t="s">
-        <v>1361</v>
+        <v>1341</v>
       </c>
       <c r="W378" s="5">
         <v>9999999</v>
@@ -34627,10 +34737,10 @@
         <v>1</v>
       </c>
       <c r="G379" s="5" t="s">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="H379" s="5" t="s">
-        <v>1352</v>
+        <v>1332</v>
       </c>
       <c r="I379" s="5" t="s">
         <v>896</v>
@@ -34645,19 +34755,19 @@
         <v>0</v>
       </c>
       <c r="N379" s="5" t="s">
-        <v>1345</v>
+        <v>1325</v>
       </c>
       <c r="O379" s="5">
         <v>1800</v>
       </c>
       <c r="P379" s="5" t="s">
-        <v>1355</v>
+        <v>1335</v>
       </c>
       <c r="Q379" s="10" t="s">
-        <v>1373</v>
+        <v>1353</v>
       </c>
       <c r="V379" s="5" t="s">
-        <v>1362</v>
+        <v>1342</v>
       </c>
       <c r="W379" s="5">
         <v>9999999</v>
@@ -34695,10 +34805,10 @@
         <v>1</v>
       </c>
       <c r="G380" s="5" t="s">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="H380" s="5" t="s">
-        <v>1351</v>
+        <v>1331</v>
       </c>
       <c r="I380" s="5" t="s">
         <v>897</v>
@@ -34713,19 +34823,19 @@
         <v>0</v>
       </c>
       <c r="N380" s="5" t="s">
-        <v>1345</v>
+        <v>1325</v>
       </c>
       <c r="O380" s="5">
         <v>4800</v>
       </c>
       <c r="P380" s="5" t="s">
-        <v>1355</v>
+        <v>1335</v>
       </c>
       <c r="Q380" s="10" t="s">
-        <v>1374</v>
+        <v>1354</v>
       </c>
       <c r="V380" s="5" t="s">
-        <v>1363</v>
+        <v>1343</v>
       </c>
       <c r="W380" s="5">
         <v>9999999</v>
@@ -34763,13 +34873,13 @@
         <v>1</v>
       </c>
       <c r="G381" s="5" t="s">
-        <v>1350</v>
+        <v>1330</v>
       </c>
       <c r="H381" s="5" t="s">
-        <v>1364</v>
+        <v>1344</v>
       </c>
       <c r="I381" s="5" t="s">
-        <v>1353</v>
+        <v>1333</v>
       </c>
       <c r="K381" s="5">
         <v>-31</v>
@@ -34787,10 +34897,10 @@
         <v>0</v>
       </c>
       <c r="P381" s="5" t="s">
-        <v>1355</v>
+        <v>1335</v>
       </c>
       <c r="Q381" s="10" t="s">
-        <v>1356</v>
+        <v>1336</v>
       </c>
       <c r="V381" s="5" t="s">
         <v>570</v>
@@ -34831,13 +34941,13 @@
         <v>1</v>
       </c>
       <c r="G382" s="5" t="s">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="H382" s="5" t="s">
-        <v>1364</v>
+        <v>1344</v>
       </c>
       <c r="I382" s="5" t="s">
-        <v>1319</v>
+        <v>1299</v>
       </c>
       <c r="K382" s="5">
         <v>-31</v>
@@ -34855,13 +34965,13 @@
         <v>1800</v>
       </c>
       <c r="P382" s="5" t="s">
-        <v>1354</v>
+        <v>1334</v>
       </c>
       <c r="Q382" s="10" t="s">
-        <v>1365</v>
+        <v>1345</v>
       </c>
       <c r="V382" s="5" t="s">
-        <v>1348</v>
+        <v>1328</v>
       </c>
       <c r="W382" s="5">
         <v>9999999</v>
@@ -34899,13 +35009,13 @@
         <v>1</v>
       </c>
       <c r="G383" s="5" t="s">
-        <v>1350</v>
+        <v>1330</v>
       </c>
       <c r="H383" s="5" t="s">
-        <v>1364</v>
+        <v>1344</v>
       </c>
       <c r="I383" s="5" t="s">
-        <v>1366</v>
+        <v>1346</v>
       </c>
       <c r="K383" s="5">
         <v>-31</v>
@@ -34923,10 +35033,10 @@
         <v>4800</v>
       </c>
       <c r="P383" s="5" t="s">
-        <v>1355</v>
+        <v>1335</v>
       </c>
       <c r="Q383" s="10" t="s">
-        <v>1367</v>
+        <v>1347</v>
       </c>
       <c r="V383" s="5" t="s">
         <v>536</v>
@@ -34967,13 +35077,13 @@
         <v>1</v>
       </c>
       <c r="G384" s="5" t="s">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="H384" s="5" t="s">
-        <v>1364</v>
+        <v>1344</v>
       </c>
       <c r="I384" s="5" t="s">
-        <v>1368</v>
+        <v>1348</v>
       </c>
       <c r="K384" s="5">
         <v>-31</v>
@@ -34985,13 +35095,13 @@
         <v>0</v>
       </c>
       <c r="N384" s="5" t="s">
-        <v>1345</v>
+        <v>1325</v>
       </c>
       <c r="O384" s="5">
         <v>9800</v>
       </c>
       <c r="P384" s="5" t="s">
-        <v>1355</v>
+        <v>1335</v>
       </c>
       <c r="Q384" s="10" t="s">
         <v>749</v>
@@ -35035,13 +35145,13 @@
         <v>1</v>
       </c>
       <c r="G385" s="5" t="s">
-        <v>1350</v>
+        <v>1330</v>
       </c>
       <c r="H385" s="5" t="s">
-        <v>1364</v>
+        <v>1344</v>
       </c>
       <c r="I385" s="5" t="s">
-        <v>1369</v>
+        <v>1349</v>
       </c>
       <c r="K385" s="5">
         <v>-31</v>
@@ -35053,19 +35163,19 @@
         <v>0</v>
       </c>
       <c r="N385" s="5" t="s">
-        <v>1345</v>
+        <v>1325</v>
       </c>
       <c r="O385" s="5">
         <v>19800</v>
       </c>
       <c r="P385" s="5" t="s">
-        <v>1354</v>
+        <v>1334</v>
       </c>
       <c r="Q385" s="10" t="s">
-        <v>1370</v>
+        <v>1350</v>
       </c>
       <c r="V385" s="5" t="s">
-        <v>1363</v>
+        <v>1343</v>
       </c>
       <c r="W385" s="5">
         <v>9999999</v>
@@ -35103,13 +35213,13 @@
         <v>1</v>
       </c>
       <c r="G386" s="19" t="s">
-        <v>1375</v>
+        <v>1355</v>
       </c>
       <c r="H386" s="19" t="s">
-        <v>1376</v>
+        <v>1356</v>
       </c>
       <c r="I386" s="19" t="s">
-        <v>1377</v>
+        <v>1357</v>
       </c>
       <c r="K386" s="19">
         <v>-31</v>
@@ -35127,10 +35237,10 @@
         <v>1800</v>
       </c>
       <c r="P386" s="19" t="s">
-        <v>1378</v>
+        <v>1358</v>
       </c>
       <c r="Q386" s="39" t="s">
-        <v>1379</v>
+        <v>1359</v>
       </c>
       <c r="V386" s="19" t="s">
         <v>536</v>
@@ -35171,13 +35281,13 @@
         <v>1</v>
       </c>
       <c r="G387" s="19" t="s">
-        <v>1380</v>
+        <v>1360</v>
       </c>
       <c r="H387" s="19" t="s">
-        <v>1381</v>
+        <v>1361</v>
       </c>
       <c r="I387" s="19" t="s">
-        <v>1382</v>
+        <v>1362</v>
       </c>
       <c r="K387" s="19">
         <v>-31</v>
@@ -35189,16 +35299,16 @@
         <v>0</v>
       </c>
       <c r="N387" s="19" t="s">
-        <v>1383</v>
+        <v>1363</v>
       </c>
       <c r="O387" s="19">
         <v>3000</v>
       </c>
       <c r="P387" s="19" t="s">
-        <v>1384</v>
+        <v>1364</v>
       </c>
       <c r="Q387" s="39" t="s">
-        <v>1385</v>
+        <v>1365</v>
       </c>
       <c r="V387" s="19" t="s">
         <v>536</v>
@@ -35239,13 +35349,13 @@
         <v>1</v>
       </c>
       <c r="G388" s="19" t="s">
-        <v>1386</v>
+        <v>1366</v>
       </c>
       <c r="H388" s="19" t="s">
-        <v>1387</v>
+        <v>1367</v>
       </c>
       <c r="I388" s="19" t="s">
-        <v>1388</v>
+        <v>1368</v>
       </c>
       <c r="K388" s="19">
         <v>-31</v>
@@ -35257,19 +35367,19 @@
         <v>0</v>
       </c>
       <c r="N388" s="19" t="s">
-        <v>1389</v>
+        <v>1369</v>
       </c>
       <c r="O388" s="19">
         <v>4800</v>
       </c>
       <c r="P388" s="19" t="s">
-        <v>1390</v>
+        <v>1370</v>
       </c>
       <c r="Q388" s="39" t="s">
-        <v>1391</v>
+        <v>1371</v>
       </c>
       <c r="V388" s="19" t="s">
-        <v>1392</v>
+        <v>1372</v>
       </c>
       <c r="W388" s="19">
         <v>9999999</v>
@@ -35307,13 +35417,13 @@
         <v>1</v>
       </c>
       <c r="G389" s="19" t="s">
-        <v>1393</v>
+        <v>1373</v>
       </c>
       <c r="H389" s="19" t="s">
-        <v>1394</v>
+        <v>1374</v>
       </c>
       <c r="I389" s="19" t="s">
-        <v>1395</v>
+        <v>1375</v>
       </c>
       <c r="K389" s="19">
         <v>-31</v>
@@ -35325,16 +35435,16 @@
         <v>0</v>
       </c>
       <c r="N389" s="19" t="s">
-        <v>1396</v>
+        <v>1376</v>
       </c>
       <c r="O389" s="19">
         <v>4800</v>
       </c>
       <c r="P389" s="19" t="s">
-        <v>1397</v>
+        <v>1377</v>
       </c>
       <c r="Q389" s="39" t="s">
-        <v>1391</v>
+        <v>1371</v>
       </c>
       <c r="V389" s="19" t="s">
         <v>536</v>
@@ -35375,13 +35485,13 @@
         <v>1</v>
       </c>
       <c r="G390" s="19" t="s">
-        <v>1380</v>
+        <v>1360</v>
       </c>
       <c r="H390" s="19" t="s">
-        <v>1207</v>
+        <v>1187</v>
       </c>
       <c r="I390" s="19" t="s">
-        <v>1398</v>
+        <v>1378</v>
       </c>
       <c r="K390" s="19">
         <v>-31</v>
@@ -35399,10 +35509,10 @@
         <v>9800</v>
       </c>
       <c r="P390" s="19" t="s">
-        <v>1399</v>
+        <v>1379</v>
       </c>
       <c r="Q390" s="39" t="s">
-        <v>1400</v>
+        <v>1380</v>
       </c>
       <c r="V390" s="19" t="s">
         <v>536</v>
@@ -35443,13 +35553,13 @@
         <v>1</v>
       </c>
       <c r="G391" s="19" t="s">
-        <v>1401</v>
+        <v>1381</v>
       </c>
       <c r="H391" s="19" t="s">
-        <v>1394</v>
+        <v>1374</v>
       </c>
       <c r="I391" s="19" t="s">
-        <v>1402</v>
+        <v>1382</v>
       </c>
       <c r="K391" s="19">
         <v>-31</v>
@@ -35467,10 +35577,10 @@
         <v>19800</v>
       </c>
       <c r="P391" s="19" t="s">
-        <v>1403</v>
+        <v>1383</v>
       </c>
       <c r="Q391" s="39" t="s">
-        <v>1404</v>
+        <v>1384</v>
       </c>
       <c r="V391" s="19" t="s">
         <v>536</v>
@@ -35511,13 +35621,13 @@
         <v>1</v>
       </c>
       <c r="G392" s="19" t="s">
-        <v>1375</v>
+        <v>1355</v>
       </c>
       <c r="H392" s="19" t="s">
-        <v>1405</v>
+        <v>1385</v>
       </c>
       <c r="I392" s="19" t="s">
-        <v>1406</v>
+        <v>1386</v>
       </c>
       <c r="K392" s="19">
         <v>-31</v>
@@ -35535,10 +35645,10 @@
         <v>9800</v>
       </c>
       <c r="P392" s="19" t="s">
-        <v>1407</v>
+        <v>1387</v>
       </c>
       <c r="Q392" s="39" t="s">
-        <v>1408</v>
+        <v>1388</v>
       </c>
       <c r="V392" s="19" t="s">
         <v>536</v>
@@ -35579,13 +35689,13 @@
         <v>1</v>
       </c>
       <c r="G393" s="19" t="s">
-        <v>1380</v>
+        <v>1360</v>
       </c>
       <c r="H393" s="19" t="s">
-        <v>1409</v>
+        <v>1389</v>
       </c>
       <c r="I393" s="19" t="s">
-        <v>1410</v>
+        <v>1390</v>
       </c>
       <c r="K393" s="19">
         <v>-31</v>
@@ -35603,10 +35713,10 @@
         <v>19800</v>
       </c>
       <c r="P393" s="19" t="s">
-        <v>1411</v>
+        <v>1391</v>
       </c>
       <c r="Q393" s="39" t="s">
-        <v>1404</v>
+        <v>1384</v>
       </c>
       <c r="V393" s="19" t="s">
         <v>536</v>
@@ -35647,13 +35757,13 @@
         <v>1</v>
       </c>
       <c r="G394" s="19" t="s">
-        <v>1386</v>
+        <v>1366</v>
       </c>
       <c r="H394" s="19" t="s">
-        <v>1412</v>
+        <v>1392</v>
       </c>
       <c r="I394" s="19" t="s">
-        <v>1413</v>
+        <v>1393</v>
       </c>
       <c r="K394" s="19">
         <v>-31</v>
@@ -35665,16 +35775,16 @@
         <v>0</v>
       </c>
       <c r="N394" s="19" t="s">
-        <v>1414</v>
+        <v>1394</v>
       </c>
       <c r="O394" s="19">
         <v>49800</v>
       </c>
       <c r="P394" s="19" t="s">
-        <v>1415</v>
+        <v>1395</v>
       </c>
       <c r="Q394" s="39" t="s">
-        <v>1416</v>
+        <v>1396</v>
       </c>
       <c r="V394" s="19" t="s">
         <v>536</v>
@@ -35715,10 +35825,10 @@
         <v>1</v>
       </c>
       <c r="G395" s="5" t="s">
-        <v>1434</v>
+        <v>1414</v>
       </c>
       <c r="I395" s="5" t="s">
-        <v>1435</v>
+        <v>1415</v>
       </c>
       <c r="K395" s="5">
         <v>-31</v>
@@ -35730,16 +35840,16 @@
         <v>0</v>
       </c>
       <c r="N395" s="5" t="s">
-        <v>1436</v>
+        <v>1416</v>
       </c>
       <c r="O395" s="5">
         <v>600</v>
       </c>
       <c r="P395" s="5" t="s">
-        <v>1438</v>
+        <v>1418</v>
       </c>
       <c r="Q395" s="10" t="s">
-        <v>1439</v>
+        <v>1419</v>
       </c>
       <c r="V395" s="5" t="s">
         <v>529</v>
@@ -35777,10 +35887,10 @@
         <v>1</v>
       </c>
       <c r="G396" s="5" t="s">
-        <v>1440</v>
+        <v>1420</v>
       </c>
       <c r="I396" s="5" t="s">
-        <v>1441</v>
+        <v>1421</v>
       </c>
       <c r="K396" s="5">
         <v>-31</v>
@@ -35792,16 +35902,16 @@
         <v>0</v>
       </c>
       <c r="N396" s="5" t="s">
-        <v>1436</v>
+        <v>1416</v>
       </c>
       <c r="O396" s="5">
         <v>2000</v>
       </c>
       <c r="P396" s="5" t="s">
-        <v>1437</v>
+        <v>1417</v>
       </c>
       <c r="Q396" s="10" t="s">
-        <v>1442</v>
+        <v>1422</v>
       </c>
       <c r="V396" s="5" t="s">
         <v>529</v>
@@ -35842,7 +35952,7 @@
         <v>289</v>
       </c>
       <c r="I397" s="5" t="s">
-        <v>1443</v>
+        <v>1423</v>
       </c>
       <c r="K397" s="5">
         <v>-31</v>
@@ -35860,10 +35970,10 @@
         <v>4800</v>
       </c>
       <c r="P397" s="5" t="s">
-        <v>1437</v>
+        <v>1417</v>
       </c>
       <c r="Q397" s="10" t="s">
-        <v>1444</v>
+        <v>1424</v>
       </c>
       <c r="V397" s="5" t="s">
         <v>529</v>
@@ -35904,7 +36014,7 @@
         <v>292</v>
       </c>
       <c r="I398" s="5" t="s">
-        <v>1445</v>
+        <v>1425</v>
       </c>
       <c r="K398" s="5">
         <v>-31</v>
@@ -35922,10 +36032,10 @@
         <v>9800</v>
       </c>
       <c r="P398" s="5" t="s">
-        <v>1437</v>
+        <v>1417</v>
       </c>
       <c r="Q398" s="10" t="s">
-        <v>1446</v>
+        <v>1426</v>
       </c>
       <c r="V398" s="5" t="s">
         <v>529</v>
@@ -35963,10 +36073,10 @@
         <v>1</v>
       </c>
       <c r="G399" s="5" t="s">
-        <v>1447</v>
+        <v>1427</v>
       </c>
       <c r="I399" s="5" t="s">
-        <v>1448</v>
+        <v>1428</v>
       </c>
       <c r="K399" s="5">
         <v>-31</v>
@@ -35978,16 +36088,16 @@
         <v>0</v>
       </c>
       <c r="N399" s="5" t="s">
-        <v>1436</v>
+        <v>1416</v>
       </c>
       <c r="O399" s="5">
         <v>19800</v>
       </c>
       <c r="P399" s="5" t="s">
-        <v>1438</v>
+        <v>1418</v>
       </c>
       <c r="Q399" s="10" t="s">
-        <v>1449</v>
+        <v>1429</v>
       </c>
       <c r="V399" s="5" t="s">
         <v>529</v>
@@ -36025,10 +36135,10 @@
         <v>1</v>
       </c>
       <c r="G400" s="5" t="s">
-        <v>1450</v>
+        <v>1430</v>
       </c>
       <c r="I400" s="5" t="s">
-        <v>1451</v>
+        <v>1431</v>
       </c>
       <c r="K400" s="5">
         <v>-31</v>
@@ -36040,16 +36150,16 @@
         <v>0</v>
       </c>
       <c r="N400" s="5" t="s">
-        <v>1436</v>
+        <v>1416</v>
       </c>
       <c r="O400" s="5">
         <v>49800</v>
       </c>
       <c r="P400" s="5" t="s">
-        <v>1438</v>
+        <v>1418</v>
       </c>
       <c r="Q400" s="10" t="s">
-        <v>1452</v>
+        <v>1432</v>
       </c>
       <c r="V400" s="5" t="s">
         <v>529</v>
@@ -36087,10 +36197,10 @@
         <v>1</v>
       </c>
       <c r="G401" s="5" t="s">
-        <v>1453</v>
+        <v>1433</v>
       </c>
       <c r="I401" s="5" t="s">
-        <v>1454</v>
+        <v>1434</v>
       </c>
       <c r="K401" s="5">
         <v>-31</v>
@@ -36108,13 +36218,13 @@
         <v>1800</v>
       </c>
       <c r="P401" s="5" t="s">
-        <v>1456</v>
+        <v>1436</v>
       </c>
       <c r="Q401" s="5" t="s">
-        <v>1457</v>
+        <v>1437</v>
       </c>
       <c r="V401" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W401" s="5">
         <v>99999999</v>
@@ -36152,10 +36262,10 @@
         <v>1</v>
       </c>
       <c r="G402" s="5" t="s">
-        <v>1458</v>
+        <v>1438</v>
       </c>
       <c r="I402" s="5" t="s">
-        <v>1459</v>
+        <v>1439</v>
       </c>
       <c r="K402" s="5">
         <v>-31</v>
@@ -36167,19 +36277,19 @@
         <v>0</v>
       </c>
       <c r="N402" s="5" t="s">
-        <v>1460</v>
+        <v>1440</v>
       </c>
       <c r="O402" s="5">
         <v>4800</v>
       </c>
       <c r="P402" s="5" t="s">
-        <v>1455</v>
+        <v>1435</v>
       </c>
       <c r="Q402" s="5" t="s">
-        <v>1461</v>
+        <v>1441</v>
       </c>
       <c r="V402" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W402" s="5">
         <v>99999999</v>
@@ -36217,10 +36327,10 @@
         <v>1</v>
       </c>
       <c r="G403" s="5" t="s">
-        <v>1462</v>
+        <v>1442</v>
       </c>
       <c r="I403" s="5" t="s">
-        <v>1463</v>
+        <v>1443</v>
       </c>
       <c r="K403" s="5">
         <v>-31</v>
@@ -36238,13 +36348,13 @@
         <v>9800</v>
       </c>
       <c r="P403" s="5" t="s">
-        <v>1465</v>
+        <v>1445</v>
       </c>
       <c r="Q403" s="5" t="s">
-        <v>1466</v>
+        <v>1446</v>
       </c>
       <c r="V403" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W403" s="5">
         <v>99999999</v>
@@ -36282,10 +36392,10 @@
         <v>1</v>
       </c>
       <c r="G404" s="5" t="s">
-        <v>1467</v>
+        <v>1447</v>
       </c>
       <c r="I404" s="5" t="s">
-        <v>1468</v>
+        <v>1448</v>
       </c>
       <c r="K404" s="5">
         <v>-31</v>
@@ -36303,13 +36413,13 @@
         <v>19800</v>
       </c>
       <c r="P404" s="5" t="s">
-        <v>1464</v>
+        <v>1444</v>
       </c>
       <c r="Q404" s="5" t="s">
-        <v>1469</v>
+        <v>1449</v>
       </c>
       <c r="V404" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W404" s="5">
         <v>99999999</v>
@@ -36347,10 +36457,10 @@
         <v>1</v>
       </c>
       <c r="G405" s="5" t="s">
-        <v>1470</v>
+        <v>1450</v>
       </c>
       <c r="I405" s="5" t="s">
-        <v>1471</v>
+        <v>1451</v>
       </c>
       <c r="K405" s="5">
         <v>-31</v>
@@ -36368,13 +36478,13 @@
         <v>29800</v>
       </c>
       <c r="P405" s="5" t="s">
-        <v>1472</v>
+        <v>1452</v>
       </c>
       <c r="Q405" s="5" t="s">
-        <v>1473</v>
+        <v>1453</v>
       </c>
       <c r="V405" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W405" s="5">
         <v>99999999</v>
@@ -36412,10 +36522,10 @@
         <v>1</v>
       </c>
       <c r="G406" s="5" t="s">
-        <v>1474</v>
+        <v>1454</v>
       </c>
       <c r="I406" s="5" t="s">
-        <v>1475</v>
+        <v>1455</v>
       </c>
       <c r="K406" s="5">
         <v>-31</v>
@@ -36433,13 +36543,13 @@
         <v>49800</v>
       </c>
       <c r="P406" s="5" t="s">
-        <v>1477</v>
+        <v>1457</v>
       </c>
       <c r="Q406" s="5" t="s">
-        <v>1478</v>
+        <v>1458</v>
       </c>
       <c r="V406" s="5" t="s">
-        <v>1479</v>
+        <v>1459</v>
       </c>
       <c r="W406" s="5">
         <v>99999999</v>
@@ -36477,10 +36587,10 @@
         <v>1</v>
       </c>
       <c r="G407" s="5" t="s">
-        <v>1480</v>
+        <v>1460</v>
       </c>
       <c r="I407" s="5" t="s">
-        <v>1481</v>
+        <v>1461</v>
       </c>
       <c r="K407" s="5">
         <v>-31</v>
@@ -36492,19 +36602,19 @@
         <v>0</v>
       </c>
       <c r="N407" s="5" t="s">
-        <v>1482</v>
+        <v>1462</v>
       </c>
       <c r="O407" s="5">
         <v>99800</v>
       </c>
       <c r="P407" s="5" t="s">
-        <v>1476</v>
+        <v>1456</v>
       </c>
       <c r="Q407" s="5" t="s">
-        <v>1483</v>
+        <v>1463</v>
       </c>
       <c r="V407" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W407" s="5">
         <v>99999999</v>
@@ -36542,10 +36652,10 @@
         <v>1</v>
       </c>
       <c r="G408" s="49" t="s">
-        <v>1505</v>
+        <v>1485</v>
       </c>
       <c r="I408" s="49" t="s">
-        <v>1506</v>
+        <v>1486</v>
       </c>
       <c r="K408" s="49">
         <v>-31</v>
@@ -36557,16 +36667,16 @@
         <v>0</v>
       </c>
       <c r="N408" s="49" t="s">
-        <v>1507</v>
+        <v>1487</v>
       </c>
       <c r="O408" s="49">
         <v>600</v>
       </c>
       <c r="P408" s="49" t="s">
-        <v>1508</v>
+        <v>1488</v>
       </c>
       <c r="Q408" s="50" t="s">
-        <v>1509</v>
+        <v>1489</v>
       </c>
       <c r="V408" s="49" t="s">
         <v>568</v>
@@ -36607,10 +36717,10 @@
         <v>1</v>
       </c>
       <c r="G409" s="49" t="s">
-        <v>1496</v>
+        <v>1476</v>
       </c>
       <c r="I409" s="49" t="s">
-        <v>1510</v>
+        <v>1490</v>
       </c>
       <c r="K409" s="49">
         <v>-31</v>
@@ -36622,19 +36732,19 @@
         <v>0</v>
       </c>
       <c r="N409" s="49" t="s">
-        <v>1507</v>
+        <v>1487</v>
       </c>
       <c r="O409" s="49">
         <v>2000</v>
       </c>
       <c r="P409" s="49" t="s">
-        <v>1508</v>
+        <v>1488</v>
       </c>
       <c r="Q409" s="50" t="s">
-        <v>1511</v>
+        <v>1491</v>
       </c>
       <c r="V409" s="49" t="s">
-        <v>1512</v>
+        <v>1492</v>
       </c>
       <c r="W409" s="49">
         <v>99999999</v>
@@ -36672,10 +36782,10 @@
         <v>1</v>
       </c>
       <c r="G410" s="49" t="s">
-        <v>1497</v>
+        <v>1477</v>
       </c>
       <c r="I410" s="49" t="s">
-        <v>1513</v>
+        <v>1493</v>
       </c>
       <c r="K410" s="49">
         <v>-31</v>
@@ -36687,16 +36797,16 @@
         <v>0</v>
       </c>
       <c r="N410" s="49" t="s">
-        <v>1507</v>
+        <v>1487</v>
       </c>
       <c r="O410" s="49">
         <v>4800</v>
       </c>
       <c r="P410" s="49" t="s">
-        <v>1508</v>
+        <v>1488</v>
       </c>
       <c r="Q410" s="50" t="s">
-        <v>1514</v>
+        <v>1494</v>
       </c>
       <c r="V410" s="49" t="s">
         <v>568</v>
@@ -36737,10 +36847,10 @@
         <v>1</v>
       </c>
       <c r="G411" s="49" t="s">
-        <v>1515</v>
+        <v>1495</v>
       </c>
       <c r="I411" s="49" t="s">
-        <v>1498</v>
+        <v>1478</v>
       </c>
       <c r="K411" s="49">
         <v>-31</v>
@@ -36758,13 +36868,13 @@
         <v>9800</v>
       </c>
       <c r="P411" s="49" t="s">
-        <v>1508</v>
+        <v>1488</v>
       </c>
       <c r="Q411" s="50" t="s">
-        <v>1516</v>
+        <v>1496</v>
       </c>
       <c r="V411" s="49" t="s">
-        <v>1512</v>
+        <v>1492</v>
       </c>
       <c r="W411" s="49">
         <v>99999999</v>
@@ -36802,10 +36912,10 @@
         <v>1</v>
       </c>
       <c r="G412" s="49" t="s">
-        <v>1517</v>
+        <v>1497</v>
       </c>
       <c r="I412" s="49" t="s">
-        <v>1518</v>
+        <v>1498</v>
       </c>
       <c r="K412" s="49">
         <v>-31</v>
@@ -36823,10 +36933,10 @@
         <v>19800</v>
       </c>
       <c r="P412" s="49" t="s">
-        <v>1495</v>
+        <v>1475</v>
       </c>
       <c r="Q412" s="50" t="s">
-        <v>1519</v>
+        <v>1499</v>
       </c>
       <c r="V412" s="49" t="s">
         <v>568</v>
@@ -36867,10 +36977,10 @@
         <v>1</v>
       </c>
       <c r="G413" s="49" t="s">
-        <v>1520</v>
+        <v>1500</v>
       </c>
       <c r="I413" s="49" t="s">
-        <v>1521</v>
+        <v>1501</v>
       </c>
       <c r="K413" s="49">
         <v>-31</v>
@@ -36888,13 +36998,13 @@
         <v>49800</v>
       </c>
       <c r="P413" s="49" t="s">
-        <v>1495</v>
+        <v>1475</v>
       </c>
       <c r="Q413" s="50" t="s">
-        <v>1522</v>
+        <v>1502</v>
       </c>
       <c r="V413" s="49" t="s">
-        <v>1512</v>
+        <v>1492</v>
       </c>
       <c r="W413" s="49">
         <v>99999999</v>
@@ -36935,7 +37045,7 @@
         <v>1</v>
       </c>
       <c r="G414" s="5" t="s">
-        <v>1499</v>
+        <v>1479</v>
       </c>
       <c r="K414" s="5">
         <v>-4</v>
@@ -36956,7 +37066,7 @@
         <v>78</v>
       </c>
       <c r="Q414" s="10" t="s">
-        <v>1523</v>
+        <v>1503</v>
       </c>
       <c r="V414" s="5" t="s">
         <v>526</v>
@@ -36988,13 +37098,13 @@
         <v>1</v>
       </c>
       <c r="G415" s="6" t="s">
-        <v>1535</v>
+        <v>1515</v>
       </c>
       <c r="H415" s="6" t="s">
-        <v>1536</v>
+        <v>1516</v>
       </c>
       <c r="I415" s="6" t="s">
-        <v>1537</v>
+        <v>1517</v>
       </c>
       <c r="K415" s="6">
         <v>-31</v>
@@ -37012,10 +37122,10 @@
         <v>600</v>
       </c>
       <c r="P415" s="5" t="s">
-        <v>1538</v>
+        <v>1518</v>
       </c>
       <c r="Q415" s="52" t="s">
-        <v>1539</v>
+        <v>1519</v>
       </c>
       <c r="V415" s="6" t="s">
         <v>536</v>
@@ -37056,13 +37166,13 @@
         <v>1</v>
       </c>
       <c r="G416" s="6" t="s">
-        <v>1540</v>
+        <v>1520</v>
       </c>
       <c r="H416" s="6" t="s">
-        <v>1536</v>
+        <v>1516</v>
       </c>
       <c r="I416" s="6" t="s">
-        <v>1537</v>
+        <v>1517</v>
       </c>
       <c r="K416" s="6">
         <v>-31</v>
@@ -37080,13 +37190,13 @@
         <v>1800</v>
       </c>
       <c r="P416" s="5" t="s">
-        <v>1541</v>
+        <v>1521</v>
       </c>
       <c r="Q416" s="52" t="s">
-        <v>1539</v>
+        <v>1519</v>
       </c>
       <c r="V416" s="6" t="s">
-        <v>1542</v>
+        <v>1522</v>
       </c>
       <c r="W416" s="14" t="s">
         <v>109</v>
@@ -37124,13 +37234,13 @@
         <v>1</v>
       </c>
       <c r="G417" s="6" t="s">
-        <v>1543</v>
+        <v>1523</v>
       </c>
       <c r="H417" s="6" t="s">
-        <v>1536</v>
+        <v>1516</v>
       </c>
       <c r="I417" s="6" t="s">
-        <v>1537</v>
+        <v>1517</v>
       </c>
       <c r="K417" s="6">
         <v>-31</v>
@@ -37148,13 +37258,13 @@
         <v>4800</v>
       </c>
       <c r="P417" s="5" t="s">
-        <v>1195</v>
+        <v>1175</v>
       </c>
       <c r="Q417" s="52" t="s">
-        <v>1539</v>
+        <v>1519</v>
       </c>
       <c r="V417" s="6" t="s">
-        <v>1198</v>
+        <v>1178</v>
       </c>
       <c r="W417" s="14" t="s">
         <v>109</v>
@@ -37192,13 +37302,13 @@
         <v>1</v>
       </c>
       <c r="G418" s="6" t="s">
-        <v>1535</v>
+        <v>1515</v>
       </c>
       <c r="H418" s="6" t="s">
-        <v>1544</v>
+        <v>1524</v>
       </c>
       <c r="I418" s="6" t="s">
-        <v>1537</v>
+        <v>1517</v>
       </c>
       <c r="K418" s="6">
         <v>-31</v>
@@ -37216,13 +37326,13 @@
         <v>9800</v>
       </c>
       <c r="P418" s="5" t="s">
-        <v>1197</v>
+        <v>1177</v>
       </c>
       <c r="Q418" s="52" t="s">
-        <v>1191</v>
+        <v>1171</v>
       </c>
       <c r="V418" s="6" t="s">
-        <v>1198</v>
+        <v>1178</v>
       </c>
       <c r="W418" s="14" t="s">
         <v>109</v>
@@ -37260,13 +37370,13 @@
         <v>1</v>
       </c>
       <c r="G419" s="6" t="s">
-        <v>1540</v>
+        <v>1520</v>
       </c>
       <c r="H419" s="6" t="s">
-        <v>1544</v>
+        <v>1524</v>
       </c>
       <c r="I419" s="6" t="s">
-        <v>1537</v>
+        <v>1517</v>
       </c>
       <c r="K419" s="6">
         <v>-31</v>
@@ -37284,13 +37394,13 @@
         <v>19800</v>
       </c>
       <c r="P419" s="5" t="s">
-        <v>1199</v>
+        <v>1179</v>
       </c>
       <c r="Q419" s="52" t="s">
-        <v>1539</v>
+        <v>1519</v>
       </c>
       <c r="V419" s="6" t="s">
-        <v>1198</v>
+        <v>1178</v>
       </c>
       <c r="W419" s="14" t="s">
         <v>109</v>
@@ -37328,13 +37438,13 @@
         <v>1</v>
       </c>
       <c r="G420" s="6" t="s">
-        <v>1543</v>
+        <v>1523</v>
       </c>
       <c r="H420" s="6" t="s">
-        <v>1544</v>
+        <v>1524</v>
       </c>
       <c r="I420" s="6" t="s">
-        <v>1190</v>
+        <v>1170</v>
       </c>
       <c r="K420" s="6">
         <v>-31</v>
@@ -37352,13 +37462,13 @@
         <v>49800</v>
       </c>
       <c r="P420" s="5" t="s">
-        <v>1200</v>
+        <v>1180</v>
       </c>
       <c r="Q420" s="52" t="s">
-        <v>1539</v>
+        <v>1519</v>
       </c>
       <c r="V420" s="6" t="s">
-        <v>1198</v>
+        <v>1178</v>
       </c>
       <c r="W420" s="14" t="s">
         <v>109</v>
@@ -37396,10 +37506,10 @@
         <v>1</v>
       </c>
       <c r="G421" s="19" t="s">
-        <v>1545</v>
+        <v>1525</v>
       </c>
       <c r="I421" s="19" t="s">
-        <v>1546</v>
+        <v>1526</v>
       </c>
       <c r="K421" s="19">
         <v>-31</v>
@@ -37411,19 +37521,19 @@
         <v>0</v>
       </c>
       <c r="N421" s="19" t="s">
-        <v>1547</v>
+        <v>1527</v>
       </c>
       <c r="O421" s="19">
         <v>1000</v>
       </c>
       <c r="P421" s="19" t="s">
-        <v>1548</v>
+        <v>1528</v>
       </c>
       <c r="Q421" s="39" t="s">
-        <v>1549</v>
+        <v>1529</v>
       </c>
       <c r="V421" s="19" t="s">
-        <v>1550</v>
+        <v>1530</v>
       </c>
       <c r="W421" s="19">
         <v>9999999</v>
@@ -37435,10 +37545,10 @@
         <v>2552233600</v>
       </c>
       <c r="AA421" s="19" t="s">
-        <v>1551</v>
+        <v>1531</v>
       </c>
       <c r="AB421" s="19" t="s">
-        <v>1552</v>
+        <v>1532</v>
       </c>
       <c r="AG421" s="19">
         <v>1</v>
@@ -37464,13 +37574,13 @@
         <v>1</v>
       </c>
       <c r="G422" s="53" t="s">
-        <v>1578</v>
+        <v>1558</v>
       </c>
       <c r="H422" s="53" t="s">
-        <v>1579</v>
+        <v>1559</v>
       </c>
       <c r="I422" s="53" t="s">
-        <v>1580</v>
+        <v>1560</v>
       </c>
       <c r="K422" s="53">
         <v>-31</v>
@@ -37488,13 +37598,13 @@
         <v>2000</v>
       </c>
       <c r="P422" s="53" t="s">
-        <v>1581</v>
+        <v>1561</v>
       </c>
       <c r="Q422" s="54" t="s">
-        <v>1582</v>
+        <v>1562</v>
       </c>
       <c r="V422" s="53" t="s">
-        <v>1583</v>
+        <v>1563</v>
       </c>
       <c r="W422" s="53">
         <v>99999999</v>
@@ -37532,13 +37642,13 @@
         <v>1</v>
       </c>
       <c r="G423" s="53" t="s">
-        <v>1554</v>
+        <v>1534</v>
       </c>
       <c r="H423" s="53" t="s">
-        <v>1553</v>
+        <v>1533</v>
       </c>
       <c r="I423" s="53" t="s">
-        <v>1584</v>
+        <v>1564</v>
       </c>
       <c r="K423" s="53">
         <v>-31</v>
@@ -37556,13 +37666,13 @@
         <v>5800</v>
       </c>
       <c r="P423" s="53" t="s">
-        <v>1585</v>
+        <v>1565</v>
       </c>
       <c r="Q423" s="54" t="s">
-        <v>1586</v>
+        <v>1566</v>
       </c>
       <c r="V423" s="53" t="s">
-        <v>1052</v>
+        <v>1032</v>
       </c>
       <c r="W423" s="53">
         <v>99999999</v>
@@ -37600,13 +37710,13 @@
         <v>1</v>
       </c>
       <c r="G424" s="53" t="s">
-        <v>1587</v>
+        <v>1567</v>
       </c>
       <c r="H424" s="53" t="s">
-        <v>1553</v>
+        <v>1533</v>
       </c>
       <c r="I424" s="53" t="s">
-        <v>1588</v>
+        <v>1568</v>
       </c>
       <c r="K424" s="53">
         <v>-31</v>
@@ -37624,13 +37734,13 @@
         <v>12800</v>
       </c>
       <c r="P424" s="53" t="s">
-        <v>1589</v>
+        <v>1569</v>
       </c>
       <c r="Q424" s="54" t="s">
-        <v>1590</v>
+        <v>1570</v>
       </c>
       <c r="V424" s="53" t="s">
-        <v>1052</v>
+        <v>1032</v>
       </c>
       <c r="W424" s="53">
         <v>99999999</v>
@@ -37668,10 +37778,10 @@
         <v>1</v>
       </c>
       <c r="G425" s="6" t="s">
-        <v>1555</v>
+        <v>1535</v>
       </c>
       <c r="I425" s="6" t="s">
-        <v>1556</v>
+        <v>1536</v>
       </c>
       <c r="K425" s="6">
         <v>-31</v>
@@ -37689,10 +37799,10 @@
         <v>49800</v>
       </c>
       <c r="P425" s="6" t="s">
-        <v>1557</v>
+        <v>1537</v>
       </c>
       <c r="Q425" s="52" t="s">
-        <v>1558</v>
+        <v>1538</v>
       </c>
       <c r="V425" s="6" t="s">
         <v>570</v>
@@ -37724,10 +37834,10 @@
         <v>1</v>
       </c>
       <c r="G426" s="6" t="s">
-        <v>1559</v>
+        <v>1539</v>
       </c>
       <c r="I426" s="6" t="s">
-        <v>1560</v>
+        <v>1540</v>
       </c>
       <c r="K426" s="6">
         <v>-31</v>
@@ -37745,13 +37855,13 @@
         <v>19800</v>
       </c>
       <c r="P426" s="6" t="s">
-        <v>1561</v>
+        <v>1541</v>
       </c>
       <c r="Q426" s="52" t="s">
-        <v>1558</v>
+        <v>1538</v>
       </c>
       <c r="V426" s="6" t="s">
-        <v>1550</v>
+        <v>1530</v>
       </c>
       <c r="W426" s="6">
         <v>9999999</v>
@@ -37780,10 +37890,10 @@
         <v>1</v>
       </c>
       <c r="G427" s="6" t="s">
-        <v>1562</v>
+        <v>1542</v>
       </c>
       <c r="I427" s="6" t="s">
-        <v>1533</v>
+        <v>1513</v>
       </c>
       <c r="K427" s="6">
         <v>-31</v>
@@ -37801,13 +37911,13 @@
         <v>9800</v>
       </c>
       <c r="P427" s="6" t="s">
-        <v>1563</v>
+        <v>1543</v>
       </c>
       <c r="Q427" s="52" t="s">
-        <v>1558</v>
+        <v>1538</v>
       </c>
       <c r="V427" s="6" t="s">
-        <v>1550</v>
+        <v>1530</v>
       </c>
       <c r="W427" s="6">
         <v>9999999</v>
@@ -37836,10 +37946,10 @@
         <v>1</v>
       </c>
       <c r="G428" s="6" t="s">
-        <v>1564</v>
+        <v>1544</v>
       </c>
       <c r="I428" s="6" t="s">
-        <v>1565</v>
+        <v>1545</v>
       </c>
       <c r="K428" s="6">
         <v>-31</v>
@@ -37857,13 +37967,13 @@
         <v>9800</v>
       </c>
       <c r="P428" s="6" t="s">
-        <v>1566</v>
+        <v>1546</v>
       </c>
       <c r="Q428" s="52" t="s">
-        <v>1558</v>
+        <v>1538</v>
       </c>
       <c r="V428" s="6" t="s">
-        <v>1550</v>
+        <v>1530</v>
       </c>
       <c r="W428" s="6">
         <v>9999999</v>
@@ -37892,10 +38002,10 @@
         <v>1</v>
       </c>
       <c r="G429" s="6" t="s">
-        <v>1534</v>
+        <v>1514</v>
       </c>
       <c r="I429" s="6" t="s">
-        <v>1567</v>
+        <v>1547</v>
       </c>
       <c r="K429" s="6">
         <v>-31</v>
@@ -37913,13 +38023,13 @@
         <v>4800</v>
       </c>
       <c r="P429" s="6" t="s">
-        <v>1568</v>
+        <v>1548</v>
       </c>
       <c r="Q429" s="52" t="s">
-        <v>1558</v>
+        <v>1538</v>
       </c>
       <c r="V429" s="6" t="s">
-        <v>1550</v>
+        <v>1530</v>
       </c>
       <c r="W429" s="6">
         <v>9999999</v>
@@ -37948,13 +38058,13 @@
         <v>1</v>
       </c>
       <c r="G430" s="19" t="s">
-        <v>1569</v>
+        <v>1549</v>
       </c>
       <c r="H430" s="19" t="s">
-        <v>1570</v>
+        <v>1550</v>
       </c>
       <c r="I430" s="19" t="s">
-        <v>1524</v>
+        <v>1504</v>
       </c>
       <c r="K430" s="19">
         <v>-28</v>
@@ -37972,13 +38082,13 @@
         <v>100</v>
       </c>
       <c r="P430" s="19" t="s">
-        <v>1525</v>
+        <v>1505</v>
       </c>
       <c r="Q430" s="39" t="s">
-        <v>1571</v>
+        <v>1551</v>
       </c>
       <c r="V430" s="19" t="s">
-        <v>1572</v>
+        <v>1552</v>
       </c>
       <c r="W430" s="19">
         <v>9999999</v>
@@ -38016,13 +38126,13 @@
         <v>1</v>
       </c>
       <c r="G431" s="19" t="s">
-        <v>1569</v>
+        <v>1549</v>
       </c>
       <c r="H431" s="19" t="s">
-        <v>1573</v>
+        <v>1553</v>
       </c>
       <c r="I431" s="19" t="s">
-        <v>1526</v>
+        <v>1506</v>
       </c>
       <c r="K431" s="19">
         <v>-28</v>
@@ -38040,10 +38150,10 @@
         <v>300</v>
       </c>
       <c r="P431" s="19" t="s">
-        <v>1525</v>
+        <v>1505</v>
       </c>
       <c r="Q431" s="39" t="s">
-        <v>1574</v>
+        <v>1554</v>
       </c>
       <c r="V431" s="19" t="s">
         <v>529</v>
@@ -38084,13 +38194,13 @@
         <v>1</v>
       </c>
       <c r="G432" s="19" t="s">
-        <v>1569</v>
+        <v>1549</v>
       </c>
       <c r="H432" s="19" t="s">
-        <v>1575</v>
+        <v>1555</v>
       </c>
       <c r="I432" s="19" t="s">
-        <v>1527</v>
+        <v>1507</v>
       </c>
       <c r="K432" s="19">
         <v>-28</v>
@@ -38108,10 +38218,10 @@
         <v>600</v>
       </c>
       <c r="P432" s="19" t="s">
-        <v>1525</v>
+        <v>1505</v>
       </c>
       <c r="Q432" s="39" t="s">
-        <v>1576</v>
+        <v>1556</v>
       </c>
       <c r="V432" s="19" t="s">
         <v>529</v>
@@ -38152,13 +38262,13 @@
         <v>1</v>
       </c>
       <c r="G433" s="19" t="s">
-        <v>1569</v>
+        <v>1549</v>
       </c>
       <c r="H433" s="19" t="s">
-        <v>1577</v>
+        <v>1557</v>
       </c>
       <c r="I433" s="19" t="s">
-        <v>1528</v>
+        <v>1508</v>
       </c>
       <c r="K433" s="19">
         <v>-28</v>
@@ -38176,7 +38286,7 @@
         <v>600</v>
       </c>
       <c r="P433" s="19" t="s">
-        <v>1525</v>
+        <v>1505</v>
       </c>
       <c r="Q433" s="39" t="s">
         <v>725</v>
@@ -38220,13 +38330,13 @@
         <v>1</v>
       </c>
       <c r="G434" s="55" t="s">
-        <v>1453</v>
+        <v>1433</v>
       </c>
       <c r="H434" s="55" t="s">
-        <v>1594</v>
+        <v>1574</v>
       </c>
       <c r="I434" s="55" t="s">
-        <v>1595</v>
+        <v>1575</v>
       </c>
       <c r="K434" s="55">
         <v>-31</v>
@@ -38244,10 +38354,10 @@
         <v>1800</v>
       </c>
       <c r="P434" s="55" t="s">
-        <v>1596</v>
+        <v>1576</v>
       </c>
       <c r="Q434" s="56" t="s">
-        <v>1457</v>
+        <v>1437</v>
       </c>
       <c r="V434" s="55" t="s">
         <v>529</v>
@@ -38285,13 +38395,13 @@
         <v>1</v>
       </c>
       <c r="G435" s="55" t="s">
-        <v>1597</v>
+        <v>1577</v>
       </c>
       <c r="H435" s="55" t="s">
-        <v>1598</v>
+        <v>1578</v>
       </c>
       <c r="I435" s="55" t="s">
-        <v>1599</v>
+        <v>1579</v>
       </c>
       <c r="K435" s="55">
         <v>-31</v>
@@ -38309,10 +38419,10 @@
         <v>4800</v>
       </c>
       <c r="P435" s="55" t="s">
-        <v>1596</v>
+        <v>1576</v>
       </c>
       <c r="Q435" s="56" t="s">
-        <v>1600</v>
+        <v>1580</v>
       </c>
       <c r="V435" s="55" t="s">
         <v>529</v>
@@ -38350,13 +38460,13 @@
         <v>1</v>
       </c>
       <c r="G436" s="55" t="s">
-        <v>1601</v>
+        <v>1581</v>
       </c>
       <c r="H436" s="55" t="s">
-        <v>1602</v>
+        <v>1582</v>
       </c>
       <c r="I436" s="55" t="s">
-        <v>1603</v>
+        <v>1583</v>
       </c>
       <c r="K436" s="55">
         <v>-31</v>
@@ -38374,10 +38484,10 @@
         <v>9800</v>
       </c>
       <c r="P436" s="55" t="s">
-        <v>1604</v>
+        <v>1584</v>
       </c>
       <c r="Q436" s="56" t="s">
-        <v>1605</v>
+        <v>1585</v>
       </c>
       <c r="V436" s="55" t="s">
         <v>529</v>
@@ -38415,13 +38525,13 @@
         <v>1</v>
       </c>
       <c r="G437" s="55" t="s">
-        <v>1467</v>
+        <v>1447</v>
       </c>
       <c r="H437" s="55" t="s">
-        <v>1594</v>
+        <v>1574</v>
       </c>
       <c r="I437" s="55" t="s">
-        <v>1606</v>
+        <v>1586</v>
       </c>
       <c r="K437" s="55">
         <v>-31</v>
@@ -38439,10 +38549,10 @@
         <v>19800</v>
       </c>
       <c r="P437" s="55" t="s">
-        <v>1607</v>
+        <v>1587</v>
       </c>
       <c r="Q437" s="56" t="s">
-        <v>1608</v>
+        <v>1588</v>
       </c>
       <c r="V437" s="55" t="s">
         <v>529</v>
@@ -38480,13 +38590,13 @@
         <v>1</v>
       </c>
       <c r="G438" s="55" t="s">
-        <v>1609</v>
+        <v>1589</v>
       </c>
       <c r="H438" s="55" t="s">
-        <v>1594</v>
+        <v>1574</v>
       </c>
       <c r="I438" s="55" t="s">
-        <v>1610</v>
+        <v>1590</v>
       </c>
       <c r="K438" s="55">
         <v>-31</v>
@@ -38504,10 +38614,10 @@
         <v>29800</v>
       </c>
       <c r="P438" s="55" t="s">
-        <v>1604</v>
+        <v>1584</v>
       </c>
       <c r="Q438" s="56" t="s">
-        <v>1473</v>
+        <v>1453</v>
       </c>
       <c r="V438" s="55" t="s">
         <v>529</v>
@@ -38545,13 +38655,13 @@
         <v>1</v>
       </c>
       <c r="G439" s="55" t="s">
-        <v>1611</v>
+        <v>1591</v>
       </c>
       <c r="H439" s="55" t="s">
-        <v>1594</v>
+        <v>1574</v>
       </c>
       <c r="I439" s="55" t="s">
-        <v>1612</v>
+        <v>1592</v>
       </c>
       <c r="K439" s="55">
         <v>-31</v>
@@ -38569,10 +38679,10 @@
         <v>49800</v>
       </c>
       <c r="P439" s="55" t="s">
-        <v>1613</v>
+        <v>1593</v>
       </c>
       <c r="Q439" s="56" t="s">
-        <v>1614</v>
+        <v>1594</v>
       </c>
       <c r="V439" s="55" t="s">
         <v>529</v>
@@ -38610,13 +38720,13 @@
         <v>1</v>
       </c>
       <c r="G440" s="55" t="s">
-        <v>1615</v>
+        <v>1595</v>
       </c>
       <c r="H440" s="55" t="s">
-        <v>1602</v>
+        <v>1582</v>
       </c>
       <c r="I440" s="55" t="s">
-        <v>1616</v>
+        <v>1596</v>
       </c>
       <c r="K440" s="55">
         <v>-31</v>
@@ -38634,10 +38744,10 @@
         <v>99800</v>
       </c>
       <c r="P440" s="55" t="s">
-        <v>1613</v>
+        <v>1593</v>
       </c>
       <c r="Q440" s="56" t="s">
-        <v>1617</v>
+        <v>1597</v>
       </c>
       <c r="V440" s="55" t="s">
         <v>529</v>
@@ -38675,10 +38785,10 @@
         <v>1</v>
       </c>
       <c r="G441" s="53" t="s">
-        <v>1618</v>
+        <v>1598</v>
       </c>
       <c r="I441" s="53" t="s">
-        <v>1619</v>
+        <v>1599</v>
       </c>
       <c r="K441" s="53">
         <v>-31</v>
@@ -38696,13 +38806,13 @@
         <v>49800</v>
       </c>
       <c r="P441" s="53" t="s">
-        <v>1620</v>
+        <v>1600</v>
       </c>
       <c r="Q441" s="54" t="s">
-        <v>1621</v>
+        <v>1601</v>
       </c>
       <c r="V441" s="53" t="s">
-        <v>1622</v>
+        <v>1602</v>
       </c>
       <c r="W441" s="53">
         <v>9999999</v>
@@ -38737,10 +38847,10 @@
         <v>1</v>
       </c>
       <c r="G442" s="53" t="s">
-        <v>1623</v>
+        <v>1603</v>
       </c>
       <c r="I442" s="53" t="s">
-        <v>1624</v>
+        <v>1604</v>
       </c>
       <c r="K442" s="53">
         <v>-31</v>
@@ -38758,13 +38868,13 @@
         <v>19800</v>
       </c>
       <c r="P442" s="53" t="s">
-        <v>1620</v>
+        <v>1600</v>
       </c>
       <c r="Q442" s="54" t="s">
-        <v>1625</v>
+        <v>1605</v>
       </c>
       <c r="V442" s="53" t="s">
-        <v>1622</v>
+        <v>1602</v>
       </c>
       <c r="W442" s="53">
         <v>9999999</v>
@@ -38799,10 +38909,10 @@
         <v>1</v>
       </c>
       <c r="G443" s="53" t="s">
-        <v>1626</v>
+        <v>1606</v>
       </c>
       <c r="I443" s="53" t="s">
-        <v>1627</v>
+        <v>1607</v>
       </c>
       <c r="K443" s="53">
         <v>-31</v>
@@ -38820,13 +38930,13 @@
         <v>9800</v>
       </c>
       <c r="P443" s="53" t="s">
-        <v>1620</v>
+        <v>1600</v>
       </c>
       <c r="Q443" s="54" t="s">
-        <v>1628</v>
+        <v>1608</v>
       </c>
       <c r="V443" s="53" t="s">
-        <v>1622</v>
+        <v>1602</v>
       </c>
       <c r="W443" s="53">
         <v>9999999</v>
@@ -38861,10 +38971,10 @@
         <v>1</v>
       </c>
       <c r="G444" s="53" t="s">
-        <v>1629</v>
+        <v>1609</v>
       </c>
       <c r="I444" s="53" t="s">
-        <v>1630</v>
+        <v>1610</v>
       </c>
       <c r="K444" s="53">
         <v>-31</v>
@@ -38882,13 +38992,13 @@
         <v>4800</v>
       </c>
       <c r="P444" s="53" t="s">
-        <v>1620</v>
+        <v>1600</v>
       </c>
       <c r="Q444" s="54" t="s">
-        <v>1631</v>
+        <v>1611</v>
       </c>
       <c r="V444" s="53" t="s">
-        <v>1632</v>
+        <v>1612</v>
       </c>
       <c r="W444" s="53">
         <v>9999999</v>
@@ -38923,10 +39033,10 @@
         <v>1</v>
       </c>
       <c r="G445" s="53" t="s">
-        <v>1633</v>
+        <v>1613</v>
       </c>
       <c r="I445" s="53" t="s">
-        <v>1634</v>
+        <v>1614</v>
       </c>
       <c r="K445" s="53">
         <v>-31</v>
@@ -38944,13 +39054,13 @@
         <v>2000</v>
       </c>
       <c r="P445" s="53" t="s">
-        <v>1620</v>
+        <v>1600</v>
       </c>
       <c r="Q445" s="54" t="s">
-        <v>1635</v>
+        <v>1615</v>
       </c>
       <c r="V445" s="53" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W445" s="53">
         <v>9999999</v>
@@ -38985,10 +39095,10 @@
         <v>1</v>
       </c>
       <c r="G446" s="53" t="s">
-        <v>1636</v>
+        <v>1616</v>
       </c>
       <c r="I446" s="53" t="s">
-        <v>1637</v>
+        <v>1617</v>
       </c>
       <c r="K446" s="53">
         <v>-31</v>
@@ -39006,13 +39116,13 @@
         <v>600</v>
       </c>
       <c r="P446" s="53" t="s">
-        <v>1620</v>
+        <v>1600</v>
       </c>
       <c r="Q446" s="54" t="s">
-        <v>1638</v>
+        <v>1618</v>
       </c>
       <c r="V446" s="53" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W446" s="53">
         <v>9999999</v>
@@ -39047,13 +39157,13 @@
         <v>1</v>
       </c>
       <c r="G447" s="57" t="s">
-        <v>1639</v>
+        <v>1619</v>
       </c>
       <c r="H447" s="57" t="s">
-        <v>1640</v>
+        <v>1620</v>
       </c>
       <c r="I447" s="57" t="s">
-        <v>1641</v>
+        <v>1621</v>
       </c>
       <c r="K447" s="57">
         <v>-31</v>
@@ -39071,13 +39181,13 @@
         <v>800</v>
       </c>
       <c r="P447" s="57" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q447" s="58" t="s">
-        <v>1643</v>
+        <v>1623</v>
       </c>
       <c r="V447" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W447" s="57">
         <v>9999999</v>
@@ -39115,13 +39225,13 @@
         <v>1</v>
       </c>
       <c r="G448" s="57" t="s">
-        <v>1644</v>
+        <v>1624</v>
       </c>
       <c r="H448" s="57" t="s">
-        <v>1645</v>
+        <v>1625</v>
       </c>
       <c r="I448" s="57" t="s">
-        <v>1646</v>
+        <v>1626</v>
       </c>
       <c r="K448" s="57">
         <v>-31</v>
@@ -39139,13 +39249,13 @@
         <v>800</v>
       </c>
       <c r="P448" s="57" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q448" s="58" t="s">
-        <v>1647</v>
+        <v>1627</v>
       </c>
       <c r="V448" s="5" t="s">
-        <v>1648</v>
+        <v>1628</v>
       </c>
       <c r="W448" s="57">
         <v>9999999</v>
@@ -39180,13 +39290,13 @@
         <v>1</v>
       </c>
       <c r="G449" s="57" t="s">
-        <v>1649</v>
+        <v>1629</v>
       </c>
       <c r="H449" s="57" t="s">
-        <v>1650</v>
+        <v>1630</v>
       </c>
       <c r="I449" s="57" t="s">
-        <v>1651</v>
+        <v>1631</v>
       </c>
       <c r="K449" s="57">
         <v>-31</v>
@@ -39204,10 +39314,10 @@
         <v>800</v>
       </c>
       <c r="P449" s="57" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q449" s="58" t="s">
-        <v>1652</v>
+        <v>1632</v>
       </c>
       <c r="V449" s="5" t="s">
         <v>529</v>
@@ -39248,13 +39358,13 @@
         <v>1</v>
       </c>
       <c r="G450" s="59" t="s">
-        <v>1653</v>
+        <v>1633</v>
       </c>
       <c r="H450" s="59" t="s">
-        <v>1654</v>
+        <v>1634</v>
       </c>
       <c r="I450" s="59" t="s">
-        <v>1655</v>
+        <v>1635</v>
       </c>
       <c r="K450" s="59">
         <v>-31</v>
@@ -39272,10 +39382,10 @@
         <v>3800</v>
       </c>
       <c r="P450" s="59" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q450" s="60" t="s">
-        <v>1656</v>
+        <v>1636</v>
       </c>
       <c r="V450" s="5" t="s">
         <v>529</v>
@@ -39316,13 +39426,13 @@
         <v>1</v>
       </c>
       <c r="G451" s="59" t="s">
-        <v>1657</v>
+        <v>1637</v>
       </c>
       <c r="H451" s="59" t="s">
-        <v>1658</v>
+        <v>1638</v>
       </c>
       <c r="I451" s="59" t="s">
-        <v>1659</v>
+        <v>1639</v>
       </c>
       <c r="K451" s="59">
         <v>-31</v>
@@ -39340,10 +39450,10 @@
         <v>3800</v>
       </c>
       <c r="P451" s="59" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q451" s="60" t="s">
-        <v>1660</v>
+        <v>1640</v>
       </c>
       <c r="V451" s="5" t="s">
         <v>529</v>
@@ -39381,13 +39491,13 @@
         <v>1</v>
       </c>
       <c r="G452" s="59" t="s">
-        <v>1661</v>
+        <v>1641</v>
       </c>
       <c r="H452" s="59" t="s">
-        <v>1662</v>
+        <v>1642</v>
       </c>
       <c r="I452" s="59" t="s">
-        <v>1663</v>
+        <v>1643</v>
       </c>
       <c r="K452" s="59">
         <v>-31</v>
@@ -39405,10 +39515,10 @@
         <v>3800</v>
       </c>
       <c r="P452" s="59" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q452" s="60" t="s">
-        <v>1664</v>
+        <v>1644</v>
       </c>
       <c r="V452" s="5" t="s">
         <v>529</v>
@@ -39449,13 +39559,13 @@
         <v>1</v>
       </c>
       <c r="G453" s="57" t="s">
-        <v>1665</v>
+        <v>1645</v>
       </c>
       <c r="H453" s="57" t="s">
-        <v>1666</v>
+        <v>1646</v>
       </c>
       <c r="I453" s="57" t="s">
-        <v>1667</v>
+        <v>1647</v>
       </c>
       <c r="K453" s="57">
         <v>-31</v>
@@ -39473,10 +39583,10 @@
         <v>9800</v>
       </c>
       <c r="P453" s="57" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q453" s="58" t="s">
-        <v>1668</v>
+        <v>1648</v>
       </c>
       <c r="V453" s="5" t="s">
         <v>529</v>
@@ -39517,13 +39627,13 @@
         <v>1</v>
       </c>
       <c r="G454" s="57" t="s">
-        <v>1669</v>
+        <v>1649</v>
       </c>
       <c r="H454" s="57" t="s">
-        <v>1670</v>
+        <v>1650</v>
       </c>
       <c r="I454" s="57" t="s">
-        <v>1671</v>
+        <v>1651</v>
       </c>
       <c r="K454" s="57">
         <v>-31</v>
@@ -39541,10 +39651,10 @@
         <v>9800</v>
       </c>
       <c r="P454" s="57" t="s">
-        <v>1059</v>
+        <v>1039</v>
       </c>
       <c r="Q454" s="58" t="s">
-        <v>1672</v>
+        <v>1652</v>
       </c>
       <c r="V454" s="5" t="s">
         <v>529</v>
@@ -39582,13 +39692,13 @@
         <v>1</v>
       </c>
       <c r="G455" s="57" t="s">
-        <v>1673</v>
+        <v>1653</v>
       </c>
       <c r="H455" s="57" t="s">
-        <v>1674</v>
+        <v>1654</v>
       </c>
       <c r="I455" s="57" t="s">
-        <v>1675</v>
+        <v>1655</v>
       </c>
       <c r="K455" s="57">
         <v>-31</v>
@@ -39606,10 +39716,10 @@
         <v>9800</v>
       </c>
       <c r="P455" s="57" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q455" s="58" t="s">
-        <v>1767</v>
+        <v>1788</v>
       </c>
       <c r="V455" s="5" t="s">
         <v>529</v>
@@ -39650,13 +39760,13 @@
         <v>1</v>
       </c>
       <c r="G456" s="59" t="s">
-        <v>1676</v>
+        <v>1656</v>
       </c>
       <c r="H456" s="59" t="s">
-        <v>1677</v>
+        <v>1657</v>
       </c>
       <c r="I456" s="59" t="s">
-        <v>1678</v>
+        <v>1658</v>
       </c>
       <c r="K456" s="59">
         <v>-31</v>
@@ -39674,10 +39784,10 @@
         <v>19800</v>
       </c>
       <c r="P456" s="59" t="s">
-        <v>1059</v>
+        <v>1039</v>
       </c>
       <c r="Q456" s="60" t="s">
-        <v>1679</v>
+        <v>1659</v>
       </c>
       <c r="V456" s="5" t="s">
         <v>529</v>
@@ -39718,13 +39828,13 @@
         <v>1</v>
       </c>
       <c r="G457" s="59" t="s">
-        <v>1680</v>
+        <v>1660</v>
       </c>
       <c r="H457" s="59" t="s">
-        <v>1681</v>
+        <v>1661</v>
       </c>
       <c r="I457" s="59" t="s">
-        <v>1682</v>
+        <v>1662</v>
       </c>
       <c r="K457" s="59">
         <v>-31</v>
@@ -39742,10 +39852,10 @@
         <v>19800</v>
       </c>
       <c r="P457" s="59" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q457" s="60" t="s">
-        <v>1683</v>
+        <v>1663</v>
       </c>
       <c r="V457" s="5" t="s">
         <v>529</v>
@@ -39783,13 +39893,13 @@
         <v>1</v>
       </c>
       <c r="G458" s="59" t="s">
-        <v>1684</v>
+        <v>1664</v>
       </c>
       <c r="H458" s="59" t="s">
-        <v>1685</v>
+        <v>1665</v>
       </c>
       <c r="I458" s="59" t="s">
-        <v>1686</v>
+        <v>1666</v>
       </c>
       <c r="K458" s="59">
         <v>-31</v>
@@ -39807,10 +39917,10 @@
         <v>19800</v>
       </c>
       <c r="P458" s="59" t="s">
-        <v>1059</v>
+        <v>1039</v>
       </c>
       <c r="Q458" s="60" t="s">
-        <v>1687</v>
+        <v>1667</v>
       </c>
       <c r="V458" s="5" t="s">
         <v>529</v>
@@ -39851,13 +39961,13 @@
         <v>1</v>
       </c>
       <c r="G459" s="57" t="s">
-        <v>1688</v>
+        <v>1668</v>
       </c>
       <c r="H459" s="57" t="s">
-        <v>1689</v>
+        <v>1669</v>
       </c>
       <c r="I459" s="57" t="s">
-        <v>1690</v>
+        <v>1670</v>
       </c>
       <c r="K459" s="57">
         <v>-31</v>
@@ -39875,10 +39985,10 @@
         <v>49800</v>
       </c>
       <c r="P459" s="57" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q459" s="58" t="s">
-        <v>1691</v>
+        <v>1671</v>
       </c>
       <c r="V459" s="5" t="s">
         <v>529</v>
@@ -39919,13 +40029,13 @@
         <v>1</v>
       </c>
       <c r="G460" s="57" t="s">
-        <v>1692</v>
+        <v>1672</v>
       </c>
       <c r="H460" s="57" t="s">
-        <v>1693</v>
+        <v>1673</v>
       </c>
       <c r="I460" s="57" t="s">
-        <v>1694</v>
+        <v>1674</v>
       </c>
       <c r="K460" s="57">
         <v>-31</v>
@@ -39943,10 +40053,10 @@
         <v>49800</v>
       </c>
       <c r="P460" s="57" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q460" s="58" t="s">
-        <v>1695</v>
+        <v>1675</v>
       </c>
       <c r="V460" s="5" t="s">
         <v>529</v>
@@ -39984,13 +40094,13 @@
         <v>1</v>
       </c>
       <c r="G461" s="57" t="s">
-        <v>1696</v>
+        <v>1676</v>
       </c>
       <c r="H461" s="57" t="s">
-        <v>1697</v>
+        <v>1677</v>
       </c>
       <c r="I461" s="57" t="s">
-        <v>1698</v>
+        <v>1678</v>
       </c>
       <c r="K461" s="57">
         <v>-31</v>
@@ -40008,10 +40118,10 @@
         <v>49800</v>
       </c>
       <c r="P461" s="57" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q461" s="58" t="s">
-        <v>1699</v>
+        <v>1679</v>
       </c>
       <c r="V461" s="5" t="s">
         <v>529</v>
@@ -40052,13 +40162,13 @@
         <v>1</v>
       </c>
       <c r="G462" s="59" t="s">
-        <v>1700</v>
+        <v>1680</v>
       </c>
       <c r="H462" s="59" t="s">
-        <v>1701</v>
+        <v>1681</v>
       </c>
       <c r="I462" s="59" t="s">
-        <v>1702</v>
+        <v>1682</v>
       </c>
       <c r="K462" s="59">
         <v>-31</v>
@@ -40076,10 +40186,10 @@
         <v>99800</v>
       </c>
       <c r="P462" s="59" t="s">
-        <v>1059</v>
+        <v>1039</v>
       </c>
       <c r="Q462" s="60" t="s">
-        <v>1703</v>
+        <v>1683</v>
       </c>
       <c r="V462" s="5" t="s">
         <v>529</v>
@@ -40120,13 +40230,13 @@
         <v>1</v>
       </c>
       <c r="G463" s="59" t="s">
-        <v>1704</v>
+        <v>1684</v>
       </c>
       <c r="H463" s="59" t="s">
-        <v>1705</v>
+        <v>1685</v>
       </c>
       <c r="I463" s="59" t="s">
-        <v>1706</v>
+        <v>1686</v>
       </c>
       <c r="K463" s="59">
         <v>-31</v>
@@ -40144,10 +40254,10 @@
         <v>99800</v>
       </c>
       <c r="P463" s="59" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q463" s="60" t="s">
-        <v>1707</v>
+        <v>1687</v>
       </c>
       <c r="V463" s="5" t="s">
         <v>529</v>
@@ -40185,13 +40295,13 @@
         <v>1</v>
       </c>
       <c r="G464" s="59" t="s">
-        <v>1708</v>
+        <v>1688</v>
       </c>
       <c r="H464" s="59" t="s">
-        <v>1709</v>
+        <v>1689</v>
       </c>
       <c r="I464" s="59" t="s">
-        <v>1710</v>
+        <v>1690</v>
       </c>
       <c r="K464" s="59">
         <v>-31</v>
@@ -40209,10 +40319,10 @@
         <v>99800</v>
       </c>
       <c r="P464" s="59" t="s">
-        <v>1059</v>
+        <v>1039</v>
       </c>
       <c r="Q464" s="60" t="s">
-        <v>1711</v>
+        <v>1691</v>
       </c>
       <c r="V464" s="5" t="s">
         <v>529</v>
@@ -40253,13 +40363,13 @@
         <v>1</v>
       </c>
       <c r="G465" s="57" t="s">
-        <v>1712</v>
+        <v>1692</v>
       </c>
       <c r="H465" s="57" t="s">
-        <v>1713</v>
+        <v>1693</v>
       </c>
       <c r="I465" s="57" t="s">
-        <v>1714</v>
+        <v>1694</v>
       </c>
       <c r="K465" s="57">
         <v>-31</v>
@@ -40277,10 +40387,10 @@
         <v>249800</v>
       </c>
       <c r="P465" s="57" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q465" s="58" t="s">
-        <v>1715</v>
+        <v>1695</v>
       </c>
       <c r="V465" s="5" t="s">
         <v>529</v>
@@ -40321,13 +40431,13 @@
         <v>1</v>
       </c>
       <c r="G466" s="57" t="s">
-        <v>1716</v>
+        <v>1696</v>
       </c>
       <c r="H466" s="57" t="s">
-        <v>1717</v>
+        <v>1697</v>
       </c>
       <c r="I466" s="57" t="s">
-        <v>1718</v>
+        <v>1698</v>
       </c>
       <c r="K466" s="57">
         <v>-31</v>
@@ -40345,10 +40455,10 @@
         <v>249800</v>
       </c>
       <c r="P466" s="57" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q466" s="58" t="s">
-        <v>1719</v>
+        <v>1699</v>
       </c>
       <c r="V466" s="5" t="s">
         <v>529</v>
@@ -40386,13 +40496,13 @@
         <v>1</v>
       </c>
       <c r="G467" s="57" t="s">
-        <v>1720</v>
+        <v>1700</v>
       </c>
       <c r="H467" s="57" t="s">
-        <v>1721</v>
+        <v>1701</v>
       </c>
       <c r="I467" s="57" t="s">
-        <v>1722</v>
+        <v>1702</v>
       </c>
       <c r="K467" s="57">
         <v>-31</v>
@@ -40410,10 +40520,10 @@
         <v>249800</v>
       </c>
       <c r="P467" s="57" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q467" s="58" t="s">
-        <v>1723</v>
+        <v>1703</v>
       </c>
       <c r="V467" s="5" t="s">
         <v>529</v>
@@ -40454,13 +40564,13 @@
         <v>1</v>
       </c>
       <c r="G468" s="61" t="s">
-        <v>1724</v>
+        <v>1704</v>
       </c>
       <c r="H468" s="61" t="s">
-        <v>1725</v>
+        <v>1705</v>
       </c>
       <c r="I468" s="61" t="s">
-        <v>1726</v>
+        <v>1706</v>
       </c>
       <c r="K468" s="61">
         <v>-31</v>
@@ -40478,13 +40588,13 @@
         <v>600</v>
       </c>
       <c r="P468" s="61" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q468" s="62" t="s">
-        <v>1727</v>
+        <v>1707</v>
       </c>
       <c r="V468" s="61" t="s">
-        <v>1729</v>
+        <v>1709</v>
       </c>
       <c r="W468" s="61">
         <v>9999999</v>
@@ -40519,13 +40629,13 @@
         <v>1</v>
       </c>
       <c r="G469" s="61" t="s">
-        <v>1730</v>
+        <v>1710</v>
       </c>
       <c r="H469" s="61" t="s">
-        <v>1731</v>
+        <v>1711</v>
       </c>
       <c r="I469" s="61" t="s">
-        <v>1732</v>
+        <v>1712</v>
       </c>
       <c r="K469" s="61">
         <v>-31</v>
@@ -40543,13 +40653,13 @@
         <v>3000</v>
       </c>
       <c r="P469" s="61" t="s">
-        <v>1059</v>
+        <v>1039</v>
       </c>
       <c r="Q469" s="62" t="s">
-        <v>1733</v>
+        <v>1713</v>
       </c>
       <c r="V469" s="61" t="s">
-        <v>1728</v>
+        <v>1708</v>
       </c>
       <c r="W469" s="61">
         <v>9999999</v>
@@ -40584,13 +40694,13 @@
         <v>1</v>
       </c>
       <c r="G470" s="61" t="s">
-        <v>1734</v>
+        <v>1714</v>
       </c>
       <c r="H470" s="61" t="s">
-        <v>1731</v>
+        <v>1711</v>
       </c>
       <c r="I470" s="61" t="s">
-        <v>1735</v>
+        <v>1715</v>
       </c>
       <c r="K470" s="61">
         <v>-31</v>
@@ -40608,13 +40718,13 @@
         <v>6800</v>
       </c>
       <c r="P470" s="61" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q470" s="62" t="s">
-        <v>1736</v>
+        <v>1716</v>
       </c>
       <c r="V470" s="61" t="s">
-        <v>1729</v>
+        <v>1709</v>
       </c>
       <c r="W470" s="61">
         <v>9999999</v>
@@ -40649,13 +40759,13 @@
         <v>1</v>
       </c>
       <c r="G471" s="61" t="s">
-        <v>1737</v>
+        <v>1717</v>
       </c>
       <c r="H471" s="61" t="s">
-        <v>1725</v>
+        <v>1705</v>
       </c>
       <c r="I471" s="61" t="s">
-        <v>1738</v>
+        <v>1718</v>
       </c>
       <c r="K471" s="61">
         <v>-31</v>
@@ -40673,13 +40783,13 @@
         <v>9800</v>
       </c>
       <c r="P471" s="61" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q471" s="62" t="s">
-        <v>1739</v>
+        <v>1719</v>
       </c>
       <c r="V471" s="61" t="s">
-        <v>1740</v>
+        <v>1720</v>
       </c>
       <c r="W471" s="61">
         <v>9999999</v>
@@ -40714,13 +40824,13 @@
         <v>1</v>
       </c>
       <c r="G472" s="61" t="s">
-        <v>1741</v>
+        <v>1721</v>
       </c>
       <c r="H472" s="61" t="s">
-        <v>1725</v>
+        <v>1705</v>
       </c>
       <c r="I472" s="61" t="s">
-        <v>1742</v>
+        <v>1722</v>
       </c>
       <c r="K472" s="61">
         <v>-31</v>
@@ -40738,13 +40848,13 @@
         <v>19800</v>
       </c>
       <c r="P472" s="61" t="s">
-        <v>1059</v>
+        <v>1039</v>
       </c>
       <c r="Q472" s="62" t="s">
-        <v>1743</v>
+        <v>1723</v>
       </c>
       <c r="V472" s="61" t="s">
-        <v>1740</v>
+        <v>1720</v>
       </c>
       <c r="W472" s="61">
         <v>9999999</v>
@@ -40779,13 +40889,13 @@
         <v>1</v>
       </c>
       <c r="G473" s="61" t="s">
-        <v>1744</v>
+        <v>1724</v>
       </c>
       <c r="H473" s="61" t="s">
-        <v>1731</v>
+        <v>1711</v>
       </c>
       <c r="I473" s="61" t="s">
-        <v>1745</v>
+        <v>1725</v>
       </c>
       <c r="K473" s="61">
         <v>-31</v>
@@ -40803,13 +40913,13 @@
         <v>49800</v>
       </c>
       <c r="P473" s="61" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q473" s="62" t="s">
-        <v>1746</v>
+        <v>1726</v>
       </c>
       <c r="V473" s="61" t="s">
-        <v>1740</v>
+        <v>1720</v>
       </c>
       <c r="W473" s="61">
         <v>9999999</v>
@@ -40844,13 +40954,13 @@
         <v>1</v>
       </c>
       <c r="G474" s="55" t="s">
-        <v>1747</v>
+        <v>1727</v>
       </c>
       <c r="H474" s="55" t="s">
-        <v>1731</v>
+        <v>1711</v>
       </c>
       <c r="I474" s="55" t="s">
-        <v>1748</v>
+        <v>1728</v>
       </c>
       <c r="K474" s="55">
         <v>-31</v>
@@ -40868,13 +40978,13 @@
         <v>99800</v>
       </c>
       <c r="P474" s="55" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q474" s="56" t="s">
-        <v>1749</v>
+        <v>1729</v>
       </c>
       <c r="V474" s="61" t="s">
-        <v>1740</v>
+        <v>1720</v>
       </c>
       <c r="W474" s="55">
         <v>9999999</v>
@@ -40909,13 +41019,13 @@
         <v>1</v>
       </c>
       <c r="G475" s="55" t="s">
-        <v>1750</v>
+        <v>1730</v>
       </c>
       <c r="H475" s="55" t="s">
-        <v>1731</v>
+        <v>1711</v>
       </c>
       <c r="I475" s="55" t="s">
-        <v>1766</v>
+        <v>1789</v>
       </c>
       <c r="K475" s="55">
         <v>-31</v>
@@ -40933,13 +41043,13 @@
         <v>249800</v>
       </c>
       <c r="P475" s="55" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q475" s="56" t="s">
-        <v>1765</v>
+        <v>1790</v>
       </c>
       <c r="V475" s="61" t="s">
-        <v>1740</v>
+        <v>1720</v>
       </c>
       <c r="W475" s="55">
         <v>9999999</v>
@@ -40960,6 +41070,266 @@
         <v>1</v>
       </c>
       <c r="AL475" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A476" s="67">
+        <v>475</v>
+      </c>
+      <c r="B476" s="67">
+        <v>10392</v>
+      </c>
+      <c r="F476" s="67">
+        <v>1</v>
+      </c>
+      <c r="G476" s="67" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H476" s="67" t="s">
+        <v>1774</v>
+      </c>
+      <c r="I476" s="67" t="s">
+        <v>1775</v>
+      </c>
+      <c r="K476" s="67">
+        <v>-31</v>
+      </c>
+      <c r="L476" s="67">
+        <v>0</v>
+      </c>
+      <c r="M476" s="67">
+        <v>0</v>
+      </c>
+      <c r="N476" s="67" t="s">
+        <v>482</v>
+      </c>
+      <c r="O476" s="67">
+        <v>49800</v>
+      </c>
+      <c r="P476" s="67" t="s">
+        <v>1776</v>
+      </c>
+      <c r="Q476" s="68" t="s">
+        <v>1777</v>
+      </c>
+      <c r="V476" s="67" t="s">
+        <v>1246</v>
+      </c>
+      <c r="W476" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="X476" s="67">
+        <v>1606176000</v>
+      </c>
+      <c r="Y476" s="67">
+        <v>1606751999</v>
+      </c>
+      <c r="AG476" s="67">
+        <v>1</v>
+      </c>
+      <c r="AH476" s="67">
+        <v>1</v>
+      </c>
+      <c r="AK476" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL476" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A477" s="67">
+        <v>476</v>
+      </c>
+      <c r="B477" s="67">
+        <v>10393</v>
+      </c>
+      <c r="F477" s="67">
+        <v>1</v>
+      </c>
+      <c r="G477" s="67" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H477" s="67" t="s">
+        <v>1778</v>
+      </c>
+      <c r="I477" s="67" t="s">
+        <v>1779</v>
+      </c>
+      <c r="K477" s="67">
+        <v>-31</v>
+      </c>
+      <c r="L477" s="67">
+        <v>0</v>
+      </c>
+      <c r="M477" s="67">
+        <v>0</v>
+      </c>
+      <c r="N477" s="67" t="s">
+        <v>482</v>
+      </c>
+      <c r="O477" s="67">
+        <v>19800</v>
+      </c>
+      <c r="P477" s="67" t="s">
+        <v>1776</v>
+      </c>
+      <c r="Q477" s="68" t="s">
+        <v>1780</v>
+      </c>
+      <c r="V477" s="67" t="s">
+        <v>1246</v>
+      </c>
+      <c r="W477" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="X477" s="67">
+        <v>1606176000</v>
+      </c>
+      <c r="Y477" s="67">
+        <v>1606751999</v>
+      </c>
+      <c r="AG477" s="67">
+        <v>1</v>
+      </c>
+      <c r="AH477" s="67">
+        <v>1</v>
+      </c>
+      <c r="AK477" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL477" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A478" s="67">
+        <v>477</v>
+      </c>
+      <c r="B478" s="67">
+        <v>10394</v>
+      </c>
+      <c r="F478" s="67">
+        <v>1</v>
+      </c>
+      <c r="G478" s="67" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H478" s="67" t="s">
+        <v>1781</v>
+      </c>
+      <c r="I478" s="67" t="s">
+        <v>1782</v>
+      </c>
+      <c r="K478" s="67">
+        <v>-31</v>
+      </c>
+      <c r="L478" s="67">
+        <v>0</v>
+      </c>
+      <c r="M478" s="67">
+        <v>0</v>
+      </c>
+      <c r="N478" s="67" t="s">
+        <v>482</v>
+      </c>
+      <c r="O478" s="67">
+        <v>9800</v>
+      </c>
+      <c r="P478" s="67" t="s">
+        <v>1783</v>
+      </c>
+      <c r="Q478" s="68" t="s">
+        <v>770</v>
+      </c>
+      <c r="V478" s="67" t="s">
+        <v>529</v>
+      </c>
+      <c r="W478" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="X478" s="67">
+        <v>1606176000</v>
+      </c>
+      <c r="Y478" s="67">
+        <v>1606751999</v>
+      </c>
+      <c r="AG478" s="67">
+        <v>1</v>
+      </c>
+      <c r="AH478" s="67">
+        <v>1</v>
+      </c>
+      <c r="AK478" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL478" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A479" s="67">
+        <v>478</v>
+      </c>
+      <c r="B479" s="67">
+        <v>10395</v>
+      </c>
+      <c r="F479" s="67">
+        <v>1</v>
+      </c>
+      <c r="G479" s="67" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H479" s="67" t="s">
+        <v>1784</v>
+      </c>
+      <c r="I479" s="67" t="s">
+        <v>1785</v>
+      </c>
+      <c r="K479" s="67">
+        <v>-31</v>
+      </c>
+      <c r="L479" s="67">
+        <v>0</v>
+      </c>
+      <c r="M479" s="67">
+        <v>0</v>
+      </c>
+      <c r="N479" s="67" t="s">
+        <v>482</v>
+      </c>
+      <c r="O479" s="67">
+        <v>4800</v>
+      </c>
+      <c r="P479" s="67" t="s">
+        <v>1786</v>
+      </c>
+      <c r="Q479" s="68" t="s">
+        <v>1787</v>
+      </c>
+      <c r="V479" s="67" t="s">
+        <v>1246</v>
+      </c>
+      <c r="W479" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="X479" s="67">
+        <v>1606176000</v>
+      </c>
+      <c r="Y479" s="67">
+        <v>1606751999</v>
+      </c>
+      <c r="AG479" s="67">
+        <v>1</v>
+      </c>
+      <c r="AH479" s="67">
+        <v>1</v>
+      </c>
+      <c r="AK479" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL479" s="67">
         <v>1</v>
       </c>
     </row>
@@ -40991,7 +41361,7 @@
         <v>390</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1053</v>
+        <v>1033</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>391</v>
@@ -41008,7 +41378,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1079</v>
+        <v>1059</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -41025,7 +41395,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1080</v>
+        <v>1060</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -41039,7 +41409,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1081</v>
+        <v>1061</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -41053,7 +41423,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1082</v>
+        <v>1062</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -41207,7 +41577,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1083</v>
+        <v>1063</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -41361,7 +41731,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>1326</v>
+        <v>1306</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -41375,7 +41745,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>1327</v>
+        <v>1307</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
@@ -41389,7 +41759,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1328</v>
+        <v>1308</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
@@ -41403,7 +41773,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>1329</v>
+        <v>1309</v>
       </c>
       <c r="C30" s="12">
         <v>1</v>
@@ -41417,7 +41787,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>1330</v>
+        <v>1310</v>
       </c>
       <c r="C31" s="12">
         <v>1</v>
@@ -41431,7 +41801,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>1331</v>
+        <v>1311</v>
       </c>
       <c r="C32" s="12">
         <v>1</v>
@@ -41445,7 +41815,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>1332</v>
+        <v>1312</v>
       </c>
       <c r="C33" s="12">
         <v>1</v>
@@ -41459,7 +41829,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>1333</v>
+        <v>1313</v>
       </c>
       <c r="C34" s="12">
         <v>1</v>
@@ -41473,7 +41843,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>1334</v>
+        <v>1314</v>
       </c>
       <c r="C35" s="12">
         <v>1</v>
@@ -41487,7 +41857,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>1335</v>
+        <v>1315</v>
       </c>
       <c r="C36" s="12">
         <v>1</v>
@@ -41501,7 +41871,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>1336</v>
+        <v>1316</v>
       </c>
       <c r="C37" s="12">
         <v>1</v>
@@ -41515,7 +41885,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>1337</v>
+        <v>1317</v>
       </c>
       <c r="C38" s="12">
         <v>1</v>
@@ -41529,7 +41899,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>1338</v>
+        <v>1318</v>
       </c>
       <c r="C39" s="12">
         <v>1</v>
@@ -41543,7 +41913,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>1339</v>
+        <v>1319</v>
       </c>
       <c r="C40" s="12">
         <v>1</v>
@@ -41557,7 +41927,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>1340</v>
+        <v>1320</v>
       </c>
       <c r="C41" s="12">
         <v>1</v>
@@ -41571,7 +41941,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>1341</v>
+        <v>1321</v>
       </c>
       <c r="C42" s="12">
         <v>1</v>
@@ -41585,7 +41955,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>1371</v>
+        <v>1351</v>
       </c>
       <c r="C43" s="12">
         <v>1</v>
@@ -41599,7 +41969,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>1372</v>
+        <v>1352</v>
       </c>
       <c r="C44" s="12">
         <v>1</v>
@@ -41613,7 +41983,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>1417</v>
+        <v>1397</v>
       </c>
       <c r="C45" s="12">
         <v>1</v>
@@ -41627,7 +41997,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>1418</v>
+        <v>1398</v>
       </c>
       <c r="C46" s="12">
         <v>1</v>
@@ -41641,7 +42011,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>1419</v>
+        <v>1399</v>
       </c>
       <c r="C47" s="12">
         <v>1</v>
@@ -41655,7 +42025,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="48" t="s">
-        <v>1484</v>
+        <v>1464</v>
       </c>
       <c r="C48" s="47">
         <v>1</v>
@@ -41669,7 +42039,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>1500</v>
+        <v>1480</v>
       </c>
       <c r="C49" s="47">
         <v>1</v>
@@ -41683,7 +42053,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="48" t="s">
-        <v>1501</v>
+        <v>1481</v>
       </c>
       <c r="C50" s="47">
         <v>1</v>
@@ -41697,7 +42067,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>1502</v>
+        <v>1482</v>
       </c>
       <c r="C51" s="47">
         <v>1</v>
@@ -41711,7 +42081,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="48" t="s">
-        <v>1503</v>
+        <v>1483</v>
       </c>
       <c r="C52" s="47">
         <v>1</v>
@@ -41725,7 +42095,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="65" t="s">
-        <v>1751</v>
+        <v>1731</v>
       </c>
       <c r="C53" s="64">
         <v>1</v>
@@ -41739,7 +42109,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="65" t="s">
-        <v>1752</v>
+        <v>1732</v>
       </c>
       <c r="C54" s="64">
         <v>1</v>
@@ -41753,7 +42123,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="65" t="s">
-        <v>1753</v>
+        <v>1733</v>
       </c>
       <c r="C55" s="64">
         <v>1</v>
@@ -41767,7 +42137,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="65" t="s">
-        <v>1754</v>
+        <v>1734</v>
       </c>
       <c r="C56" s="64">
         <v>1</v>
@@ -41781,7 +42151,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="65" t="s">
-        <v>1755</v>
+        <v>1735</v>
       </c>
       <c r="C57" s="64">
         <v>1</v>
@@ -41795,7 +42165,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="65" t="s">
-        <v>1756</v>
+        <v>1736</v>
       </c>
       <c r="C58" s="64">
         <v>1</v>
@@ -41809,7 +42179,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="65" t="s">
-        <v>1757</v>
+        <v>1737</v>
       </c>
       <c r="C59" s="64">
         <v>1</v>
@@ -41823,7 +42193,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="65" t="s">
-        <v>1758</v>
+        <v>1738</v>
       </c>
       <c r="C60" s="64">
         <v>1</v>
@@ -41837,7 +42207,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="65" t="s">
-        <v>1759</v>
+        <v>1739</v>
       </c>
       <c r="C61" s="64">
         <v>1</v>
@@ -41851,7 +42221,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="65" t="s">
-        <v>1760</v>
+        <v>1740</v>
       </c>
       <c r="C62" s="64">
         <v>1</v>
@@ -41865,7 +42235,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="65" t="s">
-        <v>1761</v>
+        <v>1741</v>
       </c>
       <c r="C63" s="64">
         <v>1</v>
@@ -41879,7 +42249,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="65" t="s">
-        <v>1762</v>
+        <v>1742</v>
       </c>
       <c r="C64" s="64">
         <v>1</v>
@@ -41893,7 +42263,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="65" t="s">
-        <v>1763</v>
+        <v>1743</v>
       </c>
       <c r="C65" s="64">
         <v>1</v>
@@ -41907,7 +42277,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="65" t="s">
-        <v>1764</v>
+        <v>1744</v>
       </c>
       <c r="C66" s="64">
         <v>1</v>
@@ -42083,16 +42453,16 @@
         <v>3</v>
       </c>
       <c r="P2" s="33" t="s">
-        <v>1146</v>
+        <v>1126</v>
       </c>
       <c r="R2" s="33" t="s">
-        <v>1147</v>
+        <v>1127</v>
       </c>
       <c r="S2" s="11" t="s">
         <v>47</v>
       </c>
       <c r="T2" s="33" t="s">
-        <v>1148</v>
+        <v>1128</v>
       </c>
       <c r="U2" s="11" t="s">
         <v>407</v>
@@ -42148,16 +42518,16 @@
         <v>4</v>
       </c>
       <c r="P3" s="33" t="s">
-        <v>1149</v>
+        <v>1129</v>
       </c>
       <c r="R3" s="33" t="s">
-        <v>1147</v>
+        <v>1127</v>
       </c>
       <c r="S3" s="11" t="s">
         <v>49</v>
       </c>
       <c r="T3" s="33" t="s">
-        <v>1150</v>
+        <v>1130</v>
       </c>
       <c r="U3" s="11" t="s">
         <v>407</v>
@@ -42213,10 +42583,10 @@
         <v>5</v>
       </c>
       <c r="P4" s="33" t="s">
-        <v>1151</v>
+        <v>1131</v>
       </c>
       <c r="R4" s="33" t="s">
-        <v>1147</v>
+        <v>1127</v>
       </c>
       <c r="S4" s="11" t="s">
         <v>50</v>
@@ -42278,16 +42648,16 @@
         <v>6</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>1152</v>
+        <v>1132</v>
       </c>
       <c r="R5" s="33" t="s">
-        <v>1147</v>
+        <v>1127</v>
       </c>
       <c r="S5" s="11" t="s">
         <v>51</v>
       </c>
       <c r="T5" s="33" t="s">
-        <v>1153</v>
+        <v>1133</v>
       </c>
       <c r="U5" s="11" t="s">
         <v>407</v>
@@ -42343,10 +42713,10 @@
         <v>7</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>1154</v>
+        <v>1134</v>
       </c>
       <c r="R6" s="33" t="s">
-        <v>1147</v>
+        <v>1127</v>
       </c>
       <c r="S6" s="11" t="s">
         <v>52</v>
@@ -42408,10 +42778,10 @@
         <v>9</v>
       </c>
       <c r="P7" s="33" t="s">
-        <v>1155</v>
+        <v>1135</v>
       </c>
       <c r="R7" s="33" t="s">
-        <v>1147</v>
+        <v>1127</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>53</v>
@@ -42470,16 +42840,16 @@
         <v>0</v>
       </c>
       <c r="P8" s="33" t="s">
-        <v>1156</v>
+        <v>1136</v>
       </c>
       <c r="R8" s="33" t="s">
-        <v>1147</v>
+        <v>1127</v>
       </c>
       <c r="S8" s="11" t="s">
         <v>47</v>
       </c>
       <c r="T8" s="33" t="s">
-        <v>1148</v>
+        <v>1128</v>
       </c>
       <c r="U8" s="11" t="s">
         <v>407</v>
@@ -42558,7 +42928,7 @@
       <c r="Z9" s="34"/>
       <c r="AA9" s="34"/>
       <c r="AB9" s="35" t="s">
-        <v>1157</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -42628,7 +42998,7 @@
       <c r="Z10" s="34"/>
       <c r="AA10" s="34"/>
       <c r="AB10" s="35" t="s">
-        <v>1158</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -42672,10 +43042,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="33" t="s">
-        <v>1149</v>
+        <v>1129</v>
       </c>
       <c r="R11" s="33" t="s">
-        <v>1147</v>
+        <v>1127</v>
       </c>
       <c r="S11" s="23" t="s">
         <v>49</v>
@@ -42701,7 +43071,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>1159</v>
+        <v>1139</v>
       </c>
       <c r="D12" s="11">
         <v>109</v>
@@ -42737,10 +43107,10 @@
         <v>9</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>1160</v>
+        <v>1140</v>
       </c>
       <c r="R12" s="33" t="s">
-        <v>1147</v>
+        <v>1127</v>
       </c>
       <c r="S12" s="11" t="s">
         <v>54</v>
@@ -42802,10 +43172,10 @@
         <v>10</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>1161</v>
+        <v>1141</v>
       </c>
       <c r="R13" s="33" t="s">
-        <v>1147</v>
+        <v>1127</v>
       </c>
       <c r="S13" s="11" t="s">
         <v>409</v>
@@ -42867,10 +43237,10 @@
         <v>11</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>1162</v>
+        <v>1142</v>
       </c>
       <c r="R14" s="33" t="s">
-        <v>1163</v>
+        <v>1143</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>410</v>
@@ -42903,7 +43273,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>1164</v>
+        <v>1144</v>
       </c>
       <c r="G15" s="34">
         <v>100</v>
@@ -42941,7 +43311,7 @@
         <v>100</v>
       </c>
       <c r="T15" s="35" t="s">
-        <v>1148</v>
+        <v>1128</v>
       </c>
       <c r="U15" s="34" t="s">
         <v>407</v>
@@ -42957,7 +43327,7 @@
       <c r="Z15" s="34"/>
       <c r="AA15" s="34"/>
       <c r="AB15" s="35" t="s">
-        <v>1165</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="16" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -43004,17 +43374,17 @@
         <v>3</v>
       </c>
       <c r="P16" s="33" t="s">
-        <v>1166</v>
+        <v>1146</v>
       </c>
       <c r="Q16" s="12"/>
       <c r="R16" s="33" t="s">
-        <v>1147</v>
+        <v>1127</v>
       </c>
       <c r="S16" s="11" t="s">
         <v>61</v>
       </c>
       <c r="T16" s="33" t="s">
-        <v>1148</v>
+        <v>1128</v>
       </c>
       <c r="U16" s="11" t="s">
         <v>407</v>
@@ -43069,11 +43439,11 @@
         <v>4</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>1167</v>
+        <v>1147</v>
       </c>
       <c r="Q17" s="12"/>
       <c r="R17" s="33" t="s">
-        <v>1147</v>
+        <v>1127</v>
       </c>
       <c r="S17" s="11" t="s">
         <v>64</v>
@@ -43134,11 +43504,11 @@
         <v>5</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>1168</v>
+        <v>1148</v>
       </c>
       <c r="Q18" s="12"/>
       <c r="R18" s="33" t="s">
-        <v>1147</v>
+        <v>1127</v>
       </c>
       <c r="S18" s="11" t="s">
         <v>67</v>
@@ -43199,11 +43569,11 @@
         <v>6</v>
       </c>
       <c r="P19" s="33" t="s">
-        <v>1169</v>
+        <v>1149</v>
       </c>
       <c r="Q19" s="12"/>
       <c r="R19" s="33" t="s">
-        <v>1145</v>
+        <v>1125</v>
       </c>
       <c r="S19" s="11" t="s">
         <v>71</v>
@@ -43264,7 +43634,7 @@
         <v>7</v>
       </c>
       <c r="P20" s="33" t="s">
-        <v>1144</v>
+        <v>1124</v>
       </c>
       <c r="R20" s="33" t="s">
         <v>955</v>
@@ -43328,11 +43698,11 @@
         <v>0</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>1170</v>
+        <v>1150</v>
       </c>
       <c r="Q21" s="11"/>
       <c r="R21" s="33" t="s">
-        <v>1145</v>
+        <v>1125</v>
       </c>
       <c r="S21" s="11" t="s">
         <v>77</v>
@@ -43406,7 +43776,7 @@
         <v>5000</v>
       </c>
       <c r="T22" s="35" t="s">
-        <v>1153</v>
+        <v>1133</v>
       </c>
       <c r="U22" s="34" t="s">
         <v>407</v>
@@ -43544,7 +43914,7 @@
         <v>100</v>
       </c>
       <c r="T24" s="35" t="s">
-        <v>1148</v>
+        <v>1128</v>
       </c>
       <c r="U24" s="34" t="s">
         <v>407</v>
@@ -43560,7 +43930,7 @@
       <c r="Z24" s="34"/>
       <c r="AA24" s="34"/>
       <c r="AB24" s="35" t="s">
-        <v>1171</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="25" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -43580,7 +43950,7 @@
         <v>111</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>1055</v>
+        <v>1035</v>
       </c>
       <c r="G25" s="11">
         <v>15840</v>
@@ -43607,7 +43977,7 @@
         <v>8</v>
       </c>
       <c r="P25" s="33" t="s">
-        <v>1487</v>
+        <v>1467</v>
       </c>
       <c r="R25" s="33" t="s">
         <v>956</v>
@@ -44261,7 +44631,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>1063</v>
+        <v>1043</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>471</v>
@@ -44308,7 +44678,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>1064</v>
+        <v>1044</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>471</v>
@@ -44355,7 +44725,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>1065</v>
+        <v>1045</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>475</v>

--- a/config_Release/shoping_config_vivo.xlsx
+++ b/config_Release/shoping_config_vivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="1791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3965" uniqueCount="1809">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7996,6 +7996,74 @@
   </si>
   <si>
     <t>"2.5亿金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二498元礼包</t>
+  </si>
+  <si>
+    <t>"4980万","200万小游戏币","抽奖券*50",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_12_12_cjq",</t>
+  </si>
+  <si>
+    <t>49800000,2000000,50,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万","50万小游戏币","抽奖券*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,500000,30,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万","10万小游戏币","抽奖券*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,100000,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万","3万小游戏币","抽奖券*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,30000,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二20元礼包</t>
+  </si>
+  <si>
+    <t>"200万","1万小游戏币","抽奖券*4",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,10000,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二6元礼包</t>
+  </si>
+  <si>
+    <t>"60万","3000小游戏币","抽奖券*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,3000,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8208,7 +8276,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8426,6 +8494,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8892,7 +8963,7 @@
   <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="F2" sqref="F2:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9117,9 +9188,7 @@
         <v>41</v>
       </c>
       <c r="E3" s="24"/>
-      <c r="F3" s="2">
-        <v>85</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="11" t="s">
         <v>42</v>
       </c>
@@ -9199,9 +9268,7 @@
         <v>41</v>
       </c>
       <c r="E4" s="24"/>
-      <c r="F4" s="2">
-        <v>86</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="11" t="s">
         <v>42</v>
       </c>
@@ -9281,9 +9348,7 @@
         <v>41</v>
       </c>
       <c r="E5" s="24"/>
-      <c r="F5" s="2">
-        <v>87</v>
-      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="11" t="s">
         <v>42</v>
       </c>
@@ -9363,9 +9428,7 @@
         <v>41</v>
       </c>
       <c r="E6" s="24"/>
-      <c r="F6" s="2">
-        <v>88</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="11" t="s">
         <v>42</v>
       </c>
@@ -9445,9 +9508,7 @@
         <v>41</v>
       </c>
       <c r="E7" s="24"/>
-      <c r="F7" s="2">
-        <v>89</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="11" t="s">
         <v>42</v>
       </c>
@@ -9527,9 +9588,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="2">
-        <v>109</v>
-      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="11" t="s">
         <v>42</v>
       </c>
@@ -9609,9 +9668,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="23"/>
-      <c r="F9" s="2">
-        <v>10044</v>
-      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="11" t="s">
         <v>42</v>
       </c>
@@ -9690,9 +9747,6 @@
         <v>41</v>
       </c>
       <c r="E10" s="23"/>
-      <c r="F10" s="11">
-        <v>10045</v>
-      </c>
       <c r="G10" s="11" t="s">
         <v>42</v>
       </c>
@@ -9773,9 +9827,7 @@
       <c r="E11" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="11">
-        <v>90</v>
-      </c>
+      <c r="F11" s="11"/>
       <c r="G11" s="2" t="s">
         <v>42</v>
       </c>
@@ -10777,9 +10829,7 @@
         <v>41</v>
       </c>
       <c r="E24" s="46"/>
-      <c r="F24" s="11">
-        <v>10189</v>
-      </c>
+      <c r="F24" s="11"/>
       <c r="G24" s="2" t="s">
         <v>1117</v>
       </c>
@@ -10878,13 +10928,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM479"/>
+  <dimension ref="A1:AM485"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="AI401" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="AK466" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AN1" sqref="AN1:AN1048576"/>
+      <selection pane="bottomRight" activeCell="AK492" sqref="AK492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -14674,7 +14724,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" s="69" t="s">
         <v>223</v>
@@ -14730,7 +14780,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="69" t="s">
         <v>225</v>
@@ -14786,7 +14836,7 @@
         <v>4</v>
       </c>
       <c r="F69" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" s="69" t="s">
         <v>227</v>
@@ -14842,7 +14892,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" s="69" t="s">
         <v>229</v>
@@ -14898,7 +14948,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" s="69" t="s">
         <v>230</v>
@@ -16231,7 +16281,7 @@
         <v>109</v>
       </c>
       <c r="F94" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" s="69" t="s">
         <v>254</v>
@@ -18265,7 +18315,7 @@
         <v>108</v>
       </c>
       <c r="F128" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" s="69" t="s">
         <v>320</v>
@@ -18321,7 +18371,7 @@
         <v>110</v>
       </c>
       <c r="F129" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129" s="69" t="s">
         <v>1204</v>
@@ -27606,7 +27656,7 @@
         <v>111</v>
       </c>
       <c r="F273" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G273" s="69" t="s">
         <v>522</v>
@@ -41351,6 +41401,378 @@
         <v>1</v>
       </c>
       <c r="AL479" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:38" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A480" s="53">
+        <v>479</v>
+      </c>
+      <c r="B480" s="53">
+        <v>10396</v>
+      </c>
+      <c r="F480" s="53">
+        <v>1</v>
+      </c>
+      <c r="G480" s="53" t="s">
+        <v>1791</v>
+      </c>
+      <c r="I480" s="53" t="s">
+        <v>1792</v>
+      </c>
+      <c r="K480" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L480" s="53">
+        <v>0</v>
+      </c>
+      <c r="M480" s="53">
+        <v>0</v>
+      </c>
+      <c r="N480" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="O480" s="53">
+        <v>49800</v>
+      </c>
+      <c r="P480" s="53" t="s">
+        <v>1793</v>
+      </c>
+      <c r="Q480" s="54" t="s">
+        <v>1794</v>
+      </c>
+      <c r="V480" s="53" t="s">
+        <v>1795</v>
+      </c>
+      <c r="W480" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="X480" s="73">
+        <v>1607385600</v>
+      </c>
+      <c r="Y480" s="73">
+        <v>1607961599</v>
+      </c>
+      <c r="AG480" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH480" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK480" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL480" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:38" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A481" s="53">
+        <v>480</v>
+      </c>
+      <c r="B481" s="53">
+        <v>10397</v>
+      </c>
+      <c r="F481" s="53">
+        <v>1</v>
+      </c>
+      <c r="G481" s="53" t="s">
+        <v>356</v>
+      </c>
+      <c r="I481" s="53" t="s">
+        <v>1796</v>
+      </c>
+      <c r="K481" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L481" s="53">
+        <v>0</v>
+      </c>
+      <c r="M481" s="53">
+        <v>0</v>
+      </c>
+      <c r="N481" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="O481" s="53">
+        <v>19800</v>
+      </c>
+      <c r="P481" s="53" t="s">
+        <v>1793</v>
+      </c>
+      <c r="Q481" s="54" t="s">
+        <v>1797</v>
+      </c>
+      <c r="V481" s="53" t="s">
+        <v>1795</v>
+      </c>
+      <c r="W481" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="X481" s="73">
+        <v>1607385600</v>
+      </c>
+      <c r="Y481" s="73">
+        <v>1607961599</v>
+      </c>
+      <c r="AG481" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH481" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK481" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL481" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:38" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A482" s="53">
+        <v>481</v>
+      </c>
+      <c r="B482" s="53">
+        <v>10398</v>
+      </c>
+      <c r="F482" s="53">
+        <v>1</v>
+      </c>
+      <c r="G482" s="53" t="s">
+        <v>355</v>
+      </c>
+      <c r="I482" s="53" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K482" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L482" s="53">
+        <v>0</v>
+      </c>
+      <c r="M482" s="53">
+        <v>0</v>
+      </c>
+      <c r="N482" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="O482" s="53">
+        <v>9800</v>
+      </c>
+      <c r="P482" s="53" t="s">
+        <v>1793</v>
+      </c>
+      <c r="Q482" s="54" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V482" s="53" t="s">
+        <v>1795</v>
+      </c>
+      <c r="W482" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="X482" s="73">
+        <v>1607385600</v>
+      </c>
+      <c r="Y482" s="73">
+        <v>1607961599</v>
+      </c>
+      <c r="AG482" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH482" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK482" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL482" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:38" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A483" s="53">
+        <v>482</v>
+      </c>
+      <c r="B483" s="53">
+        <v>10399</v>
+      </c>
+      <c r="F483" s="53">
+        <v>1</v>
+      </c>
+      <c r="G483" s="53" t="s">
+        <v>354</v>
+      </c>
+      <c r="I483" s="53" t="s">
+        <v>1800</v>
+      </c>
+      <c r="K483" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L483" s="53">
+        <v>0</v>
+      </c>
+      <c r="M483" s="53">
+        <v>0</v>
+      </c>
+      <c r="N483" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="O483" s="53">
+        <v>4800</v>
+      </c>
+      <c r="P483" s="53" t="s">
+        <v>1793</v>
+      </c>
+      <c r="Q483" s="54" t="s">
+        <v>1801</v>
+      </c>
+      <c r="V483" s="53" t="s">
+        <v>1795</v>
+      </c>
+      <c r="W483" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="X483" s="73">
+        <v>1607385600</v>
+      </c>
+      <c r="Y483" s="73">
+        <v>1607961599</v>
+      </c>
+      <c r="AG483" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH483" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK483" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL483" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:38" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A484" s="53">
+        <v>483</v>
+      </c>
+      <c r="B484" s="53">
+        <v>10400</v>
+      </c>
+      <c r="F484" s="53">
+        <v>1</v>
+      </c>
+      <c r="G484" s="53" t="s">
+        <v>1802</v>
+      </c>
+      <c r="I484" s="53" t="s">
+        <v>1803</v>
+      </c>
+      <c r="K484" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L484" s="53">
+        <v>0</v>
+      </c>
+      <c r="M484" s="53">
+        <v>0</v>
+      </c>
+      <c r="N484" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="O484" s="53">
+        <v>2000</v>
+      </c>
+      <c r="P484" s="53" t="s">
+        <v>1793</v>
+      </c>
+      <c r="Q484" s="54" t="s">
+        <v>1804</v>
+      </c>
+      <c r="V484" s="53" t="s">
+        <v>1805</v>
+      </c>
+      <c r="W484" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="X484" s="73">
+        <v>1607385600</v>
+      </c>
+      <c r="Y484" s="73">
+        <v>1607961599</v>
+      </c>
+      <c r="AG484" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH484" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK484" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL484" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:38" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A485" s="53">
+        <v>484</v>
+      </c>
+      <c r="B485" s="53">
+        <v>10401</v>
+      </c>
+      <c r="F485" s="53">
+        <v>1</v>
+      </c>
+      <c r="G485" s="53" t="s">
+        <v>1806</v>
+      </c>
+      <c r="I485" s="53" t="s">
+        <v>1807</v>
+      </c>
+      <c r="K485" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L485" s="53">
+        <v>0</v>
+      </c>
+      <c r="M485" s="53">
+        <v>0</v>
+      </c>
+      <c r="N485" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="O485" s="53">
+        <v>600</v>
+      </c>
+      <c r="P485" s="53" t="s">
+        <v>1793</v>
+      </c>
+      <c r="Q485" s="54" t="s">
+        <v>1808</v>
+      </c>
+      <c r="V485" s="53" t="s">
+        <v>1805</v>
+      </c>
+      <c r="W485" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="X485" s="73">
+        <v>1607385600</v>
+      </c>
+      <c r="Y485" s="73">
+        <v>1607961599</v>
+      </c>
+      <c r="AG485" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH485" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK485" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL485" s="53">
         <v>1</v>
       </c>
     </row>

--- a/config_Release/shoping_config_vivo.xlsx
+++ b/config_Release/shoping_config_vivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -8920,8 +8920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:U24"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -35353,10 +35353,10 @@
         <v>9999999</v>
       </c>
       <c r="Y386" s="49">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z386" s="49">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA386" s="19">
         <v>44</v>
@@ -35422,10 +35422,10 @@
         <v>9999999</v>
       </c>
       <c r="Y387" s="49">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z387" s="49">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA387" s="19">
         <v>44</v>
@@ -35491,10 +35491,10 @@
         <v>9999999</v>
       </c>
       <c r="Y388" s="49">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z388" s="49">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA388" s="19">
         <v>44</v>
@@ -35559,11 +35559,11 @@
       <c r="X389" s="19">
         <v>9999999</v>
       </c>
-      <c r="Y389" s="63">
-        <v>1605571200</v>
-      </c>
-      <c r="Z389" s="63">
-        <v>1606147199</v>
+      <c r="Y389" s="49">
+        <v>1608595200</v>
+      </c>
+      <c r="Z389" s="49">
+        <v>1609171199</v>
       </c>
       <c r="AA389" s="19">
         <v>45</v>
@@ -35628,11 +35628,11 @@
       <c r="X390" s="19">
         <v>9999999</v>
       </c>
-      <c r="Y390" s="63">
-        <v>1605571200</v>
-      </c>
-      <c r="Z390" s="63">
-        <v>1606147199</v>
+      <c r="Y390" s="49">
+        <v>1608595200</v>
+      </c>
+      <c r="Z390" s="49">
+        <v>1609171199</v>
       </c>
       <c r="AA390" s="19">
         <v>45</v>
@@ -35697,11 +35697,11 @@
       <c r="X391" s="19">
         <v>9999999</v>
       </c>
-      <c r="Y391" s="63">
-        <v>1605571200</v>
-      </c>
-      <c r="Z391" s="63">
-        <v>1606147199</v>
+      <c r="Y391" s="49">
+        <v>1608595200</v>
+      </c>
+      <c r="Z391" s="49">
+        <v>1609171199</v>
       </c>
       <c r="AA391" s="19">
         <v>45</v>
@@ -35767,10 +35767,10 @@
         <v>9999999</v>
       </c>
       <c r="Y392" s="49">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z392" s="49">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA392" s="19">
         <v>46</v>
@@ -35836,10 +35836,10 @@
         <v>9999999</v>
       </c>
       <c r="Y393" s="49">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z393" s="49">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA393" s="19">
         <v>46</v>
@@ -35905,10 +35905,10 @@
         <v>9999999</v>
       </c>
       <c r="Y394" s="49">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z394" s="49">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA394" s="19">
         <v>46</v>
@@ -43263,7 +43263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="P2" sqref="P2:Q25"/>
     </sheetView>
   </sheetViews>

--- a/config_Release/shoping_config_vivo.xlsx
+++ b/config_Release/shoping_config_vivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4079" uniqueCount="1879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4165" uniqueCount="1916">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8056,6 +8056,142 @@
   <si>
     <t>9999999999,1,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "actp_no_cjj_gej_exchange" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "actp_cjj_gej_exchange" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>庆典礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐庆典-捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5180万","抽奖券*50","双倍奖励*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_3d_fish_doubled",</t>
+  </si>
+  <si>
+    <t>"2020万","抽奖券*30","双倍奖励*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"990万","抽奖券*20","双倍奖励*5",</t>
+  </si>
+  <si>
+    <t>"483万","抽奖券*3","双倍奖励*3",</t>
+  </si>
+  <si>
+    <t>庆典礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万","抽奖券*4","双倍奖励*2",</t>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万","抽奖券*1","双倍奖励*1",</t>
+  </si>
+  <si>
+    <t>欢乐庆典-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5180万","抽奖券*50","太阳*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_2",</t>
+  </si>
+  <si>
+    <t>"2020万","抽奖券*30","太阳*10",</t>
+  </si>
+  <si>
+    <t>"990万","抽奖券*20","太阳*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"483万","抽奖券*3","水滴*6",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_1",</t>
+  </si>
+  <si>
+    <t>"200万","抽奖券*4","水滴*2",</t>
+  </si>
+  <si>
+    <t>"60万","抽奖券*1","水滴*1",</t>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>51800000,50,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200000,30,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,20,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4830000,10,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,4,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,1,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>51800000,50,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200000,30,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,20,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4830000,10,6,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,4,2,</t>
+  </si>
+  <si>
+    <t>600000,1,1,</t>
   </si>
 </sst>
 </file>
@@ -8279,7 +8415,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8518,6 +8654,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8983,8 +9122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9129,9 +9268,7 @@
         <v>40</v>
       </c>
       <c r="E2" s="24"/>
-      <c r="F2" s="2">
-        <v>10330</v>
-      </c>
+      <c r="F2" s="11"/>
       <c r="G2" s="11" t="s">
         <v>41</v>
       </c>
@@ -9211,9 +9348,7 @@
         <v>40</v>
       </c>
       <c r="E3" s="24"/>
-      <c r="F3" s="2">
-        <v>85</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="11" t="s">
         <v>41</v>
       </c>
@@ -9293,9 +9428,7 @@
         <v>40</v>
       </c>
       <c r="E4" s="24"/>
-      <c r="F4" s="2">
-        <v>86</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="11" t="s">
         <v>41</v>
       </c>
@@ -9375,9 +9508,7 @@
         <v>40</v>
       </c>
       <c r="E5" s="24"/>
-      <c r="F5" s="2">
-        <v>87</v>
-      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="11" t="s">
         <v>41</v>
       </c>
@@ -9457,9 +9588,7 @@
         <v>40</v>
       </c>
       <c r="E6" s="24"/>
-      <c r="F6" s="2">
-        <v>88</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="11" t="s">
         <v>41</v>
       </c>
@@ -9539,9 +9668,7 @@
         <v>40</v>
       </c>
       <c r="E7" s="24"/>
-      <c r="F7" s="2">
-        <v>89</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="11" t="s">
         <v>41</v>
       </c>
@@ -9621,9 +9748,7 @@
         <v>40</v>
       </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="2">
-        <v>109</v>
-      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="11" t="s">
         <v>41</v>
       </c>
@@ -9703,9 +9828,7 @@
         <v>40</v>
       </c>
       <c r="E9" s="23"/>
-      <c r="F9" s="2">
-        <v>10044</v>
-      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="11" t="s">
         <v>41</v>
       </c>
@@ -9784,9 +9907,6 @@
         <v>40</v>
       </c>
       <c r="E10" s="23"/>
-      <c r="F10" s="11">
-        <v>10045</v>
-      </c>
       <c r="G10" s="11" t="s">
         <v>41</v>
       </c>
@@ -9867,9 +9987,7 @@
       <c r="E11" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="11">
-        <v>90</v>
-      </c>
+      <c r="F11" s="11"/>
       <c r="G11" s="2" t="s">
         <v>41</v>
       </c>
@@ -10871,9 +10989,7 @@
         <v>40</v>
       </c>
       <c r="E24" s="46"/>
-      <c r="F24" s="11">
-        <v>10189</v>
-      </c>
+      <c r="F24" s="11"/>
       <c r="G24" s="2" t="s">
         <v>1059</v>
       </c>
@@ -10972,13 +11088,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN496"/>
+  <dimension ref="A1:AN508"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="U503" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="N486" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F414" sqref="F414"/>
+      <selection pane="bottomRight" activeCell="R497" sqref="R497:R508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -14831,7 +14947,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" s="69" t="s">
         <v>222</v>
@@ -14890,7 +15006,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="69" t="s">
         <v>224</v>
@@ -14949,7 +15065,7 @@
         <v>4</v>
       </c>
       <c r="F69" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" s="69" t="s">
         <v>226</v>
@@ -15008,7 +15124,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" s="69" t="s">
         <v>228</v>
@@ -15067,7 +15183,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" s="69" t="s">
         <v>229</v>
@@ -16415,7 +16531,7 @@
         <v>109</v>
       </c>
       <c r="F94" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" s="69" t="s">
         <v>253</v>
@@ -18449,7 +18565,7 @@
         <v>108</v>
       </c>
       <c r="F128" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" s="69" t="s">
         <v>319</v>
@@ -18508,7 +18624,7 @@
         <v>110</v>
       </c>
       <c r="F129" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129" s="69" t="s">
         <v>1129</v>
@@ -27811,7 +27927,7 @@
         <v>111</v>
       </c>
       <c r="F273" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G273" s="69" t="s">
         <v>520</v>
@@ -37246,7 +37362,7 @@
         <v>1</v>
       </c>
       <c r="F414" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G414" s="69" t="s">
         <v>1377</v>
@@ -42710,6 +42826,930 @@
         <v>1</v>
       </c>
       <c r="AM496" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A497" s="5">
+        <v>496</v>
+      </c>
+      <c r="B497" s="49">
+        <v>10413</v>
+      </c>
+      <c r="C497" s="49"/>
+      <c r="D497" s="49"/>
+      <c r="E497" s="49"/>
+      <c r="F497" s="49">
+        <v>1</v>
+      </c>
+      <c r="G497" s="49" t="s">
+        <v>1881</v>
+      </c>
+      <c r="H497" s="49"/>
+      <c r="I497" s="49" t="s">
+        <v>1882</v>
+      </c>
+      <c r="J497" s="49" t="s">
+        <v>1883</v>
+      </c>
+      <c r="K497" s="49"/>
+      <c r="L497" s="49">
+        <v>-31</v>
+      </c>
+      <c r="M497" s="49">
+        <v>0</v>
+      </c>
+      <c r="N497" s="49">
+        <v>0</v>
+      </c>
+      <c r="O497" s="49" t="s">
+        <v>1884</v>
+      </c>
+      <c r="P497" s="49">
+        <v>49800</v>
+      </c>
+      <c r="Q497" s="49" t="s">
+        <v>1885</v>
+      </c>
+      <c r="R497" s="50" t="s">
+        <v>1904</v>
+      </c>
+      <c r="S497" s="49"/>
+      <c r="T497" s="49"/>
+      <c r="U497" s="49"/>
+      <c r="V497" s="49"/>
+      <c r="W497" s="49" t="s">
+        <v>1903</v>
+      </c>
+      <c r="X497" s="49">
+        <v>99999999</v>
+      </c>
+      <c r="Y497" s="49">
+        <v>1609804800</v>
+      </c>
+      <c r="Z497" s="49">
+        <v>1610380799</v>
+      </c>
+      <c r="AA497" s="49">
+        <v>66</v>
+      </c>
+      <c r="AH497" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI497" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL497" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM497" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A498" s="5">
+        <v>497</v>
+      </c>
+      <c r="B498" s="49">
+        <v>10414</v>
+      </c>
+      <c r="C498" s="49"/>
+      <c r="D498" s="49"/>
+      <c r="E498" s="49"/>
+      <c r="F498" s="49">
+        <v>1</v>
+      </c>
+      <c r="G498" s="49" t="s">
+        <v>1881</v>
+      </c>
+      <c r="H498" s="49"/>
+      <c r="I498" s="49" t="s">
+        <v>1882</v>
+      </c>
+      <c r="J498" s="49" t="s">
+        <v>1886</v>
+      </c>
+      <c r="K498" s="49"/>
+      <c r="L498" s="49">
+        <v>-31</v>
+      </c>
+      <c r="M498" s="49">
+        <v>0</v>
+      </c>
+      <c r="N498" s="49">
+        <v>0</v>
+      </c>
+      <c r="O498" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="P498" s="49">
+        <v>19800</v>
+      </c>
+      <c r="Q498" s="49" t="s">
+        <v>1885</v>
+      </c>
+      <c r="R498" s="50" t="s">
+        <v>1905</v>
+      </c>
+      <c r="S498" s="49"/>
+      <c r="T498" s="49"/>
+      <c r="U498" s="49"/>
+      <c r="V498" s="49"/>
+      <c r="W498" s="49" t="s">
+        <v>1903</v>
+      </c>
+      <c r="X498" s="49">
+        <v>99999999</v>
+      </c>
+      <c r="Y498" s="49">
+        <v>1609804800</v>
+      </c>
+      <c r="Z498" s="49">
+        <v>1610380799</v>
+      </c>
+      <c r="AA498" s="49">
+        <v>66</v>
+      </c>
+      <c r="AH498" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI498" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL498" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM498" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A499" s="5">
+        <v>498</v>
+      </c>
+      <c r="B499" s="49">
+        <v>10415</v>
+      </c>
+      <c r="C499" s="49"/>
+      <c r="D499" s="49"/>
+      <c r="E499" s="49"/>
+      <c r="F499" s="49">
+        <v>1</v>
+      </c>
+      <c r="G499" s="49" t="s">
+        <v>1881</v>
+      </c>
+      <c r="H499" s="49"/>
+      <c r="I499" s="49" t="s">
+        <v>1882</v>
+      </c>
+      <c r="J499" s="49" t="s">
+        <v>1887</v>
+      </c>
+      <c r="K499" s="49"/>
+      <c r="L499" s="49">
+        <v>-31</v>
+      </c>
+      <c r="M499" s="49">
+        <v>0</v>
+      </c>
+      <c r="N499" s="49">
+        <v>0</v>
+      </c>
+      <c r="O499" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="P499" s="49">
+        <v>9800</v>
+      </c>
+      <c r="Q499" s="49" t="s">
+        <v>1885</v>
+      </c>
+      <c r="R499" s="50" t="s">
+        <v>1906</v>
+      </c>
+      <c r="S499" s="49"/>
+      <c r="T499" s="49"/>
+      <c r="U499" s="49"/>
+      <c r="V499" s="49"/>
+      <c r="W499" s="49" t="s">
+        <v>1903</v>
+      </c>
+      <c r="X499" s="49">
+        <v>99999999</v>
+      </c>
+      <c r="Y499" s="49">
+        <v>1609804800</v>
+      </c>
+      <c r="Z499" s="49">
+        <v>1610380799</v>
+      </c>
+      <c r="AA499" s="49">
+        <v>66</v>
+      </c>
+      <c r="AH499" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI499" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL499" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM499" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A500" s="5">
+        <v>499</v>
+      </c>
+      <c r="B500" s="49">
+        <v>10416</v>
+      </c>
+      <c r="C500" s="49"/>
+      <c r="D500" s="49"/>
+      <c r="E500" s="49"/>
+      <c r="F500" s="49">
+        <v>1</v>
+      </c>
+      <c r="G500" s="49" t="s">
+        <v>1881</v>
+      </c>
+      <c r="H500" s="49"/>
+      <c r="I500" s="49" t="s">
+        <v>1882</v>
+      </c>
+      <c r="J500" s="49" t="s">
+        <v>1888</v>
+      </c>
+      <c r="K500" s="49"/>
+      <c r="L500" s="49">
+        <v>-31</v>
+      </c>
+      <c r="M500" s="49">
+        <v>0</v>
+      </c>
+      <c r="N500" s="49">
+        <v>0</v>
+      </c>
+      <c r="O500" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="P500" s="49">
+        <v>4800</v>
+      </c>
+      <c r="Q500" s="49" t="s">
+        <v>1885</v>
+      </c>
+      <c r="R500" s="50" t="s">
+        <v>1907</v>
+      </c>
+      <c r="S500" s="49"/>
+      <c r="T500" s="49"/>
+      <c r="U500" s="49"/>
+      <c r="V500" s="49"/>
+      <c r="W500" s="49" t="s">
+        <v>1902</v>
+      </c>
+      <c r="X500" s="49">
+        <v>99999999</v>
+      </c>
+      <c r="Y500" s="49">
+        <v>1609804800</v>
+      </c>
+      <c r="Z500" s="49">
+        <v>1610380799</v>
+      </c>
+      <c r="AA500" s="49">
+        <v>66</v>
+      </c>
+      <c r="AH500" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI500" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL500" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM500" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A501" s="5">
+        <v>500</v>
+      </c>
+      <c r="B501" s="49">
+        <v>10417</v>
+      </c>
+      <c r="C501" s="49"/>
+      <c r="D501" s="49"/>
+      <c r="E501" s="49"/>
+      <c r="F501" s="49">
+        <v>1</v>
+      </c>
+      <c r="G501" s="49" t="s">
+        <v>1889</v>
+      </c>
+      <c r="H501" s="49"/>
+      <c r="I501" s="49" t="s">
+        <v>1882</v>
+      </c>
+      <c r="J501" s="49" t="s">
+        <v>1890</v>
+      </c>
+      <c r="K501" s="49"/>
+      <c r="L501" s="49">
+        <v>-31</v>
+      </c>
+      <c r="M501" s="49">
+        <v>0</v>
+      </c>
+      <c r="N501" s="49">
+        <v>0</v>
+      </c>
+      <c r="O501" s="49" t="s">
+        <v>1891</v>
+      </c>
+      <c r="P501" s="49">
+        <v>2000</v>
+      </c>
+      <c r="Q501" s="49" t="s">
+        <v>1885</v>
+      </c>
+      <c r="R501" s="50" t="s">
+        <v>1908</v>
+      </c>
+      <c r="S501" s="49"/>
+      <c r="T501" s="49"/>
+      <c r="U501" s="49"/>
+      <c r="V501" s="49"/>
+      <c r="W501" s="49" t="s">
+        <v>1902</v>
+      </c>
+      <c r="X501" s="49">
+        <v>99999999</v>
+      </c>
+      <c r="Y501" s="49">
+        <v>1609804800</v>
+      </c>
+      <c r="Z501" s="49">
+        <v>1610380799</v>
+      </c>
+      <c r="AA501" s="49">
+        <v>66</v>
+      </c>
+      <c r="AH501" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI501" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL501" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM501" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A502" s="5">
+        <v>501</v>
+      </c>
+      <c r="B502" s="49">
+        <v>10418</v>
+      </c>
+      <c r="C502" s="49"/>
+      <c r="D502" s="49"/>
+      <c r="E502" s="49"/>
+      <c r="F502" s="49">
+        <v>1</v>
+      </c>
+      <c r="G502" s="49" t="s">
+        <v>1881</v>
+      </c>
+      <c r="H502" s="49"/>
+      <c r="I502" s="49" t="s">
+        <v>1882</v>
+      </c>
+      <c r="J502" s="49" t="s">
+        <v>1892</v>
+      </c>
+      <c r="K502" s="49"/>
+      <c r="L502" s="49">
+        <v>-31</v>
+      </c>
+      <c r="M502" s="49">
+        <v>0</v>
+      </c>
+      <c r="N502" s="49">
+        <v>0</v>
+      </c>
+      <c r="O502" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="P502" s="49">
+        <v>600</v>
+      </c>
+      <c r="Q502" s="49" t="s">
+        <v>1885</v>
+      </c>
+      <c r="R502" s="50" t="s">
+        <v>1909</v>
+      </c>
+      <c r="S502" s="49"/>
+      <c r="T502" s="49"/>
+      <c r="U502" s="49"/>
+      <c r="V502" s="49"/>
+      <c r="W502" s="49" t="s">
+        <v>1903</v>
+      </c>
+      <c r="X502" s="49">
+        <v>99999999</v>
+      </c>
+      <c r="Y502" s="49">
+        <v>1609804800</v>
+      </c>
+      <c r="Z502" s="49">
+        <v>1610380799</v>
+      </c>
+      <c r="AA502" s="49">
+        <v>66</v>
+      </c>
+      <c r="AH502" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI502" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL502" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM502" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A503" s="5">
+        <v>502</v>
+      </c>
+      <c r="B503" s="63">
+        <v>10419</v>
+      </c>
+      <c r="C503" s="63"/>
+      <c r="D503" s="63"/>
+      <c r="E503" s="63"/>
+      <c r="F503" s="63">
+        <v>1</v>
+      </c>
+      <c r="G503" s="63" t="s">
+        <v>1881</v>
+      </c>
+      <c r="H503" s="63"/>
+      <c r="I503" s="63" t="s">
+        <v>1893</v>
+      </c>
+      <c r="J503" s="63" t="s">
+        <v>1894</v>
+      </c>
+      <c r="K503" s="63"/>
+      <c r="L503" s="63">
+        <v>-31</v>
+      </c>
+      <c r="M503" s="63">
+        <v>0</v>
+      </c>
+      <c r="N503" s="63">
+        <v>0</v>
+      </c>
+      <c r="O503" s="63" t="s">
+        <v>481</v>
+      </c>
+      <c r="P503" s="63">
+        <v>49800</v>
+      </c>
+      <c r="Q503" s="63" t="s">
+        <v>1895</v>
+      </c>
+      <c r="R503" s="80" t="s">
+        <v>1910</v>
+      </c>
+      <c r="S503" s="63"/>
+      <c r="T503" s="63"/>
+      <c r="U503" s="63"/>
+      <c r="V503" s="63"/>
+      <c r="W503" s="49" t="s">
+        <v>1903</v>
+      </c>
+      <c r="X503" s="63">
+        <v>99999999</v>
+      </c>
+      <c r="Y503" s="63">
+        <v>1609804800</v>
+      </c>
+      <c r="Z503" s="63">
+        <v>1610380799</v>
+      </c>
+      <c r="AA503" s="63">
+        <v>67</v>
+      </c>
+      <c r="AH503" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI503" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL503" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM503" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A504" s="5">
+        <v>503</v>
+      </c>
+      <c r="B504" s="63">
+        <v>10420</v>
+      </c>
+      <c r="C504" s="63"/>
+      <c r="D504" s="63"/>
+      <c r="E504" s="63"/>
+      <c r="F504" s="63">
+        <v>1</v>
+      </c>
+      <c r="G504" s="63" t="s">
+        <v>1881</v>
+      </c>
+      <c r="H504" s="63"/>
+      <c r="I504" s="63" t="s">
+        <v>1893</v>
+      </c>
+      <c r="J504" s="63" t="s">
+        <v>1896</v>
+      </c>
+      <c r="K504" s="63"/>
+      <c r="L504" s="63">
+        <v>-31</v>
+      </c>
+      <c r="M504" s="63">
+        <v>0</v>
+      </c>
+      <c r="N504" s="63">
+        <v>0</v>
+      </c>
+      <c r="O504" s="63" t="s">
+        <v>481</v>
+      </c>
+      <c r="P504" s="63">
+        <v>19800</v>
+      </c>
+      <c r="Q504" s="63" t="s">
+        <v>1895</v>
+      </c>
+      <c r="R504" s="80" t="s">
+        <v>1911</v>
+      </c>
+      <c r="S504" s="63"/>
+      <c r="T504" s="63"/>
+      <c r="U504" s="63"/>
+      <c r="V504" s="63"/>
+      <c r="W504" s="49" t="s">
+        <v>1902</v>
+      </c>
+      <c r="X504" s="63">
+        <v>99999999</v>
+      </c>
+      <c r="Y504" s="63">
+        <v>1609804800</v>
+      </c>
+      <c r="Z504" s="63">
+        <v>1610380799</v>
+      </c>
+      <c r="AA504" s="63">
+        <v>67</v>
+      </c>
+      <c r="AH504" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI504" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL504" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM504" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A505" s="5">
+        <v>504</v>
+      </c>
+      <c r="B505" s="63">
+        <v>10421</v>
+      </c>
+      <c r="C505" s="63"/>
+      <c r="D505" s="63"/>
+      <c r="E505" s="63"/>
+      <c r="F505" s="63">
+        <v>1</v>
+      </c>
+      <c r="G505" s="63" t="s">
+        <v>1881</v>
+      </c>
+      <c r="H505" s="63"/>
+      <c r="I505" s="63" t="s">
+        <v>1893</v>
+      </c>
+      <c r="J505" s="63" t="s">
+        <v>1897</v>
+      </c>
+      <c r="K505" s="63"/>
+      <c r="L505" s="63">
+        <v>-31</v>
+      </c>
+      <c r="M505" s="63">
+        <v>0</v>
+      </c>
+      <c r="N505" s="63">
+        <v>0</v>
+      </c>
+      <c r="O505" s="63" t="s">
+        <v>481</v>
+      </c>
+      <c r="P505" s="63">
+        <v>9800</v>
+      </c>
+      <c r="Q505" s="63" t="s">
+        <v>1895</v>
+      </c>
+      <c r="R505" s="80" t="s">
+        <v>1912</v>
+      </c>
+      <c r="S505" s="63"/>
+      <c r="T505" s="63"/>
+      <c r="U505" s="63"/>
+      <c r="V505" s="63"/>
+      <c r="W505" s="49" t="s">
+        <v>1903</v>
+      </c>
+      <c r="X505" s="63">
+        <v>99999999</v>
+      </c>
+      <c r="Y505" s="63">
+        <v>1609804800</v>
+      </c>
+      <c r="Z505" s="63">
+        <v>1610380799</v>
+      </c>
+      <c r="AA505" s="63">
+        <v>67</v>
+      </c>
+      <c r="AH505" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI505" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL505" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM505" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A506" s="5">
+        <v>505</v>
+      </c>
+      <c r="B506" s="63">
+        <v>10422</v>
+      </c>
+      <c r="C506" s="63"/>
+      <c r="D506" s="63"/>
+      <c r="E506" s="63"/>
+      <c r="F506" s="63">
+        <v>1</v>
+      </c>
+      <c r="G506" s="63" t="s">
+        <v>1881</v>
+      </c>
+      <c r="H506" s="63"/>
+      <c r="I506" s="63" t="s">
+        <v>1893</v>
+      </c>
+      <c r="J506" s="63" t="s">
+        <v>1898</v>
+      </c>
+      <c r="K506" s="63"/>
+      <c r="L506" s="63">
+        <v>-31</v>
+      </c>
+      <c r="M506" s="63">
+        <v>0</v>
+      </c>
+      <c r="N506" s="63">
+        <v>0</v>
+      </c>
+      <c r="O506" s="63" t="s">
+        <v>481</v>
+      </c>
+      <c r="P506" s="63">
+        <v>4800</v>
+      </c>
+      <c r="Q506" s="63" t="s">
+        <v>1899</v>
+      </c>
+      <c r="R506" s="80" t="s">
+        <v>1913</v>
+      </c>
+      <c r="S506" s="63"/>
+      <c r="T506" s="63"/>
+      <c r="U506" s="63"/>
+      <c r="V506" s="63"/>
+      <c r="W506" s="49" t="s">
+        <v>1902</v>
+      </c>
+      <c r="X506" s="63">
+        <v>99999999</v>
+      </c>
+      <c r="Y506" s="63">
+        <v>1609804800</v>
+      </c>
+      <c r="Z506" s="63">
+        <v>1610380799</v>
+      </c>
+      <c r="AA506" s="63">
+        <v>67</v>
+      </c>
+      <c r="AH506" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI506" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL506" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM506" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A507" s="5">
+        <v>506</v>
+      </c>
+      <c r="B507" s="63">
+        <v>10423</v>
+      </c>
+      <c r="C507" s="63"/>
+      <c r="D507" s="63"/>
+      <c r="E507" s="63"/>
+      <c r="F507" s="63">
+        <v>1</v>
+      </c>
+      <c r="G507" s="63" t="s">
+        <v>1881</v>
+      </c>
+      <c r="H507" s="63"/>
+      <c r="I507" s="63" t="s">
+        <v>1893</v>
+      </c>
+      <c r="J507" s="63" t="s">
+        <v>1900</v>
+      </c>
+      <c r="K507" s="63"/>
+      <c r="L507" s="63">
+        <v>-31</v>
+      </c>
+      <c r="M507" s="63">
+        <v>0</v>
+      </c>
+      <c r="N507" s="63">
+        <v>0</v>
+      </c>
+      <c r="O507" s="63" t="s">
+        <v>481</v>
+      </c>
+      <c r="P507" s="63">
+        <v>2000</v>
+      </c>
+      <c r="Q507" s="63" t="s">
+        <v>1899</v>
+      </c>
+      <c r="R507" s="80" t="s">
+        <v>1914</v>
+      </c>
+      <c r="S507" s="63"/>
+      <c r="T507" s="63"/>
+      <c r="U507" s="63"/>
+      <c r="V507" s="63"/>
+      <c r="W507" s="49" t="s">
+        <v>1903</v>
+      </c>
+      <c r="X507" s="63">
+        <v>99999999</v>
+      </c>
+      <c r="Y507" s="63">
+        <v>1609804800</v>
+      </c>
+      <c r="Z507" s="63">
+        <v>1610380799</v>
+      </c>
+      <c r="AA507" s="63">
+        <v>67</v>
+      </c>
+      <c r="AH507" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI507" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL507" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM507" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A508" s="5">
+        <v>507</v>
+      </c>
+      <c r="B508" s="63">
+        <v>10424</v>
+      </c>
+      <c r="C508" s="63"/>
+      <c r="D508" s="63"/>
+      <c r="E508" s="63"/>
+      <c r="F508" s="63">
+        <v>1</v>
+      </c>
+      <c r="G508" s="63" t="s">
+        <v>1881</v>
+      </c>
+      <c r="H508" s="63"/>
+      <c r="I508" s="63" t="s">
+        <v>1893</v>
+      </c>
+      <c r="J508" s="63" t="s">
+        <v>1901</v>
+      </c>
+      <c r="K508" s="63"/>
+      <c r="L508" s="63">
+        <v>-31</v>
+      </c>
+      <c r="M508" s="63">
+        <v>0</v>
+      </c>
+      <c r="N508" s="63">
+        <v>0</v>
+      </c>
+      <c r="O508" s="63" t="s">
+        <v>481</v>
+      </c>
+      <c r="P508" s="63">
+        <v>600</v>
+      </c>
+      <c r="Q508" s="63" t="s">
+        <v>1899</v>
+      </c>
+      <c r="R508" s="80" t="s">
+        <v>1915</v>
+      </c>
+      <c r="S508" s="63"/>
+      <c r="T508" s="63"/>
+      <c r="U508" s="63"/>
+      <c r="V508" s="63"/>
+      <c r="W508" s="49" t="s">
+        <v>1903</v>
+      </c>
+      <c r="X508" s="63">
+        <v>99999999</v>
+      </c>
+      <c r="Y508" s="63">
+        <v>1609804800</v>
+      </c>
+      <c r="Z508" s="63">
+        <v>1610380799</v>
+      </c>
+      <c r="AA508" s="63">
+        <v>67</v>
+      </c>
+      <c r="AH508" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI508" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL508" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM508" s="6">
         <v>1</v>
       </c>
     </row>
@@ -42723,10 +43763,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -43664,6 +44704,34 @@
       </c>
       <c r="D66" s="64">
         <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="25">
+        <v>66</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C67" s="25">
+        <v>1</v>
+      </c>
+      <c r="D67" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="25">
+        <v>67</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C68" s="25">
+        <v>1</v>
+      </c>
+      <c r="D68" s="25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/shoping_config_vivo.xlsx
+++ b/config_Release/shoping_config_vivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4165" uniqueCount="1916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="1974">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8140,58 +8140,287 @@
     <t>"60万","抽奖券*1","水滴*1",</t>
   </si>
   <si>
+    <t>幸运金币18元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"随机获得180万-500万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1850000,1950000,100,},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,5000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运金币48元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"随机获得480万-1500万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{5000000,5200000,100,},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,15000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运金币98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"随机获得980万-3000万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{10000000,10800000,100,},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,30000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_ssbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4880000,2,3,</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_xybox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"488万金币","双倍奖励卡*2","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9960000,4,3,</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_ssbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100000,6,5,</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_csbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50200000,10,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hqjnh_046_nor_hllb" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包-欢乐捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5020万金币","双倍奖励卡*10","传说宝箱*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_csbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2010万金币","双倍奖励卡*6","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包-欢乐捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"996万金币","双倍奖励卡*4","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包-欢乐捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_2","prop_hqjnh_csbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_2","prop_hqjnh_csbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000000,4,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,2,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9960000,8,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_xybox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4880000,4,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hqjnh_046_cjj_hllb" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>周卡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币","首次救济金为6万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","obj_week_card",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{valid_time=604800},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>604800,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5000万金币","太阳*4","传说宝箱*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2000万金币","太阳*2","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"996万金币","水滴*8","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"488万金币","水滴*4","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>51800000,50,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200000,30,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,20,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4830000,10,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,4,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,1,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>51800000,50,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,20,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4830000,10,6,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,4,2,</t>
+  </si>
+  <si>
+    <t>600000,1,1,</t>
+  </si>
+  <si>
     <t>86400,9999,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>86400,9999,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>51800000,50,15,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200000,30,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9900000,20,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4830000,10,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,4,2,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000,1,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>51800000,50,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200000,30,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9900000,20,2,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4830000,10,6,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,4,2,</t>
-  </si>
-  <si>
-    <t>600000,1,1,</t>
   </si>
 </sst>
 </file>
@@ -8415,7 +8644,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8658,6 +8887,12 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -9122,8 +9357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9268,7 +9503,9 @@
         <v>40</v>
       </c>
       <c r="E2" s="24"/>
-      <c r="F2" s="11"/>
+      <c r="F2" s="2">
+        <v>10330</v>
+      </c>
       <c r="G2" s="11" t="s">
         <v>41</v>
       </c>
@@ -9348,7 +9585,9 @@
         <v>40</v>
       </c>
       <c r="E3" s="24"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>85</v>
+      </c>
       <c r="G3" s="11" t="s">
         <v>41</v>
       </c>
@@ -9428,7 +9667,9 @@
         <v>40</v>
       </c>
       <c r="E4" s="24"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>86</v>
+      </c>
       <c r="G4" s="11" t="s">
         <v>41</v>
       </c>
@@ -9508,7 +9749,9 @@
         <v>40</v>
       </c>
       <c r="E5" s="24"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>87</v>
+      </c>
       <c r="G5" s="11" t="s">
         <v>41</v>
       </c>
@@ -9588,7 +9831,9 @@
         <v>40</v>
       </c>
       <c r="E6" s="24"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>88</v>
+      </c>
       <c r="G6" s="11" t="s">
         <v>41</v>
       </c>
@@ -9668,7 +9913,9 @@
         <v>40</v>
       </c>
       <c r="E7" s="24"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>89</v>
+      </c>
       <c r="G7" s="11" t="s">
         <v>41</v>
       </c>
@@ -9748,7 +9995,9 @@
         <v>40</v>
       </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>109</v>
+      </c>
       <c r="G8" s="11" t="s">
         <v>41</v>
       </c>
@@ -9828,7 +10077,9 @@
         <v>40</v>
       </c>
       <c r="E9" s="23"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>10044</v>
+      </c>
       <c r="G9" s="11" t="s">
         <v>41</v>
       </c>
@@ -9907,6 +10158,9 @@
         <v>40</v>
       </c>
       <c r="E10" s="23"/>
+      <c r="F10" s="11">
+        <v>10045</v>
+      </c>
       <c r="G10" s="11" t="s">
         <v>41</v>
       </c>
@@ -9987,7 +10241,9 @@
       <c r="E11" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="11">
+        <v>90</v>
+      </c>
       <c r="G11" s="2" t="s">
         <v>41</v>
       </c>
@@ -10989,7 +11245,9 @@
         <v>40</v>
       </c>
       <c r="E24" s="46"/>
-      <c r="F24" s="11"/>
+      <c r="F24" s="11">
+        <v>10189</v>
+      </c>
       <c r="G24" s="2" t="s">
         <v>1059</v>
       </c>
@@ -11088,13 +11346,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN508"/>
+  <dimension ref="A1:AN520"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="N486" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W491" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R497" sqref="R497:R508"/>
+      <selection pane="bottomRight" activeCell="W502" sqref="W502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -14947,7 +15205,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="69" t="s">
         <v>222</v>
@@ -15006,7 +15264,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="69" t="s">
         <v>224</v>
@@ -15065,7 +15323,7 @@
         <v>4</v>
       </c>
       <c r="F69" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="69" t="s">
         <v>226</v>
@@ -15124,7 +15382,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="69" t="s">
         <v>228</v>
@@ -15183,7 +15441,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="69" t="s">
         <v>229</v>
@@ -16531,7 +16789,7 @@
         <v>109</v>
       </c>
       <c r="F94" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="69" t="s">
         <v>253</v>
@@ -18565,7 +18823,7 @@
         <v>108</v>
       </c>
       <c r="F128" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" s="69" t="s">
         <v>319</v>
@@ -18624,7 +18882,7 @@
         <v>110</v>
       </c>
       <c r="F129" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" s="69" t="s">
         <v>1129</v>
@@ -27927,7 +28185,7 @@
         <v>111</v>
       </c>
       <c r="F273" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G273" s="69" t="s">
         <v>520</v>
@@ -37362,7 +37620,7 @@
         <v>1</v>
       </c>
       <c r="F414" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G414" s="69" t="s">
         <v>1377</v>
@@ -42872,14 +43130,14 @@
         <v>1885</v>
       </c>
       <c r="R497" s="50" t="s">
-        <v>1904</v>
+        <v>1961</v>
       </c>
       <c r="S497" s="49"/>
       <c r="T497" s="49"/>
       <c r="U497" s="49"/>
       <c r="V497" s="49"/>
       <c r="W497" s="49" t="s">
-        <v>1903</v>
+        <v>1973</v>
       </c>
       <c r="X497" s="49">
         <v>99999999</v>
@@ -42949,14 +43207,14 @@
         <v>1885</v>
       </c>
       <c r="R498" s="50" t="s">
-        <v>1905</v>
+        <v>1962</v>
       </c>
       <c r="S498" s="49"/>
       <c r="T498" s="49"/>
       <c r="U498" s="49"/>
       <c r="V498" s="49"/>
       <c r="W498" s="49" t="s">
-        <v>1903</v>
+        <v>1973</v>
       </c>
       <c r="X498" s="49">
         <v>99999999</v>
@@ -43026,14 +43284,14 @@
         <v>1885</v>
       </c>
       <c r="R499" s="50" t="s">
-        <v>1906</v>
+        <v>1963</v>
       </c>
       <c r="S499" s="49"/>
       <c r="T499" s="49"/>
       <c r="U499" s="49"/>
       <c r="V499" s="49"/>
       <c r="W499" s="49" t="s">
-        <v>1903</v>
+        <v>1973</v>
       </c>
       <c r="X499" s="49">
         <v>99999999</v>
@@ -43103,14 +43361,14 @@
         <v>1885</v>
       </c>
       <c r="R500" s="50" t="s">
-        <v>1907</v>
+        <v>1964</v>
       </c>
       <c r="S500" s="49"/>
       <c r="T500" s="49"/>
       <c r="U500" s="49"/>
       <c r="V500" s="49"/>
       <c r="W500" s="49" t="s">
-        <v>1902</v>
+        <v>1973</v>
       </c>
       <c r="X500" s="49">
         <v>99999999</v>
@@ -43180,14 +43438,14 @@
         <v>1885</v>
       </c>
       <c r="R501" s="50" t="s">
-        <v>1908</v>
+        <v>1965</v>
       </c>
       <c r="S501" s="49"/>
       <c r="T501" s="49"/>
       <c r="U501" s="49"/>
       <c r="V501" s="49"/>
       <c r="W501" s="49" t="s">
-        <v>1902</v>
+        <v>1973</v>
       </c>
       <c r="X501" s="49">
         <v>99999999</v>
@@ -43257,14 +43515,14 @@
         <v>1885</v>
       </c>
       <c r="R502" s="50" t="s">
-        <v>1909</v>
+        <v>1966</v>
       </c>
       <c r="S502" s="49"/>
       <c r="T502" s="49"/>
       <c r="U502" s="49"/>
       <c r="V502" s="49"/>
       <c r="W502" s="49" t="s">
-        <v>1903</v>
+        <v>1973</v>
       </c>
       <c r="X502" s="49">
         <v>99999999</v>
@@ -43334,14 +43592,14 @@
         <v>1895</v>
       </c>
       <c r="R503" s="80" t="s">
-        <v>1910</v>
+        <v>1967</v>
       </c>
       <c r="S503" s="63"/>
       <c r="T503" s="63"/>
       <c r="U503" s="63"/>
       <c r="V503" s="63"/>
       <c r="W503" s="49" t="s">
-        <v>1903</v>
+        <v>1973</v>
       </c>
       <c r="X503" s="63">
         <v>99999999</v>
@@ -43411,14 +43669,14 @@
         <v>1895</v>
       </c>
       <c r="R504" s="80" t="s">
-        <v>1911</v>
+        <v>1962</v>
       </c>
       <c r="S504" s="63"/>
       <c r="T504" s="63"/>
       <c r="U504" s="63"/>
       <c r="V504" s="63"/>
       <c r="W504" s="49" t="s">
-        <v>1902</v>
+        <v>1972</v>
       </c>
       <c r="X504" s="63">
         <v>99999999</v>
@@ -43488,14 +43746,14 @@
         <v>1895</v>
       </c>
       <c r="R505" s="80" t="s">
-        <v>1912</v>
+        <v>1968</v>
       </c>
       <c r="S505" s="63"/>
       <c r="T505" s="63"/>
       <c r="U505" s="63"/>
       <c r="V505" s="63"/>
       <c r="W505" s="49" t="s">
-        <v>1903</v>
+        <v>1973</v>
       </c>
       <c r="X505" s="63">
         <v>99999999</v>
@@ -43565,14 +43823,14 @@
         <v>1899</v>
       </c>
       <c r="R506" s="80" t="s">
-        <v>1913</v>
+        <v>1969</v>
       </c>
       <c r="S506" s="63"/>
       <c r="T506" s="63"/>
       <c r="U506" s="63"/>
       <c r="V506" s="63"/>
       <c r="W506" s="49" t="s">
-        <v>1902</v>
+        <v>1973</v>
       </c>
       <c r="X506" s="63">
         <v>99999999</v>
@@ -43642,14 +43900,14 @@
         <v>1899</v>
       </c>
       <c r="R507" s="80" t="s">
-        <v>1914</v>
+        <v>1970</v>
       </c>
       <c r="S507" s="63"/>
       <c r="T507" s="63"/>
       <c r="U507" s="63"/>
       <c r="V507" s="63"/>
       <c r="W507" s="49" t="s">
-        <v>1903</v>
+        <v>1973</v>
       </c>
       <c r="X507" s="63">
         <v>99999999</v>
@@ -43719,14 +43977,14 @@
         <v>1899</v>
       </c>
       <c r="R508" s="80" t="s">
-        <v>1915</v>
+        <v>1971</v>
       </c>
       <c r="S508" s="63"/>
       <c r="T508" s="63"/>
       <c r="U508" s="63"/>
       <c r="V508" s="63"/>
       <c r="W508" s="49" t="s">
-        <v>1903</v>
+        <v>1972</v>
       </c>
       <c r="X508" s="63">
         <v>99999999</v>
@@ -43750,6 +44008,792 @@
         <v>1</v>
       </c>
       <c r="AM508" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A509" s="5">
+        <v>508</v>
+      </c>
+      <c r="B509" s="5">
+        <v>10425</v>
+      </c>
+      <c r="F509" s="5">
+        <v>1</v>
+      </c>
+      <c r="G509" s="5" t="s">
+        <v>1902</v>
+      </c>
+      <c r="J509" s="5" t="s">
+        <v>1903</v>
+      </c>
+      <c r="L509" s="5">
+        <v>-4</v>
+      </c>
+      <c r="M509" s="5">
+        <v>1</v>
+      </c>
+      <c r="N509" s="5">
+        <v>0</v>
+      </c>
+      <c r="O509" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P509" s="5">
+        <v>1800</v>
+      </c>
+      <c r="R509" s="10"/>
+      <c r="W509" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="X509" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y509" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z509" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="AB509" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC509" s="5" t="s">
+        <v>1904</v>
+      </c>
+      <c r="AD509" s="10" t="s">
+        <v>1905</v>
+      </c>
+      <c r="AH509" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI509" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A510" s="5">
+        <v>509</v>
+      </c>
+      <c r="B510" s="5">
+        <v>10426</v>
+      </c>
+      <c r="F510" s="5">
+        <v>1</v>
+      </c>
+      <c r="G510" s="5" t="s">
+        <v>1906</v>
+      </c>
+      <c r="J510" s="5" t="s">
+        <v>1907</v>
+      </c>
+      <c r="L510" s="5">
+        <v>-4</v>
+      </c>
+      <c r="M510" s="5">
+        <v>1</v>
+      </c>
+      <c r="N510" s="5">
+        <v>0</v>
+      </c>
+      <c r="O510" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P510" s="5">
+        <v>4800</v>
+      </c>
+      <c r="R510" s="10"/>
+      <c r="W510" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="X510" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y510" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z510" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="AB510" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC510" s="5" t="s">
+        <v>1908</v>
+      </c>
+      <c r="AD510" s="10" t="s">
+        <v>1909</v>
+      </c>
+      <c r="AH510" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI510" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A511" s="5">
+        <v>510</v>
+      </c>
+      <c r="B511" s="5">
+        <v>10427</v>
+      </c>
+      <c r="F511" s="5">
+        <v>1</v>
+      </c>
+      <c r="G511" s="5" t="s">
+        <v>1910</v>
+      </c>
+      <c r="J511" s="5" t="s">
+        <v>1911</v>
+      </c>
+      <c r="L511" s="5">
+        <v>-4</v>
+      </c>
+      <c r="M511" s="5">
+        <v>1</v>
+      </c>
+      <c r="N511" s="5">
+        <v>0</v>
+      </c>
+      <c r="O511" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P511" s="5">
+        <v>9800</v>
+      </c>
+      <c r="R511" s="10"/>
+      <c r="W511" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="X511" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y511" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z511" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="AB511" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC511" s="5" t="s">
+        <v>1912</v>
+      </c>
+      <c r="AD511" s="10" t="s">
+        <v>1913</v>
+      </c>
+      <c r="AH511" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI511" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A512" s="78">
+        <v>511</v>
+      </c>
+      <c r="B512" s="78">
+        <v>10428</v>
+      </c>
+      <c r="F512" s="78">
+        <v>1</v>
+      </c>
+      <c r="G512" s="78" t="s">
+        <v>1926</v>
+      </c>
+      <c r="I512" s="78" t="s">
+        <v>1927</v>
+      </c>
+      <c r="J512" s="78" t="s">
+        <v>1928</v>
+      </c>
+      <c r="L512" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M512" s="78">
+        <v>0</v>
+      </c>
+      <c r="N512" s="78">
+        <v>0</v>
+      </c>
+      <c r="O512" s="78" t="s">
+        <v>1914</v>
+      </c>
+      <c r="P512" s="78">
+        <v>49800</v>
+      </c>
+      <c r="Q512" s="78" t="s">
+        <v>1929</v>
+      </c>
+      <c r="R512" s="79" t="s">
+        <v>1924</v>
+      </c>
+      <c r="W512" s="78" t="s">
+        <v>1930</v>
+      </c>
+      <c r="X512" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y512" s="78">
+        <v>1610409600</v>
+      </c>
+      <c r="Z512" s="78">
+        <v>1610985599</v>
+      </c>
+      <c r="AA512" s="78">
+        <v>68</v>
+      </c>
+      <c r="AH512" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI512" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL512" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM512" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A513" s="78">
+        <v>512</v>
+      </c>
+      <c r="B513" s="78">
+        <v>10429</v>
+      </c>
+      <c r="F513" s="78">
+        <v>1</v>
+      </c>
+      <c r="G513" s="78" t="s">
+        <v>1915</v>
+      </c>
+      <c r="I513" s="78" t="s">
+        <v>1927</v>
+      </c>
+      <c r="J513" s="78" t="s">
+        <v>1931</v>
+      </c>
+      <c r="L513" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M513" s="78">
+        <v>0</v>
+      </c>
+      <c r="N513" s="78">
+        <v>0</v>
+      </c>
+      <c r="O513" s="78" t="s">
+        <v>1914</v>
+      </c>
+      <c r="P513" s="78">
+        <v>19800</v>
+      </c>
+      <c r="Q513" s="78" t="s">
+        <v>1923</v>
+      </c>
+      <c r="R513" s="79" t="s">
+        <v>1922</v>
+      </c>
+      <c r="W513" s="78" t="s">
+        <v>1930</v>
+      </c>
+      <c r="X513" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y513" s="78">
+        <v>1610409600</v>
+      </c>
+      <c r="Z513" s="78">
+        <v>1610985599</v>
+      </c>
+      <c r="AA513" s="78">
+        <v>68</v>
+      </c>
+      <c r="AH513" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI513" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL513" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM513" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A514" s="78">
+        <v>513</v>
+      </c>
+      <c r="B514" s="78">
+        <v>10430</v>
+      </c>
+      <c r="F514" s="78">
+        <v>1</v>
+      </c>
+      <c r="G514" s="78" t="s">
+        <v>1915</v>
+      </c>
+      <c r="I514" s="78" t="s">
+        <v>1932</v>
+      </c>
+      <c r="J514" s="78" t="s">
+        <v>1933</v>
+      </c>
+      <c r="L514" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M514" s="78">
+        <v>0</v>
+      </c>
+      <c r="N514" s="78">
+        <v>0</v>
+      </c>
+      <c r="O514" s="78" t="s">
+        <v>1934</v>
+      </c>
+      <c r="P514" s="78">
+        <v>9800</v>
+      </c>
+      <c r="Q514" s="78" t="s">
+        <v>1921</v>
+      </c>
+      <c r="R514" s="79" t="s">
+        <v>1920</v>
+      </c>
+      <c r="W514" s="78" t="s">
+        <v>1935</v>
+      </c>
+      <c r="X514" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y514" s="78">
+        <v>1610409600</v>
+      </c>
+      <c r="Z514" s="78">
+        <v>1610985599</v>
+      </c>
+      <c r="AA514" s="78">
+        <v>68</v>
+      </c>
+      <c r="AH514" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI514" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL514" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM514" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A515" s="78">
+        <v>514</v>
+      </c>
+      <c r="B515" s="78">
+        <v>10431</v>
+      </c>
+      <c r="F515" s="78">
+        <v>1</v>
+      </c>
+      <c r="G515" s="78" t="s">
+        <v>1915</v>
+      </c>
+      <c r="I515" s="78" t="s">
+        <v>1936</v>
+      </c>
+      <c r="J515" s="78" t="s">
+        <v>1919</v>
+      </c>
+      <c r="L515" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M515" s="78">
+        <v>0</v>
+      </c>
+      <c r="N515" s="78">
+        <v>0</v>
+      </c>
+      <c r="O515" s="78" t="s">
+        <v>1937</v>
+      </c>
+      <c r="P515" s="78">
+        <v>4800</v>
+      </c>
+      <c r="Q515" s="78" t="s">
+        <v>1918</v>
+      </c>
+      <c r="R515" s="79" t="s">
+        <v>1917</v>
+      </c>
+      <c r="W515" s="78" t="s">
+        <v>1930</v>
+      </c>
+      <c r="X515" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y515" s="78">
+        <v>1610409600</v>
+      </c>
+      <c r="Z515" s="78">
+        <v>1610985599</v>
+      </c>
+      <c r="AA515" s="78">
+        <v>68</v>
+      </c>
+      <c r="AH515" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI515" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL515" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM515" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A516" s="78">
+        <v>515</v>
+      </c>
+      <c r="B516" s="78">
+        <v>10432</v>
+      </c>
+      <c r="F516" s="78">
+        <v>1</v>
+      </c>
+      <c r="G516" s="78" t="s">
+        <v>1926</v>
+      </c>
+      <c r="I516" s="78" t="s">
+        <v>1938</v>
+      </c>
+      <c r="J516" s="78" t="s">
+        <v>1957</v>
+      </c>
+      <c r="L516" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M516" s="78">
+        <v>0</v>
+      </c>
+      <c r="N516" s="78">
+        <v>0</v>
+      </c>
+      <c r="O516" s="78" t="s">
+        <v>1914</v>
+      </c>
+      <c r="P516" s="78">
+        <v>49800</v>
+      </c>
+      <c r="Q516" s="78" t="s">
+        <v>1940</v>
+      </c>
+      <c r="R516" s="79" t="s">
+        <v>1941</v>
+      </c>
+      <c r="W516" s="78" t="s">
+        <v>1930</v>
+      </c>
+      <c r="X516" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y516" s="78">
+        <v>1610409600</v>
+      </c>
+      <c r="Z516" s="78">
+        <v>1610985599</v>
+      </c>
+      <c r="AA516" s="78">
+        <v>69</v>
+      </c>
+      <c r="AH516" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI516" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL516" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM516" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A517" s="78">
+        <v>516</v>
+      </c>
+      <c r="B517" s="78">
+        <v>10433</v>
+      </c>
+      <c r="F517" s="78">
+        <v>1</v>
+      </c>
+      <c r="G517" s="78" t="s">
+        <v>1915</v>
+      </c>
+      <c r="I517" s="78" t="s">
+        <v>1942</v>
+      </c>
+      <c r="J517" s="78" t="s">
+        <v>1958</v>
+      </c>
+      <c r="L517" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M517" s="78">
+        <v>0</v>
+      </c>
+      <c r="N517" s="78">
+        <v>0</v>
+      </c>
+      <c r="O517" s="78" t="s">
+        <v>1914</v>
+      </c>
+      <c r="P517" s="78">
+        <v>19800</v>
+      </c>
+      <c r="Q517" s="78" t="s">
+        <v>1939</v>
+      </c>
+      <c r="R517" s="79" t="s">
+        <v>1943</v>
+      </c>
+      <c r="W517" s="78" t="s">
+        <v>1935</v>
+      </c>
+      <c r="X517" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y517" s="78">
+        <v>1610409600</v>
+      </c>
+      <c r="Z517" s="78">
+        <v>1610985599</v>
+      </c>
+      <c r="AA517" s="78">
+        <v>69</v>
+      </c>
+      <c r="AH517" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI517" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL517" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM517" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A518" s="78">
+        <v>517</v>
+      </c>
+      <c r="B518" s="78">
+        <v>10434</v>
+      </c>
+      <c r="F518" s="78">
+        <v>1</v>
+      </c>
+      <c r="G518" s="78" t="s">
+        <v>1915</v>
+      </c>
+      <c r="I518" s="78" t="s">
+        <v>1938</v>
+      </c>
+      <c r="J518" s="78" t="s">
+        <v>1959</v>
+      </c>
+      <c r="L518" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M518" s="78">
+        <v>0</v>
+      </c>
+      <c r="N518" s="78">
+        <v>0</v>
+      </c>
+      <c r="O518" s="78" t="s">
+        <v>1937</v>
+      </c>
+      <c r="P518" s="78">
+        <v>9800</v>
+      </c>
+      <c r="Q518" s="78" t="s">
+        <v>1916</v>
+      </c>
+      <c r="R518" s="79" t="s">
+        <v>1944</v>
+      </c>
+      <c r="W518" s="78" t="s">
+        <v>1945</v>
+      </c>
+      <c r="X518" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y518" s="78">
+        <v>1610409600</v>
+      </c>
+      <c r="Z518" s="78">
+        <v>1610985599</v>
+      </c>
+      <c r="AA518" s="78">
+        <v>69</v>
+      </c>
+      <c r="AH518" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI518" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL518" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM518" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A519" s="78">
+        <v>518</v>
+      </c>
+      <c r="B519" s="78">
+        <v>10435</v>
+      </c>
+      <c r="F519" s="78">
+        <v>1</v>
+      </c>
+      <c r="G519" s="78" t="s">
+        <v>1926</v>
+      </c>
+      <c r="I519" s="78" t="s">
+        <v>1938</v>
+      </c>
+      <c r="J519" s="78" t="s">
+        <v>1960</v>
+      </c>
+      <c r="L519" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M519" s="78">
+        <v>0</v>
+      </c>
+      <c r="N519" s="78">
+        <v>0</v>
+      </c>
+      <c r="O519" s="78" t="s">
+        <v>1946</v>
+      </c>
+      <c r="P519" s="78">
+        <v>4800</v>
+      </c>
+      <c r="Q519" s="78" t="s">
+        <v>1947</v>
+      </c>
+      <c r="R519" s="79" t="s">
+        <v>1948</v>
+      </c>
+      <c r="W519" s="78" t="s">
+        <v>1930</v>
+      </c>
+      <c r="X519" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y519" s="78">
+        <v>1610409600</v>
+      </c>
+      <c r="Z519" s="78">
+        <v>1610985599</v>
+      </c>
+      <c r="AA519" s="78">
+        <v>69</v>
+      </c>
+      <c r="AH519" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI519" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL519" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM519" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A520" s="5">
+        <v>519</v>
+      </c>
+      <c r="B520" s="5">
+        <v>10436</v>
+      </c>
+      <c r="F520" s="5">
+        <v>1</v>
+      </c>
+      <c r="G520" s="5" t="s">
+        <v>1950</v>
+      </c>
+      <c r="I520" s="5" t="s">
+        <v>1951</v>
+      </c>
+      <c r="J520" s="5" t="s">
+        <v>1952</v>
+      </c>
+      <c r="L520" s="5">
+        <v>-23</v>
+      </c>
+      <c r="M520" s="5">
+        <v>1</v>
+      </c>
+      <c r="N520" s="5">
+        <v>0</v>
+      </c>
+      <c r="O520" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P520" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Q520" s="5" t="s">
+        <v>1953</v>
+      </c>
+      <c r="R520" s="10" t="s">
+        <v>1954</v>
+      </c>
+      <c r="S520" s="5" t="s">
+        <v>1955</v>
+      </c>
+      <c r="W520" s="5" t="s">
+        <v>1956</v>
+      </c>
+      <c r="X520" s="5">
+        <v>99999999</v>
+      </c>
+      <c r="Y520" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z520" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="AH520" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI520" s="5">
         <v>1</v>
       </c>
     </row>
@@ -43763,10 +44807,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:XFD68"/>
+      <selection activeCell="A69" sqref="A69:XFD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -44731,6 +45775,34 @@
         <v>1</v>
       </c>
       <c r="D68" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="81">
+        <v>68</v>
+      </c>
+      <c r="B69" s="82" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C69" s="81">
+        <v>1</v>
+      </c>
+      <c r="D69" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="81">
+        <v>69</v>
+      </c>
+      <c r="B70" s="82" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C70" s="81">
+        <v>1</v>
+      </c>
+      <c r="D70" s="81">
         <v>0</v>
       </c>
     </row>

--- a/config_Release/shoping_config_vivo.xlsx
+++ b/config_Release/shoping_config_vivo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4342" uniqueCount="2022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4408" uniqueCount="2064">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8373,6 +8373,386 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>恭字礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭字礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新玩家、免费、小额</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新玩家、免费、小额</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","2万小游戏币","恭字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_gong",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_gong",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜字礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜字礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币","3.8万小游戏币","喜字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_xi",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_xi",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,38000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>发字礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","5万小游戏币","发字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_fa",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_fa",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,50000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财字礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","10万小游戏币","财字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_cai",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,100000,1,</t>
+  </si>
+  <si>
+    <t>v1-v7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","5万小游戏币","恭字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1-v7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","10万小游戏币","喜字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,100000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>发字礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","20万小游戏币","发字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,200000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,200000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","40万小游戏币","财字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_cai",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,400000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v8-v12</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v8-v12</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","10万小游戏币","恭字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,100000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","20万小游戏币","喜字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","40万小游戏币","发字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,400000,1,</t>
+  </si>
+  <si>
+    <t>财字礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","80万小游戏币","财字符*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,800000,1,</t>
+  </si>
+  <si>
+    <t>51800000,50,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200000,30,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,20,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4830000,10,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,4,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,1,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>51800000,50,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,20,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4830000,10,6,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,4,2,</t>
+  </si>
+  <si>
+    <t>600000,1,1,</t>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂敲金蛋铜锤</t>
+  </si>
+  <si>
+    <t>（V1-V3）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","铜锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_brass_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂敲金蛋银锤</t>
+  </si>
+  <si>
+    <t>（V1-V3）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"300万金币","银锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_silver_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂敲金蛋金锤</t>
+  </si>
+  <si>
+    <t>"480万金币","金锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_gold_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V4-V7）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","铜锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_brass_hammer_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","银锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_silver_hammer_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V4-V7）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","金锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_gold_hammer_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V8-V10）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","铜锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_brass_hammer_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","银锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_silver_hammer_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","金锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_gold_hammer_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,20000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>{type="permission_class",class_value = "fclb_free_001" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8385,230 +8765,15 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>恭字礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭字礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新玩家、免费、小额</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新玩家、免费、小额</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万金币","2万小游戏币","恭字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_gong",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_gong",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>喜字礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>喜字礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"100万金币","3.8万小游戏币","喜字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_xi",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_xi",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000,38000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>发字礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"180万金币","5万小游戏币","发字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_fa",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_fa",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1800000,50000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财字礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","10万小游戏币","财字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_cai",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,100000,1,</t>
-  </si>
-  <si>
-    <t>v1-v7</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"180万金币","5万小游戏币","恭字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1-v7</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","10万小游戏币","喜字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,100000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>发字礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","20万小游戏币","发字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,200000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,200000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万金币","40万小游戏币","财字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_fclb_cai",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>19800000,400000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>v8-v12</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>v8-v12</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","10万小游戏币","恭字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,100000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","20万小游戏币","喜字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万金币","40万小游戏币","发字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>19800000,400000,1,</t>
-  </si>
-  <si>
-    <t>财字礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4980万金币","80万小游戏币","财字符*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>49800000,800000,1,</t>
-  </si>
-  <si>
-    <t>51800000,50,15,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200000,30,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9900000,20,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4830000,10,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,4,2,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000,1,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>51800000,50,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9900000,20,2,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4830000,10,6,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,4,2,</t>
-  </si>
-  <si>
-    <t>600000,1,1,</t>
-  </si>
-  <si>
-    <t>86400,9999,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,9999,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000,20000,1,</t>
+    <t>{type="permission_class",class_value = "golden_egg_1" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "golden_egg_2" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "golden_egg_3" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8687,7 +8852,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8738,19 +8903,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8803,7 +8956,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8951,34 +9104,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -8987,22 +9134,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -11463,13 +11604,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN532"/>
+  <dimension ref="A1:AN541"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="R497" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="W521" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R521" sqref="R521"/>
+      <selection pane="bottomRight" activeCell="AA533" sqref="AA533:AA541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -15311,298 +15452,298 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="53">
+    <row r="67" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="51">
         <v>66</v>
       </c>
-      <c r="B67" s="53">
+      <c r="B67" s="51">
         <v>85</v>
       </c>
-      <c r="D67" s="53">
+      <c r="D67" s="51">
         <v>2</v>
       </c>
-      <c r="F67" s="53">
-        <v>1</v>
-      </c>
-      <c r="G67" s="53" t="s">
+      <c r="F67" s="51">
+        <v>1</v>
+      </c>
+      <c r="G67" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="H67" s="53" t="s">
+      <c r="H67" s="51" t="s">
         <v>1786</v>
       </c>
-      <c r="L67" s="53">
+      <c r="L67" s="51">
         <v>-4</v>
       </c>
-      <c r="M67" s="53">
-        <v>0</v>
-      </c>
-      <c r="N67" s="53">
-        <v>0</v>
-      </c>
-      <c r="O67" s="53" t="s">
+      <c r="M67" s="51">
+        <v>0</v>
+      </c>
+      <c r="N67" s="51">
+        <v>0</v>
+      </c>
+      <c r="O67" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P67" s="53">
+      <c r="P67" s="51">
         <v>1500</v>
       </c>
-      <c r="Q67" s="53" t="s">
+      <c r="Q67" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R67" s="53" t="s">
+      <c r="R67" s="51" t="s">
         <v>1366</v>
       </c>
-      <c r="W67" s="53" t="s">
+      <c r="W67" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X67" s="54" t="s">
+      <c r="X67" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y67" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z67" s="53">
+      <c r="Y67" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH67" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI67" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="53">
+      <c r="AH67" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI67" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="51">
         <v>67</v>
       </c>
-      <c r="B68" s="53">
+      <c r="B68" s="51">
         <v>86</v>
       </c>
-      <c r="D68" s="53">
+      <c r="D68" s="51">
         <v>3</v>
       </c>
-      <c r="F68" s="53">
-        <v>1</v>
-      </c>
-      <c r="G68" s="53" t="s">
+      <c r="F68" s="51">
+        <v>1</v>
+      </c>
+      <c r="G68" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="H68" s="53" t="s">
+      <c r="H68" s="51" t="s">
         <v>1787</v>
       </c>
-      <c r="L68" s="53">
+      <c r="L68" s="51">
         <v>-4</v>
       </c>
-      <c r="M68" s="53">
-        <v>0</v>
-      </c>
-      <c r="N68" s="53">
-        <v>0</v>
-      </c>
-      <c r="O68" s="53" t="s">
+      <c r="M68" s="51">
+        <v>0</v>
+      </c>
+      <c r="N68" s="51">
+        <v>0</v>
+      </c>
+      <c r="O68" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P68" s="53">
+      <c r="P68" s="51">
         <v>3000</v>
       </c>
-      <c r="Q68" s="53" t="s">
+      <c r="Q68" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R68" s="53" t="s">
+      <c r="R68" s="51" t="s">
         <v>1382</v>
       </c>
-      <c r="W68" s="53" t="s">
+      <c r="W68" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X68" s="54" t="s">
+      <c r="X68" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y68" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z68" s="53">
+      <c r="Y68" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH68" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI68" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="53">
+      <c r="AH68" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI68" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="51">
         <v>68</v>
       </c>
-      <c r="B69" s="53">
+      <c r="B69" s="51">
         <v>87</v>
       </c>
-      <c r="D69" s="53">
+      <c r="D69" s="51">
         <v>4</v>
       </c>
-      <c r="F69" s="53">
-        <v>1</v>
-      </c>
-      <c r="G69" s="53" t="s">
+      <c r="F69" s="51">
+        <v>1</v>
+      </c>
+      <c r="G69" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="H69" s="53" t="s">
+      <c r="H69" s="51" t="s">
         <v>1788</v>
       </c>
-      <c r="L69" s="53">
+      <c r="L69" s="51">
         <v>-4</v>
       </c>
-      <c r="M69" s="53">
-        <v>0</v>
-      </c>
-      <c r="N69" s="53">
-        <v>0</v>
-      </c>
-      <c r="O69" s="53" t="s">
+      <c r="M69" s="51">
+        <v>0</v>
+      </c>
+      <c r="N69" s="51">
+        <v>0</v>
+      </c>
+      <c r="O69" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P69" s="53">
+      <c r="P69" s="51">
         <v>5000</v>
       </c>
-      <c r="Q69" s="53" t="s">
+      <c r="Q69" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R69" s="53" t="s">
+      <c r="R69" s="51" t="s">
         <v>1367</v>
       </c>
-      <c r="W69" s="53" t="s">
+      <c r="W69" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X69" s="54" t="s">
+      <c r="X69" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y69" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z69" s="53">
+      <c r="Y69" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH69" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI69" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="53">
+      <c r="AH69" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI69" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="51">
         <v>69</v>
       </c>
-      <c r="B70" s="53">
+      <c r="B70" s="51">
         <v>88</v>
       </c>
-      <c r="D70" s="53">
+      <c r="D70" s="51">
         <v>5</v>
       </c>
-      <c r="F70" s="53">
-        <v>1</v>
-      </c>
-      <c r="G70" s="53" t="s">
+      <c r="F70" s="51">
+        <v>1</v>
+      </c>
+      <c r="G70" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="H70" s="53" t="s">
+      <c r="H70" s="51" t="s">
         <v>1789</v>
       </c>
-      <c r="L70" s="53">
+      <c r="L70" s="51">
         <v>-4</v>
       </c>
-      <c r="M70" s="53">
-        <v>0</v>
-      </c>
-      <c r="N70" s="53">
-        <v>0</v>
-      </c>
-      <c r="O70" s="53" t="s">
+      <c r="M70" s="51">
+        <v>0</v>
+      </c>
+      <c r="N70" s="51">
+        <v>0</v>
+      </c>
+      <c r="O70" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P70" s="53">
+      <c r="P70" s="51">
         <v>9800</v>
       </c>
-      <c r="Q70" s="53" t="s">
+      <c r="Q70" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R70" s="53" t="s">
+      <c r="R70" s="51" t="s">
         <v>1368</v>
       </c>
-      <c r="W70" s="53" t="s">
+      <c r="W70" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X70" s="54" t="s">
+      <c r="X70" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y70" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z70" s="53">
+      <c r="Y70" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH70" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI70" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="53">
+      <c r="AH70" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI70" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="51">
         <v>70</v>
       </c>
-      <c r="B71" s="53">
+      <c r="B71" s="51">
         <v>89</v>
       </c>
-      <c r="D71" s="53">
+      <c r="D71" s="51">
         <v>6</v>
       </c>
-      <c r="F71" s="53">
-        <v>1</v>
-      </c>
-      <c r="G71" s="53" t="s">
+      <c r="F71" s="51">
+        <v>1</v>
+      </c>
+      <c r="G71" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="H71" s="53" t="s">
+      <c r="H71" s="51" t="s">
         <v>1790</v>
       </c>
-      <c r="L71" s="53">
+      <c r="L71" s="51">
         <v>-4</v>
       </c>
-      <c r="M71" s="53">
-        <v>0</v>
-      </c>
-      <c r="N71" s="53">
-        <v>0</v>
-      </c>
-      <c r="O71" s="53" t="s">
+      <c r="M71" s="51">
+        <v>0</v>
+      </c>
+      <c r="N71" s="51">
+        <v>0</v>
+      </c>
+      <c r="O71" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P71" s="53">
+      <c r="P71" s="51">
         <v>49800</v>
       </c>
-      <c r="Q71" s="53" t="s">
+      <c r="Q71" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R71" s="53" t="s">
+      <c r="R71" s="51" t="s">
         <v>1369</v>
       </c>
-      <c r="W71" s="53" t="s">
+      <c r="W71" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X71" s="54" t="s">
+      <c r="X71" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y71" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z71" s="53">
+      <c r="Y71" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH71" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI71" s="53">
+      <c r="AH71" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI71" s="51">
         <v>1</v>
       </c>
     </row>
@@ -16898,56 +17039,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="53">
+    <row r="94" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="51">
         <v>93</v>
       </c>
-      <c r="B94" s="53">
+      <c r="B94" s="51">
         <v>109</v>
       </c>
-      <c r="F94" s="53">
-        <v>1</v>
-      </c>
-      <c r="G94" s="53" t="s">
+      <c r="F94" s="51">
+        <v>1</v>
+      </c>
+      <c r="G94" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="L94" s="53">
+      <c r="L94" s="51">
         <v>-4</v>
       </c>
-      <c r="M94" s="53">
-        <v>0</v>
-      </c>
-      <c r="N94" s="53">
-        <v>0</v>
-      </c>
-      <c r="O94" s="53" t="s">
+      <c r="M94" s="51">
+        <v>0</v>
+      </c>
+      <c r="N94" s="51">
+        <v>0</v>
+      </c>
+      <c r="O94" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P94" s="53">
+      <c r="P94" s="51">
         <v>100000</v>
       </c>
-      <c r="Q94" s="53" t="s">
+      <c r="Q94" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R94" s="53" t="s">
+      <c r="R94" s="51" t="s">
         <v>687</v>
       </c>
-      <c r="W94" s="53" t="s">
+      <c r="W94" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X94" s="54" t="s">
+      <c r="X94" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y94" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z94" s="53">
+      <c r="Y94" s="51">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH94" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI94" s="53">
+      <c r="AH94" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI94" s="51">
         <v>1</v>
       </c>
     </row>
@@ -18929,121 +19070,121 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="53">
+    <row r="128" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="51">
         <v>127</v>
       </c>
-      <c r="B128" s="53">
+      <c r="B128" s="51">
         <v>10044</v>
       </c>
-      <c r="D128" s="53">
+      <c r="D128" s="51">
         <v>108</v>
       </c>
-      <c r="F128" s="53">
-        <v>1</v>
-      </c>
-      <c r="G128" s="53" t="s">
+      <c r="F128" s="51">
+        <v>1</v>
+      </c>
+      <c r="G128" s="51" t="s">
         <v>319</v>
       </c>
-      <c r="H128" s="53" t="s">
+      <c r="H128" s="51" t="s">
         <v>1791</v>
       </c>
-      <c r="L128" s="53">
+      <c r="L128" s="51">
         <v>-10</v>
       </c>
-      <c r="M128" s="53">
-        <v>0</v>
-      </c>
-      <c r="N128" s="53">
-        <v>0</v>
-      </c>
-      <c r="O128" s="53" t="s">
+      <c r="M128" s="51">
+        <v>0</v>
+      </c>
+      <c r="N128" s="51">
+        <v>0</v>
+      </c>
+      <c r="O128" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P128" s="53">
+      <c r="P128" s="51">
         <v>99800</v>
       </c>
-      <c r="Q128" s="53" t="s">
+      <c r="Q128" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R128" s="53" t="s">
+      <c r="R128" s="51" t="s">
         <v>1371</v>
       </c>
-      <c r="W128" s="53" t="s">
+      <c r="W128" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X128" s="54" t="s">
+      <c r="X128" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y128" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z128" s="53">
+      <c r="Y128" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z128" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH128" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI128" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:39" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="53">
+      <c r="AH128" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI128" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:39" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="51">
         <v>128</v>
       </c>
-      <c r="B129" s="53">
+      <c r="B129" s="51">
         <v>10045</v>
       </c>
-      <c r="D129" s="53">
+      <c r="D129" s="51">
         <v>110</v>
       </c>
-      <c r="F129" s="53">
-        <v>1</v>
-      </c>
-      <c r="G129" s="53" t="s">
+      <c r="F129" s="51">
+        <v>1</v>
+      </c>
+      <c r="G129" s="51" t="s">
         <v>1129</v>
       </c>
-      <c r="H129" s="53" t="s">
+      <c r="H129" s="51" t="s">
         <v>1792</v>
       </c>
-      <c r="L129" s="53">
+      <c r="L129" s="51">
         <v>-11</v>
       </c>
-      <c r="M129" s="53">
-        <v>0</v>
-      </c>
-      <c r="N129" s="53">
-        <v>0</v>
-      </c>
-      <c r="O129" s="53" t="s">
+      <c r="M129" s="51">
+        <v>0</v>
+      </c>
+      <c r="N129" s="51">
+        <v>0</v>
+      </c>
+      <c r="O129" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P129" s="53">
+      <c r="P129" s="51">
         <v>249800</v>
       </c>
-      <c r="Q129" s="53" t="s">
+      <c r="Q129" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R129" s="53" t="s">
+      <c r="R129" s="51" t="s">
         <v>1370</v>
       </c>
-      <c r="W129" s="53" t="s">
+      <c r="W129" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X129" s="54" t="s">
+      <c r="X129" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y129" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z129" s="53">
+      <c r="Y129" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z129" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH129" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI129" s="53">
+      <c r="AH129" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI129" s="51">
         <v>1</v>
       </c>
     </row>
@@ -21651,7 +21792,7 @@
       <c r="Q171" s="43" t="s">
         <v>1737</v>
       </c>
-      <c r="R171" s="52" t="s">
+      <c r="R171" s="50" t="s">
         <v>1738</v>
       </c>
       <c r="W171" s="43" t="s">
@@ -21719,7 +21860,7 @@
       <c r="Q172" s="43" t="s">
         <v>1741</v>
       </c>
-      <c r="R172" s="52" t="s">
+      <c r="R172" s="50" t="s">
         <v>1731</v>
       </c>
       <c r="W172" s="43" t="s">
@@ -21787,7 +21928,7 @@
       <c r="Q173" s="43" t="s">
         <v>1737</v>
       </c>
-      <c r="R173" s="52" t="s">
+      <c r="R173" s="50" t="s">
         <v>1732</v>
       </c>
       <c r="W173" s="43" t="s">
@@ -21855,7 +21996,7 @@
       <c r="Q174" s="43" t="s">
         <v>1737</v>
       </c>
-      <c r="R174" s="52" t="s">
+      <c r="R174" s="50" t="s">
         <v>1746</v>
       </c>
       <c r="W174" s="43" t="s">
@@ -21923,7 +22064,7 @@
       <c r="Q175" s="43" t="s">
         <v>959</v>
       </c>
-      <c r="R175" s="52" t="s">
+      <c r="R175" s="50" t="s">
         <v>960</v>
       </c>
       <c r="W175" s="43" t="s">
@@ -21991,7 +22132,7 @@
       <c r="Q176" s="43" t="s">
         <v>1750</v>
       </c>
-      <c r="R176" s="52" t="s">
+      <c r="R176" s="50" t="s">
         <v>1751</v>
       </c>
       <c r="W176" s="43" t="s">
@@ -22059,7 +22200,7 @@
       <c r="Q177" s="43" t="s">
         <v>1750</v>
       </c>
-      <c r="R177" s="52" t="s">
+      <c r="R177" s="50" t="s">
         <v>1754</v>
       </c>
       <c r="W177" s="43" t="s">
@@ -22127,7 +22268,7 @@
       <c r="Q178" s="43" t="s">
         <v>959</v>
       </c>
-      <c r="R178" s="52" t="s">
+      <c r="R178" s="50" t="s">
         <v>1756</v>
       </c>
       <c r="W178" s="43" t="s">
@@ -22195,7 +22336,7 @@
       <c r="Q179" s="43" t="s">
         <v>1750</v>
       </c>
-      <c r="R179" s="52" t="s">
+      <c r="R179" s="50" t="s">
         <v>1759</v>
       </c>
       <c r="W179" s="43" t="s">
@@ -22263,7 +22404,7 @@
       <c r="Q180" s="43" t="s">
         <v>1750</v>
       </c>
-      <c r="R180" s="52" t="s">
+      <c r="R180" s="50" t="s">
         <v>1756</v>
       </c>
       <c r="W180" s="43" t="s">
@@ -22331,7 +22472,7 @@
       <c r="Q181" s="43" t="s">
         <v>1750</v>
       </c>
-      <c r="R181" s="52" t="s">
+      <c r="R181" s="50" t="s">
         <v>1759</v>
       </c>
       <c r="W181" s="43" t="s">
@@ -22399,7 +22540,7 @@
       <c r="Q182" s="43" t="s">
         <v>1750</v>
       </c>
-      <c r="R182" s="52" t="s">
+      <c r="R182" s="50" t="s">
         <v>1764</v>
       </c>
       <c r="W182" s="43" t="s">
@@ -22467,7 +22608,7 @@
       <c r="Q183" s="43" t="s">
         <v>1750</v>
       </c>
-      <c r="R183" s="52" t="s">
+      <c r="R183" s="50" t="s">
         <v>1759</v>
       </c>
       <c r="W183" s="43" t="s">
@@ -22535,7 +22676,7 @@
       <c r="Q184" s="43" t="s">
         <v>1750</v>
       </c>
-      <c r="R184" s="52" t="s">
+      <c r="R184" s="50" t="s">
         <v>1764</v>
       </c>
       <c r="W184" s="43" t="s">
@@ -22603,7 +22744,7 @@
       <c r="Q185" s="43" t="s">
         <v>959</v>
       </c>
-      <c r="R185" s="52" t="s">
+      <c r="R185" s="50" t="s">
         <v>1769</v>
       </c>
       <c r="W185" s="43" t="s">
@@ -28291,62 +28432,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:40" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A273" s="53">
+    <row r="273" spans="1:40" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A273" s="51">
         <v>272</v>
       </c>
-      <c r="B273" s="53">
+      <c r="B273" s="51">
         <v>10189</v>
       </c>
-      <c r="D273" s="56">
+      <c r="D273" s="54">
         <v>111</v>
       </c>
-      <c r="F273" s="53">
-        <v>1</v>
-      </c>
-      <c r="G273" s="53" t="s">
+      <c r="F273" s="51">
+        <v>1</v>
+      </c>
+      <c r="G273" s="51" t="s">
         <v>520</v>
       </c>
-      <c r="H273" s="58" t="s">
+      <c r="H273" s="56" t="s">
         <v>1853</v>
       </c>
-      <c r="L273" s="53">
+      <c r="L273" s="51">
         <v>-10</v>
       </c>
-      <c r="M273" s="53">
-        <v>0</v>
-      </c>
-      <c r="N273" s="53">
-        <v>0</v>
-      </c>
-      <c r="O273" s="53" t="s">
+      <c r="M273" s="51">
+        <v>0</v>
+      </c>
+      <c r="N273" s="51">
+        <v>0</v>
+      </c>
+      <c r="O273" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P273" s="53">
+      <c r="P273" s="51">
         <v>19800</v>
       </c>
-      <c r="Q273" s="53" t="s">
+      <c r="Q273" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R273" s="53" t="s">
+      <c r="R273" s="51" t="s">
         <v>1372</v>
       </c>
-      <c r="W273" s="53" t="s">
+      <c r="W273" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X273" s="54" t="s">
+      <c r="X273" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y273" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z273" s="53">
+      <c r="Y273" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z273" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH273" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI273" s="53">
+      <c r="AH273" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI273" s="51">
         <v>1</v>
       </c>
     </row>
@@ -31455,7 +31596,7 @@
       <c r="Q323" s="43" t="s">
         <v>959</v>
       </c>
-      <c r="R323" s="52" t="s">
+      <c r="R323" s="50" t="s">
         <v>1720</v>
       </c>
       <c r="W323" s="43" t="s">
@@ -31520,7 +31661,7 @@
       <c r="Q324" s="43" t="s">
         <v>1725</v>
       </c>
-      <c r="R324" s="52" t="s">
+      <c r="R324" s="50" t="s">
         <v>1726</v>
       </c>
       <c r="W324" s="43" t="s">
@@ -31585,7 +31726,7 @@
       <c r="Q325" s="43" t="s">
         <v>959</v>
       </c>
-      <c r="R325" s="52" t="s">
+      <c r="R325" s="50" t="s">
         <v>1729</v>
       </c>
       <c r="W325" s="43" t="s">
@@ -31777,7 +31918,7 @@
       <c r="Q328" s="43" t="s">
         <v>1627</v>
       </c>
-      <c r="R328" s="52" t="s">
+      <c r="R328" s="50" t="s">
         <v>983</v>
       </c>
       <c r="S328" s="43"/>
@@ -31860,7 +32001,7 @@
       <c r="Q329" s="43" t="s">
         <v>1631</v>
       </c>
-      <c r="R329" s="52" t="s">
+      <c r="R329" s="50" t="s">
         <v>1632</v>
       </c>
       <c r="S329" s="43"/>
@@ -31943,7 +32084,7 @@
       <c r="Q330" s="43" t="s">
         <v>1627</v>
       </c>
-      <c r="R330" s="52" t="s">
+      <c r="R330" s="50" t="s">
         <v>1634</v>
       </c>
       <c r="S330" s="43"/>
@@ -32026,7 +32167,7 @@
       <c r="Q331" s="43" t="s">
         <v>1636</v>
       </c>
-      <c r="R331" s="52" t="s">
+      <c r="R331" s="50" t="s">
         <v>1637</v>
       </c>
       <c r="S331" s="43"/>
@@ -32109,7 +32250,7 @@
       <c r="Q332" s="43" t="s">
         <v>1627</v>
       </c>
-      <c r="R332" s="52" t="s">
+      <c r="R332" s="50" t="s">
         <v>1639</v>
       </c>
       <c r="S332" s="43"/>
@@ -32192,7 +32333,7 @@
       <c r="Q333" s="43" t="s">
         <v>1627</v>
       </c>
-      <c r="R333" s="52" t="s">
+      <c r="R333" s="50" t="s">
         <v>1641</v>
       </c>
       <c r="S333" s="43"/>
@@ -32275,7 +32416,7 @@
       <c r="Q334" s="43" t="s">
         <v>1645</v>
       </c>
-      <c r="R334" s="52" t="s">
+      <c r="R334" s="50" t="s">
         <v>1646</v>
       </c>
       <c r="S334" s="43"/>
@@ -32358,7 +32499,7 @@
       <c r="Q335" s="43" t="s">
         <v>1627</v>
       </c>
-      <c r="R335" s="52" t="s">
+      <c r="R335" s="50" t="s">
         <v>1648</v>
       </c>
       <c r="S335" s="43"/>
@@ -32441,7 +32582,7 @@
       <c r="Q336" s="43" t="s">
         <v>1636</v>
       </c>
-      <c r="R336" s="52" t="s">
+      <c r="R336" s="50" t="s">
         <v>1650</v>
       </c>
       <c r="S336" s="43"/>
@@ -32524,7 +32665,7 @@
       <c r="Q337" s="43" t="s">
         <v>1636</v>
       </c>
-      <c r="R337" s="52" t="s">
+      <c r="R337" s="50" t="s">
         <v>1652</v>
       </c>
       <c r="S337" s="43"/>
@@ -36102,7 +36243,7 @@
       <c r="G389" s="19" t="s">
         <v>1282</v>
       </c>
-      <c r="H389" s="51"/>
+      <c r="H389" s="49"/>
       <c r="I389" s="19" t="s">
         <v>1283</v>
       </c>
@@ -36171,7 +36312,7 @@
       <c r="G390" s="19" t="s">
         <v>1269</v>
       </c>
-      <c r="H390" s="51"/>
+      <c r="H390" s="49"/>
       <c r="I390" s="19" t="s">
         <v>1112</v>
       </c>
@@ -36240,7 +36381,7 @@
       <c r="G391" s="19" t="s">
         <v>1290</v>
       </c>
-      <c r="H391" s="51"/>
+      <c r="H391" s="49"/>
       <c r="I391" s="19" t="s">
         <v>1283</v>
       </c>
@@ -37720,62 +37861,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:39" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A414" s="53">
+    <row r="414" spans="1:39" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A414" s="51">
         <v>413</v>
       </c>
-      <c r="B414" s="53">
+      <c r="B414" s="51">
         <v>10330</v>
       </c>
-      <c r="D414" s="53">
-        <v>1</v>
-      </c>
-      <c r="F414" s="53">
-        <v>1</v>
-      </c>
-      <c r="G414" s="53" t="s">
+      <c r="D414" s="51">
+        <v>1</v>
+      </c>
+      <c r="F414" s="51">
+        <v>1</v>
+      </c>
+      <c r="G414" s="51" t="s">
         <v>1377</v>
       </c>
-      <c r="H414" s="53" t="s">
+      <c r="H414" s="51" t="s">
         <v>1785</v>
       </c>
-      <c r="L414" s="53">
+      <c r="L414" s="51">
         <v>-4</v>
       </c>
-      <c r="M414" s="53">
-        <v>0</v>
-      </c>
-      <c r="N414" s="53">
-        <v>0</v>
-      </c>
-      <c r="O414" s="53" t="s">
+      <c r="M414" s="51">
+        <v>0</v>
+      </c>
+      <c r="N414" s="51">
+        <v>0</v>
+      </c>
+      <c r="O414" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P414" s="53">
+      <c r="P414" s="51">
         <v>600</v>
       </c>
-      <c r="Q414" s="53" t="s">
+      <c r="Q414" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R414" s="57" t="s">
+      <c r="R414" s="55" t="s">
         <v>1784</v>
       </c>
-      <c r="W414" s="53" t="s">
+      <c r="W414" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X414" s="54" t="s">
+      <c r="X414" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y414" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z414" s="53">
+      <c r="Y414" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z414" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH414" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI414" s="53">
+      <c r="AH414" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI414" s="51">
         <v>1</v>
       </c>
     </row>
@@ -38187,827 +38328,827 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A421" s="63">
+    <row r="421" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A421" s="59">
         <v>420</v>
       </c>
-      <c r="B421" s="63">
+      <c r="B421" s="59">
         <v>10337</v>
       </c>
-      <c r="F421" s="63">
-        <v>1</v>
-      </c>
-      <c r="G421" s="63" t="s">
+      <c r="F421" s="59">
+        <v>1</v>
+      </c>
+      <c r="G421" s="59" t="s">
         <v>1417</v>
       </c>
-      <c r="J421" s="63" t="s">
+      <c r="J421" s="59" t="s">
         <v>1418</v>
       </c>
-      <c r="L421" s="63">
+      <c r="L421" s="59">
         <v>-31</v>
       </c>
-      <c r="M421" s="63">
-        <v>0</v>
-      </c>
-      <c r="N421" s="63">
-        <v>0</v>
-      </c>
-      <c r="O421" s="63" t="s">
+      <c r="M421" s="59">
+        <v>0</v>
+      </c>
+      <c r="N421" s="59">
+        <v>0</v>
+      </c>
+      <c r="O421" s="59" t="s">
         <v>1419</v>
       </c>
-      <c r="P421" s="63">
+      <c r="P421" s="59">
         <v>1000</v>
       </c>
-      <c r="Q421" s="63" t="s">
+      <c r="Q421" s="59" t="s">
         <v>1420</v>
       </c>
-      <c r="R421" s="64" t="s">
+      <c r="R421" s="60" t="s">
         <v>1421</v>
       </c>
-      <c r="W421" s="63" t="s">
+      <c r="W421" s="59" t="s">
         <v>1422</v>
       </c>
-      <c r="X421" s="63">
+      <c r="X421" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y421" s="63">
+      <c r="Y421" s="59">
         <v>1585609200</v>
       </c>
-      <c r="Z421" s="63">
+      <c r="Z421" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AB421" s="63" t="s">
+      <c r="AB421" s="59" t="s">
         <v>1423</v>
       </c>
-      <c r="AC421" s="63" t="s">
+      <c r="AC421" s="59" t="s">
         <v>1424</v>
       </c>
-      <c r="AH421" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI421" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL421" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM421" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="422" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A422" s="63">
+      <c r="AH421" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI421" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL421" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM421" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A422" s="59">
         <v>421</v>
       </c>
-      <c r="B422" s="63">
+      <c r="B422" s="59">
         <v>10338</v>
       </c>
-      <c r="F422" s="63">
-        <v>1</v>
-      </c>
-      <c r="G422" s="63" t="s">
+      <c r="F422" s="59">
+        <v>1</v>
+      </c>
+      <c r="G422" s="59" t="s">
         <v>1441</v>
       </c>
-      <c r="I422" s="63" t="s">
+      <c r="I422" s="59" t="s">
         <v>1442</v>
       </c>
-      <c r="J422" s="63" t="s">
+      <c r="J422" s="59" t="s">
         <v>1443</v>
       </c>
-      <c r="L422" s="63">
+      <c r="L422" s="59">
         <v>-31</v>
       </c>
-      <c r="M422" s="63">
-        <v>0</v>
-      </c>
-      <c r="N422" s="63">
-        <v>0</v>
-      </c>
-      <c r="O422" s="63" t="s">
+      <c r="M422" s="59">
+        <v>0</v>
+      </c>
+      <c r="N422" s="59">
+        <v>0</v>
+      </c>
+      <c r="O422" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P422" s="63">
+      <c r="P422" s="59">
         <v>2000</v>
       </c>
-      <c r="Q422" s="63" t="s">
+      <c r="Q422" s="59" t="s">
         <v>1444</v>
       </c>
-      <c r="R422" s="64" t="s">
+      <c r="R422" s="60" t="s">
         <v>1445</v>
       </c>
-      <c r="W422" s="63" t="s">
+      <c r="W422" s="59" t="s">
         <v>1446</v>
       </c>
-      <c r="X422" s="63">
+      <c r="X422" s="59">
         <v>99999999</v>
       </c>
-      <c r="Y422" s="63">
+      <c r="Y422" s="59">
         <v>1603756800</v>
       </c>
-      <c r="Z422" s="63">
+      <c r="Z422" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA422" s="63">
+      <c r="AA422" s="59">
         <v>51</v>
       </c>
-      <c r="AH422" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI422" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL422" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM422" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A423" s="63">
+      <c r="AH422" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI422" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL422" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM422" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A423" s="59">
         <v>422</v>
       </c>
-      <c r="B423" s="63">
+      <c r="B423" s="59">
         <v>10339</v>
       </c>
-      <c r="F423" s="63">
-        <v>1</v>
-      </c>
-      <c r="G423" s="63" t="s">
+      <c r="F423" s="59">
+        <v>1</v>
+      </c>
+      <c r="G423" s="59" t="s">
         <v>1426</v>
       </c>
-      <c r="I423" s="63" t="s">
+      <c r="I423" s="59" t="s">
         <v>1425</v>
       </c>
-      <c r="J423" s="63" t="s">
+      <c r="J423" s="59" t="s">
         <v>1447</v>
       </c>
-      <c r="L423" s="63">
+      <c r="L423" s="59">
         <v>-31</v>
       </c>
-      <c r="M423" s="63">
-        <v>0</v>
-      </c>
-      <c r="N423" s="63">
-        <v>0</v>
-      </c>
-      <c r="O423" s="63" t="s">
+      <c r="M423" s="59">
+        <v>0</v>
+      </c>
+      <c r="N423" s="59">
+        <v>0</v>
+      </c>
+      <c r="O423" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P423" s="63">
+      <c r="P423" s="59">
         <v>5800</v>
       </c>
-      <c r="Q423" s="63" t="s">
+      <c r="Q423" s="59" t="s">
         <v>1448</v>
       </c>
-      <c r="R423" s="64" t="s">
+      <c r="R423" s="60" t="s">
         <v>1449</v>
       </c>
-      <c r="W423" s="63" t="s">
+      <c r="W423" s="59" t="s">
         <v>984</v>
       </c>
-      <c r="X423" s="63">
+      <c r="X423" s="59">
         <v>99999999</v>
       </c>
-      <c r="Y423" s="63">
+      <c r="Y423" s="59">
         <v>1603756800</v>
       </c>
-      <c r="Z423" s="63">
+      <c r="Z423" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA423" s="63">
+      <c r="AA423" s="59">
         <v>51</v>
       </c>
-      <c r="AH423" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI423" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL423" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM423" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A424" s="63">
+      <c r="AH423" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI423" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL423" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM423" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A424" s="59">
         <v>423</v>
       </c>
-      <c r="B424" s="63">
+      <c r="B424" s="59">
         <v>10340</v>
       </c>
-      <c r="F424" s="63">
-        <v>1</v>
-      </c>
-      <c r="G424" s="63" t="s">
+      <c r="F424" s="59">
+        <v>1</v>
+      </c>
+      <c r="G424" s="59" t="s">
         <v>1450</v>
       </c>
-      <c r="I424" s="63" t="s">
+      <c r="I424" s="59" t="s">
         <v>1425</v>
       </c>
-      <c r="J424" s="63" t="s">
+      <c r="J424" s="59" t="s">
         <v>1451</v>
       </c>
-      <c r="L424" s="63">
+      <c r="L424" s="59">
         <v>-31</v>
       </c>
-      <c r="M424" s="63">
-        <v>0</v>
-      </c>
-      <c r="N424" s="63">
-        <v>0</v>
-      </c>
-      <c r="O424" s="63" t="s">
+      <c r="M424" s="59">
+        <v>0</v>
+      </c>
+      <c r="N424" s="59">
+        <v>0</v>
+      </c>
+      <c r="O424" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P424" s="63">
+      <c r="P424" s="59">
         <v>12800</v>
       </c>
-      <c r="Q424" s="63" t="s">
+      <c r="Q424" s="59" t="s">
         <v>1452</v>
       </c>
-      <c r="R424" s="64" t="s">
+      <c r="R424" s="60" t="s">
         <v>1453</v>
       </c>
-      <c r="W424" s="63" t="s">
+      <c r="W424" s="59" t="s">
         <v>984</v>
       </c>
-      <c r="X424" s="63">
+      <c r="X424" s="59">
         <v>99999999</v>
       </c>
-      <c r="Y424" s="63">
+      <c r="Y424" s="59">
         <v>1603756800</v>
       </c>
-      <c r="Z424" s="63">
+      <c r="Z424" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA424" s="63">
+      <c r="AA424" s="59">
         <v>51</v>
       </c>
-      <c r="AH424" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI424" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL424" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM424" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="425" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A425" s="63">
+      <c r="AH424" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI424" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL424" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM424" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A425" s="59">
         <v>424</v>
       </c>
-      <c r="B425" s="63">
+      <c r="B425" s="59">
         <v>10341</v>
       </c>
-      <c r="F425" s="63">
-        <v>1</v>
-      </c>
-      <c r="G425" s="63" t="s">
+      <c r="F425" s="59">
+        <v>1</v>
+      </c>
+      <c r="G425" s="59" t="s">
         <v>1427</v>
       </c>
-      <c r="J425" s="63" t="s">
+      <c r="J425" s="59" t="s">
         <v>1428</v>
       </c>
-      <c r="L425" s="63">
+      <c r="L425" s="59">
         <v>-31</v>
       </c>
-      <c r="M425" s="63">
-        <v>0</v>
-      </c>
-      <c r="N425" s="63">
-        <v>0</v>
-      </c>
-      <c r="O425" s="63" t="s">
+      <c r="M425" s="59">
+        <v>0</v>
+      </c>
+      <c r="N425" s="59">
+        <v>0</v>
+      </c>
+      <c r="O425" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P425" s="63">
+      <c r="P425" s="59">
         <v>49800</v>
       </c>
-      <c r="Q425" s="63" t="s">
+      <c r="Q425" s="59" t="s">
         <v>1429</v>
       </c>
-      <c r="R425" s="64" t="s">
+      <c r="R425" s="60" t="s">
         <v>1430</v>
       </c>
-      <c r="W425" s="63" t="s">
+      <c r="W425" s="59" t="s">
         <v>568</v>
       </c>
-      <c r="X425" s="63">
+      <c r="X425" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y425" s="63">
+      <c r="Y425" s="59">
         <v>1585609200</v>
       </c>
-      <c r="Z425" s="63">
+      <c r="Z425" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH425" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI425" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="426" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A426" s="63">
+      <c r="AH425" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI425" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A426" s="59">
         <v>425</v>
       </c>
-      <c r="B426" s="63">
+      <c r="B426" s="59">
         <v>10342</v>
       </c>
-      <c r="F426" s="63">
-        <v>1</v>
-      </c>
-      <c r="G426" s="63" t="s">
+      <c r="F426" s="59">
+        <v>1</v>
+      </c>
+      <c r="G426" s="59" t="s">
         <v>1431</v>
       </c>
-      <c r="J426" s="63" t="s">
+      <c r="J426" s="59" t="s">
         <v>1432</v>
       </c>
-      <c r="L426" s="63">
+      <c r="L426" s="59">
         <v>-31</v>
       </c>
-      <c r="M426" s="63">
-        <v>0</v>
-      </c>
-      <c r="N426" s="63">
-        <v>0</v>
-      </c>
-      <c r="O426" s="63" t="s">
+      <c r="M426" s="59">
+        <v>0</v>
+      </c>
+      <c r="N426" s="59">
+        <v>0</v>
+      </c>
+      <c r="O426" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P426" s="63">
+      <c r="P426" s="59">
         <v>19800</v>
       </c>
-      <c r="Q426" s="63" t="s">
+      <c r="Q426" s="59" t="s">
         <v>1433</v>
       </c>
-      <c r="R426" s="64" t="s">
+      <c r="R426" s="60" t="s">
         <v>1430</v>
       </c>
-      <c r="W426" s="63" t="s">
+      <c r="W426" s="59" t="s">
         <v>1422</v>
       </c>
-      <c r="X426" s="63">
+      <c r="X426" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y426" s="63">
+      <c r="Y426" s="59">
         <v>1585609200</v>
       </c>
-      <c r="Z426" s="63">
+      <c r="Z426" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH426" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI426" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="427" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A427" s="63">
+      <c r="AH426" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI426" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A427" s="59">
         <v>426</v>
       </c>
-      <c r="B427" s="63">
+      <c r="B427" s="59">
         <v>10343</v>
       </c>
-      <c r="F427" s="63">
-        <v>1</v>
-      </c>
-      <c r="G427" s="63" t="s">
+      <c r="F427" s="59">
+        <v>1</v>
+      </c>
+      <c r="G427" s="59" t="s">
         <v>1434</v>
       </c>
-      <c r="J427" s="63" t="s">
+      <c r="J427" s="59" t="s">
         <v>1406</v>
       </c>
-      <c r="L427" s="63">
+      <c r="L427" s="59">
         <v>-31</v>
       </c>
-      <c r="M427" s="63">
-        <v>0</v>
-      </c>
-      <c r="N427" s="63">
-        <v>0</v>
-      </c>
-      <c r="O427" s="63" t="s">
+      <c r="M427" s="59">
+        <v>0</v>
+      </c>
+      <c r="N427" s="59">
+        <v>0</v>
+      </c>
+      <c r="O427" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P427" s="63">
+      <c r="P427" s="59">
         <v>9800</v>
       </c>
-      <c r="Q427" s="63" t="s">
+      <c r="Q427" s="59" t="s">
         <v>1435</v>
       </c>
-      <c r="R427" s="64" t="s">
+      <c r="R427" s="60" t="s">
         <v>1430</v>
       </c>
-      <c r="W427" s="63" t="s">
+      <c r="W427" s="59" t="s">
         <v>1422</v>
       </c>
-      <c r="X427" s="63">
+      <c r="X427" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y427" s="63">
+      <c r="Y427" s="59">
         <v>1585609200</v>
       </c>
-      <c r="Z427" s="63">
+      <c r="Z427" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH427" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI427" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A428" s="63">
+      <c r="AH427" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI427" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A428" s="59">
         <v>427</v>
       </c>
-      <c r="B428" s="63">
+      <c r="B428" s="59">
         <v>10344</v>
       </c>
-      <c r="F428" s="63">
-        <v>1</v>
-      </c>
-      <c r="G428" s="63" t="s">
+      <c r="F428" s="59">
+        <v>1</v>
+      </c>
+      <c r="G428" s="59" t="s">
         <v>1436</v>
       </c>
-      <c r="J428" s="63" t="s">
+      <c r="J428" s="59" t="s">
         <v>1437</v>
       </c>
-      <c r="L428" s="63">
+      <c r="L428" s="59">
         <v>-31</v>
       </c>
-      <c r="M428" s="63">
-        <v>0</v>
-      </c>
-      <c r="N428" s="63">
-        <v>0</v>
-      </c>
-      <c r="O428" s="63" t="s">
+      <c r="M428" s="59">
+        <v>0</v>
+      </c>
+      <c r="N428" s="59">
+        <v>0</v>
+      </c>
+      <c r="O428" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P428" s="63">
+      <c r="P428" s="59">
         <v>9800</v>
       </c>
-      <c r="Q428" s="63" t="s">
+      <c r="Q428" s="59" t="s">
         <v>1438</v>
       </c>
-      <c r="R428" s="64" t="s">
+      <c r="R428" s="60" t="s">
         <v>1430</v>
       </c>
-      <c r="W428" s="63" t="s">
+      <c r="W428" s="59" t="s">
         <v>1422</v>
       </c>
-      <c r="X428" s="63">
+      <c r="X428" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y428" s="63">
+      <c r="Y428" s="59">
         <v>1585609200</v>
       </c>
-      <c r="Z428" s="63">
+      <c r="Z428" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH428" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI428" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="429" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A429" s="63">
+      <c r="AH428" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI428" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A429" s="59">
         <v>428</v>
       </c>
-      <c r="B429" s="63">
+      <c r="B429" s="59">
         <v>10345</v>
       </c>
-      <c r="F429" s="63">
-        <v>1</v>
-      </c>
-      <c r="G429" s="63" t="s">
+      <c r="F429" s="59">
+        <v>1</v>
+      </c>
+      <c r="G429" s="59" t="s">
         <v>1407</v>
       </c>
-      <c r="J429" s="63" t="s">
+      <c r="J429" s="59" t="s">
         <v>1439</v>
       </c>
-      <c r="L429" s="63">
+      <c r="L429" s="59">
         <v>-31</v>
       </c>
-      <c r="M429" s="63">
-        <v>0</v>
-      </c>
-      <c r="N429" s="63">
-        <v>0</v>
-      </c>
-      <c r="O429" s="63" t="s">
+      <c r="M429" s="59">
+        <v>0</v>
+      </c>
+      <c r="N429" s="59">
+        <v>0</v>
+      </c>
+      <c r="O429" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P429" s="63">
+      <c r="P429" s="59">
         <v>4800</v>
       </c>
-      <c r="Q429" s="63" t="s">
+      <c r="Q429" s="59" t="s">
         <v>1440</v>
       </c>
-      <c r="R429" s="64" t="s">
+      <c r="R429" s="60" t="s">
         <v>1430</v>
       </c>
-      <c r="W429" s="63" t="s">
+      <c r="W429" s="59" t="s">
         <v>1422</v>
       </c>
-      <c r="X429" s="63">
+      <c r="X429" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y429" s="63">
+      <c r="Y429" s="59">
         <v>1585609200</v>
       </c>
-      <c r="Z429" s="63">
+      <c r="Z429" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH429" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI429" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="430" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A430" s="63">
+      <c r="AH429" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI429" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A430" s="59">
         <v>429</v>
       </c>
-      <c r="B430" s="63">
+      <c r="B430" s="59">
         <v>10346</v>
       </c>
-      <c r="F430" s="63">
-        <v>1</v>
-      </c>
-      <c r="G430" s="63" t="s">
+      <c r="F430" s="59">
+        <v>1</v>
+      </c>
+      <c r="G430" s="59" t="s">
         <v>1703</v>
       </c>
-      <c r="I430" s="63" t="s">
+      <c r="I430" s="59" t="s">
         <v>1704</v>
       </c>
-      <c r="J430" s="63" t="s">
+      <c r="J430" s="59" t="s">
         <v>1705</v>
       </c>
-      <c r="L430" s="63">
+      <c r="L430" s="59">
         <v>-28</v>
       </c>
-      <c r="M430" s="63">
-        <v>0</v>
-      </c>
-      <c r="N430" s="63">
-        <v>0</v>
-      </c>
-      <c r="O430" s="63" t="s">
+      <c r="M430" s="59">
+        <v>0</v>
+      </c>
+      <c r="N430" s="59">
+        <v>0</v>
+      </c>
+      <c r="O430" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P430" s="63">
+      <c r="P430" s="59">
         <v>100</v>
       </c>
-      <c r="Q430" s="63" t="s">
+      <c r="Q430" s="59" t="s">
         <v>1401</v>
       </c>
-      <c r="R430" s="64" t="s">
+      <c r="R430" s="60" t="s">
         <v>1706</v>
       </c>
-      <c r="W430" s="63" t="s">
+      <c r="W430" s="59" t="s">
         <v>1707</v>
       </c>
-      <c r="X430" s="63">
+      <c r="X430" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y430" s="63">
+      <c r="Y430" s="59">
         <v>1581377400</v>
       </c>
-      <c r="Z430" s="63">
+      <c r="Z430" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA430" s="63">
+      <c r="AA430" s="59">
         <v>14</v>
       </c>
-      <c r="AH430" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI430" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL430" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM430" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="431" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A431" s="63">
+      <c r="AH430" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI430" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL430" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM430" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A431" s="59">
         <v>430</v>
       </c>
-      <c r="B431" s="63">
+      <c r="B431" s="59">
         <v>10347</v>
       </c>
-      <c r="F431" s="63">
-        <v>1</v>
-      </c>
-      <c r="G431" s="63" t="s">
+      <c r="F431" s="59">
+        <v>1</v>
+      </c>
+      <c r="G431" s="59" t="s">
         <v>1703</v>
       </c>
-      <c r="I431" s="63" t="s">
+      <c r="I431" s="59" t="s">
         <v>1708</v>
       </c>
-      <c r="J431" s="63" t="s">
+      <c r="J431" s="59" t="s">
         <v>1709</v>
       </c>
-      <c r="L431" s="63">
+      <c r="L431" s="59">
         <v>-28</v>
       </c>
-      <c r="M431" s="63">
-        <v>0</v>
-      </c>
-      <c r="N431" s="63">
-        <v>0</v>
-      </c>
-      <c r="O431" s="63" t="s">
+      <c r="M431" s="59">
+        <v>0</v>
+      </c>
+      <c r="N431" s="59">
+        <v>0</v>
+      </c>
+      <c r="O431" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P431" s="63">
+      <c r="P431" s="59">
         <v>300</v>
       </c>
-      <c r="Q431" s="63" t="s">
+      <c r="Q431" s="59" t="s">
         <v>1401</v>
       </c>
-      <c r="R431" s="64" t="s">
+      <c r="R431" s="60" t="s">
         <v>1710</v>
       </c>
-      <c r="W431" s="63" t="s">
+      <c r="W431" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X431" s="63">
+      <c r="X431" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y431" s="63">
+      <c r="Y431" s="59">
         <v>1581377400</v>
       </c>
-      <c r="Z431" s="63">
+      <c r="Z431" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA431" s="63">
+      <c r="AA431" s="59">
         <v>14</v>
       </c>
-      <c r="AH431" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI431" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL431" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM431" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="432" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A432" s="63">
+      <c r="AH431" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI431" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL431" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM431" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A432" s="59">
         <v>431</v>
       </c>
-      <c r="B432" s="63">
+      <c r="B432" s="59">
         <v>10348</v>
       </c>
-      <c r="F432" s="63">
-        <v>1</v>
-      </c>
-      <c r="G432" s="63" t="s">
+      <c r="F432" s="59">
+        <v>1</v>
+      </c>
+      <c r="G432" s="59" t="s">
         <v>1703</v>
       </c>
-      <c r="I432" s="63" t="s">
+      <c r="I432" s="59" t="s">
         <v>1711</v>
       </c>
-      <c r="J432" s="63" t="s">
+      <c r="J432" s="59" t="s">
         <v>1712</v>
       </c>
-      <c r="L432" s="63">
+      <c r="L432" s="59">
         <v>-28</v>
       </c>
-      <c r="M432" s="63">
-        <v>0</v>
-      </c>
-      <c r="N432" s="63">
-        <v>0</v>
-      </c>
-      <c r="O432" s="63" t="s">
+      <c r="M432" s="59">
+        <v>0</v>
+      </c>
+      <c r="N432" s="59">
+        <v>0</v>
+      </c>
+      <c r="O432" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P432" s="63">
+      <c r="P432" s="59">
         <v>600</v>
       </c>
-      <c r="Q432" s="63" t="s">
+      <c r="Q432" s="59" t="s">
         <v>1401</v>
       </c>
-      <c r="R432" s="64" t="s">
+      <c r="R432" s="60" t="s">
         <v>1713</v>
       </c>
-      <c r="W432" s="63" t="s">
+      <c r="W432" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X432" s="63">
+      <c r="X432" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y432" s="63">
+      <c r="Y432" s="59">
         <v>1581377400</v>
       </c>
-      <c r="Z432" s="63">
+      <c r="Z432" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA432" s="63">
+      <c r="AA432" s="59">
         <v>14</v>
       </c>
-      <c r="AH432" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI432" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL432" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM432" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="433" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A433" s="63">
+      <c r="AH432" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI432" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL432" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM432" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A433" s="59">
         <v>432</v>
       </c>
-      <c r="B433" s="63">
+      <c r="B433" s="59">
         <v>10349</v>
       </c>
-      <c r="F433" s="63">
-        <v>1</v>
-      </c>
-      <c r="G433" s="63" t="s">
+      <c r="F433" s="59">
+        <v>1</v>
+      </c>
+      <c r="G433" s="59" t="s">
         <v>1703</v>
       </c>
-      <c r="I433" s="63" t="s">
+      <c r="I433" s="59" t="s">
         <v>1714</v>
       </c>
-      <c r="J433" s="63" t="s">
+      <c r="J433" s="59" t="s">
         <v>1715</v>
       </c>
-      <c r="L433" s="63">
+      <c r="L433" s="59">
         <v>-28</v>
       </c>
-      <c r="M433" s="63">
-        <v>0</v>
-      </c>
-      <c r="N433" s="63">
-        <v>0</v>
-      </c>
-      <c r="O433" s="63" t="s">
+      <c r="M433" s="59">
+        <v>0</v>
+      </c>
+      <c r="N433" s="59">
+        <v>0</v>
+      </c>
+      <c r="O433" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P433" s="63">
+      <c r="P433" s="59">
         <v>600</v>
       </c>
-      <c r="Q433" s="63" t="s">
+      <c r="Q433" s="59" t="s">
         <v>1716</v>
       </c>
-      <c r="R433" s="64" t="s">
+      <c r="R433" s="60" t="s">
         <v>1717</v>
       </c>
-      <c r="W433" s="63" t="s">
+      <c r="W433" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X433" s="63">
+      <c r="X433" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y433" s="63">
+      <c r="Y433" s="59">
         <v>1581377400</v>
       </c>
-      <c r="Z433" s="63">
+      <c r="Z433" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA433" s="63">
+      <c r="AA433" s="59">
         <v>14</v>
       </c>
-      <c r="AH433" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI433" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL433" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM433" s="63">
+      <c r="AH433" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI433" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL433" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM433" s="59">
         <v>1</v>
       </c>
     </row>
@@ -39838,1930 +39979,1930 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A447" s="63">
+    <row r="447" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A447" s="59">
         <v>446</v>
       </c>
-      <c r="B447" s="63">
+      <c r="B447" s="59">
         <v>10363</v>
       </c>
-      <c r="F447" s="63">
-        <v>1</v>
-      </c>
-      <c r="G447" s="63" t="s">
+      <c r="F447" s="59">
+        <v>1</v>
+      </c>
+      <c r="G447" s="59" t="s">
         <v>1499</v>
       </c>
-      <c r="I447" s="63" t="s">
+      <c r="I447" s="59" t="s">
         <v>1500</v>
       </c>
-      <c r="J447" s="63" t="s">
+      <c r="J447" s="59" t="s">
         <v>1501</v>
       </c>
-      <c r="L447" s="63">
+      <c r="L447" s="59">
         <v>-31</v>
       </c>
-      <c r="M447" s="63">
-        <v>0</v>
-      </c>
-      <c r="N447" s="63">
-        <v>0</v>
-      </c>
-      <c r="O447" s="63" t="s">
+      <c r="M447" s="59">
+        <v>0</v>
+      </c>
+      <c r="N447" s="59">
+        <v>0</v>
+      </c>
+      <c r="O447" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P447" s="63">
+      <c r="P447" s="59">
         <v>800</v>
       </c>
-      <c r="Q447" s="63" t="s">
+      <c r="Q447" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R447" s="64" t="s">
+      <c r="R447" s="60" t="s">
         <v>1503</v>
       </c>
-      <c r="W447" s="63" t="s">
+      <c r="W447" s="59" t="s">
         <v>1156</v>
       </c>
-      <c r="X447" s="63">
+      <c r="X447" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y447" s="63">
+      <c r="Y447" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z447" s="63">
+      <c r="Z447" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA447" s="63">
+      <c r="AA447" s="59">
         <v>52</v>
       </c>
-      <c r="AH447" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI447" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL447" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM447" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="448" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A448" s="63">
+      <c r="AH447" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI447" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL447" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM447" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A448" s="59">
         <v>447</v>
       </c>
-      <c r="B448" s="63">
+      <c r="B448" s="59">
         <v>10364</v>
       </c>
-      <c r="F448" s="63">
-        <v>1</v>
-      </c>
-      <c r="G448" s="63" t="s">
+      <c r="F448" s="59">
+        <v>1</v>
+      </c>
+      <c r="G448" s="59" t="s">
         <v>1504</v>
       </c>
-      <c r="I448" s="63" t="s">
+      <c r="I448" s="59" t="s">
         <v>1505</v>
       </c>
-      <c r="J448" s="63" t="s">
+      <c r="J448" s="59" t="s">
         <v>1506</v>
       </c>
-      <c r="L448" s="63">
+      <c r="L448" s="59">
         <v>-31</v>
       </c>
-      <c r="M448" s="63">
-        <v>0</v>
-      </c>
-      <c r="N448" s="63">
-        <v>0</v>
-      </c>
-      <c r="O448" s="63" t="s">
+      <c r="M448" s="59">
+        <v>0</v>
+      </c>
+      <c r="N448" s="59">
+        <v>0</v>
+      </c>
+      <c r="O448" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P448" s="63">
+      <c r="P448" s="59">
         <v>800</v>
       </c>
-      <c r="Q448" s="63" t="s">
+      <c r="Q448" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R448" s="64" t="s">
+      <c r="R448" s="60" t="s">
         <v>1507</v>
       </c>
-      <c r="W448" s="63" t="s">
+      <c r="W448" s="59" t="s">
         <v>1508</v>
       </c>
-      <c r="X448" s="63">
+      <c r="X448" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y448" s="63">
+      <c r="Y448" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z448" s="63">
+      <c r="Z448" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH448" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI448" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL448" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM448" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="449" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A449" s="63">
+      <c r="AH448" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI448" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL448" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM448" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A449" s="59">
         <v>448</v>
       </c>
-      <c r="B449" s="63">
+      <c r="B449" s="59">
         <v>10365</v>
       </c>
-      <c r="F449" s="63">
-        <v>1</v>
-      </c>
-      <c r="G449" s="63" t="s">
+      <c r="F449" s="59">
+        <v>1</v>
+      </c>
+      <c r="G449" s="59" t="s">
         <v>1509</v>
       </c>
-      <c r="I449" s="63" t="s">
+      <c r="I449" s="59" t="s">
         <v>1510</v>
       </c>
-      <c r="J449" s="63" t="s">
+      <c r="J449" s="59" t="s">
         <v>1511</v>
       </c>
-      <c r="L449" s="63">
+      <c r="L449" s="59">
         <v>-31</v>
       </c>
-      <c r="M449" s="63">
-        <v>0</v>
-      </c>
-      <c r="N449" s="63">
-        <v>0</v>
-      </c>
-      <c r="O449" s="63" t="s">
+      <c r="M449" s="59">
+        <v>0</v>
+      </c>
+      <c r="N449" s="59">
+        <v>0</v>
+      </c>
+      <c r="O449" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P449" s="63">
+      <c r="P449" s="59">
         <v>800</v>
       </c>
-      <c r="Q449" s="63" t="s">
+      <c r="Q449" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R449" s="64" t="s">
+      <c r="R449" s="60" t="s">
         <v>1512</v>
       </c>
-      <c r="W449" s="63" t="s">
+      <c r="W449" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X449" s="63">
+      <c r="X449" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y449" s="63">
+      <c r="Y449" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z449" s="63">
+      <c r="Z449" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA449" s="63">
+      <c r="AA449" s="59">
         <v>53</v>
       </c>
-      <c r="AH449" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI449" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL449" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM449" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="450" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A450" s="63">
+      <c r="AH449" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI449" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL449" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM449" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A450" s="59">
         <v>449</v>
       </c>
-      <c r="B450" s="63">
+      <c r="B450" s="59">
         <v>10366</v>
       </c>
-      <c r="F450" s="63">
-        <v>1</v>
-      </c>
-      <c r="G450" s="63" t="s">
+      <c r="F450" s="59">
+        <v>1</v>
+      </c>
+      <c r="G450" s="59" t="s">
         <v>1513</v>
       </c>
-      <c r="I450" s="63" t="s">
+      <c r="I450" s="59" t="s">
         <v>1514</v>
       </c>
-      <c r="J450" s="63" t="s">
+      <c r="J450" s="59" t="s">
         <v>1515</v>
       </c>
-      <c r="L450" s="63">
+      <c r="L450" s="59">
         <v>-31</v>
       </c>
-      <c r="M450" s="63">
-        <v>0</v>
-      </c>
-      <c r="N450" s="63">
-        <v>0</v>
-      </c>
-      <c r="O450" s="63" t="s">
+      <c r="M450" s="59">
+        <v>0</v>
+      </c>
+      <c r="N450" s="59">
+        <v>0</v>
+      </c>
+      <c r="O450" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P450" s="63">
+      <c r="P450" s="59">
         <v>3800</v>
       </c>
-      <c r="Q450" s="63" t="s">
+      <c r="Q450" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R450" s="64" t="s">
+      <c r="R450" s="60" t="s">
         <v>1516</v>
       </c>
-      <c r="W450" s="63" t="s">
+      <c r="W450" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X450" s="63">
+      <c r="X450" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y450" s="63">
+      <c r="Y450" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z450" s="63">
+      <c r="Z450" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA450" s="63">
+      <c r="AA450" s="59">
         <v>54</v>
       </c>
-      <c r="AH450" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI450" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL450" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM450" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="451" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A451" s="63">
+      <c r="AH450" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI450" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL450" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM450" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A451" s="59">
         <v>450</v>
       </c>
-      <c r="B451" s="63">
+      <c r="B451" s="59">
         <v>10367</v>
       </c>
-      <c r="F451" s="63">
-        <v>1</v>
-      </c>
-      <c r="G451" s="63" t="s">
+      <c r="F451" s="59">
+        <v>1</v>
+      </c>
+      <c r="G451" s="59" t="s">
         <v>1517</v>
       </c>
-      <c r="I451" s="63" t="s">
+      <c r="I451" s="59" t="s">
         <v>1518</v>
       </c>
-      <c r="J451" s="63" t="s">
+      <c r="J451" s="59" t="s">
         <v>1519</v>
       </c>
-      <c r="L451" s="63">
+      <c r="L451" s="59">
         <v>-31</v>
       </c>
-      <c r="M451" s="63">
-        <v>0</v>
-      </c>
-      <c r="N451" s="63">
-        <v>0</v>
-      </c>
-      <c r="O451" s="63" t="s">
+      <c r="M451" s="59">
+        <v>0</v>
+      </c>
+      <c r="N451" s="59">
+        <v>0</v>
+      </c>
+      <c r="O451" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P451" s="63">
+      <c r="P451" s="59">
         <v>3800</v>
       </c>
-      <c r="Q451" s="63" t="s">
+      <c r="Q451" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R451" s="64" t="s">
+      <c r="R451" s="60" t="s">
         <v>1520</v>
       </c>
-      <c r="W451" s="63" t="s">
+      <c r="W451" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X451" s="63">
+      <c r="X451" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y451" s="63">
+      <c r="Y451" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z451" s="63">
+      <c r="Z451" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH451" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI451" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL451" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM451" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="452" spans="1:39" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A452" s="63">
+      <c r="AH451" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI451" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL451" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM451" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:39" s="59" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A452" s="59">
         <v>451</v>
       </c>
-      <c r="B452" s="63">
+      <c r="B452" s="59">
         <v>10368</v>
       </c>
-      <c r="F452" s="63">
-        <v>1</v>
-      </c>
-      <c r="G452" s="63" t="s">
+      <c r="F452" s="59">
+        <v>1</v>
+      </c>
+      <c r="G452" s="59" t="s">
         <v>1521</v>
       </c>
-      <c r="I452" s="63" t="s">
+      <c r="I452" s="59" t="s">
         <v>1522</v>
       </c>
-      <c r="J452" s="63" t="s">
+      <c r="J452" s="59" t="s">
         <v>1523</v>
       </c>
-      <c r="L452" s="63">
+      <c r="L452" s="59">
         <v>-31</v>
       </c>
-      <c r="M452" s="63">
-        <v>0</v>
-      </c>
-      <c r="N452" s="63">
-        <v>0</v>
-      </c>
-      <c r="O452" s="63" t="s">
+      <c r="M452" s="59">
+        <v>0</v>
+      </c>
+      <c r="N452" s="59">
+        <v>0</v>
+      </c>
+      <c r="O452" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P452" s="63">
+      <c r="P452" s="59">
         <v>3800</v>
       </c>
-      <c r="Q452" s="63" t="s">
+      <c r="Q452" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R452" s="64" t="s">
+      <c r="R452" s="60" t="s">
         <v>1524</v>
       </c>
-      <c r="W452" s="63" t="s">
+      <c r="W452" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X452" s="63">
+      <c r="X452" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y452" s="63">
+      <c r="Y452" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z452" s="63">
+      <c r="Z452" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA452" s="63">
+      <c r="AA452" s="59">
         <v>55</v>
       </c>
-      <c r="AH452" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI452" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL452" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM452" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="453" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A453" s="63">
+      <c r="AH452" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI452" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL452" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM452" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A453" s="59">
         <v>452</v>
       </c>
-      <c r="B453" s="63">
+      <c r="B453" s="59">
         <v>10369</v>
       </c>
-      <c r="F453" s="63">
-        <v>1</v>
-      </c>
-      <c r="G453" s="63" t="s">
+      <c r="F453" s="59">
+        <v>1</v>
+      </c>
+      <c r="G453" s="59" t="s">
         <v>1525</v>
       </c>
-      <c r="I453" s="63" t="s">
+      <c r="I453" s="59" t="s">
         <v>1526</v>
       </c>
-      <c r="J453" s="63" t="s">
+      <c r="J453" s="59" t="s">
         <v>1527</v>
       </c>
-      <c r="L453" s="63">
+      <c r="L453" s="59">
         <v>-31</v>
       </c>
-      <c r="M453" s="63">
-        <v>0</v>
-      </c>
-      <c r="N453" s="63">
-        <v>0</v>
-      </c>
-      <c r="O453" s="63" t="s">
+      <c r="M453" s="59">
+        <v>0</v>
+      </c>
+      <c r="N453" s="59">
+        <v>0</v>
+      </c>
+      <c r="O453" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P453" s="63">
+      <c r="P453" s="59">
         <v>9800</v>
       </c>
-      <c r="Q453" s="63" t="s">
+      <c r="Q453" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R453" s="64" t="s">
+      <c r="R453" s="60" t="s">
         <v>1528</v>
       </c>
-      <c r="W453" s="63" t="s">
+      <c r="W453" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X453" s="63">
+      <c r="X453" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y453" s="63">
+      <c r="Y453" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z453" s="63">
+      <c r="Z453" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA453" s="63">
+      <c r="AA453" s="59">
         <v>56</v>
       </c>
-      <c r="AH453" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI453" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL453" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM453" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="454" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A454" s="63">
+      <c r="AH453" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI453" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL453" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM453" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A454" s="59">
         <v>453</v>
       </c>
-      <c r="B454" s="63">
+      <c r="B454" s="59">
         <v>10370</v>
       </c>
-      <c r="F454" s="63">
-        <v>1</v>
-      </c>
-      <c r="G454" s="63" t="s">
+      <c r="F454" s="59">
+        <v>1</v>
+      </c>
+      <c r="G454" s="59" t="s">
         <v>1529</v>
       </c>
-      <c r="I454" s="63" t="s">
+      <c r="I454" s="59" t="s">
         <v>1530</v>
       </c>
-      <c r="J454" s="63" t="s">
+      <c r="J454" s="59" t="s">
         <v>1531</v>
       </c>
-      <c r="L454" s="63">
+      <c r="L454" s="59">
         <v>-31</v>
       </c>
-      <c r="M454" s="63">
-        <v>0</v>
-      </c>
-      <c r="N454" s="63">
-        <v>0</v>
-      </c>
-      <c r="O454" s="63" t="s">
+      <c r="M454" s="59">
+        <v>0</v>
+      </c>
+      <c r="N454" s="59">
+        <v>0</v>
+      </c>
+      <c r="O454" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P454" s="63">
+      <c r="P454" s="59">
         <v>9800</v>
       </c>
-      <c r="Q454" s="63" t="s">
+      <c r="Q454" s="59" t="s">
         <v>991</v>
       </c>
-      <c r="R454" s="64" t="s">
+      <c r="R454" s="60" t="s">
         <v>1532</v>
       </c>
-      <c r="W454" s="63" t="s">
+      <c r="W454" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X454" s="63">
+      <c r="X454" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y454" s="63">
+      <c r="Y454" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z454" s="63">
+      <c r="Z454" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH454" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI454" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL454" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM454" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="455" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A455" s="63">
+      <c r="AH454" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI454" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL454" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM454" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A455" s="59">
         <v>454</v>
       </c>
-      <c r="B455" s="63">
+      <c r="B455" s="59">
         <v>10371</v>
       </c>
-      <c r="F455" s="63">
-        <v>1</v>
-      </c>
-      <c r="G455" s="63" t="s">
+      <c r="F455" s="59">
+        <v>1</v>
+      </c>
+      <c r="G455" s="59" t="s">
         <v>1533</v>
       </c>
-      <c r="I455" s="63" t="s">
+      <c r="I455" s="59" t="s">
         <v>1534</v>
       </c>
-      <c r="J455" s="63" t="s">
+      <c r="J455" s="59" t="s">
         <v>1535</v>
       </c>
-      <c r="L455" s="63">
+      <c r="L455" s="59">
         <v>-31</v>
       </c>
-      <c r="M455" s="63">
-        <v>0</v>
-      </c>
-      <c r="N455" s="63">
-        <v>0</v>
-      </c>
-      <c r="O455" s="63" t="s">
+      <c r="M455" s="59">
+        <v>0</v>
+      </c>
+      <c r="N455" s="59">
+        <v>0</v>
+      </c>
+      <c r="O455" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P455" s="63">
+      <c r="P455" s="59">
         <v>9800</v>
       </c>
-      <c r="Q455" s="63" t="s">
+      <c r="Q455" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R455" s="64" t="s">
+      <c r="R455" s="60" t="s">
         <v>1668</v>
       </c>
-      <c r="W455" s="63" t="s">
+      <c r="W455" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X455" s="63">
+      <c r="X455" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y455" s="63">
+      <c r="Y455" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z455" s="63">
+      <c r="Z455" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA455" s="63">
+      <c r="AA455" s="59">
         <v>57</v>
       </c>
-      <c r="AH455" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI455" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL455" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM455" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="456" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A456" s="63">
+      <c r="AH455" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI455" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL455" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM455" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A456" s="59">
         <v>455</v>
       </c>
-      <c r="B456" s="63">
+      <c r="B456" s="59">
         <v>10372</v>
       </c>
-      <c r="F456" s="63">
-        <v>1</v>
-      </c>
-      <c r="G456" s="63" t="s">
+      <c r="F456" s="59">
+        <v>1</v>
+      </c>
+      <c r="G456" s="59" t="s">
         <v>1536</v>
       </c>
-      <c r="I456" s="63" t="s">
+      <c r="I456" s="59" t="s">
         <v>1537</v>
       </c>
-      <c r="J456" s="63" t="s">
+      <c r="J456" s="59" t="s">
         <v>1538</v>
       </c>
-      <c r="L456" s="63">
+      <c r="L456" s="59">
         <v>-31</v>
       </c>
-      <c r="M456" s="63">
-        <v>0</v>
-      </c>
-      <c r="N456" s="63">
-        <v>0</v>
-      </c>
-      <c r="O456" s="63" t="s">
+      <c r="M456" s="59">
+        <v>0</v>
+      </c>
+      <c r="N456" s="59">
+        <v>0</v>
+      </c>
+      <c r="O456" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P456" s="63">
+      <c r="P456" s="59">
         <v>19800</v>
       </c>
-      <c r="Q456" s="63" t="s">
+      <c r="Q456" s="59" t="s">
         <v>991</v>
       </c>
-      <c r="R456" s="64" t="s">
+      <c r="R456" s="60" t="s">
         <v>1539</v>
       </c>
-      <c r="W456" s="63" t="s">
+      <c r="W456" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X456" s="63">
+      <c r="X456" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y456" s="63">
+      <c r="Y456" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z456" s="63">
+      <c r="Z456" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA456" s="63">
+      <c r="AA456" s="59">
         <v>58</v>
       </c>
-      <c r="AH456" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI456" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL456" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM456" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="457" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A457" s="63">
+      <c r="AH456" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI456" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL456" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM456" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="59">
         <v>456</v>
       </c>
-      <c r="B457" s="63">
+      <c r="B457" s="59">
         <v>10373</v>
       </c>
-      <c r="F457" s="63">
-        <v>1</v>
-      </c>
-      <c r="G457" s="63" t="s">
+      <c r="F457" s="59">
+        <v>1</v>
+      </c>
+      <c r="G457" s="59" t="s">
         <v>1540</v>
       </c>
-      <c r="I457" s="63" t="s">
+      <c r="I457" s="59" t="s">
         <v>1541</v>
       </c>
-      <c r="J457" s="63" t="s">
+      <c r="J457" s="59" t="s">
         <v>1542</v>
       </c>
-      <c r="L457" s="63">
+      <c r="L457" s="59">
         <v>-31</v>
       </c>
-      <c r="M457" s="63">
-        <v>0</v>
-      </c>
-      <c r="N457" s="63">
-        <v>0</v>
-      </c>
-      <c r="O457" s="63" t="s">
+      <c r="M457" s="59">
+        <v>0</v>
+      </c>
+      <c r="N457" s="59">
+        <v>0</v>
+      </c>
+      <c r="O457" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P457" s="63">
+      <c r="P457" s="59">
         <v>19800</v>
       </c>
-      <c r="Q457" s="63" t="s">
+      <c r="Q457" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R457" s="64" t="s">
+      <c r="R457" s="60" t="s">
         <v>1543</v>
       </c>
-      <c r="W457" s="63" t="s">
+      <c r="W457" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X457" s="63">
+      <c r="X457" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y457" s="63">
+      <c r="Y457" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z457" s="63">
+      <c r="Z457" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH457" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI457" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL457" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM457" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="458" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A458" s="63">
+      <c r="AH457" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI457" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL457" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM457" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A458" s="59">
         <v>457</v>
       </c>
-      <c r="B458" s="63">
+      <c r="B458" s="59">
         <v>10374</v>
       </c>
-      <c r="F458" s="63">
-        <v>1</v>
-      </c>
-      <c r="G458" s="63" t="s">
+      <c r="F458" s="59">
+        <v>1</v>
+      </c>
+      <c r="G458" s="59" t="s">
         <v>1544</v>
       </c>
-      <c r="I458" s="63" t="s">
+      <c r="I458" s="59" t="s">
         <v>1545</v>
       </c>
-      <c r="J458" s="63" t="s">
+      <c r="J458" s="59" t="s">
         <v>1546</v>
       </c>
-      <c r="L458" s="63">
+      <c r="L458" s="59">
         <v>-31</v>
       </c>
-      <c r="M458" s="63">
-        <v>0</v>
-      </c>
-      <c r="N458" s="63">
-        <v>0</v>
-      </c>
-      <c r="O458" s="63" t="s">
+      <c r="M458" s="59">
+        <v>0</v>
+      </c>
+      <c r="N458" s="59">
+        <v>0</v>
+      </c>
+      <c r="O458" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P458" s="63">
+      <c r="P458" s="59">
         <v>19800</v>
       </c>
-      <c r="Q458" s="63" t="s">
+      <c r="Q458" s="59" t="s">
         <v>991</v>
       </c>
-      <c r="R458" s="64" t="s">
+      <c r="R458" s="60" t="s">
         <v>1547</v>
       </c>
-      <c r="W458" s="63" t="s">
+      <c r="W458" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X458" s="63">
+      <c r="X458" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y458" s="63">
+      <c r="Y458" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z458" s="63">
+      <c r="Z458" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA458" s="63">
+      <c r="AA458" s="59">
         <v>59</v>
       </c>
-      <c r="AH458" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI458" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL458" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM458" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="459" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A459" s="63">
+      <c r="AH458" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI458" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL458" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM458" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A459" s="59">
         <v>458</v>
       </c>
-      <c r="B459" s="63">
+      <c r="B459" s="59">
         <v>10375</v>
       </c>
-      <c r="F459" s="63">
-        <v>1</v>
-      </c>
-      <c r="G459" s="63" t="s">
+      <c r="F459" s="59">
+        <v>1</v>
+      </c>
+      <c r="G459" s="59" t="s">
         <v>1548</v>
       </c>
-      <c r="I459" s="63" t="s">
+      <c r="I459" s="59" t="s">
         <v>1549</v>
       </c>
-      <c r="J459" s="63" t="s">
+      <c r="J459" s="59" t="s">
         <v>1550</v>
       </c>
-      <c r="L459" s="63">
+      <c r="L459" s="59">
         <v>-31</v>
       </c>
-      <c r="M459" s="63">
-        <v>0</v>
-      </c>
-      <c r="N459" s="63">
-        <v>0</v>
-      </c>
-      <c r="O459" s="63" t="s">
+      <c r="M459" s="59">
+        <v>0</v>
+      </c>
+      <c r="N459" s="59">
+        <v>0</v>
+      </c>
+      <c r="O459" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P459" s="63">
+      <c r="P459" s="59">
         <v>49800</v>
       </c>
-      <c r="Q459" s="63" t="s">
+      <c r="Q459" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R459" s="64" t="s">
+      <c r="R459" s="60" t="s">
         <v>1551</v>
       </c>
-      <c r="W459" s="63" t="s">
+      <c r="W459" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X459" s="63">
+      <c r="X459" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y459" s="63">
+      <c r="Y459" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z459" s="63">
+      <c r="Z459" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA459" s="63">
+      <c r="AA459" s="59">
         <v>60</v>
       </c>
-      <c r="AH459" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI459" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL459" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM459" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="460" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A460" s="63">
+      <c r="AH459" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI459" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL459" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM459" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A460" s="59">
         <v>459</v>
       </c>
-      <c r="B460" s="63">
+      <c r="B460" s="59">
         <v>10376</v>
       </c>
-      <c r="F460" s="63">
-        <v>1</v>
-      </c>
-      <c r="G460" s="63" t="s">
+      <c r="F460" s="59">
+        <v>1</v>
+      </c>
+      <c r="G460" s="59" t="s">
         <v>1552</v>
       </c>
-      <c r="I460" s="63" t="s">
+      <c r="I460" s="59" t="s">
         <v>1553</v>
       </c>
-      <c r="J460" s="63" t="s">
+      <c r="J460" s="59" t="s">
         <v>1554</v>
       </c>
-      <c r="L460" s="63">
+      <c r="L460" s="59">
         <v>-31</v>
       </c>
-      <c r="M460" s="63">
-        <v>0</v>
-      </c>
-      <c r="N460" s="63">
-        <v>0</v>
-      </c>
-      <c r="O460" s="63" t="s">
+      <c r="M460" s="59">
+        <v>0</v>
+      </c>
+      <c r="N460" s="59">
+        <v>0</v>
+      </c>
+      <c r="O460" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P460" s="63">
+      <c r="P460" s="59">
         <v>49800</v>
       </c>
-      <c r="Q460" s="63" t="s">
+      <c r="Q460" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R460" s="64" t="s">
+      <c r="R460" s="60" t="s">
         <v>1555</v>
       </c>
-      <c r="W460" s="63" t="s">
+      <c r="W460" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X460" s="63">
+      <c r="X460" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y460" s="63">
+      <c r="Y460" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z460" s="63">
+      <c r="Z460" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH460" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI460" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL460" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM460" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="461" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A461" s="63">
+      <c r="AH460" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI460" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL460" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM460" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A461" s="59">
         <v>460</v>
       </c>
-      <c r="B461" s="63">
+      <c r="B461" s="59">
         <v>10377</v>
       </c>
-      <c r="F461" s="63">
-        <v>1</v>
-      </c>
-      <c r="G461" s="63" t="s">
+      <c r="F461" s="59">
+        <v>1</v>
+      </c>
+      <c r="G461" s="59" t="s">
         <v>1556</v>
       </c>
-      <c r="I461" s="63" t="s">
+      <c r="I461" s="59" t="s">
         <v>1557</v>
       </c>
-      <c r="J461" s="63" t="s">
+      <c r="J461" s="59" t="s">
         <v>1558</v>
       </c>
-      <c r="L461" s="63">
+      <c r="L461" s="59">
         <v>-31</v>
       </c>
-      <c r="M461" s="63">
-        <v>0</v>
-      </c>
-      <c r="N461" s="63">
-        <v>0</v>
-      </c>
-      <c r="O461" s="63" t="s">
+      <c r="M461" s="59">
+        <v>0</v>
+      </c>
+      <c r="N461" s="59">
+        <v>0</v>
+      </c>
+      <c r="O461" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P461" s="63">
+      <c r="P461" s="59">
         <v>49800</v>
       </c>
-      <c r="Q461" s="63" t="s">
+      <c r="Q461" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R461" s="64" t="s">
+      <c r="R461" s="60" t="s">
         <v>1559</v>
       </c>
-      <c r="W461" s="63" t="s">
+      <c r="W461" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X461" s="63">
+      <c r="X461" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y461" s="63">
+      <c r="Y461" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z461" s="63">
+      <c r="Z461" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA461" s="63">
+      <c r="AA461" s="59">
         <v>61</v>
       </c>
-      <c r="AH461" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI461" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL461" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM461" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="462" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A462" s="63">
+      <c r="AH461" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI461" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL461" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM461" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A462" s="59">
         <v>461</v>
       </c>
-      <c r="B462" s="63">
+      <c r="B462" s="59">
         <v>10378</v>
       </c>
-      <c r="F462" s="63">
-        <v>1</v>
-      </c>
-      <c r="G462" s="63" t="s">
+      <c r="F462" s="59">
+        <v>1</v>
+      </c>
+      <c r="G462" s="59" t="s">
         <v>1560</v>
       </c>
-      <c r="I462" s="63" t="s">
+      <c r="I462" s="59" t="s">
         <v>1561</v>
       </c>
-      <c r="J462" s="63" t="s">
+      <c r="J462" s="59" t="s">
         <v>1562</v>
       </c>
-      <c r="L462" s="63">
+      <c r="L462" s="59">
         <v>-31</v>
       </c>
-      <c r="M462" s="63">
-        <v>0</v>
-      </c>
-      <c r="N462" s="63">
-        <v>0</v>
-      </c>
-      <c r="O462" s="63" t="s">
+      <c r="M462" s="59">
+        <v>0</v>
+      </c>
+      <c r="N462" s="59">
+        <v>0</v>
+      </c>
+      <c r="O462" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P462" s="63">
+      <c r="P462" s="59">
         <v>99800</v>
       </c>
-      <c r="Q462" s="63" t="s">
+      <c r="Q462" s="59" t="s">
         <v>991</v>
       </c>
-      <c r="R462" s="64" t="s">
+      <c r="R462" s="60" t="s">
         <v>1563</v>
       </c>
-      <c r="W462" s="63" t="s">
+      <c r="W462" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X462" s="63">
+      <c r="X462" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y462" s="63">
+      <c r="Y462" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z462" s="63">
+      <c r="Z462" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA462" s="63">
+      <c r="AA462" s="59">
         <v>62</v>
       </c>
-      <c r="AH462" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI462" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL462" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM462" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="463" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A463" s="63">
+      <c r="AH462" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI462" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL462" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM462" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A463" s="59">
         <v>462</v>
       </c>
-      <c r="B463" s="63">
+      <c r="B463" s="59">
         <v>10379</v>
       </c>
-      <c r="F463" s="63">
-        <v>1</v>
-      </c>
-      <c r="G463" s="63" t="s">
+      <c r="F463" s="59">
+        <v>1</v>
+      </c>
+      <c r="G463" s="59" t="s">
         <v>1564</v>
       </c>
-      <c r="I463" s="63" t="s">
+      <c r="I463" s="59" t="s">
         <v>1565</v>
       </c>
-      <c r="J463" s="63" t="s">
+      <c r="J463" s="59" t="s">
         <v>1566</v>
       </c>
-      <c r="L463" s="63">
+      <c r="L463" s="59">
         <v>-31</v>
       </c>
-      <c r="M463" s="63">
-        <v>0</v>
-      </c>
-      <c r="N463" s="63">
-        <v>0</v>
-      </c>
-      <c r="O463" s="63" t="s">
+      <c r="M463" s="59">
+        <v>0</v>
+      </c>
+      <c r="N463" s="59">
+        <v>0</v>
+      </c>
+      <c r="O463" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P463" s="63">
+      <c r="P463" s="59">
         <v>99800</v>
       </c>
-      <c r="Q463" s="63" t="s">
+      <c r="Q463" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R463" s="64" t="s">
+      <c r="R463" s="60" t="s">
         <v>1567</v>
       </c>
-      <c r="W463" s="63" t="s">
+      <c r="W463" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X463" s="63">
+      <c r="X463" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y463" s="63">
+      <c r="Y463" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z463" s="63">
+      <c r="Z463" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH463" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI463" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL463" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM463" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="464" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A464" s="63">
+      <c r="AH463" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI463" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL463" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM463" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="59">
         <v>463</v>
       </c>
-      <c r="B464" s="63">
+      <c r="B464" s="59">
         <v>10380</v>
       </c>
-      <c r="F464" s="63">
-        <v>1</v>
-      </c>
-      <c r="G464" s="63" t="s">
+      <c r="F464" s="59">
+        <v>1</v>
+      </c>
+      <c r="G464" s="59" t="s">
         <v>1568</v>
       </c>
-      <c r="I464" s="63" t="s">
+      <c r="I464" s="59" t="s">
         <v>1569</v>
       </c>
-      <c r="J464" s="63" t="s">
+      <c r="J464" s="59" t="s">
         <v>1570</v>
       </c>
-      <c r="L464" s="63">
+      <c r="L464" s="59">
         <v>-31</v>
       </c>
-      <c r="M464" s="63">
-        <v>0</v>
-      </c>
-      <c r="N464" s="63">
-        <v>0</v>
-      </c>
-      <c r="O464" s="63" t="s">
+      <c r="M464" s="59">
+        <v>0</v>
+      </c>
+      <c r="N464" s="59">
+        <v>0</v>
+      </c>
+      <c r="O464" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P464" s="63">
+      <c r="P464" s="59">
         <v>99800</v>
       </c>
-      <c r="Q464" s="63" t="s">
+      <c r="Q464" s="59" t="s">
         <v>991</v>
       </c>
-      <c r="R464" s="64" t="s">
+      <c r="R464" s="60" t="s">
         <v>1571</v>
       </c>
-      <c r="W464" s="63" t="s">
+      <c r="W464" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X464" s="63">
+      <c r="X464" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y464" s="63">
+      <c r="Y464" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z464" s="63">
+      <c r="Z464" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA464" s="63">
+      <c r="AA464" s="59">
         <v>63</v>
       </c>
-      <c r="AH464" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI464" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL464" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM464" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="465" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A465" s="63">
+      <c r="AH464" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI464" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL464" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM464" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A465" s="59">
         <v>464</v>
       </c>
-      <c r="B465" s="63">
+      <c r="B465" s="59">
         <v>10381</v>
       </c>
-      <c r="F465" s="63">
-        <v>1</v>
-      </c>
-      <c r="G465" s="63" t="s">
+      <c r="F465" s="59">
+        <v>1</v>
+      </c>
+      <c r="G465" s="59" t="s">
         <v>1572</v>
       </c>
-      <c r="I465" s="63" t="s">
+      <c r="I465" s="59" t="s">
         <v>1573</v>
       </c>
-      <c r="J465" s="63" t="s">
+      <c r="J465" s="59" t="s">
         <v>1574</v>
       </c>
-      <c r="L465" s="63">
+      <c r="L465" s="59">
         <v>-31</v>
       </c>
-      <c r="M465" s="63">
-        <v>0</v>
-      </c>
-      <c r="N465" s="63">
-        <v>0</v>
-      </c>
-      <c r="O465" s="63" t="s">
+      <c r="M465" s="59">
+        <v>0</v>
+      </c>
+      <c r="N465" s="59">
+        <v>0</v>
+      </c>
+      <c r="O465" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P465" s="63">
+      <c r="P465" s="59">
         <v>249800</v>
       </c>
-      <c r="Q465" s="63" t="s">
+      <c r="Q465" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R465" s="64" t="s">
+      <c r="R465" s="60" t="s">
         <v>1575</v>
       </c>
-      <c r="W465" s="63" t="s">
+      <c r="W465" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X465" s="63">
+      <c r="X465" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y465" s="63">
+      <c r="Y465" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z465" s="63">
+      <c r="Z465" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA465" s="63">
+      <c r="AA465" s="59">
         <v>64</v>
       </c>
-      <c r="AH465" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI465" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL465" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM465" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="466" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A466" s="63">
+      <c r="AH465" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI465" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL465" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM465" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A466" s="59">
         <v>465</v>
       </c>
-      <c r="B466" s="63">
+      <c r="B466" s="59">
         <v>10382</v>
       </c>
-      <c r="F466" s="63">
-        <v>1</v>
-      </c>
-      <c r="G466" s="63" t="s">
+      <c r="F466" s="59">
+        <v>1</v>
+      </c>
+      <c r="G466" s="59" t="s">
         <v>1576</v>
       </c>
-      <c r="I466" s="63" t="s">
+      <c r="I466" s="59" t="s">
         <v>1577</v>
       </c>
-      <c r="J466" s="63" t="s">
+      <c r="J466" s="59" t="s">
         <v>1578</v>
       </c>
-      <c r="L466" s="63">
+      <c r="L466" s="59">
         <v>-31</v>
       </c>
-      <c r="M466" s="63">
-        <v>0</v>
-      </c>
-      <c r="N466" s="63">
-        <v>0</v>
-      </c>
-      <c r="O466" s="63" t="s">
+      <c r="M466" s="59">
+        <v>0</v>
+      </c>
+      <c r="N466" s="59">
+        <v>0</v>
+      </c>
+      <c r="O466" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P466" s="63">
+      <c r="P466" s="59">
         <v>249800</v>
       </c>
-      <c r="Q466" s="63" t="s">
+      <c r="Q466" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R466" s="64" t="s">
+      <c r="R466" s="60" t="s">
         <v>1579</v>
       </c>
-      <c r="W466" s="63" t="s">
+      <c r="W466" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X466" s="63">
+      <c r="X466" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y466" s="63">
+      <c r="Y466" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z466" s="63">
+      <c r="Z466" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH466" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI466" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL466" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM466" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="467" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A467" s="63">
+      <c r="AH466" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI466" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL466" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM466" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="59">
         <v>466</v>
       </c>
-      <c r="B467" s="63">
+      <c r="B467" s="59">
         <v>10383</v>
       </c>
-      <c r="F467" s="63">
-        <v>1</v>
-      </c>
-      <c r="G467" s="63" t="s">
+      <c r="F467" s="59">
+        <v>1</v>
+      </c>
+      <c r="G467" s="59" t="s">
         <v>1580</v>
       </c>
-      <c r="I467" s="63" t="s">
+      <c r="I467" s="59" t="s">
         <v>1581</v>
       </c>
-      <c r="J467" s="63" t="s">
+      <c r="J467" s="59" t="s">
         <v>1582</v>
       </c>
-      <c r="L467" s="63">
+      <c r="L467" s="59">
         <v>-31</v>
       </c>
-      <c r="M467" s="63">
-        <v>0</v>
-      </c>
-      <c r="N467" s="63">
-        <v>0</v>
-      </c>
-      <c r="O467" s="63" t="s">
+      <c r="M467" s="59">
+        <v>0</v>
+      </c>
+      <c r="N467" s="59">
+        <v>0</v>
+      </c>
+      <c r="O467" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P467" s="63">
+      <c r="P467" s="59">
         <v>249800</v>
       </c>
-      <c r="Q467" s="63" t="s">
+      <c r="Q467" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R467" s="64" t="s">
+      <c r="R467" s="60" t="s">
         <v>1583</v>
       </c>
-      <c r="W467" s="63" t="s">
+      <c r="W467" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X467" s="63">
+      <c r="X467" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y467" s="63">
+      <c r="Y467" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z467" s="63">
+      <c r="Z467" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA467" s="63">
+      <c r="AA467" s="59">
         <v>65</v>
       </c>
-      <c r="AH467" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI467" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL467" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM467" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="468" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A468" s="63">
+      <c r="AH467" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI467" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL467" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM467" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A468" s="59">
         <v>467</v>
       </c>
-      <c r="B468" s="63">
+      <c r="B468" s="59">
         <v>10384</v>
       </c>
-      <c r="F468" s="63">
-        <v>1</v>
-      </c>
-      <c r="G468" s="63" t="s">
+      <c r="F468" s="59">
+        <v>1</v>
+      </c>
+      <c r="G468" s="59" t="s">
         <v>1584</v>
       </c>
-      <c r="I468" s="63" t="s">
+      <c r="I468" s="59" t="s">
         <v>1585</v>
       </c>
-      <c r="J468" s="63" t="s">
+      <c r="J468" s="59" t="s">
         <v>1586</v>
       </c>
-      <c r="L468" s="63">
+      <c r="L468" s="59">
         <v>-31</v>
       </c>
-      <c r="M468" s="63">
-        <v>0</v>
-      </c>
-      <c r="N468" s="63">
-        <v>0</v>
-      </c>
-      <c r="O468" s="63" t="s">
+      <c r="M468" s="59">
+        <v>0</v>
+      </c>
+      <c r="N468" s="59">
+        <v>0</v>
+      </c>
+      <c r="O468" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P468" s="63">
+      <c r="P468" s="59">
         <v>600</v>
       </c>
-      <c r="Q468" s="63" t="s">
+      <c r="Q468" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R468" s="64" t="s">
+      <c r="R468" s="60" t="s">
         <v>1587</v>
       </c>
-      <c r="W468" s="63" t="s">
+      <c r="W468" s="59" t="s">
         <v>1589</v>
       </c>
-      <c r="X468" s="63">
+      <c r="X468" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y468" s="63">
+      <c r="Y468" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z468" s="63">
+      <c r="Z468" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH468" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI468" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL468" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM468" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="469" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A469" s="63">
+      <c r="AH468" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI468" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL468" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM468" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="59">
         <v>468</v>
       </c>
-      <c r="B469" s="63">
+      <c r="B469" s="59">
         <v>10385</v>
       </c>
-      <c r="F469" s="63">
-        <v>1</v>
-      </c>
-      <c r="G469" s="63" t="s">
+      <c r="F469" s="59">
+        <v>1</v>
+      </c>
+      <c r="G469" s="59" t="s">
         <v>1590</v>
       </c>
-      <c r="I469" s="63" t="s">
+      <c r="I469" s="59" t="s">
         <v>1591</v>
       </c>
-      <c r="J469" s="63" t="s">
+      <c r="J469" s="59" t="s">
         <v>1592</v>
       </c>
-      <c r="L469" s="63">
+      <c r="L469" s="59">
         <v>-31</v>
       </c>
-      <c r="M469" s="63">
-        <v>0</v>
-      </c>
-      <c r="N469" s="63">
-        <v>0</v>
-      </c>
-      <c r="O469" s="63" t="s">
+      <c r="M469" s="59">
+        <v>0</v>
+      </c>
+      <c r="N469" s="59">
+        <v>0</v>
+      </c>
+      <c r="O469" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P469" s="63">
+      <c r="P469" s="59">
         <v>3000</v>
       </c>
-      <c r="Q469" s="63" t="s">
+      <c r="Q469" s="59" t="s">
         <v>991</v>
       </c>
-      <c r="R469" s="64" t="s">
+      <c r="R469" s="60" t="s">
         <v>1593</v>
       </c>
-      <c r="W469" s="63" t="s">
+      <c r="W469" s="59" t="s">
         <v>1588</v>
       </c>
-      <c r="X469" s="63">
+      <c r="X469" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y469" s="63">
+      <c r="Y469" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z469" s="63">
+      <c r="Z469" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH469" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI469" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL469" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM469" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="470" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A470" s="63">
+      <c r="AH469" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI469" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL469" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM469" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="59">
         <v>469</v>
       </c>
-      <c r="B470" s="63">
+      <c r="B470" s="59">
         <v>10386</v>
       </c>
-      <c r="F470" s="63">
-        <v>1</v>
-      </c>
-      <c r="G470" s="63" t="s">
+      <c r="F470" s="59">
+        <v>1</v>
+      </c>
+      <c r="G470" s="59" t="s">
         <v>1594</v>
       </c>
-      <c r="I470" s="63" t="s">
+      <c r="I470" s="59" t="s">
         <v>1591</v>
       </c>
-      <c r="J470" s="63" t="s">
+      <c r="J470" s="59" t="s">
         <v>1595</v>
       </c>
-      <c r="L470" s="63">
+      <c r="L470" s="59">
         <v>-31</v>
       </c>
-      <c r="M470" s="63">
-        <v>0</v>
-      </c>
-      <c r="N470" s="63">
-        <v>0</v>
-      </c>
-      <c r="O470" s="63" t="s">
+      <c r="M470" s="59">
+        <v>0</v>
+      </c>
+      <c r="N470" s="59">
+        <v>0</v>
+      </c>
+      <c r="O470" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P470" s="63">
+      <c r="P470" s="59">
         <v>6800</v>
       </c>
-      <c r="Q470" s="63" t="s">
+      <c r="Q470" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R470" s="64" t="s">
+      <c r="R470" s="60" t="s">
         <v>1596</v>
       </c>
-      <c r="W470" s="63" t="s">
+      <c r="W470" s="59" t="s">
         <v>1589</v>
       </c>
-      <c r="X470" s="63">
+      <c r="X470" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y470" s="63">
+      <c r="Y470" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z470" s="63">
+      <c r="Z470" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH470" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI470" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL470" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM470" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="471" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A471" s="63">
+      <c r="AH470" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI470" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL470" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM470" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="59">
         <v>470</v>
       </c>
-      <c r="B471" s="63">
+      <c r="B471" s="59">
         <v>10387</v>
       </c>
-      <c r="F471" s="63">
-        <v>1</v>
-      </c>
-      <c r="G471" s="63" t="s">
+      <c r="F471" s="59">
+        <v>1</v>
+      </c>
+      <c r="G471" s="59" t="s">
         <v>1597</v>
       </c>
-      <c r="I471" s="63" t="s">
+      <c r="I471" s="59" t="s">
         <v>1585</v>
       </c>
-      <c r="J471" s="63" t="s">
+      <c r="J471" s="59" t="s">
         <v>1598</v>
       </c>
-      <c r="L471" s="63">
+      <c r="L471" s="59">
         <v>-31</v>
       </c>
-      <c r="M471" s="63">
-        <v>0</v>
-      </c>
-      <c r="N471" s="63">
-        <v>0</v>
-      </c>
-      <c r="O471" s="63" t="s">
+      <c r="M471" s="59">
+        <v>0</v>
+      </c>
+      <c r="N471" s="59">
+        <v>0</v>
+      </c>
+      <c r="O471" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P471" s="63">
+      <c r="P471" s="59">
         <v>9800</v>
       </c>
-      <c r="Q471" s="63" t="s">
+      <c r="Q471" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R471" s="64" t="s">
+      <c r="R471" s="60" t="s">
         <v>1599</v>
       </c>
-      <c r="W471" s="63" t="s">
+      <c r="W471" s="59" t="s">
         <v>1600</v>
       </c>
-      <c r="X471" s="63">
+      <c r="X471" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y471" s="63">
+      <c r="Y471" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z471" s="63">
+      <c r="Z471" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH471" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI471" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL471" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM471" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="472" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A472" s="63">
+      <c r="AH471" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI471" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL471" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM471" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A472" s="59">
         <v>471</v>
       </c>
-      <c r="B472" s="63">
+      <c r="B472" s="59">
         <v>10388</v>
       </c>
-      <c r="F472" s="63">
-        <v>1</v>
-      </c>
-      <c r="G472" s="63" t="s">
+      <c r="F472" s="59">
+        <v>1</v>
+      </c>
+      <c r="G472" s="59" t="s">
         <v>1601</v>
       </c>
-      <c r="I472" s="63" t="s">
+      <c r="I472" s="59" t="s">
         <v>1585</v>
       </c>
-      <c r="J472" s="63" t="s">
+      <c r="J472" s="59" t="s">
         <v>1602</v>
       </c>
-      <c r="L472" s="63">
+      <c r="L472" s="59">
         <v>-31</v>
       </c>
-      <c r="M472" s="63">
-        <v>0</v>
-      </c>
-      <c r="N472" s="63">
-        <v>0</v>
-      </c>
-      <c r="O472" s="63" t="s">
+      <c r="M472" s="59">
+        <v>0</v>
+      </c>
+      <c r="N472" s="59">
+        <v>0</v>
+      </c>
+      <c r="O472" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P472" s="63">
+      <c r="P472" s="59">
         <v>19800</v>
       </c>
-      <c r="Q472" s="63" t="s">
+      <c r="Q472" s="59" t="s">
         <v>991</v>
       </c>
-      <c r="R472" s="64" t="s">
+      <c r="R472" s="60" t="s">
         <v>1603</v>
       </c>
-      <c r="W472" s="63" t="s">
+      <c r="W472" s="59" t="s">
         <v>1600</v>
       </c>
-      <c r="X472" s="63">
+      <c r="X472" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y472" s="63">
+      <c r="Y472" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z472" s="63">
+      <c r="Z472" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH472" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI472" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL472" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM472" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="473" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A473" s="63">
+      <c r="AH472" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI472" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL472" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM472" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A473" s="59">
         <v>472</v>
       </c>
-      <c r="B473" s="63">
+      <c r="B473" s="59">
         <v>10389</v>
       </c>
-      <c r="F473" s="63">
-        <v>1</v>
-      </c>
-      <c r="G473" s="63" t="s">
+      <c r="F473" s="59">
+        <v>1</v>
+      </c>
+      <c r="G473" s="59" t="s">
         <v>1604</v>
       </c>
-      <c r="I473" s="63" t="s">
+      <c r="I473" s="59" t="s">
         <v>1591</v>
       </c>
-      <c r="J473" s="63" t="s">
+      <c r="J473" s="59" t="s">
         <v>1605</v>
       </c>
-      <c r="L473" s="63">
+      <c r="L473" s="59">
         <v>-31</v>
       </c>
-      <c r="M473" s="63">
-        <v>0</v>
-      </c>
-      <c r="N473" s="63">
-        <v>0</v>
-      </c>
-      <c r="O473" s="63" t="s">
+      <c r="M473" s="59">
+        <v>0</v>
+      </c>
+      <c r="N473" s="59">
+        <v>0</v>
+      </c>
+      <c r="O473" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P473" s="63">
+      <c r="P473" s="59">
         <v>49800</v>
       </c>
-      <c r="Q473" s="63" t="s">
+      <c r="Q473" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R473" s="64" t="s">
+      <c r="R473" s="60" t="s">
         <v>1606</v>
       </c>
-      <c r="W473" s="63" t="s">
+      <c r="W473" s="59" t="s">
         <v>1600</v>
       </c>
-      <c r="X473" s="63">
+      <c r="X473" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y473" s="63">
+      <c r="Y473" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z473" s="63">
+      <c r="Z473" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH473" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI473" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL473" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM473" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="474" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A474" s="63">
+      <c r="AH473" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI473" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL473" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM473" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A474" s="59">
         <v>473</v>
       </c>
-      <c r="B474" s="63">
+      <c r="B474" s="59">
         <v>10390</v>
       </c>
-      <c r="F474" s="63">
-        <v>1</v>
-      </c>
-      <c r="G474" s="63" t="s">
+      <c r="F474" s="59">
+        <v>1</v>
+      </c>
+      <c r="G474" s="59" t="s">
         <v>1607</v>
       </c>
-      <c r="I474" s="63" t="s">
+      <c r="I474" s="59" t="s">
         <v>1591</v>
       </c>
-      <c r="J474" s="63" t="s">
+      <c r="J474" s="59" t="s">
         <v>1608</v>
       </c>
-      <c r="L474" s="63">
+      <c r="L474" s="59">
         <v>-31</v>
       </c>
-      <c r="M474" s="63">
-        <v>0</v>
-      </c>
-      <c r="N474" s="63">
-        <v>0</v>
-      </c>
-      <c r="O474" s="63" t="s">
+      <c r="M474" s="59">
+        <v>0</v>
+      </c>
+      <c r="N474" s="59">
+        <v>0</v>
+      </c>
+      <c r="O474" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P474" s="63">
+      <c r="P474" s="59">
         <v>99800</v>
       </c>
-      <c r="Q474" s="63" t="s">
+      <c r="Q474" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R474" s="64" t="s">
+      <c r="R474" s="60" t="s">
         <v>1609</v>
       </c>
-      <c r="W474" s="63" t="s">
+      <c r="W474" s="59" t="s">
         <v>1600</v>
       </c>
-      <c r="X474" s="63">
+      <c r="X474" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y474" s="63">
+      <c r="Y474" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z474" s="63">
+      <c r="Z474" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH474" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI474" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL474" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM474" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="475" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A475" s="63">
+      <c r="AH474" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI474" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL474" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM474" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A475" s="59">
         <v>474</v>
       </c>
-      <c r="B475" s="63">
+      <c r="B475" s="59">
         <v>10391</v>
       </c>
-      <c r="F475" s="63">
-        <v>1</v>
-      </c>
-      <c r="G475" s="63" t="s">
+      <c r="F475" s="59">
+        <v>1</v>
+      </c>
+      <c r="G475" s="59" t="s">
         <v>1610</v>
       </c>
-      <c r="I475" s="63" t="s">
+      <c r="I475" s="59" t="s">
         <v>1591</v>
       </c>
-      <c r="J475" s="63" t="s">
+      <c r="J475" s="59" t="s">
         <v>1670</v>
       </c>
-      <c r="L475" s="63">
+      <c r="L475" s="59">
         <v>-31</v>
       </c>
-      <c r="M475" s="63">
-        <v>0</v>
-      </c>
-      <c r="N475" s="63">
-        <v>0</v>
-      </c>
-      <c r="O475" s="63" t="s">
+      <c r="M475" s="59">
+        <v>0</v>
+      </c>
+      <c r="N475" s="59">
+        <v>0</v>
+      </c>
+      <c r="O475" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P475" s="63">
+      <c r="P475" s="59">
         <v>249800</v>
       </c>
-      <c r="Q475" s="63" t="s">
+      <c r="Q475" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R475" s="64" t="s">
+      <c r="R475" s="60" t="s">
         <v>1669</v>
       </c>
-      <c r="W475" s="63" t="s">
+      <c r="W475" s="59" t="s">
         <v>1600</v>
       </c>
-      <c r="X475" s="63">
+      <c r="X475" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y475" s="63">
+      <c r="Y475" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z475" s="63">
+      <c r="Z475" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH475" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI475" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL475" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM475" s="63">
+      <c r="AH475" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI475" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL475" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM475" s="59">
         <v>1</v>
       </c>
     </row>
@@ -42852,263 +42993,263 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A493" s="63">
+    <row r="493" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A493" s="59">
         <v>492</v>
       </c>
-      <c r="B493" s="63">
+      <c r="B493" s="59">
         <v>10409</v>
       </c>
-      <c r="F493" s="63">
-        <v>1</v>
-      </c>
-      <c r="G493" s="63" t="s">
+      <c r="F493" s="59">
+        <v>1</v>
+      </c>
+      <c r="G493" s="59" t="s">
         <v>1854</v>
       </c>
-      <c r="I493" s="63" t="s">
+      <c r="I493" s="59" t="s">
         <v>1855</v>
       </c>
-      <c r="J493" s="63" t="s">
+      <c r="J493" s="59" t="s">
         <v>1856</v>
       </c>
-      <c r="L493" s="63">
+      <c r="L493" s="59">
         <v>-31</v>
       </c>
-      <c r="M493" s="63">
-        <v>0</v>
-      </c>
-      <c r="N493" s="63">
-        <v>0</v>
-      </c>
-      <c r="O493" s="63" t="s">
+      <c r="M493" s="59">
+        <v>0</v>
+      </c>
+      <c r="N493" s="59">
+        <v>0</v>
+      </c>
+      <c r="O493" s="59" t="s">
         <v>1857</v>
       </c>
-      <c r="P493" s="63">
+      <c r="P493" s="59">
         <v>49800</v>
       </c>
-      <c r="Q493" s="63" t="s">
+      <c r="Q493" s="59" t="s">
         <v>1858</v>
       </c>
-      <c r="R493" s="64" t="s">
+      <c r="R493" s="60" t="s">
         <v>1860</v>
       </c>
-      <c r="W493" s="63" t="s">
+      <c r="W493" s="59" t="s">
         <v>524</v>
       </c>
-      <c r="X493" s="63">
+      <c r="X493" s="59">
         <v>200</v>
       </c>
-      <c r="Y493" s="63">
+      <c r="Y493" s="59">
         <v>1609200000</v>
       </c>
-      <c r="Z493" s="63">
+      <c r="Z493" s="59">
         <v>1609775999</v>
       </c>
-      <c r="AH493" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI493" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL493" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM493" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="494" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A494" s="63">
+      <c r="AH493" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI493" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL493" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM493" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A494" s="59">
         <v>493</v>
       </c>
-      <c r="B494" s="63">
+      <c r="B494" s="59">
         <v>10410</v>
       </c>
-      <c r="F494" s="63">
-        <v>1</v>
-      </c>
-      <c r="G494" s="63" t="s">
+      <c r="F494" s="59">
+        <v>1</v>
+      </c>
+      <c r="G494" s="59" t="s">
         <v>1854</v>
       </c>
-      <c r="I494" s="63" t="s">
+      <c r="I494" s="59" t="s">
         <v>1859</v>
       </c>
-      <c r="J494" s="63" t="s">
+      <c r="J494" s="59" t="s">
         <v>1856</v>
       </c>
-      <c r="L494" s="63">
+      <c r="L494" s="59">
         <v>-31</v>
       </c>
-      <c r="M494" s="63">
-        <v>0</v>
-      </c>
-      <c r="N494" s="63">
-        <v>0</v>
-      </c>
-      <c r="O494" s="63" t="s">
+      <c r="M494" s="59">
+        <v>0</v>
+      </c>
+      <c r="N494" s="59">
+        <v>0</v>
+      </c>
+      <c r="O494" s="59" t="s">
         <v>1857</v>
       </c>
-      <c r="P494" s="63">
+      <c r="P494" s="59">
         <v>99800</v>
       </c>
-      <c r="Q494" s="63" t="s">
+      <c r="Q494" s="59" t="s">
         <v>1858</v>
       </c>
-      <c r="R494" s="64" t="s">
+      <c r="R494" s="60" t="s">
         <v>1860</v>
       </c>
-      <c r="W494" s="63" t="s">
+      <c r="W494" s="59" t="s">
         <v>524</v>
       </c>
-      <c r="X494" s="63">
+      <c r="X494" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y494" s="63">
+      <c r="Y494" s="59">
         <v>1609200000</v>
       </c>
-      <c r="Z494" s="63">
+      <c r="Z494" s="59">
         <v>1609775999</v>
       </c>
-      <c r="AH494" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI494" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL494" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM494" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="495" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A495" s="63">
+      <c r="AH494" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI494" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL494" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM494" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A495" s="59">
         <v>494</v>
       </c>
-      <c r="B495" s="63">
+      <c r="B495" s="59">
         <v>10411</v>
       </c>
-      <c r="F495" s="63">
-        <v>1</v>
-      </c>
-      <c r="G495" s="63" t="s">
+      <c r="F495" s="59">
+        <v>1</v>
+      </c>
+      <c r="G495" s="59" t="s">
         <v>1870</v>
       </c>
-      <c r="J495" s="63" t="s">
+      <c r="J495" s="59" t="s">
         <v>1871</v>
       </c>
-      <c r="L495" s="63">
+      <c r="L495" s="59">
         <v>-31</v>
       </c>
-      <c r="M495" s="63">
-        <v>0</v>
-      </c>
-      <c r="N495" s="63">
-        <v>0</v>
-      </c>
-      <c r="O495" s="63" t="s">
+      <c r="M495" s="59">
+        <v>0</v>
+      </c>
+      <c r="N495" s="59">
+        <v>0</v>
+      </c>
+      <c r="O495" s="59" t="s">
         <v>1872</v>
       </c>
-      <c r="P495" s="63">
+      <c r="P495" s="59">
         <v>79800</v>
       </c>
-      <c r="Q495" s="63" t="s">
+      <c r="Q495" s="59" t="s">
         <v>1627</v>
       </c>
-      <c r="R495" s="64" t="s">
+      <c r="R495" s="60" t="s">
         <v>1873</v>
       </c>
-      <c r="W495" s="63" t="s">
+      <c r="W495" s="59" t="s">
         <v>568</v>
       </c>
-      <c r="X495" s="63">
+      <c r="X495" s="59">
         <v>99999999</v>
       </c>
-      <c r="Y495" s="63">
+      <c r="Y495" s="59">
         <v>1592263800</v>
       </c>
-      <c r="Z495" s="63">
+      <c r="Z495" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA495" s="63">
+      <c r="AA495" s="59">
         <v>14</v>
       </c>
-      <c r="AH495" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI495" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL495" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM495" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="496" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A496" s="63">
+      <c r="AH495" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI495" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL495" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM495" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A496" s="59">
         <v>495</v>
       </c>
-      <c r="B496" s="63">
+      <c r="B496" s="59">
         <v>10412</v>
       </c>
-      <c r="F496" s="63">
-        <v>1</v>
-      </c>
-      <c r="G496" s="63" t="s">
+      <c r="F496" s="59">
+        <v>1</v>
+      </c>
+      <c r="G496" s="59" t="s">
         <v>1874</v>
       </c>
-      <c r="J496" s="63" t="s">
+      <c r="J496" s="59" t="s">
         <v>1875</v>
       </c>
-      <c r="L496" s="63">
+      <c r="L496" s="59">
         <v>-31</v>
       </c>
-      <c r="M496" s="63">
-        <v>0</v>
-      </c>
-      <c r="N496" s="63">
-        <v>0</v>
-      </c>
-      <c r="O496" s="63" t="s">
+      <c r="M496" s="59">
+        <v>0</v>
+      </c>
+      <c r="N496" s="59">
+        <v>0</v>
+      </c>
+      <c r="O496" s="59" t="s">
         <v>1872</v>
       </c>
-      <c r="P496" s="63">
+      <c r="P496" s="59">
         <v>89800</v>
       </c>
-      <c r="Q496" s="63" t="s">
+      <c r="Q496" s="59" t="s">
         <v>1876</v>
       </c>
-      <c r="R496" s="64" t="s">
+      <c r="R496" s="60" t="s">
         <v>1877</v>
       </c>
-      <c r="W496" s="63" t="s">
+      <c r="W496" s="59" t="s">
         <v>1878</v>
       </c>
-      <c r="X496" s="63">
+      <c r="X496" s="59">
         <v>99999999</v>
       </c>
-      <c r="Y496" s="63">
+      <c r="Y496" s="59">
         <v>1592263800</v>
       </c>
-      <c r="Z496" s="63">
+      <c r="Z496" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA496" s="63">
+      <c r="AA496" s="59">
         <v>14</v>
       </c>
-      <c r="AH496" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI496" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL496" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM496" s="63">
+      <c r="AH496" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI496" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL496" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM496" s="59">
         <v>1</v>
       </c>
     </row>
@@ -43149,11 +43290,11 @@
       <c r="Q497" s="5" t="s">
         <v>1885</v>
       </c>
-      <c r="R497" s="67" t="s">
-        <v>2008</v>
+      <c r="R497" s="63" t="s">
+        <v>2005</v>
       </c>
       <c r="W497" s="47" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="X497" s="5">
         <v>99999999</v>
@@ -43217,11 +43358,11 @@
       <c r="Q498" s="5" t="s">
         <v>1885</v>
       </c>
-      <c r="R498" s="67" t="s">
-        <v>2009</v>
+      <c r="R498" s="63" t="s">
+        <v>2006</v>
       </c>
       <c r="W498" s="47" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="X498" s="5">
         <v>99999999</v>
@@ -43285,11 +43426,11 @@
       <c r="Q499" s="5" t="s">
         <v>1885</v>
       </c>
-      <c r="R499" s="67" t="s">
-        <v>2010</v>
+      <c r="R499" s="63" t="s">
+        <v>2007</v>
       </c>
       <c r="W499" s="47" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="X499" s="5">
         <v>99999999</v>
@@ -43353,11 +43494,11 @@
       <c r="Q500" s="5" t="s">
         <v>1885</v>
       </c>
-      <c r="R500" s="67" t="s">
-        <v>2011</v>
+      <c r="R500" s="63" t="s">
+        <v>2008</v>
       </c>
       <c r="W500" s="47" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="X500" s="5">
         <v>99999999</v>
@@ -43421,11 +43562,11 @@
       <c r="Q501" s="5" t="s">
         <v>1885</v>
       </c>
-      <c r="R501" s="67" t="s">
-        <v>2012</v>
+      <c r="R501" s="63" t="s">
+        <v>2009</v>
       </c>
       <c r="W501" s="47" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="X501" s="5">
         <v>99999999</v>
@@ -43489,11 +43630,11 @@
       <c r="Q502" s="5" t="s">
         <v>1885</v>
       </c>
-      <c r="R502" s="67" t="s">
-        <v>2013</v>
+      <c r="R502" s="63" t="s">
+        <v>2010</v>
       </c>
       <c r="W502" s="47" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="X502" s="5">
         <v>99999999</v>
@@ -43557,11 +43698,11 @@
       <c r="Q503" s="5" t="s">
         <v>1895</v>
       </c>
-      <c r="R503" s="68" t="s">
-        <v>2014</v>
+      <c r="R503" s="64" t="s">
+        <v>2011</v>
       </c>
       <c r="W503" s="47" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="X503" s="5">
         <v>99999999</v>
@@ -43625,11 +43766,11 @@
       <c r="Q504" s="5" t="s">
         <v>1895</v>
       </c>
-      <c r="R504" s="68" t="s">
-        <v>2009</v>
+      <c r="R504" s="64" t="s">
+        <v>2006</v>
       </c>
       <c r="W504" s="47" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="X504" s="5">
         <v>99999999</v>
@@ -43693,11 +43834,11 @@
       <c r="Q505" s="5" t="s">
         <v>1895</v>
       </c>
-      <c r="R505" s="68" t="s">
-        <v>2015</v>
+      <c r="R505" s="64" t="s">
+        <v>2012</v>
       </c>
       <c r="W505" s="47" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="X505" s="5">
         <v>99999999</v>
@@ -43761,11 +43902,11 @@
       <c r="Q506" s="5" t="s">
         <v>1899</v>
       </c>
-      <c r="R506" s="68" t="s">
-        <v>2016</v>
+      <c r="R506" s="64" t="s">
+        <v>2013</v>
       </c>
       <c r="W506" s="47" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="X506" s="5">
         <v>99999999</v>
@@ -43829,11 +43970,11 @@
       <c r="Q507" s="5" t="s">
         <v>1899</v>
       </c>
-      <c r="R507" s="68" t="s">
+      <c r="R507" s="64" t="s">
+        <v>2014</v>
+      </c>
+      <c r="W507" s="47" t="s">
         <v>2017</v>
-      </c>
-      <c r="W507" s="47" t="s">
-        <v>2020</v>
       </c>
       <c r="X507" s="5">
         <v>99999999</v>
@@ -43897,11 +44038,11 @@
       <c r="Q508" s="5" t="s">
         <v>1899</v>
       </c>
-      <c r="R508" s="68" t="s">
-        <v>2018</v>
+      <c r="R508" s="64" t="s">
+        <v>2015</v>
       </c>
       <c r="W508" s="47" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="X508" s="5">
         <v>99999999</v>
@@ -43928,183 +44069,183 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A509" s="63">
+    <row r="509" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A509" s="59">
         <v>508</v>
       </c>
-      <c r="B509" s="63">
+      <c r="B509" s="59">
         <v>10425</v>
       </c>
-      <c r="F509" s="63">
-        <v>1</v>
-      </c>
-      <c r="G509" s="63" t="s">
+      <c r="F509" s="59">
+        <v>1</v>
+      </c>
+      <c r="G509" s="59" t="s">
         <v>1902</v>
       </c>
-      <c r="J509" s="63" t="s">
+      <c r="J509" s="59" t="s">
         <v>1903</v>
       </c>
-      <c r="L509" s="63">
+      <c r="L509" s="59">
         <v>-4</v>
       </c>
-      <c r="M509" s="63">
-        <v>1</v>
-      </c>
-      <c r="N509" s="63">
-        <v>0</v>
-      </c>
-      <c r="O509" s="63" t="s">
+      <c r="M509" s="59">
+        <v>1</v>
+      </c>
+      <c r="N509" s="59">
+        <v>0</v>
+      </c>
+      <c r="O509" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P509" s="63">
+      <c r="P509" s="59">
         <v>1800</v>
       </c>
-      <c r="R509" s="64"/>
-      <c r="W509" s="63" t="s">
+      <c r="R509" s="60"/>
+      <c r="W509" s="59" t="s">
         <v>525</v>
       </c>
-      <c r="X509" s="65" t="s">
+      <c r="X509" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="Y509" s="66">
-        <v>0</v>
-      </c>
-      <c r="Z509" s="63">
+      <c r="Y509" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z509" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AB509" s="63" t="s">
+      <c r="AB509" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="AC509" s="63" t="s">
+      <c r="AC509" s="59" t="s">
         <v>1904</v>
       </c>
-      <c r="AD509" s="64" t="s">
+      <c r="AD509" s="60" t="s">
         <v>1905</v>
       </c>
-      <c r="AH509" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI509" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="510" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A510" s="63">
+      <c r="AH509" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI509" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A510" s="59">
         <v>509</v>
       </c>
-      <c r="B510" s="63">
+      <c r="B510" s="59">
         <v>10426</v>
       </c>
-      <c r="F510" s="63">
-        <v>1</v>
-      </c>
-      <c r="G510" s="63" t="s">
+      <c r="F510" s="59">
+        <v>1</v>
+      </c>
+      <c r="G510" s="59" t="s">
         <v>1906</v>
       </c>
-      <c r="J510" s="63" t="s">
+      <c r="J510" s="59" t="s">
         <v>1907</v>
       </c>
-      <c r="L510" s="63">
+      <c r="L510" s="59">
         <v>-4</v>
       </c>
-      <c r="M510" s="63">
-        <v>1</v>
-      </c>
-      <c r="N510" s="63">
-        <v>0</v>
-      </c>
-      <c r="O510" s="63" t="s">
+      <c r="M510" s="59">
+        <v>1</v>
+      </c>
+      <c r="N510" s="59">
+        <v>0</v>
+      </c>
+      <c r="O510" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P510" s="63">
+      <c r="P510" s="59">
         <v>4800</v>
       </c>
-      <c r="R510" s="64"/>
-      <c r="W510" s="63" t="s">
+      <c r="R510" s="60"/>
+      <c r="W510" s="59" t="s">
         <v>525</v>
       </c>
-      <c r="X510" s="65" t="s">
+      <c r="X510" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="Y510" s="66">
-        <v>0</v>
-      </c>
-      <c r="Z510" s="63">
+      <c r="Y510" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z510" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AB510" s="63" t="s">
+      <c r="AB510" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="AC510" s="63" t="s">
+      <c r="AC510" s="59" t="s">
         <v>1908</v>
       </c>
-      <c r="AD510" s="64" t="s">
+      <c r="AD510" s="60" t="s">
         <v>1909</v>
       </c>
-      <c r="AH510" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI510" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="511" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A511" s="63">
+      <c r="AH510" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI510" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A511" s="59">
         <v>510</v>
       </c>
-      <c r="B511" s="63">
+      <c r="B511" s="59">
         <v>10427</v>
       </c>
-      <c r="F511" s="63">
-        <v>1</v>
-      </c>
-      <c r="G511" s="63" t="s">
+      <c r="F511" s="59">
+        <v>1</v>
+      </c>
+      <c r="G511" s="59" t="s">
         <v>1910</v>
       </c>
-      <c r="J511" s="63" t="s">
+      <c r="J511" s="59" t="s">
         <v>1911</v>
       </c>
-      <c r="L511" s="63">
+      <c r="L511" s="59">
         <v>-4</v>
       </c>
-      <c r="M511" s="63">
-        <v>1</v>
-      </c>
-      <c r="N511" s="63">
-        <v>0</v>
-      </c>
-      <c r="O511" s="63" t="s">
+      <c r="M511" s="59">
+        <v>1</v>
+      </c>
+      <c r="N511" s="59">
+        <v>0</v>
+      </c>
+      <c r="O511" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P511" s="63">
+      <c r="P511" s="59">
         <v>9800</v>
       </c>
-      <c r="R511" s="64"/>
-      <c r="W511" s="63" t="s">
+      <c r="R511" s="60"/>
+      <c r="W511" s="59" t="s">
         <v>525</v>
       </c>
-      <c r="X511" s="65" t="s">
+      <c r="X511" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="Y511" s="66">
-        <v>0</v>
-      </c>
-      <c r="Z511" s="63">
+      <c r="Y511" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z511" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AB511" s="63" t="s">
+      <c r="AB511" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="AC511" s="63" t="s">
+      <c r="AC511" s="59" t="s">
         <v>1912</v>
       </c>
-      <c r="AD511" s="64" t="s">
+      <c r="AD511" s="60" t="s">
         <v>1913</v>
       </c>
-      <c r="AH511" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI511" s="63">
+      <c r="AH511" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI511" s="59">
         <v>1</v>
       </c>
     </row>
@@ -44714,819 +44855,1431 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:39" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A521" s="5">
         <v>520</v>
       </c>
       <c r="B521" s="5">
         <v>10437</v>
       </c>
-      <c r="F521" s="61">
-        <v>1</v>
-      </c>
-      <c r="G521" s="61" t="s">
+      <c r="F521" s="5">
+        <v>1</v>
+      </c>
+      <c r="G521" s="5" t="s">
+        <v>1962</v>
+      </c>
+      <c r="I521" s="5" t="s">
+        <v>1964</v>
+      </c>
+      <c r="J521" s="5" t="s">
         <v>1965</v>
       </c>
-      <c r="I521" s="61" t="s">
+      <c r="L521" s="5">
+        <v>-33</v>
+      </c>
+      <c r="M521" s="5">
+        <v>0</v>
+      </c>
+      <c r="N521" s="5">
+        <v>0</v>
+      </c>
+      <c r="O521" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P521" s="5">
+        <v>600</v>
+      </c>
+      <c r="Q521" s="5" t="s">
         <v>1967</v>
       </c>
-      <c r="J521" s="61" t="s">
-        <v>1968</v>
-      </c>
-      <c r="L521" s="61">
-        <v>-33</v>
-      </c>
-      <c r="M521" s="61">
-        <v>0</v>
-      </c>
-      <c r="N521" s="61">
-        <v>0</v>
-      </c>
-      <c r="O521" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="P521" s="61">
-        <v>600</v>
-      </c>
-      <c r="Q521" s="61" t="s">
-        <v>1970</v>
-      </c>
-      <c r="R521" s="62" t="s">
-        <v>2021</v>
-      </c>
-      <c r="W521" s="61" t="s">
+      <c r="R521" s="10" t="s">
+        <v>2057</v>
+      </c>
+      <c r="W521" s="5" t="s">
         <v>1190</v>
       </c>
-      <c r="X521" s="61">
+      <c r="X521" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y521" s="61">
+      <c r="Y521" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z521" s="61">
+      <c r="Z521" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA521" s="61">
+      <c r="AA521" s="5">
         <v>70</v>
       </c>
-      <c r="AH521" s="61">
-        <v>1</v>
-      </c>
-      <c r="AI521" s="61">
-        <v>1</v>
-      </c>
-      <c r="AL521" s="61">
-        <v>1</v>
-      </c>
-      <c r="AM521" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="522" spans="1:39" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH521" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI521" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL521" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM521" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A522" s="5">
         <v>521</v>
       </c>
       <c r="B522" s="5">
         <v>10438</v>
       </c>
-      <c r="F522" s="61">
-        <v>1</v>
-      </c>
-      <c r="G522" s="61" t="s">
+      <c r="F522" s="5">
+        <v>1</v>
+      </c>
+      <c r="G522" s="5" t="s">
+        <v>1969</v>
+      </c>
+      <c r="I522" s="5" t="s">
+        <v>1964</v>
+      </c>
+      <c r="J522" s="5" t="s">
+        <v>1970</v>
+      </c>
+      <c r="L522" s="5">
+        <v>-33</v>
+      </c>
+      <c r="M522" s="5">
+        <v>0</v>
+      </c>
+      <c r="N522" s="5">
+        <v>0</v>
+      </c>
+      <c r="O522" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P522" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Q522" s="5" t="s">
         <v>1972</v>
       </c>
-      <c r="I522" s="61" t="s">
-        <v>1967</v>
-      </c>
-      <c r="J522" s="61" t="s">
+      <c r="R522" s="10" t="s">
         <v>1973</v>
       </c>
-      <c r="L522" s="61">
-        <v>-33</v>
-      </c>
-      <c r="M522" s="61">
-        <v>0</v>
-      </c>
-      <c r="N522" s="61">
-        <v>0</v>
-      </c>
-      <c r="O522" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="P522" s="61">
-        <v>1000</v>
-      </c>
-      <c r="Q522" s="61" t="s">
-        <v>1975</v>
-      </c>
-      <c r="R522" s="62" t="s">
-        <v>1976</v>
-      </c>
-      <c r="W522" s="61" t="s">
+      <c r="W522" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="X522" s="61">
+      <c r="X522" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y522" s="61">
+      <c r="Y522" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z522" s="61">
+      <c r="Z522" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA522" s="61">
+      <c r="AA522" s="5">
         <v>70</v>
       </c>
-      <c r="AH522" s="61">
-        <v>1</v>
-      </c>
-      <c r="AI522" s="61">
-        <v>1</v>
-      </c>
-      <c r="AL522" s="61">
-        <v>1</v>
-      </c>
-      <c r="AM522" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="523" spans="1:39" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH522" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI522" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL522" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM522" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A523" s="5">
         <v>522</v>
       </c>
       <c r="B523" s="5">
         <v>10439</v>
       </c>
-      <c r="F523" s="61">
-        <v>1</v>
-      </c>
-      <c r="G523" s="61" t="s">
+      <c r="F523" s="5">
+        <v>1</v>
+      </c>
+      <c r="G523" s="5" t="s">
+        <v>1974</v>
+      </c>
+      <c r="I523" s="5" t="s">
+        <v>1963</v>
+      </c>
+      <c r="J523" s="5" t="s">
+        <v>1975</v>
+      </c>
+      <c r="L523" s="5">
+        <v>-33</v>
+      </c>
+      <c r="M523" s="5">
+        <v>0</v>
+      </c>
+      <c r="N523" s="5">
+        <v>0</v>
+      </c>
+      <c r="O523" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P523" s="5">
+        <v>1800</v>
+      </c>
+      <c r="Q523" s="5" t="s">
         <v>1977</v>
       </c>
-      <c r="I523" s="61" t="s">
-        <v>1966</v>
-      </c>
-      <c r="J523" s="61" t="s">
+      <c r="R523" s="10" t="s">
         <v>1978</v>
       </c>
-      <c r="L523" s="61">
-        <v>-33</v>
-      </c>
-      <c r="M523" s="61">
-        <v>0</v>
-      </c>
-      <c r="N523" s="61">
-        <v>0</v>
-      </c>
-      <c r="O523" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="P523" s="61">
-        <v>1800</v>
-      </c>
-      <c r="Q523" s="61" t="s">
-        <v>1980</v>
-      </c>
-      <c r="R523" s="62" t="s">
-        <v>1981</v>
-      </c>
-      <c r="W523" s="61" t="s">
+      <c r="W523" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="X523" s="61">
+      <c r="X523" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y523" s="61">
+      <c r="Y523" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z523" s="61">
+      <c r="Z523" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA523" s="61">
+      <c r="AA523" s="5">
         <v>70</v>
       </c>
-      <c r="AH523" s="61">
-        <v>1</v>
-      </c>
-      <c r="AI523" s="61">
-        <v>1</v>
-      </c>
-      <c r="AL523" s="61">
-        <v>1</v>
-      </c>
-      <c r="AM523" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="524" spans="1:39" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH523" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI523" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL523" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM523" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A524" s="5">
         <v>523</v>
       </c>
       <c r="B524" s="5">
         <v>10440</v>
       </c>
-      <c r="F524" s="61">
-        <v>1</v>
-      </c>
-      <c r="G524" s="61" t="s">
+      <c r="F524" s="5">
+        <v>1</v>
+      </c>
+      <c r="G524" s="5" t="s">
+        <v>1979</v>
+      </c>
+      <c r="I524" s="5" t="s">
+        <v>1964</v>
+      </c>
+      <c r="J524" s="5" t="s">
+        <v>1980</v>
+      </c>
+      <c r="L524" s="5">
+        <v>-33</v>
+      </c>
+      <c r="M524" s="5">
+        <v>0</v>
+      </c>
+      <c r="N524" s="5">
+        <v>0</v>
+      </c>
+      <c r="O524" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P524" s="5">
+        <v>4800</v>
+      </c>
+      <c r="Q524" s="5" t="s">
+        <v>1981</v>
+      </c>
+      <c r="R524" s="10" t="s">
         <v>1982</v>
       </c>
-      <c r="I524" s="61" t="s">
-        <v>1967</v>
-      </c>
-      <c r="J524" s="61" t="s">
-        <v>1983</v>
-      </c>
-      <c r="L524" s="61">
-        <v>-33</v>
-      </c>
-      <c r="M524" s="61">
-        <v>0</v>
-      </c>
-      <c r="N524" s="61">
-        <v>0</v>
-      </c>
-      <c r="O524" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="P524" s="61">
-        <v>4800</v>
-      </c>
-      <c r="Q524" s="61" t="s">
-        <v>1984</v>
-      </c>
-      <c r="R524" s="62" t="s">
-        <v>1985</v>
-      </c>
-      <c r="W524" s="61" t="s">
+      <c r="W524" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="X524" s="61">
+      <c r="X524" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y524" s="61">
+      <c r="Y524" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z524" s="61">
+      <c r="Z524" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA524" s="61">
+      <c r="AA524" s="5">
         <v>70</v>
       </c>
-      <c r="AH524" s="61">
-        <v>1</v>
-      </c>
-      <c r="AI524" s="61">
-        <v>1</v>
-      </c>
-      <c r="AL524" s="61">
-        <v>1</v>
-      </c>
-      <c r="AM524" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="525" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH524" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI524" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL524" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM524" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A525" s="5">
         <v>524</v>
       </c>
       <c r="B525" s="5">
         <v>10441</v>
       </c>
-      <c r="F525" s="49">
-        <v>1</v>
-      </c>
-      <c r="G525" s="49" t="s">
-        <v>1964</v>
-      </c>
-      <c r="I525" s="49" t="s">
-        <v>1986</v>
-      </c>
-      <c r="J525" s="49" t="s">
-        <v>1987</v>
-      </c>
-      <c r="L525" s="49">
+      <c r="F525" s="5">
+        <v>1</v>
+      </c>
+      <c r="G525" s="5" t="s">
+        <v>1961</v>
+      </c>
+      <c r="I525" s="5" t="s">
+        <v>1983</v>
+      </c>
+      <c r="J525" s="5" t="s">
+        <v>1984</v>
+      </c>
+      <c r="L525" s="5">
         <v>-33</v>
       </c>
-      <c r="M525" s="49">
-        <v>0</v>
-      </c>
-      <c r="N525" s="49">
-        <v>0</v>
-      </c>
-      <c r="O525" s="49" t="s">
+      <c r="M525" s="5">
+        <v>0</v>
+      </c>
+      <c r="N525" s="5">
+        <v>0</v>
+      </c>
+      <c r="O525" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P525" s="49">
+      <c r="P525" s="5">
         <v>1800</v>
       </c>
-      <c r="Q525" s="49" t="s">
-        <v>1969</v>
-      </c>
-      <c r="R525" s="50" t="s">
-        <v>1981</v>
-      </c>
-      <c r="W525" s="49" t="s">
+      <c r="Q525" s="5" t="s">
+        <v>1966</v>
+      </c>
+      <c r="R525" s="10" t="s">
+        <v>1978</v>
+      </c>
+      <c r="W525" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="X525" s="49">
+      <c r="X525" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y525" s="49">
+      <c r="Y525" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z525" s="49">
+      <c r="Z525" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA525" s="49">
+      <c r="AA525" s="5">
         <v>71</v>
       </c>
-      <c r="AH525" s="49">
-        <v>1</v>
-      </c>
-      <c r="AI525" s="49">
-        <v>1</v>
-      </c>
-      <c r="AL525" s="49">
-        <v>1</v>
-      </c>
-      <c r="AM525" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="526" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH525" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI525" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL525" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM525" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A526" s="5">
         <v>525</v>
       </c>
       <c r="B526" s="5">
         <v>10442</v>
       </c>
-      <c r="F526" s="49">
-        <v>1</v>
-      </c>
-      <c r="G526" s="49" t="s">
-        <v>1971</v>
-      </c>
-      <c r="I526" s="49" t="s">
-        <v>1988</v>
-      </c>
-      <c r="J526" s="49" t="s">
-        <v>1989</v>
-      </c>
-      <c r="L526" s="49">
+      <c r="F526" s="5">
+        <v>1</v>
+      </c>
+      <c r="G526" s="5" t="s">
+        <v>1968</v>
+      </c>
+      <c r="I526" s="5" t="s">
+        <v>1985</v>
+      </c>
+      <c r="J526" s="5" t="s">
+        <v>1986</v>
+      </c>
+      <c r="L526" s="5">
         <v>-33</v>
       </c>
-      <c r="M526" s="49">
-        <v>0</v>
-      </c>
-      <c r="N526" s="49">
-        <v>0</v>
-      </c>
-      <c r="O526" s="49" t="s">
+      <c r="M526" s="5">
+        <v>0</v>
+      </c>
+      <c r="N526" s="5">
+        <v>0</v>
+      </c>
+      <c r="O526" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P526" s="49">
+      <c r="P526" s="5">
         <v>4800</v>
       </c>
-      <c r="Q526" s="49" t="s">
-        <v>1975</v>
-      </c>
-      <c r="R526" s="50" t="s">
-        <v>1990</v>
-      </c>
-      <c r="W526" s="49" t="s">
+      <c r="Q526" s="5" t="s">
+        <v>1972</v>
+      </c>
+      <c r="R526" s="10" t="s">
+        <v>1987</v>
+      </c>
+      <c r="W526" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="X526" s="49">
+      <c r="X526" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y526" s="49">
+      <c r="Y526" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z526" s="49">
+      <c r="Z526" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA526" s="49">
+      <c r="AA526" s="5">
         <v>71</v>
       </c>
-      <c r="AH526" s="49">
-        <v>1</v>
-      </c>
-      <c r="AI526" s="49">
-        <v>1</v>
-      </c>
-      <c r="AL526" s="49">
-        <v>1</v>
-      </c>
-      <c r="AM526" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="527" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH526" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI526" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL526" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM526" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A527" s="5">
         <v>526</v>
       </c>
       <c r="B527" s="5">
         <v>10443</v>
       </c>
-      <c r="F527" s="49">
-        <v>1</v>
-      </c>
-      <c r="G527" s="49" t="s">
+      <c r="F527" s="5">
+        <v>1</v>
+      </c>
+      <c r="G527" s="5" t="s">
+        <v>1988</v>
+      </c>
+      <c r="I527" s="5" t="s">
+        <v>1985</v>
+      </c>
+      <c r="J527" s="5" t="s">
+        <v>1989</v>
+      </c>
+      <c r="L527" s="5">
+        <v>-33</v>
+      </c>
+      <c r="M527" s="5">
+        <v>0</v>
+      </c>
+      <c r="N527" s="5">
+        <v>0</v>
+      </c>
+      <c r="O527" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P527" s="5">
+        <v>9800</v>
+      </c>
+      <c r="Q527" s="5" t="s">
+        <v>1976</v>
+      </c>
+      <c r="R527" s="10" t="s">
         <v>1991</v>
       </c>
-      <c r="I527" s="49" t="s">
-        <v>1988</v>
-      </c>
-      <c r="J527" s="49" t="s">
-        <v>1992</v>
-      </c>
-      <c r="L527" s="49">
-        <v>-33</v>
-      </c>
-      <c r="M527" s="49">
-        <v>0</v>
-      </c>
-      <c r="N527" s="49">
-        <v>0</v>
-      </c>
-      <c r="O527" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="P527" s="49">
-        <v>9800</v>
-      </c>
-      <c r="Q527" s="49" t="s">
-        <v>1979</v>
-      </c>
-      <c r="R527" s="50" t="s">
-        <v>1994</v>
-      </c>
-      <c r="W527" s="49" t="s">
+      <c r="W527" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="X527" s="49">
+      <c r="X527" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y527" s="49">
+      <c r="Y527" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z527" s="49">
+      <c r="Z527" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA527" s="49">
+      <c r="AA527" s="5">
         <v>71</v>
       </c>
-      <c r="AH527" s="49">
-        <v>1</v>
-      </c>
-      <c r="AI527" s="49">
-        <v>1</v>
-      </c>
-      <c r="AL527" s="49">
-        <v>1</v>
-      </c>
-      <c r="AM527" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="528" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH527" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI527" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL527" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM527" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A528" s="5">
         <v>527</v>
       </c>
       <c r="B528" s="5">
         <v>10444</v>
       </c>
-      <c r="F528" s="49">
-        <v>1</v>
-      </c>
-      <c r="G528" s="49" t="s">
-        <v>1982</v>
-      </c>
-      <c r="I528" s="49" t="s">
-        <v>1988</v>
-      </c>
-      <c r="J528" s="49" t="s">
-        <v>1995</v>
-      </c>
-      <c r="L528" s="49">
+      <c r="F528" s="5">
+        <v>1</v>
+      </c>
+      <c r="G528" s="5" t="s">
+        <v>1979</v>
+      </c>
+      <c r="I528" s="5" t="s">
+        <v>1985</v>
+      </c>
+      <c r="J528" s="5" t="s">
+        <v>1992</v>
+      </c>
+      <c r="L528" s="5">
         <v>-33</v>
       </c>
-      <c r="M528" s="49">
-        <v>0</v>
-      </c>
-      <c r="N528" s="49">
-        <v>0</v>
-      </c>
-      <c r="O528" s="49" t="s">
+      <c r="M528" s="5">
+        <v>0</v>
+      </c>
+      <c r="N528" s="5">
+        <v>0</v>
+      </c>
+      <c r="O528" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P528" s="49">
+      <c r="P528" s="5">
         <v>19800</v>
       </c>
-      <c r="Q528" s="49" t="s">
-        <v>1996</v>
-      </c>
-      <c r="R528" s="50" t="s">
-        <v>1997</v>
-      </c>
-      <c r="W528" s="49" t="s">
+      <c r="Q528" s="5" t="s">
+        <v>1993</v>
+      </c>
+      <c r="R528" s="10" t="s">
+        <v>1994</v>
+      </c>
+      <c r="W528" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="X528" s="49">
+      <c r="X528" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y528" s="49">
+      <c r="Y528" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z528" s="49">
+      <c r="Z528" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA528" s="49">
+      <c r="AA528" s="5">
         <v>71</v>
       </c>
-      <c r="AH528" s="49">
-        <v>1</v>
-      </c>
-      <c r="AI528" s="49">
-        <v>1</v>
-      </c>
-      <c r="AL528" s="49">
-        <v>1</v>
-      </c>
-      <c r="AM528" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="529" spans="1:39" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH528" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI528" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL528" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM528" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A529" s="5">
         <v>528</v>
       </c>
       <c r="B529" s="5">
         <v>10445</v>
       </c>
-      <c r="F529" s="61">
-        <v>1</v>
-      </c>
-      <c r="G529" s="61" t="s">
-        <v>1964</v>
-      </c>
-      <c r="I529" s="61" t="s">
-        <v>1999</v>
-      </c>
-      <c r="J529" s="61" t="s">
-        <v>2000</v>
-      </c>
-      <c r="L529" s="61">
+      <c r="F529" s="5">
+        <v>1</v>
+      </c>
+      <c r="G529" s="5" t="s">
+        <v>1961</v>
+      </c>
+      <c r="I529" s="5" t="s">
+        <v>1996</v>
+      </c>
+      <c r="J529" s="5" t="s">
+        <v>1997</v>
+      </c>
+      <c r="L529" s="5">
         <v>-33</v>
       </c>
-      <c r="M529" s="61">
-        <v>0</v>
-      </c>
-      <c r="N529" s="61">
-        <v>0</v>
-      </c>
-      <c r="O529" s="61" t="s">
+      <c r="M529" s="5">
+        <v>0</v>
+      </c>
+      <c r="N529" s="5">
+        <v>0</v>
+      </c>
+      <c r="O529" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P529" s="61">
+      <c r="P529" s="5">
         <v>4800</v>
       </c>
-      <c r="Q529" s="61" t="s">
-        <v>1970</v>
-      </c>
-      <c r="R529" s="62" t="s">
-        <v>2001</v>
-      </c>
-      <c r="W529" s="61" t="s">
+      <c r="Q529" s="5" t="s">
+        <v>1967</v>
+      </c>
+      <c r="R529" s="10" t="s">
+        <v>1998</v>
+      </c>
+      <c r="W529" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="X529" s="61">
+      <c r="X529" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y529" s="61">
+      <c r="Y529" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z529" s="61">
+      <c r="Z529" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA529" s="61">
+      <c r="AA529" s="5">
         <v>72</v>
       </c>
-      <c r="AH529" s="61">
-        <v>1</v>
-      </c>
-      <c r="AI529" s="61">
-        <v>1</v>
-      </c>
-      <c r="AL529" s="61">
-        <v>1</v>
-      </c>
-      <c r="AM529" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="530" spans="1:39" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH529" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI529" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL529" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM529" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A530" s="5">
         <v>529</v>
       </c>
       <c r="B530" s="5">
         <v>10446</v>
       </c>
-      <c r="F530" s="61">
-        <v>1</v>
-      </c>
-      <c r="G530" s="61" t="s">
-        <v>1972</v>
-      </c>
-      <c r="I530" s="61" t="s">
+      <c r="F530" s="5">
+        <v>1</v>
+      </c>
+      <c r="G530" s="5" t="s">
+        <v>1969</v>
+      </c>
+      <c r="I530" s="5" t="s">
+        <v>1996</v>
+      </c>
+      <c r="J530" s="5" t="s">
         <v>1999</v>
       </c>
-      <c r="J530" s="61" t="s">
-        <v>2002</v>
-      </c>
-      <c r="L530" s="61">
+      <c r="L530" s="5">
         <v>-33</v>
       </c>
-      <c r="M530" s="61">
-        <v>0</v>
-      </c>
-      <c r="N530" s="61">
-        <v>0</v>
-      </c>
-      <c r="O530" s="61" t="s">
+      <c r="M530" s="5">
+        <v>0</v>
+      </c>
+      <c r="N530" s="5">
+        <v>0</v>
+      </c>
+      <c r="O530" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P530" s="61">
+      <c r="P530" s="5">
         <v>9800</v>
       </c>
-      <c r="Q530" s="61" t="s">
-        <v>1974</v>
-      </c>
-      <c r="R530" s="62" t="s">
-        <v>1993</v>
-      </c>
-      <c r="W530" s="61" t="s">
+      <c r="Q530" s="5" t="s">
+        <v>1971</v>
+      </c>
+      <c r="R530" s="10" t="s">
+        <v>1990</v>
+      </c>
+      <c r="W530" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="X530" s="61">
+      <c r="X530" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y530" s="61">
+      <c r="Y530" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z530" s="61">
+      <c r="Z530" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA530" s="61">
+      <c r="AA530" s="5">
         <v>72</v>
       </c>
-      <c r="AH530" s="61">
-        <v>1</v>
-      </c>
-      <c r="AI530" s="61">
-        <v>1</v>
-      </c>
-      <c r="AL530" s="61">
-        <v>1</v>
-      </c>
-      <c r="AM530" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="531" spans="1:39" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH530" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI530" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL530" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM530" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A531" s="5">
         <v>530</v>
       </c>
       <c r="B531" s="5">
         <v>10447</v>
       </c>
-      <c r="F531" s="61">
-        <v>1</v>
-      </c>
-      <c r="G531" s="61" t="s">
-        <v>1991</v>
-      </c>
-      <c r="I531" s="61" t="s">
-        <v>1999</v>
-      </c>
-      <c r="J531" s="61" t="s">
-        <v>2003</v>
-      </c>
-      <c r="L531" s="61">
+      <c r="F531" s="5">
+        <v>1</v>
+      </c>
+      <c r="G531" s="5" t="s">
+        <v>1988</v>
+      </c>
+      <c r="I531" s="5" t="s">
+        <v>1996</v>
+      </c>
+      <c r="J531" s="5" t="s">
+        <v>2000</v>
+      </c>
+      <c r="L531" s="5">
         <v>-33</v>
       </c>
-      <c r="M531" s="61">
-        <v>0</v>
-      </c>
-      <c r="N531" s="61">
-        <v>0</v>
-      </c>
-      <c r="O531" s="61" t="s">
+      <c r="M531" s="5">
+        <v>0</v>
+      </c>
+      <c r="N531" s="5">
+        <v>0</v>
+      </c>
+      <c r="O531" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P531" s="61">
+      <c r="P531" s="5">
         <v>19800</v>
       </c>
-      <c r="Q531" s="61" t="s">
-        <v>1980</v>
-      </c>
-      <c r="R531" s="62" t="s">
-        <v>2004</v>
-      </c>
-      <c r="W531" s="61" t="s">
+      <c r="Q531" s="5" t="s">
+        <v>1977</v>
+      </c>
+      <c r="R531" s="10" t="s">
+        <v>2001</v>
+      </c>
+      <c r="W531" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="X531" s="61">
+      <c r="X531" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y531" s="61">
+      <c r="Y531" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z531" s="61">
+      <c r="Z531" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA531" s="61">
+      <c r="AA531" s="5">
         <v>72</v>
       </c>
-      <c r="AH531" s="61">
-        <v>1</v>
-      </c>
-      <c r="AI531" s="61">
-        <v>1</v>
-      </c>
-      <c r="AL531" s="61">
-        <v>1</v>
-      </c>
-      <c r="AM531" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="532" spans="1:39" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH531" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI531" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL531" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM531" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A532" s="5">
         <v>531</v>
       </c>
       <c r="B532" s="5">
         <v>10448</v>
       </c>
-      <c r="F532" s="61">
-        <v>1</v>
-      </c>
-      <c r="G532" s="61" t="s">
-        <v>2005</v>
-      </c>
-      <c r="I532" s="61" t="s">
-        <v>1998</v>
-      </c>
-      <c r="J532" s="61" t="s">
-        <v>2006</v>
-      </c>
-      <c r="L532" s="61">
+      <c r="F532" s="5">
+        <v>1</v>
+      </c>
+      <c r="G532" s="5" t="s">
+        <v>2002</v>
+      </c>
+      <c r="I532" s="5" t="s">
+        <v>1995</v>
+      </c>
+      <c r="J532" s="5" t="s">
+        <v>2003</v>
+      </c>
+      <c r="L532" s="5">
         <v>-33</v>
       </c>
-      <c r="M532" s="61">
-        <v>0</v>
-      </c>
-      <c r="N532" s="61">
-        <v>0</v>
-      </c>
-      <c r="O532" s="61" t="s">
+      <c r="M532" s="5">
+        <v>0</v>
+      </c>
+      <c r="N532" s="5">
+        <v>0</v>
+      </c>
+      <c r="O532" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P532" s="61">
+      <c r="P532" s="5">
         <v>49800</v>
       </c>
-      <c r="Q532" s="61" t="s">
-        <v>1984</v>
-      </c>
-      <c r="R532" s="62" t="s">
-        <v>2007</v>
-      </c>
-      <c r="W532" s="61" t="s">
+      <c r="Q532" s="5" t="s">
+        <v>1981</v>
+      </c>
+      <c r="R532" s="10" t="s">
+        <v>2004</v>
+      </c>
+      <c r="W532" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="X532" s="61">
+      <c r="X532" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y532" s="61">
+      <c r="Y532" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z532" s="61">
+      <c r="Z532" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA532" s="61">
+      <c r="AA532" s="5">
         <v>72</v>
       </c>
-      <c r="AH532" s="61">
-        <v>1</v>
-      </c>
-      <c r="AI532" s="61">
-        <v>1</v>
-      </c>
-      <c r="AL532" s="61">
-        <v>1</v>
-      </c>
-      <c r="AM532" s="61">
+      <c r="AH532" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI532" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL532" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM532" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A533" s="5">
+        <v>532</v>
+      </c>
+      <c r="B533" s="47">
+        <v>10449</v>
+      </c>
+      <c r="F533" s="47">
+        <v>1</v>
+      </c>
+      <c r="G533" s="47" t="s">
+        <v>2018</v>
+      </c>
+      <c r="I533" s="47" t="s">
+        <v>2019</v>
+      </c>
+      <c r="J533" s="47" t="s">
+        <v>2020</v>
+      </c>
+      <c r="L533" s="47">
+        <v>-31</v>
+      </c>
+      <c r="M533" s="47">
+        <v>0</v>
+      </c>
+      <c r="N533" s="47">
+        <v>0</v>
+      </c>
+      <c r="O533" s="47" t="s">
+        <v>2021</v>
+      </c>
+      <c r="P533" s="47">
+        <v>1800</v>
+      </c>
+      <c r="Q533" s="47" t="s">
+        <v>2022</v>
+      </c>
+      <c r="R533" s="63" t="s">
+        <v>2023</v>
+      </c>
+      <c r="W533" s="47" t="s">
+        <v>2024</v>
+      </c>
+      <c r="X533" s="47">
+        <v>9999999</v>
+      </c>
+      <c r="Y533" s="47">
+        <v>1611619200</v>
+      </c>
+      <c r="Z533" s="47">
+        <v>1612195199</v>
+      </c>
+      <c r="AA533" s="47">
+        <v>73</v>
+      </c>
+      <c r="AH533" s="47">
+        <v>1</v>
+      </c>
+      <c r="AI533" s="47">
+        <v>1</v>
+      </c>
+      <c r="AL533" s="47">
+        <v>1</v>
+      </c>
+      <c r="AM533" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A534" s="5">
+        <v>533</v>
+      </c>
+      <c r="B534" s="47">
+        <v>10450</v>
+      </c>
+      <c r="F534" s="47">
+        <v>1</v>
+      </c>
+      <c r="G534" s="47" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I534" s="47" t="s">
+        <v>2026</v>
+      </c>
+      <c r="J534" s="47" t="s">
+        <v>2027</v>
+      </c>
+      <c r="L534" s="47">
+        <v>-31</v>
+      </c>
+      <c r="M534" s="47">
+        <v>0</v>
+      </c>
+      <c r="N534" s="47">
+        <v>0</v>
+      </c>
+      <c r="O534" s="47" t="s">
+        <v>2028</v>
+      </c>
+      <c r="P534" s="47">
+        <v>3000</v>
+      </c>
+      <c r="Q534" s="47" t="s">
+        <v>2029</v>
+      </c>
+      <c r="R534" s="63" t="s">
+        <v>2030</v>
+      </c>
+      <c r="W534" s="47" t="s">
+        <v>2024</v>
+      </c>
+      <c r="X534" s="47">
+        <v>9999999</v>
+      </c>
+      <c r="Y534" s="47">
+        <v>1611619200</v>
+      </c>
+      <c r="Z534" s="47">
+        <v>1612195199</v>
+      </c>
+      <c r="AA534" s="47">
+        <v>73</v>
+      </c>
+      <c r="AH534" s="47">
+        <v>1</v>
+      </c>
+      <c r="AI534" s="47">
+        <v>1</v>
+      </c>
+      <c r="AL534" s="47">
+        <v>1</v>
+      </c>
+      <c r="AM534" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A535" s="5">
+        <v>534</v>
+      </c>
+      <c r="B535" s="47">
+        <v>10451</v>
+      </c>
+      <c r="F535" s="47">
+        <v>1</v>
+      </c>
+      <c r="G535" s="47" t="s">
+        <v>2031</v>
+      </c>
+      <c r="I535" s="47" t="s">
+        <v>2026</v>
+      </c>
+      <c r="J535" s="47" t="s">
+        <v>2032</v>
+      </c>
+      <c r="L535" s="47">
+        <v>-31</v>
+      </c>
+      <c r="M535" s="47">
+        <v>0</v>
+      </c>
+      <c r="N535" s="47">
+        <v>0</v>
+      </c>
+      <c r="O535" s="47" t="s">
+        <v>2021</v>
+      </c>
+      <c r="P535" s="47">
+        <v>4800</v>
+      </c>
+      <c r="Q535" s="47" t="s">
+        <v>2033</v>
+      </c>
+      <c r="R535" s="63" t="s">
+        <v>2034</v>
+      </c>
+      <c r="W535" s="47" t="s">
+        <v>2024</v>
+      </c>
+      <c r="X535" s="47">
+        <v>9999999</v>
+      </c>
+      <c r="Y535" s="47">
+        <v>1611619200</v>
+      </c>
+      <c r="Z535" s="47">
+        <v>1612195199</v>
+      </c>
+      <c r="AA535" s="47">
+        <v>73</v>
+      </c>
+      <c r="AH535" s="47">
+        <v>1</v>
+      </c>
+      <c r="AI535" s="47">
+        <v>1</v>
+      </c>
+      <c r="AL535" s="47">
+        <v>1</v>
+      </c>
+      <c r="AM535" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A536" s="5">
+        <v>535</v>
+      </c>
+      <c r="B536" s="49">
+        <v>10452</v>
+      </c>
+      <c r="F536" s="49">
+        <v>1</v>
+      </c>
+      <c r="G536" s="49" t="s">
+        <v>2018</v>
+      </c>
+      <c r="I536" s="49" t="s">
+        <v>2035</v>
+      </c>
+      <c r="J536" s="49" t="s">
+        <v>2036</v>
+      </c>
+      <c r="L536" s="49">
+        <v>-31</v>
+      </c>
+      <c r="M536" s="49">
+        <v>0</v>
+      </c>
+      <c r="N536" s="49">
+        <v>0</v>
+      </c>
+      <c r="O536" s="49" t="s">
+        <v>2037</v>
+      </c>
+      <c r="P536" s="49">
+        <v>4800</v>
+      </c>
+      <c r="Q536" s="49" t="s">
+        <v>2038</v>
+      </c>
+      <c r="R536" s="64" t="s">
+        <v>2034</v>
+      </c>
+      <c r="W536" s="49" t="s">
+        <v>2024</v>
+      </c>
+      <c r="X536" s="49">
+        <v>9999999</v>
+      </c>
+      <c r="Y536" s="49">
+        <v>1611619200</v>
+      </c>
+      <c r="Z536" s="49">
+        <v>1612195199</v>
+      </c>
+      <c r="AA536" s="49">
+        <v>74</v>
+      </c>
+      <c r="AH536" s="49">
+        <v>1</v>
+      </c>
+      <c r="AI536" s="49">
+        <v>1</v>
+      </c>
+      <c r="AL536" s="49">
+        <v>1</v>
+      </c>
+      <c r="AM536" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A537" s="5">
+        <v>536</v>
+      </c>
+      <c r="B537" s="49">
+        <v>10453</v>
+      </c>
+      <c r="F537" s="49">
+        <v>1</v>
+      </c>
+      <c r="G537" s="49" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I537" s="49" t="s">
+        <v>2035</v>
+      </c>
+      <c r="J537" s="49" t="s">
+        <v>2039</v>
+      </c>
+      <c r="L537" s="49">
+        <v>-31</v>
+      </c>
+      <c r="M537" s="49">
+        <v>0</v>
+      </c>
+      <c r="N537" s="49">
+        <v>0</v>
+      </c>
+      <c r="O537" s="49" t="s">
+        <v>2028</v>
+      </c>
+      <c r="P537" s="49">
+        <v>9800</v>
+      </c>
+      <c r="Q537" s="49" t="s">
+        <v>2040</v>
+      </c>
+      <c r="R537" s="64" t="s">
+        <v>2041</v>
+      </c>
+      <c r="W537" s="49" t="s">
+        <v>2024</v>
+      </c>
+      <c r="X537" s="49">
+        <v>9999999</v>
+      </c>
+      <c r="Y537" s="49">
+        <v>1611619200</v>
+      </c>
+      <c r="Z537" s="49">
+        <v>1612195199</v>
+      </c>
+      <c r="AA537" s="49">
+        <v>74</v>
+      </c>
+      <c r="AH537" s="49">
+        <v>1</v>
+      </c>
+      <c r="AI537" s="49">
+        <v>1</v>
+      </c>
+      <c r="AL537" s="49">
+        <v>1</v>
+      </c>
+      <c r="AM537" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A538" s="5">
+        <v>537</v>
+      </c>
+      <c r="B538" s="49">
+        <v>10454</v>
+      </c>
+      <c r="F538" s="49">
+        <v>1</v>
+      </c>
+      <c r="G538" s="49" t="s">
+        <v>2031</v>
+      </c>
+      <c r="I538" s="49" t="s">
+        <v>2042</v>
+      </c>
+      <c r="J538" s="49" t="s">
+        <v>2043</v>
+      </c>
+      <c r="L538" s="49">
+        <v>-31</v>
+      </c>
+      <c r="M538" s="49">
+        <v>0</v>
+      </c>
+      <c r="N538" s="49">
+        <v>0</v>
+      </c>
+      <c r="O538" s="49" t="s">
+        <v>2044</v>
+      </c>
+      <c r="P538" s="49">
+        <v>19800</v>
+      </c>
+      <c r="Q538" s="49" t="s">
+        <v>2045</v>
+      </c>
+      <c r="R538" s="64" t="s">
+        <v>2046</v>
+      </c>
+      <c r="W538" s="49" t="s">
+        <v>2024</v>
+      </c>
+      <c r="X538" s="49">
+        <v>9999999</v>
+      </c>
+      <c r="Y538" s="49">
+        <v>1611619200</v>
+      </c>
+      <c r="Z538" s="49">
+        <v>1612195199</v>
+      </c>
+      <c r="AA538" s="49">
+        <v>74</v>
+      </c>
+      <c r="AH538" s="49">
+        <v>1</v>
+      </c>
+      <c r="AI538" s="49">
+        <v>1</v>
+      </c>
+      <c r="AL538" s="49">
+        <v>1</v>
+      </c>
+      <c r="AM538" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A539" s="5">
+        <v>538</v>
+      </c>
+      <c r="B539" s="47">
+        <v>10455</v>
+      </c>
+      <c r="F539" s="47">
+        <v>1</v>
+      </c>
+      <c r="G539" s="47" t="s">
+        <v>2018</v>
+      </c>
+      <c r="I539" s="47" t="s">
+        <v>2047</v>
+      </c>
+      <c r="J539" s="47" t="s">
+        <v>2048</v>
+      </c>
+      <c r="L539" s="47">
+        <v>-31</v>
+      </c>
+      <c r="M539" s="47">
+        <v>0</v>
+      </c>
+      <c r="N539" s="47">
+        <v>0</v>
+      </c>
+      <c r="O539" s="47" t="s">
+        <v>2021</v>
+      </c>
+      <c r="P539" s="47">
+        <v>9800</v>
+      </c>
+      <c r="Q539" s="47" t="s">
+        <v>2049</v>
+      </c>
+      <c r="R539" s="63" t="s">
+        <v>2050</v>
+      </c>
+      <c r="W539" s="47" t="s">
+        <v>2024</v>
+      </c>
+      <c r="X539" s="47">
+        <v>9999999</v>
+      </c>
+      <c r="Y539" s="47">
+        <v>1611619200</v>
+      </c>
+      <c r="Z539" s="47">
+        <v>1612195199</v>
+      </c>
+      <c r="AA539" s="47">
+        <v>75</v>
+      </c>
+      <c r="AH539" s="47">
+        <v>1</v>
+      </c>
+      <c r="AI539" s="47">
+        <v>1</v>
+      </c>
+      <c r="AL539" s="47">
+        <v>1</v>
+      </c>
+      <c r="AM539" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A540" s="5">
+        <v>539</v>
+      </c>
+      <c r="B540" s="47">
+        <v>10456</v>
+      </c>
+      <c r="F540" s="47">
+        <v>1</v>
+      </c>
+      <c r="G540" s="47" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I540" s="47" t="s">
+        <v>2047</v>
+      </c>
+      <c r="J540" s="47" t="s">
+        <v>2051</v>
+      </c>
+      <c r="L540" s="47">
+        <v>-31</v>
+      </c>
+      <c r="M540" s="47">
+        <v>0</v>
+      </c>
+      <c r="N540" s="47">
+        <v>0</v>
+      </c>
+      <c r="O540" s="47" t="s">
+        <v>2021</v>
+      </c>
+      <c r="P540" s="47">
+        <v>19800</v>
+      </c>
+      <c r="Q540" s="47" t="s">
+        <v>2052</v>
+      </c>
+      <c r="R540" s="63" t="s">
+        <v>2053</v>
+      </c>
+      <c r="W540" s="47" t="s">
+        <v>2024</v>
+      </c>
+      <c r="X540" s="47">
+        <v>9999999</v>
+      </c>
+      <c r="Y540" s="47">
+        <v>1611619200</v>
+      </c>
+      <c r="Z540" s="47">
+        <v>1612195199</v>
+      </c>
+      <c r="AA540" s="47">
+        <v>75</v>
+      </c>
+      <c r="AH540" s="47">
+        <v>1</v>
+      </c>
+      <c r="AI540" s="47">
+        <v>1</v>
+      </c>
+      <c r="AL540" s="47">
+        <v>1</v>
+      </c>
+      <c r="AM540" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A541" s="5">
+        <v>540</v>
+      </c>
+      <c r="B541" s="47">
+        <v>10457</v>
+      </c>
+      <c r="F541" s="47">
+        <v>1</v>
+      </c>
+      <c r="G541" s="47" t="s">
+        <v>2031</v>
+      </c>
+      <c r="I541" s="47" t="s">
+        <v>2047</v>
+      </c>
+      <c r="J541" s="47" t="s">
+        <v>2054</v>
+      </c>
+      <c r="L541" s="47">
+        <v>-31</v>
+      </c>
+      <c r="M541" s="47">
+        <v>0</v>
+      </c>
+      <c r="N541" s="47">
+        <v>0</v>
+      </c>
+      <c r="O541" s="47" t="s">
+        <v>2028</v>
+      </c>
+      <c r="P541" s="47">
+        <v>49800</v>
+      </c>
+      <c r="Q541" s="47" t="s">
+        <v>2055</v>
+      </c>
+      <c r="R541" s="63" t="s">
+        <v>2056</v>
+      </c>
+      <c r="W541" s="47" t="s">
+        <v>2024</v>
+      </c>
+      <c r="X541" s="47">
+        <v>9999999</v>
+      </c>
+      <c r="Y541" s="47">
+        <v>1611619200</v>
+      </c>
+      <c r="Z541" s="47">
+        <v>1612195199</v>
+      </c>
+      <c r="AA541" s="47">
+        <v>75</v>
+      </c>
+      <c r="AH541" s="47">
+        <v>1</v>
+      </c>
+      <c r="AI541" s="47">
+        <v>1</v>
+      </c>
+      <c r="AL541" s="47">
+        <v>1</v>
+      </c>
+      <c r="AM541" s="47">
         <v>1</v>
       </c>
     </row>
@@ -45540,10 +46293,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -46539,45 +47292,87 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="12">
         <v>70</v>
       </c>
-      <c r="B71" s="59" t="s">
-        <v>1961</v>
-      </c>
-      <c r="C71" s="60">
-        <v>1</v>
-      </c>
-      <c r="D71" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="57" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C71" s="58">
+        <v>1</v>
+      </c>
+      <c r="D71" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="12">
         <v>71</v>
       </c>
-      <c r="B72" s="59" t="s">
-        <v>1962</v>
-      </c>
-      <c r="C72" s="60">
-        <v>1</v>
-      </c>
-      <c r="D72" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="57" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C72" s="58">
+        <v>1</v>
+      </c>
+      <c r="D72" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="12">
         <v>72</v>
       </c>
-      <c r="B73" s="59" t="s">
-        <v>1963</v>
-      </c>
-      <c r="C73" s="60">
-        <v>1</v>
-      </c>
-      <c r="D73" s="60">
+      <c r="B73" s="57" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C73" s="58">
+        <v>1</v>
+      </c>
+      <c r="D73" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="12">
+        <v>73</v>
+      </c>
+      <c r="B74" s="57" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C74" s="58">
+        <v>1</v>
+      </c>
+      <c r="D74" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="12">
+        <v>74</v>
+      </c>
+      <c r="B75" s="57" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C75" s="58">
+        <v>1</v>
+      </c>
+      <c r="D75" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="12">
+        <v>75</v>
+      </c>
+      <c r="B76" s="57" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C76" s="58">
+        <v>1</v>
+      </c>
+      <c r="D76" s="58">
         <v>0</v>
       </c>
     </row>

--- a/config_Release/shoping_config_vivo.xlsx
+++ b/config_Release/shoping_config_vivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4408" uniqueCount="2064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4457" uniqueCount="2076">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8750,6 +8750,54 @@
   </si>
   <si>
     <t>600000,20000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年福袋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年福袋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币","300万小游戏币","铁锹*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>99800000,3000000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","150万小游戏币","铁锹*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,1500000,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>四季发财</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>六六大顺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,150000,8,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","10万小游戏币","水滴*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -8852,7 +8900,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8913,6 +8961,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -8956,7 +9010,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9150,6 +9204,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11604,13 +11667,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN541"/>
+  <dimension ref="A1:AN548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W521" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W518" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA533" sqref="AA533:AA541"/>
+      <selection pane="bottomRight" activeCell="AA544" sqref="AA544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -45671,615 +45734,1133 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A533" s="5">
         <v>532</v>
       </c>
-      <c r="B533" s="47">
+      <c r="B533" s="5">
         <v>10449</v>
       </c>
-      <c r="F533" s="47">
-        <v>1</v>
-      </c>
-      <c r="G533" s="47" t="s">
+      <c r="F533" s="5">
+        <v>1</v>
+      </c>
+      <c r="G533" s="5" t="s">
         <v>2018</v>
       </c>
-      <c r="I533" s="47" t="s">
+      <c r="I533" s="5" t="s">
         <v>2019</v>
       </c>
-      <c r="J533" s="47" t="s">
+      <c r="J533" s="5" t="s">
         <v>2020</v>
       </c>
-      <c r="L533" s="47">
+      <c r="L533" s="5">
         <v>-31</v>
       </c>
-      <c r="M533" s="47">
-        <v>0</v>
-      </c>
-      <c r="N533" s="47">
-        <v>0</v>
-      </c>
-      <c r="O533" s="47" t="s">
+      <c r="M533" s="5">
+        <v>0</v>
+      </c>
+      <c r="N533" s="5">
+        <v>0</v>
+      </c>
+      <c r="O533" s="5" t="s">
         <v>2021</v>
       </c>
-      <c r="P533" s="47">
+      <c r="P533" s="5">
         <v>1800</v>
       </c>
-      <c r="Q533" s="47" t="s">
+      <c r="Q533" s="5" t="s">
         <v>2022</v>
       </c>
-      <c r="R533" s="63" t="s">
+      <c r="R533" s="10" t="s">
         <v>2023</v>
       </c>
-      <c r="W533" s="47" t="s">
+      <c r="W533" s="5" t="s">
         <v>2024</v>
       </c>
-      <c r="X533" s="47">
+      <c r="X533" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y533" s="47">
+      <c r="Y533" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z533" s="47">
+      <c r="Z533" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA533" s="47">
+      <c r="AA533" s="5">
         <v>73</v>
       </c>
-      <c r="AH533" s="47">
-        <v>1</v>
-      </c>
-      <c r="AI533" s="47">
-        <v>1</v>
-      </c>
-      <c r="AL533" s="47">
-        <v>1</v>
-      </c>
-      <c r="AM533" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="534" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH533" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI533" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL533" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM533" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A534" s="5">
         <v>533</v>
       </c>
-      <c r="B534" s="47">
+      <c r="B534" s="5">
         <v>10450</v>
       </c>
-      <c r="F534" s="47">
-        <v>1</v>
-      </c>
-      <c r="G534" s="47" t="s">
+      <c r="F534" s="5">
+        <v>1</v>
+      </c>
+      <c r="G534" s="5" t="s">
         <v>2025</v>
       </c>
-      <c r="I534" s="47" t="s">
+      <c r="I534" s="5" t="s">
         <v>2026</v>
       </c>
-      <c r="J534" s="47" t="s">
+      <c r="J534" s="5" t="s">
         <v>2027</v>
       </c>
-      <c r="L534" s="47">
+      <c r="L534" s="5">
         <v>-31</v>
       </c>
-      <c r="M534" s="47">
-        <v>0</v>
-      </c>
-      <c r="N534" s="47">
-        <v>0</v>
-      </c>
-      <c r="O534" s="47" t="s">
+      <c r="M534" s="5">
+        <v>0</v>
+      </c>
+      <c r="N534" s="5">
+        <v>0</v>
+      </c>
+      <c r="O534" s="5" t="s">
         <v>2028</v>
       </c>
-      <c r="P534" s="47">
+      <c r="P534" s="5">
         <v>3000</v>
       </c>
-      <c r="Q534" s="47" t="s">
+      <c r="Q534" s="5" t="s">
         <v>2029</v>
       </c>
-      <c r="R534" s="63" t="s">
+      <c r="R534" s="10" t="s">
         <v>2030</v>
       </c>
-      <c r="W534" s="47" t="s">
+      <c r="W534" s="5" t="s">
         <v>2024</v>
       </c>
-      <c r="X534" s="47">
+      <c r="X534" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y534" s="47">
+      <c r="Y534" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z534" s="47">
+      <c r="Z534" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA534" s="47">
+      <c r="AA534" s="5">
         <v>73</v>
       </c>
-      <c r="AH534" s="47">
-        <v>1</v>
-      </c>
-      <c r="AI534" s="47">
-        <v>1</v>
-      </c>
-      <c r="AL534" s="47">
-        <v>1</v>
-      </c>
-      <c r="AM534" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="535" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH534" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI534" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL534" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM534" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A535" s="5">
         <v>534</v>
       </c>
-      <c r="B535" s="47">
+      <c r="B535" s="5">
         <v>10451</v>
       </c>
-      <c r="F535" s="47">
-        <v>1</v>
-      </c>
-      <c r="G535" s="47" t="s">
+      <c r="F535" s="5">
+        <v>1</v>
+      </c>
+      <c r="G535" s="5" t="s">
         <v>2031</v>
       </c>
-      <c r="I535" s="47" t="s">
+      <c r="I535" s="5" t="s">
         <v>2026</v>
       </c>
-      <c r="J535" s="47" t="s">
+      <c r="J535" s="5" t="s">
         <v>2032</v>
       </c>
-      <c r="L535" s="47">
+      <c r="L535" s="5">
         <v>-31</v>
       </c>
-      <c r="M535" s="47">
-        <v>0</v>
-      </c>
-      <c r="N535" s="47">
-        <v>0</v>
-      </c>
-      <c r="O535" s="47" t="s">
+      <c r="M535" s="5">
+        <v>0</v>
+      </c>
+      <c r="N535" s="5">
+        <v>0</v>
+      </c>
+      <c r="O535" s="5" t="s">
         <v>2021</v>
       </c>
-      <c r="P535" s="47">
+      <c r="P535" s="5">
         <v>4800</v>
       </c>
-      <c r="Q535" s="47" t="s">
+      <c r="Q535" s="5" t="s">
         <v>2033</v>
       </c>
-      <c r="R535" s="63" t="s">
+      <c r="R535" s="10" t="s">
         <v>2034</v>
       </c>
-      <c r="W535" s="47" t="s">
+      <c r="W535" s="5" t="s">
         <v>2024</v>
       </c>
-      <c r="X535" s="47">
+      <c r="X535" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y535" s="47">
+      <c r="Y535" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z535" s="47">
+      <c r="Z535" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA535" s="47">
+      <c r="AA535" s="5">
         <v>73</v>
       </c>
-      <c r="AH535" s="47">
-        <v>1</v>
-      </c>
-      <c r="AI535" s="47">
-        <v>1</v>
-      </c>
-      <c r="AL535" s="47">
-        <v>1</v>
-      </c>
-      <c r="AM535" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="536" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH535" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI535" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL535" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM535" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A536" s="5">
         <v>535</v>
       </c>
-      <c r="B536" s="49">
+      <c r="B536" s="5">
         <v>10452</v>
       </c>
-      <c r="F536" s="49">
-        <v>1</v>
-      </c>
-      <c r="G536" s="49" t="s">
+      <c r="F536" s="5">
+        <v>1</v>
+      </c>
+      <c r="G536" s="5" t="s">
         <v>2018</v>
       </c>
-      <c r="I536" s="49" t="s">
+      <c r="I536" s="5" t="s">
         <v>2035</v>
       </c>
-      <c r="J536" s="49" t="s">
+      <c r="J536" s="5" t="s">
         <v>2036</v>
       </c>
-      <c r="L536" s="49">
+      <c r="L536" s="5">
         <v>-31</v>
       </c>
-      <c r="M536" s="49">
-        <v>0</v>
-      </c>
-      <c r="N536" s="49">
-        <v>0</v>
-      </c>
-      <c r="O536" s="49" t="s">
+      <c r="M536" s="5">
+        <v>0</v>
+      </c>
+      <c r="N536" s="5">
+        <v>0</v>
+      </c>
+      <c r="O536" s="5" t="s">
         <v>2037</v>
       </c>
-      <c r="P536" s="49">
+      <c r="P536" s="5">
         <v>4800</v>
       </c>
-      <c r="Q536" s="49" t="s">
+      <c r="Q536" s="5" t="s">
         <v>2038</v>
       </c>
-      <c r="R536" s="64" t="s">
+      <c r="R536" s="10" t="s">
         <v>2034</v>
       </c>
-      <c r="W536" s="49" t="s">
+      <c r="W536" s="5" t="s">
         <v>2024</v>
       </c>
-      <c r="X536" s="49">
+      <c r="X536" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y536" s="49">
+      <c r="Y536" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z536" s="49">
+      <c r="Z536" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA536" s="49">
+      <c r="AA536" s="5">
         <v>74</v>
       </c>
-      <c r="AH536" s="49">
-        <v>1</v>
-      </c>
-      <c r="AI536" s="49">
-        <v>1</v>
-      </c>
-      <c r="AL536" s="49">
-        <v>1</v>
-      </c>
-      <c r="AM536" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="537" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH536" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI536" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL536" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM536" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A537" s="5">
         <v>536</v>
       </c>
-      <c r="B537" s="49">
+      <c r="B537" s="5">
         <v>10453</v>
       </c>
-      <c r="F537" s="49">
-        <v>1</v>
-      </c>
-      <c r="G537" s="49" t="s">
+      <c r="F537" s="5">
+        <v>1</v>
+      </c>
+      <c r="G537" s="5" t="s">
         <v>2025</v>
       </c>
-      <c r="I537" s="49" t="s">
+      <c r="I537" s="5" t="s">
         <v>2035</v>
       </c>
-      <c r="J537" s="49" t="s">
+      <c r="J537" s="5" t="s">
         <v>2039</v>
       </c>
-      <c r="L537" s="49">
+      <c r="L537" s="5">
         <v>-31</v>
       </c>
-      <c r="M537" s="49">
-        <v>0</v>
-      </c>
-      <c r="N537" s="49">
-        <v>0</v>
-      </c>
-      <c r="O537" s="49" t="s">
+      <c r="M537" s="5">
+        <v>0</v>
+      </c>
+      <c r="N537" s="5">
+        <v>0</v>
+      </c>
+      <c r="O537" s="5" t="s">
         <v>2028</v>
       </c>
-      <c r="P537" s="49">
+      <c r="P537" s="5">
         <v>9800</v>
       </c>
-      <c r="Q537" s="49" t="s">
+      <c r="Q537" s="5" t="s">
         <v>2040</v>
       </c>
-      <c r="R537" s="64" t="s">
+      <c r="R537" s="10" t="s">
         <v>2041</v>
       </c>
-      <c r="W537" s="49" t="s">
+      <c r="W537" s="5" t="s">
         <v>2024</v>
       </c>
-      <c r="X537" s="49">
+      <c r="X537" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y537" s="49">
+      <c r="Y537" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z537" s="49">
+      <c r="Z537" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA537" s="49">
+      <c r="AA537" s="5">
         <v>74</v>
       </c>
-      <c r="AH537" s="49">
-        <v>1</v>
-      </c>
-      <c r="AI537" s="49">
-        <v>1</v>
-      </c>
-      <c r="AL537" s="49">
-        <v>1</v>
-      </c>
-      <c r="AM537" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="538" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH537" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI537" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL537" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM537" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A538" s="5">
         <v>537</v>
       </c>
-      <c r="B538" s="49">
+      <c r="B538" s="5">
         <v>10454</v>
       </c>
-      <c r="F538" s="49">
-        <v>1</v>
-      </c>
-      <c r="G538" s="49" t="s">
+      <c r="F538" s="5">
+        <v>1</v>
+      </c>
+      <c r="G538" s="5" t="s">
         <v>2031</v>
       </c>
-      <c r="I538" s="49" t="s">
+      <c r="I538" s="5" t="s">
         <v>2042</v>
       </c>
-      <c r="J538" s="49" t="s">
+      <c r="J538" s="5" t="s">
         <v>2043</v>
       </c>
-      <c r="L538" s="49">
+      <c r="L538" s="5">
         <v>-31</v>
       </c>
-      <c r="M538" s="49">
-        <v>0</v>
-      </c>
-      <c r="N538" s="49">
-        <v>0</v>
-      </c>
-      <c r="O538" s="49" t="s">
+      <c r="M538" s="5">
+        <v>0</v>
+      </c>
+      <c r="N538" s="5">
+        <v>0</v>
+      </c>
+      <c r="O538" s="5" t="s">
         <v>2044</v>
       </c>
-      <c r="P538" s="49">
+      <c r="P538" s="5">
         <v>19800</v>
       </c>
-      <c r="Q538" s="49" t="s">
+      <c r="Q538" s="5" t="s">
         <v>2045</v>
       </c>
-      <c r="R538" s="64" t="s">
+      <c r="R538" s="10" t="s">
         <v>2046</v>
       </c>
-      <c r="W538" s="49" t="s">
+      <c r="W538" s="5" t="s">
         <v>2024</v>
       </c>
-      <c r="X538" s="49">
+      <c r="X538" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y538" s="49">
+      <c r="Y538" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z538" s="49">
+      <c r="Z538" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA538" s="49">
+      <c r="AA538" s="5">
         <v>74</v>
       </c>
-      <c r="AH538" s="49">
-        <v>1</v>
-      </c>
-      <c r="AI538" s="49">
-        <v>1</v>
-      </c>
-      <c r="AL538" s="49">
-        <v>1</v>
-      </c>
-      <c r="AM538" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="539" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH538" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI538" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL538" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM538" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A539" s="5">
         <v>538</v>
       </c>
-      <c r="B539" s="47">
+      <c r="B539" s="5">
         <v>10455</v>
       </c>
-      <c r="F539" s="47">
-        <v>1</v>
-      </c>
-      <c r="G539" s="47" t="s">
+      <c r="F539" s="5">
+        <v>1</v>
+      </c>
+      <c r="G539" s="5" t="s">
         <v>2018</v>
       </c>
-      <c r="I539" s="47" t="s">
+      <c r="I539" s="5" t="s">
         <v>2047</v>
       </c>
-      <c r="J539" s="47" t="s">
+      <c r="J539" s="5" t="s">
         <v>2048</v>
       </c>
-      <c r="L539" s="47">
+      <c r="L539" s="5">
         <v>-31</v>
       </c>
-      <c r="M539" s="47">
-        <v>0</v>
-      </c>
-      <c r="N539" s="47">
-        <v>0</v>
-      </c>
-      <c r="O539" s="47" t="s">
+      <c r="M539" s="5">
+        <v>0</v>
+      </c>
+      <c r="N539" s="5">
+        <v>0</v>
+      </c>
+      <c r="O539" s="5" t="s">
         <v>2021</v>
       </c>
-      <c r="P539" s="47">
+      <c r="P539" s="5">
         <v>9800</v>
       </c>
-      <c r="Q539" s="47" t="s">
+      <c r="Q539" s="5" t="s">
         <v>2049</v>
       </c>
-      <c r="R539" s="63" t="s">
+      <c r="R539" s="10" t="s">
         <v>2050</v>
       </c>
-      <c r="W539" s="47" t="s">
+      <c r="W539" s="5" t="s">
         <v>2024</v>
       </c>
-      <c r="X539" s="47">
+      <c r="X539" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y539" s="47">
+      <c r="Y539" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z539" s="47">
+      <c r="Z539" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA539" s="47">
+      <c r="AA539" s="5">
         <v>75</v>
       </c>
-      <c r="AH539" s="47">
-        <v>1</v>
-      </c>
-      <c r="AI539" s="47">
-        <v>1</v>
-      </c>
-      <c r="AL539" s="47">
-        <v>1</v>
-      </c>
-      <c r="AM539" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="540" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH539" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI539" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL539" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM539" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A540" s="5">
         <v>539</v>
       </c>
-      <c r="B540" s="47">
+      <c r="B540" s="5">
         <v>10456</v>
       </c>
-      <c r="F540" s="47">
-        <v>1</v>
-      </c>
-      <c r="G540" s="47" t="s">
+      <c r="F540" s="5">
+        <v>1</v>
+      </c>
+      <c r="G540" s="5" t="s">
         <v>2025</v>
       </c>
-      <c r="I540" s="47" t="s">
+      <c r="I540" s="5" t="s">
         <v>2047</v>
       </c>
-      <c r="J540" s="47" t="s">
+      <c r="J540" s="5" t="s">
         <v>2051</v>
       </c>
-      <c r="L540" s="47">
+      <c r="L540" s="5">
         <v>-31</v>
       </c>
-      <c r="M540" s="47">
-        <v>0</v>
-      </c>
-      <c r="N540" s="47">
-        <v>0</v>
-      </c>
-      <c r="O540" s="47" t="s">
+      <c r="M540" s="5">
+        <v>0</v>
+      </c>
+      <c r="N540" s="5">
+        <v>0</v>
+      </c>
+      <c r="O540" s="5" t="s">
         <v>2021</v>
       </c>
-      <c r="P540" s="47">
+      <c r="P540" s="5">
         <v>19800</v>
       </c>
-      <c r="Q540" s="47" t="s">
+      <c r="Q540" s="5" t="s">
         <v>2052</v>
       </c>
-      <c r="R540" s="63" t="s">
+      <c r="R540" s="10" t="s">
         <v>2053</v>
       </c>
-      <c r="W540" s="47" t="s">
+      <c r="W540" s="5" t="s">
         <v>2024</v>
       </c>
-      <c r="X540" s="47">
+      <c r="X540" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y540" s="47">
+      <c r="Y540" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z540" s="47">
+      <c r="Z540" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA540" s="47">
+      <c r="AA540" s="5">
         <v>75</v>
       </c>
-      <c r="AH540" s="47">
-        <v>1</v>
-      </c>
-      <c r="AI540" s="47">
-        <v>1</v>
-      </c>
-      <c r="AL540" s="47">
-        <v>1</v>
-      </c>
-      <c r="AM540" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="541" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH540" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI540" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL540" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM540" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>540</v>
       </c>
-      <c r="B541" s="47">
+      <c r="B541" s="5">
         <v>10457</v>
       </c>
-      <c r="F541" s="47">
-        <v>1</v>
-      </c>
-      <c r="G541" s="47" t="s">
+      <c r="F541" s="5">
+        <v>1</v>
+      </c>
+      <c r="G541" s="5" t="s">
         <v>2031</v>
       </c>
-      <c r="I541" s="47" t="s">
+      <c r="I541" s="5" t="s">
         <v>2047</v>
       </c>
-      <c r="J541" s="47" t="s">
+      <c r="J541" s="5" t="s">
         <v>2054</v>
       </c>
-      <c r="L541" s="47">
+      <c r="L541" s="5">
         <v>-31</v>
       </c>
-      <c r="M541" s="47">
-        <v>0</v>
-      </c>
-      <c r="N541" s="47">
-        <v>0</v>
-      </c>
-      <c r="O541" s="47" t="s">
+      <c r="M541" s="5">
+        <v>0</v>
+      </c>
+      <c r="N541" s="5">
+        <v>0</v>
+      </c>
+      <c r="O541" s="5" t="s">
         <v>2028</v>
       </c>
-      <c r="P541" s="47">
+      <c r="P541" s="5">
         <v>49800</v>
       </c>
-      <c r="Q541" s="47" t="s">
+      <c r="Q541" s="5" t="s">
         <v>2055</v>
       </c>
-      <c r="R541" s="63" t="s">
+      <c r="R541" s="10" t="s">
         <v>2056</v>
       </c>
-      <c r="W541" s="47" t="s">
+      <c r="W541" s="5" t="s">
         <v>2024</v>
       </c>
-      <c r="X541" s="47">
+      <c r="X541" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y541" s="47">
+      <c r="Y541" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z541" s="47">
+      <c r="Z541" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA541" s="47">
+      <c r="AA541" s="5">
         <v>75</v>
       </c>
-      <c r="AH541" s="47">
-        <v>1</v>
-      </c>
-      <c r="AI541" s="47">
-        <v>1</v>
-      </c>
-      <c r="AL541" s="47">
-        <v>1</v>
-      </c>
-      <c r="AM541" s="47">
+      <c r="AH541" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI541" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL541" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM541" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A542" s="5">
+        <v>541</v>
+      </c>
+      <c r="B542" s="65">
+        <v>10458</v>
+      </c>
+      <c r="C542" s="65"/>
+      <c r="D542" s="65"/>
+      <c r="E542" s="65"/>
+      <c r="F542" s="65">
+        <v>1</v>
+      </c>
+      <c r="G542" s="65" t="s">
+        <v>1333</v>
+      </c>
+      <c r="H542" s="65"/>
+      <c r="I542" s="65" t="s">
+        <v>2059</v>
+      </c>
+      <c r="J542" s="65" t="s">
+        <v>2060</v>
+      </c>
+      <c r="K542" s="65"/>
+      <c r="L542" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M542" s="65">
+        <v>0</v>
+      </c>
+      <c r="N542" s="65">
+        <v>0</v>
+      </c>
+      <c r="O542" s="65" t="s">
+        <v>481</v>
+      </c>
+      <c r="P542" s="65">
+        <v>99800</v>
+      </c>
+      <c r="Q542" s="65" t="s">
+        <v>1810</v>
+      </c>
+      <c r="R542" s="66" t="s">
+        <v>2061</v>
+      </c>
+      <c r="S542" s="65"/>
+      <c r="T542" s="65"/>
+      <c r="U542" s="65"/>
+      <c r="V542" s="65"/>
+      <c r="W542" s="65" t="s">
+        <v>1359</v>
+      </c>
+      <c r="X542" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y542" s="67">
+        <v>1612224000</v>
+      </c>
+      <c r="Z542" s="67">
+        <v>1612799999</v>
+      </c>
+      <c r="AH542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM542" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A543" s="5">
+        <v>542</v>
+      </c>
+      <c r="B543" s="65">
+        <v>10459</v>
+      </c>
+      <c r="C543" s="65"/>
+      <c r="D543" s="65"/>
+      <c r="E543" s="65"/>
+      <c r="F543" s="65">
+        <v>1</v>
+      </c>
+      <c r="G543" s="65" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H543" s="65"/>
+      <c r="I543" s="65" t="s">
+        <v>2058</v>
+      </c>
+      <c r="J543" s="65" t="s">
+        <v>2062</v>
+      </c>
+      <c r="K543" s="65"/>
+      <c r="L543" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M543" s="65">
+        <v>0</v>
+      </c>
+      <c r="N543" s="65">
+        <v>0</v>
+      </c>
+      <c r="O543" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="P543" s="65">
+        <v>49800</v>
+      </c>
+      <c r="Q543" s="65" t="s">
+        <v>1810</v>
+      </c>
+      <c r="R543" s="66" t="s">
+        <v>2063</v>
+      </c>
+      <c r="S543" s="65"/>
+      <c r="T543" s="65"/>
+      <c r="U543" s="65"/>
+      <c r="V543" s="65"/>
+      <c r="W543" s="65" t="s">
+        <v>527</v>
+      </c>
+      <c r="X543" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y543" s="67">
+        <v>1612224000</v>
+      </c>
+      <c r="Z543" s="67">
+        <v>1612799999</v>
+      </c>
+      <c r="AH543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM543" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A544" s="5">
+        <v>543</v>
+      </c>
+      <c r="B544" s="65">
+        <v>10460</v>
+      </c>
+      <c r="C544" s="65"/>
+      <c r="D544" s="65"/>
+      <c r="E544" s="65"/>
+      <c r="F544" s="65">
+        <v>1</v>
+      </c>
+      <c r="G544" s="65" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H544" s="65"/>
+      <c r="I544" s="65" t="s">
+        <v>2058</v>
+      </c>
+      <c r="J544" s="65" t="s">
+        <v>1470</v>
+      </c>
+      <c r="K544" s="65"/>
+      <c r="L544" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M544" s="65">
+        <v>0</v>
+      </c>
+      <c r="N544" s="65">
+        <v>0</v>
+      </c>
+      <c r="O544" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="P544" s="65">
+        <v>29800</v>
+      </c>
+      <c r="Q544" s="65" t="s">
+        <v>1464</v>
+      </c>
+      <c r="R544" s="66" t="s">
+        <v>1353</v>
+      </c>
+      <c r="S544" s="65"/>
+      <c r="T544" s="65"/>
+      <c r="U544" s="65"/>
+      <c r="V544" s="65"/>
+      <c r="W544" s="65" t="s">
+        <v>527</v>
+      </c>
+      <c r="X544" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y544" s="67">
+        <v>1612224000</v>
+      </c>
+      <c r="Z544" s="67">
+        <v>1612799999</v>
+      </c>
+      <c r="AH544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM544" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A545" s="5">
+        <v>544</v>
+      </c>
+      <c r="B545" s="65">
+        <v>10461</v>
+      </c>
+      <c r="C545" s="65"/>
+      <c r="D545" s="65"/>
+      <c r="E545" s="65"/>
+      <c r="F545" s="65">
+        <v>1</v>
+      </c>
+      <c r="G545" s="65" t="s">
+        <v>2064</v>
+      </c>
+      <c r="H545" s="65"/>
+      <c r="I545" s="65" t="s">
+        <v>2058</v>
+      </c>
+      <c r="J545" s="65" t="s">
+        <v>1466</v>
+      </c>
+      <c r="K545" s="65"/>
+      <c r="L545" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M545" s="65">
+        <v>0</v>
+      </c>
+      <c r="N545" s="65">
+        <v>0</v>
+      </c>
+      <c r="O545" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="P545" s="65">
+        <v>19800</v>
+      </c>
+      <c r="Q545" s="65" t="s">
+        <v>1464</v>
+      </c>
+      <c r="R545" s="66" t="s">
+        <v>1349</v>
+      </c>
+      <c r="S545" s="65"/>
+      <c r="T545" s="65"/>
+      <c r="U545" s="65"/>
+      <c r="V545" s="65"/>
+      <c r="W545" s="65" t="s">
+        <v>527</v>
+      </c>
+      <c r="X545" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y545" s="67">
+        <v>1612224000</v>
+      </c>
+      <c r="Z545" s="67">
+        <v>1612799999</v>
+      </c>
+      <c r="AH545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM545" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A546" s="5">
+        <v>545</v>
+      </c>
+      <c r="B546" s="65">
+        <v>10462</v>
+      </c>
+      <c r="C546" s="65"/>
+      <c r="D546" s="65"/>
+      <c r="E546" s="65"/>
+      <c r="F546" s="65">
+        <v>1</v>
+      </c>
+      <c r="G546" s="65" t="s">
+        <v>1350</v>
+      </c>
+      <c r="H546" s="65"/>
+      <c r="I546" s="65" t="s">
+        <v>2058</v>
+      </c>
+      <c r="J546" s="65" t="s">
+        <v>1463</v>
+      </c>
+      <c r="K546" s="65"/>
+      <c r="L546" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M546" s="65">
+        <v>0</v>
+      </c>
+      <c r="N546" s="65">
+        <v>0</v>
+      </c>
+      <c r="O546" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="P546" s="65">
+        <v>9800</v>
+      </c>
+      <c r="Q546" s="65" t="s">
+        <v>2065</v>
+      </c>
+      <c r="R546" s="66" t="s">
+        <v>1346</v>
+      </c>
+      <c r="S546" s="65"/>
+      <c r="T546" s="65"/>
+      <c r="U546" s="65"/>
+      <c r="V546" s="65"/>
+      <c r="W546" s="65" t="s">
+        <v>527</v>
+      </c>
+      <c r="X546" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y546" s="67">
+        <v>1612224000</v>
+      </c>
+      <c r="Z546" s="67">
+        <v>1612799999</v>
+      </c>
+      <c r="AH546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM546" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A547" s="5">
+        <v>546</v>
+      </c>
+      <c r="B547" s="65">
+        <v>10463</v>
+      </c>
+      <c r="C547" s="65"/>
+      <c r="D547" s="65"/>
+      <c r="E547" s="65"/>
+      <c r="F547" s="65">
+        <v>1</v>
+      </c>
+      <c r="G547" s="65" t="s">
+        <v>2066</v>
+      </c>
+      <c r="H547" s="65"/>
+      <c r="I547" s="65" t="s">
+        <v>2059</v>
+      </c>
+      <c r="J547" s="65" t="s">
+        <v>1459</v>
+      </c>
+      <c r="K547" s="65"/>
+      <c r="L547" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M547" s="65">
+        <v>0</v>
+      </c>
+      <c r="N547" s="65">
+        <v>0</v>
+      </c>
+      <c r="O547" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="P547" s="65">
+        <v>4800</v>
+      </c>
+      <c r="Q547" s="65" t="s">
+        <v>1796</v>
+      </c>
+      <c r="R547" s="66" t="s">
+        <v>2067</v>
+      </c>
+      <c r="S547" s="65"/>
+      <c r="T547" s="65"/>
+      <c r="U547" s="65"/>
+      <c r="V547" s="65"/>
+      <c r="W547" s="65" t="s">
+        <v>527</v>
+      </c>
+      <c r="X547" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y547" s="67">
+        <v>1612224000</v>
+      </c>
+      <c r="Z547" s="67">
+        <v>1612799999</v>
+      </c>
+      <c r="AH547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM547" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A548" s="5">
+        <v>547</v>
+      </c>
+      <c r="B548" s="65">
+        <v>10464</v>
+      </c>
+      <c r="C548" s="65"/>
+      <c r="D548" s="65"/>
+      <c r="E548" s="65"/>
+      <c r="F548" s="65">
+        <v>1</v>
+      </c>
+      <c r="G548" s="65" t="s">
+        <v>1360</v>
+      </c>
+      <c r="H548" s="65"/>
+      <c r="I548" s="65" t="s">
+        <v>2058</v>
+      </c>
+      <c r="J548" s="65" t="s">
+        <v>2068</v>
+      </c>
+      <c r="K548" s="65"/>
+      <c r="L548" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M548" s="65">
+        <v>0</v>
+      </c>
+      <c r="N548" s="65">
+        <v>0</v>
+      </c>
+      <c r="O548" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="P548" s="65">
+        <v>1800</v>
+      </c>
+      <c r="Q548" s="65" t="s">
+        <v>2069</v>
+      </c>
+      <c r="R548" s="66" t="s">
+        <v>1337</v>
+      </c>
+      <c r="S548" s="65"/>
+      <c r="T548" s="65"/>
+      <c r="U548" s="65"/>
+      <c r="V548" s="65"/>
+      <c r="W548" s="65" t="s">
+        <v>527</v>
+      </c>
+      <c r="X548" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y548" s="67">
+        <v>1612224000</v>
+      </c>
+      <c r="Z548" s="67">
+        <v>1612799999</v>
+      </c>
+      <c r="AH548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM548" s="5">
         <v>1</v>
       </c>
     </row>
@@ -46296,7 +46877,7 @@
   <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -47297,7 +47878,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="57" t="s">
-        <v>2058</v>
+        <v>2070</v>
       </c>
       <c r="C71" s="58">
         <v>1</v>
@@ -47311,7 +47892,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="57" t="s">
-        <v>2059</v>
+        <v>2071</v>
       </c>
       <c r="C72" s="58">
         <v>1</v>
@@ -47325,7 +47906,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="57" t="s">
-        <v>2060</v>
+        <v>2072</v>
       </c>
       <c r="C73" s="58">
         <v>1</v>
@@ -47339,7 +47920,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="57" t="s">
-        <v>2061</v>
+        <v>2073</v>
       </c>
       <c r="C74" s="58">
         <v>1</v>
@@ -47353,7 +47934,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="57" t="s">
-        <v>2062</v>
+        <v>2074</v>
       </c>
       <c r="C75" s="58">
         <v>1</v>
@@ -47367,7 +47948,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="57" t="s">
-        <v>2063</v>
+        <v>2075</v>
       </c>
       <c r="C76" s="58">
         <v>1</v>

--- a/config_Release/shoping_config_vivo.xlsx
+++ b/config_Release/shoping_config_vivo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4576" uniqueCount="2128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4669" uniqueCount="2161">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8981,6 +8981,155 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>女神礼包-捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_ty_csbox",</t>
+  </si>
+  <si>
+    <t>"996万金币","双倍奖励卡*4","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_ty_ssbox",</t>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_ty_xybox",</t>
+  </si>
+  <si>
+    <t>女神礼包-冲金鸡</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_2","prop_ty_csbox",</t>
+  </si>
+  <si>
+    <t>50000000,4,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,2,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_ty_ssbox",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_ty_xybox",</t>
+  </si>
+  <si>
+    <t>4880000,4,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满50抵扣5元</t>
+  </si>
+  <si>
+    <t>"500万金币",</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_5_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满98抵扣10元</t>
+  </si>
+  <si>
+    <t>"980万金币",</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_10_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满198抵扣20元</t>
+  </si>
+  <si>
+    <t>"1980万金币",</t>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","obj_20_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满498抵扣50元</t>
+  </si>
+  <si>
+    <t>"4980万金币",</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_50_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满998抵扣100元</t>
+  </si>
+  <si>
+    <t>"9980万金币",</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_100_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>99800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满2498抵扣200元</t>
+  </si>
+  <si>
+    <t>"24980万金币",</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_200_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>249800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coupon_gift_id|优惠券礼包ID</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>幸运金币6元</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8994,42 +9143,6 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "fclb_v8v12_002" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--1元--早</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--18元--早</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--48元--早</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--1元--中</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--28元--中</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--98元--中</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--1元--晚</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--48元--晚</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--198元--晚</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9108,7 +9221,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9169,24 +9282,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -9230,7 +9325,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9426,29 +9521,14 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -9911,10 +9991,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF32"/>
+  <dimension ref="A1:AG32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9922,32 +10002,32 @@
     <col min="1" max="1" width="8.75" style="2"/>
     <col min="2" max="4" width="19.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="26.125" style="23" customWidth="1"/>
-    <col min="6" max="7" width="19.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="40.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="30.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="30.375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="30.125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="30.125" style="2" customWidth="1"/>
-    <col min="15" max="17" width="14.875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="19.375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="8.75" style="2"/>
-    <col min="20" max="20" width="28.75" style="2" customWidth="1"/>
-    <col min="21" max="21" width="16.875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="24.375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="16.75" style="2" customWidth="1"/>
-    <col min="24" max="24" width="15.625" style="2" customWidth="1"/>
-    <col min="25" max="25" width="19.25" style="2" customWidth="1"/>
-    <col min="26" max="26" width="13" style="2" customWidth="1"/>
-    <col min="27" max="27" width="19.25" style="2" customWidth="1"/>
-    <col min="28" max="28" width="13" style="2" customWidth="1"/>
-    <col min="29" max="30" width="12.125" style="2" customWidth="1"/>
-    <col min="31" max="32" width="21.375" style="2" customWidth="1"/>
-    <col min="33" max="16384" width="8.75" style="2"/>
+    <col min="6" max="8" width="19.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="40.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="30.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="30.375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="30.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="30.125" style="2" customWidth="1"/>
+    <col min="16" max="18" width="14.875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="19.375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="8.75" style="2"/>
+    <col min="21" max="21" width="28.75" style="2" customWidth="1"/>
+    <col min="22" max="22" width="16.875" style="2" customWidth="1"/>
+    <col min="23" max="23" width="24.375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="16.75" style="2" customWidth="1"/>
+    <col min="25" max="25" width="15.625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="19.25" style="2" customWidth="1"/>
+    <col min="27" max="27" width="13" style="2" customWidth="1"/>
+    <col min="28" max="28" width="19.25" style="2" customWidth="1"/>
+    <col min="29" max="29" width="13" style="2" customWidth="1"/>
+    <col min="30" max="31" width="12.125" style="2" customWidth="1"/>
+    <col min="32" max="33" width="21.375" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="1" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9967,85 +10047,88 @@
         <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>2156</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -10062,72 +10145,73 @@
       <c r="F2" s="2">
         <v>10330</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="11">
+      <c r="I2" s="11">
         <v>600</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>1016</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="M2" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="45">
-        <v>1</v>
-      </c>
-      <c r="O2" s="2">
-        <v>1</v>
-      </c>
-      <c r="P2" s="11">
-        <v>0</v>
+      <c r="O2" s="45">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
       </c>
       <c r="Q2" s="11">
         <v>0</v>
       </c>
-      <c r="R2" s="2">
-        <v>1</v>
+      <c r="R2" s="11">
+        <v>0</v>
       </c>
       <c r="S2" s="2">
         <v>1</v>
       </c>
-      <c r="T2" s="33" t="s">
+      <c r="T2" s="2">
+        <v>1</v>
+      </c>
+      <c r="U2" s="33" t="s">
         <v>1036</v>
       </c>
-      <c r="U2" s="33" t="s">
+      <c r="V2" s="33" t="s">
         <v>1017</v>
       </c>
-      <c r="V2" s="11"/>
-      <c r="W2" s="33" t="s">
+      <c r="W2" s="11"/>
+      <c r="X2" s="33" t="s">
         <v>1037</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="Y2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="AC2" s="11">
-        <v>1</v>
-      </c>
       <c r="AD2" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -10144,72 +10228,73 @@
       <c r="F3" s="2">
         <v>85</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="11">
+      <c r="I3" s="11">
         <v>1500</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>1018</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="44" t="s">
+      <c r="M3" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="45">
-        <v>1</v>
-      </c>
-      <c r="O3" s="2">
+      <c r="O3" s="45">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2">
         <v>2</v>
       </c>
-      <c r="P3" s="11">
-        <v>0</v>
-      </c>
       <c r="Q3" s="11">
         <v>0</v>
       </c>
-      <c r="R3" s="2">
-        <v>1</v>
+      <c r="R3" s="11">
+        <v>0</v>
       </c>
       <c r="S3" s="2">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2">
         <v>2</v>
       </c>
-      <c r="T3" s="33" t="s">
+      <c r="U3" s="33" t="s">
         <v>1039</v>
       </c>
-      <c r="U3" s="33" t="s">
+      <c r="V3" s="33" t="s">
         <v>1019</v>
       </c>
-      <c r="V3" s="11"/>
-      <c r="W3" s="33" t="s">
+      <c r="W3" s="11"/>
+      <c r="X3" s="33" t="s">
         <v>1037</v>
       </c>
-      <c r="X3" s="11" t="s">
+      <c r="Y3" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC3" s="11">
-        <v>1</v>
-      </c>
       <c r="AD3" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE3" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -10226,72 +10311,73 @@
       <c r="F4" s="2">
         <v>86</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="11">
+      <c r="I4" s="11">
         <v>3000</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="K4" s="11" t="s">
         <v>1020</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="L4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="44" t="s">
+      <c r="M4" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="N4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="45">
-        <v>1</v>
-      </c>
-      <c r="O4" s="2">
+      <c r="O4" s="45">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
         <v>3</v>
       </c>
-      <c r="P4" s="11">
-        <v>0</v>
-      </c>
       <c r="Q4" s="11">
         <v>0</v>
       </c>
-      <c r="R4" s="2">
-        <v>1</v>
+      <c r="R4" s="11">
+        <v>0</v>
       </c>
       <c r="S4" s="2">
+        <v>1</v>
+      </c>
+      <c r="T4" s="2">
         <v>3</v>
       </c>
-      <c r="T4" s="33" t="s">
+      <c r="U4" s="33" t="s">
         <v>1040</v>
       </c>
-      <c r="U4" s="33" t="s">
+      <c r="V4" s="33" t="s">
         <v>1041</v>
       </c>
-      <c r="V4" s="11"/>
-      <c r="W4" s="33" t="s">
+      <c r="W4" s="11"/>
+      <c r="X4" s="33" t="s">
         <v>1037</v>
       </c>
-      <c r="X4" s="11" t="s">
+      <c r="Y4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="Z4" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AA4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC4" s="11">
-        <v>1</v>
-      </c>
       <c r="AD4" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE4" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -10308,72 +10394,75 @@
       <c r="F5" s="2">
         <v>87</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="2">
+        <v>10490</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="11">
+      <c r="I5" s="11">
         <v>5000</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="K5" s="11" t="s">
         <v>1021</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="L5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="44" t="s">
+      <c r="M5" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="N5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="45">
-        <v>1</v>
-      </c>
-      <c r="O5" s="2">
+      <c r="O5" s="45">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
         <v>4</v>
       </c>
-      <c r="P5" s="11">
-        <v>0</v>
-      </c>
       <c r="Q5" s="11">
         <v>0</v>
       </c>
-      <c r="R5" s="2">
-        <v>1</v>
+      <c r="R5" s="11">
+        <v>0</v>
       </c>
       <c r="S5" s="2">
+        <v>1</v>
+      </c>
+      <c r="T5" s="2">
         <v>4</v>
       </c>
-      <c r="T5" s="33" t="s">
+      <c r="U5" s="33" t="s">
         <v>1022</v>
       </c>
-      <c r="U5" s="33" t="s">
+      <c r="V5" s="33" t="s">
         <v>1042</v>
       </c>
-      <c r="V5" s="11"/>
-      <c r="W5" s="33" t="s">
+      <c r="W5" s="11"/>
+      <c r="X5" s="33" t="s">
         <v>1037</v>
       </c>
-      <c r="X5" s="11" t="s">
+      <c r="Y5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="Y5" s="2" t="s">
+      <c r="Z5" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="AA5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC5" s="11">
-        <v>1</v>
-      </c>
       <c r="AD5" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE5" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -10390,72 +10479,75 @@
       <c r="F6" s="2">
         <v>88</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="2">
+        <v>10491</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="11">
+      <c r="I6" s="11">
         <v>9800</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="J6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="K6" s="11" t="s">
         <v>1023</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="L6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="44" t="s">
+      <c r="M6" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="N6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="45">
-        <v>1</v>
-      </c>
-      <c r="O6" s="2">
+      <c r="O6" s="45">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2">
         <v>5</v>
       </c>
-      <c r="P6" s="11">
-        <v>0</v>
-      </c>
       <c r="Q6" s="11">
         <v>0</v>
       </c>
-      <c r="R6" s="2">
-        <v>1</v>
+      <c r="R6" s="11">
+        <v>0</v>
       </c>
       <c r="S6" s="2">
+        <v>1</v>
+      </c>
+      <c r="T6" s="2">
         <v>5</v>
-      </c>
-      <c r="T6" s="33" t="s">
-        <v>1043</v>
       </c>
       <c r="U6" s="33" t="s">
         <v>1043</v>
       </c>
-      <c r="V6" s="11"/>
-      <c r="W6" s="33" t="s">
+      <c r="V6" s="33" t="s">
+        <v>1043</v>
+      </c>
+      <c r="W6" s="11"/>
+      <c r="X6" s="33" t="s">
         <v>1037</v>
       </c>
-      <c r="X6" s="11" t="s">
+      <c r="Y6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="Y6" s="2" t="s">
+      <c r="Z6" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="Z6" s="2" t="s">
+      <c r="AA6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC6" s="11">
-        <v>1</v>
-      </c>
       <c r="AD6" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE6" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -10472,72 +10564,75 @@
       <c r="F7" s="2">
         <v>89</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="2">
+        <v>10493</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="11">
+      <c r="I7" s="11">
         <v>49800</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="J7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="K7" s="11" t="s">
         <v>1024</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="L7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="44" t="s">
+      <c r="M7" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="N7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="11">
-        <v>1</v>
-      </c>
-      <c r="O7" s="2">
+      <c r="O7" s="11">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
         <v>7</v>
       </c>
-      <c r="P7" s="11">
-        <v>0</v>
-      </c>
       <c r="Q7" s="11">
         <v>0</v>
       </c>
-      <c r="R7" s="2">
-        <v>1</v>
+      <c r="R7" s="11">
+        <v>0</v>
       </c>
       <c r="S7" s="2">
+        <v>1</v>
+      </c>
+      <c r="T7" s="2">
         <v>7</v>
       </c>
-      <c r="T7" s="33" t="s">
+      <c r="U7" s="33" t="s">
         <v>1025</v>
       </c>
-      <c r="U7" s="33" t="s">
+      <c r="V7" s="33" t="s">
         <v>1044</v>
       </c>
-      <c r="V7" s="11"/>
-      <c r="W7" s="33" t="s">
+      <c r="W7" s="11"/>
+      <c r="X7" s="33" t="s">
         <v>1037</v>
       </c>
-      <c r="X7" s="11" t="s">
+      <c r="Y7" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="Z7" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="AA7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC7" s="11">
-        <v>1</v>
-      </c>
       <c r="AD7" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -10554,72 +10649,73 @@
       <c r="F8" s="2">
         <v>109</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="11">
+      <c r="I8" s="11">
         <v>100000</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="J8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="K8" s="11" t="s">
         <v>1026</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="L8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="44" t="s">
+      <c r="M8" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="N8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="45">
-        <v>1</v>
-      </c>
-      <c r="O8" s="2">
+      <c r="O8" s="45">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
         <v>9</v>
       </c>
-      <c r="P8" s="11">
-        <v>0</v>
-      </c>
       <c r="Q8" s="11">
         <v>0</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="11">
         <v>0</v>
       </c>
       <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
         <v>8</v>
       </c>
-      <c r="T8" s="33" t="s">
+      <c r="U8" s="33" t="s">
         <v>1045</v>
       </c>
-      <c r="U8" s="33" t="s">
+      <c r="V8" s="33" t="s">
         <v>1046</v>
       </c>
-      <c r="V8" s="11"/>
-      <c r="W8" s="33" t="s">
+      <c r="W8" s="11"/>
+      <c r="X8" s="33" t="s">
         <v>1037</v>
       </c>
-      <c r="X8" s="11" t="s">
+      <c r="Y8" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Y8" s="2" t="s">
+      <c r="Z8" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="Z8" s="2" t="s">
+      <c r="AA8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC8" s="11">
-        <v>1</v>
-      </c>
       <c r="AD8" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -10636,71 +10732,74 @@
       <c r="F9" s="2">
         <v>10044</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="2">
+        <v>10494</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="11">
+      <c r="I9" s="11">
         <v>99800</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="K9" s="33" t="s">
         <v>1033</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="L9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="44" t="s">
+      <c r="M9" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="N9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N9" s="45">
-        <v>1</v>
-      </c>
-      <c r="O9" s="2">
+      <c r="O9" s="45">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2">
         <v>8</v>
       </c>
-      <c r="P9" s="11">
-        <v>0</v>
-      </c>
       <c r="Q9" s="11">
         <v>0</v>
       </c>
-      <c r="R9" s="2">
-        <v>1</v>
+      <c r="R9" s="11">
+        <v>0</v>
       </c>
       <c r="S9" s="2">
+        <v>1</v>
+      </c>
+      <c r="T9" s="2">
         <v>9</v>
-      </c>
-      <c r="T9" s="33" t="s">
-        <v>1047</v>
       </c>
       <c r="U9" s="33" t="s">
         <v>1047</v>
       </c>
-      <c r="W9" s="33" t="s">
+      <c r="V9" s="33" t="s">
+        <v>1047</v>
+      </c>
+      <c r="X9" s="33" t="s">
         <v>1048</v>
       </c>
-      <c r="X9" s="11" t="s">
+      <c r="Y9" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="Y9" s="2" t="s">
+      <c r="Z9" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="Z9" s="2" t="s">
+      <c r="AA9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC9" s="11">
-        <v>1</v>
-      </c>
       <c r="AD9" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -10717,71 +10816,74 @@
       <c r="F10" s="11">
         <v>10045</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="11">
+        <v>10495</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="11">
+      <c r="I10" s="11">
         <v>249800</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="J10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="K10" s="33" t="s">
         <v>1049</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="L10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="44" t="s">
+      <c r="M10" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="N10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N10" s="45">
-        <v>1</v>
-      </c>
-      <c r="O10" s="11">
+      <c r="O10" s="45">
+        <v>1</v>
+      </c>
+      <c r="P10" s="11">
         <v>10</v>
       </c>
-      <c r="P10" s="11">
-        <v>0</v>
-      </c>
       <c r="Q10" s="11">
         <v>0</v>
       </c>
       <c r="R10" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="11">
+        <v>1</v>
+      </c>
+      <c r="T10" s="11">
         <v>10</v>
-      </c>
-      <c r="T10" s="33" t="s">
-        <v>1050</v>
       </c>
       <c r="U10" s="33" t="s">
         <v>1050</v>
       </c>
-      <c r="W10" s="33" t="s">
+      <c r="V10" s="33" t="s">
+        <v>1050</v>
+      </c>
+      <c r="X10" s="33" t="s">
         <v>1048</v>
       </c>
-      <c r="X10" s="11" t="s">
+      <c r="Y10" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="Y10" s="11" t="s">
+      <c r="Z10" s="11" t="s">
         <v>633</v>
       </c>
-      <c r="Z10" s="11" t="s">
+      <c r="AA10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC10" s="11">
-        <v>1</v>
-      </c>
       <c r="AD10" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -10800,71 +10902,72 @@
       <c r="F11" s="11">
         <v>90</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="11"/>
+      <c r="H11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>600</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>1028</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="44" t="s">
+      <c r="M11" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N11" s="2">
-        <v>1</v>
-      </c>
-      <c r="O11" s="11">
-        <v>1</v>
-      </c>
-      <c r="P11" s="2">
-        <v>0</v>
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
+      <c r="P11" s="11">
+        <v>1</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
       </c>
-      <c r="R11" s="11">
-        <v>1</v>
+      <c r="R11" s="2">
+        <v>0</v>
       </c>
       <c r="S11" s="11">
         <v>1</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="T11" s="11">
+        <v>1</v>
+      </c>
+      <c r="U11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="U11" s="2">
+      <c r="V11" s="2">
         <v>400</v>
       </c>
-      <c r="W11" s="2" t="s">
+      <c r="X11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="X11" s="2" t="s">
+      <c r="Y11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Y11" s="33" t="s">
+      <c r="Z11" s="33" t="s">
         <v>626</v>
       </c>
-      <c r="Z11" s="11" t="s">
+      <c r="AA11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC11" s="2">
-        <v>1</v>
-      </c>
       <c r="AD11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -10881,71 +10984,72 @@
         <v>61</v>
       </c>
       <c r="F12" s="11"/>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="11"/>
+      <c r="H12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>3000</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>1029</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L12" s="44" t="s">
+      <c r="M12" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N12" s="2">
-        <v>1</v>
-      </c>
-      <c r="O12" s="11">
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
+      <c r="P12" s="11">
         <v>2</v>
       </c>
-      <c r="P12" s="2">
-        <v>0</v>
-      </c>
       <c r="Q12" s="2">
         <v>0</v>
       </c>
-      <c r="R12" s="11">
-        <v>1</v>
+      <c r="R12" s="2">
+        <v>0</v>
       </c>
       <c r="S12" s="11">
+        <v>1</v>
+      </c>
+      <c r="T12" s="11">
         <v>2</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="U12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="U12" s="2">
+      <c r="V12" s="2">
         <v>2000</v>
       </c>
-      <c r="W12" s="2" t="s">
+      <c r="X12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="X12" s="2" t="s">
+      <c r="Y12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Y12" s="11" t="s">
+      <c r="Z12" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="Z12" s="11" t="s">
+      <c r="AA12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC12" s="2">
-        <v>1</v>
-      </c>
       <c r="AD12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -10962,71 +11066,72 @@
         <v>64</v>
       </c>
       <c r="F13" s="11"/>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="11"/>
+      <c r="H13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>9800</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>1030</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="44" t="s">
+      <c r="M13" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N13" s="2">
-        <v>1</v>
-      </c>
-      <c r="O13" s="11">
+      <c r="O13" s="2">
+        <v>1</v>
+      </c>
+      <c r="P13" s="11">
         <v>3</v>
       </c>
-      <c r="P13" s="2">
-        <v>0</v>
-      </c>
       <c r="Q13" s="2">
         <v>0</v>
       </c>
-      <c r="R13" s="11">
-        <v>1</v>
+      <c r="R13" s="2">
+        <v>0</v>
       </c>
       <c r="S13" s="11">
+        <v>1</v>
+      </c>
+      <c r="T13" s="11">
         <v>3</v>
       </c>
-      <c r="T13" s="2" t="s">
+      <c r="U13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="U13" s="2">
+      <c r="V13" s="2">
         <v>6700</v>
       </c>
-      <c r="W13" s="2" t="s">
+      <c r="X13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="X13" s="2" t="s">
+      <c r="Y13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Y13" s="11" t="s">
+      <c r="Z13" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="Z13" s="11" t="s">
+      <c r="AA13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC13" s="2">
-        <v>1</v>
-      </c>
       <c r="AD13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -11043,71 +11148,72 @@
         <v>67</v>
       </c>
       <c r="F14" s="11"/>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="11"/>
+      <c r="H14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <v>19800</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>1031</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="44" t="s">
+      <c r="M14" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N14" s="2">
-        <v>1</v>
-      </c>
-      <c r="O14" s="11">
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="11">
         <v>4</v>
       </c>
-      <c r="P14" s="2">
-        <v>0</v>
-      </c>
       <c r="Q14" s="2">
         <v>0</v>
       </c>
-      <c r="R14" s="11">
-        <v>1</v>
+      <c r="R14" s="2">
+        <v>0</v>
       </c>
       <c r="S14" s="11">
+        <v>1</v>
+      </c>
+      <c r="T14" s="11">
         <v>4</v>
       </c>
-      <c r="T14" s="2" t="s">
+      <c r="U14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="U14" s="2" t="s">
+      <c r="V14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="W14" s="2" t="s">
+      <c r="X14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="X14" s="2" t="s">
+      <c r="Y14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Y14" s="11" t="s">
+      <c r="Z14" s="11" t="s">
         <v>634</v>
       </c>
-      <c r="Z14" s="11" t="s">
+      <c r="AA14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC14" s="2">
-        <v>1</v>
-      </c>
       <c r="AD14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -11124,71 +11230,72 @@
         <v>71</v>
       </c>
       <c r="F15" s="11"/>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="11"/>
+      <c r="H15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <v>29800</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>1032</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L15" s="44" t="s">
+      <c r="M15" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N15" s="2">
-        <v>1</v>
-      </c>
-      <c r="O15" s="11">
+      <c r="O15" s="2">
+        <v>1</v>
+      </c>
+      <c r="P15" s="11">
         <v>5</v>
       </c>
-      <c r="P15" s="2">
-        <v>0</v>
-      </c>
       <c r="Q15" s="2">
         <v>0</v>
       </c>
-      <c r="R15" s="11">
-        <v>1</v>
+      <c r="R15" s="2">
+        <v>0</v>
       </c>
       <c r="S15" s="11">
+        <v>1</v>
+      </c>
+      <c r="T15" s="11">
         <v>5</v>
       </c>
-      <c r="T15" s="2" t="s">
+      <c r="U15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U15" s="2" t="s">
+      <c r="V15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="W15" s="2" t="s">
+      <c r="X15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="X15" s="2" t="s">
+      <c r="Y15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Y15" s="11" t="s">
+      <c r="Z15" s="11" t="s">
         <v>634</v>
       </c>
-      <c r="Z15" s="11" t="s">
+      <c r="AA15" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC15" s="2">
-        <v>1</v>
-      </c>
       <c r="AD15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -11205,71 +11312,72 @@
         <v>75</v>
       </c>
       <c r="F16" s="11"/>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="11"/>
+      <c r="H16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="2">
         <v>100</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>1034</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N16" s="2">
-        <v>1</v>
-      </c>
-      <c r="O16" s="11">
+      <c r="O16" s="2">
+        <v>1</v>
+      </c>
+      <c r="P16" s="11">
         <v>11</v>
       </c>
-      <c r="P16" s="2">
-        <v>0</v>
-      </c>
       <c r="Q16" s="2">
         <v>0</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R16" s="2">
         <v>0</v>
       </c>
       <c r="S16" s="11">
         <v>0</v>
       </c>
-      <c r="T16" s="3" t="s">
+      <c r="T16" s="11">
+        <v>0</v>
+      </c>
+      <c r="U16" s="3" t="s">
         <v>1051</v>
       </c>
-      <c r="U16" s="2">
+      <c r="V16" s="2">
         <v>66</v>
       </c>
-      <c r="W16" s="2" t="s">
+      <c r="X16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="X16" s="2" t="s">
+      <c r="Y16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Y16" s="33" t="s">
+      <c r="Z16" s="33" t="s">
         <v>626</v>
       </c>
-      <c r="Z16" s="11" t="s">
+      <c r="AA16" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC16" s="2">
-        <v>1</v>
-      </c>
       <c r="AD16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -11279,71 +11387,72 @@
       <c r="C17" s="11"/>
       <c r="E17" s="46"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="11"/>
+      <c r="H17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I17" s="2">
         <v>600</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J17" s="33" t="s">
+      <c r="K17" s="33" t="s">
         <v>1052</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N17" s="2">
-        <v>1</v>
-      </c>
-      <c r="O17" s="11">
-        <v>1</v>
-      </c>
-      <c r="P17" s="2">
+      <c r="O17" s="2">
+        <v>1</v>
+      </c>
+      <c r="P17" s="11">
         <v>1</v>
       </c>
       <c r="Q17" s="2">
         <v>1</v>
       </c>
-      <c r="R17" s="11">
-        <v>0</v>
+      <c r="R17" s="2">
+        <v>1</v>
       </c>
       <c r="S17" s="11">
-        <v>1</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>1817</v>
+        <v>0</v>
+      </c>
+      <c r="T17" s="11">
+        <v>1</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>1817</v>
       </c>
-      <c r="W17" s="2" t="s">
+      <c r="V17" s="3" t="s">
+        <v>1817</v>
+      </c>
+      <c r="X17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="X17" s="2" t="s">
+      <c r="Y17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Y17" s="33" t="s">
+      <c r="Z17" s="33" t="s">
         <v>626</v>
       </c>
-      <c r="Z17" s="11" t="s">
+      <c r="AA17" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC17" s="2">
-        <v>1</v>
-      </c>
       <c r="AD17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -11353,71 +11462,72 @@
       <c r="C18" s="11"/>
       <c r="E18" s="46"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="11"/>
+      <c r="H18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I18" s="2">
         <v>1500</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J18" s="33" t="s">
+      <c r="K18" s="33" t="s">
         <v>1053</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="N18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N18" s="2">
-        <v>1</v>
-      </c>
-      <c r="O18" s="11">
+      <c r="O18" s="2">
+        <v>1</v>
+      </c>
+      <c r="P18" s="11">
         <v>2</v>
       </c>
-      <c r="P18" s="2">
-        <v>0</v>
-      </c>
       <c r="Q18" s="2">
         <v>0</v>
       </c>
-      <c r="R18" s="11">
+      <c r="R18" s="2">
         <v>0</v>
       </c>
       <c r="S18" s="11">
+        <v>0</v>
+      </c>
+      <c r="T18" s="11">
         <v>2</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>1846</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>1846</v>
       </c>
-      <c r="W18" s="2" t="s">
+      <c r="V18" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="X18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="X18" s="2" t="s">
+      <c r="Y18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Y18" s="11" t="s">
+      <c r="Z18" s="11" t="s">
         <v>627</v>
       </c>
-      <c r="Z18" s="11" t="s">
+      <c r="AA18" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC18" s="2">
-        <v>1</v>
-      </c>
       <c r="AD18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -11427,71 +11537,72 @@
       <c r="C19" s="11"/>
       <c r="E19" s="46"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="11"/>
+      <c r="H19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I19" s="2">
         <v>3000</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J19" s="33" t="s">
+      <c r="K19" s="33" t="s">
         <v>1054</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N19" s="2">
-        <v>1</v>
-      </c>
-      <c r="O19" s="11">
+      <c r="O19" s="2">
+        <v>1</v>
+      </c>
+      <c r="P19" s="11">
         <v>3</v>
       </c>
-      <c r="P19" s="2">
-        <v>1</v>
-      </c>
       <c r="Q19" s="2">
         <v>1</v>
       </c>
-      <c r="R19" s="11">
-        <v>0</v>
+      <c r="R19" s="2">
+        <v>1</v>
       </c>
       <c r="S19" s="11">
+        <v>0</v>
+      </c>
+      <c r="T19" s="11">
         <v>3</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>1847</v>
       </c>
       <c r="U19" s="3" t="s">
         <v>1847</v>
       </c>
-      <c r="W19" s="2" t="s">
+      <c r="V19" s="3" t="s">
+        <v>1847</v>
+      </c>
+      <c r="X19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="X19" s="2" t="s">
+      <c r="Y19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Y19" s="11" t="s">
+      <c r="Z19" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="Z19" s="11" t="s">
+      <c r="AA19" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC19" s="2">
-        <v>1</v>
-      </c>
       <c r="AD19" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -11501,71 +11612,72 @@
       <c r="C20" s="11"/>
       <c r="E20" s="46"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="11"/>
+      <c r="H20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="2">
+      <c r="I20" s="2">
         <v>5000</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J20" s="33" t="s">
+      <c r="K20" s="33" t="s">
         <v>1055</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="L20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="M20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="N20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N20" s="2">
-        <v>1</v>
-      </c>
-      <c r="O20" s="11">
+      <c r="O20" s="2">
+        <v>1</v>
+      </c>
+      <c r="P20" s="11">
         <v>4</v>
       </c>
-      <c r="P20" s="2">
-        <v>1</v>
-      </c>
       <c r="Q20" s="2">
         <v>1</v>
       </c>
-      <c r="R20" s="11">
-        <v>0</v>
+      <c r="R20" s="2">
+        <v>1</v>
       </c>
       <c r="S20" s="11">
+        <v>0</v>
+      </c>
+      <c r="T20" s="11">
         <v>4</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>1848</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>1848</v>
       </c>
-      <c r="W20" s="2" t="s">
+      <c r="V20" s="3" t="s">
+        <v>1848</v>
+      </c>
+      <c r="X20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="X20" s="2" t="s">
+      <c r="Y20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Y20" s="11" t="s">
+      <c r="Z20" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="Z20" s="11" t="s">
+      <c r="AA20" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC20" s="2">
-        <v>1</v>
-      </c>
       <c r="AD20" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -11575,71 +11687,72 @@
       <c r="C21" s="11"/>
       <c r="E21" s="46"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="11"/>
+      <c r="H21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I21" s="2">
         <v>9800</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="K21" s="33" t="s">
         <v>1056</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="M21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="N21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N21" s="2">
-        <v>1</v>
-      </c>
-      <c r="O21" s="11">
+      <c r="O21" s="2">
+        <v>1</v>
+      </c>
+      <c r="P21" s="11">
         <v>5</v>
       </c>
-      <c r="P21" s="2">
-        <v>1</v>
-      </c>
       <c r="Q21" s="2">
         <v>1</v>
       </c>
-      <c r="R21" s="11">
-        <v>0</v>
+      <c r="R21" s="2">
+        <v>1</v>
       </c>
       <c r="S21" s="11">
+        <v>0</v>
+      </c>
+      <c r="T21" s="11">
         <v>5</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>1849</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>1849</v>
       </c>
-      <c r="W21" s="2" t="s">
+      <c r="V21" s="3" t="s">
+        <v>1849</v>
+      </c>
+      <c r="X21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="X21" s="2" t="s">
+      <c r="Y21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Y21" s="11" t="s">
+      <c r="Z21" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="Z21" s="11" t="s">
+      <c r="AA21" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC21" s="2">
-        <v>1</v>
-      </c>
       <c r="AD21" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -11649,71 +11762,72 @@
       <c r="C22" s="11"/>
       <c r="E22" s="46"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="11"/>
+      <c r="H22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="2">
+      <c r="I22" s="2">
         <v>49800</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J22" s="33" t="s">
+      <c r="K22" s="33" t="s">
         <v>1057</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="L22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="M22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="N22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N22" s="2">
-        <v>1</v>
-      </c>
-      <c r="O22" s="11">
+      <c r="O22" s="2">
+        <v>1</v>
+      </c>
+      <c r="P22" s="11">
         <v>6</v>
       </c>
-      <c r="P22" s="2">
-        <v>1</v>
-      </c>
       <c r="Q22" s="2">
         <v>1</v>
       </c>
-      <c r="R22" s="11">
-        <v>0</v>
+      <c r="R22" s="2">
+        <v>1</v>
       </c>
       <c r="S22" s="11">
+        <v>0</v>
+      </c>
+      <c r="T22" s="11">
         <v>6</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>1850</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>1850</v>
       </c>
-      <c r="W22" s="2" t="s">
+      <c r="V22" s="3" t="s">
+        <v>1850</v>
+      </c>
+      <c r="X22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="X22" s="2" t="s">
+      <c r="Y22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="Y22" s="11" t="s">
+      <c r="Z22" s="11" t="s">
         <v>631</v>
       </c>
-      <c r="Z22" s="11" t="s">
+      <c r="AA22" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC22" s="2">
-        <v>1</v>
-      </c>
       <c r="AD22" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -11723,71 +11837,72 @@
       <c r="C23" s="11"/>
       <c r="E23" s="46"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="11"/>
+      <c r="H23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="2">
+      <c r="I23" s="2">
         <v>100000</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J23" s="33" t="s">
+      <c r="K23" s="33" t="s">
         <v>1058</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="M23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="N23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N23" s="2">
-        <v>1</v>
-      </c>
-      <c r="O23" s="11">
+      <c r="O23" s="2">
+        <v>1</v>
+      </c>
+      <c r="P23" s="11">
         <v>7</v>
       </c>
-      <c r="P23" s="2">
-        <v>0</v>
-      </c>
       <c r="Q23" s="2">
         <v>0</v>
       </c>
-      <c r="R23" s="11">
+      <c r="R23" s="2">
         <v>0</v>
       </c>
       <c r="S23" s="11">
+        <v>0</v>
+      </c>
+      <c r="T23" s="11">
         <v>7</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>1851</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>1851</v>
       </c>
-      <c r="W23" s="2" t="s">
+      <c r="V23" s="3" t="s">
+        <v>1851</v>
+      </c>
+      <c r="X23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="X23" s="2" t="s">
+      <c r="Y23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="Y23" s="11" t="s">
+      <c r="Z23" s="11" t="s">
         <v>632</v>
       </c>
-      <c r="Z23" s="11" t="s">
+      <c r="AA23" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC23" s="2">
-        <v>1</v>
-      </c>
       <c r="AD23" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -11804,92 +11919,95 @@
       <c r="F24" s="11">
         <v>10189</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="11">
+        <v>10492</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>1059</v>
       </c>
-      <c r="H24" s="11">
+      <c r="I24" s="11">
         <v>19800</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>1060</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>1364</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>1061</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>1062</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="N24" s="2" t="s">
         <v>1063</v>
       </c>
-      <c r="N24" s="2">
-        <v>1</v>
-      </c>
-      <c r="O24" s="11">
+      <c r="O24" s="2">
+        <v>1</v>
+      </c>
+      <c r="P24" s="11">
         <v>6</v>
       </c>
-      <c r="P24" s="2">
-        <v>0</v>
-      </c>
       <c r="Q24" s="2">
         <v>0</v>
       </c>
-      <c r="R24" s="11">
-        <v>1</v>
+      <c r="R24" s="2">
+        <v>0</v>
       </c>
       <c r="S24" s="11">
+        <v>1</v>
+      </c>
+      <c r="T24" s="11">
         <v>6</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>1064</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>1064</v>
       </c>
-      <c r="W24" s="33" t="s">
+      <c r="V24" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="X24" s="33" t="s">
         <v>1027</v>
       </c>
-      <c r="X24" s="3" t="s">
+      <c r="Y24" s="3" t="s">
         <v>1065</v>
       </c>
-      <c r="Y24" s="11" t="s">
+      <c r="Z24" s="11" t="s">
         <v>634</v>
       </c>
-      <c r="Z24" s="11" t="s">
+      <c r="AA24" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC24" s="2">
-        <v>1</v>
-      </c>
       <c r="AD24" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E25" s="46"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E26" s="46"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E27" s="46"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E28" s="46"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E29" s="46"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E30" s="46"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E31" s="46"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E32" s="46"/>
     </row>
   </sheetData>
@@ -11902,13 +12020,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN565"/>
+  <dimension ref="A1:AN579"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H531" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G559" sqref="G559"/>
+      <selection pane="bottomRight" activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -15702,7 +15820,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>2115</v>
+        <v>2157</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>937</v>
@@ -45161,7 +45279,7 @@
         <v>10437</v>
       </c>
       <c r="F521" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G521" s="19" t="s">
         <v>1961</v>
@@ -45229,7 +45347,7 @@
         <v>10438</v>
       </c>
       <c r="F522" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G522" s="19" t="s">
         <v>1968</v>
@@ -45297,7 +45415,7 @@
         <v>10439</v>
       </c>
       <c r="F523" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G523" s="19" t="s">
         <v>1973</v>
@@ -45365,7 +45483,7 @@
         <v>10440</v>
       </c>
       <c r="F524" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G524" s="19" t="s">
         <v>1978</v>
@@ -45433,7 +45551,7 @@
         <v>10441</v>
       </c>
       <c r="F525" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G525" s="19" t="s">
         <v>1960</v>
@@ -45501,7 +45619,7 @@
         <v>10442</v>
       </c>
       <c r="F526" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G526" s="19" t="s">
         <v>1967</v>
@@ -45569,7 +45687,7 @@
         <v>10443</v>
       </c>
       <c r="F527" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G527" s="19" t="s">
         <v>1987</v>
@@ -45637,7 +45755,7 @@
         <v>10444</v>
       </c>
       <c r="F528" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G528" s="19" t="s">
         <v>1978</v>
@@ -45705,7 +45823,7 @@
         <v>10445</v>
       </c>
       <c r="F529" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G529" s="19" t="s">
         <v>1960</v>
@@ -45773,7 +45891,7 @@
         <v>10446</v>
       </c>
       <c r="F530" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G530" s="19" t="s">
         <v>1968</v>
@@ -45841,7 +45959,7 @@
         <v>10447</v>
       </c>
       <c r="F531" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G531" s="19" t="s">
         <v>1987</v>
@@ -45909,7 +46027,7 @@
         <v>10448</v>
       </c>
       <c r="F532" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G532" s="19" t="s">
         <v>2001</v>
@@ -45977,7 +46095,7 @@
         <v>10449</v>
       </c>
       <c r="F533" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G533" s="5" t="s">
         <v>2017</v>
@@ -46045,7 +46163,7 @@
         <v>10450</v>
       </c>
       <c r="F534" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G534" s="5" t="s">
         <v>2024</v>
@@ -46113,7 +46231,7 @@
         <v>10451</v>
       </c>
       <c r="F535" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G535" s="5" t="s">
         <v>2030</v>
@@ -46181,7 +46299,7 @@
         <v>10452</v>
       </c>
       <c r="F536" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G536" s="5" t="s">
         <v>2017</v>
@@ -46249,7 +46367,7 @@
         <v>10453</v>
       </c>
       <c r="F537" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G537" s="5" t="s">
         <v>2024</v>
@@ -46317,7 +46435,7 @@
         <v>10454</v>
       </c>
       <c r="F538" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G538" s="5" t="s">
         <v>2030</v>
@@ -46385,7 +46503,7 @@
         <v>10455</v>
       </c>
       <c r="F539" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G539" s="5" t="s">
         <v>2017</v>
@@ -46453,7 +46571,7 @@
         <v>10456</v>
       </c>
       <c r="F540" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G540" s="5" t="s">
         <v>2024</v>
@@ -46521,7 +46639,7 @@
         <v>10457</v>
       </c>
       <c r="F541" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G541" s="5" t="s">
         <v>2030</v>
@@ -46581,1596 +46699,2572 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A542" s="69">
+    <row r="542" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A542" s="5">
         <v>541</v>
       </c>
-      <c r="B542" s="69">
+      <c r="B542" s="5">
         <v>10458</v>
       </c>
-      <c r="F542" s="69">
-        <v>1</v>
-      </c>
-      <c r="G542" s="69" t="s">
+      <c r="F542" s="5">
+        <v>0</v>
+      </c>
+      <c r="G542" s="5" t="s">
         <v>1332</v>
       </c>
-      <c r="I542" s="69" t="s">
+      <c r="I542" s="5" t="s">
         <v>2058</v>
       </c>
-      <c r="J542" s="69" t="s">
+      <c r="J542" s="5" t="s">
         <v>2059</v>
       </c>
-      <c r="L542" s="69">
+      <c r="L542" s="5">
         <v>-31</v>
       </c>
-      <c r="M542" s="69">
-        <v>0</v>
-      </c>
-      <c r="N542" s="69">
-        <v>0</v>
-      </c>
-      <c r="O542" s="69" t="s">
+      <c r="M542" s="5">
+        <v>0</v>
+      </c>
+      <c r="N542" s="5">
+        <v>0</v>
+      </c>
+      <c r="O542" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P542" s="69">
+      <c r="P542" s="5">
         <v>99800</v>
       </c>
-      <c r="Q542" s="69" t="s">
+      <c r="Q542" s="5" t="s">
         <v>1809</v>
       </c>
-      <c r="R542" s="70" t="s">
+      <c r="R542" s="10" t="s">
         <v>2060</v>
       </c>
-      <c r="W542" s="69" t="s">
+      <c r="W542" s="5" t="s">
         <v>1358</v>
       </c>
-      <c r="X542" s="69">
+      <c r="X542" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y542" s="71">
+      <c r="Y542" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z542" s="71">
+      <c r="Z542" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH542" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI542" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL542" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM542" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="543" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A543" s="69">
+      <c r="AH542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM542" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A543" s="5">
         <v>542</v>
       </c>
-      <c r="B543" s="69">
+      <c r="B543" s="5">
         <v>10459</v>
       </c>
-      <c r="F543" s="69">
-        <v>1</v>
-      </c>
-      <c r="G543" s="69" t="s">
+      <c r="F543" s="5">
+        <v>0</v>
+      </c>
+      <c r="G543" s="5" t="s">
         <v>1456</v>
       </c>
-      <c r="I543" s="69" t="s">
+      <c r="I543" s="5" t="s">
         <v>2057</v>
       </c>
-      <c r="J543" s="69" t="s">
+      <c r="J543" s="5" t="s">
         <v>2061</v>
       </c>
-      <c r="L543" s="69">
+      <c r="L543" s="5">
         <v>-31</v>
       </c>
-      <c r="M543" s="69">
-        <v>0</v>
-      </c>
-      <c r="N543" s="69">
-        <v>0</v>
-      </c>
-      <c r="O543" s="69" t="s">
+      <c r="M543" s="5">
+        <v>0</v>
+      </c>
+      <c r="N543" s="5">
+        <v>0</v>
+      </c>
+      <c r="O543" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P543" s="69">
+      <c r="P543" s="5">
         <v>49800</v>
       </c>
-      <c r="Q543" s="69" t="s">
+      <c r="Q543" s="5" t="s">
         <v>1809</v>
       </c>
-      <c r="R543" s="70" t="s">
+      <c r="R543" s="10" t="s">
         <v>2062</v>
       </c>
-      <c r="W543" s="69" t="s">
+      <c r="W543" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X543" s="69">
+      <c r="X543" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y543" s="71">
+      <c r="Y543" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z543" s="71">
+      <c r="Z543" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH543" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI543" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL543" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM543" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="544" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A544" s="69">
+      <c r="AH543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM543" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A544" s="5">
         <v>543</v>
       </c>
-      <c r="B544" s="69">
+      <c r="B544" s="5">
         <v>10460</v>
       </c>
-      <c r="F544" s="69">
-        <v>1</v>
-      </c>
-      <c r="G544" s="69" t="s">
+      <c r="F544" s="5">
+        <v>0</v>
+      </c>
+      <c r="G544" s="5" t="s">
         <v>1460</v>
       </c>
-      <c r="I544" s="69" t="s">
+      <c r="I544" s="5" t="s">
         <v>2057</v>
       </c>
-      <c r="J544" s="69" t="s">
+      <c r="J544" s="5" t="s">
         <v>1469</v>
       </c>
-      <c r="L544" s="69">
+      <c r="L544" s="5">
         <v>-31</v>
       </c>
-      <c r="M544" s="69">
-        <v>0</v>
-      </c>
-      <c r="N544" s="69">
-        <v>0</v>
-      </c>
-      <c r="O544" s="69" t="s">
+      <c r="M544" s="5">
+        <v>0</v>
+      </c>
+      <c r="N544" s="5">
+        <v>0</v>
+      </c>
+      <c r="O544" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P544" s="69">
+      <c r="P544" s="5">
         <v>29800</v>
       </c>
-      <c r="Q544" s="69" t="s">
+      <c r="Q544" s="5" t="s">
         <v>1463</v>
       </c>
-      <c r="R544" s="70" t="s">
+      <c r="R544" s="10" t="s">
         <v>1352</v>
       </c>
-      <c r="W544" s="69" t="s">
+      <c r="W544" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X544" s="69">
+      <c r="X544" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y544" s="71">
+      <c r="Y544" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z544" s="71">
+      <c r="Z544" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH544" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI544" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL544" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM544" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="545" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A545" s="69">
+      <c r="AH544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM544" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A545" s="5">
         <v>544</v>
       </c>
-      <c r="B545" s="69">
+      <c r="B545" s="5">
         <v>10461</v>
       </c>
-      <c r="F545" s="69">
-        <v>1</v>
-      </c>
-      <c r="G545" s="69" t="s">
+      <c r="F545" s="5">
+        <v>0</v>
+      </c>
+      <c r="G545" s="5" t="s">
         <v>2063</v>
       </c>
-      <c r="I545" s="69" t="s">
+      <c r="I545" s="5" t="s">
         <v>2057</v>
       </c>
-      <c r="J545" s="69" t="s">
+      <c r="J545" s="5" t="s">
         <v>1465</v>
       </c>
-      <c r="L545" s="69">
+      <c r="L545" s="5">
         <v>-31</v>
       </c>
-      <c r="M545" s="69">
-        <v>0</v>
-      </c>
-      <c r="N545" s="69">
-        <v>0</v>
-      </c>
-      <c r="O545" s="69" t="s">
+      <c r="M545" s="5">
+        <v>0</v>
+      </c>
+      <c r="N545" s="5">
+        <v>0</v>
+      </c>
+      <c r="O545" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P545" s="69">
+      <c r="P545" s="5">
         <v>19800</v>
       </c>
-      <c r="Q545" s="69" t="s">
+      <c r="Q545" s="5" t="s">
         <v>1463</v>
       </c>
-      <c r="R545" s="70" t="s">
+      <c r="R545" s="10" t="s">
         <v>1348</v>
       </c>
-      <c r="W545" s="69" t="s">
+      <c r="W545" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X545" s="69">
+      <c r="X545" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y545" s="71">
+      <c r="Y545" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z545" s="71">
+      <c r="Z545" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH545" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI545" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL545" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM545" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="546" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A546" s="69">
+      <c r="AH545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM545" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A546" s="5">
         <v>545</v>
       </c>
-      <c r="B546" s="69">
+      <c r="B546" s="5">
         <v>10462</v>
       </c>
-      <c r="F546" s="69">
-        <v>1</v>
-      </c>
-      <c r="G546" s="69" t="s">
+      <c r="F546" s="5">
+        <v>0</v>
+      </c>
+      <c r="G546" s="5" t="s">
         <v>1349</v>
       </c>
-      <c r="I546" s="69" t="s">
+      <c r="I546" s="5" t="s">
         <v>2057</v>
       </c>
-      <c r="J546" s="69" t="s">
+      <c r="J546" s="5" t="s">
         <v>1462</v>
       </c>
-      <c r="L546" s="69">
+      <c r="L546" s="5">
         <v>-31</v>
       </c>
-      <c r="M546" s="69">
-        <v>0</v>
-      </c>
-      <c r="N546" s="69">
-        <v>0</v>
-      </c>
-      <c r="O546" s="69" t="s">
+      <c r="M546" s="5">
+        <v>0</v>
+      </c>
+      <c r="N546" s="5">
+        <v>0</v>
+      </c>
+      <c r="O546" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P546" s="69">
+      <c r="P546" s="5">
         <v>9800</v>
       </c>
-      <c r="Q546" s="69" t="s">
+      <c r="Q546" s="5" t="s">
         <v>2064</v>
       </c>
-      <c r="R546" s="70" t="s">
+      <c r="R546" s="10" t="s">
         <v>1345</v>
       </c>
-      <c r="W546" s="69" t="s">
+      <c r="W546" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X546" s="69">
+      <c r="X546" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y546" s="71">
+      <c r="Y546" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z546" s="71">
+      <c r="Z546" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH546" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI546" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL546" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM546" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="547" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A547" s="69">
+      <c r="AH546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM546" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A547" s="5">
         <v>546</v>
       </c>
-      <c r="B547" s="69">
+      <c r="B547" s="5">
         <v>10463</v>
       </c>
-      <c r="F547" s="69">
-        <v>1</v>
-      </c>
-      <c r="G547" s="69" t="s">
+      <c r="F547" s="5">
+        <v>0</v>
+      </c>
+      <c r="G547" s="5" t="s">
         <v>2065</v>
       </c>
-      <c r="I547" s="69" t="s">
+      <c r="I547" s="5" t="s">
         <v>2058</v>
       </c>
-      <c r="J547" s="69" t="s">
+      <c r="J547" s="5" t="s">
         <v>1458</v>
       </c>
-      <c r="L547" s="69">
+      <c r="L547" s="5">
         <v>-31</v>
       </c>
-      <c r="M547" s="69">
-        <v>0</v>
-      </c>
-      <c r="N547" s="69">
-        <v>0</v>
-      </c>
-      <c r="O547" s="69" t="s">
+      <c r="M547" s="5">
+        <v>0</v>
+      </c>
+      <c r="N547" s="5">
+        <v>0</v>
+      </c>
+      <c r="O547" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P547" s="69">
+      <c r="P547" s="5">
         <v>4800</v>
       </c>
-      <c r="Q547" s="69" t="s">
+      <c r="Q547" s="5" t="s">
         <v>1795</v>
       </c>
-      <c r="R547" s="70" t="s">
+      <c r="R547" s="10" t="s">
         <v>2066</v>
       </c>
-      <c r="W547" s="69" t="s">
+      <c r="W547" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X547" s="69">
+      <c r="X547" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y547" s="71">
+      <c r="Y547" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z547" s="71">
+      <c r="Z547" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH547" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI547" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL547" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM547" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="548" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A548" s="69">
+      <c r="AH547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM547" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A548" s="5">
         <v>547</v>
       </c>
-      <c r="B548" s="69">
+      <c r="B548" s="5">
         <v>10464</v>
       </c>
-      <c r="F548" s="69">
-        <v>1</v>
-      </c>
-      <c r="G548" s="69" t="s">
+      <c r="F548" s="5">
+        <v>0</v>
+      </c>
+      <c r="G548" s="5" t="s">
         <v>1359</v>
       </c>
-      <c r="I548" s="69" t="s">
+      <c r="I548" s="5" t="s">
         <v>2057</v>
       </c>
-      <c r="J548" s="69" t="s">
+      <c r="J548" s="5" t="s">
         <v>2067</v>
       </c>
-      <c r="L548" s="69">
+      <c r="L548" s="5">
         <v>-31</v>
       </c>
-      <c r="M548" s="69">
-        <v>0</v>
-      </c>
-      <c r="N548" s="69">
-        <v>0</v>
-      </c>
-      <c r="O548" s="69" t="s">
+      <c r="M548" s="5">
+        <v>0</v>
+      </c>
+      <c r="N548" s="5">
+        <v>0</v>
+      </c>
+      <c r="O548" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P548" s="69">
+      <c r="P548" s="5">
         <v>1800</v>
       </c>
-      <c r="Q548" s="69" t="s">
+      <c r="Q548" s="5" t="s">
         <v>2068</v>
       </c>
-      <c r="R548" s="70" t="s">
+      <c r="R548" s="10" t="s">
         <v>1336</v>
       </c>
-      <c r="W548" s="69" t="s">
+      <c r="W548" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X548" s="69">
+      <c r="X548" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y548" s="71">
+      <c r="Y548" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z548" s="71">
+      <c r="Z548" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH548" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI548" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL548" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM548" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="549" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM548" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A549" s="5">
         <v>548</v>
       </c>
-      <c r="B549" s="65">
+      <c r="B549" s="5">
         <v>10465</v>
       </c>
-      <c r="F549" s="65">
-        <v>1</v>
-      </c>
-      <c r="G549" s="65" t="s">
+      <c r="F549" s="5">
+        <v>0</v>
+      </c>
+      <c r="G549" s="5" t="s">
         <v>2072</v>
       </c>
-      <c r="I549" s="65" t="s">
+      <c r="I549" s="5" t="s">
         <v>2074</v>
       </c>
-      <c r="J549" s="65" t="s">
+      <c r="J549" s="5" t="s">
         <v>2075</v>
       </c>
-      <c r="L549" s="65">
+      <c r="L549" s="5">
         <v>-31</v>
       </c>
-      <c r="M549" s="65">
-        <v>0</v>
-      </c>
-      <c r="N549" s="65">
-        <v>0</v>
-      </c>
-      <c r="O549" s="65" t="s">
+      <c r="M549" s="5">
+        <v>0</v>
+      </c>
+      <c r="N549" s="5">
+        <v>0</v>
+      </c>
+      <c r="O549" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P549" s="65">
+      <c r="P549" s="5">
         <v>49800</v>
       </c>
-      <c r="Q549" s="65" t="s">
+      <c r="Q549" s="5" t="s">
         <v>2076</v>
       </c>
-      <c r="R549" s="66" t="s">
+      <c r="R549" s="10" t="s">
         <v>2077</v>
       </c>
-      <c r="W549" s="65" t="s">
+      <c r="W549" s="5" t="s">
         <v>2100</v>
       </c>
-      <c r="X549" s="65">
+      <c r="X549" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y549" s="65">
+      <c r="Y549" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z549" s="65">
+      <c r="Z549" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA549" s="65">
+      <c r="AA549" s="5">
         <v>66</v>
       </c>
-      <c r="AH549" s="65">
-        <v>1</v>
-      </c>
-      <c r="AI549" s="65">
-        <v>1</v>
-      </c>
-      <c r="AL549" s="65">
-        <v>1</v>
-      </c>
-      <c r="AM549" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="550" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH549" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI549" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL549" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM549" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A550" s="5">
         <v>549</v>
       </c>
-      <c r="B550" s="65">
+      <c r="B550" s="5">
         <v>10466</v>
       </c>
-      <c r="F550" s="65">
-        <v>1</v>
-      </c>
-      <c r="G550" s="65" t="s">
+      <c r="F550" s="5">
+        <v>0</v>
+      </c>
+      <c r="G550" s="5" t="s">
         <v>2072</v>
       </c>
-      <c r="I550" s="65" t="s">
+      <c r="I550" s="5" t="s">
         <v>2078</v>
       </c>
-      <c r="J550" s="65" t="s">
+      <c r="J550" s="5" t="s">
         <v>2079</v>
       </c>
-      <c r="L550" s="65">
+      <c r="L550" s="5">
         <v>-31</v>
       </c>
-      <c r="M550" s="65">
-        <v>0</v>
-      </c>
-      <c r="N550" s="65">
-        <v>0</v>
-      </c>
-      <c r="O550" s="65" t="s">
+      <c r="M550" s="5">
+        <v>0</v>
+      </c>
+      <c r="N550" s="5">
+        <v>0</v>
+      </c>
+      <c r="O550" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P550" s="65">
+      <c r="P550" s="5">
         <v>19800</v>
       </c>
-      <c r="Q550" s="65" t="s">
+      <c r="Q550" s="5" t="s">
         <v>2076</v>
       </c>
-      <c r="R550" s="66" t="s">
+      <c r="R550" s="10" t="s">
         <v>2080</v>
       </c>
-      <c r="W550" s="65" t="s">
+      <c r="W550" s="5" t="s">
         <v>2100</v>
       </c>
-      <c r="X550" s="65">
+      <c r="X550" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y550" s="65">
+      <c r="Y550" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z550" s="65">
+      <c r="Z550" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA550" s="65">
+      <c r="AA550" s="5">
         <v>66</v>
       </c>
-      <c r="AH550" s="65">
-        <v>1</v>
-      </c>
-      <c r="AI550" s="65">
-        <v>1</v>
-      </c>
-      <c r="AL550" s="65">
-        <v>1</v>
-      </c>
-      <c r="AM550" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="551" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH550" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI550" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL550" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM550" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A551" s="5">
         <v>550</v>
       </c>
-      <c r="B551" s="65">
+      <c r="B551" s="5">
         <v>10467</v>
       </c>
-      <c r="F551" s="65">
-        <v>1</v>
-      </c>
-      <c r="G551" s="65" t="s">
+      <c r="F551" s="5">
+        <v>0</v>
+      </c>
+      <c r="G551" s="5" t="s">
         <v>2072</v>
       </c>
-      <c r="I551" s="65" t="s">
+      <c r="I551" s="5" t="s">
         <v>2081</v>
       </c>
-      <c r="J551" s="65" t="s">
+      <c r="J551" s="5" t="s">
         <v>2082</v>
       </c>
-      <c r="L551" s="65">
+      <c r="L551" s="5">
         <v>-31</v>
       </c>
-      <c r="M551" s="65">
-        <v>0</v>
-      </c>
-      <c r="N551" s="65">
-        <v>0</v>
-      </c>
-      <c r="O551" s="65" t="s">
+      <c r="M551" s="5">
+        <v>0</v>
+      </c>
+      <c r="N551" s="5">
+        <v>0</v>
+      </c>
+      <c r="O551" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P551" s="65">
+      <c r="P551" s="5">
         <v>9800</v>
       </c>
-      <c r="Q551" s="65" t="s">
+      <c r="Q551" s="5" t="s">
         <v>2076</v>
       </c>
-      <c r="R551" s="66" t="s">
+      <c r="R551" s="10" t="s">
         <v>2083</v>
       </c>
-      <c r="W551" s="65" t="s">
+      <c r="W551" s="5" t="s">
         <v>2100</v>
       </c>
-      <c r="X551" s="65">
+      <c r="X551" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y551" s="65">
+      <c r="Y551" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z551" s="65">
+      <c r="Z551" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA551" s="65">
+      <c r="AA551" s="5">
         <v>66</v>
       </c>
-      <c r="AH551" s="65">
-        <v>1</v>
-      </c>
-      <c r="AI551" s="65">
-        <v>1</v>
-      </c>
-      <c r="AL551" s="65">
-        <v>1</v>
-      </c>
-      <c r="AM551" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="552" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH551" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI551" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL551" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM551" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A552" s="5">
         <v>551</v>
       </c>
-      <c r="B552" s="65">
+      <c r="B552" s="5">
         <v>10468</v>
       </c>
-      <c r="F552" s="65">
-        <v>1</v>
-      </c>
-      <c r="G552" s="65" t="s">
+      <c r="F552" s="5">
+        <v>0</v>
+      </c>
+      <c r="G552" s="5" t="s">
         <v>2072</v>
       </c>
-      <c r="I552" s="65" t="s">
+      <c r="I552" s="5" t="s">
         <v>2084</v>
       </c>
-      <c r="J552" s="65" t="s">
+      <c r="J552" s="5" t="s">
         <v>2085</v>
       </c>
-      <c r="L552" s="65">
+      <c r="L552" s="5">
         <v>-31</v>
       </c>
-      <c r="M552" s="65">
-        <v>0</v>
-      </c>
-      <c r="N552" s="65">
-        <v>0</v>
-      </c>
-      <c r="O552" s="65" t="s">
+      <c r="M552" s="5">
+        <v>0</v>
+      </c>
+      <c r="N552" s="5">
+        <v>0</v>
+      </c>
+      <c r="O552" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P552" s="65">
+      <c r="P552" s="5">
         <v>4800</v>
       </c>
-      <c r="Q552" s="65" t="s">
+      <c r="Q552" s="5" t="s">
         <v>2076</v>
       </c>
-      <c r="R552" s="66" t="s">
+      <c r="R552" s="10" t="s">
         <v>2086</v>
       </c>
-      <c r="W552" s="65" t="s">
+      <c r="W552" s="5" t="s">
         <v>1674</v>
       </c>
-      <c r="X552" s="65">
+      <c r="X552" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y552" s="65">
+      <c r="Y552" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z552" s="65">
+      <c r="Z552" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA552" s="65">
+      <c r="AA552" s="5">
         <v>66</v>
       </c>
-      <c r="AH552" s="65">
-        <v>1</v>
-      </c>
-      <c r="AI552" s="65">
-        <v>1</v>
-      </c>
-      <c r="AL552" s="65">
-        <v>1</v>
-      </c>
-      <c r="AM552" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="553" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH552" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI552" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL552" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM552" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A553" s="5">
         <v>552</v>
       </c>
-      <c r="B553" s="67">
+      <c r="B553" s="5">
         <v>10469</v>
       </c>
-      <c r="F553" s="67">
-        <v>1</v>
-      </c>
-      <c r="G553" s="67" t="s">
+      <c r="F553" s="5">
+        <v>0</v>
+      </c>
+      <c r="G553" s="5" t="s">
         <v>2087</v>
       </c>
-      <c r="I553" s="67" t="s">
+      <c r="I553" s="5" t="s">
         <v>2073</v>
       </c>
-      <c r="J553" s="67" t="s">
+      <c r="J553" s="5" t="s">
         <v>2088</v>
       </c>
-      <c r="L553" s="67">
+      <c r="L553" s="5">
         <v>-31</v>
       </c>
-      <c r="M553" s="67">
-        <v>0</v>
-      </c>
-      <c r="N553" s="67">
-        <v>0</v>
-      </c>
-      <c r="O553" s="67" t="s">
+      <c r="M553" s="5">
+        <v>0</v>
+      </c>
+      <c r="N553" s="5">
+        <v>0</v>
+      </c>
+      <c r="O553" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P553" s="67">
+      <c r="P553" s="5">
         <v>49800</v>
       </c>
-      <c r="Q553" s="67" t="s">
+      <c r="Q553" s="5" t="s">
         <v>2089</v>
       </c>
-      <c r="R553" s="68" t="s">
+      <c r="R553" s="10" t="s">
         <v>2090</v>
       </c>
-      <c r="W553" s="67" t="s">
+      <c r="W553" s="5" t="s">
         <v>2101</v>
       </c>
-      <c r="X553" s="67">
+      <c r="X553" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y553" s="67">
+      <c r="Y553" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z553" s="67">
+      <c r="Z553" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA553" s="67">
+      <c r="AA553" s="5">
         <v>67</v>
       </c>
-      <c r="AH553" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI553" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL553" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM553" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="554" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH553" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI553" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL553" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM553" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A554" s="5">
         <v>553</v>
       </c>
-      <c r="B554" s="67">
+      <c r="B554" s="5">
         <v>10470</v>
       </c>
-      <c r="F554" s="67">
-        <v>1</v>
-      </c>
-      <c r="G554" s="67" t="s">
+      <c r="F554" s="5">
+        <v>0</v>
+      </c>
+      <c r="G554" s="5" t="s">
         <v>2087</v>
       </c>
-      <c r="I554" s="67" t="s">
+      <c r="I554" s="5" t="s">
         <v>2078</v>
       </c>
-      <c r="J554" s="67" t="s">
+      <c r="J554" s="5" t="s">
         <v>2091</v>
       </c>
-      <c r="L554" s="67">
+      <c r="L554" s="5">
         <v>-31</v>
       </c>
-      <c r="M554" s="67">
-        <v>0</v>
-      </c>
-      <c r="N554" s="67">
-        <v>0</v>
-      </c>
-      <c r="O554" s="67" t="s">
+      <c r="M554" s="5">
+        <v>0</v>
+      </c>
+      <c r="N554" s="5">
+        <v>0</v>
+      </c>
+      <c r="O554" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P554" s="67">
+      <c r="P554" s="5">
         <v>19800</v>
       </c>
-      <c r="Q554" s="67" t="s">
+      <c r="Q554" s="5" t="s">
         <v>2089</v>
       </c>
-      <c r="R554" s="68" t="s">
+      <c r="R554" s="10" t="s">
         <v>2092</v>
       </c>
-      <c r="W554" s="67" t="s">
+      <c r="W554" s="5" t="s">
         <v>2102</v>
       </c>
-      <c r="X554" s="67">
+      <c r="X554" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y554" s="67">
+      <c r="Y554" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z554" s="67">
+      <c r="Z554" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA554" s="67">
+      <c r="AA554" s="5">
         <v>67</v>
       </c>
-      <c r="AH554" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI554" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL554" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM554" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="555" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH554" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI554" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL554" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM554" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A555" s="5">
         <v>554</v>
       </c>
-      <c r="B555" s="67">
+      <c r="B555" s="5">
         <v>10471</v>
       </c>
-      <c r="F555" s="67">
-        <v>1</v>
-      </c>
-      <c r="G555" s="67" t="s">
+      <c r="F555" s="5">
+        <v>0</v>
+      </c>
+      <c r="G555" s="5" t="s">
         <v>2087</v>
       </c>
-      <c r="I555" s="67" t="s">
+      <c r="I555" s="5" t="s">
         <v>2081</v>
       </c>
-      <c r="J555" s="67" t="s">
+      <c r="J555" s="5" t="s">
         <v>2093</v>
       </c>
-      <c r="L555" s="67">
+      <c r="L555" s="5">
         <v>-31</v>
       </c>
-      <c r="M555" s="67">
-        <v>0</v>
-      </c>
-      <c r="N555" s="67">
-        <v>0</v>
-      </c>
-      <c r="O555" s="67" t="s">
+      <c r="M555" s="5">
+        <v>0</v>
+      </c>
+      <c r="N555" s="5">
+        <v>0</v>
+      </c>
+      <c r="O555" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P555" s="67">
+      <c r="P555" s="5">
         <v>9800</v>
       </c>
-      <c r="Q555" s="67" t="s">
+      <c r="Q555" s="5" t="s">
         <v>2094</v>
       </c>
-      <c r="R555" s="68" t="s">
+      <c r="R555" s="10" t="s">
         <v>2095</v>
       </c>
-      <c r="W555" s="67" t="s">
+      <c r="W555" s="5" t="s">
         <v>2102</v>
       </c>
-      <c r="X555" s="67">
+      <c r="X555" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y555" s="67">
+      <c r="Y555" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z555" s="67">
+      <c r="Z555" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA555" s="67">
+      <c r="AA555" s="5">
         <v>67</v>
       </c>
-      <c r="AH555" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI555" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL555" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM555" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="556" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH555" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI555" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL555" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM555" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A556" s="5">
         <v>555</v>
       </c>
-      <c r="B556" s="67">
+      <c r="B556" s="5">
         <v>10472</v>
       </c>
-      <c r="F556" s="67">
-        <v>1</v>
-      </c>
-      <c r="G556" s="67" t="s">
+      <c r="F556" s="5">
+        <v>0</v>
+      </c>
+      <c r="G556" s="5" t="s">
         <v>2087</v>
       </c>
-      <c r="I556" s="67" t="s">
+      <c r="I556" s="5" t="s">
         <v>2084</v>
       </c>
-      <c r="J556" s="67" t="s">
+      <c r="J556" s="5" t="s">
         <v>2096</v>
       </c>
-      <c r="L556" s="67">
+      <c r="L556" s="5">
         <v>-31</v>
       </c>
-      <c r="M556" s="67">
-        <v>0</v>
-      </c>
-      <c r="N556" s="67">
-        <v>0</v>
-      </c>
-      <c r="O556" s="67" t="s">
+      <c r="M556" s="5">
+        <v>0</v>
+      </c>
+      <c r="N556" s="5">
+        <v>0</v>
+      </c>
+      <c r="O556" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P556" s="67">
+      <c r="P556" s="5">
         <v>4800</v>
       </c>
-      <c r="Q556" s="67" t="s">
+      <c r="Q556" s="5" t="s">
         <v>2094</v>
       </c>
-      <c r="R556" s="68" t="s">
+      <c r="R556" s="10" t="s">
         <v>2097</v>
       </c>
-      <c r="W556" s="67" t="s">
+      <c r="W556" s="5" t="s">
         <v>2102</v>
       </c>
-      <c r="X556" s="67">
+      <c r="X556" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y556" s="67">
+      <c r="Y556" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z556" s="67">
+      <c r="Z556" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA556" s="67">
+      <c r="AA556" s="5">
         <v>67</v>
       </c>
-      <c r="AH556" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI556" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL556" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM556" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="557" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH556" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI556" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL556" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM556" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A557" s="5">
         <v>556</v>
       </c>
-      <c r="B557" s="19">
+      <c r="B557" s="5">
         <v>10473</v>
       </c>
-      <c r="F557" s="19">
-        <v>1</v>
-      </c>
-      <c r="G557" s="19" t="s">
-        <v>2119</v>
-      </c>
-      <c r="I557" s="19" t="s">
+      <c r="F557" s="5">
+        <v>0</v>
+      </c>
+      <c r="G557" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="I557" s="5" t="s">
         <v>2098</v>
       </c>
-      <c r="J557" s="19" t="s">
+      <c r="J557" s="5" t="s">
         <v>2109</v>
       </c>
-      <c r="L557" s="19">
+      <c r="L557" s="5">
         <v>-25</v>
       </c>
-      <c r="M557" s="19">
-        <v>0</v>
-      </c>
-      <c r="N557" s="19">
-        <v>0</v>
-      </c>
-      <c r="O557" s="19" t="s">
+      <c r="M557" s="5">
+        <v>0</v>
+      </c>
+      <c r="N557" s="5">
+        <v>0</v>
+      </c>
+      <c r="O557" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P557" s="19">
+      <c r="P557" s="5">
         <v>100</v>
       </c>
-      <c r="Q557" s="19" t="s">
+      <c r="Q557" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R557" s="72" t="s">
+      <c r="R557" s="65" t="s">
         <v>2103</v>
       </c>
-      <c r="W557" s="19" t="s">
+      <c r="W557" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X557" s="19">
+      <c r="X557" s="5">
         <v>50</v>
       </c>
-      <c r="Y557" s="19">
+      <c r="Y557" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z557" s="19">
+      <c r="Z557" s="5">
         <v>1613440800</v>
       </c>
-      <c r="AE557" s="19">
+      <c r="AE557" s="5">
         <f t="shared" ref="AE557:AE565" si="1">24*60*60</f>
         <v>86400</v>
       </c>
-      <c r="AF557" s="19">
+      <c r="AF557" s="5">
         <v>7</v>
       </c>
-      <c r="AH557" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI557" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="558" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH557" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI557" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A558" s="5">
         <v>557</v>
       </c>
-      <c r="B558" s="19">
+      <c r="B558" s="5">
         <v>10474</v>
       </c>
-      <c r="F558" s="19">
-        <v>1</v>
-      </c>
-      <c r="G558" s="19" t="s">
-        <v>2120</v>
-      </c>
-      <c r="I558" s="19" t="s">
+      <c r="F558" s="5">
+        <v>0</v>
+      </c>
+      <c r="G558" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="I558" s="5" t="s">
         <v>2098</v>
       </c>
-      <c r="J558" s="19" t="s">
+      <c r="J558" s="5" t="s">
         <v>2099</v>
       </c>
-      <c r="L558" s="19">
+      <c r="L558" s="5">
         <v>-25</v>
       </c>
-      <c r="M558" s="19">
-        <v>0</v>
-      </c>
-      <c r="N558" s="19">
-        <v>0</v>
-      </c>
-      <c r="O558" s="19" t="s">
+      <c r="M558" s="5">
+        <v>0</v>
+      </c>
+      <c r="N558" s="5">
+        <v>0</v>
+      </c>
+      <c r="O558" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P558" s="19">
+      <c r="P558" s="5">
         <v>1800</v>
       </c>
-      <c r="Q558" s="19" t="s">
+      <c r="Q558" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R558" s="72" t="s">
+      <c r="R558" s="65" t="s">
         <v>2104</v>
       </c>
-      <c r="W558" s="19" t="s">
+      <c r="W558" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X558" s="19">
+      <c r="X558" s="5">
         <v>20</v>
       </c>
-      <c r="Y558" s="19">
+      <c r="Y558" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z558" s="19">
+      <c r="Z558" s="5">
         <v>1613440800</v>
       </c>
-      <c r="AE558" s="19">
+      <c r="AE558" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF558" s="19">
+      <c r="AF558" s="5">
         <v>7</v>
       </c>
-      <c r="AH558" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI558" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="559" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH558" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI558" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A559" s="5">
         <v>558</v>
       </c>
-      <c r="B559" s="19">
+      <c r="B559" s="5">
         <v>10475</v>
       </c>
-      <c r="F559" s="19">
-        <v>1</v>
-      </c>
-      <c r="G559" s="19" t="s">
-        <v>2121</v>
-      </c>
-      <c r="I559" s="19" t="s">
+      <c r="F559" s="5">
+        <v>0</v>
+      </c>
+      <c r="G559" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I559" s="5" t="s">
         <v>2098</v>
       </c>
-      <c r="J559" s="19" t="s">
+      <c r="J559" s="5" t="s">
         <v>2110</v>
       </c>
-      <c r="L559" s="19">
+      <c r="L559" s="5">
         <v>-25</v>
       </c>
-      <c r="M559" s="19">
-        <v>0</v>
-      </c>
-      <c r="N559" s="19">
-        <v>0</v>
-      </c>
-      <c r="O559" s="19" t="s">
+      <c r="M559" s="5">
+        <v>0</v>
+      </c>
+      <c r="N559" s="5">
+        <v>0</v>
+      </c>
+      <c r="O559" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P559" s="19">
+      <c r="P559" s="5">
         <v>4800</v>
       </c>
-      <c r="Q559" s="19" t="s">
+      <c r="Q559" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R559" s="72" t="s">
+      <c r="R559" s="65" t="s">
         <v>2105</v>
       </c>
-      <c r="W559" s="19" t="s">
+      <c r="W559" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X559" s="19">
+      <c r="X559" s="5">
         <v>10</v>
       </c>
-      <c r="Y559" s="19">
+      <c r="Y559" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z559" s="19">
+      <c r="Z559" s="5">
         <v>1613440800</v>
       </c>
-      <c r="AE559" s="19">
+      <c r="AE559" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF559" s="19">
+      <c r="AF559" s="5">
         <v>7</v>
       </c>
-      <c r="AH559" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI559" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="560" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH559" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI559" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A560" s="5">
         <v>559</v>
       </c>
-      <c r="B560" s="19">
+      <c r="B560" s="5">
         <v>10476</v>
       </c>
-      <c r="F560" s="19">
-        <v>1</v>
-      </c>
-      <c r="G560" s="19" t="s">
-        <v>2122</v>
-      </c>
-      <c r="I560" s="19" t="s">
+      <c r="F560" s="5">
+        <v>0</v>
+      </c>
+      <c r="G560" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="I560" s="5" t="s">
         <v>2098</v>
       </c>
-      <c r="J560" s="19" t="s">
+      <c r="J560" s="5" t="s">
         <v>2111</v>
       </c>
-      <c r="L560" s="19">
+      <c r="L560" s="5">
         <v>-25</v>
       </c>
-      <c r="M560" s="19">
-        <v>0</v>
-      </c>
-      <c r="N560" s="19">
-        <v>0</v>
-      </c>
-      <c r="O560" s="19" t="s">
+      <c r="M560" s="5">
+        <v>0</v>
+      </c>
+      <c r="N560" s="5">
+        <v>0</v>
+      </c>
+      <c r="O560" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P560" s="19">
+      <c r="P560" s="5">
         <v>100</v>
       </c>
-      <c r="Q560" s="19" t="s">
+      <c r="Q560" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R560" s="72" t="s">
+      <c r="R560" s="65" t="s">
         <v>2103</v>
       </c>
-      <c r="W560" s="19" t="s">
+      <c r="W560" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X560" s="19">
+      <c r="X560" s="5">
         <v>50</v>
       </c>
-      <c r="Y560" s="19">
+      <c r="Y560" s="5">
         <v>1613448000</v>
       </c>
-      <c r="Z560" s="19">
+      <c r="Z560" s="5">
         <v>1613455200</v>
       </c>
-      <c r="AE560" s="19">
+      <c r="AE560" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF560" s="19">
+      <c r="AF560" s="5">
         <v>7</v>
       </c>
-      <c r="AH560" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI560" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="561" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH560" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI560" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A561" s="5">
         <v>560</v>
       </c>
-      <c r="B561" s="19">
+      <c r="B561" s="5">
         <v>10477</v>
       </c>
-      <c r="F561" s="19">
-        <v>1</v>
-      </c>
-      <c r="G561" s="19" t="s">
-        <v>2123</v>
-      </c>
-      <c r="I561" s="19" t="s">
+      <c r="F561" s="5">
+        <v>0</v>
+      </c>
+      <c r="G561" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="I561" s="5" t="s">
         <v>2098</v>
       </c>
-      <c r="J561" s="19" t="s">
+      <c r="J561" s="5" t="s">
         <v>2112</v>
       </c>
-      <c r="L561" s="19">
+      <c r="L561" s="5">
         <v>-25</v>
       </c>
-      <c r="M561" s="19">
-        <v>0</v>
-      </c>
-      <c r="N561" s="19">
-        <v>0</v>
-      </c>
-      <c r="O561" s="19" t="s">
+      <c r="M561" s="5">
+        <v>0</v>
+      </c>
+      <c r="N561" s="5">
+        <v>0</v>
+      </c>
+      <c r="O561" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P561" s="19">
+      <c r="P561" s="5">
         <v>2800</v>
       </c>
-      <c r="Q561" s="19" t="s">
+      <c r="Q561" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R561" s="72" t="s">
+      <c r="R561" s="65" t="s">
         <v>2106</v>
       </c>
-      <c r="W561" s="19" t="s">
+      <c r="W561" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X561" s="19">
+      <c r="X561" s="5">
         <v>20</v>
       </c>
-      <c r="Y561" s="19">
+      <c r="Y561" s="5">
         <v>1613448000</v>
       </c>
-      <c r="Z561" s="19">
+      <c r="Z561" s="5">
         <v>1613455200</v>
       </c>
-      <c r="AE561" s="19">
+      <c r="AE561" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF561" s="19">
+      <c r="AF561" s="5">
         <v>7</v>
       </c>
-      <c r="AH561" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI561" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="562" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH561" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI561" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A562" s="5">
         <v>561</v>
       </c>
-      <c r="B562" s="19">
+      <c r="B562" s="5">
         <v>10478</v>
       </c>
-      <c r="F562" s="19">
-        <v>1</v>
-      </c>
-      <c r="G562" s="19" t="s">
-        <v>2124</v>
-      </c>
-      <c r="I562" s="19" t="s">
+      <c r="F562" s="5">
+        <v>0</v>
+      </c>
+      <c r="G562" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I562" s="5" t="s">
         <v>2098</v>
       </c>
-      <c r="J562" s="19" t="s">
+      <c r="J562" s="5" t="s">
         <v>2113</v>
       </c>
-      <c r="L562" s="19">
+      <c r="L562" s="5">
         <v>-25</v>
       </c>
-      <c r="M562" s="19">
-        <v>0</v>
-      </c>
-      <c r="N562" s="19">
-        <v>0</v>
-      </c>
-      <c r="O562" s="19" t="s">
+      <c r="M562" s="5">
+        <v>0</v>
+      </c>
+      <c r="N562" s="5">
+        <v>0</v>
+      </c>
+      <c r="O562" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P562" s="19">
+      <c r="P562" s="5">
         <v>9800</v>
       </c>
-      <c r="Q562" s="19" t="s">
+      <c r="Q562" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R562" s="72" t="s">
+      <c r="R562" s="65" t="s">
         <v>2107</v>
       </c>
-      <c r="W562" s="19" t="s">
+      <c r="W562" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X562" s="19">
+      <c r="X562" s="5">
         <v>10</v>
       </c>
-      <c r="Y562" s="19">
+      <c r="Y562" s="5">
         <v>1613448000</v>
       </c>
-      <c r="Z562" s="19">
+      <c r="Z562" s="5">
         <v>1613455200</v>
       </c>
-      <c r="AE562" s="19">
+      <c r="AE562" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF562" s="19">
+      <c r="AF562" s="5">
         <v>7</v>
       </c>
-      <c r="AH562" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI562" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="563" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH562" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI562" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A563" s="5">
         <v>562</v>
       </c>
-      <c r="B563" s="19">
+      <c r="B563" s="5">
         <v>10479</v>
       </c>
-      <c r="F563" s="19">
-        <v>1</v>
-      </c>
-      <c r="G563" s="19" t="s">
-        <v>2125</v>
-      </c>
-      <c r="I563" s="19" t="s">
+      <c r="F563" s="5">
+        <v>0</v>
+      </c>
+      <c r="G563" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="I563" s="5" t="s">
         <v>2098</v>
       </c>
-      <c r="J563" s="19" t="s">
+      <c r="J563" s="5" t="s">
         <v>2111</v>
       </c>
-      <c r="L563" s="19">
+      <c r="L563" s="5">
         <v>-25</v>
       </c>
-      <c r="M563" s="19">
-        <v>0</v>
-      </c>
-      <c r="N563" s="19">
-        <v>0</v>
-      </c>
-      <c r="O563" s="19" t="s">
+      <c r="M563" s="5">
+        <v>0</v>
+      </c>
+      <c r="N563" s="5">
+        <v>0</v>
+      </c>
+      <c r="O563" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P563" s="19">
+      <c r="P563" s="5">
         <v>100</v>
       </c>
-      <c r="Q563" s="19" t="s">
+      <c r="Q563" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R563" s="72" t="s">
+      <c r="R563" s="65" t="s">
         <v>2103</v>
       </c>
-      <c r="W563" s="19" t="s">
+      <c r="W563" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X563" s="19">
+      <c r="X563" s="5">
         <v>50</v>
       </c>
-      <c r="Y563" s="19">
+      <c r="Y563" s="5">
         <v>1613469600</v>
       </c>
-      <c r="Z563" s="19">
+      <c r="Z563" s="5">
         <v>1613484000</v>
       </c>
-      <c r="AE563" s="19">
+      <c r="AE563" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF563" s="19">
+      <c r="AF563" s="5">
         <v>7</v>
       </c>
-      <c r="AH563" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI563" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="564" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH563" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI563" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A564" s="5">
         <v>563</v>
       </c>
-      <c r="B564" s="19">
+      <c r="B564" s="5">
         <v>10480</v>
       </c>
-      <c r="F564" s="19">
-        <v>1</v>
-      </c>
-      <c r="G564" s="19" t="s">
-        <v>2126</v>
-      </c>
-      <c r="I564" s="19" t="s">
+      <c r="F564" s="5">
+        <v>0</v>
+      </c>
+      <c r="G564" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I564" s="5" t="s">
         <v>2098</v>
       </c>
-      <c r="J564" s="19" t="s">
+      <c r="J564" s="5" t="s">
         <v>2110</v>
       </c>
-      <c r="L564" s="19">
+      <c r="L564" s="5">
         <v>-25</v>
       </c>
-      <c r="M564" s="19">
-        <v>0</v>
-      </c>
-      <c r="N564" s="19">
-        <v>0</v>
-      </c>
-      <c r="O564" s="19" t="s">
+      <c r="M564" s="5">
+        <v>0</v>
+      </c>
+      <c r="N564" s="5">
+        <v>0</v>
+      </c>
+      <c r="O564" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P564" s="19">
+      <c r="P564" s="5">
         <v>4800</v>
       </c>
-      <c r="Q564" s="19" t="s">
+      <c r="Q564" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R564" s="72" t="s">
+      <c r="R564" s="65" t="s">
         <v>2105</v>
       </c>
-      <c r="W564" s="19" t="s">
+      <c r="W564" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X564" s="19">
+      <c r="X564" s="5">
         <v>20</v>
       </c>
-      <c r="Y564" s="19">
+      <c r="Y564" s="5">
         <v>1613469600</v>
       </c>
-      <c r="Z564" s="19">
+      <c r="Z564" s="5">
         <v>1613484000</v>
       </c>
-      <c r="AE564" s="19">
+      <c r="AE564" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF564" s="19">
+      <c r="AF564" s="5">
         <v>7</v>
       </c>
-      <c r="AH564" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI564" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="565" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH564" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI564" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A565" s="5">
         <v>564</v>
       </c>
-      <c r="B565" s="19">
+      <c r="B565" s="5">
         <v>10481</v>
       </c>
-      <c r="F565" s="19">
-        <v>1</v>
-      </c>
-      <c r="G565" s="19" t="s">
-        <v>2127</v>
-      </c>
-      <c r="I565" s="19" t="s">
+      <c r="F565" s="5">
+        <v>0</v>
+      </c>
+      <c r="G565" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I565" s="5" t="s">
         <v>2098</v>
       </c>
-      <c r="J565" s="19" t="s">
+      <c r="J565" s="5" t="s">
         <v>2114</v>
       </c>
-      <c r="L565" s="19">
+      <c r="L565" s="5">
         <v>-25</v>
       </c>
-      <c r="M565" s="19">
-        <v>0</v>
-      </c>
-      <c r="N565" s="19">
-        <v>0</v>
-      </c>
-      <c r="O565" s="19" t="s">
+      <c r="M565" s="5">
+        <v>0</v>
+      </c>
+      <c r="N565" s="5">
+        <v>0</v>
+      </c>
+      <c r="O565" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P565" s="19">
+      <c r="P565" s="5">
         <v>19800</v>
       </c>
-      <c r="Q565" s="19" t="s">
+      <c r="Q565" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R565" s="72" t="s">
+      <c r="R565" s="65" t="s">
         <v>2108</v>
       </c>
-      <c r="W565" s="19" t="s">
+      <c r="W565" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X565" s="19">
+      <c r="X565" s="5">
         <v>10</v>
       </c>
-      <c r="Y565" s="19">
+      <c r="Y565" s="5">
         <v>1613469600</v>
       </c>
-      <c r="Z565" s="19">
+      <c r="Z565" s="5">
         <v>1613484000</v>
       </c>
-      <c r="AE565" s="19">
+      <c r="AE565" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF565" s="19">
+      <c r="AF565" s="5">
         <v>7</v>
       </c>
-      <c r="AH565" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI565" s="19">
+      <c r="AH565" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI565" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A566" s="5">
+        <v>565</v>
+      </c>
+      <c r="B566" s="5">
+        <v>10482</v>
+      </c>
+      <c r="F566" s="22">
+        <v>1</v>
+      </c>
+      <c r="G566" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I566" s="22" t="s">
+        <v>2115</v>
+      </c>
+      <c r="J566" s="22" t="s">
+        <v>1928</v>
+      </c>
+      <c r="L566" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M566" s="22">
+        <v>0</v>
+      </c>
+      <c r="N566" s="22">
+        <v>0</v>
+      </c>
+      <c r="O566" s="22" t="s">
+        <v>2116</v>
+      </c>
+      <c r="P566" s="22">
+        <v>49800</v>
+      </c>
+      <c r="Q566" s="22" t="s">
+        <v>2117</v>
+      </c>
+      <c r="R566" s="66" t="s">
+        <v>1924</v>
+      </c>
+      <c r="W566" s="22" t="s">
+        <v>566</v>
+      </c>
+      <c r="X566" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y566" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z566" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA566" s="22">
+        <v>68</v>
+      </c>
+      <c r="AH566" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI566" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL566" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM566" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A567" s="5">
+        <v>566</v>
+      </c>
+      <c r="B567" s="5">
+        <v>10483</v>
+      </c>
+      <c r="F567" s="22">
+        <v>1</v>
+      </c>
+      <c r="G567" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I567" s="22" t="s">
+        <v>2115</v>
+      </c>
+      <c r="J567" s="22" t="s">
+        <v>1931</v>
+      </c>
+      <c r="L567" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M567" s="22">
+        <v>0</v>
+      </c>
+      <c r="N567" s="22">
+        <v>0</v>
+      </c>
+      <c r="O567" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="P567" s="22">
+        <v>19800</v>
+      </c>
+      <c r="Q567" s="22" t="s">
+        <v>2117</v>
+      </c>
+      <c r="R567" s="66" t="s">
+        <v>1922</v>
+      </c>
+      <c r="W567" s="22" t="s">
+        <v>566</v>
+      </c>
+      <c r="X567" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y567" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z567" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA567" s="22">
+        <v>68</v>
+      </c>
+      <c r="AH567" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI567" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL567" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM567" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A568" s="5">
+        <v>567</v>
+      </c>
+      <c r="B568" s="5">
+        <v>10484</v>
+      </c>
+      <c r="F568" s="22">
+        <v>1</v>
+      </c>
+      <c r="G568" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I568" s="22" t="s">
+        <v>2115</v>
+      </c>
+      <c r="J568" s="22" t="s">
+        <v>2118</v>
+      </c>
+      <c r="L568" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M568" s="22">
+        <v>0</v>
+      </c>
+      <c r="N568" s="22">
+        <v>0</v>
+      </c>
+      <c r="O568" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="P568" s="22">
+        <v>9800</v>
+      </c>
+      <c r="Q568" s="22" t="s">
+        <v>2119</v>
+      </c>
+      <c r="R568" s="66" t="s">
+        <v>1920</v>
+      </c>
+      <c r="W568" s="22" t="s">
+        <v>2120</v>
+      </c>
+      <c r="X568" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y568" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z568" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA568" s="22">
+        <v>68</v>
+      </c>
+      <c r="AH568" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI568" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL568" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM568" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A569" s="5">
+        <v>568</v>
+      </c>
+      <c r="B569" s="5">
+        <v>10485</v>
+      </c>
+      <c r="F569" s="22">
+        <v>1</v>
+      </c>
+      <c r="G569" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I569" s="22" t="s">
+        <v>2115</v>
+      </c>
+      <c r="J569" s="22" t="s">
+        <v>1919</v>
+      </c>
+      <c r="L569" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M569" s="22">
+        <v>0</v>
+      </c>
+      <c r="N569" s="22">
+        <v>0</v>
+      </c>
+      <c r="O569" s="22" t="s">
+        <v>2116</v>
+      </c>
+      <c r="P569" s="22">
+        <v>4800</v>
+      </c>
+      <c r="Q569" s="22" t="s">
+        <v>2121</v>
+      </c>
+      <c r="R569" s="66" t="s">
+        <v>1917</v>
+      </c>
+      <c r="W569" s="22" t="s">
+        <v>566</v>
+      </c>
+      <c r="X569" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y569" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z569" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA569" s="22">
+        <v>68</v>
+      </c>
+      <c r="AH569" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI569" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL569" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM569" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A570" s="5">
+        <v>569</v>
+      </c>
+      <c r="B570" s="5">
+        <v>10486</v>
+      </c>
+      <c r="F570" s="22">
+        <v>1</v>
+      </c>
+      <c r="G570" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I570" s="22" t="s">
+        <v>2122</v>
+      </c>
+      <c r="J570" s="22" t="s">
+        <v>1939</v>
+      </c>
+      <c r="L570" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M570" s="22">
+        <v>0</v>
+      </c>
+      <c r="N570" s="22">
+        <v>0</v>
+      </c>
+      <c r="O570" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="P570" s="22">
+        <v>49800</v>
+      </c>
+      <c r="Q570" s="22" t="s">
+        <v>2123</v>
+      </c>
+      <c r="R570" s="66" t="s">
+        <v>2124</v>
+      </c>
+      <c r="W570" s="22" t="s">
+        <v>566</v>
+      </c>
+      <c r="X570" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y570" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z570" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA570" s="22">
+        <v>69</v>
+      </c>
+      <c r="AH570" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI570" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL570" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM570" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A571" s="5">
+        <v>570</v>
+      </c>
+      <c r="B571" s="5">
+        <v>10487</v>
+      </c>
+      <c r="F571" s="22">
+        <v>1</v>
+      </c>
+      <c r="G571" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I571" s="22" t="s">
+        <v>2122</v>
+      </c>
+      <c r="J571" s="22" t="s">
+        <v>1916</v>
+      </c>
+      <c r="L571" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M571" s="22">
+        <v>0</v>
+      </c>
+      <c r="N571" s="22">
+        <v>0</v>
+      </c>
+      <c r="O571" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="P571" s="22">
+        <v>19800</v>
+      </c>
+      <c r="Q571" s="22" t="s">
+        <v>2123</v>
+      </c>
+      <c r="R571" s="66" t="s">
+        <v>2125</v>
+      </c>
+      <c r="W571" s="22" t="s">
+        <v>566</v>
+      </c>
+      <c r="X571" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y571" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z571" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA571" s="22">
+        <v>69</v>
+      </c>
+      <c r="AH571" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI571" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL571" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM571" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A572" s="5">
+        <v>571</v>
+      </c>
+      <c r="B572" s="5">
+        <v>10488</v>
+      </c>
+      <c r="F572" s="22">
+        <v>1</v>
+      </c>
+      <c r="G572" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I572" s="22" t="s">
+        <v>2122</v>
+      </c>
+      <c r="J572" s="22" t="s">
+        <v>1945</v>
+      </c>
+      <c r="L572" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M572" s="22">
+        <v>0</v>
+      </c>
+      <c r="N572" s="22">
+        <v>0</v>
+      </c>
+      <c r="O572" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="P572" s="22">
+        <v>9800</v>
+      </c>
+      <c r="Q572" s="22" t="s">
+        <v>2126</v>
+      </c>
+      <c r="R572" s="66" t="s">
+        <v>1946</v>
+      </c>
+      <c r="W572" s="22" t="s">
+        <v>566</v>
+      </c>
+      <c r="X572" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y572" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z572" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA572" s="22">
+        <v>69</v>
+      </c>
+      <c r="AH572" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI572" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL572" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM572" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A573" s="5">
+        <v>572</v>
+      </c>
+      <c r="B573" s="5">
+        <v>10489</v>
+      </c>
+      <c r="F573" s="22">
+        <v>1</v>
+      </c>
+      <c r="G573" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I573" s="22" t="s">
+        <v>2122</v>
+      </c>
+      <c r="J573" s="22" t="s">
+        <v>1948</v>
+      </c>
+      <c r="L573" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M573" s="22">
+        <v>0</v>
+      </c>
+      <c r="N573" s="22">
+        <v>0</v>
+      </c>
+      <c r="O573" s="22" t="s">
+        <v>2116</v>
+      </c>
+      <c r="P573" s="22">
+        <v>4800</v>
+      </c>
+      <c r="Q573" s="22" t="s">
+        <v>2127</v>
+      </c>
+      <c r="R573" s="66" t="s">
+        <v>2128</v>
+      </c>
+      <c r="W573" s="22" t="s">
+        <v>566</v>
+      </c>
+      <c r="X573" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y573" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z573" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA573" s="22">
+        <v>69</v>
+      </c>
+      <c r="AH573" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI573" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL573" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM573" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A574" s="5">
+        <v>573</v>
+      </c>
+      <c r="B574" s="22">
+        <v>10490</v>
+      </c>
+      <c r="C574" s="22"/>
+      <c r="D574" s="22"/>
+      <c r="E574" s="22"/>
+      <c r="F574" s="22">
+        <v>1</v>
+      </c>
+      <c r="G574" s="22" t="s">
+        <v>2129</v>
+      </c>
+      <c r="H574" s="22"/>
+      <c r="I574" s="22" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J574" s="22"/>
+      <c r="K574" s="22"/>
+      <c r="L574" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M574" s="22">
+        <v>0</v>
+      </c>
+      <c r="N574" s="22">
+        <v>0</v>
+      </c>
+      <c r="O574" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="P574" s="22">
+        <v>4500</v>
+      </c>
+      <c r="Q574" s="22" t="s">
+        <v>2131</v>
+      </c>
+      <c r="R574" s="67" t="s">
+        <v>2132</v>
+      </c>
+      <c r="S574" s="22"/>
+      <c r="T574" s="22"/>
+      <c r="U574" s="22"/>
+      <c r="V574" s="22"/>
+      <c r="W574" s="22" t="s">
+        <v>2133</v>
+      </c>
+      <c r="X574" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y574" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z574" s="22">
+        <v>2552233600</v>
+      </c>
+      <c r="AH574" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI574" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL574" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM574" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A575" s="5">
+        <v>574</v>
+      </c>
+      <c r="B575" s="22">
+        <v>10491</v>
+      </c>
+      <c r="C575" s="22"/>
+      <c r="D575" s="22"/>
+      <c r="E575" s="22"/>
+      <c r="F575" s="22">
+        <v>1</v>
+      </c>
+      <c r="G575" s="22" t="s">
+        <v>2134</v>
+      </c>
+      <c r="H575" s="22"/>
+      <c r="I575" s="22" t="s">
+        <v>2135</v>
+      </c>
+      <c r="J575" s="22"/>
+      <c r="K575" s="22"/>
+      <c r="L575" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M575" s="22">
+        <v>0</v>
+      </c>
+      <c r="N575" s="22">
+        <v>0</v>
+      </c>
+      <c r="O575" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="P575" s="22">
+        <v>8800</v>
+      </c>
+      <c r="Q575" s="22" t="s">
+        <v>2136</v>
+      </c>
+      <c r="R575" s="67" t="s">
+        <v>2137</v>
+      </c>
+      <c r="S575" s="22"/>
+      <c r="T575" s="22"/>
+      <c r="U575" s="22"/>
+      <c r="V575" s="22"/>
+      <c r="W575" s="22" t="s">
+        <v>2138</v>
+      </c>
+      <c r="X575" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y575" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z575" s="22">
+        <v>2552233600</v>
+      </c>
+      <c r="AH575" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI575" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL575" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM575" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A576" s="5">
+        <v>575</v>
+      </c>
+      <c r="B576" s="22">
+        <v>10492</v>
+      </c>
+      <c r="C576" s="22"/>
+      <c r="D576" s="22"/>
+      <c r="E576" s="22"/>
+      <c r="F576" s="22">
+        <v>1</v>
+      </c>
+      <c r="G576" s="22" t="s">
+        <v>2139</v>
+      </c>
+      <c r="H576" s="22"/>
+      <c r="I576" s="22" t="s">
+        <v>2140</v>
+      </c>
+      <c r="J576" s="22"/>
+      <c r="K576" s="22"/>
+      <c r="L576" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M576" s="22">
+        <v>0</v>
+      </c>
+      <c r="N576" s="22">
+        <v>0</v>
+      </c>
+      <c r="O576" s="22" t="s">
+        <v>2141</v>
+      </c>
+      <c r="P576" s="22">
+        <v>17800</v>
+      </c>
+      <c r="Q576" s="22" t="s">
+        <v>2142</v>
+      </c>
+      <c r="R576" s="67" t="s">
+        <v>2143</v>
+      </c>
+      <c r="S576" s="22"/>
+      <c r="T576" s="22"/>
+      <c r="U576" s="22"/>
+      <c r="V576" s="22"/>
+      <c r="W576" s="22" t="s">
+        <v>2138</v>
+      </c>
+      <c r="X576" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y576" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z576" s="22">
+        <v>2552233600</v>
+      </c>
+      <c r="AH576" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI576" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL576" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM576" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A577" s="5">
+        <v>576</v>
+      </c>
+      <c r="B577" s="22">
+        <v>10493</v>
+      </c>
+      <c r="C577" s="22"/>
+      <c r="D577" s="22"/>
+      <c r="E577" s="22"/>
+      <c r="F577" s="22">
+        <v>1</v>
+      </c>
+      <c r="G577" s="22" t="s">
+        <v>2144</v>
+      </c>
+      <c r="H577" s="22"/>
+      <c r="I577" s="22" t="s">
+        <v>2145</v>
+      </c>
+      <c r="J577" s="22"/>
+      <c r="K577" s="22"/>
+      <c r="L577" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M577" s="22">
+        <v>0</v>
+      </c>
+      <c r="N577" s="22">
+        <v>0</v>
+      </c>
+      <c r="O577" s="22" t="s">
+        <v>2141</v>
+      </c>
+      <c r="P577" s="22">
+        <v>44800</v>
+      </c>
+      <c r="Q577" s="22" t="s">
+        <v>2146</v>
+      </c>
+      <c r="R577" s="67" t="s">
+        <v>2147</v>
+      </c>
+      <c r="S577" s="22"/>
+      <c r="T577" s="22"/>
+      <c r="U577" s="22"/>
+      <c r="V577" s="22"/>
+      <c r="W577" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="X577" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y577" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z577" s="22">
+        <v>2552233600</v>
+      </c>
+      <c r="AH577" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI577" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL577" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM577" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A578" s="5">
+        <v>577</v>
+      </c>
+      <c r="B578" s="22">
+        <v>10494</v>
+      </c>
+      <c r="C578" s="22"/>
+      <c r="D578" s="22"/>
+      <c r="E578" s="22"/>
+      <c r="F578" s="22">
+        <v>1</v>
+      </c>
+      <c r="G578" s="22" t="s">
+        <v>2148</v>
+      </c>
+      <c r="H578" s="22"/>
+      <c r="I578" s="22" t="s">
+        <v>2149</v>
+      </c>
+      <c r="J578" s="22"/>
+      <c r="K578" s="22"/>
+      <c r="L578" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M578" s="22">
+        <v>0</v>
+      </c>
+      <c r="N578" s="22">
+        <v>0</v>
+      </c>
+      <c r="O578" s="22" t="s">
+        <v>2141</v>
+      </c>
+      <c r="P578" s="22">
+        <v>89800</v>
+      </c>
+      <c r="Q578" s="22" t="s">
+        <v>2150</v>
+      </c>
+      <c r="R578" s="67" t="s">
+        <v>2151</v>
+      </c>
+      <c r="S578" s="22"/>
+      <c r="T578" s="22"/>
+      <c r="U578" s="22"/>
+      <c r="V578" s="22"/>
+      <c r="W578" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="X578" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y578" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z578" s="22">
+        <v>2552233600</v>
+      </c>
+      <c r="AH578" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI578" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL578" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM578" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A579" s="5">
+        <v>578</v>
+      </c>
+      <c r="B579" s="22">
+        <v>10495</v>
+      </c>
+      <c r="C579" s="22"/>
+      <c r="D579" s="22"/>
+      <c r="E579" s="22"/>
+      <c r="F579" s="22">
+        <v>1</v>
+      </c>
+      <c r="G579" s="22" t="s">
+        <v>2152</v>
+      </c>
+      <c r="H579" s="22"/>
+      <c r="I579" s="22" t="s">
+        <v>2153</v>
+      </c>
+      <c r="J579" s="22"/>
+      <c r="K579" s="22"/>
+      <c r="L579" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M579" s="22">
+        <v>0</v>
+      </c>
+      <c r="N579" s="22">
+        <v>0</v>
+      </c>
+      <c r="O579" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="P579" s="22">
+        <v>229800</v>
+      </c>
+      <c r="Q579" s="22" t="s">
+        <v>2154</v>
+      </c>
+      <c r="R579" s="67" t="s">
+        <v>2155</v>
+      </c>
+      <c r="S579" s="22"/>
+      <c r="T579" s="22"/>
+      <c r="U579" s="22"/>
+      <c r="V579" s="22"/>
+      <c r="W579" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="X579" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y579" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z579" s="22">
+        <v>2552233600</v>
+      </c>
+      <c r="AH579" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI579" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL579" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM579" s="5">
         <v>1</v>
       </c>
     </row>
@@ -48186,8 +49280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -49188,7 +50282,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="57" t="s">
-        <v>2116</v>
+        <v>2158</v>
       </c>
       <c r="C71" s="58">
         <v>1</v>
@@ -49202,7 +50296,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="57" t="s">
-        <v>2117</v>
+        <v>2159</v>
       </c>
       <c r="C72" s="58">
         <v>1</v>
@@ -49216,7 +50310,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="57" t="s">
-        <v>2118</v>
+        <v>2160</v>
       </c>
       <c r="C73" s="58">
         <v>1</v>

--- a/config_Release/shoping_config_vivo.xlsx
+++ b/config_Release/shoping_config_vivo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4669" uniqueCount="2161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4676" uniqueCount="2166">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -9143,6 +9143,26 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "fclb_v8v12_002" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币周卡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币周卡"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_jbzk_special_item",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币周卡",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9325,7 +9345,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9473,9 +9493,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9528,6 +9545,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12020,13 +12043,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN579"/>
+  <dimension ref="A1:AN580"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H50" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H554" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H61" sqref="H61"/>
+      <selection pane="bottomRight" activeCell="J580" sqref="J580"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -15868,298 +15891,298 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="51">
+    <row r="67" spans="1:35" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="50">
         <v>66</v>
       </c>
-      <c r="B67" s="51">
+      <c r="B67" s="50">
         <v>85</v>
       </c>
-      <c r="D67" s="51">
+      <c r="D67" s="50">
         <v>2</v>
       </c>
-      <c r="F67" s="51">
-        <v>1</v>
-      </c>
-      <c r="G67" s="51" t="s">
+      <c r="F67" s="50">
+        <v>1</v>
+      </c>
+      <c r="G67" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="H67" s="51" t="s">
+      <c r="H67" s="50" t="s">
         <v>1785</v>
       </c>
-      <c r="L67" s="51">
+      <c r="L67" s="50">
         <v>-4</v>
       </c>
-      <c r="M67" s="51">
-        <v>0</v>
-      </c>
-      <c r="N67" s="51">
-        <v>0</v>
-      </c>
-      <c r="O67" s="51" t="s">
+      <c r="M67" s="50">
+        <v>0</v>
+      </c>
+      <c r="N67" s="50">
+        <v>0</v>
+      </c>
+      <c r="O67" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P67" s="51">
+      <c r="P67" s="50">
         <v>1500</v>
       </c>
-      <c r="Q67" s="51" t="s">
+      <c r="Q67" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R67" s="51" t="s">
+      <c r="R67" s="50" t="s">
         <v>1365</v>
       </c>
-      <c r="W67" s="51" t="s">
+      <c r="W67" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X67" s="52" t="s">
+      <c r="X67" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y67" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z67" s="51">
+      <c r="Y67" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH67" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI67" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="51">
+      <c r="AH67" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI67" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="50">
         <v>67</v>
       </c>
-      <c r="B68" s="51">
+      <c r="B68" s="50">
         <v>86</v>
       </c>
-      <c r="D68" s="51">
+      <c r="D68" s="50">
         <v>3</v>
       </c>
-      <c r="F68" s="51">
-        <v>1</v>
-      </c>
-      <c r="G68" s="51" t="s">
+      <c r="F68" s="50">
+        <v>1</v>
+      </c>
+      <c r="G68" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="H68" s="51" t="s">
+      <c r="H68" s="50" t="s">
         <v>1786</v>
       </c>
-      <c r="L68" s="51">
+      <c r="L68" s="50">
         <v>-4</v>
       </c>
-      <c r="M68" s="51">
-        <v>0</v>
-      </c>
-      <c r="N68" s="51">
-        <v>0</v>
-      </c>
-      <c r="O68" s="51" t="s">
+      <c r="M68" s="50">
+        <v>0</v>
+      </c>
+      <c r="N68" s="50">
+        <v>0</v>
+      </c>
+      <c r="O68" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P68" s="51">
+      <c r="P68" s="50">
         <v>3000</v>
       </c>
-      <c r="Q68" s="51" t="s">
+      <c r="Q68" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R68" s="51" t="s">
+      <c r="R68" s="50" t="s">
         <v>1381</v>
       </c>
-      <c r="W68" s="51" t="s">
+      <c r="W68" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X68" s="52" t="s">
+      <c r="X68" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y68" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z68" s="51">
+      <c r="Y68" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH68" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI68" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="51">
+      <c r="AH68" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI68" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="50">
         <v>68</v>
       </c>
-      <c r="B69" s="51">
+      <c r="B69" s="50">
         <v>87</v>
       </c>
-      <c r="D69" s="51">
+      <c r="D69" s="50">
         <v>4</v>
       </c>
-      <c r="F69" s="51">
-        <v>1</v>
-      </c>
-      <c r="G69" s="51" t="s">
+      <c r="F69" s="50">
+        <v>1</v>
+      </c>
+      <c r="G69" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="H69" s="51" t="s">
+      <c r="H69" s="50" t="s">
         <v>1787</v>
       </c>
-      <c r="L69" s="51">
+      <c r="L69" s="50">
         <v>-4</v>
       </c>
-      <c r="M69" s="51">
-        <v>0</v>
-      </c>
-      <c r="N69" s="51">
-        <v>0</v>
-      </c>
-      <c r="O69" s="51" t="s">
+      <c r="M69" s="50">
+        <v>0</v>
+      </c>
+      <c r="N69" s="50">
+        <v>0</v>
+      </c>
+      <c r="O69" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P69" s="51">
+      <c r="P69" s="50">
         <v>5000</v>
       </c>
-      <c r="Q69" s="51" t="s">
+      <c r="Q69" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R69" s="51" t="s">
+      <c r="R69" s="50" t="s">
         <v>1366</v>
       </c>
-      <c r="W69" s="51" t="s">
+      <c r="W69" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X69" s="52" t="s">
+      <c r="X69" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y69" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z69" s="51">
+      <c r="Y69" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH69" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI69" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="51">
+      <c r="AH69" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI69" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="50">
         <v>69</v>
       </c>
-      <c r="B70" s="51">
+      <c r="B70" s="50">
         <v>88</v>
       </c>
-      <c r="D70" s="51">
+      <c r="D70" s="50">
         <v>5</v>
       </c>
-      <c r="F70" s="51">
-        <v>1</v>
-      </c>
-      <c r="G70" s="51" t="s">
+      <c r="F70" s="50">
+        <v>1</v>
+      </c>
+      <c r="G70" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="H70" s="51" t="s">
+      <c r="H70" s="50" t="s">
         <v>1788</v>
       </c>
-      <c r="L70" s="51">
+      <c r="L70" s="50">
         <v>-4</v>
       </c>
-      <c r="M70" s="51">
-        <v>0</v>
-      </c>
-      <c r="N70" s="51">
-        <v>0</v>
-      </c>
-      <c r="O70" s="51" t="s">
+      <c r="M70" s="50">
+        <v>0</v>
+      </c>
+      <c r="N70" s="50">
+        <v>0</v>
+      </c>
+      <c r="O70" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P70" s="51">
+      <c r="P70" s="50">
         <v>9800</v>
       </c>
-      <c r="Q70" s="51" t="s">
+      <c r="Q70" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R70" s="51" t="s">
+      <c r="R70" s="50" t="s">
         <v>1367</v>
       </c>
-      <c r="W70" s="51" t="s">
+      <c r="W70" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X70" s="52" t="s">
+      <c r="X70" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y70" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z70" s="51">
+      <c r="Y70" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH70" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI70" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="51">
+      <c r="AH70" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI70" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="50">
         <v>70</v>
       </c>
-      <c r="B71" s="51">
+      <c r="B71" s="50">
         <v>89</v>
       </c>
-      <c r="D71" s="51">
+      <c r="D71" s="50">
         <v>6</v>
       </c>
-      <c r="F71" s="51">
-        <v>1</v>
-      </c>
-      <c r="G71" s="51" t="s">
+      <c r="F71" s="50">
+        <v>1</v>
+      </c>
+      <c r="G71" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="H71" s="51" t="s">
+      <c r="H71" s="50" t="s">
         <v>1789</v>
       </c>
-      <c r="L71" s="51">
+      <c r="L71" s="50">
         <v>-4</v>
       </c>
-      <c r="M71" s="51">
-        <v>0</v>
-      </c>
-      <c r="N71" s="51">
-        <v>0</v>
-      </c>
-      <c r="O71" s="51" t="s">
+      <c r="M71" s="50">
+        <v>0</v>
+      </c>
+      <c r="N71" s="50">
+        <v>0</v>
+      </c>
+      <c r="O71" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P71" s="51">
+      <c r="P71" s="50">
         <v>49800</v>
       </c>
-      <c r="Q71" s="51" t="s">
+      <c r="Q71" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R71" s="51" t="s">
+      <c r="R71" s="50" t="s">
         <v>1368</v>
       </c>
-      <c r="W71" s="51" t="s">
+      <c r="W71" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X71" s="52" t="s">
+      <c r="X71" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y71" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z71" s="51">
+      <c r="Y71" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH71" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI71" s="51">
+      <c r="AH71" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI71" s="50">
         <v>1</v>
       </c>
     </row>
@@ -17455,56 +17478,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="51">
+    <row r="94" spans="1:35" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="50">
         <v>93</v>
       </c>
-      <c r="B94" s="51">
+      <c r="B94" s="50">
         <v>109</v>
       </c>
-      <c r="F94" s="51">
-        <v>1</v>
-      </c>
-      <c r="G94" s="51" t="s">
+      <c r="F94" s="50">
+        <v>1</v>
+      </c>
+      <c r="G94" s="50" t="s">
         <v>253</v>
       </c>
-      <c r="L94" s="51">
+      <c r="L94" s="50">
         <v>-4</v>
       </c>
-      <c r="M94" s="51">
-        <v>0</v>
-      </c>
-      <c r="N94" s="51">
-        <v>0</v>
-      </c>
-      <c r="O94" s="51" t="s">
+      <c r="M94" s="50">
+        <v>0</v>
+      </c>
+      <c r="N94" s="50">
+        <v>0</v>
+      </c>
+      <c r="O94" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P94" s="51">
+      <c r="P94" s="50">
         <v>100000</v>
       </c>
-      <c r="Q94" s="51" t="s">
+      <c r="Q94" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R94" s="51" t="s">
+      <c r="R94" s="50" t="s">
         <v>687</v>
       </c>
-      <c r="W94" s="51" t="s">
+      <c r="W94" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X94" s="52" t="s">
+      <c r="X94" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y94" s="51">
-        <v>0</v>
-      </c>
-      <c r="Z94" s="51">
+      <c r="Y94" s="50">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH94" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI94" s="51">
+      <c r="AH94" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI94" s="50">
         <v>1</v>
       </c>
     </row>
@@ -19486,121 +19509,121 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="51">
+    <row r="128" spans="1:35" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="50">
         <v>127</v>
       </c>
-      <c r="B128" s="51">
+      <c r="B128" s="50">
         <v>10044</v>
       </c>
-      <c r="D128" s="51">
+      <c r="D128" s="50">
         <v>108</v>
       </c>
-      <c r="F128" s="51">
-        <v>1</v>
-      </c>
-      <c r="G128" s="51" t="s">
+      <c r="F128" s="50">
+        <v>1</v>
+      </c>
+      <c r="G128" s="50" t="s">
         <v>319</v>
       </c>
-      <c r="H128" s="51" t="s">
+      <c r="H128" s="50" t="s">
         <v>1790</v>
       </c>
-      <c r="L128" s="51">
+      <c r="L128" s="50">
         <v>-10</v>
       </c>
-      <c r="M128" s="51">
-        <v>0</v>
-      </c>
-      <c r="N128" s="51">
-        <v>0</v>
-      </c>
-      <c r="O128" s="51" t="s">
+      <c r="M128" s="50">
+        <v>0</v>
+      </c>
+      <c r="N128" s="50">
+        <v>0</v>
+      </c>
+      <c r="O128" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P128" s="51">
+      <c r="P128" s="50">
         <v>99800</v>
       </c>
-      <c r="Q128" s="51" t="s">
+      <c r="Q128" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R128" s="51" t="s">
+      <c r="R128" s="50" t="s">
         <v>1370</v>
       </c>
-      <c r="W128" s="51" t="s">
+      <c r="W128" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X128" s="52" t="s">
+      <c r="X128" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y128" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z128" s="51">
+      <c r="Y128" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z128" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH128" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI128" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:39" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="51">
+      <c r="AH128" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI128" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:39" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="50">
         <v>128</v>
       </c>
-      <c r="B129" s="51">
+      <c r="B129" s="50">
         <v>10045</v>
       </c>
-      <c r="D129" s="51">
+      <c r="D129" s="50">
         <v>110</v>
       </c>
-      <c r="F129" s="51">
-        <v>1</v>
-      </c>
-      <c r="G129" s="51" t="s">
+      <c r="F129" s="50">
+        <v>1</v>
+      </c>
+      <c r="G129" s="50" t="s">
         <v>1128</v>
       </c>
-      <c r="H129" s="51" t="s">
+      <c r="H129" s="50" t="s">
         <v>1791</v>
       </c>
-      <c r="L129" s="51">
+      <c r="L129" s="50">
         <v>-11</v>
       </c>
-      <c r="M129" s="51">
-        <v>0</v>
-      </c>
-      <c r="N129" s="51">
-        <v>0</v>
-      </c>
-      <c r="O129" s="51" t="s">
+      <c r="M129" s="50">
+        <v>0</v>
+      </c>
+      <c r="N129" s="50">
+        <v>0</v>
+      </c>
+      <c r="O129" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P129" s="51">
+      <c r="P129" s="50">
         <v>249800</v>
       </c>
-      <c r="Q129" s="51" t="s">
+      <c r="Q129" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R129" s="51" t="s">
+      <c r="R129" s="50" t="s">
         <v>1369</v>
       </c>
-      <c r="W129" s="51" t="s">
+      <c r="W129" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X129" s="52" t="s">
+      <c r="X129" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y129" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z129" s="51">
+      <c r="Y129" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z129" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH129" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI129" s="51">
+      <c r="AH129" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI129" s="50">
         <v>1</v>
       </c>
     </row>
@@ -22208,7 +22231,7 @@
       <c r="Q171" s="43" t="s">
         <v>1736</v>
       </c>
-      <c r="R171" s="50" t="s">
+      <c r="R171" s="49" t="s">
         <v>1737</v>
       </c>
       <c r="W171" s="43" t="s">
@@ -22276,7 +22299,7 @@
       <c r="Q172" s="43" t="s">
         <v>1740</v>
       </c>
-      <c r="R172" s="50" t="s">
+      <c r="R172" s="49" t="s">
         <v>1730</v>
       </c>
       <c r="W172" s="43" t="s">
@@ -22344,7 +22367,7 @@
       <c r="Q173" s="43" t="s">
         <v>1736</v>
       </c>
-      <c r="R173" s="50" t="s">
+      <c r="R173" s="49" t="s">
         <v>1731</v>
       </c>
       <c r="W173" s="43" t="s">
@@ -22412,7 +22435,7 @@
       <c r="Q174" s="43" t="s">
         <v>1736</v>
       </c>
-      <c r="R174" s="50" t="s">
+      <c r="R174" s="49" t="s">
         <v>1745</v>
       </c>
       <c r="W174" s="43" t="s">
@@ -22480,7 +22503,7 @@
       <c r="Q175" s="43" t="s">
         <v>959</v>
       </c>
-      <c r="R175" s="50" t="s">
+      <c r="R175" s="49" t="s">
         <v>960</v>
       </c>
       <c r="W175" s="43" t="s">
@@ -22548,7 +22571,7 @@
       <c r="Q176" s="43" t="s">
         <v>1749</v>
       </c>
-      <c r="R176" s="50" t="s">
+      <c r="R176" s="49" t="s">
         <v>1750</v>
       </c>
       <c r="W176" s="43" t="s">
@@ -22616,7 +22639,7 @@
       <c r="Q177" s="43" t="s">
         <v>1749</v>
       </c>
-      <c r="R177" s="50" t="s">
+      <c r="R177" s="49" t="s">
         <v>1753</v>
       </c>
       <c r="W177" s="43" t="s">
@@ -22684,7 +22707,7 @@
       <c r="Q178" s="43" t="s">
         <v>959</v>
       </c>
-      <c r="R178" s="50" t="s">
+      <c r="R178" s="49" t="s">
         <v>1755</v>
       </c>
       <c r="W178" s="43" t="s">
@@ -22752,7 +22775,7 @@
       <c r="Q179" s="43" t="s">
         <v>1749</v>
       </c>
-      <c r="R179" s="50" t="s">
+      <c r="R179" s="49" t="s">
         <v>1758</v>
       </c>
       <c r="W179" s="43" t="s">
@@ -22820,7 +22843,7 @@
       <c r="Q180" s="43" t="s">
         <v>1749</v>
       </c>
-      <c r="R180" s="50" t="s">
+      <c r="R180" s="49" t="s">
         <v>1755</v>
       </c>
       <c r="W180" s="43" t="s">
@@ -22888,7 +22911,7 @@
       <c r="Q181" s="43" t="s">
         <v>1749</v>
       </c>
-      <c r="R181" s="50" t="s">
+      <c r="R181" s="49" t="s">
         <v>1758</v>
       </c>
       <c r="W181" s="43" t="s">
@@ -22956,7 +22979,7 @@
       <c r="Q182" s="43" t="s">
         <v>1749</v>
       </c>
-      <c r="R182" s="50" t="s">
+      <c r="R182" s="49" t="s">
         <v>1763</v>
       </c>
       <c r="W182" s="43" t="s">
@@ -23024,7 +23047,7 @@
       <c r="Q183" s="43" t="s">
         <v>1749</v>
       </c>
-      <c r="R183" s="50" t="s">
+      <c r="R183" s="49" t="s">
         <v>1758</v>
       </c>
       <c r="W183" s="43" t="s">
@@ -23092,7 +23115,7 @@
       <c r="Q184" s="43" t="s">
         <v>1749</v>
       </c>
-      <c r="R184" s="50" t="s">
+      <c r="R184" s="49" t="s">
         <v>1763</v>
       </c>
       <c r="W184" s="43" t="s">
@@ -23160,7 +23183,7 @@
       <c r="Q185" s="43" t="s">
         <v>959</v>
       </c>
-      <c r="R185" s="50" t="s">
+      <c r="R185" s="49" t="s">
         <v>1768</v>
       </c>
       <c r="W185" s="43" t="s">
@@ -28848,62 +28871,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:40" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A273" s="51">
+    <row r="273" spans="1:40" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A273" s="50">
         <v>272</v>
       </c>
-      <c r="B273" s="51">
+      <c r="B273" s="50">
         <v>10189</v>
       </c>
-      <c r="D273" s="54">
+      <c r="D273" s="53">
         <v>111</v>
       </c>
-      <c r="F273" s="51">
-        <v>1</v>
-      </c>
-      <c r="G273" s="51" t="s">
+      <c r="F273" s="50">
+        <v>1</v>
+      </c>
+      <c r="G273" s="50" t="s">
         <v>520</v>
       </c>
-      <c r="H273" s="56" t="s">
+      <c r="H273" s="55" t="s">
         <v>1852</v>
       </c>
-      <c r="L273" s="51">
+      <c r="L273" s="50">
         <v>-10</v>
       </c>
-      <c r="M273" s="51">
-        <v>0</v>
-      </c>
-      <c r="N273" s="51">
-        <v>0</v>
-      </c>
-      <c r="O273" s="51" t="s">
+      <c r="M273" s="50">
+        <v>0</v>
+      </c>
+      <c r="N273" s="50">
+        <v>0</v>
+      </c>
+      <c r="O273" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P273" s="51">
+      <c r="P273" s="50">
         <v>19800</v>
       </c>
-      <c r="Q273" s="51" t="s">
+      <c r="Q273" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R273" s="51" t="s">
+      <c r="R273" s="50" t="s">
         <v>1371</v>
       </c>
-      <c r="W273" s="51" t="s">
+      <c r="W273" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X273" s="52" t="s">
+      <c r="X273" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y273" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z273" s="51">
+      <c r="Y273" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z273" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH273" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI273" s="51">
+      <c r="AH273" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI273" s="50">
         <v>1</v>
       </c>
     </row>
@@ -32012,7 +32035,7 @@
       <c r="Q323" s="43" t="s">
         <v>959</v>
       </c>
-      <c r="R323" s="50" t="s">
+      <c r="R323" s="49" t="s">
         <v>1719</v>
       </c>
       <c r="W323" s="43" t="s">
@@ -32077,7 +32100,7 @@
       <c r="Q324" s="43" t="s">
         <v>1724</v>
       </c>
-      <c r="R324" s="50" t="s">
+      <c r="R324" s="49" t="s">
         <v>1725</v>
       </c>
       <c r="W324" s="43" t="s">
@@ -32142,7 +32165,7 @@
       <c r="Q325" s="43" t="s">
         <v>959</v>
       </c>
-      <c r="R325" s="50" t="s">
+      <c r="R325" s="49" t="s">
         <v>1728</v>
       </c>
       <c r="W325" s="43" t="s">
@@ -32334,7 +32357,7 @@
       <c r="Q328" s="43" t="s">
         <v>1626</v>
       </c>
-      <c r="R328" s="50" t="s">
+      <c r="R328" s="49" t="s">
         <v>983</v>
       </c>
       <c r="S328" s="43"/>
@@ -32417,7 +32440,7 @@
       <c r="Q329" s="43" t="s">
         <v>1630</v>
       </c>
-      <c r="R329" s="50" t="s">
+      <c r="R329" s="49" t="s">
         <v>1631</v>
       </c>
       <c r="S329" s="43"/>
@@ -32500,7 +32523,7 @@
       <c r="Q330" s="43" t="s">
         <v>1626</v>
       </c>
-      <c r="R330" s="50" t="s">
+      <c r="R330" s="49" t="s">
         <v>1633</v>
       </c>
       <c r="S330" s="43"/>
@@ -32583,7 +32606,7 @@
       <c r="Q331" s="43" t="s">
         <v>1635</v>
       </c>
-      <c r="R331" s="50" t="s">
+      <c r="R331" s="49" t="s">
         <v>1636</v>
       </c>
       <c r="S331" s="43"/>
@@ -32666,7 +32689,7 @@
       <c r="Q332" s="43" t="s">
         <v>1626</v>
       </c>
-      <c r="R332" s="50" t="s">
+      <c r="R332" s="49" t="s">
         <v>1638</v>
       </c>
       <c r="S332" s="43"/>
@@ -32749,7 +32772,7 @@
       <c r="Q333" s="43" t="s">
         <v>1626</v>
       </c>
-      <c r="R333" s="50" t="s">
+      <c r="R333" s="49" t="s">
         <v>1640</v>
       </c>
       <c r="S333" s="43"/>
@@ -32832,7 +32855,7 @@
       <c r="Q334" s="43" t="s">
         <v>1644</v>
       </c>
-      <c r="R334" s="50" t="s">
+      <c r="R334" s="49" t="s">
         <v>1645</v>
       </c>
       <c r="S334" s="43"/>
@@ -32915,7 +32938,7 @@
       <c r="Q335" s="43" t="s">
         <v>1626</v>
       </c>
-      <c r="R335" s="50" t="s">
+      <c r="R335" s="49" t="s">
         <v>1647</v>
       </c>
       <c r="S335" s="43"/>
@@ -32998,7 +33021,7 @@
       <c r="Q336" s="43" t="s">
         <v>1635</v>
       </c>
-      <c r="R336" s="50" t="s">
+      <c r="R336" s="49" t="s">
         <v>1649</v>
       </c>
       <c r="S336" s="43"/>
@@ -33081,7 +33104,7 @@
       <c r="Q337" s="43" t="s">
         <v>1635</v>
       </c>
-      <c r="R337" s="50" t="s">
+      <c r="R337" s="49" t="s">
         <v>1651</v>
       </c>
       <c r="S337" s="43"/>
@@ -35058,7 +35081,7 @@
         <v>10281</v>
       </c>
       <c r="F365" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G365" s="5" t="s">
         <v>1196</v>
@@ -35123,7 +35146,7 @@
         <v>10282</v>
       </c>
       <c r="F366" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G366" s="5" t="s">
         <v>1199</v>
@@ -35188,7 +35211,7 @@
         <v>10283</v>
       </c>
       <c r="F367" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G367" s="5" t="s">
         <v>1202</v>
@@ -35253,7 +35276,7 @@
         <v>10284</v>
       </c>
       <c r="F368" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G368" s="5" t="s">
         <v>1204</v>
@@ -35318,7 +35341,7 @@
         <v>10285</v>
       </c>
       <c r="F369" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G369" s="5" t="s">
         <v>1206</v>
@@ -35383,7 +35406,7 @@
         <v>10286</v>
       </c>
       <c r="F370" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G370" s="5" t="s">
         <v>1120</v>
@@ -35445,7 +35468,7 @@
         <v>10287</v>
       </c>
       <c r="F371" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G371" s="5" t="s">
         <v>1209</v>
@@ -35507,7 +35530,7 @@
         <v>10288</v>
       </c>
       <c r="F372" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G372" s="5" t="s">
         <v>1122</v>
@@ -35569,7 +35592,7 @@
         <v>10289</v>
       </c>
       <c r="F373" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G373" s="5" t="s">
         <v>1123</v>
@@ -35631,7 +35654,7 @@
         <v>10290</v>
       </c>
       <c r="F374" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G374" s="5" t="s">
         <v>1124</v>
@@ -35699,7 +35722,7 @@
         <v>10291</v>
       </c>
       <c r="F375" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G375" s="5" t="s">
         <v>1230</v>
@@ -35767,7 +35790,7 @@
         <v>10292</v>
       </c>
       <c r="F376" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G376" s="5" t="s">
         <v>1238</v>
@@ -35835,7 +35858,7 @@
         <v>10293</v>
       </c>
       <c r="F377" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G377" s="5" t="s">
         <v>1238</v>
@@ -35903,7 +35926,7 @@
         <v>10294</v>
       </c>
       <c r="F378" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G378" s="5" t="s">
         <v>1238</v>
@@ -35971,7 +35994,7 @@
         <v>10295</v>
       </c>
       <c r="F379" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G379" s="5" t="s">
         <v>1237</v>
@@ -36039,7 +36062,7 @@
         <v>10296</v>
       </c>
       <c r="F380" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G380" s="5" t="s">
         <v>1237</v>
@@ -36107,7 +36130,7 @@
         <v>10297</v>
       </c>
       <c r="F381" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G381" s="5" t="s">
         <v>1238</v>
@@ -36175,7 +36198,7 @@
         <v>10298</v>
       </c>
       <c r="F382" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G382" s="5" t="s">
         <v>1237</v>
@@ -36243,7 +36266,7 @@
         <v>10299</v>
       </c>
       <c r="F383" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G383" s="5" t="s">
         <v>1238</v>
@@ -36311,7 +36334,7 @@
         <v>10300</v>
       </c>
       <c r="F384" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G384" s="5" t="s">
         <v>1237</v>
@@ -36379,7 +36402,7 @@
         <v>10301</v>
       </c>
       <c r="F385" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G385" s="5" t="s">
         <v>1238</v>
@@ -36439,624 +36462,615 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A386" s="19">
+    <row r="386" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A386" s="22">
         <v>385</v>
       </c>
-      <c r="B386" s="19">
+      <c r="B386" s="22">
         <v>10302</v>
       </c>
-      <c r="F386" s="19">
-        <v>1</v>
-      </c>
-      <c r="G386" s="19" t="s">
+      <c r="F386" s="22">
+        <v>1</v>
+      </c>
+      <c r="G386" s="22" t="s">
         <v>1263</v>
       </c>
-      <c r="H386" s="47"/>
-      <c r="I386" s="19" t="s">
+      <c r="I386" s="22" t="s">
         <v>1264</v>
       </c>
-      <c r="J386" s="19" t="s">
+      <c r="J386" s="22" t="s">
         <v>1265</v>
       </c>
-      <c r="L386" s="19">
+      <c r="L386" s="22">
         <v>-31</v>
       </c>
-      <c r="M386" s="19">
-        <v>0</v>
-      </c>
-      <c r="N386" s="19">
-        <v>0</v>
-      </c>
-      <c r="O386" s="19" t="s">
+      <c r="M386" s="22">
+        <v>0</v>
+      </c>
+      <c r="N386" s="22">
+        <v>0</v>
+      </c>
+      <c r="O386" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="P386" s="19">
+      <c r="P386" s="22">
         <v>1800</v>
       </c>
-      <c r="Q386" s="19" t="s">
+      <c r="Q386" s="22" t="s">
         <v>1266</v>
       </c>
-      <c r="R386" s="39" t="s">
+      <c r="R386" s="67" t="s">
         <v>1267</v>
       </c>
-      <c r="W386" s="19" t="s">
+      <c r="W386" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="X386" s="19">
+      <c r="X386" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y386" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z386" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA386" s="19">
+      <c r="Y386" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z386" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA386" s="22">
         <v>44</v>
       </c>
-      <c r="AH386" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI386" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL386" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM386" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A387" s="19">
+      <c r="AH386" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI386" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL386" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM386" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="22">
         <v>386</v>
       </c>
-      <c r="B387" s="19">
+      <c r="B387" s="22">
         <v>10303</v>
       </c>
-      <c r="F387" s="19">
-        <v>1</v>
-      </c>
-      <c r="G387" s="19" t="s">
+      <c r="F387" s="22">
+        <v>1</v>
+      </c>
+      <c r="G387" s="22" t="s">
         <v>1268</v>
       </c>
-      <c r="H387" s="47"/>
-      <c r="I387" s="19" t="s">
+      <c r="I387" s="22" t="s">
         <v>1269</v>
       </c>
-      <c r="J387" s="19" t="s">
+      <c r="J387" s="22" t="s">
         <v>1270</v>
       </c>
-      <c r="L387" s="19">
+      <c r="L387" s="22">
         <v>-31</v>
       </c>
-      <c r="M387" s="19">
-        <v>0</v>
-      </c>
-      <c r="N387" s="19">
-        <v>0</v>
-      </c>
-      <c r="O387" s="19" t="s">
+      <c r="M387" s="22">
+        <v>0</v>
+      </c>
+      <c r="N387" s="22">
+        <v>0</v>
+      </c>
+      <c r="O387" s="22" t="s">
         <v>1271</v>
       </c>
-      <c r="P387" s="19">
+      <c r="P387" s="22">
         <v>3000</v>
       </c>
-      <c r="Q387" s="19" t="s">
+      <c r="Q387" s="22" t="s">
         <v>1272</v>
       </c>
-      <c r="R387" s="39" t="s">
+      <c r="R387" s="67" t="s">
         <v>1273</v>
       </c>
-      <c r="W387" s="19" t="s">
+      <c r="W387" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="X387" s="19">
+      <c r="X387" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y387" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z387" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA387" s="19">
+      <c r="Y387" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z387" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA387" s="22">
         <v>44</v>
       </c>
-      <c r="AH387" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI387" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL387" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM387" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="388" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A388" s="19">
+      <c r="AH387" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI387" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL387" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM387" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="22">
         <v>387</v>
       </c>
-      <c r="B388" s="19">
+      <c r="B388" s="22">
         <v>10304</v>
       </c>
-      <c r="F388" s="19">
-        <v>1</v>
-      </c>
-      <c r="G388" s="19" t="s">
+      <c r="F388" s="22">
+        <v>1</v>
+      </c>
+      <c r="G388" s="22" t="s">
         <v>1274</v>
       </c>
-      <c r="H388" s="47"/>
-      <c r="I388" s="19" t="s">
+      <c r="I388" s="22" t="s">
         <v>1275</v>
       </c>
-      <c r="J388" s="19" t="s">
+      <c r="J388" s="22" t="s">
         <v>1276</v>
       </c>
-      <c r="L388" s="19">
+      <c r="L388" s="22">
         <v>-31</v>
       </c>
-      <c r="M388" s="19">
-        <v>0</v>
-      </c>
-      <c r="N388" s="19">
-        <v>0</v>
-      </c>
-      <c r="O388" s="19" t="s">
+      <c r="M388" s="22">
+        <v>0</v>
+      </c>
+      <c r="N388" s="22">
+        <v>0</v>
+      </c>
+      <c r="O388" s="22" t="s">
         <v>1277</v>
       </c>
-      <c r="P388" s="19">
+      <c r="P388" s="22">
         <v>4800</v>
       </c>
-      <c r="Q388" s="19" t="s">
+      <c r="Q388" s="22" t="s">
         <v>1278</v>
       </c>
-      <c r="R388" s="39" t="s">
+      <c r="R388" s="67" t="s">
         <v>1279</v>
       </c>
-      <c r="W388" s="19" t="s">
+      <c r="W388" s="22" t="s">
         <v>1280</v>
       </c>
-      <c r="X388" s="19">
+      <c r="X388" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y388" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z388" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA388" s="19">
+      <c r="Y388" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z388" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA388" s="22">
         <v>44</v>
       </c>
-      <c r="AH388" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI388" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL388" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM388" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A389" s="19">
+      <c r="AH388" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI388" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL388" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM388" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="22">
         <v>388</v>
       </c>
-      <c r="B389" s="19">
+      <c r="B389" s="22">
         <v>10305</v>
       </c>
-      <c r="F389" s="19">
-        <v>1</v>
-      </c>
-      <c r="G389" s="19" t="s">
+      <c r="F389" s="22">
+        <v>1</v>
+      </c>
+      <c r="G389" s="22" t="s">
         <v>1281</v>
       </c>
-      <c r="H389" s="49"/>
-      <c r="I389" s="19" t="s">
+      <c r="I389" s="22" t="s">
         <v>1282</v>
       </c>
-      <c r="J389" s="19" t="s">
+      <c r="J389" s="22" t="s">
         <v>1283</v>
       </c>
-      <c r="L389" s="19">
+      <c r="L389" s="22">
         <v>-31</v>
       </c>
-      <c r="M389" s="19">
-        <v>0</v>
-      </c>
-      <c r="N389" s="19">
-        <v>0</v>
-      </c>
-      <c r="O389" s="19" t="s">
+      <c r="M389" s="22">
+        <v>0</v>
+      </c>
+      <c r="N389" s="22">
+        <v>0</v>
+      </c>
+      <c r="O389" s="22" t="s">
         <v>1284</v>
       </c>
-      <c r="P389" s="19">
+      <c r="P389" s="22">
         <v>4800</v>
       </c>
-      <c r="Q389" s="19" t="s">
+      <c r="Q389" s="22" t="s">
         <v>1285</v>
       </c>
-      <c r="R389" s="39" t="s">
+      <c r="R389" s="67" t="s">
         <v>1279</v>
       </c>
-      <c r="W389" s="19" t="s">
+      <c r="W389" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="X389" s="19">
+      <c r="X389" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y389" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z389" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA389" s="19">
+      <c r="Y389" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z389" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA389" s="22">
         <v>45</v>
       </c>
-      <c r="AH389" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI389" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL389" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM389" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="390" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A390" s="19">
+      <c r="AH389" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI389" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL389" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM389" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A390" s="22">
         <v>389</v>
       </c>
-      <c r="B390" s="19">
+      <c r="B390" s="22">
         <v>10306</v>
       </c>
-      <c r="F390" s="19">
-        <v>1</v>
-      </c>
-      <c r="G390" s="19" t="s">
+      <c r="F390" s="22">
+        <v>1</v>
+      </c>
+      <c r="G390" s="22" t="s">
         <v>1268</v>
       </c>
-      <c r="H390" s="49"/>
-      <c r="I390" s="19" t="s">
+      <c r="I390" s="22" t="s">
         <v>1112</v>
       </c>
-      <c r="J390" s="19" t="s">
+      <c r="J390" s="22" t="s">
         <v>1286</v>
       </c>
-      <c r="L390" s="19">
+      <c r="L390" s="22">
         <v>-31</v>
       </c>
-      <c r="M390" s="19">
-        <v>0</v>
-      </c>
-      <c r="N390" s="19">
-        <v>0</v>
-      </c>
-      <c r="O390" s="19" t="s">
+      <c r="M390" s="22">
+        <v>0</v>
+      </c>
+      <c r="N390" s="22">
+        <v>0</v>
+      </c>
+      <c r="O390" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="P390" s="19">
+      <c r="P390" s="22">
         <v>9800</v>
       </c>
-      <c r="Q390" s="19" t="s">
+      <c r="Q390" s="22" t="s">
         <v>1287</v>
       </c>
-      <c r="R390" s="39" t="s">
+      <c r="R390" s="67" t="s">
         <v>1288</v>
       </c>
-      <c r="W390" s="19" t="s">
+      <c r="W390" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="X390" s="19">
+      <c r="X390" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y390" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z390" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA390" s="19">
+      <c r="Y390" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z390" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA390" s="22">
         <v>45</v>
       </c>
-      <c r="AH390" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI390" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL390" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM390" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A391" s="19">
+      <c r="AH390" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI390" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL390" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM390" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="22">
         <v>390</v>
       </c>
-      <c r="B391" s="19">
+      <c r="B391" s="22">
         <v>10307</v>
       </c>
-      <c r="F391" s="19">
-        <v>1</v>
-      </c>
-      <c r="G391" s="19" t="s">
+      <c r="F391" s="22">
+        <v>1</v>
+      </c>
+      <c r="G391" s="22" t="s">
         <v>1289</v>
       </c>
-      <c r="H391" s="49"/>
-      <c r="I391" s="19" t="s">
+      <c r="I391" s="22" t="s">
         <v>1282</v>
       </c>
-      <c r="J391" s="19" t="s">
+      <c r="J391" s="22" t="s">
         <v>1290</v>
       </c>
-      <c r="L391" s="19">
+      <c r="L391" s="22">
         <v>-31</v>
       </c>
-      <c r="M391" s="19">
-        <v>0</v>
-      </c>
-      <c r="N391" s="19">
-        <v>0</v>
-      </c>
-      <c r="O391" s="19" t="s">
+      <c r="M391" s="22">
+        <v>0</v>
+      </c>
+      <c r="N391" s="22">
+        <v>0</v>
+      </c>
+      <c r="O391" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="P391" s="19">
+      <c r="P391" s="22">
         <v>19800</v>
       </c>
-      <c r="Q391" s="19" t="s">
+      <c r="Q391" s="22" t="s">
         <v>1291</v>
       </c>
-      <c r="R391" s="39" t="s">
+      <c r="R391" s="67" t="s">
         <v>1292</v>
       </c>
-      <c r="W391" s="19" t="s">
+      <c r="W391" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="X391" s="19">
+      <c r="X391" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y391" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z391" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA391" s="19">
+      <c r="Y391" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z391" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA391" s="22">
         <v>45</v>
       </c>
-      <c r="AH391" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI391" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL391" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM391" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A392" s="19">
+      <c r="AH391" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI391" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL391" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM391" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A392" s="22">
         <v>391</v>
       </c>
-      <c r="B392" s="19">
+      <c r="B392" s="22">
         <v>10308</v>
       </c>
-      <c r="F392" s="19">
-        <v>1</v>
-      </c>
-      <c r="G392" s="19" t="s">
+      <c r="F392" s="22">
+        <v>1</v>
+      </c>
+      <c r="G392" s="22" t="s">
         <v>1263</v>
       </c>
-      <c r="H392" s="47"/>
-      <c r="I392" s="19" t="s">
+      <c r="I392" s="22" t="s">
         <v>1293</v>
       </c>
-      <c r="J392" s="19" t="s">
+      <c r="J392" s="22" t="s">
         <v>1294</v>
       </c>
-      <c r="L392" s="19">
+      <c r="L392" s="22">
         <v>-31</v>
       </c>
-      <c r="M392" s="19">
-        <v>0</v>
-      </c>
-      <c r="N392" s="19">
-        <v>0</v>
-      </c>
-      <c r="O392" s="19" t="s">
+      <c r="M392" s="22">
+        <v>0</v>
+      </c>
+      <c r="N392" s="22">
+        <v>0</v>
+      </c>
+      <c r="O392" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="P392" s="19">
+      <c r="P392" s="22">
         <v>9800</v>
       </c>
-      <c r="Q392" s="19" t="s">
+      <c r="Q392" s="22" t="s">
         <v>1295</v>
       </c>
-      <c r="R392" s="39" t="s">
+      <c r="R392" s="67" t="s">
         <v>1296</v>
       </c>
-      <c r="W392" s="19" t="s">
+      <c r="W392" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="X392" s="19">
+      <c r="X392" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y392" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z392" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA392" s="19">
+      <c r="Y392" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z392" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA392" s="22">
         <v>46</v>
       </c>
-      <c r="AH392" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI392" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL392" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM392" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A393" s="19">
+      <c r="AH392" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI392" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL392" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM392" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A393" s="22">
         <v>392</v>
       </c>
-      <c r="B393" s="19">
+      <c r="B393" s="22">
         <v>10309</v>
       </c>
-      <c r="F393" s="19">
-        <v>1</v>
-      </c>
-      <c r="G393" s="19" t="s">
+      <c r="F393" s="22">
+        <v>1</v>
+      </c>
+      <c r="G393" s="22" t="s">
         <v>1268</v>
       </c>
-      <c r="H393" s="47"/>
-      <c r="I393" s="19" t="s">
+      <c r="I393" s="22" t="s">
         <v>1297</v>
       </c>
-      <c r="J393" s="19" t="s">
+      <c r="J393" s="22" t="s">
         <v>1298</v>
       </c>
-      <c r="L393" s="19">
+      <c r="L393" s="22">
         <v>-31</v>
       </c>
-      <c r="M393" s="19">
-        <v>0</v>
-      </c>
-      <c r="N393" s="19">
-        <v>0</v>
-      </c>
-      <c r="O393" s="19" t="s">
+      <c r="M393" s="22">
+        <v>0</v>
+      </c>
+      <c r="N393" s="22">
+        <v>0</v>
+      </c>
+      <c r="O393" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="P393" s="19">
+      <c r="P393" s="22">
         <v>19800</v>
       </c>
-      <c r="Q393" s="19" t="s">
+      <c r="Q393" s="22" t="s">
         <v>1299</v>
       </c>
-      <c r="R393" s="39" t="s">
+      <c r="R393" s="67" t="s">
         <v>1292</v>
       </c>
-      <c r="W393" s="19" t="s">
+      <c r="W393" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="X393" s="19">
+      <c r="X393" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y393" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z393" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA393" s="19">
+      <c r="Y393" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z393" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA393" s="22">
         <v>46</v>
       </c>
-      <c r="AH393" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI393" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL393" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM393" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="394" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A394" s="19">
+      <c r="AH393" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI393" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL393" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM393" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A394" s="22">
         <v>393</v>
       </c>
-      <c r="B394" s="19">
+      <c r="B394" s="22">
         <v>10310</v>
       </c>
-      <c r="F394" s="19">
-        <v>1</v>
-      </c>
-      <c r="G394" s="19" t="s">
+      <c r="F394" s="22">
+        <v>1</v>
+      </c>
+      <c r="G394" s="22" t="s">
         <v>1274</v>
       </c>
-      <c r="H394" s="47"/>
-      <c r="I394" s="19" t="s">
+      <c r="I394" s="22" t="s">
         <v>1300</v>
       </c>
-      <c r="J394" s="19" t="s">
+      <c r="J394" s="22" t="s">
         <v>1301</v>
       </c>
-      <c r="L394" s="19">
+      <c r="L394" s="22">
         <v>-31</v>
       </c>
-      <c r="M394" s="19">
-        <v>0</v>
-      </c>
-      <c r="N394" s="19">
-        <v>0</v>
-      </c>
-      <c r="O394" s="19" t="s">
+      <c r="M394" s="22">
+        <v>0</v>
+      </c>
+      <c r="N394" s="22">
+        <v>0</v>
+      </c>
+      <c r="O394" s="22" t="s">
         <v>1302</v>
       </c>
-      <c r="P394" s="19">
+      <c r="P394" s="22">
         <v>49800</v>
       </c>
-      <c r="Q394" s="19" t="s">
+      <c r="Q394" s="22" t="s">
         <v>1303</v>
       </c>
-      <c r="R394" s="39" t="s">
+      <c r="R394" s="67" t="s">
         <v>1304</v>
       </c>
-      <c r="W394" s="19" t="s">
+      <c r="W394" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="X394" s="19">
+      <c r="X394" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y394" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z394" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA394" s="19">
+      <c r="Y394" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z394" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA394" s="22">
         <v>46</v>
       </c>
-      <c r="AH394" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI394" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL394" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM394" s="19">
+      <c r="AH394" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI394" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL394" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM394" s="22">
         <v>1</v>
       </c>
     </row>
@@ -37068,7 +37082,7 @@
         <v>10311</v>
       </c>
       <c r="F395" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G395" s="5" t="s">
         <v>1313</v>
@@ -37130,7 +37144,7 @@
         <v>10312</v>
       </c>
       <c r="F396" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G396" s="5" t="s">
         <v>1319</v>
@@ -37192,7 +37206,7 @@
         <v>10313</v>
       </c>
       <c r="F397" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G397" s="5" t="s">
         <v>288</v>
@@ -37254,7 +37268,7 @@
         <v>10314</v>
       </c>
       <c r="F398" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G398" s="5" t="s">
         <v>291</v>
@@ -37316,7 +37330,7 @@
         <v>10315</v>
       </c>
       <c r="F399" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G399" s="5" t="s">
         <v>1326</v>
@@ -37378,7 +37392,7 @@
         <v>10316</v>
       </c>
       <c r="F400" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G400" s="5" t="s">
         <v>1329</v>
@@ -37440,7 +37454,7 @@
         <v>10317</v>
       </c>
       <c r="F401" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G401" s="5" t="s">
         <v>1332</v>
@@ -37505,7 +37519,7 @@
         <v>10318</v>
       </c>
       <c r="F402" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G402" s="5" t="s">
         <v>1337</v>
@@ -37570,7 +37584,7 @@
         <v>10319</v>
       </c>
       <c r="F403" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G403" s="5" t="s">
         <v>1341</v>
@@ -37635,7 +37649,7 @@
         <v>10320</v>
       </c>
       <c r="F404" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G404" s="5" t="s">
         <v>1346</v>
@@ -37700,7 +37714,7 @@
         <v>10321</v>
       </c>
       <c r="F405" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G405" s="5" t="s">
         <v>1349</v>
@@ -37765,7 +37779,7 @@
         <v>10322</v>
       </c>
       <c r="F406" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G406" s="5" t="s">
         <v>1353</v>
@@ -37830,7 +37844,7 @@
         <v>10323</v>
       </c>
       <c r="F407" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G407" s="5" t="s">
         <v>1359</v>
@@ -38277,62 +38291,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:39" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A414" s="51">
+    <row r="414" spans="1:39" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A414" s="50">
         <v>413</v>
       </c>
-      <c r="B414" s="51">
+      <c r="B414" s="50">
         <v>10330</v>
       </c>
-      <c r="D414" s="51">
-        <v>1</v>
-      </c>
-      <c r="F414" s="51">
-        <v>1</v>
-      </c>
-      <c r="G414" s="51" t="s">
+      <c r="D414" s="50">
+        <v>1</v>
+      </c>
+      <c r="F414" s="50">
+        <v>1</v>
+      </c>
+      <c r="G414" s="50" t="s">
         <v>1376</v>
       </c>
-      <c r="H414" s="51" t="s">
+      <c r="H414" s="50" t="s">
         <v>1784</v>
       </c>
-      <c r="L414" s="51">
+      <c r="L414" s="50">
         <v>-4</v>
       </c>
-      <c r="M414" s="51">
-        <v>0</v>
-      </c>
-      <c r="N414" s="51">
-        <v>0</v>
-      </c>
-      <c r="O414" s="51" t="s">
+      <c r="M414" s="50">
+        <v>0</v>
+      </c>
+      <c r="N414" s="50">
+        <v>0</v>
+      </c>
+      <c r="O414" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P414" s="51">
+      <c r="P414" s="50">
         <v>600</v>
       </c>
-      <c r="Q414" s="51" t="s">
+      <c r="Q414" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R414" s="55" t="s">
+      <c r="R414" s="54" t="s">
         <v>1783</v>
       </c>
-      <c r="W414" s="51" t="s">
+      <c r="W414" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X414" s="52" t="s">
+      <c r="X414" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y414" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z414" s="51">
+      <c r="Y414" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z414" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH414" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI414" s="51">
+      <c r="AH414" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI414" s="50">
         <v>1</v>
       </c>
     </row>
@@ -38744,827 +38758,827 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A421" s="59">
+    <row r="421" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A421" s="58">
         <v>420</v>
       </c>
-      <c r="B421" s="59">
+      <c r="B421" s="58">
         <v>10337</v>
       </c>
-      <c r="F421" s="59">
-        <v>1</v>
-      </c>
-      <c r="G421" s="59" t="s">
+      <c r="F421" s="58">
+        <v>1</v>
+      </c>
+      <c r="G421" s="58" t="s">
         <v>1416</v>
       </c>
-      <c r="J421" s="59" t="s">
+      <c r="J421" s="58" t="s">
         <v>1417</v>
       </c>
-      <c r="L421" s="59">
+      <c r="L421" s="58">
         <v>-31</v>
       </c>
-      <c r="M421" s="59">
-        <v>0</v>
-      </c>
-      <c r="N421" s="59">
-        <v>0</v>
-      </c>
-      <c r="O421" s="59" t="s">
+      <c r="M421" s="58">
+        <v>0</v>
+      </c>
+      <c r="N421" s="58">
+        <v>0</v>
+      </c>
+      <c r="O421" s="58" t="s">
         <v>1418</v>
       </c>
-      <c r="P421" s="59">
+      <c r="P421" s="58">
         <v>1000</v>
       </c>
-      <c r="Q421" s="59" t="s">
+      <c r="Q421" s="58" t="s">
         <v>1419</v>
       </c>
-      <c r="R421" s="60" t="s">
+      <c r="R421" s="59" t="s">
         <v>1420</v>
       </c>
-      <c r="W421" s="59" t="s">
+      <c r="W421" s="58" t="s">
         <v>1421</v>
       </c>
-      <c r="X421" s="59">
+      <c r="X421" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y421" s="59">
+      <c r="Y421" s="58">
         <v>1585609200</v>
       </c>
-      <c r="Z421" s="59">
+      <c r="Z421" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AB421" s="59" t="s">
+      <c r="AB421" s="58" t="s">
         <v>1422</v>
       </c>
-      <c r="AC421" s="59" t="s">
+      <c r="AC421" s="58" t="s">
         <v>1423</v>
       </c>
-      <c r="AH421" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI421" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL421" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM421" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="422" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A422" s="59">
+      <c r="AH421" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI421" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL421" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM421" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A422" s="58">
         <v>421</v>
       </c>
-      <c r="B422" s="59">
+      <c r="B422" s="58">
         <v>10338</v>
       </c>
-      <c r="F422" s="59">
-        <v>1</v>
-      </c>
-      <c r="G422" s="59" t="s">
+      <c r="F422" s="58">
+        <v>1</v>
+      </c>
+      <c r="G422" s="58" t="s">
         <v>1440</v>
       </c>
-      <c r="I422" s="59" t="s">
+      <c r="I422" s="58" t="s">
         <v>1441</v>
       </c>
-      <c r="J422" s="59" t="s">
+      <c r="J422" s="58" t="s">
         <v>1442</v>
       </c>
-      <c r="L422" s="59">
+      <c r="L422" s="58">
         <v>-31</v>
       </c>
-      <c r="M422" s="59">
-        <v>0</v>
-      </c>
-      <c r="N422" s="59">
-        <v>0</v>
-      </c>
-      <c r="O422" s="59" t="s">
+      <c r="M422" s="58">
+        <v>0</v>
+      </c>
+      <c r="N422" s="58">
+        <v>0</v>
+      </c>
+      <c r="O422" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P422" s="59">
+      <c r="P422" s="58">
         <v>2000</v>
       </c>
-      <c r="Q422" s="59" t="s">
+      <c r="Q422" s="58" t="s">
         <v>1443</v>
       </c>
-      <c r="R422" s="60" t="s">
+      <c r="R422" s="59" t="s">
         <v>1444</v>
       </c>
-      <c r="W422" s="59" t="s">
+      <c r="W422" s="58" t="s">
         <v>1445</v>
       </c>
-      <c r="X422" s="59">
+      <c r="X422" s="58">
         <v>99999999</v>
       </c>
-      <c r="Y422" s="59">
+      <c r="Y422" s="58">
         <v>1603756800</v>
       </c>
-      <c r="Z422" s="59">
+      <c r="Z422" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA422" s="59">
+      <c r="AA422" s="58">
         <v>51</v>
       </c>
-      <c r="AH422" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI422" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL422" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM422" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A423" s="59">
+      <c r="AH422" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI422" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL422" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM422" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A423" s="58">
         <v>422</v>
       </c>
-      <c r="B423" s="59">
+      <c r="B423" s="58">
         <v>10339</v>
       </c>
-      <c r="F423" s="59">
-        <v>1</v>
-      </c>
-      <c r="G423" s="59" t="s">
+      <c r="F423" s="58">
+        <v>1</v>
+      </c>
+      <c r="G423" s="58" t="s">
         <v>1425</v>
       </c>
-      <c r="I423" s="59" t="s">
+      <c r="I423" s="58" t="s">
         <v>1424</v>
       </c>
-      <c r="J423" s="59" t="s">
+      <c r="J423" s="58" t="s">
         <v>1446</v>
       </c>
-      <c r="L423" s="59">
+      <c r="L423" s="58">
         <v>-31</v>
       </c>
-      <c r="M423" s="59">
-        <v>0</v>
-      </c>
-      <c r="N423" s="59">
-        <v>0</v>
-      </c>
-      <c r="O423" s="59" t="s">
+      <c r="M423" s="58">
+        <v>0</v>
+      </c>
+      <c r="N423" s="58">
+        <v>0</v>
+      </c>
+      <c r="O423" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P423" s="59">
+      <c r="P423" s="58">
         <v>5800</v>
       </c>
-      <c r="Q423" s="59" t="s">
+      <c r="Q423" s="58" t="s">
         <v>1447</v>
       </c>
-      <c r="R423" s="60" t="s">
+      <c r="R423" s="59" t="s">
         <v>1448</v>
       </c>
-      <c r="W423" s="59" t="s">
+      <c r="W423" s="58" t="s">
         <v>984</v>
       </c>
-      <c r="X423" s="59">
+      <c r="X423" s="58">
         <v>99999999</v>
       </c>
-      <c r="Y423" s="59">
+      <c r="Y423" s="58">
         <v>1603756800</v>
       </c>
-      <c r="Z423" s="59">
+      <c r="Z423" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA423" s="59">
+      <c r="AA423" s="58">
         <v>51</v>
       </c>
-      <c r="AH423" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI423" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL423" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM423" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A424" s="59">
+      <c r="AH423" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI423" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL423" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM423" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A424" s="58">
         <v>423</v>
       </c>
-      <c r="B424" s="59">
+      <c r="B424" s="58">
         <v>10340</v>
       </c>
-      <c r="F424" s="59">
-        <v>1</v>
-      </c>
-      <c r="G424" s="59" t="s">
+      <c r="F424" s="58">
+        <v>1</v>
+      </c>
+      <c r="G424" s="58" t="s">
         <v>1449</v>
       </c>
-      <c r="I424" s="59" t="s">
+      <c r="I424" s="58" t="s">
         <v>1424</v>
       </c>
-      <c r="J424" s="59" t="s">
+      <c r="J424" s="58" t="s">
         <v>1450</v>
       </c>
-      <c r="L424" s="59">
+      <c r="L424" s="58">
         <v>-31</v>
       </c>
-      <c r="M424" s="59">
-        <v>0</v>
-      </c>
-      <c r="N424" s="59">
-        <v>0</v>
-      </c>
-      <c r="O424" s="59" t="s">
+      <c r="M424" s="58">
+        <v>0</v>
+      </c>
+      <c r="N424" s="58">
+        <v>0</v>
+      </c>
+      <c r="O424" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P424" s="59">
+      <c r="P424" s="58">
         <v>12800</v>
       </c>
-      <c r="Q424" s="59" t="s">
+      <c r="Q424" s="58" t="s">
         <v>1451</v>
       </c>
-      <c r="R424" s="60" t="s">
+      <c r="R424" s="59" t="s">
         <v>1452</v>
       </c>
-      <c r="W424" s="59" t="s">
+      <c r="W424" s="58" t="s">
         <v>984</v>
       </c>
-      <c r="X424" s="59">
+      <c r="X424" s="58">
         <v>99999999</v>
       </c>
-      <c r="Y424" s="59">
+      <c r="Y424" s="58">
         <v>1603756800</v>
       </c>
-      <c r="Z424" s="59">
+      <c r="Z424" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA424" s="59">
+      <c r="AA424" s="58">
         <v>51</v>
       </c>
-      <c r="AH424" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI424" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL424" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM424" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="425" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A425" s="59">
+      <c r="AH424" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI424" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL424" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM424" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A425" s="58">
         <v>424</v>
       </c>
-      <c r="B425" s="59">
+      <c r="B425" s="58">
         <v>10341</v>
       </c>
-      <c r="F425" s="59">
-        <v>1</v>
-      </c>
-      <c r="G425" s="59" t="s">
+      <c r="F425" s="58">
+        <v>1</v>
+      </c>
+      <c r="G425" s="58" t="s">
         <v>1426</v>
       </c>
-      <c r="J425" s="59" t="s">
+      <c r="J425" s="58" t="s">
         <v>1427</v>
       </c>
-      <c r="L425" s="59">
+      <c r="L425" s="58">
         <v>-31</v>
       </c>
-      <c r="M425" s="59">
-        <v>0</v>
-      </c>
-      <c r="N425" s="59">
-        <v>0</v>
-      </c>
-      <c r="O425" s="59" t="s">
+      <c r="M425" s="58">
+        <v>0</v>
+      </c>
+      <c r="N425" s="58">
+        <v>0</v>
+      </c>
+      <c r="O425" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P425" s="59">
+      <c r="P425" s="58">
         <v>49800</v>
       </c>
-      <c r="Q425" s="59" t="s">
+      <c r="Q425" s="58" t="s">
         <v>1428</v>
       </c>
-      <c r="R425" s="60" t="s">
+      <c r="R425" s="59" t="s">
         <v>1429</v>
       </c>
-      <c r="W425" s="59" t="s">
+      <c r="W425" s="58" t="s">
         <v>568</v>
       </c>
-      <c r="X425" s="59">
+      <c r="X425" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y425" s="59">
+      <c r="Y425" s="58">
         <v>1585609200</v>
       </c>
-      <c r="Z425" s="59">
+      <c r="Z425" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH425" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI425" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="426" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A426" s="59">
+      <c r="AH425" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI425" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A426" s="58">
         <v>425</v>
       </c>
-      <c r="B426" s="59">
+      <c r="B426" s="58">
         <v>10342</v>
       </c>
-      <c r="F426" s="59">
-        <v>1</v>
-      </c>
-      <c r="G426" s="59" t="s">
+      <c r="F426" s="58">
+        <v>1</v>
+      </c>
+      <c r="G426" s="58" t="s">
         <v>1430</v>
       </c>
-      <c r="J426" s="59" t="s">
+      <c r="J426" s="58" t="s">
         <v>1431</v>
       </c>
-      <c r="L426" s="59">
+      <c r="L426" s="58">
         <v>-31</v>
       </c>
-      <c r="M426" s="59">
-        <v>0</v>
-      </c>
-      <c r="N426" s="59">
-        <v>0</v>
-      </c>
-      <c r="O426" s="59" t="s">
+      <c r="M426" s="58">
+        <v>0</v>
+      </c>
+      <c r="N426" s="58">
+        <v>0</v>
+      </c>
+      <c r="O426" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P426" s="59">
+      <c r="P426" s="58">
         <v>19800</v>
       </c>
-      <c r="Q426" s="59" t="s">
+      <c r="Q426" s="58" t="s">
         <v>1432</v>
       </c>
-      <c r="R426" s="60" t="s">
+      <c r="R426" s="59" t="s">
         <v>1429</v>
       </c>
-      <c r="W426" s="59" t="s">
+      <c r="W426" s="58" t="s">
         <v>1421</v>
       </c>
-      <c r="X426" s="59">
+      <c r="X426" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y426" s="59">
+      <c r="Y426" s="58">
         <v>1585609200</v>
       </c>
-      <c r="Z426" s="59">
+      <c r="Z426" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH426" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI426" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="427" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A427" s="59">
+      <c r="AH426" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI426" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A427" s="58">
         <v>426</v>
       </c>
-      <c r="B427" s="59">
+      <c r="B427" s="58">
         <v>10343</v>
       </c>
-      <c r="F427" s="59">
-        <v>1</v>
-      </c>
-      <c r="G427" s="59" t="s">
+      <c r="F427" s="58">
+        <v>1</v>
+      </c>
+      <c r="G427" s="58" t="s">
         <v>1433</v>
       </c>
-      <c r="J427" s="59" t="s">
+      <c r="J427" s="58" t="s">
         <v>1405</v>
       </c>
-      <c r="L427" s="59">
+      <c r="L427" s="58">
         <v>-31</v>
       </c>
-      <c r="M427" s="59">
-        <v>0</v>
-      </c>
-      <c r="N427" s="59">
-        <v>0</v>
-      </c>
-      <c r="O427" s="59" t="s">
+      <c r="M427" s="58">
+        <v>0</v>
+      </c>
+      <c r="N427" s="58">
+        <v>0</v>
+      </c>
+      <c r="O427" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P427" s="59">
+      <c r="P427" s="58">
         <v>9800</v>
       </c>
-      <c r="Q427" s="59" t="s">
+      <c r="Q427" s="58" t="s">
         <v>1434</v>
       </c>
-      <c r="R427" s="60" t="s">
+      <c r="R427" s="59" t="s">
         <v>1429</v>
       </c>
-      <c r="W427" s="59" t="s">
+      <c r="W427" s="58" t="s">
         <v>1421</v>
       </c>
-      <c r="X427" s="59">
+      <c r="X427" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y427" s="59">
+      <c r="Y427" s="58">
         <v>1585609200</v>
       </c>
-      <c r="Z427" s="59">
+      <c r="Z427" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH427" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI427" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A428" s="59">
+      <c r="AH427" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI427" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A428" s="58">
         <v>427</v>
       </c>
-      <c r="B428" s="59">
+      <c r="B428" s="58">
         <v>10344</v>
       </c>
-      <c r="F428" s="59">
-        <v>1</v>
-      </c>
-      <c r="G428" s="59" t="s">
+      <c r="F428" s="58">
+        <v>1</v>
+      </c>
+      <c r="G428" s="58" t="s">
         <v>1435</v>
       </c>
-      <c r="J428" s="59" t="s">
+      <c r="J428" s="58" t="s">
         <v>1436</v>
       </c>
-      <c r="L428" s="59">
+      <c r="L428" s="58">
         <v>-31</v>
       </c>
-      <c r="M428" s="59">
-        <v>0</v>
-      </c>
-      <c r="N428" s="59">
-        <v>0</v>
-      </c>
-      <c r="O428" s="59" t="s">
+      <c r="M428" s="58">
+        <v>0</v>
+      </c>
+      <c r="N428" s="58">
+        <v>0</v>
+      </c>
+      <c r="O428" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P428" s="59">
+      <c r="P428" s="58">
         <v>9800</v>
       </c>
-      <c r="Q428" s="59" t="s">
+      <c r="Q428" s="58" t="s">
         <v>1437</v>
       </c>
-      <c r="R428" s="60" t="s">
+      <c r="R428" s="59" t="s">
         <v>1429</v>
       </c>
-      <c r="W428" s="59" t="s">
+      <c r="W428" s="58" t="s">
         <v>1421</v>
       </c>
-      <c r="X428" s="59">
+      <c r="X428" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y428" s="59">
+      <c r="Y428" s="58">
         <v>1585609200</v>
       </c>
-      <c r="Z428" s="59">
+      <c r="Z428" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH428" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI428" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="429" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A429" s="59">
+      <c r="AH428" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI428" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A429" s="58">
         <v>428</v>
       </c>
-      <c r="B429" s="59">
+      <c r="B429" s="58">
         <v>10345</v>
       </c>
-      <c r="F429" s="59">
-        <v>1</v>
-      </c>
-      <c r="G429" s="59" t="s">
+      <c r="F429" s="58">
+        <v>1</v>
+      </c>
+      <c r="G429" s="58" t="s">
         <v>1406</v>
       </c>
-      <c r="J429" s="59" t="s">
+      <c r="J429" s="58" t="s">
         <v>1438</v>
       </c>
-      <c r="L429" s="59">
+      <c r="L429" s="58">
         <v>-31</v>
       </c>
-      <c r="M429" s="59">
-        <v>0</v>
-      </c>
-      <c r="N429" s="59">
-        <v>0</v>
-      </c>
-      <c r="O429" s="59" t="s">
+      <c r="M429" s="58">
+        <v>0</v>
+      </c>
+      <c r="N429" s="58">
+        <v>0</v>
+      </c>
+      <c r="O429" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P429" s="59">
+      <c r="P429" s="58">
         <v>4800</v>
       </c>
-      <c r="Q429" s="59" t="s">
+      <c r="Q429" s="58" t="s">
         <v>1439</v>
       </c>
-      <c r="R429" s="60" t="s">
+      <c r="R429" s="59" t="s">
         <v>1429</v>
       </c>
-      <c r="W429" s="59" t="s">
+      <c r="W429" s="58" t="s">
         <v>1421</v>
       </c>
-      <c r="X429" s="59">
+      <c r="X429" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y429" s="59">
+      <c r="Y429" s="58">
         <v>1585609200</v>
       </c>
-      <c r="Z429" s="59">
+      <c r="Z429" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH429" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI429" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="430" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A430" s="59">
+      <c r="AH429" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI429" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A430" s="58">
         <v>429</v>
       </c>
-      <c r="B430" s="59">
+      <c r="B430" s="58">
         <v>10346</v>
       </c>
-      <c r="F430" s="59">
-        <v>1</v>
-      </c>
-      <c r="G430" s="59" t="s">
+      <c r="F430" s="58">
+        <v>1</v>
+      </c>
+      <c r="G430" s="58" t="s">
         <v>1702</v>
       </c>
-      <c r="I430" s="59" t="s">
+      <c r="I430" s="58" t="s">
         <v>1703</v>
       </c>
-      <c r="J430" s="59" t="s">
+      <c r="J430" s="58" t="s">
         <v>1704</v>
       </c>
-      <c r="L430" s="59">
+      <c r="L430" s="58">
         <v>-28</v>
       </c>
-      <c r="M430" s="59">
-        <v>0</v>
-      </c>
-      <c r="N430" s="59">
-        <v>0</v>
-      </c>
-      <c r="O430" s="59" t="s">
+      <c r="M430" s="58">
+        <v>0</v>
+      </c>
+      <c r="N430" s="58">
+        <v>0</v>
+      </c>
+      <c r="O430" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P430" s="59">
+      <c r="P430" s="58">
         <v>100</v>
       </c>
-      <c r="Q430" s="59" t="s">
+      <c r="Q430" s="58" t="s">
         <v>1400</v>
       </c>
-      <c r="R430" s="60" t="s">
+      <c r="R430" s="59" t="s">
         <v>1705</v>
       </c>
-      <c r="W430" s="59" t="s">
+      <c r="W430" s="58" t="s">
         <v>1706</v>
       </c>
-      <c r="X430" s="59">
+      <c r="X430" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y430" s="59">
+      <c r="Y430" s="58">
         <v>1581377400</v>
       </c>
-      <c r="Z430" s="59">
+      <c r="Z430" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA430" s="59">
+      <c r="AA430" s="58">
         <v>14</v>
       </c>
-      <c r="AH430" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI430" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL430" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM430" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="431" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A431" s="59">
+      <c r="AH430" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI430" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL430" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM430" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A431" s="58">
         <v>430</v>
       </c>
-      <c r="B431" s="59">
+      <c r="B431" s="58">
         <v>10347</v>
       </c>
-      <c r="F431" s="59">
-        <v>1</v>
-      </c>
-      <c r="G431" s="59" t="s">
+      <c r="F431" s="58">
+        <v>1</v>
+      </c>
+      <c r="G431" s="58" t="s">
         <v>1702</v>
       </c>
-      <c r="I431" s="59" t="s">
+      <c r="I431" s="58" t="s">
         <v>1707</v>
       </c>
-      <c r="J431" s="59" t="s">
+      <c r="J431" s="58" t="s">
         <v>1708</v>
       </c>
-      <c r="L431" s="59">
+      <c r="L431" s="58">
         <v>-28</v>
       </c>
-      <c r="M431" s="59">
-        <v>0</v>
-      </c>
-      <c r="N431" s="59">
-        <v>0</v>
-      </c>
-      <c r="O431" s="59" t="s">
+      <c r="M431" s="58">
+        <v>0</v>
+      </c>
+      <c r="N431" s="58">
+        <v>0</v>
+      </c>
+      <c r="O431" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P431" s="59">
+      <c r="P431" s="58">
         <v>300</v>
       </c>
-      <c r="Q431" s="59" t="s">
+      <c r="Q431" s="58" t="s">
         <v>1400</v>
       </c>
-      <c r="R431" s="60" t="s">
+      <c r="R431" s="59" t="s">
         <v>1709</v>
       </c>
-      <c r="W431" s="59" t="s">
+      <c r="W431" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X431" s="59">
+      <c r="X431" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y431" s="59">
+      <c r="Y431" s="58">
         <v>1581377400</v>
       </c>
-      <c r="Z431" s="59">
+      <c r="Z431" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA431" s="59">
+      <c r="AA431" s="58">
         <v>14</v>
       </c>
-      <c r="AH431" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI431" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL431" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM431" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="432" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A432" s="59">
+      <c r="AH431" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI431" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL431" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM431" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A432" s="58">
         <v>431</v>
       </c>
-      <c r="B432" s="59">
+      <c r="B432" s="58">
         <v>10348</v>
       </c>
-      <c r="F432" s="59">
-        <v>1</v>
-      </c>
-      <c r="G432" s="59" t="s">
+      <c r="F432" s="58">
+        <v>1</v>
+      </c>
+      <c r="G432" s="58" t="s">
         <v>1702</v>
       </c>
-      <c r="I432" s="59" t="s">
+      <c r="I432" s="58" t="s">
         <v>1710</v>
       </c>
-      <c r="J432" s="59" t="s">
+      <c r="J432" s="58" t="s">
         <v>1711</v>
       </c>
-      <c r="L432" s="59">
+      <c r="L432" s="58">
         <v>-28</v>
       </c>
-      <c r="M432" s="59">
-        <v>0</v>
-      </c>
-      <c r="N432" s="59">
-        <v>0</v>
-      </c>
-      <c r="O432" s="59" t="s">
+      <c r="M432" s="58">
+        <v>0</v>
+      </c>
+      <c r="N432" s="58">
+        <v>0</v>
+      </c>
+      <c r="O432" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P432" s="59">
+      <c r="P432" s="58">
         <v>600</v>
       </c>
-      <c r="Q432" s="59" t="s">
+      <c r="Q432" s="58" t="s">
         <v>1400</v>
       </c>
-      <c r="R432" s="60" t="s">
+      <c r="R432" s="59" t="s">
         <v>1712</v>
       </c>
-      <c r="W432" s="59" t="s">
+      <c r="W432" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X432" s="59">
+      <c r="X432" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y432" s="59">
+      <c r="Y432" s="58">
         <v>1581377400</v>
       </c>
-      <c r="Z432" s="59">
+      <c r="Z432" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA432" s="59">
+      <c r="AA432" s="58">
         <v>14</v>
       </c>
-      <c r="AH432" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI432" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL432" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM432" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="433" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A433" s="59">
+      <c r="AH432" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI432" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL432" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM432" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A433" s="58">
         <v>432</v>
       </c>
-      <c r="B433" s="59">
+      <c r="B433" s="58">
         <v>10349</v>
       </c>
-      <c r="F433" s="59">
-        <v>1</v>
-      </c>
-      <c r="G433" s="59" t="s">
+      <c r="F433" s="58">
+        <v>1</v>
+      </c>
+      <c r="G433" s="58" t="s">
         <v>1702</v>
       </c>
-      <c r="I433" s="59" t="s">
+      <c r="I433" s="58" t="s">
         <v>1713</v>
       </c>
-      <c r="J433" s="59" t="s">
+      <c r="J433" s="58" t="s">
         <v>1714</v>
       </c>
-      <c r="L433" s="59">
+      <c r="L433" s="58">
         <v>-28</v>
       </c>
-      <c r="M433" s="59">
-        <v>0</v>
-      </c>
-      <c r="N433" s="59">
-        <v>0</v>
-      </c>
-      <c r="O433" s="59" t="s">
+      <c r="M433" s="58">
+        <v>0</v>
+      </c>
+      <c r="N433" s="58">
+        <v>0</v>
+      </c>
+      <c r="O433" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P433" s="59">
+      <c r="P433" s="58">
         <v>600</v>
       </c>
-      <c r="Q433" s="59" t="s">
+      <c r="Q433" s="58" t="s">
         <v>1715</v>
       </c>
-      <c r="R433" s="60" t="s">
+      <c r="R433" s="59" t="s">
         <v>1716</v>
       </c>
-      <c r="W433" s="59" t="s">
+      <c r="W433" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X433" s="59">
+      <c r="X433" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y433" s="59">
+      <c r="Y433" s="58">
         <v>1581377400</v>
       </c>
-      <c r="Z433" s="59">
+      <c r="Z433" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA433" s="59">
+      <c r="AA433" s="58">
         <v>14</v>
       </c>
-      <c r="AH433" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI433" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL433" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM433" s="59">
+      <c r="AH433" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI433" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL433" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM433" s="58">
         <v>1</v>
       </c>
     </row>
@@ -40395,1930 +40409,1930 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A447" s="59">
+    <row r="447" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A447" s="58">
         <v>446</v>
       </c>
-      <c r="B447" s="59">
+      <c r="B447" s="58">
         <v>10363</v>
       </c>
-      <c r="F447" s="59">
-        <v>1</v>
-      </c>
-      <c r="G447" s="59" t="s">
+      <c r="F447" s="58">
+        <v>1</v>
+      </c>
+      <c r="G447" s="58" t="s">
         <v>1498</v>
       </c>
-      <c r="I447" s="59" t="s">
+      <c r="I447" s="58" t="s">
         <v>1499</v>
       </c>
-      <c r="J447" s="59" t="s">
+      <c r="J447" s="58" t="s">
         <v>1500</v>
       </c>
-      <c r="L447" s="59">
+      <c r="L447" s="58">
         <v>-31</v>
       </c>
-      <c r="M447" s="59">
-        <v>0</v>
-      </c>
-      <c r="N447" s="59">
-        <v>0</v>
-      </c>
-      <c r="O447" s="59" t="s">
+      <c r="M447" s="58">
+        <v>0</v>
+      </c>
+      <c r="N447" s="58">
+        <v>0</v>
+      </c>
+      <c r="O447" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P447" s="59">
+      <c r="P447" s="58">
         <v>800</v>
       </c>
-      <c r="Q447" s="59" t="s">
+      <c r="Q447" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R447" s="60" t="s">
+      <c r="R447" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="W447" s="59" t="s">
+      <c r="W447" s="58" t="s">
         <v>1155</v>
       </c>
-      <c r="X447" s="59">
+      <c r="X447" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y447" s="59">
+      <c r="Y447" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z447" s="59">
+      <c r="Z447" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA447" s="59">
+      <c r="AA447" s="58">
         <v>52</v>
       </c>
-      <c r="AH447" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI447" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL447" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM447" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="448" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A448" s="59">
+      <c r="AH447" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI447" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL447" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM447" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A448" s="58">
         <v>447</v>
       </c>
-      <c r="B448" s="59">
+      <c r="B448" s="58">
         <v>10364</v>
       </c>
-      <c r="F448" s="59">
-        <v>1</v>
-      </c>
-      <c r="G448" s="59" t="s">
+      <c r="F448" s="58">
+        <v>1</v>
+      </c>
+      <c r="G448" s="58" t="s">
         <v>1503</v>
       </c>
-      <c r="I448" s="59" t="s">
+      <c r="I448" s="58" t="s">
         <v>1504</v>
       </c>
-      <c r="J448" s="59" t="s">
+      <c r="J448" s="58" t="s">
         <v>1505</v>
       </c>
-      <c r="L448" s="59">
+      <c r="L448" s="58">
         <v>-31</v>
       </c>
-      <c r="M448" s="59">
-        <v>0</v>
-      </c>
-      <c r="N448" s="59">
-        <v>0</v>
-      </c>
-      <c r="O448" s="59" t="s">
+      <c r="M448" s="58">
+        <v>0</v>
+      </c>
+      <c r="N448" s="58">
+        <v>0</v>
+      </c>
+      <c r="O448" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P448" s="59">
+      <c r="P448" s="58">
         <v>800</v>
       </c>
-      <c r="Q448" s="59" t="s">
+      <c r="Q448" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R448" s="60" t="s">
+      <c r="R448" s="59" t="s">
         <v>1506</v>
       </c>
-      <c r="W448" s="59" t="s">
+      <c r="W448" s="58" t="s">
         <v>1507</v>
       </c>
-      <c r="X448" s="59">
+      <c r="X448" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y448" s="59">
+      <c r="Y448" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z448" s="59">
+      <c r="Z448" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH448" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI448" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL448" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM448" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="449" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A449" s="59">
+      <c r="AH448" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI448" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL448" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM448" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A449" s="58">
         <v>448</v>
       </c>
-      <c r="B449" s="59">
+      <c r="B449" s="58">
         <v>10365</v>
       </c>
-      <c r="F449" s="59">
-        <v>1</v>
-      </c>
-      <c r="G449" s="59" t="s">
+      <c r="F449" s="58">
+        <v>1</v>
+      </c>
+      <c r="G449" s="58" t="s">
         <v>1508</v>
       </c>
-      <c r="I449" s="59" t="s">
+      <c r="I449" s="58" t="s">
         <v>1509</v>
       </c>
-      <c r="J449" s="59" t="s">
+      <c r="J449" s="58" t="s">
         <v>1510</v>
       </c>
-      <c r="L449" s="59">
+      <c r="L449" s="58">
         <v>-31</v>
       </c>
-      <c r="M449" s="59">
-        <v>0</v>
-      </c>
-      <c r="N449" s="59">
-        <v>0</v>
-      </c>
-      <c r="O449" s="59" t="s">
+      <c r="M449" s="58">
+        <v>0</v>
+      </c>
+      <c r="N449" s="58">
+        <v>0</v>
+      </c>
+      <c r="O449" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P449" s="59">
+      <c r="P449" s="58">
         <v>800</v>
       </c>
-      <c r="Q449" s="59" t="s">
+      <c r="Q449" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R449" s="60" t="s">
+      <c r="R449" s="59" t="s">
         <v>1511</v>
       </c>
-      <c r="W449" s="59" t="s">
+      <c r="W449" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X449" s="59">
+      <c r="X449" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y449" s="59">
+      <c r="Y449" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z449" s="59">
+      <c r="Z449" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA449" s="59">
+      <c r="AA449" s="58">
         <v>53</v>
       </c>
-      <c r="AH449" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI449" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL449" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM449" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="450" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A450" s="59">
+      <c r="AH449" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI449" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL449" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM449" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A450" s="58">
         <v>449</v>
       </c>
-      <c r="B450" s="59">
+      <c r="B450" s="58">
         <v>10366</v>
       </c>
-      <c r="F450" s="59">
-        <v>1</v>
-      </c>
-      <c r="G450" s="59" t="s">
+      <c r="F450" s="58">
+        <v>1</v>
+      </c>
+      <c r="G450" s="58" t="s">
         <v>1512</v>
       </c>
-      <c r="I450" s="59" t="s">
+      <c r="I450" s="58" t="s">
         <v>1513</v>
       </c>
-      <c r="J450" s="59" t="s">
+      <c r="J450" s="58" t="s">
         <v>1514</v>
       </c>
-      <c r="L450" s="59">
+      <c r="L450" s="58">
         <v>-31</v>
       </c>
-      <c r="M450" s="59">
-        <v>0</v>
-      </c>
-      <c r="N450" s="59">
-        <v>0</v>
-      </c>
-      <c r="O450" s="59" t="s">
+      <c r="M450" s="58">
+        <v>0</v>
+      </c>
+      <c r="N450" s="58">
+        <v>0</v>
+      </c>
+      <c r="O450" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P450" s="59">
+      <c r="P450" s="58">
         <v>3800</v>
       </c>
-      <c r="Q450" s="59" t="s">
+      <c r="Q450" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R450" s="60" t="s">
+      <c r="R450" s="59" t="s">
         <v>1515</v>
       </c>
-      <c r="W450" s="59" t="s">
+      <c r="W450" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X450" s="59">
+      <c r="X450" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y450" s="59">
+      <c r="Y450" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z450" s="59">
+      <c r="Z450" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA450" s="59">
+      <c r="AA450" s="58">
         <v>54</v>
       </c>
-      <c r="AH450" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI450" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL450" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM450" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="451" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A451" s="59">
+      <c r="AH450" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI450" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL450" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM450" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A451" s="58">
         <v>450</v>
       </c>
-      <c r="B451" s="59">
+      <c r="B451" s="58">
         <v>10367</v>
       </c>
-      <c r="F451" s="59">
-        <v>1</v>
-      </c>
-      <c r="G451" s="59" t="s">
+      <c r="F451" s="58">
+        <v>1</v>
+      </c>
+      <c r="G451" s="58" t="s">
         <v>1516</v>
       </c>
-      <c r="I451" s="59" t="s">
+      <c r="I451" s="58" t="s">
         <v>1517</v>
       </c>
-      <c r="J451" s="59" t="s">
+      <c r="J451" s="58" t="s">
         <v>1518</v>
       </c>
-      <c r="L451" s="59">
+      <c r="L451" s="58">
         <v>-31</v>
       </c>
-      <c r="M451" s="59">
-        <v>0</v>
-      </c>
-      <c r="N451" s="59">
-        <v>0</v>
-      </c>
-      <c r="O451" s="59" t="s">
+      <c r="M451" s="58">
+        <v>0</v>
+      </c>
+      <c r="N451" s="58">
+        <v>0</v>
+      </c>
+      <c r="O451" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P451" s="59">
+      <c r="P451" s="58">
         <v>3800</v>
       </c>
-      <c r="Q451" s="59" t="s">
+      <c r="Q451" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R451" s="60" t="s">
+      <c r="R451" s="59" t="s">
         <v>1519</v>
       </c>
-      <c r="W451" s="59" t="s">
+      <c r="W451" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X451" s="59">
+      <c r="X451" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y451" s="59">
+      <c r="Y451" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z451" s="59">
+      <c r="Z451" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH451" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI451" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL451" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM451" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="452" spans="1:39" s="59" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A452" s="59">
+      <c r="AH451" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI451" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL451" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM451" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:39" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A452" s="58">
         <v>451</v>
       </c>
-      <c r="B452" s="59">
+      <c r="B452" s="58">
         <v>10368</v>
       </c>
-      <c r="F452" s="59">
-        <v>1</v>
-      </c>
-      <c r="G452" s="59" t="s">
+      <c r="F452" s="58">
+        <v>1</v>
+      </c>
+      <c r="G452" s="58" t="s">
         <v>1520</v>
       </c>
-      <c r="I452" s="59" t="s">
+      <c r="I452" s="58" t="s">
         <v>1521</v>
       </c>
-      <c r="J452" s="59" t="s">
+      <c r="J452" s="58" t="s">
         <v>1522</v>
       </c>
-      <c r="L452" s="59">
+      <c r="L452" s="58">
         <v>-31</v>
       </c>
-      <c r="M452" s="59">
-        <v>0</v>
-      </c>
-      <c r="N452" s="59">
-        <v>0</v>
-      </c>
-      <c r="O452" s="59" t="s">
+      <c r="M452" s="58">
+        <v>0</v>
+      </c>
+      <c r="N452" s="58">
+        <v>0</v>
+      </c>
+      <c r="O452" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P452" s="59">
+      <c r="P452" s="58">
         <v>3800</v>
       </c>
-      <c r="Q452" s="59" t="s">
+      <c r="Q452" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R452" s="60" t="s">
+      <c r="R452" s="59" t="s">
         <v>1523</v>
       </c>
-      <c r="W452" s="59" t="s">
+      <c r="W452" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X452" s="59">
+      <c r="X452" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y452" s="59">
+      <c r="Y452" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z452" s="59">
+      <c r="Z452" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA452" s="59">
+      <c r="AA452" s="58">
         <v>55</v>
       </c>
-      <c r="AH452" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI452" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL452" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM452" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="453" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A453" s="59">
+      <c r="AH452" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI452" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL452" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM452" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A453" s="58">
         <v>452</v>
       </c>
-      <c r="B453" s="59">
+      <c r="B453" s="58">
         <v>10369</v>
       </c>
-      <c r="F453" s="59">
-        <v>1</v>
-      </c>
-      <c r="G453" s="59" t="s">
+      <c r="F453" s="58">
+        <v>1</v>
+      </c>
+      <c r="G453" s="58" t="s">
         <v>1524</v>
       </c>
-      <c r="I453" s="59" t="s">
+      <c r="I453" s="58" t="s">
         <v>1525</v>
       </c>
-      <c r="J453" s="59" t="s">
+      <c r="J453" s="58" t="s">
         <v>1526</v>
       </c>
-      <c r="L453" s="59">
+      <c r="L453" s="58">
         <v>-31</v>
       </c>
-      <c r="M453" s="59">
-        <v>0</v>
-      </c>
-      <c r="N453" s="59">
-        <v>0</v>
-      </c>
-      <c r="O453" s="59" t="s">
+      <c r="M453" s="58">
+        <v>0</v>
+      </c>
+      <c r="N453" s="58">
+        <v>0</v>
+      </c>
+      <c r="O453" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P453" s="59">
+      <c r="P453" s="58">
         <v>9800</v>
       </c>
-      <c r="Q453" s="59" t="s">
+      <c r="Q453" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R453" s="60" t="s">
+      <c r="R453" s="59" t="s">
         <v>1527</v>
       </c>
-      <c r="W453" s="59" t="s">
+      <c r="W453" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X453" s="59">
+      <c r="X453" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y453" s="59">
+      <c r="Y453" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z453" s="59">
+      <c r="Z453" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA453" s="59">
+      <c r="AA453" s="58">
         <v>56</v>
       </c>
-      <c r="AH453" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI453" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL453" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM453" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="454" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A454" s="59">
+      <c r="AH453" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI453" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL453" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM453" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A454" s="58">
         <v>453</v>
       </c>
-      <c r="B454" s="59">
+      <c r="B454" s="58">
         <v>10370</v>
       </c>
-      <c r="F454" s="59">
-        <v>1</v>
-      </c>
-      <c r="G454" s="59" t="s">
+      <c r="F454" s="58">
+        <v>1</v>
+      </c>
+      <c r="G454" s="58" t="s">
         <v>1528</v>
       </c>
-      <c r="I454" s="59" t="s">
+      <c r="I454" s="58" t="s">
         <v>1529</v>
       </c>
-      <c r="J454" s="59" t="s">
+      <c r="J454" s="58" t="s">
         <v>1530</v>
       </c>
-      <c r="L454" s="59">
+      <c r="L454" s="58">
         <v>-31</v>
       </c>
-      <c r="M454" s="59">
-        <v>0</v>
-      </c>
-      <c r="N454" s="59">
-        <v>0</v>
-      </c>
-      <c r="O454" s="59" t="s">
+      <c r="M454" s="58">
+        <v>0</v>
+      </c>
+      <c r="N454" s="58">
+        <v>0</v>
+      </c>
+      <c r="O454" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P454" s="59">
+      <c r="P454" s="58">
         <v>9800</v>
       </c>
-      <c r="Q454" s="59" t="s">
+      <c r="Q454" s="58" t="s">
         <v>991</v>
       </c>
-      <c r="R454" s="60" t="s">
+      <c r="R454" s="59" t="s">
         <v>1531</v>
       </c>
-      <c r="W454" s="59" t="s">
+      <c r="W454" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X454" s="59">
+      <c r="X454" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y454" s="59">
+      <c r="Y454" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z454" s="59">
+      <c r="Z454" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH454" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI454" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL454" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM454" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="455" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A455" s="59">
+      <c r="AH454" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI454" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL454" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM454" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A455" s="58">
         <v>454</v>
       </c>
-      <c r="B455" s="59">
+      <c r="B455" s="58">
         <v>10371</v>
       </c>
-      <c r="F455" s="59">
-        <v>1</v>
-      </c>
-      <c r="G455" s="59" t="s">
+      <c r="F455" s="58">
+        <v>1</v>
+      </c>
+      <c r="G455" s="58" t="s">
         <v>1532</v>
       </c>
-      <c r="I455" s="59" t="s">
+      <c r="I455" s="58" t="s">
         <v>1533</v>
       </c>
-      <c r="J455" s="59" t="s">
+      <c r="J455" s="58" t="s">
         <v>1534</v>
       </c>
-      <c r="L455" s="59">
+      <c r="L455" s="58">
         <v>-31</v>
       </c>
-      <c r="M455" s="59">
-        <v>0</v>
-      </c>
-      <c r="N455" s="59">
-        <v>0</v>
-      </c>
-      <c r="O455" s="59" t="s">
+      <c r="M455" s="58">
+        <v>0</v>
+      </c>
+      <c r="N455" s="58">
+        <v>0</v>
+      </c>
+      <c r="O455" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P455" s="59">
+      <c r="P455" s="58">
         <v>9800</v>
       </c>
-      <c r="Q455" s="59" t="s">
+      <c r="Q455" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R455" s="60" t="s">
+      <c r="R455" s="59" t="s">
         <v>1667</v>
       </c>
-      <c r="W455" s="59" t="s">
+      <c r="W455" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X455" s="59">
+      <c r="X455" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y455" s="59">
+      <c r="Y455" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z455" s="59">
+      <c r="Z455" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA455" s="59">
+      <c r="AA455" s="58">
         <v>57</v>
       </c>
-      <c r="AH455" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI455" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL455" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM455" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="456" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A456" s="59">
+      <c r="AH455" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI455" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL455" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM455" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A456" s="58">
         <v>455</v>
       </c>
-      <c r="B456" s="59">
+      <c r="B456" s="58">
         <v>10372</v>
       </c>
-      <c r="F456" s="59">
-        <v>1</v>
-      </c>
-      <c r="G456" s="59" t="s">
+      <c r="F456" s="58">
+        <v>1</v>
+      </c>
+      <c r="G456" s="58" t="s">
         <v>1535</v>
       </c>
-      <c r="I456" s="59" t="s">
+      <c r="I456" s="58" t="s">
         <v>1536</v>
       </c>
-      <c r="J456" s="59" t="s">
+      <c r="J456" s="58" t="s">
         <v>1537</v>
       </c>
-      <c r="L456" s="59">
+      <c r="L456" s="58">
         <v>-31</v>
       </c>
-      <c r="M456" s="59">
-        <v>0</v>
-      </c>
-      <c r="N456" s="59">
-        <v>0</v>
-      </c>
-      <c r="O456" s="59" t="s">
+      <c r="M456" s="58">
+        <v>0</v>
+      </c>
+      <c r="N456" s="58">
+        <v>0</v>
+      </c>
+      <c r="O456" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P456" s="59">
+      <c r="P456" s="58">
         <v>19800</v>
       </c>
-      <c r="Q456" s="59" t="s">
+      <c r="Q456" s="58" t="s">
         <v>991</v>
       </c>
-      <c r="R456" s="60" t="s">
+      <c r="R456" s="59" t="s">
         <v>1538</v>
       </c>
-      <c r="W456" s="59" t="s">
+      <c r="W456" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X456" s="59">
+      <c r="X456" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y456" s="59">
+      <c r="Y456" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z456" s="59">
+      <c r="Z456" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA456" s="59">
+      <c r="AA456" s="58">
         <v>58</v>
       </c>
-      <c r="AH456" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI456" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL456" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM456" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="457" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A457" s="59">
+      <c r="AH456" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI456" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL456" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM456" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="58">
         <v>456</v>
       </c>
-      <c r="B457" s="59">
+      <c r="B457" s="58">
         <v>10373</v>
       </c>
-      <c r="F457" s="59">
-        <v>1</v>
-      </c>
-      <c r="G457" s="59" t="s">
+      <c r="F457" s="58">
+        <v>1</v>
+      </c>
+      <c r="G457" s="58" t="s">
         <v>1539</v>
       </c>
-      <c r="I457" s="59" t="s">
+      <c r="I457" s="58" t="s">
         <v>1540</v>
       </c>
-      <c r="J457" s="59" t="s">
+      <c r="J457" s="58" t="s">
         <v>1541</v>
       </c>
-      <c r="L457" s="59">
+      <c r="L457" s="58">
         <v>-31</v>
       </c>
-      <c r="M457" s="59">
-        <v>0</v>
-      </c>
-      <c r="N457" s="59">
-        <v>0</v>
-      </c>
-      <c r="O457" s="59" t="s">
+      <c r="M457" s="58">
+        <v>0</v>
+      </c>
+      <c r="N457" s="58">
+        <v>0</v>
+      </c>
+      <c r="O457" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P457" s="59">
+      <c r="P457" s="58">
         <v>19800</v>
       </c>
-      <c r="Q457" s="59" t="s">
+      <c r="Q457" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R457" s="60" t="s">
+      <c r="R457" s="59" t="s">
         <v>1542</v>
       </c>
-      <c r="W457" s="59" t="s">
+      <c r="W457" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X457" s="59">
+      <c r="X457" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y457" s="59">
+      <c r="Y457" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z457" s="59">
+      <c r="Z457" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH457" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI457" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL457" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM457" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="458" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A458" s="59">
+      <c r="AH457" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI457" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL457" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM457" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A458" s="58">
         <v>457</v>
       </c>
-      <c r="B458" s="59">
+      <c r="B458" s="58">
         <v>10374</v>
       </c>
-      <c r="F458" s="59">
-        <v>1</v>
-      </c>
-      <c r="G458" s="59" t="s">
+      <c r="F458" s="58">
+        <v>1</v>
+      </c>
+      <c r="G458" s="58" t="s">
         <v>1543</v>
       </c>
-      <c r="I458" s="59" t="s">
+      <c r="I458" s="58" t="s">
         <v>1544</v>
       </c>
-      <c r="J458" s="59" t="s">
+      <c r="J458" s="58" t="s">
         <v>1545</v>
       </c>
-      <c r="L458" s="59">
+      <c r="L458" s="58">
         <v>-31</v>
       </c>
-      <c r="M458" s="59">
-        <v>0</v>
-      </c>
-      <c r="N458" s="59">
-        <v>0</v>
-      </c>
-      <c r="O458" s="59" t="s">
+      <c r="M458" s="58">
+        <v>0</v>
+      </c>
+      <c r="N458" s="58">
+        <v>0</v>
+      </c>
+      <c r="O458" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P458" s="59">
+      <c r="P458" s="58">
         <v>19800</v>
       </c>
-      <c r="Q458" s="59" t="s">
+      <c r="Q458" s="58" t="s">
         <v>991</v>
       </c>
-      <c r="R458" s="60" t="s">
+      <c r="R458" s="59" t="s">
         <v>1546</v>
       </c>
-      <c r="W458" s="59" t="s">
+      <c r="W458" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X458" s="59">
+      <c r="X458" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y458" s="59">
+      <c r="Y458" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z458" s="59">
+      <c r="Z458" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA458" s="59">
+      <c r="AA458" s="58">
         <v>59</v>
       </c>
-      <c r="AH458" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI458" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL458" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM458" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="459" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A459" s="59">
+      <c r="AH458" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI458" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL458" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM458" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A459" s="58">
         <v>458</v>
       </c>
-      <c r="B459" s="59">
+      <c r="B459" s="58">
         <v>10375</v>
       </c>
-      <c r="F459" s="59">
-        <v>1</v>
-      </c>
-      <c r="G459" s="59" t="s">
+      <c r="F459" s="58">
+        <v>1</v>
+      </c>
+      <c r="G459" s="58" t="s">
         <v>1547</v>
       </c>
-      <c r="I459" s="59" t="s">
+      <c r="I459" s="58" t="s">
         <v>1548</v>
       </c>
-      <c r="J459" s="59" t="s">
+      <c r="J459" s="58" t="s">
         <v>1549</v>
       </c>
-      <c r="L459" s="59">
+      <c r="L459" s="58">
         <v>-31</v>
       </c>
-      <c r="M459" s="59">
-        <v>0</v>
-      </c>
-      <c r="N459" s="59">
-        <v>0</v>
-      </c>
-      <c r="O459" s="59" t="s">
+      <c r="M459" s="58">
+        <v>0</v>
+      </c>
+      <c r="N459" s="58">
+        <v>0</v>
+      </c>
+      <c r="O459" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P459" s="59">
+      <c r="P459" s="58">
         <v>49800</v>
       </c>
-      <c r="Q459" s="59" t="s">
+      <c r="Q459" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R459" s="60" t="s">
+      <c r="R459" s="59" t="s">
         <v>1550</v>
       </c>
-      <c r="W459" s="59" t="s">
+      <c r="W459" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X459" s="59">
+      <c r="X459" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y459" s="59">
+      <c r="Y459" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z459" s="59">
+      <c r="Z459" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA459" s="59">
+      <c r="AA459" s="58">
         <v>60</v>
       </c>
-      <c r="AH459" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI459" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL459" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM459" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="460" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A460" s="59">
+      <c r="AH459" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI459" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL459" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM459" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A460" s="58">
         <v>459</v>
       </c>
-      <c r="B460" s="59">
+      <c r="B460" s="58">
         <v>10376</v>
       </c>
-      <c r="F460" s="59">
-        <v>1</v>
-      </c>
-      <c r="G460" s="59" t="s">
+      <c r="F460" s="58">
+        <v>1</v>
+      </c>
+      <c r="G460" s="58" t="s">
         <v>1551</v>
       </c>
-      <c r="I460" s="59" t="s">
+      <c r="I460" s="58" t="s">
         <v>1552</v>
       </c>
-      <c r="J460" s="59" t="s">
+      <c r="J460" s="58" t="s">
         <v>1553</v>
       </c>
-      <c r="L460" s="59">
+      <c r="L460" s="58">
         <v>-31</v>
       </c>
-      <c r="M460" s="59">
-        <v>0</v>
-      </c>
-      <c r="N460" s="59">
-        <v>0</v>
-      </c>
-      <c r="O460" s="59" t="s">
+      <c r="M460" s="58">
+        <v>0</v>
+      </c>
+      <c r="N460" s="58">
+        <v>0</v>
+      </c>
+      <c r="O460" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P460" s="59">
+      <c r="P460" s="58">
         <v>49800</v>
       </c>
-      <c r="Q460" s="59" t="s">
+      <c r="Q460" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R460" s="60" t="s">
+      <c r="R460" s="59" t="s">
         <v>1554</v>
       </c>
-      <c r="W460" s="59" t="s">
+      <c r="W460" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X460" s="59">
+      <c r="X460" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y460" s="59">
+      <c r="Y460" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z460" s="59">
+      <c r="Z460" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH460" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI460" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL460" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM460" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="461" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A461" s="59">
+      <c r="AH460" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI460" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL460" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM460" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A461" s="58">
         <v>460</v>
       </c>
-      <c r="B461" s="59">
+      <c r="B461" s="58">
         <v>10377</v>
       </c>
-      <c r="F461" s="59">
-        <v>1</v>
-      </c>
-      <c r="G461" s="59" t="s">
+      <c r="F461" s="58">
+        <v>1</v>
+      </c>
+      <c r="G461" s="58" t="s">
         <v>1555</v>
       </c>
-      <c r="I461" s="59" t="s">
+      <c r="I461" s="58" t="s">
         <v>1556</v>
       </c>
-      <c r="J461" s="59" t="s">
+      <c r="J461" s="58" t="s">
         <v>1557</v>
       </c>
-      <c r="L461" s="59">
+      <c r="L461" s="58">
         <v>-31</v>
       </c>
-      <c r="M461" s="59">
-        <v>0</v>
-      </c>
-      <c r="N461" s="59">
-        <v>0</v>
-      </c>
-      <c r="O461" s="59" t="s">
+      <c r="M461" s="58">
+        <v>0</v>
+      </c>
+      <c r="N461" s="58">
+        <v>0</v>
+      </c>
+      <c r="O461" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P461" s="59">
+      <c r="P461" s="58">
         <v>49800</v>
       </c>
-      <c r="Q461" s="59" t="s">
+      <c r="Q461" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R461" s="60" t="s">
+      <c r="R461" s="59" t="s">
         <v>1558</v>
       </c>
-      <c r="W461" s="59" t="s">
+      <c r="W461" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X461" s="59">
+      <c r="X461" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y461" s="59">
+      <c r="Y461" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z461" s="59">
+      <c r="Z461" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA461" s="59">
+      <c r="AA461" s="58">
         <v>61</v>
       </c>
-      <c r="AH461" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI461" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL461" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM461" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="462" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A462" s="59">
+      <c r="AH461" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI461" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL461" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM461" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A462" s="58">
         <v>461</v>
       </c>
-      <c r="B462" s="59">
+      <c r="B462" s="58">
         <v>10378</v>
       </c>
-      <c r="F462" s="59">
-        <v>1</v>
-      </c>
-      <c r="G462" s="59" t="s">
+      <c r="F462" s="58">
+        <v>1</v>
+      </c>
+      <c r="G462" s="58" t="s">
         <v>1559</v>
       </c>
-      <c r="I462" s="59" t="s">
+      <c r="I462" s="58" t="s">
         <v>1560</v>
       </c>
-      <c r="J462" s="59" t="s">
+      <c r="J462" s="58" t="s">
         <v>1561</v>
       </c>
-      <c r="L462" s="59">
+      <c r="L462" s="58">
         <v>-31</v>
       </c>
-      <c r="M462" s="59">
-        <v>0</v>
-      </c>
-      <c r="N462" s="59">
-        <v>0</v>
-      </c>
-      <c r="O462" s="59" t="s">
+      <c r="M462" s="58">
+        <v>0</v>
+      </c>
+      <c r="N462" s="58">
+        <v>0</v>
+      </c>
+      <c r="O462" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P462" s="59">
+      <c r="P462" s="58">
         <v>99800</v>
       </c>
-      <c r="Q462" s="59" t="s">
+      <c r="Q462" s="58" t="s">
         <v>991</v>
       </c>
-      <c r="R462" s="60" t="s">
+      <c r="R462" s="59" t="s">
         <v>1562</v>
       </c>
-      <c r="W462" s="59" t="s">
+      <c r="W462" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X462" s="59">
+      <c r="X462" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y462" s="59">
+      <c r="Y462" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z462" s="59">
+      <c r="Z462" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA462" s="59">
+      <c r="AA462" s="58">
         <v>62</v>
       </c>
-      <c r="AH462" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI462" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL462" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM462" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="463" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A463" s="59">
+      <c r="AH462" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI462" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL462" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM462" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A463" s="58">
         <v>462</v>
       </c>
-      <c r="B463" s="59">
+      <c r="B463" s="58">
         <v>10379</v>
       </c>
-      <c r="F463" s="59">
-        <v>1</v>
-      </c>
-      <c r="G463" s="59" t="s">
+      <c r="F463" s="58">
+        <v>1</v>
+      </c>
+      <c r="G463" s="58" t="s">
         <v>1563</v>
       </c>
-      <c r="I463" s="59" t="s">
+      <c r="I463" s="58" t="s">
         <v>1564</v>
       </c>
-      <c r="J463" s="59" t="s">
+      <c r="J463" s="58" t="s">
         <v>1565</v>
       </c>
-      <c r="L463" s="59">
+      <c r="L463" s="58">
         <v>-31</v>
       </c>
-      <c r="M463" s="59">
-        <v>0</v>
-      </c>
-      <c r="N463" s="59">
-        <v>0</v>
-      </c>
-      <c r="O463" s="59" t="s">
+      <c r="M463" s="58">
+        <v>0</v>
+      </c>
+      <c r="N463" s="58">
+        <v>0</v>
+      </c>
+      <c r="O463" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P463" s="59">
+      <c r="P463" s="58">
         <v>99800</v>
       </c>
-      <c r="Q463" s="59" t="s">
+      <c r="Q463" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R463" s="60" t="s">
+      <c r="R463" s="59" t="s">
         <v>1566</v>
       </c>
-      <c r="W463" s="59" t="s">
+      <c r="W463" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X463" s="59">
+      <c r="X463" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y463" s="59">
+      <c r="Y463" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z463" s="59">
+      <c r="Z463" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH463" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI463" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL463" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM463" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="464" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A464" s="59">
+      <c r="AH463" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI463" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL463" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM463" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="58">
         <v>463</v>
       </c>
-      <c r="B464" s="59">
+      <c r="B464" s="58">
         <v>10380</v>
       </c>
-      <c r="F464" s="59">
-        <v>1</v>
-      </c>
-      <c r="G464" s="59" t="s">
+      <c r="F464" s="58">
+        <v>1</v>
+      </c>
+      <c r="G464" s="58" t="s">
         <v>1567</v>
       </c>
-      <c r="I464" s="59" t="s">
+      <c r="I464" s="58" t="s">
         <v>1568</v>
       </c>
-      <c r="J464" s="59" t="s">
+      <c r="J464" s="58" t="s">
         <v>1569</v>
       </c>
-      <c r="L464" s="59">
+      <c r="L464" s="58">
         <v>-31</v>
       </c>
-      <c r="M464" s="59">
-        <v>0</v>
-      </c>
-      <c r="N464" s="59">
-        <v>0</v>
-      </c>
-      <c r="O464" s="59" t="s">
+      <c r="M464" s="58">
+        <v>0</v>
+      </c>
+      <c r="N464" s="58">
+        <v>0</v>
+      </c>
+      <c r="O464" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P464" s="59">
+      <c r="P464" s="58">
         <v>99800</v>
       </c>
-      <c r="Q464" s="59" t="s">
+      <c r="Q464" s="58" t="s">
         <v>991</v>
       </c>
-      <c r="R464" s="60" t="s">
+      <c r="R464" s="59" t="s">
         <v>1570</v>
       </c>
-      <c r="W464" s="59" t="s">
+      <c r="W464" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X464" s="59">
+      <c r="X464" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y464" s="59">
+      <c r="Y464" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z464" s="59">
+      <c r="Z464" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA464" s="59">
+      <c r="AA464" s="58">
         <v>63</v>
       </c>
-      <c r="AH464" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI464" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL464" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM464" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="465" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A465" s="59">
+      <c r="AH464" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI464" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL464" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM464" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A465" s="58">
         <v>464</v>
       </c>
-      <c r="B465" s="59">
+      <c r="B465" s="58">
         <v>10381</v>
       </c>
-      <c r="F465" s="59">
-        <v>1</v>
-      </c>
-      <c r="G465" s="59" t="s">
+      <c r="F465" s="58">
+        <v>1</v>
+      </c>
+      <c r="G465" s="58" t="s">
         <v>1571</v>
       </c>
-      <c r="I465" s="59" t="s">
+      <c r="I465" s="58" t="s">
         <v>1572</v>
       </c>
-      <c r="J465" s="59" t="s">
+      <c r="J465" s="58" t="s">
         <v>1573</v>
       </c>
-      <c r="L465" s="59">
+      <c r="L465" s="58">
         <v>-31</v>
       </c>
-      <c r="M465" s="59">
-        <v>0</v>
-      </c>
-      <c r="N465" s="59">
-        <v>0</v>
-      </c>
-      <c r="O465" s="59" t="s">
+      <c r="M465" s="58">
+        <v>0</v>
+      </c>
+      <c r="N465" s="58">
+        <v>0</v>
+      </c>
+      <c r="O465" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P465" s="59">
+      <c r="P465" s="58">
         <v>249800</v>
       </c>
-      <c r="Q465" s="59" t="s">
+      <c r="Q465" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R465" s="60" t="s">
+      <c r="R465" s="59" t="s">
         <v>1574</v>
       </c>
-      <c r="W465" s="59" t="s">
+      <c r="W465" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X465" s="59">
+      <c r="X465" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y465" s="59">
+      <c r="Y465" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z465" s="59">
+      <c r="Z465" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA465" s="59">
+      <c r="AA465" s="58">
         <v>64</v>
       </c>
-      <c r="AH465" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI465" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL465" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM465" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="466" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A466" s="59">
+      <c r="AH465" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI465" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL465" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM465" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A466" s="58">
         <v>465</v>
       </c>
-      <c r="B466" s="59">
+      <c r="B466" s="58">
         <v>10382</v>
       </c>
-      <c r="F466" s="59">
-        <v>1</v>
-      </c>
-      <c r="G466" s="59" t="s">
+      <c r="F466" s="58">
+        <v>1</v>
+      </c>
+      <c r="G466" s="58" t="s">
         <v>1575</v>
       </c>
-      <c r="I466" s="59" t="s">
+      <c r="I466" s="58" t="s">
         <v>1576</v>
       </c>
-      <c r="J466" s="59" t="s">
+      <c r="J466" s="58" t="s">
         <v>1577</v>
       </c>
-      <c r="L466" s="59">
+      <c r="L466" s="58">
         <v>-31</v>
       </c>
-      <c r="M466" s="59">
-        <v>0</v>
-      </c>
-      <c r="N466" s="59">
-        <v>0</v>
-      </c>
-      <c r="O466" s="59" t="s">
+      <c r="M466" s="58">
+        <v>0</v>
+      </c>
+      <c r="N466" s="58">
+        <v>0</v>
+      </c>
+      <c r="O466" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P466" s="59">
+      <c r="P466" s="58">
         <v>249800</v>
       </c>
-      <c r="Q466" s="59" t="s">
+      <c r="Q466" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R466" s="60" t="s">
+      <c r="R466" s="59" t="s">
         <v>1578</v>
       </c>
-      <c r="W466" s="59" t="s">
+      <c r="W466" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X466" s="59">
+      <c r="X466" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y466" s="59">
+      <c r="Y466" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z466" s="59">
+      <c r="Z466" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH466" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI466" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL466" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM466" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="467" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A467" s="59">
+      <c r="AH466" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI466" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL466" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM466" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="58">
         <v>466</v>
       </c>
-      <c r="B467" s="59">
+      <c r="B467" s="58">
         <v>10383</v>
       </c>
-      <c r="F467" s="59">
-        <v>1</v>
-      </c>
-      <c r="G467" s="59" t="s">
+      <c r="F467" s="58">
+        <v>1</v>
+      </c>
+      <c r="G467" s="58" t="s">
         <v>1579</v>
       </c>
-      <c r="I467" s="59" t="s">
+      <c r="I467" s="58" t="s">
         <v>1580</v>
       </c>
-      <c r="J467" s="59" t="s">
+      <c r="J467" s="58" t="s">
         <v>1581</v>
       </c>
-      <c r="L467" s="59">
+      <c r="L467" s="58">
         <v>-31</v>
       </c>
-      <c r="M467" s="59">
-        <v>0</v>
-      </c>
-      <c r="N467" s="59">
-        <v>0</v>
-      </c>
-      <c r="O467" s="59" t="s">
+      <c r="M467" s="58">
+        <v>0</v>
+      </c>
+      <c r="N467" s="58">
+        <v>0</v>
+      </c>
+      <c r="O467" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P467" s="59">
+      <c r="P467" s="58">
         <v>249800</v>
       </c>
-      <c r="Q467" s="59" t="s">
+      <c r="Q467" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R467" s="60" t="s">
+      <c r="R467" s="59" t="s">
         <v>1582</v>
       </c>
-      <c r="W467" s="59" t="s">
+      <c r="W467" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X467" s="59">
+      <c r="X467" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y467" s="59">
+      <c r="Y467" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z467" s="59">
+      <c r="Z467" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA467" s="59">
+      <c r="AA467" s="58">
         <v>65</v>
       </c>
-      <c r="AH467" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI467" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL467" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM467" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="468" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A468" s="59">
+      <c r="AH467" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI467" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL467" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM467" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A468" s="58">
         <v>467</v>
       </c>
-      <c r="B468" s="59">
+      <c r="B468" s="58">
         <v>10384</v>
       </c>
-      <c r="F468" s="59">
-        <v>1</v>
-      </c>
-      <c r="G468" s="59" t="s">
+      <c r="F468" s="58">
+        <v>1</v>
+      </c>
+      <c r="G468" s="58" t="s">
         <v>1583</v>
       </c>
-      <c r="I468" s="59" t="s">
+      <c r="I468" s="58" t="s">
         <v>1584</v>
       </c>
-      <c r="J468" s="59" t="s">
+      <c r="J468" s="58" t="s">
         <v>1585</v>
       </c>
-      <c r="L468" s="59">
+      <c r="L468" s="58">
         <v>-31</v>
       </c>
-      <c r="M468" s="59">
-        <v>0</v>
-      </c>
-      <c r="N468" s="59">
-        <v>0</v>
-      </c>
-      <c r="O468" s="59" t="s">
+      <c r="M468" s="58">
+        <v>0</v>
+      </c>
+      <c r="N468" s="58">
+        <v>0</v>
+      </c>
+      <c r="O468" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P468" s="59">
+      <c r="P468" s="58">
         <v>600</v>
       </c>
-      <c r="Q468" s="59" t="s">
+      <c r="Q468" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R468" s="60" t="s">
+      <c r="R468" s="59" t="s">
         <v>1586</v>
       </c>
-      <c r="W468" s="59" t="s">
+      <c r="W468" s="58" t="s">
         <v>1588</v>
       </c>
-      <c r="X468" s="59">
+      <c r="X468" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y468" s="59">
+      <c r="Y468" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z468" s="59">
+      <c r="Z468" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH468" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI468" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL468" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM468" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="469" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A469" s="59">
+      <c r="AH468" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI468" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL468" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM468" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="58">
         <v>468</v>
       </c>
-      <c r="B469" s="59">
+      <c r="B469" s="58">
         <v>10385</v>
       </c>
-      <c r="F469" s="59">
-        <v>1</v>
-      </c>
-      <c r="G469" s="59" t="s">
+      <c r="F469" s="58">
+        <v>1</v>
+      </c>
+      <c r="G469" s="58" t="s">
         <v>1589</v>
       </c>
-      <c r="I469" s="59" t="s">
+      <c r="I469" s="58" t="s">
         <v>1590</v>
       </c>
-      <c r="J469" s="59" t="s">
+      <c r="J469" s="58" t="s">
         <v>1591</v>
       </c>
-      <c r="L469" s="59">
+      <c r="L469" s="58">
         <v>-31</v>
       </c>
-      <c r="M469" s="59">
-        <v>0</v>
-      </c>
-      <c r="N469" s="59">
-        <v>0</v>
-      </c>
-      <c r="O469" s="59" t="s">
+      <c r="M469" s="58">
+        <v>0</v>
+      </c>
+      <c r="N469" s="58">
+        <v>0</v>
+      </c>
+      <c r="O469" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P469" s="59">
+      <c r="P469" s="58">
         <v>3000</v>
       </c>
-      <c r="Q469" s="59" t="s">
+      <c r="Q469" s="58" t="s">
         <v>991</v>
       </c>
-      <c r="R469" s="60" t="s">
+      <c r="R469" s="59" t="s">
         <v>1592</v>
       </c>
-      <c r="W469" s="59" t="s">
+      <c r="W469" s="58" t="s">
         <v>1587</v>
       </c>
-      <c r="X469" s="59">
+      <c r="X469" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y469" s="59">
+      <c r="Y469" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z469" s="59">
+      <c r="Z469" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH469" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI469" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL469" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM469" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="470" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A470" s="59">
+      <c r="AH469" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI469" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL469" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM469" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="58">
         <v>469</v>
       </c>
-      <c r="B470" s="59">
+      <c r="B470" s="58">
         <v>10386</v>
       </c>
-      <c r="F470" s="59">
-        <v>1</v>
-      </c>
-      <c r="G470" s="59" t="s">
+      <c r="F470" s="58">
+        <v>1</v>
+      </c>
+      <c r="G470" s="58" t="s">
         <v>1593</v>
       </c>
-      <c r="I470" s="59" t="s">
+      <c r="I470" s="58" t="s">
         <v>1590</v>
       </c>
-      <c r="J470" s="59" t="s">
+      <c r="J470" s="58" t="s">
         <v>1594</v>
       </c>
-      <c r="L470" s="59">
+      <c r="L470" s="58">
         <v>-31</v>
       </c>
-      <c r="M470" s="59">
-        <v>0</v>
-      </c>
-      <c r="N470" s="59">
-        <v>0</v>
-      </c>
-      <c r="O470" s="59" t="s">
+      <c r="M470" s="58">
+        <v>0</v>
+      </c>
+      <c r="N470" s="58">
+        <v>0</v>
+      </c>
+      <c r="O470" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P470" s="59">
+      <c r="P470" s="58">
         <v>6800</v>
       </c>
-      <c r="Q470" s="59" t="s">
+      <c r="Q470" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R470" s="60" t="s">
+      <c r="R470" s="59" t="s">
         <v>1595</v>
       </c>
-      <c r="W470" s="59" t="s">
+      <c r="W470" s="58" t="s">
         <v>1588</v>
       </c>
-      <c r="X470" s="59">
+      <c r="X470" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y470" s="59">
+      <c r="Y470" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z470" s="59">
+      <c r="Z470" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH470" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI470" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL470" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM470" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="471" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A471" s="59">
+      <c r="AH470" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI470" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL470" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM470" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="58">
         <v>470</v>
       </c>
-      <c r="B471" s="59">
+      <c r="B471" s="58">
         <v>10387</v>
       </c>
-      <c r="F471" s="59">
-        <v>1</v>
-      </c>
-      <c r="G471" s="59" t="s">
+      <c r="F471" s="58">
+        <v>1</v>
+      </c>
+      <c r="G471" s="58" t="s">
         <v>1596</v>
       </c>
-      <c r="I471" s="59" t="s">
+      <c r="I471" s="58" t="s">
         <v>1584</v>
       </c>
-      <c r="J471" s="59" t="s">
+      <c r="J471" s="58" t="s">
         <v>1597</v>
       </c>
-      <c r="L471" s="59">
+      <c r="L471" s="58">
         <v>-31</v>
       </c>
-      <c r="M471" s="59">
-        <v>0</v>
-      </c>
-      <c r="N471" s="59">
-        <v>0</v>
-      </c>
-      <c r="O471" s="59" t="s">
+      <c r="M471" s="58">
+        <v>0</v>
+      </c>
+      <c r="N471" s="58">
+        <v>0</v>
+      </c>
+      <c r="O471" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P471" s="59">
+      <c r="P471" s="58">
         <v>9800</v>
       </c>
-      <c r="Q471" s="59" t="s">
+      <c r="Q471" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R471" s="60" t="s">
+      <c r="R471" s="59" t="s">
         <v>1598</v>
       </c>
-      <c r="W471" s="59" t="s">
+      <c r="W471" s="58" t="s">
         <v>1599</v>
       </c>
-      <c r="X471" s="59">
+      <c r="X471" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y471" s="59">
+      <c r="Y471" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z471" s="59">
+      <c r="Z471" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH471" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI471" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL471" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM471" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="472" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A472" s="59">
+      <c r="AH471" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI471" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL471" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM471" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A472" s="58">
         <v>471</v>
       </c>
-      <c r="B472" s="59">
+      <c r="B472" s="58">
         <v>10388</v>
       </c>
-      <c r="F472" s="59">
-        <v>1</v>
-      </c>
-      <c r="G472" s="59" t="s">
+      <c r="F472" s="58">
+        <v>1</v>
+      </c>
+      <c r="G472" s="58" t="s">
         <v>1600</v>
       </c>
-      <c r="I472" s="59" t="s">
+      <c r="I472" s="58" t="s">
         <v>1584</v>
       </c>
-      <c r="J472" s="59" t="s">
+      <c r="J472" s="58" t="s">
         <v>1601</v>
       </c>
-      <c r="L472" s="59">
+      <c r="L472" s="58">
         <v>-31</v>
       </c>
-      <c r="M472" s="59">
-        <v>0</v>
-      </c>
-      <c r="N472" s="59">
-        <v>0</v>
-      </c>
-      <c r="O472" s="59" t="s">
+      <c r="M472" s="58">
+        <v>0</v>
+      </c>
+      <c r="N472" s="58">
+        <v>0</v>
+      </c>
+      <c r="O472" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P472" s="59">
+      <c r="P472" s="58">
         <v>19800</v>
       </c>
-      <c r="Q472" s="59" t="s">
+      <c r="Q472" s="58" t="s">
         <v>991</v>
       </c>
-      <c r="R472" s="60" t="s">
+      <c r="R472" s="59" t="s">
         <v>1602</v>
       </c>
-      <c r="W472" s="59" t="s">
+      <c r="W472" s="58" t="s">
         <v>1599</v>
       </c>
-      <c r="X472" s="59">
+      <c r="X472" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y472" s="59">
+      <c r="Y472" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z472" s="59">
+      <c r="Z472" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH472" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI472" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL472" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM472" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="473" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A473" s="59">
+      <c r="AH472" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI472" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL472" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM472" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A473" s="58">
         <v>472</v>
       </c>
-      <c r="B473" s="59">
+      <c r="B473" s="58">
         <v>10389</v>
       </c>
-      <c r="F473" s="59">
-        <v>1</v>
-      </c>
-      <c r="G473" s="59" t="s">
+      <c r="F473" s="58">
+        <v>1</v>
+      </c>
+      <c r="G473" s="58" t="s">
         <v>1603</v>
       </c>
-      <c r="I473" s="59" t="s">
+      <c r="I473" s="58" t="s">
         <v>1590</v>
       </c>
-      <c r="J473" s="59" t="s">
+      <c r="J473" s="58" t="s">
         <v>1604</v>
       </c>
-      <c r="L473" s="59">
+      <c r="L473" s="58">
         <v>-31</v>
       </c>
-      <c r="M473" s="59">
-        <v>0</v>
-      </c>
-      <c r="N473" s="59">
-        <v>0</v>
-      </c>
-      <c r="O473" s="59" t="s">
+      <c r="M473" s="58">
+        <v>0</v>
+      </c>
+      <c r="N473" s="58">
+        <v>0</v>
+      </c>
+      <c r="O473" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P473" s="59">
+      <c r="P473" s="58">
         <v>49800</v>
       </c>
-      <c r="Q473" s="59" t="s">
+      <c r="Q473" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R473" s="60" t="s">
+      <c r="R473" s="59" t="s">
         <v>1605</v>
       </c>
-      <c r="W473" s="59" t="s">
+      <c r="W473" s="58" t="s">
         <v>1599</v>
       </c>
-      <c r="X473" s="59">
+      <c r="X473" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y473" s="59">
+      <c r="Y473" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z473" s="59">
+      <c r="Z473" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH473" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI473" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL473" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM473" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="474" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A474" s="59">
+      <c r="AH473" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI473" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL473" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM473" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A474" s="58">
         <v>473</v>
       </c>
-      <c r="B474" s="59">
+      <c r="B474" s="58">
         <v>10390</v>
       </c>
-      <c r="F474" s="59">
-        <v>1</v>
-      </c>
-      <c r="G474" s="59" t="s">
+      <c r="F474" s="58">
+        <v>1</v>
+      </c>
+      <c r="G474" s="58" t="s">
         <v>1606</v>
       </c>
-      <c r="I474" s="59" t="s">
+      <c r="I474" s="58" t="s">
         <v>1590</v>
       </c>
-      <c r="J474" s="59" t="s">
+      <c r="J474" s="58" t="s">
         <v>1607</v>
       </c>
-      <c r="L474" s="59">
+      <c r="L474" s="58">
         <v>-31</v>
       </c>
-      <c r="M474" s="59">
-        <v>0</v>
-      </c>
-      <c r="N474" s="59">
-        <v>0</v>
-      </c>
-      <c r="O474" s="59" t="s">
+      <c r="M474" s="58">
+        <v>0</v>
+      </c>
+      <c r="N474" s="58">
+        <v>0</v>
+      </c>
+      <c r="O474" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P474" s="59">
+      <c r="P474" s="58">
         <v>99800</v>
       </c>
-      <c r="Q474" s="59" t="s">
+      <c r="Q474" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R474" s="60" t="s">
+      <c r="R474" s="59" t="s">
         <v>1608</v>
       </c>
-      <c r="W474" s="59" t="s">
+      <c r="W474" s="58" t="s">
         <v>1599</v>
       </c>
-      <c r="X474" s="59">
+      <c r="X474" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y474" s="59">
+      <c r="Y474" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z474" s="59">
+      <c r="Z474" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH474" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI474" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL474" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM474" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="475" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A475" s="59">
+      <c r="AH474" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI474" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL474" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM474" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A475" s="58">
         <v>474</v>
       </c>
-      <c r="B475" s="59">
+      <c r="B475" s="58">
         <v>10391</v>
       </c>
-      <c r="F475" s="59">
-        <v>1</v>
-      </c>
-      <c r="G475" s="59" t="s">
+      <c r="F475" s="58">
+        <v>1</v>
+      </c>
+      <c r="G475" s="58" t="s">
         <v>1609</v>
       </c>
-      <c r="I475" s="59" t="s">
+      <c r="I475" s="58" t="s">
         <v>1590</v>
       </c>
-      <c r="J475" s="59" t="s">
+      <c r="J475" s="58" t="s">
         <v>1669</v>
       </c>
-      <c r="L475" s="59">
+      <c r="L475" s="58">
         <v>-31</v>
       </c>
-      <c r="M475" s="59">
-        <v>0</v>
-      </c>
-      <c r="N475" s="59">
-        <v>0</v>
-      </c>
-      <c r="O475" s="59" t="s">
+      <c r="M475" s="58">
+        <v>0</v>
+      </c>
+      <c r="N475" s="58">
+        <v>0</v>
+      </c>
+      <c r="O475" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P475" s="59">
+      <c r="P475" s="58">
         <v>249800</v>
       </c>
-      <c r="Q475" s="59" t="s">
+      <c r="Q475" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R475" s="60" t="s">
+      <c r="R475" s="59" t="s">
         <v>1668</v>
       </c>
-      <c r="W475" s="59" t="s">
+      <c r="W475" s="58" t="s">
         <v>1599</v>
       </c>
-      <c r="X475" s="59">
+      <c r="X475" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y475" s="59">
+      <c r="Y475" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z475" s="59">
+      <c r="Z475" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH475" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI475" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL475" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM475" s="59">
+      <c r="AH475" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI475" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL475" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM475" s="58">
         <v>1</v>
       </c>
     </row>
@@ -43409,263 +43423,263 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A493" s="59">
+    <row r="493" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A493" s="58">
         <v>492</v>
       </c>
-      <c r="B493" s="59">
+      <c r="B493" s="58">
         <v>10409</v>
       </c>
-      <c r="F493" s="59">
-        <v>1</v>
-      </c>
-      <c r="G493" s="59" t="s">
+      <c r="F493" s="58">
+        <v>1</v>
+      </c>
+      <c r="G493" s="58" t="s">
         <v>1853</v>
       </c>
-      <c r="I493" s="59" t="s">
+      <c r="I493" s="58" t="s">
         <v>1854</v>
       </c>
-      <c r="J493" s="59" t="s">
+      <c r="J493" s="58" t="s">
         <v>1855</v>
       </c>
-      <c r="L493" s="59">
+      <c r="L493" s="58">
         <v>-31</v>
       </c>
-      <c r="M493" s="59">
-        <v>0</v>
-      </c>
-      <c r="N493" s="59">
-        <v>0</v>
-      </c>
-      <c r="O493" s="59" t="s">
+      <c r="M493" s="58">
+        <v>0</v>
+      </c>
+      <c r="N493" s="58">
+        <v>0</v>
+      </c>
+      <c r="O493" s="58" t="s">
         <v>1856</v>
       </c>
-      <c r="P493" s="59">
+      <c r="P493" s="58">
         <v>49800</v>
       </c>
-      <c r="Q493" s="59" t="s">
+      <c r="Q493" s="58" t="s">
         <v>1857</v>
       </c>
-      <c r="R493" s="60" t="s">
+      <c r="R493" s="59" t="s">
         <v>1859</v>
       </c>
-      <c r="W493" s="59" t="s">
+      <c r="W493" s="58" t="s">
         <v>524</v>
       </c>
-      <c r="X493" s="59">
+      <c r="X493" s="58">
         <v>200</v>
       </c>
-      <c r="Y493" s="59">
+      <c r="Y493" s="58">
         <v>1609200000</v>
       </c>
-      <c r="Z493" s="59">
+      <c r="Z493" s="58">
         <v>1609775999</v>
       </c>
-      <c r="AH493" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI493" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL493" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM493" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="494" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A494" s="59">
+      <c r="AH493" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI493" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL493" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM493" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A494" s="58">
         <v>493</v>
       </c>
-      <c r="B494" s="59">
+      <c r="B494" s="58">
         <v>10410</v>
       </c>
-      <c r="F494" s="59">
-        <v>1</v>
-      </c>
-      <c r="G494" s="59" t="s">
+      <c r="F494" s="58">
+        <v>1</v>
+      </c>
+      <c r="G494" s="58" t="s">
         <v>1853</v>
       </c>
-      <c r="I494" s="59" t="s">
+      <c r="I494" s="58" t="s">
         <v>1858</v>
       </c>
-      <c r="J494" s="59" t="s">
+      <c r="J494" s="58" t="s">
         <v>1855</v>
       </c>
-      <c r="L494" s="59">
+      <c r="L494" s="58">
         <v>-31</v>
       </c>
-      <c r="M494" s="59">
-        <v>0</v>
-      </c>
-      <c r="N494" s="59">
-        <v>0</v>
-      </c>
-      <c r="O494" s="59" t="s">
+      <c r="M494" s="58">
+        <v>0</v>
+      </c>
+      <c r="N494" s="58">
+        <v>0</v>
+      </c>
+      <c r="O494" s="58" t="s">
         <v>1856</v>
       </c>
-      <c r="P494" s="59">
+      <c r="P494" s="58">
         <v>99800</v>
       </c>
-      <c r="Q494" s="59" t="s">
+      <c r="Q494" s="58" t="s">
         <v>1857</v>
       </c>
-      <c r="R494" s="60" t="s">
+      <c r="R494" s="59" t="s">
         <v>1859</v>
       </c>
-      <c r="W494" s="59" t="s">
+      <c r="W494" s="58" t="s">
         <v>524</v>
       </c>
-      <c r="X494" s="59">
+      <c r="X494" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y494" s="59">
+      <c r="Y494" s="58">
         <v>1609200000</v>
       </c>
-      <c r="Z494" s="59">
+      <c r="Z494" s="58">
         <v>1609775999</v>
       </c>
-      <c r="AH494" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI494" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL494" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM494" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="495" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A495" s="59">
+      <c r="AH494" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI494" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL494" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM494" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A495" s="58">
         <v>494</v>
       </c>
-      <c r="B495" s="59">
+      <c r="B495" s="58">
         <v>10411</v>
       </c>
-      <c r="F495" s="59">
-        <v>1</v>
-      </c>
-      <c r="G495" s="59" t="s">
+      <c r="F495" s="58">
+        <v>1</v>
+      </c>
+      <c r="G495" s="58" t="s">
         <v>1869</v>
       </c>
-      <c r="J495" s="59" t="s">
+      <c r="J495" s="58" t="s">
         <v>1870</v>
       </c>
-      <c r="L495" s="59">
+      <c r="L495" s="58">
         <v>-31</v>
       </c>
-      <c r="M495" s="59">
-        <v>0</v>
-      </c>
-      <c r="N495" s="59">
-        <v>0</v>
-      </c>
-      <c r="O495" s="59" t="s">
+      <c r="M495" s="58">
+        <v>0</v>
+      </c>
+      <c r="N495" s="58">
+        <v>0</v>
+      </c>
+      <c r="O495" s="58" t="s">
         <v>1871</v>
       </c>
-      <c r="P495" s="59">
+      <c r="P495" s="58">
         <v>79800</v>
       </c>
-      <c r="Q495" s="59" t="s">
+      <c r="Q495" s="58" t="s">
         <v>1626</v>
       </c>
-      <c r="R495" s="60" t="s">
+      <c r="R495" s="59" t="s">
         <v>1872</v>
       </c>
-      <c r="W495" s="59" t="s">
+      <c r="W495" s="58" t="s">
         <v>568</v>
       </c>
-      <c r="X495" s="59">
+      <c r="X495" s="58">
         <v>99999999</v>
       </c>
-      <c r="Y495" s="59">
+      <c r="Y495" s="58">
         <v>1592263800</v>
       </c>
-      <c r="Z495" s="59">
+      <c r="Z495" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA495" s="59">
+      <c r="AA495" s="58">
         <v>14</v>
       </c>
-      <c r="AH495" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI495" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL495" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM495" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="496" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A496" s="59">
+      <c r="AH495" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI495" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL495" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM495" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A496" s="58">
         <v>495</v>
       </c>
-      <c r="B496" s="59">
+      <c r="B496" s="58">
         <v>10412</v>
       </c>
-      <c r="F496" s="59">
-        <v>1</v>
-      </c>
-      <c r="G496" s="59" t="s">
+      <c r="F496" s="58">
+        <v>1</v>
+      </c>
+      <c r="G496" s="58" t="s">
         <v>1873</v>
       </c>
-      <c r="J496" s="59" t="s">
+      <c r="J496" s="58" t="s">
         <v>1874</v>
       </c>
-      <c r="L496" s="59">
+      <c r="L496" s="58">
         <v>-31</v>
       </c>
-      <c r="M496" s="59">
-        <v>0</v>
-      </c>
-      <c r="N496" s="59">
-        <v>0</v>
-      </c>
-      <c r="O496" s="59" t="s">
+      <c r="M496" s="58">
+        <v>0</v>
+      </c>
+      <c r="N496" s="58">
+        <v>0</v>
+      </c>
+      <c r="O496" s="58" t="s">
         <v>1871</v>
       </c>
-      <c r="P496" s="59">
+      <c r="P496" s="58">
         <v>89800</v>
       </c>
-      <c r="Q496" s="59" t="s">
+      <c r="Q496" s="58" t="s">
         <v>1875</v>
       </c>
-      <c r="R496" s="60" t="s">
+      <c r="R496" s="59" t="s">
         <v>1876</v>
       </c>
-      <c r="W496" s="59" t="s">
+      <c r="W496" s="58" t="s">
         <v>1877</v>
       </c>
-      <c r="X496" s="59">
+      <c r="X496" s="58">
         <v>99999999</v>
       </c>
-      <c r="Y496" s="59">
+      <c r="Y496" s="58">
         <v>1592263800</v>
       </c>
-      <c r="Z496" s="59">
+      <c r="Z496" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA496" s="59">
+      <c r="AA496" s="58">
         <v>14</v>
       </c>
-      <c r="AH496" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI496" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL496" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM496" s="59">
+      <c r="AH496" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI496" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL496" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM496" s="58">
         <v>1</v>
       </c>
     </row>
@@ -43706,7 +43720,7 @@
       <c r="Q497" s="5" t="s">
         <v>1884</v>
       </c>
-      <c r="R497" s="63" t="s">
+      <c r="R497" s="62" t="s">
         <v>2004</v>
       </c>
       <c r="W497" s="47" t="s">
@@ -43774,7 +43788,7 @@
       <c r="Q498" s="5" t="s">
         <v>1884</v>
       </c>
-      <c r="R498" s="63" t="s">
+      <c r="R498" s="62" t="s">
         <v>2005</v>
       </c>
       <c r="W498" s="47" t="s">
@@ -43842,7 +43856,7 @@
       <c r="Q499" s="5" t="s">
         <v>1884</v>
       </c>
-      <c r="R499" s="63" t="s">
+      <c r="R499" s="62" t="s">
         <v>2006</v>
       </c>
       <c r="W499" s="47" t="s">
@@ -43910,7 +43924,7 @@
       <c r="Q500" s="5" t="s">
         <v>1884</v>
       </c>
-      <c r="R500" s="63" t="s">
+      <c r="R500" s="62" t="s">
         <v>2007</v>
       </c>
       <c r="W500" s="47" t="s">
@@ -43978,7 +43992,7 @@
       <c r="Q501" s="5" t="s">
         <v>1884</v>
       </c>
-      <c r="R501" s="63" t="s">
+      <c r="R501" s="62" t="s">
         <v>2008</v>
       </c>
       <c r="W501" s="47" t="s">
@@ -44046,7 +44060,7 @@
       <c r="Q502" s="5" t="s">
         <v>1884</v>
       </c>
-      <c r="R502" s="63" t="s">
+      <c r="R502" s="62" t="s">
         <v>2009</v>
       </c>
       <c r="W502" s="47" t="s">
@@ -44114,7 +44128,7 @@
       <c r="Q503" s="5" t="s">
         <v>1894</v>
       </c>
-      <c r="R503" s="64" t="s">
+      <c r="R503" s="63" t="s">
         <v>2010</v>
       </c>
       <c r="W503" s="47" t="s">
@@ -44182,7 +44196,7 @@
       <c r="Q504" s="5" t="s">
         <v>1894</v>
       </c>
-      <c r="R504" s="64" t="s">
+      <c r="R504" s="63" t="s">
         <v>2005</v>
       </c>
       <c r="W504" s="47" t="s">
@@ -44250,7 +44264,7 @@
       <c r="Q505" s="5" t="s">
         <v>1894</v>
       </c>
-      <c r="R505" s="64" t="s">
+      <c r="R505" s="63" t="s">
         <v>2011</v>
       </c>
       <c r="W505" s="47" t="s">
@@ -44318,7 +44332,7 @@
       <c r="Q506" s="5" t="s">
         <v>1898</v>
       </c>
-      <c r="R506" s="64" t="s">
+      <c r="R506" s="63" t="s">
         <v>2012</v>
       </c>
       <c r="W506" s="47" t="s">
@@ -44386,7 +44400,7 @@
       <c r="Q507" s="5" t="s">
         <v>1898</v>
       </c>
-      <c r="R507" s="64" t="s">
+      <c r="R507" s="63" t="s">
         <v>2013</v>
       </c>
       <c r="W507" s="47" t="s">
@@ -44454,7 +44468,7 @@
       <c r="Q508" s="5" t="s">
         <v>1898</v>
       </c>
-      <c r="R508" s="64" t="s">
+      <c r="R508" s="63" t="s">
         <v>2014</v>
       </c>
       <c r="W508" s="47" t="s">
@@ -44485,183 +44499,183 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A509" s="59">
+    <row r="509" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A509" s="58">
         <v>508</v>
       </c>
-      <c r="B509" s="59">
+      <c r="B509" s="58">
         <v>10425</v>
       </c>
-      <c r="F509" s="59">
-        <v>1</v>
-      </c>
-      <c r="G509" s="59" t="s">
+      <c r="F509" s="58">
+        <v>1</v>
+      </c>
+      <c r="G509" s="58" t="s">
         <v>1901</v>
       </c>
-      <c r="J509" s="59" t="s">
+      <c r="J509" s="58" t="s">
         <v>1902</v>
       </c>
-      <c r="L509" s="59">
+      <c r="L509" s="58">
         <v>-4</v>
       </c>
-      <c r="M509" s="59">
-        <v>1</v>
-      </c>
-      <c r="N509" s="59">
-        <v>0</v>
-      </c>
-      <c r="O509" s="59" t="s">
+      <c r="M509" s="58">
+        <v>1</v>
+      </c>
+      <c r="N509" s="58">
+        <v>0</v>
+      </c>
+      <c r="O509" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P509" s="59">
+      <c r="P509" s="58">
         <v>1800</v>
       </c>
-      <c r="R509" s="60"/>
-      <c r="W509" s="59" t="s">
+      <c r="R509" s="59"/>
+      <c r="W509" s="58" t="s">
         <v>525</v>
       </c>
-      <c r="X509" s="61" t="s">
+      <c r="X509" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="Y509" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z509" s="59">
+      <c r="Y509" s="61">
+        <v>0</v>
+      </c>
+      <c r="Z509" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AB509" s="59" t="s">
+      <c r="AB509" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="AC509" s="59" t="s">
+      <c r="AC509" s="58" t="s">
         <v>1903</v>
       </c>
-      <c r="AD509" s="60" t="s">
+      <c r="AD509" s="59" t="s">
         <v>1904</v>
       </c>
-      <c r="AH509" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI509" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="510" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A510" s="59">
+      <c r="AH509" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI509" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A510" s="58">
         <v>509</v>
       </c>
-      <c r="B510" s="59">
+      <c r="B510" s="58">
         <v>10426</v>
       </c>
-      <c r="F510" s="59">
-        <v>1</v>
-      </c>
-      <c r="G510" s="59" t="s">
+      <c r="F510" s="58">
+        <v>1</v>
+      </c>
+      <c r="G510" s="58" t="s">
         <v>1905</v>
       </c>
-      <c r="J510" s="59" t="s">
+      <c r="J510" s="58" t="s">
         <v>1906</v>
       </c>
-      <c r="L510" s="59">
+      <c r="L510" s="58">
         <v>-4</v>
       </c>
-      <c r="M510" s="59">
-        <v>1</v>
-      </c>
-      <c r="N510" s="59">
-        <v>0</v>
-      </c>
-      <c r="O510" s="59" t="s">
+      <c r="M510" s="58">
+        <v>1</v>
+      </c>
+      <c r="N510" s="58">
+        <v>0</v>
+      </c>
+      <c r="O510" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P510" s="59">
+      <c r="P510" s="58">
         <v>4800</v>
       </c>
-      <c r="R510" s="60"/>
-      <c r="W510" s="59" t="s">
+      <c r="R510" s="59"/>
+      <c r="W510" s="58" t="s">
         <v>525</v>
       </c>
-      <c r="X510" s="61" t="s">
+      <c r="X510" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="Y510" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z510" s="59">
+      <c r="Y510" s="61">
+        <v>0</v>
+      </c>
+      <c r="Z510" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AB510" s="59" t="s">
+      <c r="AB510" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="AC510" s="59" t="s">
+      <c r="AC510" s="58" t="s">
         <v>1907</v>
       </c>
-      <c r="AD510" s="60" t="s">
+      <c r="AD510" s="59" t="s">
         <v>1908</v>
       </c>
-      <c r="AH510" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI510" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="511" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A511" s="59">
+      <c r="AH510" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI510" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A511" s="58">
         <v>510</v>
       </c>
-      <c r="B511" s="59">
+      <c r="B511" s="58">
         <v>10427</v>
       </c>
-      <c r="F511" s="59">
-        <v>1</v>
-      </c>
-      <c r="G511" s="59" t="s">
+      <c r="F511" s="58">
+        <v>1</v>
+      </c>
+      <c r="G511" s="58" t="s">
         <v>1909</v>
       </c>
-      <c r="J511" s="59" t="s">
+      <c r="J511" s="58" t="s">
         <v>1910</v>
       </c>
-      <c r="L511" s="59">
+      <c r="L511" s="58">
         <v>-4</v>
       </c>
-      <c r="M511" s="59">
-        <v>1</v>
-      </c>
-      <c r="N511" s="59">
-        <v>0</v>
-      </c>
-      <c r="O511" s="59" t="s">
+      <c r="M511" s="58">
+        <v>1</v>
+      </c>
+      <c r="N511" s="58">
+        <v>0</v>
+      </c>
+      <c r="O511" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P511" s="59">
+      <c r="P511" s="58">
         <v>9800</v>
       </c>
-      <c r="R511" s="60"/>
-      <c r="W511" s="59" t="s">
+      <c r="R511" s="59"/>
+      <c r="W511" s="58" t="s">
         <v>525</v>
       </c>
-      <c r="X511" s="61" t="s">
+      <c r="X511" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="Y511" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z511" s="59">
+      <c r="Y511" s="61">
+        <v>0</v>
+      </c>
+      <c r="Z511" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AB511" s="59" t="s">
+      <c r="AB511" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="AC511" s="59" t="s">
+      <c r="AC511" s="58" t="s">
         <v>1911</v>
       </c>
-      <c r="AD511" s="60" t="s">
+      <c r="AD511" s="59" t="s">
         <v>1912</v>
       </c>
-      <c r="AH511" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI511" s="59">
+      <c r="AH511" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI511" s="58">
         <v>1</v>
       </c>
     </row>
@@ -47735,7 +47749,7 @@
       <c r="Q557" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R557" s="65" t="s">
+      <c r="R557" s="64" t="s">
         <v>2103</v>
       </c>
       <c r="W557" s="5" t="s">
@@ -47801,7 +47815,7 @@
       <c r="Q558" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R558" s="65" t="s">
+      <c r="R558" s="64" t="s">
         <v>2104</v>
       </c>
       <c r="W558" s="5" t="s">
@@ -47867,7 +47881,7 @@
       <c r="Q559" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R559" s="65" t="s">
+      <c r="R559" s="64" t="s">
         <v>2105</v>
       </c>
       <c r="W559" s="5" t="s">
@@ -47933,7 +47947,7 @@
       <c r="Q560" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R560" s="65" t="s">
+      <c r="R560" s="64" t="s">
         <v>2103</v>
       </c>
       <c r="W560" s="5" t="s">
@@ -47999,7 +48013,7 @@
       <c r="Q561" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R561" s="65" t="s">
+      <c r="R561" s="64" t="s">
         <v>2106</v>
       </c>
       <c r="W561" s="5" t="s">
@@ -48065,7 +48079,7 @@
       <c r="Q562" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R562" s="65" t="s">
+      <c r="R562" s="64" t="s">
         <v>2107</v>
       </c>
       <c r="W562" s="5" t="s">
@@ -48131,7 +48145,7 @@
       <c r="Q563" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R563" s="65" t="s">
+      <c r="R563" s="64" t="s">
         <v>2103</v>
       </c>
       <c r="W563" s="5" t="s">
@@ -48197,7 +48211,7 @@
       <c r="Q564" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R564" s="65" t="s">
+      <c r="R564" s="64" t="s">
         <v>2105</v>
       </c>
       <c r="W564" s="5" t="s">
@@ -48263,7 +48277,7 @@
       <c r="Q565" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R565" s="65" t="s">
+      <c r="R565" s="64" t="s">
         <v>2108</v>
       </c>
       <c r="W565" s="5" t="s">
@@ -48329,7 +48343,7 @@
       <c r="Q566" s="22" t="s">
         <v>2117</v>
       </c>
-      <c r="R566" s="66" t="s">
+      <c r="R566" s="65" t="s">
         <v>1924</v>
       </c>
       <c r="W566" s="22" t="s">
@@ -48397,7 +48411,7 @@
       <c r="Q567" s="22" t="s">
         <v>2117</v>
       </c>
-      <c r="R567" s="66" t="s">
+      <c r="R567" s="65" t="s">
         <v>1922</v>
       </c>
       <c r="W567" s="22" t="s">
@@ -48465,7 +48479,7 @@
       <c r="Q568" s="22" t="s">
         <v>2119</v>
       </c>
-      <c r="R568" s="66" t="s">
+      <c r="R568" s="65" t="s">
         <v>1920</v>
       </c>
       <c r="W568" s="22" t="s">
@@ -48533,7 +48547,7 @@
       <c r="Q569" s="22" t="s">
         <v>2121</v>
       </c>
-      <c r="R569" s="66" t="s">
+      <c r="R569" s="65" t="s">
         <v>1917</v>
       </c>
       <c r="W569" s="22" t="s">
@@ -48601,7 +48615,7 @@
       <c r="Q570" s="22" t="s">
         <v>2123</v>
       </c>
-      <c r="R570" s="66" t="s">
+      <c r="R570" s="65" t="s">
         <v>2124</v>
       </c>
       <c r="W570" s="22" t="s">
@@ -48669,7 +48683,7 @@
       <c r="Q571" s="22" t="s">
         <v>2123</v>
       </c>
-      <c r="R571" s="66" t="s">
+      <c r="R571" s="65" t="s">
         <v>2125</v>
       </c>
       <c r="W571" s="22" t="s">
@@ -48737,7 +48751,7 @@
       <c r="Q572" s="22" t="s">
         <v>2126</v>
       </c>
-      <c r="R572" s="66" t="s">
+      <c r="R572" s="65" t="s">
         <v>1946</v>
       </c>
       <c r="W572" s="22" t="s">
@@ -48805,7 +48819,7 @@
       <c r="Q573" s="22" t="s">
         <v>2127</v>
       </c>
-      <c r="R573" s="66" t="s">
+      <c r="R573" s="65" t="s">
         <v>2128</v>
       </c>
       <c r="W573" s="22" t="s">
@@ -48876,7 +48890,7 @@
       <c r="Q574" s="22" t="s">
         <v>2131</v>
       </c>
-      <c r="R574" s="67" t="s">
+      <c r="R574" s="66" t="s">
         <v>2132</v>
       </c>
       <c r="S574" s="22"/>
@@ -48948,7 +48962,7 @@
       <c r="Q575" s="22" t="s">
         <v>2136</v>
       </c>
-      <c r="R575" s="67" t="s">
+      <c r="R575" s="66" t="s">
         <v>2137</v>
       </c>
       <c r="S575" s="22"/>
@@ -49020,7 +49034,7 @@
       <c r="Q576" s="22" t="s">
         <v>2142</v>
       </c>
-      <c r="R576" s="67" t="s">
+      <c r="R576" s="66" t="s">
         <v>2143</v>
       </c>
       <c r="S576" s="22"/>
@@ -49092,7 +49106,7 @@
       <c r="Q577" s="22" t="s">
         <v>2146</v>
       </c>
-      <c r="R577" s="67" t="s">
+      <c r="R577" s="66" t="s">
         <v>2147</v>
       </c>
       <c r="S577" s="22"/>
@@ -49164,7 +49178,7 @@
       <c r="Q578" s="22" t="s">
         <v>2150</v>
       </c>
-      <c r="R578" s="67" t="s">
+      <c r="R578" s="66" t="s">
         <v>2151</v>
       </c>
       <c r="S578" s="22"/>
@@ -49236,7 +49250,7 @@
       <c r="Q579" s="22" t="s">
         <v>2154</v>
       </c>
-      <c r="R579" s="67" t="s">
+      <c r="R579" s="66" t="s">
         <v>2155</v>
       </c>
       <c r="S579" s="22"/>
@@ -49265,6 +49279,65 @@
         <v>1</v>
       </c>
       <c r="AM579" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A580" s="5">
+        <v>579</v>
+      </c>
+      <c r="B580" s="6">
+        <v>10496</v>
+      </c>
+      <c r="F580" s="6">
+        <v>1</v>
+      </c>
+      <c r="G580" s="6" t="s">
+        <v>2161</v>
+      </c>
+      <c r="I580" s="6" t="s">
+        <v>2162</v>
+      </c>
+      <c r="J580" s="6" t="s">
+        <v>2165</v>
+      </c>
+      <c r="L580" s="6">
+        <v>-31</v>
+      </c>
+      <c r="M580" s="6">
+        <v>0</v>
+      </c>
+      <c r="N580" s="6">
+        <v>0</v>
+      </c>
+      <c r="O580" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P580" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q580" s="5" t="s">
+        <v>2163</v>
+      </c>
+      <c r="R580" s="68" t="s">
+        <v>2164</v>
+      </c>
+      <c r="W580" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="X580" s="6">
+        <v>99999999</v>
+      </c>
+      <c r="Y580" s="6">
+        <v>1614643200</v>
+      </c>
+      <c r="Z580" s="6">
+        <v>2552233600</v>
+      </c>
+      <c r="AH580" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI580" s="6">
         <v>1</v>
       </c>
     </row>
@@ -49280,7 +49353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
@@ -50277,45 +50350,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="12">
         <v>70</v>
       </c>
-      <c r="B71" s="57" t="s">
+      <c r="B71" s="56" t="s">
         <v>2158</v>
       </c>
-      <c r="C71" s="58">
-        <v>1</v>
-      </c>
-      <c r="D71" s="58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C71" s="57">
+        <v>1</v>
+      </c>
+      <c r="D71" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="12">
         <v>71</v>
       </c>
-      <c r="B72" s="57" t="s">
+      <c r="B72" s="56" t="s">
         <v>2159</v>
       </c>
-      <c r="C72" s="58">
-        <v>1</v>
-      </c>
-      <c r="D72" s="58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C72" s="57">
+        <v>1</v>
+      </c>
+      <c r="D72" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="12">
         <v>72</v>
       </c>
-      <c r="B73" s="57" t="s">
+      <c r="B73" s="56" t="s">
         <v>2160</v>
       </c>
-      <c r="C73" s="58">
-        <v>1</v>
-      </c>
-      <c r="D73" s="58">
+      <c r="C73" s="57">
+        <v>1</v>
+      </c>
+      <c r="D73" s="57">
         <v>0</v>
       </c>
     </row>
@@ -50323,13 +50396,13 @@
       <c r="A74" s="12">
         <v>73</v>
       </c>
-      <c r="B74" s="57" t="s">
+      <c r="B74" s="56" t="s">
         <v>2069</v>
       </c>
-      <c r="C74" s="58">
-        <v>1</v>
-      </c>
-      <c r="D74" s="58">
+      <c r="C74" s="57">
+        <v>1</v>
+      </c>
+      <c r="D74" s="57">
         <v>0</v>
       </c>
     </row>
@@ -50337,13 +50410,13 @@
       <c r="A75" s="12">
         <v>74</v>
       </c>
-      <c r="B75" s="57" t="s">
+      <c r="B75" s="56" t="s">
         <v>2070</v>
       </c>
-      <c r="C75" s="58">
-        <v>1</v>
-      </c>
-      <c r="D75" s="58">
+      <c r="C75" s="57">
+        <v>1</v>
+      </c>
+      <c r="D75" s="57">
         <v>0</v>
       </c>
     </row>
@@ -50351,13 +50424,13 @@
       <c r="A76" s="12">
         <v>75</v>
       </c>
-      <c r="B76" s="57" t="s">
+      <c r="B76" s="56" t="s">
         <v>2071</v>
       </c>
-      <c r="C76" s="58">
-        <v>1</v>
-      </c>
-      <c r="D76" s="58">
+      <c r="C76" s="57">
+        <v>1</v>
+      </c>
+      <c r="D76" s="57">
         <v>0</v>
       </c>
     </row>

--- a/config_Release/shoping_config_vivo.xlsx
+++ b/config_Release/shoping_config_vivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4676" uniqueCount="2166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4718" uniqueCount="2189">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -9163,6 +9163,97 @@
   </si>
   <si>
     <t>"金币周卡",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>春暖花开·桃花礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花礼包498元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5080万金币","抽奖券*50","桃花*800",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100,0</t>
+  </si>
+  <si>
+    <t>桃花礼包198元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2000万金币","抽奖券*30","桃花*300",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花礼包98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"990万金币","抽奖券*15","桃花*150",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花礼包48元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"485万金币","抽奖券*8","桃花*80",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花礼包20元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万金币","抽奖券*4","桃花*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花礼包6元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","抽奖券*1","桃花*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_fish_drop_act_0","_common_rank_cnhk_009_thphb_rank",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_fish_drop_act_0","_common_rank_cnhk_009_thphb_rank",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50800000,50,800,800</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,30,300,300</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,15,150,150</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4850000,8,80,80</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,4,30,30</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,1,20,20</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9542,15 +9633,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12043,13 +12134,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN580"/>
+  <dimension ref="A1:AN586"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H554" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="N554" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J580" sqref="J580"/>
+      <selection pane="bottomRight" activeCell="Q582" sqref="Q582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -36499,7 +36590,7 @@
       <c r="Q386" s="22" t="s">
         <v>1266</v>
       </c>
-      <c r="R386" s="67" t="s">
+      <c r="R386" s="65" t="s">
         <v>1267</v>
       </c>
       <c r="W386" s="22" t="s">
@@ -36567,7 +36658,7 @@
       <c r="Q387" s="22" t="s">
         <v>1272</v>
       </c>
-      <c r="R387" s="67" t="s">
+      <c r="R387" s="65" t="s">
         <v>1273</v>
       </c>
       <c r="W387" s="22" t="s">
@@ -36635,7 +36726,7 @@
       <c r="Q388" s="22" t="s">
         <v>1278</v>
       </c>
-      <c r="R388" s="67" t="s">
+      <c r="R388" s="65" t="s">
         <v>1279</v>
       </c>
       <c r="W388" s="22" t="s">
@@ -36703,7 +36794,7 @@
       <c r="Q389" s="22" t="s">
         <v>1285</v>
       </c>
-      <c r="R389" s="67" t="s">
+      <c r="R389" s="65" t="s">
         <v>1279</v>
       </c>
       <c r="W389" s="22" t="s">
@@ -36771,7 +36862,7 @@
       <c r="Q390" s="22" t="s">
         <v>1287</v>
       </c>
-      <c r="R390" s="67" t="s">
+      <c r="R390" s="65" t="s">
         <v>1288</v>
       </c>
       <c r="W390" s="22" t="s">
@@ -36839,7 +36930,7 @@
       <c r="Q391" s="22" t="s">
         <v>1291</v>
       </c>
-      <c r="R391" s="67" t="s">
+      <c r="R391" s="65" t="s">
         <v>1292</v>
       </c>
       <c r="W391" s="22" t="s">
@@ -36907,7 +36998,7 @@
       <c r="Q392" s="22" t="s">
         <v>1295</v>
       </c>
-      <c r="R392" s="67" t="s">
+      <c r="R392" s="65" t="s">
         <v>1296</v>
       </c>
       <c r="W392" s="22" t="s">
@@ -36975,7 +37066,7 @@
       <c r="Q393" s="22" t="s">
         <v>1299</v>
       </c>
-      <c r="R393" s="67" t="s">
+      <c r="R393" s="65" t="s">
         <v>1292</v>
       </c>
       <c r="W393" s="22" t="s">
@@ -37043,7 +37134,7 @@
       <c r="Q394" s="22" t="s">
         <v>1303</v>
       </c>
-      <c r="R394" s="67" t="s">
+      <c r="R394" s="65" t="s">
         <v>1304</v>
       </c>
       <c r="W394" s="22" t="s">
@@ -48306,547 +48397,547 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A566" s="5">
         <v>565</v>
       </c>
       <c r="B566" s="5">
         <v>10482</v>
       </c>
-      <c r="F566" s="22">
-        <v>1</v>
-      </c>
-      <c r="G566" s="22" t="s">
+      <c r="F566" s="5">
+        <v>0</v>
+      </c>
+      <c r="G566" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I566" s="22" t="s">
+      <c r="I566" s="5" t="s">
         <v>2115</v>
       </c>
-      <c r="J566" s="22" t="s">
+      <c r="J566" s="5" t="s">
         <v>1928</v>
       </c>
-      <c r="L566" s="22">
+      <c r="L566" s="5">
         <v>-33</v>
       </c>
-      <c r="M566" s="22">
-        <v>0</v>
-      </c>
-      <c r="N566" s="22">
-        <v>0</v>
-      </c>
-      <c r="O566" s="22" t="s">
+      <c r="M566" s="5">
+        <v>0</v>
+      </c>
+      <c r="N566" s="5">
+        <v>0</v>
+      </c>
+      <c r="O566" s="5" t="s">
         <v>2116</v>
       </c>
-      <c r="P566" s="22">
+      <c r="P566" s="5">
         <v>49800</v>
       </c>
-      <c r="Q566" s="22" t="s">
+      <c r="Q566" s="5" t="s">
         <v>2117</v>
       </c>
-      <c r="R566" s="65" t="s">
+      <c r="R566" s="64" t="s">
         <v>1924</v>
       </c>
-      <c r="W566" s="22" t="s">
+      <c r="W566" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="X566" s="22">
+      <c r="X566" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y566" s="22">
+      <c r="Y566" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z566" s="22">
+      <c r="Z566" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA566" s="22">
+      <c r="AA566" s="5">
         <v>68</v>
       </c>
-      <c r="AH566" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI566" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL566" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM566" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="567" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH566" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI566" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL566" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM566" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A567" s="5">
         <v>566</v>
       </c>
       <c r="B567" s="5">
         <v>10483</v>
       </c>
-      <c r="F567" s="22">
-        <v>1</v>
-      </c>
-      <c r="G567" s="22" t="s">
+      <c r="F567" s="5">
+        <v>0</v>
+      </c>
+      <c r="G567" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I567" s="22" t="s">
+      <c r="I567" s="5" t="s">
         <v>2115</v>
       </c>
-      <c r="J567" s="22" t="s">
+      <c r="J567" s="5" t="s">
         <v>1931</v>
       </c>
-      <c r="L567" s="22">
+      <c r="L567" s="5">
         <v>-33</v>
       </c>
-      <c r="M567" s="22">
-        <v>0</v>
-      </c>
-      <c r="N567" s="22">
-        <v>0</v>
-      </c>
-      <c r="O567" s="22" t="s">
+      <c r="M567" s="5">
+        <v>0</v>
+      </c>
+      <c r="N567" s="5">
+        <v>0</v>
+      </c>
+      <c r="O567" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P567" s="22">
+      <c r="P567" s="5">
         <v>19800</v>
       </c>
-      <c r="Q567" s="22" t="s">
+      <c r="Q567" s="5" t="s">
         <v>2117</v>
       </c>
-      <c r="R567" s="65" t="s">
+      <c r="R567" s="64" t="s">
         <v>1922</v>
       </c>
-      <c r="W567" s="22" t="s">
+      <c r="W567" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="X567" s="22">
+      <c r="X567" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y567" s="22">
+      <c r="Y567" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z567" s="22">
+      <c r="Z567" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA567" s="22">
+      <c r="AA567" s="5">
         <v>68</v>
       </c>
-      <c r="AH567" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI567" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL567" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM567" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="568" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH567" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI567" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL567" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM567" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A568" s="5">
         <v>567</v>
       </c>
       <c r="B568" s="5">
         <v>10484</v>
       </c>
-      <c r="F568" s="22">
-        <v>1</v>
-      </c>
-      <c r="G568" s="22" t="s">
+      <c r="F568" s="5">
+        <v>0</v>
+      </c>
+      <c r="G568" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I568" s="22" t="s">
+      <c r="I568" s="5" t="s">
         <v>2115</v>
       </c>
-      <c r="J568" s="22" t="s">
+      <c r="J568" s="5" t="s">
         <v>2118</v>
       </c>
-      <c r="L568" s="22">
+      <c r="L568" s="5">
         <v>-33</v>
       </c>
-      <c r="M568" s="22">
-        <v>0</v>
-      </c>
-      <c r="N568" s="22">
-        <v>0</v>
-      </c>
-      <c r="O568" s="22" t="s">
+      <c r="M568" s="5">
+        <v>0</v>
+      </c>
+      <c r="N568" s="5">
+        <v>0</v>
+      </c>
+      <c r="O568" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P568" s="22">
+      <c r="P568" s="5">
         <v>9800</v>
       </c>
-      <c r="Q568" s="22" t="s">
+      <c r="Q568" s="5" t="s">
         <v>2119</v>
       </c>
-      <c r="R568" s="65" t="s">
+      <c r="R568" s="64" t="s">
         <v>1920</v>
       </c>
-      <c r="W568" s="22" t="s">
+      <c r="W568" s="5" t="s">
         <v>2120</v>
       </c>
-      <c r="X568" s="22">
+      <c r="X568" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y568" s="22">
+      <c r="Y568" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z568" s="22">
+      <c r="Z568" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA568" s="22">
+      <c r="AA568" s="5">
         <v>68</v>
       </c>
-      <c r="AH568" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI568" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL568" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM568" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="569" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH568" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI568" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL568" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM568" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A569" s="5">
         <v>568</v>
       </c>
       <c r="B569" s="5">
         <v>10485</v>
       </c>
-      <c r="F569" s="22">
-        <v>1</v>
-      </c>
-      <c r="G569" s="22" t="s">
+      <c r="F569" s="5">
+        <v>0</v>
+      </c>
+      <c r="G569" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I569" s="22" t="s">
+      <c r="I569" s="5" t="s">
         <v>2115</v>
       </c>
-      <c r="J569" s="22" t="s">
+      <c r="J569" s="5" t="s">
         <v>1919</v>
       </c>
-      <c r="L569" s="22">
+      <c r="L569" s="5">
         <v>-33</v>
       </c>
-      <c r="M569" s="22">
-        <v>0</v>
-      </c>
-      <c r="N569" s="22">
-        <v>0</v>
-      </c>
-      <c r="O569" s="22" t="s">
+      <c r="M569" s="5">
+        <v>0</v>
+      </c>
+      <c r="N569" s="5">
+        <v>0</v>
+      </c>
+      <c r="O569" s="5" t="s">
         <v>2116</v>
       </c>
-      <c r="P569" s="22">
+      <c r="P569" s="5">
         <v>4800</v>
       </c>
-      <c r="Q569" s="22" t="s">
+      <c r="Q569" s="5" t="s">
         <v>2121</v>
       </c>
-      <c r="R569" s="65" t="s">
+      <c r="R569" s="64" t="s">
         <v>1917</v>
       </c>
-      <c r="W569" s="22" t="s">
+      <c r="W569" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="X569" s="22">
+      <c r="X569" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y569" s="22">
+      <c r="Y569" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z569" s="22">
+      <c r="Z569" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA569" s="22">
+      <c r="AA569" s="5">
         <v>68</v>
       </c>
-      <c r="AH569" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI569" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL569" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM569" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="570" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH569" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI569" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL569" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM569" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A570" s="5">
         <v>569</v>
       </c>
       <c r="B570" s="5">
         <v>10486</v>
       </c>
-      <c r="F570" s="22">
-        <v>1</v>
-      </c>
-      <c r="G570" s="22" t="s">
+      <c r="F570" s="5">
+        <v>0</v>
+      </c>
+      <c r="G570" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I570" s="22" t="s">
+      <c r="I570" s="5" t="s">
         <v>2122</v>
       </c>
-      <c r="J570" s="22" t="s">
+      <c r="J570" s="5" t="s">
         <v>1939</v>
       </c>
-      <c r="L570" s="22">
+      <c r="L570" s="5">
         <v>-33</v>
       </c>
-      <c r="M570" s="22">
-        <v>0</v>
-      </c>
-      <c r="N570" s="22">
-        <v>0</v>
-      </c>
-      <c r="O570" s="22" t="s">
+      <c r="M570" s="5">
+        <v>0</v>
+      </c>
+      <c r="N570" s="5">
+        <v>0</v>
+      </c>
+      <c r="O570" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P570" s="22">
+      <c r="P570" s="5">
         <v>49800</v>
       </c>
-      <c r="Q570" s="22" t="s">
+      <c r="Q570" s="5" t="s">
         <v>2123</v>
       </c>
-      <c r="R570" s="65" t="s">
+      <c r="R570" s="64" t="s">
         <v>2124</v>
       </c>
-      <c r="W570" s="22" t="s">
+      <c r="W570" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="X570" s="22">
+      <c r="X570" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y570" s="22">
+      <c r="Y570" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z570" s="22">
+      <c r="Z570" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA570" s="22">
+      <c r="AA570" s="5">
         <v>69</v>
       </c>
-      <c r="AH570" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI570" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL570" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM570" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="571" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH570" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI570" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL570" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM570" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A571" s="5">
         <v>570</v>
       </c>
       <c r="B571" s="5">
         <v>10487</v>
       </c>
-      <c r="F571" s="22">
-        <v>1</v>
-      </c>
-      <c r="G571" s="22" t="s">
+      <c r="F571" s="5">
+        <v>0</v>
+      </c>
+      <c r="G571" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I571" s="22" t="s">
+      <c r="I571" s="5" t="s">
         <v>2122</v>
       </c>
-      <c r="J571" s="22" t="s">
+      <c r="J571" s="5" t="s">
         <v>1916</v>
       </c>
-      <c r="L571" s="22">
+      <c r="L571" s="5">
         <v>-33</v>
       </c>
-      <c r="M571" s="22">
-        <v>0</v>
-      </c>
-      <c r="N571" s="22">
-        <v>0</v>
-      </c>
-      <c r="O571" s="22" t="s">
+      <c r="M571" s="5">
+        <v>0</v>
+      </c>
+      <c r="N571" s="5">
+        <v>0</v>
+      </c>
+      <c r="O571" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P571" s="22">
+      <c r="P571" s="5">
         <v>19800</v>
       </c>
-      <c r="Q571" s="22" t="s">
+      <c r="Q571" s="5" t="s">
         <v>2123</v>
       </c>
-      <c r="R571" s="65" t="s">
+      <c r="R571" s="64" t="s">
         <v>2125</v>
       </c>
-      <c r="W571" s="22" t="s">
+      <c r="W571" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="X571" s="22">
+      <c r="X571" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y571" s="22">
+      <c r="Y571" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z571" s="22">
+      <c r="Z571" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA571" s="22">
+      <c r="AA571" s="5">
         <v>69</v>
       </c>
-      <c r="AH571" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI571" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL571" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM571" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="572" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH571" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI571" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL571" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM571" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A572" s="5">
         <v>571</v>
       </c>
       <c r="B572" s="5">
         <v>10488</v>
       </c>
-      <c r="F572" s="22">
-        <v>1</v>
-      </c>
-      <c r="G572" s="22" t="s">
+      <c r="F572" s="5">
+        <v>0</v>
+      </c>
+      <c r="G572" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I572" s="22" t="s">
+      <c r="I572" s="5" t="s">
         <v>2122</v>
       </c>
-      <c r="J572" s="22" t="s">
+      <c r="J572" s="5" t="s">
         <v>1945</v>
       </c>
-      <c r="L572" s="22">
+      <c r="L572" s="5">
         <v>-33</v>
       </c>
-      <c r="M572" s="22">
-        <v>0</v>
-      </c>
-      <c r="N572" s="22">
-        <v>0</v>
-      </c>
-      <c r="O572" s="22" t="s">
+      <c r="M572" s="5">
+        <v>0</v>
+      </c>
+      <c r="N572" s="5">
+        <v>0</v>
+      </c>
+      <c r="O572" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P572" s="22">
+      <c r="P572" s="5">
         <v>9800</v>
       </c>
-      <c r="Q572" s="22" t="s">
+      <c r="Q572" s="5" t="s">
         <v>2126</v>
       </c>
-      <c r="R572" s="65" t="s">
+      <c r="R572" s="64" t="s">
         <v>1946</v>
       </c>
-      <c r="W572" s="22" t="s">
+      <c r="W572" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="X572" s="22">
+      <c r="X572" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y572" s="22">
+      <c r="Y572" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z572" s="22">
+      <c r="Z572" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA572" s="22">
+      <c r="AA572" s="5">
         <v>69</v>
       </c>
-      <c r="AH572" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI572" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL572" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM572" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="573" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH572" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI572" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL572" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM572" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A573" s="5">
         <v>572</v>
       </c>
       <c r="B573" s="5">
         <v>10489</v>
       </c>
-      <c r="F573" s="22">
-        <v>1</v>
-      </c>
-      <c r="G573" s="22" t="s">
+      <c r="F573" s="5">
+        <v>0</v>
+      </c>
+      <c r="G573" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I573" s="22" t="s">
+      <c r="I573" s="5" t="s">
         <v>2122</v>
       </c>
-      <c r="J573" s="22" t="s">
+      <c r="J573" s="5" t="s">
         <v>1948</v>
       </c>
-      <c r="L573" s="22">
+      <c r="L573" s="5">
         <v>-33</v>
       </c>
-      <c r="M573" s="22">
-        <v>0</v>
-      </c>
-      <c r="N573" s="22">
-        <v>0</v>
-      </c>
-      <c r="O573" s="22" t="s">
+      <c r="M573" s="5">
+        <v>0</v>
+      </c>
+      <c r="N573" s="5">
+        <v>0</v>
+      </c>
+      <c r="O573" s="5" t="s">
         <v>2116</v>
       </c>
-      <c r="P573" s="22">
+      <c r="P573" s="5">
         <v>4800</v>
       </c>
-      <c r="Q573" s="22" t="s">
+      <c r="Q573" s="5" t="s">
         <v>2127</v>
       </c>
-      <c r="R573" s="65" t="s">
+      <c r="R573" s="64" t="s">
         <v>2128</v>
       </c>
-      <c r="W573" s="22" t="s">
+      <c r="W573" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="X573" s="22">
+      <c r="X573" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y573" s="22">
+      <c r="Y573" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z573" s="22">
+      <c r="Z573" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA573" s="22">
+      <c r="AA573" s="5">
         <v>69</v>
       </c>
-      <c r="AH573" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI573" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL573" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM573" s="22">
+      <c r="AH573" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI573" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL573" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM573" s="5">
         <v>1</v>
       </c>
     </row>
@@ -48854,59 +48945,49 @@
       <c r="A574" s="5">
         <v>573</v>
       </c>
-      <c r="B574" s="22">
+      <c r="B574" s="5">
         <v>10490</v>
       </c>
-      <c r="C574" s="22"/>
-      <c r="D574" s="22"/>
-      <c r="E574" s="22"/>
-      <c r="F574" s="22">
-        <v>1</v>
-      </c>
-      <c r="G574" s="22" t="s">
+      <c r="F574" s="5">
+        <v>1</v>
+      </c>
+      <c r="G574" s="5" t="s">
         <v>2129</v>
       </c>
-      <c r="H574" s="22"/>
-      <c r="I574" s="22" t="s">
+      <c r="I574" s="5" t="s">
         <v>2130</v>
       </c>
-      <c r="J574" s="22"/>
-      <c r="K574" s="22"/>
-      <c r="L574" s="22">
+      <c r="L574" s="5">
         <v>-31</v>
       </c>
-      <c r="M574" s="22">
-        <v>0</v>
-      </c>
-      <c r="N574" s="22">
-        <v>0</v>
-      </c>
-      <c r="O574" s="22" t="s">
+      <c r="M574" s="5">
+        <v>0</v>
+      </c>
+      <c r="N574" s="5">
+        <v>0</v>
+      </c>
+      <c r="O574" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P574" s="22">
+      <c r="P574" s="5">
         <v>4500</v>
       </c>
-      <c r="Q574" s="22" t="s">
+      <c r="Q574" s="5" t="s">
         <v>2131</v>
       </c>
-      <c r="R574" s="66" t="s">
+      <c r="R574" s="68" t="s">
         <v>2132</v>
       </c>
-      <c r="S574" s="22"/>
-      <c r="T574" s="22"/>
-      <c r="U574" s="22"/>
-      <c r="V574" s="22"/>
-      <c r="W574" s="22" t="s">
+      <c r="W574" s="5" t="s">
         <v>2133</v>
       </c>
-      <c r="X574" s="22">
+      <c r="X574" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y574" s="22">
+      <c r="Y574" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z574" s="22">
+      <c r="Z574" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH574" s="5">
@@ -48926,59 +49007,49 @@
       <c r="A575" s="5">
         <v>574</v>
       </c>
-      <c r="B575" s="22">
+      <c r="B575" s="5">
         <v>10491</v>
       </c>
-      <c r="C575" s="22"/>
-      <c r="D575" s="22"/>
-      <c r="E575" s="22"/>
-      <c r="F575" s="22">
-        <v>1</v>
-      </c>
-      <c r="G575" s="22" t="s">
+      <c r="F575" s="5">
+        <v>1</v>
+      </c>
+      <c r="G575" s="5" t="s">
         <v>2134</v>
       </c>
-      <c r="H575" s="22"/>
-      <c r="I575" s="22" t="s">
+      <c r="I575" s="5" t="s">
         <v>2135</v>
       </c>
-      <c r="J575" s="22"/>
-      <c r="K575" s="22"/>
-      <c r="L575" s="22">
+      <c r="L575" s="5">
         <v>-31</v>
       </c>
-      <c r="M575" s="22">
-        <v>0</v>
-      </c>
-      <c r="N575" s="22">
-        <v>0</v>
-      </c>
-      <c r="O575" s="22" t="s">
+      <c r="M575" s="5">
+        <v>0</v>
+      </c>
+      <c r="N575" s="5">
+        <v>0</v>
+      </c>
+      <c r="O575" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P575" s="22">
+      <c r="P575" s="5">
         <v>8800</v>
       </c>
-      <c r="Q575" s="22" t="s">
+      <c r="Q575" s="5" t="s">
         <v>2136</v>
       </c>
-      <c r="R575" s="66" t="s">
+      <c r="R575" s="68" t="s">
         <v>2137</v>
       </c>
-      <c r="S575" s="22"/>
-      <c r="T575" s="22"/>
-      <c r="U575" s="22"/>
-      <c r="V575" s="22"/>
-      <c r="W575" s="22" t="s">
+      <c r="W575" s="5" t="s">
         <v>2138</v>
       </c>
-      <c r="X575" s="22">
+      <c r="X575" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y575" s="22">
+      <c r="Y575" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z575" s="22">
+      <c r="Z575" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH575" s="5">
@@ -48998,59 +49069,49 @@
       <c r="A576" s="5">
         <v>575</v>
       </c>
-      <c r="B576" s="22">
+      <c r="B576" s="5">
         <v>10492</v>
       </c>
-      <c r="C576" s="22"/>
-      <c r="D576" s="22"/>
-      <c r="E576" s="22"/>
-      <c r="F576" s="22">
-        <v>1</v>
-      </c>
-      <c r="G576" s="22" t="s">
+      <c r="F576" s="5">
+        <v>1</v>
+      </c>
+      <c r="G576" s="5" t="s">
         <v>2139</v>
       </c>
-      <c r="H576" s="22"/>
-      <c r="I576" s="22" t="s">
+      <c r="I576" s="5" t="s">
         <v>2140</v>
       </c>
-      <c r="J576" s="22"/>
-      <c r="K576" s="22"/>
-      <c r="L576" s="22">
+      <c r="L576" s="5">
         <v>-31</v>
       </c>
-      <c r="M576" s="22">
-        <v>0</v>
-      </c>
-      <c r="N576" s="22">
-        <v>0</v>
-      </c>
-      <c r="O576" s="22" t="s">
+      <c r="M576" s="5">
+        <v>0</v>
+      </c>
+      <c r="N576" s="5">
+        <v>0</v>
+      </c>
+      <c r="O576" s="5" t="s">
         <v>2141</v>
       </c>
-      <c r="P576" s="22">
+      <c r="P576" s="5">
         <v>17800</v>
       </c>
-      <c r="Q576" s="22" t="s">
+      <c r="Q576" s="5" t="s">
         <v>2142</v>
       </c>
-      <c r="R576" s="66" t="s">
+      <c r="R576" s="68" t="s">
         <v>2143</v>
       </c>
-      <c r="S576" s="22"/>
-      <c r="T576" s="22"/>
-      <c r="U576" s="22"/>
-      <c r="V576" s="22"/>
-      <c r="W576" s="22" t="s">
+      <c r="W576" s="5" t="s">
         <v>2138</v>
       </c>
-      <c r="X576" s="22">
+      <c r="X576" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y576" s="22">
+      <c r="Y576" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z576" s="22">
+      <c r="Z576" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH576" s="5">
@@ -49070,59 +49131,49 @@
       <c r="A577" s="5">
         <v>576</v>
       </c>
-      <c r="B577" s="22">
+      <c r="B577" s="5">
         <v>10493</v>
       </c>
-      <c r="C577" s="22"/>
-      <c r="D577" s="22"/>
-      <c r="E577" s="22"/>
-      <c r="F577" s="22">
-        <v>1</v>
-      </c>
-      <c r="G577" s="22" t="s">
+      <c r="F577" s="5">
+        <v>1</v>
+      </c>
+      <c r="G577" s="5" t="s">
         <v>2144</v>
       </c>
-      <c r="H577" s="22"/>
-      <c r="I577" s="22" t="s">
+      <c r="I577" s="5" t="s">
         <v>2145</v>
       </c>
-      <c r="J577" s="22"/>
-      <c r="K577" s="22"/>
-      <c r="L577" s="22">
+      <c r="L577" s="5">
         <v>-31</v>
       </c>
-      <c r="M577" s="22">
-        <v>0</v>
-      </c>
-      <c r="N577" s="22">
-        <v>0</v>
-      </c>
-      <c r="O577" s="22" t="s">
+      <c r="M577" s="5">
+        <v>0</v>
+      </c>
+      <c r="N577" s="5">
+        <v>0</v>
+      </c>
+      <c r="O577" s="5" t="s">
         <v>2141</v>
       </c>
-      <c r="P577" s="22">
+      <c r="P577" s="5">
         <v>44800</v>
       </c>
-      <c r="Q577" s="22" t="s">
+      <c r="Q577" s="5" t="s">
         <v>2146</v>
       </c>
-      <c r="R577" s="66" t="s">
+      <c r="R577" s="68" t="s">
         <v>2147</v>
       </c>
-      <c r="S577" s="22"/>
-      <c r="T577" s="22"/>
-      <c r="U577" s="22"/>
-      <c r="V577" s="22"/>
-      <c r="W577" s="22" t="s">
+      <c r="W577" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="X577" s="22">
+      <c r="X577" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y577" s="22">
+      <c r="Y577" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z577" s="22">
+      <c r="Z577" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH577" s="5">
@@ -49142,59 +49193,49 @@
       <c r="A578" s="5">
         <v>577</v>
       </c>
-      <c r="B578" s="22">
+      <c r="B578" s="5">
         <v>10494</v>
       </c>
-      <c r="C578" s="22"/>
-      <c r="D578" s="22"/>
-      <c r="E578" s="22"/>
-      <c r="F578" s="22">
-        <v>1</v>
-      </c>
-      <c r="G578" s="22" t="s">
+      <c r="F578" s="5">
+        <v>1</v>
+      </c>
+      <c r="G578" s="5" t="s">
         <v>2148</v>
       </c>
-      <c r="H578" s="22"/>
-      <c r="I578" s="22" t="s">
+      <c r="I578" s="5" t="s">
         <v>2149</v>
       </c>
-      <c r="J578" s="22"/>
-      <c r="K578" s="22"/>
-      <c r="L578" s="22">
+      <c r="L578" s="5">
         <v>-31</v>
       </c>
-      <c r="M578" s="22">
-        <v>0</v>
-      </c>
-      <c r="N578" s="22">
-        <v>0</v>
-      </c>
-      <c r="O578" s="22" t="s">
+      <c r="M578" s="5">
+        <v>0</v>
+      </c>
+      <c r="N578" s="5">
+        <v>0</v>
+      </c>
+      <c r="O578" s="5" t="s">
         <v>2141</v>
       </c>
-      <c r="P578" s="22">
+      <c r="P578" s="5">
         <v>89800</v>
       </c>
-      <c r="Q578" s="22" t="s">
+      <c r="Q578" s="5" t="s">
         <v>2150</v>
       </c>
-      <c r="R578" s="66" t="s">
+      <c r="R578" s="68" t="s">
         <v>2151</v>
       </c>
-      <c r="S578" s="22"/>
-      <c r="T578" s="22"/>
-      <c r="U578" s="22"/>
-      <c r="V578" s="22"/>
-      <c r="W578" s="22" t="s">
+      <c r="W578" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="X578" s="22">
+      <c r="X578" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y578" s="22">
+      <c r="Y578" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z578" s="22">
+      <c r="Z578" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH578" s="5">
@@ -49214,59 +49255,49 @@
       <c r="A579" s="5">
         <v>578</v>
       </c>
-      <c r="B579" s="22">
+      <c r="B579" s="5">
         <v>10495</v>
       </c>
-      <c r="C579" s="22"/>
-      <c r="D579" s="22"/>
-      <c r="E579" s="22"/>
-      <c r="F579" s="22">
-        <v>1</v>
-      </c>
-      <c r="G579" s="22" t="s">
+      <c r="F579" s="5">
+        <v>1</v>
+      </c>
+      <c r="G579" s="5" t="s">
         <v>2152</v>
       </c>
-      <c r="H579" s="22"/>
-      <c r="I579" s="22" t="s">
+      <c r="I579" s="5" t="s">
         <v>2153</v>
       </c>
-      <c r="J579" s="22"/>
-      <c r="K579" s="22"/>
-      <c r="L579" s="22">
+      <c r="L579" s="5">
         <v>-31</v>
       </c>
-      <c r="M579" s="22">
-        <v>0</v>
-      </c>
-      <c r="N579" s="22">
-        <v>0</v>
-      </c>
-      <c r="O579" s="22" t="s">
+      <c r="M579" s="5">
+        <v>0</v>
+      </c>
+      <c r="N579" s="5">
+        <v>0</v>
+      </c>
+      <c r="O579" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P579" s="22">
+      <c r="P579" s="5">
         <v>229800</v>
       </c>
-      <c r="Q579" s="22" t="s">
+      <c r="Q579" s="5" t="s">
         <v>2154</v>
       </c>
-      <c r="R579" s="66" t="s">
+      <c r="R579" s="68" t="s">
         <v>2155</v>
       </c>
-      <c r="S579" s="22"/>
-      <c r="T579" s="22"/>
-      <c r="U579" s="22"/>
-      <c r="V579" s="22"/>
-      <c r="W579" s="22" t="s">
+      <c r="W579" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="X579" s="22">
+      <c r="X579" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y579" s="22">
+      <c r="Y579" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z579" s="22">
+      <c r="Z579" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH579" s="5">
@@ -49319,7 +49350,7 @@
       <c r="Q580" s="5" t="s">
         <v>2163</v>
       </c>
-      <c r="R580" s="68" t="s">
+      <c r="R580" s="66" t="s">
         <v>2164</v>
       </c>
       <c r="W580" s="6" t="s">
@@ -49338,6 +49369,396 @@
         <v>1</v>
       </c>
       <c r="AI580" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A581" s="22">
+        <v>580</v>
+      </c>
+      <c r="B581" s="22">
+        <v>10497</v>
+      </c>
+      <c r="F581" s="22">
+        <v>1</v>
+      </c>
+      <c r="G581" s="22" t="s">
+        <v>2166</v>
+      </c>
+      <c r="I581" s="22" t="s">
+        <v>2167</v>
+      </c>
+      <c r="J581" s="22" t="s">
+        <v>2168</v>
+      </c>
+      <c r="L581" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M581" s="22">
+        <v>0</v>
+      </c>
+      <c r="N581" s="22">
+        <v>0</v>
+      </c>
+      <c r="O581" s="22" t="s">
+        <v>2169</v>
+      </c>
+      <c r="P581" s="22">
+        <v>49800</v>
+      </c>
+      <c r="Q581" s="22" t="s">
+        <v>2182</v>
+      </c>
+      <c r="R581" s="67" t="s">
+        <v>2183</v>
+      </c>
+      <c r="W581" s="22" t="s">
+        <v>2170</v>
+      </c>
+      <c r="X581" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y581" s="22">
+        <v>1615852800</v>
+      </c>
+      <c r="Z581" s="22">
+        <v>1616428799</v>
+      </c>
+      <c r="AH581" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI581" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL581" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM581" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A582" s="22">
+        <v>581</v>
+      </c>
+      <c r="B582" s="22">
+        <v>10498</v>
+      </c>
+      <c r="F582" s="22">
+        <v>1</v>
+      </c>
+      <c r="G582" s="22" t="s">
+        <v>2166</v>
+      </c>
+      <c r="I582" s="22" t="s">
+        <v>2171</v>
+      </c>
+      <c r="J582" s="22" t="s">
+        <v>2172</v>
+      </c>
+      <c r="L582" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M582" s="22">
+        <v>0</v>
+      </c>
+      <c r="N582" s="22">
+        <v>0</v>
+      </c>
+      <c r="O582" s="22" t="s">
+        <v>2169</v>
+      </c>
+      <c r="P582" s="22">
+        <v>19800</v>
+      </c>
+      <c r="Q582" s="22" t="s">
+        <v>2182</v>
+      </c>
+      <c r="R582" s="67" t="s">
+        <v>2184</v>
+      </c>
+      <c r="W582" s="22" t="s">
+        <v>2170</v>
+      </c>
+      <c r="X582" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y582" s="22">
+        <v>1615852800</v>
+      </c>
+      <c r="Z582" s="22">
+        <v>1616428799</v>
+      </c>
+      <c r="AH582" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI582" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL582" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM582" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A583" s="22">
+        <v>582</v>
+      </c>
+      <c r="B583" s="22">
+        <v>10499</v>
+      </c>
+      <c r="F583" s="22">
+        <v>1</v>
+      </c>
+      <c r="G583" s="22" t="s">
+        <v>2166</v>
+      </c>
+      <c r="I583" s="22" t="s">
+        <v>2173</v>
+      </c>
+      <c r="J583" s="22" t="s">
+        <v>2174</v>
+      </c>
+      <c r="L583" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M583" s="22">
+        <v>0</v>
+      </c>
+      <c r="N583" s="22">
+        <v>0</v>
+      </c>
+      <c r="O583" s="22" t="s">
+        <v>2169</v>
+      </c>
+      <c r="P583" s="22">
+        <v>9800</v>
+      </c>
+      <c r="Q583" s="22" t="s">
+        <v>2181</v>
+      </c>
+      <c r="R583" s="67" t="s">
+        <v>2185</v>
+      </c>
+      <c r="W583" s="22" t="s">
+        <v>2170</v>
+      </c>
+      <c r="X583" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y583" s="22">
+        <v>1615852800</v>
+      </c>
+      <c r="Z583" s="22">
+        <v>1616428799</v>
+      </c>
+      <c r="AH583" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI583" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL583" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM583" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A584" s="22">
+        <v>583</v>
+      </c>
+      <c r="B584" s="22">
+        <v>10500</v>
+      </c>
+      <c r="F584" s="22">
+        <v>1</v>
+      </c>
+      <c r="G584" s="22" t="s">
+        <v>2166</v>
+      </c>
+      <c r="I584" s="22" t="s">
+        <v>2175</v>
+      </c>
+      <c r="J584" s="22" t="s">
+        <v>2176</v>
+      </c>
+      <c r="L584" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M584" s="22">
+        <v>0</v>
+      </c>
+      <c r="N584" s="22">
+        <v>0</v>
+      </c>
+      <c r="O584" s="22" t="s">
+        <v>2169</v>
+      </c>
+      <c r="P584" s="22">
+        <v>4800</v>
+      </c>
+      <c r="Q584" s="22" t="s">
+        <v>2181</v>
+      </c>
+      <c r="R584" s="67" t="s">
+        <v>2186</v>
+      </c>
+      <c r="W584" s="22" t="s">
+        <v>2170</v>
+      </c>
+      <c r="X584" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y584" s="22">
+        <v>1615852800</v>
+      </c>
+      <c r="Z584" s="22">
+        <v>1616428799</v>
+      </c>
+      <c r="AH584" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI584" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL584" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM584" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A585" s="22">
+        <v>584</v>
+      </c>
+      <c r="B585" s="22">
+        <v>10501</v>
+      </c>
+      <c r="F585" s="22">
+        <v>1</v>
+      </c>
+      <c r="G585" s="22" t="s">
+        <v>2166</v>
+      </c>
+      <c r="I585" s="22" t="s">
+        <v>2177</v>
+      </c>
+      <c r="J585" s="22" t="s">
+        <v>2178</v>
+      </c>
+      <c r="L585" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M585" s="22">
+        <v>0</v>
+      </c>
+      <c r="N585" s="22">
+        <v>0</v>
+      </c>
+      <c r="O585" s="22" t="s">
+        <v>2169</v>
+      </c>
+      <c r="P585" s="22">
+        <v>2000</v>
+      </c>
+      <c r="Q585" s="22" t="s">
+        <v>2181</v>
+      </c>
+      <c r="R585" s="67" t="s">
+        <v>2187</v>
+      </c>
+      <c r="W585" s="22" t="s">
+        <v>2170</v>
+      </c>
+      <c r="X585" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y585" s="22">
+        <v>1615852800</v>
+      </c>
+      <c r="Z585" s="22">
+        <v>1616428799</v>
+      </c>
+      <c r="AH585" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI585" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL585" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM585" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A586" s="22">
+        <v>585</v>
+      </c>
+      <c r="B586" s="22">
+        <v>10502</v>
+      </c>
+      <c r="F586" s="22">
+        <v>1</v>
+      </c>
+      <c r="G586" s="22" t="s">
+        <v>2166</v>
+      </c>
+      <c r="I586" s="22" t="s">
+        <v>2179</v>
+      </c>
+      <c r="J586" s="22" t="s">
+        <v>2180</v>
+      </c>
+      <c r="L586" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M586" s="22">
+        <v>0</v>
+      </c>
+      <c r="N586" s="22">
+        <v>0</v>
+      </c>
+      <c r="O586" s="22" t="s">
+        <v>2169</v>
+      </c>
+      <c r="P586" s="22">
+        <v>600</v>
+      </c>
+      <c r="Q586" s="22" t="s">
+        <v>2182</v>
+      </c>
+      <c r="R586" s="67" t="s">
+        <v>2188</v>
+      </c>
+      <c r="W586" s="22" t="s">
+        <v>2170</v>
+      </c>
+      <c r="X586" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y586" s="22">
+        <v>1615852800</v>
+      </c>
+      <c r="Z586" s="22">
+        <v>1616428799</v>
+      </c>
+      <c r="AH586" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI586" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL586" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM586" s="22">
         <v>1</v>
       </c>
     </row>

--- a/config_Release/shoping_config_vivo.xlsx
+++ b/config_Release/shoping_config_vivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -9436,7 +9436,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9638,11 +9638,14 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -12137,10 +12140,10 @@
   <dimension ref="A1:AN586"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="N554" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="V533" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q582" sqref="Q582"/>
+      <selection pane="bottomRight" activeCell="Z544" sqref="Z544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -46804,458 +46807,458 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A542" s="5">
+    <row r="542" spans="1:39" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A542" s="22">
         <v>541</v>
       </c>
-      <c r="B542" s="5">
+      <c r="B542" s="22">
         <v>10458</v>
       </c>
-      <c r="F542" s="5">
-        <v>0</v>
-      </c>
-      <c r="G542" s="5" t="s">
+      <c r="F542" s="22">
+        <v>1</v>
+      </c>
+      <c r="G542" s="22" t="s">
         <v>1332</v>
       </c>
-      <c r="I542" s="5" t="s">
+      <c r="I542" s="22" t="s">
         <v>2058</v>
       </c>
-      <c r="J542" s="5" t="s">
+      <c r="J542" s="22" t="s">
         <v>2059</v>
       </c>
-      <c r="L542" s="5">
+      <c r="L542" s="22">
         <v>-31</v>
       </c>
-      <c r="M542" s="5">
-        <v>0</v>
-      </c>
-      <c r="N542" s="5">
-        <v>0</v>
-      </c>
-      <c r="O542" s="5" t="s">
+      <c r="M542" s="22">
+        <v>0</v>
+      </c>
+      <c r="N542" s="22">
+        <v>0</v>
+      </c>
+      <c r="O542" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="P542" s="5">
+      <c r="P542" s="22">
         <v>99800</v>
       </c>
-      <c r="Q542" s="5" t="s">
+      <c r="Q542" s="22" t="s">
         <v>1809</v>
       </c>
-      <c r="R542" s="10" t="s">
+      <c r="R542" s="65" t="s">
         <v>2060</v>
       </c>
-      <c r="W542" s="5" t="s">
+      <c r="W542" s="22" t="s">
         <v>1358</v>
       </c>
-      <c r="X542" s="5">
+      <c r="X542" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y542" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z542" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH542" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI542" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL542" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM542" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="543" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A543" s="5">
+      <c r="Y542" s="69">
+        <v>1616457600</v>
+      </c>
+      <c r="Z542" s="69">
+        <v>1617033599</v>
+      </c>
+      <c r="AH542" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI542" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL542" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM542" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:39" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A543" s="22">
         <v>542</v>
       </c>
-      <c r="B543" s="5">
+      <c r="B543" s="22">
         <v>10459</v>
       </c>
-      <c r="F543" s="5">
-        <v>0</v>
-      </c>
-      <c r="G543" s="5" t="s">
+      <c r="F543" s="22">
+        <v>1</v>
+      </c>
+      <c r="G543" s="22" t="s">
         <v>1456</v>
       </c>
-      <c r="I543" s="5" t="s">
+      <c r="I543" s="22" t="s">
         <v>2057</v>
       </c>
-      <c r="J543" s="5" t="s">
+      <c r="J543" s="22" t="s">
         <v>2061</v>
       </c>
-      <c r="L543" s="5">
+      <c r="L543" s="22">
         <v>-31</v>
       </c>
-      <c r="M543" s="5">
-        <v>0</v>
-      </c>
-      <c r="N543" s="5">
-        <v>0</v>
-      </c>
-      <c r="O543" s="5" t="s">
+      <c r="M543" s="22">
+        <v>0</v>
+      </c>
+      <c r="N543" s="22">
+        <v>0</v>
+      </c>
+      <c r="O543" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="P543" s="5">
+      <c r="P543" s="22">
         <v>49800</v>
       </c>
-      <c r="Q543" s="5" t="s">
+      <c r="Q543" s="22" t="s">
         <v>1809</v>
       </c>
-      <c r="R543" s="10" t="s">
+      <c r="R543" s="65" t="s">
         <v>2062</v>
       </c>
-      <c r="W543" s="5" t="s">
+      <c r="W543" s="22" t="s">
         <v>527</v>
       </c>
-      <c r="X543" s="5">
+      <c r="X543" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y543" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z543" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH543" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI543" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL543" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM543" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="544" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A544" s="5">
+      <c r="Y543" s="69">
+        <v>1616457600</v>
+      </c>
+      <c r="Z543" s="69">
+        <v>1617033599</v>
+      </c>
+      <c r="AH543" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI543" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL543" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM543" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:39" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A544" s="22">
         <v>543</v>
       </c>
-      <c r="B544" s="5">
+      <c r="B544" s="22">
         <v>10460</v>
       </c>
-      <c r="F544" s="5">
-        <v>0</v>
-      </c>
-      <c r="G544" s="5" t="s">
+      <c r="F544" s="22">
+        <v>1</v>
+      </c>
+      <c r="G544" s="22" t="s">
         <v>1460</v>
       </c>
-      <c r="I544" s="5" t="s">
+      <c r="I544" s="22" t="s">
         <v>2057</v>
       </c>
-      <c r="J544" s="5" t="s">
+      <c r="J544" s="22" t="s">
         <v>1469</v>
       </c>
-      <c r="L544" s="5">
+      <c r="L544" s="22">
         <v>-31</v>
       </c>
-      <c r="M544" s="5">
-        <v>0</v>
-      </c>
-      <c r="N544" s="5">
-        <v>0</v>
-      </c>
-      <c r="O544" s="5" t="s">
+      <c r="M544" s="22">
+        <v>0</v>
+      </c>
+      <c r="N544" s="22">
+        <v>0</v>
+      </c>
+      <c r="O544" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="P544" s="5">
+      <c r="P544" s="22">
         <v>29800</v>
       </c>
-      <c r="Q544" s="5" t="s">
+      <c r="Q544" s="22" t="s">
         <v>1463</v>
       </c>
-      <c r="R544" s="10" t="s">
+      <c r="R544" s="65" t="s">
         <v>1352</v>
       </c>
-      <c r="W544" s="5" t="s">
+      <c r="W544" s="22" t="s">
         <v>527</v>
       </c>
-      <c r="X544" s="5">
+      <c r="X544" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y544" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z544" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH544" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI544" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL544" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM544" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="545" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A545" s="5">
+      <c r="Y544" s="69">
+        <v>1616457600</v>
+      </c>
+      <c r="Z544" s="69">
+        <v>1617033599</v>
+      </c>
+      <c r="AH544" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI544" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL544" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM544" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:39" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A545" s="22">
         <v>544</v>
       </c>
-      <c r="B545" s="5">
+      <c r="B545" s="22">
         <v>10461</v>
       </c>
-      <c r="F545" s="5">
-        <v>0</v>
-      </c>
-      <c r="G545" s="5" t="s">
+      <c r="F545" s="22">
+        <v>1</v>
+      </c>
+      <c r="G545" s="22" t="s">
         <v>2063</v>
       </c>
-      <c r="I545" s="5" t="s">
+      <c r="I545" s="22" t="s">
         <v>2057</v>
       </c>
-      <c r="J545" s="5" t="s">
+      <c r="J545" s="22" t="s">
         <v>1465</v>
       </c>
-      <c r="L545" s="5">
+      <c r="L545" s="22">
         <v>-31</v>
       </c>
-      <c r="M545" s="5">
-        <v>0</v>
-      </c>
-      <c r="N545" s="5">
-        <v>0</v>
-      </c>
-      <c r="O545" s="5" t="s">
+      <c r="M545" s="22">
+        <v>0</v>
+      </c>
+      <c r="N545" s="22">
+        <v>0</v>
+      </c>
+      <c r="O545" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="P545" s="5">
+      <c r="P545" s="22">
         <v>19800</v>
       </c>
-      <c r="Q545" s="5" t="s">
+      <c r="Q545" s="22" t="s">
         <v>1463</v>
       </c>
-      <c r="R545" s="10" t="s">
+      <c r="R545" s="65" t="s">
         <v>1348</v>
       </c>
-      <c r="W545" s="5" t="s">
+      <c r="W545" s="22" t="s">
         <v>527</v>
       </c>
-      <c r="X545" s="5">
+      <c r="X545" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y545" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z545" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH545" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI545" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL545" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM545" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="546" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A546" s="5">
+      <c r="Y545" s="69">
+        <v>1616457600</v>
+      </c>
+      <c r="Z545" s="69">
+        <v>1617033599</v>
+      </c>
+      <c r="AH545" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI545" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL545" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM545" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:39" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A546" s="22">
         <v>545</v>
       </c>
-      <c r="B546" s="5">
+      <c r="B546" s="22">
         <v>10462</v>
       </c>
-      <c r="F546" s="5">
-        <v>0</v>
-      </c>
-      <c r="G546" s="5" t="s">
+      <c r="F546" s="22">
+        <v>1</v>
+      </c>
+      <c r="G546" s="22" t="s">
         <v>1349</v>
       </c>
-      <c r="I546" s="5" t="s">
+      <c r="I546" s="22" t="s">
         <v>2057</v>
       </c>
-      <c r="J546" s="5" t="s">
+      <c r="J546" s="22" t="s">
         <v>1462</v>
       </c>
-      <c r="L546" s="5">
+      <c r="L546" s="22">
         <v>-31</v>
       </c>
-      <c r="M546" s="5">
-        <v>0</v>
-      </c>
-      <c r="N546" s="5">
-        <v>0</v>
-      </c>
-      <c r="O546" s="5" t="s">
+      <c r="M546" s="22">
+        <v>0</v>
+      </c>
+      <c r="N546" s="22">
+        <v>0</v>
+      </c>
+      <c r="O546" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="P546" s="5">
+      <c r="P546" s="22">
         <v>9800</v>
       </c>
-      <c r="Q546" s="5" t="s">
+      <c r="Q546" s="22" t="s">
         <v>2064</v>
       </c>
-      <c r="R546" s="10" t="s">
+      <c r="R546" s="65" t="s">
         <v>1345</v>
       </c>
-      <c r="W546" s="5" t="s">
+      <c r="W546" s="22" t="s">
         <v>527</v>
       </c>
-      <c r="X546" s="5">
+      <c r="X546" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y546" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z546" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH546" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI546" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL546" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM546" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="547" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A547" s="5">
+      <c r="Y546" s="69">
+        <v>1616457600</v>
+      </c>
+      <c r="Z546" s="69">
+        <v>1617033599</v>
+      </c>
+      <c r="AH546" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI546" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL546" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM546" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:39" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A547" s="22">
         <v>546</v>
       </c>
-      <c r="B547" s="5">
+      <c r="B547" s="22">
         <v>10463</v>
       </c>
-      <c r="F547" s="5">
-        <v>0</v>
-      </c>
-      <c r="G547" s="5" t="s">
+      <c r="F547" s="22">
+        <v>1</v>
+      </c>
+      <c r="G547" s="22" t="s">
         <v>2065</v>
       </c>
-      <c r="I547" s="5" t="s">
+      <c r="I547" s="22" t="s">
         <v>2058</v>
       </c>
-      <c r="J547" s="5" t="s">
+      <c r="J547" s="22" t="s">
         <v>1458</v>
       </c>
-      <c r="L547" s="5">
+      <c r="L547" s="22">
         <v>-31</v>
       </c>
-      <c r="M547" s="5">
-        <v>0</v>
-      </c>
-      <c r="N547" s="5">
-        <v>0</v>
-      </c>
-      <c r="O547" s="5" t="s">
+      <c r="M547" s="22">
+        <v>0</v>
+      </c>
+      <c r="N547" s="22">
+        <v>0</v>
+      </c>
+      <c r="O547" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="P547" s="5">
+      <c r="P547" s="22">
         <v>4800</v>
       </c>
-      <c r="Q547" s="5" t="s">
+      <c r="Q547" s="22" t="s">
         <v>1795</v>
       </c>
-      <c r="R547" s="10" t="s">
+      <c r="R547" s="65" t="s">
         <v>2066</v>
       </c>
-      <c r="W547" s="5" t="s">
+      <c r="W547" s="22" t="s">
         <v>527</v>
       </c>
-      <c r="X547" s="5">
+      <c r="X547" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y547" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z547" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH547" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI547" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL547" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM547" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="548" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A548" s="5">
+      <c r="Y547" s="69">
+        <v>1616457600</v>
+      </c>
+      <c r="Z547" s="69">
+        <v>1617033599</v>
+      </c>
+      <c r="AH547" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI547" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL547" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM547" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:39" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A548" s="22">
         <v>547</v>
       </c>
-      <c r="B548" s="5">
+      <c r="B548" s="22">
         <v>10464</v>
       </c>
-      <c r="F548" s="5">
-        <v>0</v>
-      </c>
-      <c r="G548" s="5" t="s">
+      <c r="F548" s="22">
+        <v>1</v>
+      </c>
+      <c r="G548" s="22" t="s">
         <v>1359</v>
       </c>
-      <c r="I548" s="5" t="s">
+      <c r="I548" s="22" t="s">
         <v>2057</v>
       </c>
-      <c r="J548" s="5" t="s">
+      <c r="J548" s="22" t="s">
         <v>2067</v>
       </c>
-      <c r="L548" s="5">
+      <c r="L548" s="22">
         <v>-31</v>
       </c>
-      <c r="M548" s="5">
-        <v>0</v>
-      </c>
-      <c r="N548" s="5">
-        <v>0</v>
-      </c>
-      <c r="O548" s="5" t="s">
+      <c r="M548" s="22">
+        <v>0</v>
+      </c>
+      <c r="N548" s="22">
+        <v>0</v>
+      </c>
+      <c r="O548" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="P548" s="5">
+      <c r="P548" s="22">
         <v>1800</v>
       </c>
-      <c r="Q548" s="5" t="s">
+      <c r="Q548" s="22" t="s">
         <v>2068</v>
       </c>
-      <c r="R548" s="10" t="s">
+      <c r="R548" s="65" t="s">
         <v>1336</v>
       </c>
-      <c r="W548" s="5" t="s">
+      <c r="W548" s="22" t="s">
         <v>527</v>
       </c>
-      <c r="X548" s="5">
+      <c r="X548" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y548" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z548" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH548" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI548" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL548" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM548" s="5">
+      <c r="Y548" s="69">
+        <v>1616457600</v>
+      </c>
+      <c r="Z548" s="69">
+        <v>1617033599</v>
+      </c>
+      <c r="AH548" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI548" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL548" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM548" s="22">
         <v>1</v>
       </c>
     </row>
@@ -48975,7 +48978,7 @@
       <c r="Q574" s="5" t="s">
         <v>2131</v>
       </c>
-      <c r="R574" s="68" t="s">
+      <c r="R574" s="67" t="s">
         <v>2132</v>
       </c>
       <c r="W574" s="5" t="s">
@@ -49037,7 +49040,7 @@
       <c r="Q575" s="5" t="s">
         <v>2136</v>
       </c>
-      <c r="R575" s="68" t="s">
+      <c r="R575" s="67" t="s">
         <v>2137</v>
       </c>
       <c r="W575" s="5" t="s">
@@ -49099,7 +49102,7 @@
       <c r="Q576" s="5" t="s">
         <v>2142</v>
       </c>
-      <c r="R576" s="68" t="s">
+      <c r="R576" s="67" t="s">
         <v>2143</v>
       </c>
       <c r="W576" s="5" t="s">
@@ -49161,7 +49164,7 @@
       <c r="Q577" s="5" t="s">
         <v>2146</v>
       </c>
-      <c r="R577" s="68" t="s">
+      <c r="R577" s="67" t="s">
         <v>2147</v>
       </c>
       <c r="W577" s="5" t="s">
@@ -49223,7 +49226,7 @@
       <c r="Q578" s="5" t="s">
         <v>2150</v>
       </c>
-      <c r="R578" s="68" t="s">
+      <c r="R578" s="67" t="s">
         <v>2151</v>
       </c>
       <c r="W578" s="5" t="s">
@@ -49285,7 +49288,7 @@
       <c r="Q579" s="5" t="s">
         <v>2154</v>
       </c>
-      <c r="R579" s="68" t="s">
+      <c r="R579" s="67" t="s">
         <v>2155</v>
       </c>
       <c r="W579" s="5" t="s">
@@ -49372,393 +49375,393 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A581" s="22">
+    <row r="581" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A581" s="5">
         <v>580</v>
       </c>
-      <c r="B581" s="22">
+      <c r="B581" s="5">
         <v>10497</v>
       </c>
-      <c r="F581" s="22">
-        <v>1</v>
-      </c>
-      <c r="G581" s="22" t="s">
+      <c r="F581" s="5">
+        <v>0</v>
+      </c>
+      <c r="G581" s="5" t="s">
         <v>2166</v>
       </c>
-      <c r="I581" s="22" t="s">
+      <c r="I581" s="5" t="s">
         <v>2167</v>
       </c>
-      <c r="J581" s="22" t="s">
+      <c r="J581" s="5" t="s">
         <v>2168</v>
       </c>
-      <c r="L581" s="22">
+      <c r="L581" s="5">
         <v>-31</v>
       </c>
-      <c r="M581" s="22">
-        <v>0</v>
-      </c>
-      <c r="N581" s="22">
-        <v>0</v>
-      </c>
-      <c r="O581" s="22" t="s">
+      <c r="M581" s="5">
+        <v>0</v>
+      </c>
+      <c r="N581" s="5">
+        <v>0</v>
+      </c>
+      <c r="O581" s="5" t="s">
         <v>2169</v>
       </c>
-      <c r="P581" s="22">
+      <c r="P581" s="5">
         <v>49800</v>
       </c>
-      <c r="Q581" s="22" t="s">
+      <c r="Q581" s="5" t="s">
         <v>2182</v>
       </c>
-      <c r="R581" s="67" t="s">
+      <c r="R581" s="68" t="s">
         <v>2183</v>
       </c>
-      <c r="W581" s="22" t="s">
+      <c r="W581" s="5" t="s">
         <v>2170</v>
       </c>
-      <c r="X581" s="22">
+      <c r="X581" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y581" s="22">
+      <c r="Y581" s="5">
         <v>1615852800</v>
       </c>
-      <c r="Z581" s="22">
+      <c r="Z581" s="5">
         <v>1616428799</v>
       </c>
-      <c r="AH581" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI581" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL581" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM581" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="582" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A582" s="22">
+      <c r="AH581" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI581" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL581" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM581" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A582" s="5">
         <v>581</v>
       </c>
-      <c r="B582" s="22">
+      <c r="B582" s="5">
         <v>10498</v>
       </c>
-      <c r="F582" s="22">
-        <v>1</v>
-      </c>
-      <c r="G582" s="22" t="s">
+      <c r="F582" s="5">
+        <v>0</v>
+      </c>
+      <c r="G582" s="5" t="s">
         <v>2166</v>
       </c>
-      <c r="I582" s="22" t="s">
+      <c r="I582" s="5" t="s">
         <v>2171</v>
       </c>
-      <c r="J582" s="22" t="s">
+      <c r="J582" s="5" t="s">
         <v>2172</v>
       </c>
-      <c r="L582" s="22">
+      <c r="L582" s="5">
         <v>-31</v>
       </c>
-      <c r="M582" s="22">
-        <v>0</v>
-      </c>
-      <c r="N582" s="22">
-        <v>0</v>
-      </c>
-      <c r="O582" s="22" t="s">
+      <c r="M582" s="5">
+        <v>0</v>
+      </c>
+      <c r="N582" s="5">
+        <v>0</v>
+      </c>
+      <c r="O582" s="5" t="s">
         <v>2169</v>
       </c>
-      <c r="P582" s="22">
+      <c r="P582" s="5">
         <v>19800</v>
       </c>
-      <c r="Q582" s="22" t="s">
+      <c r="Q582" s="5" t="s">
         <v>2182</v>
       </c>
-      <c r="R582" s="67" t="s">
+      <c r="R582" s="68" t="s">
         <v>2184</v>
       </c>
-      <c r="W582" s="22" t="s">
+      <c r="W582" s="5" t="s">
         <v>2170</v>
       </c>
-      <c r="X582" s="22">
+      <c r="X582" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y582" s="22">
+      <c r="Y582" s="5">
         <v>1615852800</v>
       </c>
-      <c r="Z582" s="22">
+      <c r="Z582" s="5">
         <v>1616428799</v>
       </c>
-      <c r="AH582" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI582" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL582" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM582" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="583" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A583" s="22">
+      <c r="AH582" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI582" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL582" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM582" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A583" s="5">
         <v>582</v>
       </c>
-      <c r="B583" s="22">
+      <c r="B583" s="5">
         <v>10499</v>
       </c>
-      <c r="F583" s="22">
-        <v>1</v>
-      </c>
-      <c r="G583" s="22" t="s">
+      <c r="F583" s="5">
+        <v>0</v>
+      </c>
+      <c r="G583" s="5" t="s">
         <v>2166</v>
       </c>
-      <c r="I583" s="22" t="s">
+      <c r="I583" s="5" t="s">
         <v>2173</v>
       </c>
-      <c r="J583" s="22" t="s">
+      <c r="J583" s="5" t="s">
         <v>2174</v>
       </c>
-      <c r="L583" s="22">
+      <c r="L583" s="5">
         <v>-31</v>
       </c>
-      <c r="M583" s="22">
-        <v>0</v>
-      </c>
-      <c r="N583" s="22">
-        <v>0</v>
-      </c>
-      <c r="O583" s="22" t="s">
+      <c r="M583" s="5">
+        <v>0</v>
+      </c>
+      <c r="N583" s="5">
+        <v>0</v>
+      </c>
+      <c r="O583" s="5" t="s">
         <v>2169</v>
       </c>
-      <c r="P583" s="22">
+      <c r="P583" s="5">
         <v>9800</v>
       </c>
-      <c r="Q583" s="22" t="s">
+      <c r="Q583" s="5" t="s">
         <v>2181</v>
       </c>
-      <c r="R583" s="67" t="s">
+      <c r="R583" s="68" t="s">
         <v>2185</v>
       </c>
-      <c r="W583" s="22" t="s">
+      <c r="W583" s="5" t="s">
         <v>2170</v>
       </c>
-      <c r="X583" s="22">
+      <c r="X583" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y583" s="22">
+      <c r="Y583" s="5">
         <v>1615852800</v>
       </c>
-      <c r="Z583" s="22">
+      <c r="Z583" s="5">
         <v>1616428799</v>
       </c>
-      <c r="AH583" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI583" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL583" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM583" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="584" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A584" s="22">
+      <c r="AH583" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI583" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL583" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM583" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A584" s="5">
         <v>583</v>
       </c>
-      <c r="B584" s="22">
+      <c r="B584" s="5">
         <v>10500</v>
       </c>
-      <c r="F584" s="22">
-        <v>1</v>
-      </c>
-      <c r="G584" s="22" t="s">
+      <c r="F584" s="5">
+        <v>0</v>
+      </c>
+      <c r="G584" s="5" t="s">
         <v>2166</v>
       </c>
-      <c r="I584" s="22" t="s">
+      <c r="I584" s="5" t="s">
         <v>2175</v>
       </c>
-      <c r="J584" s="22" t="s">
+      <c r="J584" s="5" t="s">
         <v>2176</v>
       </c>
-      <c r="L584" s="22">
+      <c r="L584" s="5">
         <v>-31</v>
       </c>
-      <c r="M584" s="22">
-        <v>0</v>
-      </c>
-      <c r="N584" s="22">
-        <v>0</v>
-      </c>
-      <c r="O584" s="22" t="s">
+      <c r="M584" s="5">
+        <v>0</v>
+      </c>
+      <c r="N584" s="5">
+        <v>0</v>
+      </c>
+      <c r="O584" s="5" t="s">
         <v>2169</v>
       </c>
-      <c r="P584" s="22">
+      <c r="P584" s="5">
         <v>4800</v>
       </c>
-      <c r="Q584" s="22" t="s">
+      <c r="Q584" s="5" t="s">
         <v>2181</v>
       </c>
-      <c r="R584" s="67" t="s">
+      <c r="R584" s="68" t="s">
         <v>2186</v>
       </c>
-      <c r="W584" s="22" t="s">
+      <c r="W584" s="5" t="s">
         <v>2170</v>
       </c>
-      <c r="X584" s="22">
+      <c r="X584" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y584" s="22">
+      <c r="Y584" s="5">
         <v>1615852800</v>
       </c>
-      <c r="Z584" s="22">
+      <c r="Z584" s="5">
         <v>1616428799</v>
       </c>
-      <c r="AH584" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI584" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL584" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM584" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="585" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A585" s="22">
+      <c r="AH584" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI584" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL584" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM584" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A585" s="5">
         <v>584</v>
       </c>
-      <c r="B585" s="22">
+      <c r="B585" s="5">
         <v>10501</v>
       </c>
-      <c r="F585" s="22">
-        <v>1</v>
-      </c>
-      <c r="G585" s="22" t="s">
+      <c r="F585" s="5">
+        <v>0</v>
+      </c>
+      <c r="G585" s="5" t="s">
         <v>2166</v>
       </c>
-      <c r="I585" s="22" t="s">
+      <c r="I585" s="5" t="s">
         <v>2177</v>
       </c>
-      <c r="J585" s="22" t="s">
+      <c r="J585" s="5" t="s">
         <v>2178</v>
       </c>
-      <c r="L585" s="22">
+      <c r="L585" s="5">
         <v>-31</v>
       </c>
-      <c r="M585" s="22">
-        <v>0</v>
-      </c>
-      <c r="N585" s="22">
-        <v>0</v>
-      </c>
-      <c r="O585" s="22" t="s">
+      <c r="M585" s="5">
+        <v>0</v>
+      </c>
+      <c r="N585" s="5">
+        <v>0</v>
+      </c>
+      <c r="O585" s="5" t="s">
         <v>2169</v>
       </c>
-      <c r="P585" s="22">
+      <c r="P585" s="5">
         <v>2000</v>
       </c>
-      <c r="Q585" s="22" t="s">
+      <c r="Q585" s="5" t="s">
         <v>2181</v>
       </c>
-      <c r="R585" s="67" t="s">
+      <c r="R585" s="68" t="s">
         <v>2187</v>
       </c>
-      <c r="W585" s="22" t="s">
+      <c r="W585" s="5" t="s">
         <v>2170</v>
       </c>
-      <c r="X585" s="22">
+      <c r="X585" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y585" s="22">
+      <c r="Y585" s="5">
         <v>1615852800</v>
       </c>
-      <c r="Z585" s="22">
+      <c r="Z585" s="5">
         <v>1616428799</v>
       </c>
-      <c r="AH585" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI585" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL585" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM585" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="586" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A586" s="22">
+      <c r="AH585" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI585" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL585" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM585" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A586" s="5">
         <v>585</v>
       </c>
-      <c r="B586" s="22">
+      <c r="B586" s="5">
         <v>10502</v>
       </c>
-      <c r="F586" s="22">
-        <v>1</v>
-      </c>
-      <c r="G586" s="22" t="s">
+      <c r="F586" s="5">
+        <v>0</v>
+      </c>
+      <c r="G586" s="5" t="s">
         <v>2166</v>
       </c>
-      <c r="I586" s="22" t="s">
+      <c r="I586" s="5" t="s">
         <v>2179</v>
       </c>
-      <c r="J586" s="22" t="s">
+      <c r="J586" s="5" t="s">
         <v>2180</v>
       </c>
-      <c r="L586" s="22">
+      <c r="L586" s="5">
         <v>-31</v>
       </c>
-      <c r="M586" s="22">
-        <v>0</v>
-      </c>
-      <c r="N586" s="22">
-        <v>0</v>
-      </c>
-      <c r="O586" s="22" t="s">
+      <c r="M586" s="5">
+        <v>0</v>
+      </c>
+      <c r="N586" s="5">
+        <v>0</v>
+      </c>
+      <c r="O586" s="5" t="s">
         <v>2169</v>
       </c>
-      <c r="P586" s="22">
+      <c r="P586" s="5">
         <v>600</v>
       </c>
-      <c r="Q586" s="22" t="s">
+      <c r="Q586" s="5" t="s">
         <v>2182</v>
       </c>
-      <c r="R586" s="67" t="s">
+      <c r="R586" s="68" t="s">
         <v>2188</v>
       </c>
-      <c r="W586" s="22" t="s">
+      <c r="W586" s="5" t="s">
         <v>2170</v>
       </c>
-      <c r="X586" s="22">
+      <c r="X586" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y586" s="22">
+      <c r="Y586" s="5">
         <v>1615852800</v>
       </c>
-      <c r="Z586" s="22">
+      <c r="Z586" s="5">
         <v>1616428799</v>
       </c>
-      <c r="AH586" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI586" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL586" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM586" s="22">
+      <c r="AH586" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI586" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL586" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM586" s="5">
         <v>1</v>
       </c>
     </row>

--- a/config_Release/shoping_config_vivo.xlsx
+++ b/config_Release/shoping_config_vivo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4718" uniqueCount="2189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4806" uniqueCount="2225">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -9254,6 +9254,150 @@
   </si>
   <si>
     <t>600000,1,20,20</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙腾祈福·龙腾礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费小额，新玩家</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","10万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,100000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币","20万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,200000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费小额，新玩家</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","30万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,300000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙腾祈福·龙腾礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1-v3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","7万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,70000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1-v3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"300万金币","12万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,120000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","18万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,180000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v4-v7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v4-v7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","38万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","38万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,380000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","80万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v8-v12</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","180万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,1800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "buy_gift_shop_nor" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "buy_gift_shop_v1" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "buy_gift_shop_v4" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "buy_gift_shop_v8" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9332,7 +9476,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9393,6 +9537,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -9436,7 +9586,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9646,6 +9796,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -12137,13 +12293,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN586"/>
+  <dimension ref="A1:AN598"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V533" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="V575" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z544" sqref="Z544"/>
+      <selection pane="bottomRight" activeCell="F610" sqref="F610"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -49765,6 +49921,822 @@
         <v>1</v>
       </c>
     </row>
+    <row r="587" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A587" s="70">
+        <v>586</v>
+      </c>
+      <c r="B587" s="70">
+        <v>10503</v>
+      </c>
+      <c r="F587" s="70">
+        <v>1</v>
+      </c>
+      <c r="G587" s="70" t="s">
+        <v>2189</v>
+      </c>
+      <c r="I587" s="70" t="s">
+        <v>2190</v>
+      </c>
+      <c r="J587" s="70" t="s">
+        <v>2191</v>
+      </c>
+      <c r="L587" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M587" s="70">
+        <v>0</v>
+      </c>
+      <c r="N587" s="70">
+        <v>0</v>
+      </c>
+      <c r="O587" s="70" t="s">
+        <v>1643</v>
+      </c>
+      <c r="P587" s="70">
+        <v>600</v>
+      </c>
+      <c r="Q587" s="70" t="s">
+        <v>2192</v>
+      </c>
+      <c r="R587" s="71" t="s">
+        <v>2193</v>
+      </c>
+      <c r="W587" s="70" t="s">
+        <v>2194</v>
+      </c>
+      <c r="X587" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y587" s="70">
+        <v>1617667200</v>
+      </c>
+      <c r="Z587" s="70">
+        <v>1618243199</v>
+      </c>
+      <c r="AA587" s="70">
+        <v>76</v>
+      </c>
+      <c r="AH587" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI587" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL587" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM587" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A588" s="70">
+        <v>587</v>
+      </c>
+      <c r="B588" s="70">
+        <v>10504</v>
+      </c>
+      <c r="F588" s="70">
+        <v>1</v>
+      </c>
+      <c r="G588" s="70" t="s">
+        <v>2189</v>
+      </c>
+      <c r="I588" s="70" t="s">
+        <v>2190</v>
+      </c>
+      <c r="J588" s="70" t="s">
+        <v>2195</v>
+      </c>
+      <c r="L588" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M588" s="70">
+        <v>0</v>
+      </c>
+      <c r="N588" s="70">
+        <v>0</v>
+      </c>
+      <c r="O588" s="70" t="s">
+        <v>1643</v>
+      </c>
+      <c r="P588" s="70">
+        <v>1000</v>
+      </c>
+      <c r="Q588" s="70" t="s">
+        <v>2196</v>
+      </c>
+      <c r="R588" s="71" t="s">
+        <v>2197</v>
+      </c>
+      <c r="W588" s="70" t="s">
+        <v>2194</v>
+      </c>
+      <c r="X588" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y588" s="70">
+        <v>1617667200</v>
+      </c>
+      <c r="Z588" s="70">
+        <v>1618243199</v>
+      </c>
+      <c r="AA588" s="70">
+        <v>76</v>
+      </c>
+      <c r="AH588" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI588" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL588" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM588" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A589" s="70">
+        <v>588</v>
+      </c>
+      <c r="B589" s="70">
+        <v>10505</v>
+      </c>
+      <c r="F589" s="70">
+        <v>1</v>
+      </c>
+      <c r="G589" s="70" t="s">
+        <v>2189</v>
+      </c>
+      <c r="I589" s="70" t="s">
+        <v>2198</v>
+      </c>
+      <c r="J589" s="70" t="s">
+        <v>2199</v>
+      </c>
+      <c r="L589" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M589" s="70">
+        <v>0</v>
+      </c>
+      <c r="N589" s="70">
+        <v>0</v>
+      </c>
+      <c r="O589" s="70" t="s">
+        <v>1643</v>
+      </c>
+      <c r="P589" s="70">
+        <v>1800</v>
+      </c>
+      <c r="Q589" s="70" t="s">
+        <v>2196</v>
+      </c>
+      <c r="R589" s="71" t="s">
+        <v>2200</v>
+      </c>
+      <c r="W589" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="X589" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y589" s="70">
+        <v>1617667200</v>
+      </c>
+      <c r="Z589" s="70">
+        <v>1618243199</v>
+      </c>
+      <c r="AA589" s="70">
+        <v>76</v>
+      </c>
+      <c r="AH589" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI589" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL589" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM589" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A590" s="70">
+        <v>589</v>
+      </c>
+      <c r="B590" s="70">
+        <v>10506</v>
+      </c>
+      <c r="F590" s="70">
+        <v>1</v>
+      </c>
+      <c r="G590" s="70" t="s">
+        <v>2201</v>
+      </c>
+      <c r="I590" s="70" t="s">
+        <v>2202</v>
+      </c>
+      <c r="J590" s="70" t="s">
+        <v>2203</v>
+      </c>
+      <c r="L590" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M590" s="70">
+        <v>0</v>
+      </c>
+      <c r="N590" s="70">
+        <v>0</v>
+      </c>
+      <c r="O590" s="70" t="s">
+        <v>2204</v>
+      </c>
+      <c r="P590" s="70">
+        <v>1800</v>
+      </c>
+      <c r="Q590" s="70" t="s">
+        <v>2196</v>
+      </c>
+      <c r="R590" s="71" t="s">
+        <v>2205</v>
+      </c>
+      <c r="W590" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="X590" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y590" s="70">
+        <v>1617667200</v>
+      </c>
+      <c r="Z590" s="70">
+        <v>1618243199</v>
+      </c>
+      <c r="AA590" s="70">
+        <v>77</v>
+      </c>
+      <c r="AH590" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI590" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL590" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM590" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A591" s="70">
+        <v>590</v>
+      </c>
+      <c r="B591" s="70">
+        <v>10507</v>
+      </c>
+      <c r="F591" s="70">
+        <v>1</v>
+      </c>
+      <c r="G591" s="70" t="s">
+        <v>2201</v>
+      </c>
+      <c r="I591" s="70" t="s">
+        <v>2206</v>
+      </c>
+      <c r="J591" s="70" t="s">
+        <v>2207</v>
+      </c>
+      <c r="L591" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M591" s="70">
+        <v>0</v>
+      </c>
+      <c r="N591" s="70">
+        <v>0</v>
+      </c>
+      <c r="O591" s="70" t="s">
+        <v>1643</v>
+      </c>
+      <c r="P591" s="70">
+        <v>3000</v>
+      </c>
+      <c r="Q591" s="70" t="s">
+        <v>2192</v>
+      </c>
+      <c r="R591" s="71" t="s">
+        <v>2208</v>
+      </c>
+      <c r="W591" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="X591" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y591" s="70">
+        <v>1617667200</v>
+      </c>
+      <c r="Z591" s="70">
+        <v>1618243199</v>
+      </c>
+      <c r="AA591" s="70">
+        <v>77</v>
+      </c>
+      <c r="AH591" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI591" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL591" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM591" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A592" s="70">
+        <v>591</v>
+      </c>
+      <c r="B592" s="70">
+        <v>10508</v>
+      </c>
+      <c r="F592" s="70">
+        <v>1</v>
+      </c>
+      <c r="G592" s="70" t="s">
+        <v>2201</v>
+      </c>
+      <c r="I592" s="70" t="s">
+        <v>2202</v>
+      </c>
+      <c r="J592" s="70" t="s">
+        <v>2209</v>
+      </c>
+      <c r="L592" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M592" s="70">
+        <v>0</v>
+      </c>
+      <c r="N592" s="70">
+        <v>0</v>
+      </c>
+      <c r="O592" s="70" t="s">
+        <v>2204</v>
+      </c>
+      <c r="P592" s="70">
+        <v>4800</v>
+      </c>
+      <c r="Q592" s="70" t="s">
+        <v>2196</v>
+      </c>
+      <c r="R592" s="71" t="s">
+        <v>2210</v>
+      </c>
+      <c r="W592" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="X592" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y592" s="70">
+        <v>1617667200</v>
+      </c>
+      <c r="Z592" s="70">
+        <v>1618243199</v>
+      </c>
+      <c r="AA592" s="70">
+        <v>77</v>
+      </c>
+      <c r="AH592" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI592" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL592" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM592" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A593" s="70">
+        <v>592</v>
+      </c>
+      <c r="B593" s="70">
+        <v>10509</v>
+      </c>
+      <c r="F593" s="70">
+        <v>1</v>
+      </c>
+      <c r="G593" s="70" t="s">
+        <v>2189</v>
+      </c>
+      <c r="I593" s="70" t="s">
+        <v>2211</v>
+      </c>
+      <c r="J593" s="70" t="s">
+        <v>2209</v>
+      </c>
+      <c r="L593" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M593" s="70">
+        <v>0</v>
+      </c>
+      <c r="N593" s="70">
+        <v>0</v>
+      </c>
+      <c r="O593" s="70" t="s">
+        <v>1643</v>
+      </c>
+      <c r="P593" s="70">
+        <v>4800</v>
+      </c>
+      <c r="Q593" s="70" t="s">
+        <v>2192</v>
+      </c>
+      <c r="R593" s="71" t="s">
+        <v>2210</v>
+      </c>
+      <c r="W593" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="X593" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y593" s="70">
+        <v>1617667200</v>
+      </c>
+      <c r="Z593" s="70">
+        <v>1618243199</v>
+      </c>
+      <c r="AA593" s="70">
+        <v>78</v>
+      </c>
+      <c r="AH593" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI593" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL593" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM593" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A594" s="70">
+        <v>593</v>
+      </c>
+      <c r="B594" s="70">
+        <v>10510</v>
+      </c>
+      <c r="F594" s="70">
+        <v>1</v>
+      </c>
+      <c r="G594" s="70" t="s">
+        <v>2189</v>
+      </c>
+      <c r="I594" s="70" t="s">
+        <v>2212</v>
+      </c>
+      <c r="J594" s="70" t="s">
+        <v>2214</v>
+      </c>
+      <c r="L594" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M594" s="70">
+        <v>0</v>
+      </c>
+      <c r="N594" s="70">
+        <v>0</v>
+      </c>
+      <c r="O594" s="70" t="s">
+        <v>2204</v>
+      </c>
+      <c r="P594" s="70">
+        <v>9800</v>
+      </c>
+      <c r="Q594" s="70" t="s">
+        <v>2196</v>
+      </c>
+      <c r="R594" s="71" t="s">
+        <v>2215</v>
+      </c>
+      <c r="W594" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="X594" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y594" s="70">
+        <v>1617667200</v>
+      </c>
+      <c r="Z594" s="70">
+        <v>1618243199</v>
+      </c>
+      <c r="AA594" s="70">
+        <v>78</v>
+      </c>
+      <c r="AH594" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI594" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL594" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM594" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A595" s="70">
+        <v>594</v>
+      </c>
+      <c r="B595" s="70">
+        <v>10511</v>
+      </c>
+      <c r="F595" s="70">
+        <v>1</v>
+      </c>
+      <c r="G595" s="70" t="s">
+        <v>2189</v>
+      </c>
+      <c r="I595" s="70" t="s">
+        <v>2212</v>
+      </c>
+      <c r="J595" s="70" t="s">
+        <v>2216</v>
+      </c>
+      <c r="L595" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M595" s="70">
+        <v>0</v>
+      </c>
+      <c r="N595" s="70">
+        <v>0</v>
+      </c>
+      <c r="O595" s="70" t="s">
+        <v>2204</v>
+      </c>
+      <c r="P595" s="70">
+        <v>19800</v>
+      </c>
+      <c r="Q595" s="70" t="s">
+        <v>2196</v>
+      </c>
+      <c r="R595" s="71" t="s">
+        <v>2217</v>
+      </c>
+      <c r="W595" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="X595" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y595" s="70">
+        <v>1617667200</v>
+      </c>
+      <c r="Z595" s="70">
+        <v>1618243199</v>
+      </c>
+      <c r="AA595" s="70">
+        <v>78</v>
+      </c>
+      <c r="AH595" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI595" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL595" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM595" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A596" s="70">
+        <v>595</v>
+      </c>
+      <c r="B596" s="70">
+        <v>10512</v>
+      </c>
+      <c r="F596" s="70">
+        <v>1</v>
+      </c>
+      <c r="G596" s="70" t="s">
+        <v>2189</v>
+      </c>
+      <c r="I596" s="70" t="s">
+        <v>2218</v>
+      </c>
+      <c r="J596" s="70" t="s">
+        <v>2213</v>
+      </c>
+      <c r="L596" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M596" s="70">
+        <v>0</v>
+      </c>
+      <c r="N596" s="70">
+        <v>0</v>
+      </c>
+      <c r="O596" s="70" t="s">
+        <v>2204</v>
+      </c>
+      <c r="P596" s="70">
+        <v>9800</v>
+      </c>
+      <c r="Q596" s="70" t="s">
+        <v>2196</v>
+      </c>
+      <c r="R596" s="71" t="s">
+        <v>2215</v>
+      </c>
+      <c r="W596" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="X596" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y596" s="70">
+        <v>1617667200</v>
+      </c>
+      <c r="Z596" s="70">
+        <v>1618243199</v>
+      </c>
+      <c r="AA596" s="70">
+        <v>79</v>
+      </c>
+      <c r="AH596" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI596" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL596" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM596" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A597" s="70">
+        <v>596</v>
+      </c>
+      <c r="B597" s="70">
+        <v>10513</v>
+      </c>
+      <c r="F597" s="70">
+        <v>1</v>
+      </c>
+      <c r="G597" s="70" t="s">
+        <v>2189</v>
+      </c>
+      <c r="I597" s="70" t="s">
+        <v>2218</v>
+      </c>
+      <c r="J597" s="70" t="s">
+        <v>2216</v>
+      </c>
+      <c r="L597" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M597" s="70">
+        <v>0</v>
+      </c>
+      <c r="N597" s="70">
+        <v>0</v>
+      </c>
+      <c r="O597" s="70" t="s">
+        <v>2204</v>
+      </c>
+      <c r="P597" s="70">
+        <v>19800</v>
+      </c>
+      <c r="Q597" s="70" t="s">
+        <v>2196</v>
+      </c>
+      <c r="R597" s="71" t="s">
+        <v>2217</v>
+      </c>
+      <c r="W597" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="X597" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y597" s="70">
+        <v>1617667200</v>
+      </c>
+      <c r="Z597" s="70">
+        <v>1618243199</v>
+      </c>
+      <c r="AA597" s="70">
+        <v>79</v>
+      </c>
+      <c r="AH597" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI597" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL597" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM597" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A598" s="70">
+        <v>597</v>
+      </c>
+      <c r="B598" s="70">
+        <v>10514</v>
+      </c>
+      <c r="F598" s="70">
+        <v>1</v>
+      </c>
+      <c r="G598" s="70" t="s">
+        <v>2189</v>
+      </c>
+      <c r="I598" s="70" t="s">
+        <v>2218</v>
+      </c>
+      <c r="J598" s="70" t="s">
+        <v>2219</v>
+      </c>
+      <c r="L598" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M598" s="70">
+        <v>0</v>
+      </c>
+      <c r="N598" s="70">
+        <v>0</v>
+      </c>
+      <c r="O598" s="70" t="s">
+        <v>2204</v>
+      </c>
+      <c r="P598" s="70">
+        <v>49800</v>
+      </c>
+      <c r="Q598" s="70" t="s">
+        <v>2196</v>
+      </c>
+      <c r="R598" s="71" t="s">
+        <v>2220</v>
+      </c>
+      <c r="W598" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="X598" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y598" s="70">
+        <v>1617667200</v>
+      </c>
+      <c r="Z598" s="70">
+        <v>1618243199</v>
+      </c>
+      <c r="AA598" s="70">
+        <v>79</v>
+      </c>
+      <c r="AH598" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI598" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL598" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM598" s="70">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -49775,10 +50747,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -50855,6 +51827,62 @@
         <v>1</v>
       </c>
       <c r="D76" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="12">
+        <v>76</v>
+      </c>
+      <c r="B77" s="56" t="s">
+        <v>2221</v>
+      </c>
+      <c r="C77" s="57">
+        <v>1</v>
+      </c>
+      <c r="D77" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="12">
+        <v>77</v>
+      </c>
+      <c r="B78" s="56" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C78" s="57">
+        <v>1</v>
+      </c>
+      <c r="D78" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="12">
+        <v>78</v>
+      </c>
+      <c r="B79" s="56" t="s">
+        <v>2223</v>
+      </c>
+      <c r="C79" s="57">
+        <v>1</v>
+      </c>
+      <c r="D79" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="12">
+        <v>79</v>
+      </c>
+      <c r="B80" s="56" t="s">
+        <v>2224</v>
+      </c>
+      <c r="C80" s="57">
+        <v>1</v>
+      </c>
+      <c r="D80" s="57">
         <v>0</v>
       </c>
     </row>

--- a/config_Release/shoping_config_vivo.xlsx
+++ b/config_Release/shoping_config_vivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4806" uniqueCount="2225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4894" uniqueCount="2258">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -9398,6 +9398,128 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "buy_gift_shop_v8" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包</t>
+  </si>
+  <si>
+    <t>"60万金币","6万鱼币",</t>
+  </si>
+  <si>
+    <t>600000,60000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费小额，新玩家</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币","12万鱼币",</t>
+  </si>
+  <si>
+    <t>"180万金币","18万鱼币",</t>
+  </si>
+  <si>
+    <t>v1-v3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","7万鱼币",</t>
+  </si>
+  <si>
+    <t>"300万金币","12万鱼币",</t>
+  </si>
+  <si>
+    <t>3000000,120000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","18万鱼币",</t>
+  </si>
+  <si>
+    <t>4800000,180000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v4-v7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","38万鱼币",</t>
+  </si>
+  <si>
+    <t>"1980万金币","80万鱼币",</t>
+  </si>
+  <si>
+    <t>"4980万金币","180万鱼币",</t>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,120000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,180000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,70000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v4-v7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,380000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v8-v12</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,1800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "integral_gift_buy_nor" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "integral_gift_buy_v1" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "integral_gift_buy_v4" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "integral_gift_buy_v8" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9476,7 +9598,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9543,6 +9665,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -9586,7 +9714,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9801,6 +9929,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12293,13 +12424,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN598"/>
+  <dimension ref="A1:AN610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V575" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="V584" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F610" sqref="F610"/>
+      <selection pane="bottomRight" activeCell="A599" sqref="A599:XFD610"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -49921,819 +50052,1635 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A587" s="70">
+    <row r="587" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A587" s="5">
         <v>586</v>
       </c>
-      <c r="B587" s="70">
+      <c r="B587" s="5">
         <v>10503</v>
       </c>
-      <c r="F587" s="70">
-        <v>1</v>
-      </c>
-      <c r="G587" s="70" t="s">
+      <c r="F587" s="5">
+        <v>0</v>
+      </c>
+      <c r="G587" s="5" t="s">
         <v>2189</v>
       </c>
-      <c r="I587" s="70" t="s">
+      <c r="I587" s="5" t="s">
         <v>2190</v>
       </c>
-      <c r="J587" s="70" t="s">
+      <c r="J587" s="5" t="s">
         <v>2191</v>
       </c>
-      <c r="L587" s="70">
+      <c r="L587" s="5">
         <v>-31</v>
       </c>
-      <c r="M587" s="70">
-        <v>0</v>
-      </c>
-      <c r="N587" s="70">
-        <v>0</v>
-      </c>
-      <c r="O587" s="70" t="s">
+      <c r="M587" s="5">
+        <v>0</v>
+      </c>
+      <c r="N587" s="5">
+        <v>0</v>
+      </c>
+      <c r="O587" s="5" t="s">
         <v>1643</v>
       </c>
-      <c r="P587" s="70">
+      <c r="P587" s="5">
         <v>600</v>
       </c>
-      <c r="Q587" s="70" t="s">
+      <c r="Q587" s="5" t="s">
         <v>2192</v>
       </c>
-      <c r="R587" s="71" t="s">
+      <c r="R587" s="68" t="s">
         <v>2193</v>
       </c>
-      <c r="W587" s="70" t="s">
+      <c r="W587" s="5" t="s">
         <v>2194</v>
       </c>
-      <c r="X587" s="70">
+      <c r="X587" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y587" s="70">
+      <c r="Y587" s="5">
         <v>1617667200</v>
       </c>
-      <c r="Z587" s="70">
+      <c r="Z587" s="5">
         <v>1618243199</v>
       </c>
-      <c r="AA587" s="70">
+      <c r="AA587" s="5">
         <v>76</v>
       </c>
-      <c r="AH587" s="70">
-        <v>1</v>
-      </c>
-      <c r="AI587" s="70">
-        <v>1</v>
-      </c>
-      <c r="AL587" s="70">
-        <v>1</v>
-      </c>
-      <c r="AM587" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="588" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A588" s="70">
+      <c r="AH587" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI587" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL587" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM587" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A588" s="5">
         <v>587</v>
       </c>
-      <c r="B588" s="70">
+      <c r="B588" s="5">
         <v>10504</v>
       </c>
-      <c r="F588" s="70">
-        <v>1</v>
-      </c>
-      <c r="G588" s="70" t="s">
+      <c r="F588" s="5">
+        <v>0</v>
+      </c>
+      <c r="G588" s="5" t="s">
         <v>2189</v>
       </c>
-      <c r="I588" s="70" t="s">
+      <c r="I588" s="5" t="s">
         <v>2190</v>
       </c>
-      <c r="J588" s="70" t="s">
+      <c r="J588" s="5" t="s">
         <v>2195</v>
       </c>
-      <c r="L588" s="70">
+      <c r="L588" s="5">
         <v>-31</v>
       </c>
-      <c r="M588" s="70">
-        <v>0</v>
-      </c>
-      <c r="N588" s="70">
-        <v>0</v>
-      </c>
-      <c r="O588" s="70" t="s">
+      <c r="M588" s="5">
+        <v>0</v>
+      </c>
+      <c r="N588" s="5">
+        <v>0</v>
+      </c>
+      <c r="O588" s="5" t="s">
         <v>1643</v>
       </c>
-      <c r="P588" s="70">
+      <c r="P588" s="5">
         <v>1000</v>
       </c>
-      <c r="Q588" s="70" t="s">
+      <c r="Q588" s="5" t="s">
         <v>2196</v>
       </c>
-      <c r="R588" s="71" t="s">
+      <c r="R588" s="68" t="s">
         <v>2197</v>
       </c>
-      <c r="W588" s="70" t="s">
+      <c r="W588" s="5" t="s">
         <v>2194</v>
       </c>
-      <c r="X588" s="70">
+      <c r="X588" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y588" s="70">
+      <c r="Y588" s="5">
         <v>1617667200</v>
       </c>
-      <c r="Z588" s="70">
+      <c r="Z588" s="5">
         <v>1618243199</v>
       </c>
-      <c r="AA588" s="70">
+      <c r="AA588" s="5">
         <v>76</v>
       </c>
-      <c r="AH588" s="70">
-        <v>1</v>
-      </c>
-      <c r="AI588" s="70">
-        <v>1</v>
-      </c>
-      <c r="AL588" s="70">
-        <v>1</v>
-      </c>
-      <c r="AM588" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="589" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A589" s="70">
+      <c r="AH588" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI588" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL588" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM588" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A589" s="5">
         <v>588</v>
       </c>
-      <c r="B589" s="70">
+      <c r="B589" s="5">
         <v>10505</v>
       </c>
-      <c r="F589" s="70">
-        <v>1</v>
-      </c>
-      <c r="G589" s="70" t="s">
+      <c r="F589" s="5">
+        <v>0</v>
+      </c>
+      <c r="G589" s="5" t="s">
         <v>2189</v>
       </c>
-      <c r="I589" s="70" t="s">
+      <c r="I589" s="5" t="s">
         <v>2198</v>
       </c>
-      <c r="J589" s="70" t="s">
+      <c r="J589" s="5" t="s">
         <v>2199</v>
       </c>
-      <c r="L589" s="70">
+      <c r="L589" s="5">
         <v>-31</v>
       </c>
-      <c r="M589" s="70">
-        <v>0</v>
-      </c>
-      <c r="N589" s="70">
-        <v>0</v>
-      </c>
-      <c r="O589" s="70" t="s">
+      <c r="M589" s="5">
+        <v>0</v>
+      </c>
+      <c r="N589" s="5">
+        <v>0</v>
+      </c>
+      <c r="O589" s="5" t="s">
         <v>1643</v>
       </c>
-      <c r="P589" s="70">
+      <c r="P589" s="5">
         <v>1800</v>
       </c>
-      <c r="Q589" s="70" t="s">
+      <c r="Q589" s="5" t="s">
         <v>2196</v>
       </c>
-      <c r="R589" s="71" t="s">
+      <c r="R589" s="68" t="s">
         <v>2200</v>
       </c>
-      <c r="W589" s="70" t="s">
+      <c r="W589" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X589" s="70">
+      <c r="X589" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y589" s="70">
+      <c r="Y589" s="5">
         <v>1617667200</v>
       </c>
-      <c r="Z589" s="70">
+      <c r="Z589" s="5">
         <v>1618243199</v>
       </c>
-      <c r="AA589" s="70">
+      <c r="AA589" s="5">
         <v>76</v>
       </c>
-      <c r="AH589" s="70">
-        <v>1</v>
-      </c>
-      <c r="AI589" s="70">
-        <v>1</v>
-      </c>
-      <c r="AL589" s="70">
-        <v>1</v>
-      </c>
-      <c r="AM589" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="590" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A590" s="70">
+      <c r="AH589" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI589" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL589" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM589" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A590" s="5">
         <v>589</v>
       </c>
-      <c r="B590" s="70">
+      <c r="B590" s="5">
         <v>10506</v>
       </c>
-      <c r="F590" s="70">
-        <v>1</v>
-      </c>
-      <c r="G590" s="70" t="s">
+      <c r="F590" s="5">
+        <v>0</v>
+      </c>
+      <c r="G590" s="5" t="s">
         <v>2201</v>
       </c>
-      <c r="I590" s="70" t="s">
+      <c r="I590" s="5" t="s">
         <v>2202</v>
       </c>
-      <c r="J590" s="70" t="s">
+      <c r="J590" s="5" t="s">
         <v>2203</v>
       </c>
-      <c r="L590" s="70">
+      <c r="L590" s="5">
         <v>-31</v>
       </c>
-      <c r="M590" s="70">
-        <v>0</v>
-      </c>
-      <c r="N590" s="70">
-        <v>0</v>
-      </c>
-      <c r="O590" s="70" t="s">
+      <c r="M590" s="5">
+        <v>0</v>
+      </c>
+      <c r="N590" s="5">
+        <v>0</v>
+      </c>
+      <c r="O590" s="5" t="s">
         <v>2204</v>
       </c>
-      <c r="P590" s="70">
+      <c r="P590" s="5">
         <v>1800</v>
       </c>
-      <c r="Q590" s="70" t="s">
+      <c r="Q590" s="5" t="s">
         <v>2196</v>
       </c>
-      <c r="R590" s="71" t="s">
+      <c r="R590" s="68" t="s">
         <v>2205</v>
       </c>
-      <c r="W590" s="70" t="s">
+      <c r="W590" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X590" s="70">
+      <c r="X590" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y590" s="70">
+      <c r="Y590" s="5">
         <v>1617667200</v>
       </c>
-      <c r="Z590" s="70">
+      <c r="Z590" s="5">
         <v>1618243199</v>
       </c>
-      <c r="AA590" s="70">
+      <c r="AA590" s="5">
         <v>77</v>
       </c>
-      <c r="AH590" s="70">
-        <v>1</v>
-      </c>
-      <c r="AI590" s="70">
-        <v>1</v>
-      </c>
-      <c r="AL590" s="70">
-        <v>1</v>
-      </c>
-      <c r="AM590" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="591" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A591" s="70">
+      <c r="AH590" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI590" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL590" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM590" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A591" s="5">
         <v>590</v>
       </c>
-      <c r="B591" s="70">
+      <c r="B591" s="5">
         <v>10507</v>
       </c>
-      <c r="F591" s="70">
-        <v>1</v>
-      </c>
-      <c r="G591" s="70" t="s">
+      <c r="F591" s="5">
+        <v>0</v>
+      </c>
+      <c r="G591" s="5" t="s">
         <v>2201</v>
       </c>
-      <c r="I591" s="70" t="s">
+      <c r="I591" s="5" t="s">
         <v>2206</v>
       </c>
-      <c r="J591" s="70" t="s">
+      <c r="J591" s="5" t="s">
         <v>2207</v>
       </c>
-      <c r="L591" s="70">
+      <c r="L591" s="5">
         <v>-31</v>
       </c>
-      <c r="M591" s="70">
-        <v>0</v>
-      </c>
-      <c r="N591" s="70">
-        <v>0</v>
-      </c>
-      <c r="O591" s="70" t="s">
+      <c r="M591" s="5">
+        <v>0</v>
+      </c>
+      <c r="N591" s="5">
+        <v>0</v>
+      </c>
+      <c r="O591" s="5" t="s">
         <v>1643</v>
       </c>
-      <c r="P591" s="70">
+      <c r="P591" s="5">
         <v>3000</v>
       </c>
-      <c r="Q591" s="70" t="s">
+      <c r="Q591" s="5" t="s">
         <v>2192</v>
       </c>
-      <c r="R591" s="71" t="s">
+      <c r="R591" s="68" t="s">
         <v>2208</v>
       </c>
-      <c r="W591" s="70" t="s">
+      <c r="W591" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X591" s="70">
+      <c r="X591" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y591" s="70">
+      <c r="Y591" s="5">
         <v>1617667200</v>
       </c>
-      <c r="Z591" s="70">
+      <c r="Z591" s="5">
         <v>1618243199</v>
       </c>
-      <c r="AA591" s="70">
+      <c r="AA591" s="5">
         <v>77</v>
       </c>
-      <c r="AH591" s="70">
-        <v>1</v>
-      </c>
-      <c r="AI591" s="70">
-        <v>1</v>
-      </c>
-      <c r="AL591" s="70">
-        <v>1</v>
-      </c>
-      <c r="AM591" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="592" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A592" s="70">
+      <c r="AH591" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI591" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL591" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM591" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A592" s="5">
         <v>591</v>
       </c>
-      <c r="B592" s="70">
+      <c r="B592" s="5">
         <v>10508</v>
       </c>
-      <c r="F592" s="70">
-        <v>1</v>
-      </c>
-      <c r="G592" s="70" t="s">
+      <c r="F592" s="5">
+        <v>0</v>
+      </c>
+      <c r="G592" s="5" t="s">
         <v>2201</v>
       </c>
-      <c r="I592" s="70" t="s">
+      <c r="I592" s="5" t="s">
         <v>2202</v>
       </c>
-      <c r="J592" s="70" t="s">
+      <c r="J592" s="5" t="s">
         <v>2209</v>
       </c>
-      <c r="L592" s="70">
+      <c r="L592" s="5">
         <v>-31</v>
       </c>
-      <c r="M592" s="70">
-        <v>0</v>
-      </c>
-      <c r="N592" s="70">
-        <v>0</v>
-      </c>
-      <c r="O592" s="70" t="s">
+      <c r="M592" s="5">
+        <v>0</v>
+      </c>
+      <c r="N592" s="5">
+        <v>0</v>
+      </c>
+      <c r="O592" s="5" t="s">
         <v>2204</v>
       </c>
-      <c r="P592" s="70">
+      <c r="P592" s="5">
         <v>4800</v>
       </c>
-      <c r="Q592" s="70" t="s">
+      <c r="Q592" s="5" t="s">
         <v>2196</v>
       </c>
-      <c r="R592" s="71" t="s">
+      <c r="R592" s="68" t="s">
         <v>2210</v>
       </c>
-      <c r="W592" s="70" t="s">
+      <c r="W592" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X592" s="70">
+      <c r="X592" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y592" s="70">
+      <c r="Y592" s="5">
         <v>1617667200</v>
       </c>
-      <c r="Z592" s="70">
+      <c r="Z592" s="5">
         <v>1618243199</v>
       </c>
-      <c r="AA592" s="70">
+      <c r="AA592" s="5">
         <v>77</v>
       </c>
-      <c r="AH592" s="70">
-        <v>1</v>
-      </c>
-      <c r="AI592" s="70">
-        <v>1</v>
-      </c>
-      <c r="AL592" s="70">
-        <v>1</v>
-      </c>
-      <c r="AM592" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="593" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A593" s="70">
+      <c r="AH592" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI592" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL592" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM592" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A593" s="5">
         <v>592</v>
       </c>
-      <c r="B593" s="70">
+      <c r="B593" s="5">
         <v>10509</v>
       </c>
-      <c r="F593" s="70">
-        <v>1</v>
-      </c>
-      <c r="G593" s="70" t="s">
+      <c r="F593" s="5">
+        <v>0</v>
+      </c>
+      <c r="G593" s="5" t="s">
         <v>2189</v>
       </c>
-      <c r="I593" s="70" t="s">
+      <c r="I593" s="5" t="s">
         <v>2211</v>
       </c>
-      <c r="J593" s="70" t="s">
+      <c r="J593" s="5" t="s">
         <v>2209</v>
       </c>
-      <c r="L593" s="70">
+      <c r="L593" s="5">
         <v>-31</v>
       </c>
-      <c r="M593" s="70">
-        <v>0</v>
-      </c>
-      <c r="N593" s="70">
-        <v>0</v>
-      </c>
-      <c r="O593" s="70" t="s">
+      <c r="M593" s="5">
+        <v>0</v>
+      </c>
+      <c r="N593" s="5">
+        <v>0</v>
+      </c>
+      <c r="O593" s="5" t="s">
         <v>1643</v>
       </c>
-      <c r="P593" s="70">
+      <c r="P593" s="5">
         <v>4800</v>
       </c>
-      <c r="Q593" s="70" t="s">
+      <c r="Q593" s="5" t="s">
         <v>2192</v>
       </c>
-      <c r="R593" s="71" t="s">
+      <c r="R593" s="68" t="s">
         <v>2210</v>
       </c>
-      <c r="W593" s="70" t="s">
+      <c r="W593" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X593" s="70">
+      <c r="X593" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y593" s="70">
+      <c r="Y593" s="5">
         <v>1617667200</v>
       </c>
-      <c r="Z593" s="70">
+      <c r="Z593" s="5">
         <v>1618243199</v>
       </c>
-      <c r="AA593" s="70">
+      <c r="AA593" s="5">
         <v>78</v>
       </c>
-      <c r="AH593" s="70">
-        <v>1</v>
-      </c>
-      <c r="AI593" s="70">
-        <v>1</v>
-      </c>
-      <c r="AL593" s="70">
-        <v>1</v>
-      </c>
-      <c r="AM593" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="594" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A594" s="70">
+      <c r="AH593" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI593" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL593" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM593" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A594" s="5">
         <v>593</v>
       </c>
-      <c r="B594" s="70">
+      <c r="B594" s="5">
         <v>10510</v>
       </c>
-      <c r="F594" s="70">
-        <v>1</v>
-      </c>
-      <c r="G594" s="70" t="s">
+      <c r="F594" s="5">
+        <v>0</v>
+      </c>
+      <c r="G594" s="5" t="s">
         <v>2189</v>
       </c>
-      <c r="I594" s="70" t="s">
+      <c r="I594" s="5" t="s">
         <v>2212</v>
       </c>
-      <c r="J594" s="70" t="s">
+      <c r="J594" s="5" t="s">
         <v>2214</v>
       </c>
-      <c r="L594" s="70">
+      <c r="L594" s="5">
         <v>-31</v>
       </c>
-      <c r="M594" s="70">
-        <v>0</v>
-      </c>
-      <c r="N594" s="70">
-        <v>0</v>
-      </c>
-      <c r="O594" s="70" t="s">
+      <c r="M594" s="5">
+        <v>0</v>
+      </c>
+      <c r="N594" s="5">
+        <v>0</v>
+      </c>
+      <c r="O594" s="5" t="s">
         <v>2204</v>
       </c>
-      <c r="P594" s="70">
+      <c r="P594" s="5">
         <v>9800</v>
       </c>
-      <c r="Q594" s="70" t="s">
+      <c r="Q594" s="5" t="s">
         <v>2196</v>
       </c>
-      <c r="R594" s="71" t="s">
+      <c r="R594" s="68" t="s">
         <v>2215</v>
       </c>
-      <c r="W594" s="70" t="s">
+      <c r="W594" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X594" s="70">
+      <c r="X594" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y594" s="70">
+      <c r="Y594" s="5">
         <v>1617667200</v>
       </c>
-      <c r="Z594" s="70">
+      <c r="Z594" s="5">
         <v>1618243199</v>
       </c>
-      <c r="AA594" s="70">
+      <c r="AA594" s="5">
         <v>78</v>
       </c>
-      <c r="AH594" s="70">
-        <v>1</v>
-      </c>
-      <c r="AI594" s="70">
-        <v>1</v>
-      </c>
-      <c r="AL594" s="70">
-        <v>1</v>
-      </c>
-      <c r="AM594" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="595" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A595" s="70">
+      <c r="AH594" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI594" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL594" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM594" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A595" s="5">
         <v>594</v>
       </c>
-      <c r="B595" s="70">
+      <c r="B595" s="5">
         <v>10511</v>
       </c>
-      <c r="F595" s="70">
-        <v>1</v>
-      </c>
-      <c r="G595" s="70" t="s">
+      <c r="F595" s="5">
+        <v>0</v>
+      </c>
+      <c r="G595" s="5" t="s">
         <v>2189</v>
       </c>
-      <c r="I595" s="70" t="s">
+      <c r="I595" s="5" t="s">
         <v>2212</v>
       </c>
-      <c r="J595" s="70" t="s">
+      <c r="J595" s="5" t="s">
         <v>2216</v>
       </c>
-      <c r="L595" s="70">
+      <c r="L595" s="5">
         <v>-31</v>
       </c>
-      <c r="M595" s="70">
-        <v>0</v>
-      </c>
-      <c r="N595" s="70">
-        <v>0</v>
-      </c>
-      <c r="O595" s="70" t="s">
+      <c r="M595" s="5">
+        <v>0</v>
+      </c>
+      <c r="N595" s="5">
+        <v>0</v>
+      </c>
+      <c r="O595" s="5" t="s">
         <v>2204</v>
       </c>
-      <c r="P595" s="70">
+      <c r="P595" s="5">
         <v>19800</v>
       </c>
-      <c r="Q595" s="70" t="s">
+      <c r="Q595" s="5" t="s">
         <v>2196</v>
       </c>
-      <c r="R595" s="71" t="s">
+      <c r="R595" s="68" t="s">
         <v>2217</v>
       </c>
-      <c r="W595" s="70" t="s">
+      <c r="W595" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X595" s="70">
+      <c r="X595" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y595" s="70">
+      <c r="Y595" s="5">
         <v>1617667200</v>
       </c>
-      <c r="Z595" s="70">
+      <c r="Z595" s="5">
         <v>1618243199</v>
       </c>
-      <c r="AA595" s="70">
+      <c r="AA595" s="5">
         <v>78</v>
       </c>
-      <c r="AH595" s="70">
-        <v>1</v>
-      </c>
-      <c r="AI595" s="70">
-        <v>1</v>
-      </c>
-      <c r="AL595" s="70">
-        <v>1</v>
-      </c>
-      <c r="AM595" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="596" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A596" s="70">
+      <c r="AH595" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI595" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL595" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM595" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A596" s="5">
         <v>595</v>
       </c>
-      <c r="B596" s="70">
+      <c r="B596" s="5">
         <v>10512</v>
       </c>
-      <c r="F596" s="70">
-        <v>1</v>
-      </c>
-      <c r="G596" s="70" t="s">
+      <c r="F596" s="5">
+        <v>0</v>
+      </c>
+      <c r="G596" s="5" t="s">
         <v>2189</v>
       </c>
-      <c r="I596" s="70" t="s">
+      <c r="I596" s="5" t="s">
         <v>2218</v>
       </c>
-      <c r="J596" s="70" t="s">
+      <c r="J596" s="5" t="s">
         <v>2213</v>
       </c>
-      <c r="L596" s="70">
+      <c r="L596" s="5">
         <v>-31</v>
       </c>
-      <c r="M596" s="70">
-        <v>0</v>
-      </c>
-      <c r="N596" s="70">
-        <v>0</v>
-      </c>
-      <c r="O596" s="70" t="s">
+      <c r="M596" s="5">
+        <v>0</v>
+      </c>
+      <c r="N596" s="5">
+        <v>0</v>
+      </c>
+      <c r="O596" s="5" t="s">
         <v>2204</v>
       </c>
-      <c r="P596" s="70">
+      <c r="P596" s="5">
         <v>9800</v>
       </c>
-      <c r="Q596" s="70" t="s">
+      <c r="Q596" s="5" t="s">
         <v>2196</v>
       </c>
-      <c r="R596" s="71" t="s">
+      <c r="R596" s="68" t="s">
         <v>2215</v>
       </c>
-      <c r="W596" s="70" t="s">
+      <c r="W596" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X596" s="70">
+      <c r="X596" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y596" s="70">
+      <c r="Y596" s="5">
         <v>1617667200</v>
       </c>
-      <c r="Z596" s="70">
+      <c r="Z596" s="5">
         <v>1618243199</v>
       </c>
-      <c r="AA596" s="70">
+      <c r="AA596" s="5">
         <v>79</v>
       </c>
-      <c r="AH596" s="70">
-        <v>1</v>
-      </c>
-      <c r="AI596" s="70">
-        <v>1</v>
-      </c>
-      <c r="AL596" s="70">
-        <v>1</v>
-      </c>
-      <c r="AM596" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="597" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A597" s="70">
+      <c r="AH596" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI596" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL596" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM596" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A597" s="5">
         <v>596</v>
       </c>
-      <c r="B597" s="70">
+      <c r="B597" s="5">
         <v>10513</v>
       </c>
-      <c r="F597" s="70">
-        <v>1</v>
-      </c>
-      <c r="G597" s="70" t="s">
+      <c r="F597" s="5">
+        <v>0</v>
+      </c>
+      <c r="G597" s="5" t="s">
         <v>2189</v>
       </c>
-      <c r="I597" s="70" t="s">
+      <c r="I597" s="5" t="s">
         <v>2218</v>
       </c>
-      <c r="J597" s="70" t="s">
+      <c r="J597" s="5" t="s">
         <v>2216</v>
       </c>
-      <c r="L597" s="70">
+      <c r="L597" s="5">
         <v>-31</v>
       </c>
-      <c r="M597" s="70">
-        <v>0</v>
-      </c>
-      <c r="N597" s="70">
-        <v>0</v>
-      </c>
-      <c r="O597" s="70" t="s">
+      <c r="M597" s="5">
+        <v>0</v>
+      </c>
+      <c r="N597" s="5">
+        <v>0</v>
+      </c>
+      <c r="O597" s="5" t="s">
         <v>2204</v>
       </c>
-      <c r="P597" s="70">
+      <c r="P597" s="5">
         <v>19800</v>
       </c>
-      <c r="Q597" s="70" t="s">
+      <c r="Q597" s="5" t="s">
         <v>2196</v>
       </c>
-      <c r="R597" s="71" t="s">
+      <c r="R597" s="68" t="s">
         <v>2217</v>
       </c>
-      <c r="W597" s="70" t="s">
+      <c r="W597" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X597" s="70">
+      <c r="X597" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y597" s="70">
+      <c r="Y597" s="5">
         <v>1617667200</v>
       </c>
-      <c r="Z597" s="70">
+      <c r="Z597" s="5">
         <v>1618243199</v>
       </c>
-      <c r="AA597" s="70">
+      <c r="AA597" s="5">
         <v>79</v>
       </c>
-      <c r="AH597" s="70">
-        <v>1</v>
-      </c>
-      <c r="AI597" s="70">
-        <v>1</v>
-      </c>
-      <c r="AL597" s="70">
-        <v>1</v>
-      </c>
-      <c r="AM597" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="598" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A598" s="70">
+      <c r="AH597" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI597" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL597" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM597" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A598" s="5">
         <v>597</v>
       </c>
-      <c r="B598" s="70">
+      <c r="B598" s="5">
         <v>10514</v>
       </c>
-      <c r="F598" s="70">
-        <v>1</v>
-      </c>
-      <c r="G598" s="70" t="s">
+      <c r="F598" s="5">
+        <v>0</v>
+      </c>
+      <c r="G598" s="5" t="s">
         <v>2189</v>
       </c>
-      <c r="I598" s="70" t="s">
+      <c r="I598" s="5" t="s">
         <v>2218</v>
       </c>
-      <c r="J598" s="70" t="s">
+      <c r="J598" s="5" t="s">
         <v>2219</v>
       </c>
-      <c r="L598" s="70">
+      <c r="L598" s="5">
         <v>-31</v>
       </c>
-      <c r="M598" s="70">
-        <v>0</v>
-      </c>
-      <c r="N598" s="70">
-        <v>0</v>
-      </c>
-      <c r="O598" s="70" t="s">
+      <c r="M598" s="5">
+        <v>0</v>
+      </c>
+      <c r="N598" s="5">
+        <v>0</v>
+      </c>
+      <c r="O598" s="5" t="s">
         <v>2204</v>
       </c>
-      <c r="P598" s="70">
+      <c r="P598" s="5">
         <v>49800</v>
       </c>
-      <c r="Q598" s="70" t="s">
+      <c r="Q598" s="5" t="s">
         <v>2196</v>
       </c>
-      <c r="R598" s="71" t="s">
+      <c r="R598" s="68" t="s">
         <v>2220</v>
       </c>
-      <c r="W598" s="70" t="s">
+      <c r="W598" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X598" s="70">
+      <c r="X598" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y598" s="70">
+      <c r="Y598" s="5">
         <v>1617667200</v>
       </c>
-      <c r="Z598" s="70">
+      <c r="Z598" s="5">
         <v>1618243199</v>
       </c>
-      <c r="AA598" s="70">
+      <c r="AA598" s="5">
         <v>79</v>
       </c>
-      <c r="AH598" s="70">
-        <v>1</v>
-      </c>
-      <c r="AI598" s="70">
-        <v>1</v>
-      </c>
-      <c r="AL598" s="70">
-        <v>1</v>
-      </c>
-      <c r="AM598" s="70">
+      <c r="AH598" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI598" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL598" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM598" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A599" s="70">
+        <v>598</v>
+      </c>
+      <c r="B599" s="70">
+        <v>10515</v>
+      </c>
+      <c r="F599" s="70">
+        <v>1</v>
+      </c>
+      <c r="G599" s="70" t="s">
+        <v>2225</v>
+      </c>
+      <c r="I599" s="70" t="s">
+        <v>2228</v>
+      </c>
+      <c r="J599" s="70" t="s">
+        <v>2226</v>
+      </c>
+      <c r="L599" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M599" s="70">
+        <v>0</v>
+      </c>
+      <c r="N599" s="70">
+        <v>0</v>
+      </c>
+      <c r="O599" s="70" t="s">
+        <v>2241</v>
+      </c>
+      <c r="P599" s="70">
+        <v>600</v>
+      </c>
+      <c r="Q599" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="R599" s="71" t="s">
+        <v>2227</v>
+      </c>
+      <c r="W599" s="70" t="s">
+        <v>1684</v>
+      </c>
+      <c r="X599" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y599" s="70">
+        <v>1618272000</v>
+      </c>
+      <c r="Z599" s="70">
+        <v>1618847999</v>
+      </c>
+      <c r="AA599" s="70">
+        <v>80</v>
+      </c>
+      <c r="AH599" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI599" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL599" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM599" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A600" s="70">
+        <v>599</v>
+      </c>
+      <c r="B600" s="70">
+        <v>10516</v>
+      </c>
+      <c r="F600" s="70">
+        <v>1</v>
+      </c>
+      <c r="G600" s="70" t="s">
+        <v>2225</v>
+      </c>
+      <c r="I600" s="70" t="s">
+        <v>2228</v>
+      </c>
+      <c r="J600" s="70" t="s">
+        <v>2229</v>
+      </c>
+      <c r="L600" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M600" s="70">
+        <v>0</v>
+      </c>
+      <c r="N600" s="70">
+        <v>0</v>
+      </c>
+      <c r="O600" s="70" t="s">
+        <v>615</v>
+      </c>
+      <c r="P600" s="70">
+        <v>1000</v>
+      </c>
+      <c r="Q600" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="R600" s="71" t="s">
+        <v>2242</v>
+      </c>
+      <c r="W600" s="70" t="s">
+        <v>2243</v>
+      </c>
+      <c r="X600" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y600" s="70">
+        <v>1618272000</v>
+      </c>
+      <c r="Z600" s="70">
+        <v>1618847999</v>
+      </c>
+      <c r="AA600" s="70">
+        <v>80</v>
+      </c>
+      <c r="AH600" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI600" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL600" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM600" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A601" s="70">
+        <v>600</v>
+      </c>
+      <c r="B601" s="70">
+        <v>10517</v>
+      </c>
+      <c r="F601" s="70">
+        <v>1</v>
+      </c>
+      <c r="G601" s="70" t="s">
+        <v>2225</v>
+      </c>
+      <c r="I601" s="70" t="s">
+        <v>2228</v>
+      </c>
+      <c r="J601" s="70" t="s">
+        <v>2230</v>
+      </c>
+      <c r="L601" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M601" s="70">
+        <v>0</v>
+      </c>
+      <c r="N601" s="70">
+        <v>0</v>
+      </c>
+      <c r="O601" s="70" t="s">
+        <v>615</v>
+      </c>
+      <c r="P601" s="70">
+        <v>1800</v>
+      </c>
+      <c r="Q601" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="R601" s="71" t="s">
+        <v>2244</v>
+      </c>
+      <c r="W601" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="X601" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y601" s="70">
+        <v>1618272000</v>
+      </c>
+      <c r="Z601" s="70">
+        <v>1618847999</v>
+      </c>
+      <c r="AA601" s="70">
+        <v>80</v>
+      </c>
+      <c r="AH601" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI601" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL601" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM601" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A602" s="70">
+        <v>601</v>
+      </c>
+      <c r="B602" s="70">
+        <v>10518</v>
+      </c>
+      <c r="F602" s="70">
+        <v>1</v>
+      </c>
+      <c r="G602" s="70" t="s">
+        <v>2225</v>
+      </c>
+      <c r="I602" s="70" t="s">
+        <v>2231</v>
+      </c>
+      <c r="J602" s="70" t="s">
+        <v>2232</v>
+      </c>
+      <c r="L602" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M602" s="70">
+        <v>0</v>
+      </c>
+      <c r="N602" s="70">
+        <v>0</v>
+      </c>
+      <c r="O602" s="70" t="s">
+        <v>2245</v>
+      </c>
+      <c r="P602" s="70">
+        <v>1800</v>
+      </c>
+      <c r="Q602" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="R602" s="71" t="s">
+        <v>2246</v>
+      </c>
+      <c r="W602" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="X602" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y602" s="70">
+        <v>1618272000</v>
+      </c>
+      <c r="Z602" s="70">
+        <v>1618847999</v>
+      </c>
+      <c r="AA602" s="70">
+        <v>81</v>
+      </c>
+      <c r="AH602" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI602" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL602" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM602" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A603" s="70">
+        <v>602</v>
+      </c>
+      <c r="B603" s="70">
+        <v>10519</v>
+      </c>
+      <c r="F603" s="70">
+        <v>1</v>
+      </c>
+      <c r="G603" s="70" t="s">
+        <v>2225</v>
+      </c>
+      <c r="I603" s="70" t="s">
+        <v>2231</v>
+      </c>
+      <c r="J603" s="70" t="s">
+        <v>2233</v>
+      </c>
+      <c r="L603" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M603" s="70">
+        <v>0</v>
+      </c>
+      <c r="N603" s="70">
+        <v>0</v>
+      </c>
+      <c r="O603" s="70" t="s">
+        <v>2247</v>
+      </c>
+      <c r="P603" s="70">
+        <v>3000</v>
+      </c>
+      <c r="Q603" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="R603" s="71" t="s">
+        <v>2234</v>
+      </c>
+      <c r="W603" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="X603" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y603" s="70">
+        <v>1618272000</v>
+      </c>
+      <c r="Z603" s="70">
+        <v>1618847999</v>
+      </c>
+      <c r="AA603" s="70">
+        <v>81</v>
+      </c>
+      <c r="AH603" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI603" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL603" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM603" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A604" s="70">
+        <v>603</v>
+      </c>
+      <c r="B604" s="70">
+        <v>10520</v>
+      </c>
+      <c r="F604" s="70">
+        <v>1</v>
+      </c>
+      <c r="G604" s="70" t="s">
+        <v>2225</v>
+      </c>
+      <c r="I604" s="70" t="s">
+        <v>2231</v>
+      </c>
+      <c r="J604" s="70" t="s">
+        <v>2235</v>
+      </c>
+      <c r="L604" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M604" s="70">
+        <v>0</v>
+      </c>
+      <c r="N604" s="70">
+        <v>0</v>
+      </c>
+      <c r="O604" s="70" t="s">
+        <v>615</v>
+      </c>
+      <c r="P604" s="70">
+        <v>4800</v>
+      </c>
+      <c r="Q604" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="R604" s="71" t="s">
+        <v>2236</v>
+      </c>
+      <c r="W604" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="X604" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y604" s="70">
+        <v>1618272000</v>
+      </c>
+      <c r="Z604" s="70">
+        <v>1618847999</v>
+      </c>
+      <c r="AA604" s="70">
+        <v>81</v>
+      </c>
+      <c r="AH604" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI604" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL604" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM604" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A605" s="70">
+        <v>604</v>
+      </c>
+      <c r="B605" s="70">
+        <v>10521</v>
+      </c>
+      <c r="F605" s="70">
+        <v>1</v>
+      </c>
+      <c r="G605" s="70" t="s">
+        <v>2225</v>
+      </c>
+      <c r="I605" s="70" t="s">
+        <v>2237</v>
+      </c>
+      <c r="J605" s="70" t="s">
+        <v>2235</v>
+      </c>
+      <c r="L605" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M605" s="70">
+        <v>0</v>
+      </c>
+      <c r="N605" s="70">
+        <v>0</v>
+      </c>
+      <c r="O605" s="70" t="s">
+        <v>615</v>
+      </c>
+      <c r="P605" s="70">
+        <v>4800</v>
+      </c>
+      <c r="Q605" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="R605" s="71" t="s">
+        <v>2236</v>
+      </c>
+      <c r="W605" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="X605" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y605" s="70">
+        <v>1618272000</v>
+      </c>
+      <c r="Z605" s="70">
+        <v>1618847999</v>
+      </c>
+      <c r="AA605" s="70">
+        <v>82</v>
+      </c>
+      <c r="AH605" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI605" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL605" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM605" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A606" s="70">
+        <v>605</v>
+      </c>
+      <c r="B606" s="70">
+        <v>10522</v>
+      </c>
+      <c r="F606" s="70">
+        <v>1</v>
+      </c>
+      <c r="G606" s="70" t="s">
+        <v>2225</v>
+      </c>
+      <c r="I606" s="70" t="s">
+        <v>2248</v>
+      </c>
+      <c r="J606" s="70" t="s">
+        <v>2238</v>
+      </c>
+      <c r="L606" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M606" s="70">
+        <v>0</v>
+      </c>
+      <c r="N606" s="70">
+        <v>0</v>
+      </c>
+      <c r="O606" s="70" t="s">
+        <v>615</v>
+      </c>
+      <c r="P606" s="70">
+        <v>9800</v>
+      </c>
+      <c r="Q606" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="R606" s="71" t="s">
+        <v>2249</v>
+      </c>
+      <c r="W606" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="X606" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y606" s="70">
+        <v>1618272000</v>
+      </c>
+      <c r="Z606" s="70">
+        <v>1618847999</v>
+      </c>
+      <c r="AA606" s="70">
+        <v>82</v>
+      </c>
+      <c r="AH606" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI606" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL606" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM606" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A607" s="70">
+        <v>606</v>
+      </c>
+      <c r="B607" s="70">
+        <v>10523</v>
+      </c>
+      <c r="F607" s="70">
+        <v>1</v>
+      </c>
+      <c r="G607" s="70" t="s">
+        <v>2225</v>
+      </c>
+      <c r="I607" s="70" t="s">
+        <v>2237</v>
+      </c>
+      <c r="J607" s="70" t="s">
+        <v>2239</v>
+      </c>
+      <c r="L607" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M607" s="70">
+        <v>0</v>
+      </c>
+      <c r="N607" s="70">
+        <v>0</v>
+      </c>
+      <c r="O607" s="70" t="s">
+        <v>615</v>
+      </c>
+      <c r="P607" s="70">
+        <v>19800</v>
+      </c>
+      <c r="Q607" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="R607" s="71" t="s">
+        <v>2217</v>
+      </c>
+      <c r="W607" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="X607" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y607" s="70">
+        <v>1618272000</v>
+      </c>
+      <c r="Z607" s="70">
+        <v>1618847999</v>
+      </c>
+      <c r="AA607" s="70">
+        <v>82</v>
+      </c>
+      <c r="AH607" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI607" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL607" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM607" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A608" s="70">
+        <v>607</v>
+      </c>
+      <c r="B608" s="70">
+        <v>10524</v>
+      </c>
+      <c r="F608" s="70">
+        <v>1</v>
+      </c>
+      <c r="G608" s="70" t="s">
+        <v>2225</v>
+      </c>
+      <c r="I608" s="70" t="s">
+        <v>1994</v>
+      </c>
+      <c r="J608" s="70" t="s">
+        <v>2238</v>
+      </c>
+      <c r="L608" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M608" s="70">
+        <v>0</v>
+      </c>
+      <c r="N608" s="70">
+        <v>0</v>
+      </c>
+      <c r="O608" s="70" t="s">
+        <v>615</v>
+      </c>
+      <c r="P608" s="70">
+        <v>9800</v>
+      </c>
+      <c r="Q608" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="R608" s="71" t="s">
+        <v>2215</v>
+      </c>
+      <c r="W608" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="X608" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y608" s="70">
+        <v>1618272000</v>
+      </c>
+      <c r="Z608" s="70">
+        <v>1618847999</v>
+      </c>
+      <c r="AA608" s="70">
+        <v>83</v>
+      </c>
+      <c r="AH608" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI608" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL608" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM608" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A609" s="70">
+        <v>608</v>
+      </c>
+      <c r="B609" s="70">
+        <v>10525</v>
+      </c>
+      <c r="F609" s="70">
+        <v>1</v>
+      </c>
+      <c r="G609" s="70" t="s">
+        <v>2225</v>
+      </c>
+      <c r="I609" s="70" t="s">
+        <v>2250</v>
+      </c>
+      <c r="J609" s="70" t="s">
+        <v>2239</v>
+      </c>
+      <c r="L609" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M609" s="70">
+        <v>0</v>
+      </c>
+      <c r="N609" s="70">
+        <v>0</v>
+      </c>
+      <c r="O609" s="70" t="s">
+        <v>615</v>
+      </c>
+      <c r="P609" s="70">
+        <v>19800</v>
+      </c>
+      <c r="Q609" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="R609" s="71" t="s">
+        <v>2251</v>
+      </c>
+      <c r="W609" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="X609" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y609" s="70">
+        <v>1618272000</v>
+      </c>
+      <c r="Z609" s="70">
+        <v>1618847999</v>
+      </c>
+      <c r="AA609" s="70">
+        <v>83</v>
+      </c>
+      <c r="AH609" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI609" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL609" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM609" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:39" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A610" s="70">
+        <v>609</v>
+      </c>
+      <c r="B610" s="70">
+        <v>10526</v>
+      </c>
+      <c r="F610" s="70">
+        <v>1</v>
+      </c>
+      <c r="G610" s="70" t="s">
+        <v>2225</v>
+      </c>
+      <c r="I610" s="70" t="s">
+        <v>1994</v>
+      </c>
+      <c r="J610" s="70" t="s">
+        <v>2240</v>
+      </c>
+      <c r="L610" s="70">
+        <v>-31</v>
+      </c>
+      <c r="M610" s="70">
+        <v>0</v>
+      </c>
+      <c r="N610" s="70">
+        <v>0</v>
+      </c>
+      <c r="O610" s="70" t="s">
+        <v>2252</v>
+      </c>
+      <c r="P610" s="70">
+        <v>49800</v>
+      </c>
+      <c r="Q610" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="R610" s="71" t="s">
+        <v>2253</v>
+      </c>
+      <c r="W610" s="70" t="s">
+        <v>527</v>
+      </c>
+      <c r="X610" s="70">
+        <v>99999999</v>
+      </c>
+      <c r="Y610" s="70">
+        <v>1618272000</v>
+      </c>
+      <c r="Z610" s="70">
+        <v>1618847999</v>
+      </c>
+      <c r="AA610" s="70">
+        <v>83</v>
+      </c>
+      <c r="AH610" s="70">
+        <v>1</v>
+      </c>
+      <c r="AI610" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL610" s="70">
+        <v>1</v>
+      </c>
+      <c r="AM610" s="70">
         <v>1</v>
       </c>
     </row>
@@ -50747,10 +51694,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:D80"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -51883,6 +52830,62 @@
         <v>1</v>
       </c>
       <c r="D80" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="12">
+        <v>80</v>
+      </c>
+      <c r="B81" s="72" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C81" s="12">
+        <v>1</v>
+      </c>
+      <c r="D81" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="12">
+        <v>81</v>
+      </c>
+      <c r="B82" s="72" t="s">
+        <v>2255</v>
+      </c>
+      <c r="C82" s="12">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="12">
+        <v>82</v>
+      </c>
+      <c r="B83" s="72" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C83" s="12">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="12">
+        <v>83</v>
+      </c>
+      <c r="B84" s="72" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C84" s="12">
+        <v>1</v>
+      </c>
+      <c r="D84">
         <v>0</v>
       </c>
     </row>

--- a/config_Release/shoping_config_vivo.xlsx
+++ b/config_Release/shoping_config_vivo.xlsx
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4943" uniqueCount="1798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5006" uniqueCount="1818">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5722,6 +5722,66 @@
   </si>
   <si>
     <t>秒杀礼包</t>
+  </si>
+  <si>
+    <t>欢乐敲金蛋</t>
+  </si>
+  <si>
+    <t>免费小额，新玩家,v1-v3</t>
+  </si>
+  <si>
+    <t>"180万金币","铜锤*1",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_brass_hammer_1"</t>
+  </si>
+  <si>
+    <t>"300万金币","银锤*1",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_silver_hammer_1"</t>
+  </si>
+  <si>
+    <t>"480万金币","金锤*1",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_gold_hammer_1"</t>
+  </si>
+  <si>
+    <t>"480万金币","铜锤*1",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_brass_hammer_2"</t>
+  </si>
+  <si>
+    <t>"980万金币","银锤*1",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_silver_hammer_2"</t>
+  </si>
+  <si>
+    <t>"1980万金币","金锤*1",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_gold_hammer_2"</t>
+  </si>
+  <si>
+    <t>"980万金币","铜锤*1",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_brass_hammer_3"</t>
+  </si>
+  <si>
+    <t>"1980万金币","银锤*1",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_silver_hammer_3"</t>
+  </si>
+  <si>
+    <t>"4980万金币","金锤*1",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_gold_hammer_3"</t>
   </si>
   <si>
     <t>id|不能重复</t>
@@ -6620,10 +6680,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -6657,9 +6717,97 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6681,17 +6829,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6705,55 +6845,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6762,42 +6858,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6887,7 +6947,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6899,7 +7067,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6911,133 +7097,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7077,6 +7137,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -7094,18 +7187,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7125,52 +7226,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7182,10 +7242,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7194,133 +7254,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10070,14 +10130,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN618"/>
+  <dimension ref="A1:AN627"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Q593" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W593" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F624" sqref="F624"/>
+      <selection pane="bottomRight" activeCell="AB617" sqref="AB617"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -49832,6 +49892,618 @@
         <v>1</v>
       </c>
     </row>
+    <row r="619" spans="1:39">
+      <c r="A619" s="21">
+        <v>618</v>
+      </c>
+      <c r="B619" s="29">
+        <v>10535</v>
+      </c>
+      <c r="F619" s="29">
+        <v>1</v>
+      </c>
+      <c r="G619" s="29" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I619" s="28" t="s">
+        <v>1595</v>
+      </c>
+      <c r="J619" s="29" t="s">
+        <v>1596</v>
+      </c>
+      <c r="L619" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M619" s="28">
+        <v>0</v>
+      </c>
+      <c r="N619" s="28">
+        <v>0</v>
+      </c>
+      <c r="O619" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P619" s="29">
+        <v>1800</v>
+      </c>
+      <c r="Q619" s="29" t="s">
+        <v>1597</v>
+      </c>
+      <c r="R619" s="53" t="s">
+        <v>1074</v>
+      </c>
+      <c r="W619" s="28" t="s">
+        <v>795</v>
+      </c>
+      <c r="X619" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y619" s="29">
+        <v>1620691200</v>
+      </c>
+      <c r="Z619" s="29">
+        <v>1621267199</v>
+      </c>
+      <c r="AA619" s="29">
+        <v>44</v>
+      </c>
+      <c r="AH619" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI619" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL619" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM619" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620" spans="1:39">
+      <c r="A620" s="21">
+        <v>619</v>
+      </c>
+      <c r="B620" s="29">
+        <v>10536</v>
+      </c>
+      <c r="F620" s="29">
+        <v>1</v>
+      </c>
+      <c r="G620" s="29" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I620" s="28" t="s">
+        <v>1595</v>
+      </c>
+      <c r="J620" s="29" t="s">
+        <v>1598</v>
+      </c>
+      <c r="L620" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M620" s="28">
+        <v>0</v>
+      </c>
+      <c r="N620" s="28">
+        <v>0</v>
+      </c>
+      <c r="O620" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P620" s="29">
+        <v>3000</v>
+      </c>
+      <c r="Q620" s="29" t="s">
+        <v>1599</v>
+      </c>
+      <c r="R620" s="53" t="s">
+        <v>1078</v>
+      </c>
+      <c r="W620" s="28" t="s">
+        <v>795</v>
+      </c>
+      <c r="X620" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y620" s="29">
+        <v>1620691200</v>
+      </c>
+      <c r="Z620" s="29">
+        <v>1621267199</v>
+      </c>
+      <c r="AA620" s="29">
+        <v>44</v>
+      </c>
+      <c r="AH620" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI620" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL620" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM620" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:39">
+      <c r="A621" s="21">
+        <v>620</v>
+      </c>
+      <c r="B621" s="29">
+        <v>10537</v>
+      </c>
+      <c r="F621" s="29">
+        <v>1</v>
+      </c>
+      <c r="G621" s="29" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I621" s="28" t="s">
+        <v>1595</v>
+      </c>
+      <c r="J621" s="29" t="s">
+        <v>1600</v>
+      </c>
+      <c r="L621" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M621" s="28">
+        <v>0</v>
+      </c>
+      <c r="N621" s="28">
+        <v>0</v>
+      </c>
+      <c r="O621" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P621" s="29">
+        <v>4800</v>
+      </c>
+      <c r="Q621" s="29" t="s">
+        <v>1601</v>
+      </c>
+      <c r="R621" s="53" t="s">
+        <v>1082</v>
+      </c>
+      <c r="W621" s="28" t="s">
+        <v>795</v>
+      </c>
+      <c r="X621" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y621" s="29">
+        <v>1620691200</v>
+      </c>
+      <c r="Z621" s="29">
+        <v>1621267199</v>
+      </c>
+      <c r="AA621" s="29">
+        <v>44</v>
+      </c>
+      <c r="AH621" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI621" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL621" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM621" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622" spans="1:39">
+      <c r="A622" s="21">
+        <v>621</v>
+      </c>
+      <c r="B622" s="29">
+        <v>10538</v>
+      </c>
+      <c r="F622" s="29">
+        <v>1</v>
+      </c>
+      <c r="G622" s="29" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I622" s="28" t="s">
+        <v>1560</v>
+      </c>
+      <c r="J622" s="29" t="s">
+        <v>1602</v>
+      </c>
+      <c r="L622" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M622" s="28">
+        <v>0</v>
+      </c>
+      <c r="N622" s="28">
+        <v>0</v>
+      </c>
+      <c r="O622" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P622" s="29">
+        <v>4800</v>
+      </c>
+      <c r="Q622" s="29" t="s">
+        <v>1603</v>
+      </c>
+      <c r="R622" s="53" t="s">
+        <v>1082</v>
+      </c>
+      <c r="W622" s="28" t="s">
+        <v>795</v>
+      </c>
+      <c r="X622" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y622" s="29">
+        <v>1620691200</v>
+      </c>
+      <c r="Z622" s="29">
+        <v>1621267199</v>
+      </c>
+      <c r="AA622" s="29">
+        <v>45</v>
+      </c>
+      <c r="AH622" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI622" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL622" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM622" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:39">
+      <c r="A623" s="21">
+        <v>622</v>
+      </c>
+      <c r="B623" s="29">
+        <v>10539</v>
+      </c>
+      <c r="F623" s="29">
+        <v>1</v>
+      </c>
+      <c r="G623" s="29" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I623" s="28" t="s">
+        <v>1560</v>
+      </c>
+      <c r="J623" s="29" t="s">
+        <v>1604</v>
+      </c>
+      <c r="L623" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M623" s="28">
+        <v>0</v>
+      </c>
+      <c r="N623" s="28">
+        <v>0</v>
+      </c>
+      <c r="O623" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P623" s="29">
+        <v>9800</v>
+      </c>
+      <c r="Q623" s="29" t="s">
+        <v>1605</v>
+      </c>
+      <c r="R623" s="53" t="s">
+        <v>1087</v>
+      </c>
+      <c r="W623" s="28" t="s">
+        <v>795</v>
+      </c>
+      <c r="X623" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y623" s="29">
+        <v>1620691200</v>
+      </c>
+      <c r="Z623" s="29">
+        <v>1621267199</v>
+      </c>
+      <c r="AA623" s="29">
+        <v>45</v>
+      </c>
+      <c r="AH623" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI623" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL623" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM623" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:39">
+      <c r="A624" s="21">
+        <v>623</v>
+      </c>
+      <c r="B624" s="29">
+        <v>10540</v>
+      </c>
+      <c r="F624" s="29">
+        <v>1</v>
+      </c>
+      <c r="G624" s="29" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I624" s="28" t="s">
+        <v>1560</v>
+      </c>
+      <c r="J624" s="29" t="s">
+        <v>1606</v>
+      </c>
+      <c r="L624" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M624" s="28">
+        <v>0</v>
+      </c>
+      <c r="N624" s="28">
+        <v>0</v>
+      </c>
+      <c r="O624" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P624" s="29">
+        <v>19800</v>
+      </c>
+      <c r="Q624" s="29" t="s">
+        <v>1607</v>
+      </c>
+      <c r="R624" s="53" t="s">
+        <v>1090</v>
+      </c>
+      <c r="W624" s="28" t="s">
+        <v>795</v>
+      </c>
+      <c r="X624" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y624" s="29">
+        <v>1620691200</v>
+      </c>
+      <c r="Z624" s="29">
+        <v>1621267199</v>
+      </c>
+      <c r="AA624" s="29">
+        <v>45</v>
+      </c>
+      <c r="AH624" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI624" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL624" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM624" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:39">
+      <c r="A625" s="21">
+        <v>624</v>
+      </c>
+      <c r="B625" s="29">
+        <v>10541</v>
+      </c>
+      <c r="F625" s="29">
+        <v>1</v>
+      </c>
+      <c r="G625" s="29" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I625" s="28" t="s">
+        <v>1449</v>
+      </c>
+      <c r="J625" s="29" t="s">
+        <v>1608</v>
+      </c>
+      <c r="L625" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M625" s="28">
+        <v>0</v>
+      </c>
+      <c r="N625" s="28">
+        <v>0</v>
+      </c>
+      <c r="O625" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P625" s="29">
+        <v>9800</v>
+      </c>
+      <c r="Q625" s="29" t="s">
+        <v>1609</v>
+      </c>
+      <c r="R625" s="53" t="s">
+        <v>1087</v>
+      </c>
+      <c r="W625" s="28" t="s">
+        <v>795</v>
+      </c>
+      <c r="X625" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y625" s="29">
+        <v>1620691200</v>
+      </c>
+      <c r="Z625" s="29">
+        <v>1621267199</v>
+      </c>
+      <c r="AA625" s="29">
+        <v>46</v>
+      </c>
+      <c r="AH625" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI625" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL625" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM625" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:39">
+      <c r="A626" s="21">
+        <v>625</v>
+      </c>
+      <c r="B626" s="29">
+        <v>10542</v>
+      </c>
+      <c r="F626" s="29">
+        <v>1</v>
+      </c>
+      <c r="G626" s="29" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I626" s="28" t="s">
+        <v>1449</v>
+      </c>
+      <c r="J626" s="29" t="s">
+        <v>1610</v>
+      </c>
+      <c r="L626" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M626" s="28">
+        <v>0</v>
+      </c>
+      <c r="N626" s="28">
+        <v>0</v>
+      </c>
+      <c r="O626" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P626" s="29">
+        <v>19800</v>
+      </c>
+      <c r="Q626" s="29" t="s">
+        <v>1611</v>
+      </c>
+      <c r="R626" s="53" t="s">
+        <v>1090</v>
+      </c>
+      <c r="W626" s="28" t="s">
+        <v>795</v>
+      </c>
+      <c r="X626" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y626" s="29">
+        <v>1620691200</v>
+      </c>
+      <c r="Z626" s="29">
+        <v>1621267199</v>
+      </c>
+      <c r="AA626" s="29">
+        <v>46</v>
+      </c>
+      <c r="AH626" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI626" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL626" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM626" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:39">
+      <c r="A627" s="21">
+        <v>626</v>
+      </c>
+      <c r="B627" s="29">
+        <v>10543</v>
+      </c>
+      <c r="F627" s="29">
+        <v>1</v>
+      </c>
+      <c r="G627" s="29" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I627" s="28" t="s">
+        <v>1449</v>
+      </c>
+      <c r="J627" s="29" t="s">
+        <v>1612</v>
+      </c>
+      <c r="L627" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M627" s="28">
+        <v>0</v>
+      </c>
+      <c r="N627" s="28">
+        <v>0</v>
+      </c>
+      <c r="O627" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P627" s="29">
+        <v>49800</v>
+      </c>
+      <c r="Q627" s="29" t="s">
+        <v>1613</v>
+      </c>
+      <c r="R627" s="53" t="s">
+        <v>1097</v>
+      </c>
+      <c r="W627" s="28" t="s">
+        <v>795</v>
+      </c>
+      <c r="X627" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y627" s="29">
+        <v>1620691200</v>
+      </c>
+      <c r="Z627" s="29">
+        <v>1621267199</v>
+      </c>
+      <c r="AA627" s="29">
+        <v>46</v>
+      </c>
+      <c r="AH627" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI627" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL627" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM627" s="29">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -49846,7 +50518,7 @@
   <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -49858,19 +50530,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="58.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1594</v>
+        <v>1614</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1595</v>
+        <v>1615</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1596</v>
+        <v>1616</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1597</v>
+        <v>1617</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1598</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="2" ht="57.75" customHeight="1" spans="1:5">
@@ -49878,7 +50550,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1599</v>
+        <v>1619</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -49887,7 +50559,7 @@
         <v>3600</v>
       </c>
       <c r="E2" t="s">
-        <v>1600</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="3" ht="78.75" customHeight="1" spans="1:4">
@@ -49895,7 +50567,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>1601</v>
+        <v>1621</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -49909,7 +50581,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>1602</v>
+        <v>1622</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -49923,7 +50595,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>1603</v>
+        <v>1623</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -49937,7 +50609,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>1604</v>
+        <v>1624</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -49951,7 +50623,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1605</v>
+        <v>1625</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -49965,7 +50637,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1606</v>
+        <v>1626</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -49979,7 +50651,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1607</v>
+        <v>1627</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -49993,7 +50665,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1608</v>
+        <v>1628</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -50007,7 +50679,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1609</v>
+        <v>1629</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -50021,7 +50693,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>1604</v>
+        <v>1624</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -50035,7 +50707,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>1605</v>
+        <v>1625</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -50049,7 +50721,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>1610</v>
+        <v>1630</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -50063,7 +50735,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>1611</v>
+        <v>1631</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -50077,7 +50749,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>1612</v>
+        <v>1632</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -50091,7 +50763,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>1613</v>
+        <v>1633</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -50105,7 +50777,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>1614</v>
+        <v>1634</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -50119,7 +50791,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>1615</v>
+        <v>1635</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -50133,7 +50805,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>1616</v>
+        <v>1636</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -50147,7 +50819,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>1617</v>
+        <v>1637</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
@@ -50161,7 +50833,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>1618</v>
+        <v>1638</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
@@ -50175,7 +50847,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1619</v>
+        <v>1639</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
@@ -50189,7 +50861,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>1620</v>
+        <v>1640</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
@@ -50203,7 +50875,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1621</v>
+        <v>1641</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
@@ -50217,7 +50889,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>1622</v>
+        <v>1642</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -50231,7 +50903,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1623</v>
+        <v>1643</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -50245,7 +50917,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1624</v>
+        <v>1644</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -50259,7 +50931,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1625</v>
+        <v>1645</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -50273,7 +50945,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1626</v>
+        <v>1646</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -50287,7 +50959,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1627</v>
+        <v>1647</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -50301,7 +50973,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1628</v>
+        <v>1648</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -50315,7 +50987,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1629</v>
+        <v>1649</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -50329,7 +51001,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1630</v>
+        <v>1650</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -50343,7 +51015,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1631</v>
+        <v>1651</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -50357,7 +51029,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1632</v>
+        <v>1652</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -50371,7 +51043,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1633</v>
+        <v>1653</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -50385,7 +51057,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1634</v>
+        <v>1654</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -50399,7 +51071,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1635</v>
+        <v>1655</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -50413,7 +51085,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1636</v>
+        <v>1656</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -50427,7 +51099,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1637</v>
+        <v>1657</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -50441,7 +51113,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1638</v>
+        <v>1658</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -50455,7 +51127,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1639</v>
+        <v>1659</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -50469,7 +51141,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1640</v>
+        <v>1660</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -50483,7 +51155,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1641</v>
+        <v>1661</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -50497,7 +51169,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>1642</v>
+        <v>1662</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -50511,7 +51183,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>1643</v>
+        <v>1663</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -50525,7 +51197,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1644</v>
+        <v>1664</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -50539,7 +51211,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1645</v>
+        <v>1665</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -50553,7 +51225,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1646</v>
+        <v>1666</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -50567,7 +51239,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -50581,7 +51253,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>1648</v>
+        <v>1668</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -50595,7 +51267,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -50609,7 +51281,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1650</v>
+        <v>1670</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
@@ -50623,7 +51295,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1651</v>
+        <v>1671</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -50637,7 +51309,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -50651,7 +51323,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1653</v>
+        <v>1673</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -50665,7 +51337,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1654</v>
+        <v>1674</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -50679,7 +51351,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1655</v>
+        <v>1675</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -50693,7 +51365,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1656</v>
+        <v>1676</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -50707,7 +51379,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1657</v>
+        <v>1677</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -50721,7 +51393,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1658</v>
+        <v>1678</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -50735,7 +51407,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>1659</v>
+        <v>1679</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -50749,7 +51421,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1660</v>
+        <v>1680</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
@@ -50763,7 +51435,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1661</v>
+        <v>1681</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -50777,7 +51449,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1662</v>
+        <v>1682</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
@@ -50791,7 +51463,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1663</v>
+        <v>1683</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -50805,7 +51477,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1664</v>
+        <v>1684</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -50819,7 +51491,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1665</v>
+        <v>1685</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -50833,7 +51505,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1666</v>
+        <v>1686</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -50847,7 +51519,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>1667</v>
+        <v>1687</v>
       </c>
       <c r="C71" s="17">
         <v>1</v>
@@ -50861,7 +51533,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>1668</v>
+        <v>1688</v>
       </c>
       <c r="C72" s="17">
         <v>1</v>
@@ -50875,7 +51547,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>1669</v>
+        <v>1689</v>
       </c>
       <c r="C73" s="17">
         <v>1</v>
@@ -50889,7 +51561,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>1670</v>
+        <v>1690</v>
       </c>
       <c r="C74" s="17">
         <v>1</v>
@@ -50903,7 +51575,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>1671</v>
+        <v>1691</v>
       </c>
       <c r="C75" s="17">
         <v>1</v>
@@ -50917,7 +51589,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>1672</v>
+        <v>1692</v>
       </c>
       <c r="C76" s="17">
         <v>1</v>
@@ -50931,7 +51603,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>1673</v>
+        <v>1693</v>
       </c>
       <c r="C77" s="17">
         <v>1</v>
@@ -50945,7 +51617,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>1674</v>
+        <v>1694</v>
       </c>
       <c r="C78" s="17">
         <v>1</v>
@@ -50959,7 +51631,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>1675</v>
+        <v>1695</v>
       </c>
       <c r="C79" s="17">
         <v>1</v>
@@ -50973,7 +51645,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>1676</v>
+        <v>1696</v>
       </c>
       <c r="C80" s="17">
         <v>1</v>
@@ -50987,7 +51659,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>1677</v>
+        <v>1697</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -51001,7 +51673,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>1678</v>
+        <v>1698</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
@@ -51015,7 +51687,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>1679</v>
+        <v>1699</v>
       </c>
       <c r="C83" s="2">
         <v>1</v>
@@ -51029,7 +51701,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>1680</v>
+        <v>1700</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
@@ -51043,7 +51715,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>1681</v>
+        <v>1701</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -51095,7 +51767,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="90" customHeight="1" spans="1:29">
       <c r="A1" s="1" t="s">
-        <v>1682</v>
+        <v>1702</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -51107,19 +51779,19 @@
         <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1683</v>
+        <v>1703</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1684</v>
+        <v>1704</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1685</v>
+        <v>1705</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1687</v>
+        <v>1707</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>31</v>
@@ -51134,7 +51806,7 @@
         <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1688</v>
+        <v>1708</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>39</v>
@@ -51179,7 +51851,7 @@
         <v>52</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>1689</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="1" spans="1:26">
@@ -51199,7 +51871,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>1690</v>
+        <v>1710</v>
       </c>
       <c r="G2" s="12">
         <v>480</v>
@@ -51226,22 +51898,22 @@
         <v>3</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>1691</v>
+        <v>1711</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>1692</v>
+        <v>1712</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>1693</v>
+        <v>1713</v>
       </c>
       <c r="T2" s="12" t="s">
         <v>61</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>1694</v>
+        <v>1714</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
       <c r="Y2" s="12">
         <v>1</v>
@@ -51267,7 +51939,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>1690</v>
+        <v>1710</v>
       </c>
       <c r="G3" s="12">
         <v>1200</v>
@@ -51297,19 +51969,19 @@
         <v>127</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>1696</v>
+        <v>1716</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>1693</v>
+        <v>1713</v>
       </c>
       <c r="T3" s="12" t="s">
         <v>66</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>1697</v>
+        <v>1717</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
       <c r="Y3" s="12">
         <v>1</v>
@@ -51335,7 +52007,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>1690</v>
+        <v>1710</v>
       </c>
       <c r="G4" s="12">
         <v>2400</v>
@@ -51362,22 +52034,22 @@
         <v>5</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>1698</v>
+        <v>1718</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>1699</v>
+        <v>1719</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>1693</v>
+        <v>1713</v>
       </c>
       <c r="T4" s="12" t="s">
         <v>70</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>1700</v>
+        <v>1720</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
       <c r="Y4" s="12">
         <v>1</v>
@@ -51403,7 +52075,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>1690</v>
+        <v>1710</v>
       </c>
       <c r="G5" s="12">
         <v>4000</v>
@@ -51430,22 +52102,22 @@
         <v>6</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>1701</v>
+        <v>1721</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>1702</v>
+        <v>1722</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>1693</v>
+        <v>1713</v>
       </c>
       <c r="T5" s="12" t="s">
         <v>74</v>
       </c>
       <c r="U5" s="15" t="s">
-        <v>1703</v>
+        <v>1723</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
       <c r="Y5" s="12">
         <v>1</v>
@@ -51471,7 +52143,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>1690</v>
+        <v>1710</v>
       </c>
       <c r="G6" s="12">
         <v>7840</v>
@@ -51498,22 +52170,22 @@
         <v>7</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>1704</v>
+        <v>1724</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>1705</v>
+        <v>1725</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>1693</v>
+        <v>1713</v>
       </c>
       <c r="T6" s="12" t="s">
         <v>78</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1706</v>
+        <v>1726</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
       <c r="Y6" s="12">
         <v>1</v>
@@ -51539,7 +52211,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>1690</v>
+        <v>1710</v>
       </c>
       <c r="G7" s="12">
         <v>39840</v>
@@ -51566,22 +52238,22 @@
         <v>9</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>1707</v>
+        <v>1727</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>1708</v>
+        <v>1728</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>1693</v>
+        <v>1713</v>
       </c>
       <c r="T7" s="12" t="s">
         <v>82</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>1709</v>
+        <v>1729</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
       <c r="Y7" s="12">
         <v>1</v>
@@ -51604,7 +52276,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>1690</v>
+        <v>1710</v>
       </c>
       <c r="G8" s="12">
         <v>120</v>
@@ -51631,22 +52303,22 @@
         <v>0</v>
       </c>
       <c r="P8" s="15" t="s">
-        <v>1710</v>
+        <v>1730</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>1711</v>
+        <v>1731</v>
       </c>
       <c r="S8" s="15" t="s">
-        <v>1693</v>
+        <v>1713</v>
       </c>
       <c r="T8" s="12" t="s">
         <v>61</v>
       </c>
       <c r="U8" s="15" t="s">
-        <v>1694</v>
+        <v>1714</v>
       </c>
       <c r="V8" s="12" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
       <c r="Y8" s="12">
         <v>1</v>
@@ -51670,7 +52342,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="G9" s="13">
         <v>5000</v>
@@ -51698,10 +52370,10 @@
         <v>2</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>1713</v>
+        <v>1733</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>1714</v>
+        <v>1734</v>
       </c>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
@@ -51709,10 +52381,10 @@
         <v>5000</v>
       </c>
       <c r="U9" s="13" t="s">
-        <v>1703</v>
+        <v>1723</v>
       </c>
       <c r="V9" s="13" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
@@ -51725,7 +52397,7 @@
       <c r="AA9" s="13"/>
       <c r="AB9" s="13"/>
       <c r="AC9" s="16" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="10" s="12" customFormat="1" spans="1:29">
@@ -51743,7 +52415,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="G10" s="13">
         <v>1000</v>
@@ -51771,10 +52443,10 @@
         <v>1</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>1717</v>
+        <v>1737</v>
       </c>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
@@ -51782,10 +52454,10 @@
         <v>1000</v>
       </c>
       <c r="U10" s="13" t="s">
-        <v>1697</v>
+        <v>1717</v>
       </c>
       <c r="V10" s="13" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
@@ -51798,7 +52470,7 @@
       <c r="AA10" s="13"/>
       <c r="AB10" s="13"/>
       <c r="AC10" s="16" t="s">
-        <v>1718</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="11" s="12" customFormat="1" spans="1:26">
@@ -51815,7 +52487,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>1690</v>
+        <v>1710</v>
       </c>
       <c r="G11" s="12">
         <v>1200</v>
@@ -51845,19 +52517,19 @@
         <v>127</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>1696</v>
+        <v>1716</v>
       </c>
       <c r="S11" s="15" t="s">
-        <v>1693</v>
+        <v>1713</v>
       </c>
       <c r="T11" s="15" t="s">
         <v>66</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>1697</v>
+        <v>1717</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
       <c r="Y11" s="12">
         <v>1</v>
@@ -51883,7 +52555,7 @@
         <v>107</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>1690</v>
+        <v>1710</v>
       </c>
       <c r="G12" s="12">
         <v>120000</v>
@@ -51910,22 +52582,22 @@
         <v>9</v>
       </c>
       <c r="P12" s="15" t="s">
-        <v>1719</v>
+        <v>1739</v>
       </c>
       <c r="Q12" s="15" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="S12" s="15" t="s">
-        <v>1693</v>
+        <v>1713</v>
       </c>
       <c r="T12" s="12" t="s">
         <v>86</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>1721</v>
+        <v>1741</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
       <c r="Y12" s="12">
         <v>1</v>
@@ -51951,7 +52623,7 @@
         <v>108</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>1690</v>
+        <v>1710</v>
       </c>
       <c r="G13" s="12">
         <v>79840</v>
@@ -51978,22 +52650,22 @@
         <v>10</v>
       </c>
       <c r="P13" s="15" t="s">
-        <v>1722</v>
+        <v>1742</v>
       </c>
       <c r="Q13" s="15" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="S13" s="15" t="s">
-        <v>1693</v>
+        <v>1713</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>1724</v>
+        <v>1744</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>1721</v>
+        <v>1741</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
       <c r="Y13" s="12">
         <v>1</v>
@@ -52019,7 +52691,7 @@
         <v>110</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>1690</v>
+        <v>1710</v>
       </c>
       <c r="G14" s="12">
         <v>199840</v>
@@ -52046,22 +52718,22 @@
         <v>11</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>1726</v>
+        <v>1746</v>
       </c>
       <c r="S14" s="15" t="s">
-        <v>1727</v>
+        <v>1747</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>1728</v>
+        <v>1748</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>1729</v>
+        <v>1749</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
       <c r="Y14" s="12">
         <v>1</v>
@@ -52085,7 +52757,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="G15" s="13">
         <v>100</v>
@@ -52115,10 +52787,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>1730</v>
+        <v>1750</v>
       </c>
       <c r="Q15" s="16" t="s">
-        <v>1731</v>
+        <v>1751</v>
       </c>
       <c r="R15" s="13"/>
       <c r="S15" s="16"/>
@@ -52126,10 +52798,10 @@
         <v>100</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>1694</v>
+        <v>1714</v>
       </c>
       <c r="V15" s="13" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
@@ -52142,7 +52814,7 @@
       <c r="AA15" s="13"/>
       <c r="AB15" s="13"/>
       <c r="AC15" s="16" t="s">
-        <v>1732</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="16" s="12" customFormat="1" spans="1:26">
@@ -52162,7 +52834,7 @@
         <v>101</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>1690</v>
+        <v>1710</v>
       </c>
       <c r="G16" s="12">
         <v>2000</v>
@@ -52189,23 +52861,23 @@
         <v>3</v>
       </c>
       <c r="P16" s="15" t="s">
-        <v>1733</v>
+        <v>1753</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>1734</v>
+        <v>1754</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="15" t="s">
-        <v>1693</v>
+        <v>1713</v>
       </c>
       <c r="T16" s="12" t="s">
         <v>101</v>
       </c>
       <c r="U16" s="15" t="s">
-        <v>1694</v>
+        <v>1714</v>
       </c>
       <c r="V16" s="12" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -52230,7 +52902,7 @@
         <v>102</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>1690</v>
+        <v>1710</v>
       </c>
       <c r="G17" s="12">
         <v>6700</v>
@@ -52257,23 +52929,23 @@
         <v>4</v>
       </c>
       <c r="P17" s="15" t="s">
-        <v>1735</v>
+        <v>1755</v>
       </c>
       <c r="Q17" s="15" t="s">
-        <v>1736</v>
+        <v>1756</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="15" t="s">
-        <v>1693</v>
+        <v>1713</v>
       </c>
       <c r="T17" s="12" t="s">
         <v>105</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>1700</v>
+        <v>1720</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -52298,7 +52970,7 @@
         <v>103</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>1690</v>
+        <v>1710</v>
       </c>
       <c r="G18" s="12">
         <v>13200</v>
@@ -52325,23 +52997,23 @@
         <v>5</v>
       </c>
       <c r="P18" s="15" t="s">
-        <v>1737</v>
+        <v>1757</v>
       </c>
       <c r="Q18" s="15" t="s">
-        <v>1738</v>
+        <v>1758</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" s="15" t="s">
-        <v>1693</v>
+        <v>1713</v>
       </c>
       <c r="T18" s="12" t="s">
         <v>109</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>1706</v>
+        <v>1726</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -52366,7 +53038,7 @@
         <v>104</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>1690</v>
+        <v>1710</v>
       </c>
       <c r="G19" s="12">
         <v>20400</v>
@@ -52393,23 +53065,23 @@
         <v>6</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>1739</v>
+        <v>1759</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>1740</v>
+        <v>1760</v>
       </c>
       <c r="R19" s="2"/>
       <c r="S19" s="15" t="s">
-        <v>1693</v>
+        <v>1713</v>
       </c>
       <c r="T19" s="12" t="s">
         <v>114</v>
       </c>
       <c r="U19" s="15" t="s">
-        <v>1741</v>
+        <v>1761</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -52434,7 +53106,7 @@
         <v>105</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>1690</v>
+        <v>1710</v>
       </c>
       <c r="G20" s="12">
         <v>66</v>
@@ -52461,22 +53133,22 @@
         <v>7</v>
       </c>
       <c r="P20" s="15" t="s">
-        <v>1742</v>
+        <v>1762</v>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>1743</v>
+        <v>1763</v>
       </c>
       <c r="S20" s="15" t="s">
-        <v>1693</v>
+        <v>1713</v>
       </c>
       <c r="T20" s="12" t="s">
         <v>120</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>1741</v>
+        <v>1761</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
       <c r="Y20" s="12">
         <v>1</v>
@@ -52500,7 +53172,7 @@
         <v>101</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>1690</v>
+        <v>1710</v>
       </c>
       <c r="G21" s="12">
         <v>200</v>
@@ -52531,20 +53203,20 @@
         <v>890</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>1744</v>
+        <v>1764</v>
       </c>
       <c r="R21" s="12"/>
       <c r="S21" s="15" t="s">
-        <v>1693</v>
+        <v>1713</v>
       </c>
       <c r="T21" s="12" t="s">
         <v>124</v>
       </c>
       <c r="U21" s="15" t="s">
-        <v>1694</v>
+        <v>1714</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
@@ -52573,7 +53245,7 @@
         <v>104</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="G22" s="13">
         <v>5000</v>
@@ -52601,10 +53273,10 @@
         <v>2</v>
       </c>
       <c r="P22" s="16" t="s">
-        <v>1713</v>
+        <v>1733</v>
       </c>
       <c r="Q22" s="16" t="s">
-        <v>1714</v>
+        <v>1734</v>
       </c>
       <c r="R22" s="13"/>
       <c r="S22" s="16"/>
@@ -52612,10 +53284,10 @@
         <v>5000</v>
       </c>
       <c r="U22" s="16" t="s">
-        <v>1703</v>
+        <v>1723</v>
       </c>
       <c r="V22" s="13" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
       <c r="W22" s="13"/>
       <c r="X22" s="13"/>
@@ -52644,7 +53316,7 @@
         <v>102</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="G23" s="13">
         <v>1000</v>
@@ -52672,10 +53344,10 @@
         <v>1</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>1717</v>
+        <v>1737</v>
       </c>
       <c r="R23" s="13"/>
       <c r="S23" s="16"/>
@@ -52683,10 +53355,10 @@
         <v>1000</v>
       </c>
       <c r="U23" s="16" t="s">
-        <v>1694</v>
+        <v>1714</v>
       </c>
       <c r="V23" s="13" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
       <c r="W23" s="13"/>
       <c r="X23" s="13"/>
@@ -52708,14 +53380,14 @@
         <v>109</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>1745</v>
+        <v>1765</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
         <v>101</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="G24" s="13">
         <v>100</v>
@@ -52745,10 +53417,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="16" t="s">
-        <v>1730</v>
+        <v>1750</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>1731</v>
+        <v>1751</v>
       </c>
       <c r="R24" s="13"/>
       <c r="S24" s="16"/>
@@ -52756,10 +53428,10 @@
         <v>100</v>
       </c>
       <c r="U24" s="16" t="s">
-        <v>1694</v>
+        <v>1714</v>
       </c>
       <c r="V24" s="13" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
       <c r="W24" s="13"/>
       <c r="X24" s="13"/>
@@ -52772,7 +53444,7 @@
       <c r="AA24" s="13"/>
       <c r="AB24" s="13"/>
       <c r="AC24" s="16" t="s">
-        <v>1732</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="25" s="12" customFormat="1" spans="1:26">
@@ -52792,7 +53464,7 @@
         <v>111</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>1690</v>
+        <v>1710</v>
       </c>
       <c r="G25" s="12">
         <v>15840</v>
@@ -52819,22 +53491,22 @@
         <v>8</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="Q25" s="15" t="s">
-        <v>1747</v>
+        <v>1767</v>
       </c>
       <c r="S25" s="15" t="s">
-        <v>1693</v>
+        <v>1713</v>
       </c>
       <c r="T25" s="15" t="s">
-        <v>1748</v>
+        <v>1768</v>
       </c>
       <c r="U25" s="15" t="s">
-        <v>1741</v>
+        <v>1761</v>
       </c>
       <c r="V25" s="12" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
       <c r="Y25" s="12">
         <v>1</v>
@@ -52897,13 +53569,13 @@
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1684</v>
+        <v>1704</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1685</v>
+        <v>1705</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1749</v>
+        <v>1769</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>31</v>
@@ -52915,16 +53587,16 @@
         <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1750</v>
+        <v>1770</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1751</v>
+        <v>1771</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1752</v>
+        <v>1772</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1753</v>
+        <v>1773</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>38</v>
@@ -52965,7 +53637,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1754</v>
+        <v>1774</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -52977,7 +53649,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1755</v>
+        <v>1775</v>
       </c>
       <c r="L2" s="2">
         <v>54</v>
@@ -52986,7 +53658,7 @@
         <v>999999</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1756</v>
+        <v>1776</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -52995,22 +53667,22 @@
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1757</v>
+        <v>1777</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1758</v>
+        <v>1778</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1759</v>
+        <v>1779</v>
       </c>
       <c r="T2" s="2">
         <v>60000</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1760</v>
+        <v>1780</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:23">
@@ -53021,7 +53693,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1754</v>
+        <v>1774</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -53033,7 +53705,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1755</v>
+        <v>1775</v>
       </c>
       <c r="L3" s="2">
         <v>54</v>
@@ -53042,7 +53714,7 @@
         <v>999999</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1761</v>
+        <v>1781</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -53051,22 +53723,22 @@
         <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1757</v>
+        <v>1777</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1762</v>
+        <v>1782</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1759</v>
+        <v>1779</v>
       </c>
       <c r="T3" s="2">
         <v>500000</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1760</v>
+        <v>1780</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
       <c r="W3" s="2">
         <v>8.3</v>
@@ -53080,7 +53752,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1763</v>
+        <v>1783</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -53105,19 +53777,19 @@
         <v>4</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>1764</v>
+        <v>1784</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>1765</v>
+        <v>1785</v>
       </c>
       <c r="T4" s="2">
         <v>15000</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>1766</v>
+        <v>1786</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:22">
@@ -53128,7 +53800,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1767</v>
+        <v>1787</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -53155,10 +53827,10 @@
         <v>100000</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>1768</v>
+        <v>1788</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:22">
@@ -53169,7 +53841,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1769</v>
+        <v>1789</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -53196,10 +53868,10 @@
         <v>100000</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1768</v>
+        <v>1788</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:23">
@@ -53210,7 +53882,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1754</v>
+        <v>1774</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -53222,7 +53894,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1770</v>
+        <v>1790</v>
       </c>
       <c r="L7" s="2">
         <v>56</v>
@@ -53231,7 +53903,7 @@
         <v>999999</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>1761</v>
+        <v>1781</v>
       </c>
       <c r="O7" s="6">
         <v>0</v>
@@ -53240,22 +53912,22 @@
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>1771</v>
+        <v>1791</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>1762</v>
+        <v>1782</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>1759</v>
+        <v>1779</v>
       </c>
       <c r="T7" s="2">
         <v>500000</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>1772</v>
+        <v>1792</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
       <c r="W7" s="2">
         <v>8.3</v>
@@ -53269,10 +53941,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1773</v>
+        <v>1793</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1690</v>
+        <v>1710</v>
       </c>
       <c r="F8" s="2">
         <v>100</v>
@@ -53284,7 +53956,7 @@
         <v>125</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1774</v>
+        <v>1794</v>
       </c>
       <c r="L8" s="2">
         <v>57</v>
@@ -53299,22 +53971,22 @@
         <v>5</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>1775</v>
+        <v>1795</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>1776</v>
+        <v>1796</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>1759</v>
+        <v>1779</v>
       </c>
       <c r="T8" s="2">
         <v>100</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>1777</v>
+        <v>1797</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:22">
@@ -53325,10 +53997,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1778</v>
+        <v>1798</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1690</v>
+        <v>1710</v>
       </c>
       <c r="F9" s="2">
         <v>1000</v>
@@ -53343,16 +54015,16 @@
         <v>6</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>1779</v>
+        <v>1799</v>
       </c>
       <c r="T9" s="2">
         <v>1000</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>1780</v>
+        <v>1800</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:22">
@@ -53363,10 +54035,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1778</v>
+        <v>1798</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1690</v>
+        <v>1710</v>
       </c>
       <c r="F10" s="2">
         <v>5800</v>
@@ -53381,16 +54053,16 @@
         <v>7</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>1781</v>
+        <v>1801</v>
       </c>
       <c r="T10" s="2">
         <v>5800</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>1780</v>
+        <v>1800</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:22">
@@ -53401,10 +54073,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1778</v>
+        <v>1798</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1690</v>
+        <v>1710</v>
       </c>
       <c r="F11" s="2">
         <v>8800</v>
@@ -53419,16 +54091,16 @@
         <v>8</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>1782</v>
+        <v>1802</v>
       </c>
       <c r="T11" s="2">
         <v>8800</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>1780</v>
+        <v>1800</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:22">
@@ -53439,10 +54111,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1778</v>
+        <v>1798</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1690</v>
+        <v>1710</v>
       </c>
       <c r="F12" s="2">
         <v>18800</v>
@@ -53457,16 +54129,16 @@
         <v>9</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>1783</v>
+        <v>1803</v>
       </c>
       <c r="T12" s="2">
         <v>18800</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>1780</v>
+        <v>1800</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:23">
@@ -53477,7 +54149,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1784</v>
+        <v>1804</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -53501,16 +54173,16 @@
         <v>0</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>1785</v>
+        <v>1805</v>
       </c>
       <c r="T13" s="2">
         <v>70000</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>1786</v>
+        <v>1806</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
       <c r="W13" s="2">
         <v>7</v>
@@ -53524,7 +54196,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1784</v>
+        <v>1804</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -53548,16 +54220,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>1787</v>
+        <v>1807</v>
       </c>
       <c r="T14" s="2">
         <v>180000</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>1786</v>
+        <v>1806</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
       <c r="W14" s="2">
         <v>6</v>
@@ -53571,10 +54243,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1784</v>
+        <v>1804</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="F15" s="2">
         <v>1500</v>
@@ -53595,16 +54267,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>1788</v>
+        <v>1808</v>
       </c>
       <c r="T15" s="2">
         <v>1500</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>1786</v>
+        <v>1806</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
       <c r="W15" s="2">
         <v>3</v>
@@ -53618,10 +54290,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1789</v>
+        <v>1809</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="F16" s="3">
         <v>200</v>
@@ -53637,13 +54309,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>1790</v>
+        <v>1810</v>
       </c>
       <c r="T16" s="3">
         <v>200</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:22">
@@ -53654,10 +54326,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1789</v>
+        <v>1809</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="F17" s="3">
         <v>2000</v>
@@ -53673,13 +54345,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>1791</v>
+        <v>1811</v>
       </c>
       <c r="T17" s="3">
         <v>2000</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:22">
@@ -53690,7 +54362,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1789</v>
+        <v>1809</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
@@ -53709,13 +54381,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>1790</v>
+        <v>1810</v>
       </c>
       <c r="T18" s="3">
         <v>20000</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:22">
@@ -53726,7 +54398,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1789</v>
+        <v>1809</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>14</v>
@@ -53745,13 +54417,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>1791</v>
+        <v>1811</v>
       </c>
       <c r="T19" s="3">
         <v>200000</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:22">
@@ -53762,7 +54434,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1792</v>
+        <v>1812</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>14</v>
@@ -53780,16 +54452,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>1793</v>
+        <v>1813</v>
       </c>
       <c r="T20" s="4">
         <v>300000</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1794</v>
+        <v>1814</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:22">
@@ -53800,7 +54472,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1795</v>
+        <v>1815</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>14</v>
@@ -53818,16 +54490,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>1796</v>
+        <v>1816</v>
       </c>
       <c r="T21" s="4">
         <v>300000</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1797</v>
+        <v>1817</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/shoping_config_vivo.xlsx
+++ b/config_Release/shoping_config_vivo.xlsx
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5006" uniqueCount="1818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5048" uniqueCount="1828">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5782,6 +5782,36 @@
   </si>
   <si>
     <t>"jing_bi","prop_gold_hammer_3"</t>
+  </si>
+  <si>
+    <t>"9980万金币","300万小游戏币","铁锹*5"</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_3"</t>
+  </si>
+  <si>
+    <t>"4980万金币","150万小游戏币","铁锹*2"</t>
+  </si>
+  <si>
+    <t>"2980万金币","90万小游戏币","阳光*12"</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2"</t>
+  </si>
+  <si>
+    <t>"1980万金币","60万小游戏币","阳光*8"</t>
+  </si>
+  <si>
+    <t>"980万金币","30万小游戏币","阳光*5"</t>
+  </si>
+  <si>
+    <t>"480万金币","15万小游戏币","水滴*8"</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1"</t>
+  </si>
+  <si>
+    <t>"180万金币","10万小游戏币","水滴*5"</t>
   </si>
   <si>
     <t>id|不能重复</t>
@@ -6680,10 +6710,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -6718,6 +6748,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -6725,14 +6778,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6747,21 +6793,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6769,7 +6823,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6784,14 +6853,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6805,19 +6867,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6829,44 +6883,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -6947,37 +6977,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6995,7 +6995,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7007,13 +7097,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7025,79 +7127,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7139,8 +7169,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -7161,41 +7193,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -7207,6 +7204,33 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7226,11 +7250,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7242,10 +7272,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7254,16 +7284,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7272,115 +7302,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10130,14 +10160,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN627"/>
+  <dimension ref="A1:AN634"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W593" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H614" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB617" sqref="AB617"/>
+      <selection pane="bottomRight" activeCell="J628" sqref="J628:J634"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -50504,6 +50534,440 @@
         <v>1</v>
       </c>
     </row>
+    <row r="628" spans="1:39">
+      <c r="A628" s="21">
+        <v>627</v>
+      </c>
+      <c r="B628" s="29">
+        <v>10544</v>
+      </c>
+      <c r="F628" s="29">
+        <v>1</v>
+      </c>
+      <c r="G628" s="29" t="s">
+        <v>1115</v>
+      </c>
+      <c r="J628" s="29" t="s">
+        <v>1614</v>
+      </c>
+      <c r="L628" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M628" s="28">
+        <v>0</v>
+      </c>
+      <c r="N628" s="28">
+        <v>0</v>
+      </c>
+      <c r="O628" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P628" s="29">
+        <v>99800</v>
+      </c>
+      <c r="Q628" s="29" t="s">
+        <v>1615</v>
+      </c>
+      <c r="R628" s="53" t="s">
+        <v>1138</v>
+      </c>
+      <c r="W628" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X628" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y628" s="29">
+        <v>1621296000</v>
+      </c>
+      <c r="Z628" s="29">
+        <v>1621871999</v>
+      </c>
+      <c r="AH628" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI628" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL628" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM628" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" spans="1:39">
+      <c r="A629" s="21">
+        <v>628</v>
+      </c>
+      <c r="B629" s="29">
+        <v>10545</v>
+      </c>
+      <c r="F629" s="29">
+        <v>1</v>
+      </c>
+      <c r="G629" s="29" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J629" s="29" t="s">
+        <v>1616</v>
+      </c>
+      <c r="L629" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M629" s="28">
+        <v>0</v>
+      </c>
+      <c r="N629" s="28">
+        <v>0</v>
+      </c>
+      <c r="O629" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P629" s="29">
+        <v>49800</v>
+      </c>
+      <c r="Q629" s="29" t="s">
+        <v>1615</v>
+      </c>
+      <c r="R629" s="53" t="s">
+        <v>1135</v>
+      </c>
+      <c r="W629" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X629" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y629" s="29">
+        <v>1621296000</v>
+      </c>
+      <c r="Z629" s="29">
+        <v>1621871999</v>
+      </c>
+      <c r="AH629" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI629" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL629" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM629" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:39">
+      <c r="A630" s="21">
+        <v>629</v>
+      </c>
+      <c r="B630" s="29">
+        <v>10546</v>
+      </c>
+      <c r="F630" s="29">
+        <v>1</v>
+      </c>
+      <c r="G630" s="29" t="s">
+        <v>1122</v>
+      </c>
+      <c r="J630" s="29" t="s">
+        <v>1617</v>
+      </c>
+      <c r="L630" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M630" s="28">
+        <v>0</v>
+      </c>
+      <c r="N630" s="28">
+        <v>0</v>
+      </c>
+      <c r="O630" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P630" s="29">
+        <v>29800</v>
+      </c>
+      <c r="Q630" s="29" t="s">
+        <v>1618</v>
+      </c>
+      <c r="R630" s="53" t="s">
+        <v>1131</v>
+      </c>
+      <c r="W630" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X630" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y630" s="29">
+        <v>1621296000</v>
+      </c>
+      <c r="Z630" s="29">
+        <v>1621871999</v>
+      </c>
+      <c r="AH630" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI630" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL630" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM630" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:39">
+      <c r="A631" s="21">
+        <v>630</v>
+      </c>
+      <c r="B631" s="29">
+        <v>10547</v>
+      </c>
+      <c r="F631" s="29">
+        <v>1</v>
+      </c>
+      <c r="G631" s="29" t="s">
+        <v>1126</v>
+      </c>
+      <c r="J631" s="29" t="s">
+        <v>1619</v>
+      </c>
+      <c r="L631" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M631" s="28">
+        <v>0</v>
+      </c>
+      <c r="N631" s="28">
+        <v>0</v>
+      </c>
+      <c r="O631" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P631" s="29">
+        <v>19800</v>
+      </c>
+      <c r="Q631" s="29" t="s">
+        <v>1618</v>
+      </c>
+      <c r="R631" s="53" t="s">
+        <v>1128</v>
+      </c>
+      <c r="W631" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X631" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y631" s="29">
+        <v>1621296000</v>
+      </c>
+      <c r="Z631" s="29">
+        <v>1621871999</v>
+      </c>
+      <c r="AH631" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI631" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL631" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM631" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" spans="1:39">
+      <c r="A632" s="21">
+        <v>631</v>
+      </c>
+      <c r="B632" s="29">
+        <v>10548</v>
+      </c>
+      <c r="F632" s="29">
+        <v>1</v>
+      </c>
+      <c r="G632" s="29" t="s">
+        <v>1129</v>
+      </c>
+      <c r="J632" s="29" t="s">
+        <v>1620</v>
+      </c>
+      <c r="L632" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M632" s="28">
+        <v>0</v>
+      </c>
+      <c r="N632" s="28">
+        <v>0</v>
+      </c>
+      <c r="O632" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P632" s="29">
+        <v>9800</v>
+      </c>
+      <c r="Q632" s="29" t="s">
+        <v>1618</v>
+      </c>
+      <c r="R632" s="53" t="s">
+        <v>1125</v>
+      </c>
+      <c r="W632" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X632" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y632" s="29">
+        <v>1621296000</v>
+      </c>
+      <c r="Z632" s="29">
+        <v>1621871999</v>
+      </c>
+      <c r="AH632" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI632" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL632" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM632" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:39">
+      <c r="A633" s="21">
+        <v>632</v>
+      </c>
+      <c r="B633" s="29">
+        <v>10549</v>
+      </c>
+      <c r="F633" s="29">
+        <v>1</v>
+      </c>
+      <c r="G633" s="29" t="s">
+        <v>1132</v>
+      </c>
+      <c r="J633" s="29" t="s">
+        <v>1621</v>
+      </c>
+      <c r="L633" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M633" s="28">
+        <v>0</v>
+      </c>
+      <c r="N633" s="28">
+        <v>0</v>
+      </c>
+      <c r="O633" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P633" s="29">
+        <v>4800</v>
+      </c>
+      <c r="Q633" s="29" t="s">
+        <v>1622</v>
+      </c>
+      <c r="R633" s="53" t="s">
+        <v>1121</v>
+      </c>
+      <c r="W633" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X633" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y633" s="29">
+        <v>1621296000</v>
+      </c>
+      <c r="Z633" s="29">
+        <v>1621871999</v>
+      </c>
+      <c r="AH633" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI633" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL633" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM633" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="1:39">
+      <c r="A634" s="21">
+        <v>633</v>
+      </c>
+      <c r="B634" s="29">
+        <v>10550</v>
+      </c>
+      <c r="F634" s="29">
+        <v>1</v>
+      </c>
+      <c r="G634" s="29" t="s">
+        <v>1136</v>
+      </c>
+      <c r="J634" s="29" t="s">
+        <v>1623</v>
+      </c>
+      <c r="L634" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M634" s="28">
+        <v>0</v>
+      </c>
+      <c r="N634" s="28">
+        <v>0</v>
+      </c>
+      <c r="O634" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P634" s="29">
+        <v>1800</v>
+      </c>
+      <c r="Q634" s="29" t="s">
+        <v>1622</v>
+      </c>
+      <c r="R634" s="53" t="s">
+        <v>1118</v>
+      </c>
+      <c r="W634" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X634" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y634" s="29">
+        <v>1621296000</v>
+      </c>
+      <c r="Z634" s="29">
+        <v>1621871999</v>
+      </c>
+      <c r="AH634" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI634" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL634" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM634" s="29">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -50530,19 +50994,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="58.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1614</v>
+        <v>1624</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1615</v>
+        <v>1625</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1616</v>
+        <v>1626</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1617</v>
+        <v>1627</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1618</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="2" ht="57.75" customHeight="1" spans="1:5">
@@ -50550,7 +51014,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1619</v>
+        <v>1629</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -50559,7 +51023,7 @@
         <v>3600</v>
       </c>
       <c r="E2" t="s">
-        <v>1620</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="3" ht="78.75" customHeight="1" spans="1:4">
@@ -50567,7 +51031,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>1621</v>
+        <v>1631</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -50581,7 +51045,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>1622</v>
+        <v>1632</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -50595,7 +51059,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>1623</v>
+        <v>1633</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -50609,7 +51073,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>1624</v>
+        <v>1634</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -50623,7 +51087,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1625</v>
+        <v>1635</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -50637,7 +51101,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1626</v>
+        <v>1636</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -50651,7 +51115,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1627</v>
+        <v>1637</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -50665,7 +51129,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1628</v>
+        <v>1638</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -50679,7 +51143,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1629</v>
+        <v>1639</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -50693,7 +51157,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>1624</v>
+        <v>1634</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -50707,7 +51171,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>1625</v>
+        <v>1635</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -50721,7 +51185,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>1630</v>
+        <v>1640</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -50735,7 +51199,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>1631</v>
+        <v>1641</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -50749,7 +51213,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>1632</v>
+        <v>1642</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -50763,7 +51227,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>1633</v>
+        <v>1643</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -50777,7 +51241,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>1634</v>
+        <v>1644</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -50791,7 +51255,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>1635</v>
+        <v>1645</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -50805,7 +51269,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>1636</v>
+        <v>1646</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -50819,7 +51283,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>1637</v>
+        <v>1647</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
@@ -50833,7 +51297,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>1638</v>
+        <v>1648</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
@@ -50847,7 +51311,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1639</v>
+        <v>1649</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
@@ -50861,7 +51325,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>1640</v>
+        <v>1650</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
@@ -50875,7 +51339,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1641</v>
+        <v>1651</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
@@ -50889,7 +51353,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>1642</v>
+        <v>1652</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -50903,7 +51367,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1643</v>
+        <v>1653</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -50917,7 +51381,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1644</v>
+        <v>1654</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -50931,7 +51395,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1645</v>
+        <v>1655</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -50945,7 +51409,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1646</v>
+        <v>1656</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -50959,7 +51423,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1647</v>
+        <v>1657</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -50973,7 +51437,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1648</v>
+        <v>1658</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -50987,7 +51451,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1649</v>
+        <v>1659</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -51001,7 +51465,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1650</v>
+        <v>1660</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -51015,7 +51479,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1651</v>
+        <v>1661</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -51029,7 +51493,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1652</v>
+        <v>1662</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -51043,7 +51507,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1653</v>
+        <v>1663</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -51057,7 +51521,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1654</v>
+        <v>1664</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -51071,7 +51535,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1655</v>
+        <v>1665</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -51085,7 +51549,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1656</v>
+        <v>1666</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -51099,7 +51563,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -51113,7 +51577,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -51127,7 +51591,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1659</v>
+        <v>1669</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -51141,7 +51605,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1660</v>
+        <v>1670</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -51155,7 +51619,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1661</v>
+        <v>1671</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -51169,7 +51633,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>1662</v>
+        <v>1672</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -51183,7 +51647,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>1663</v>
+        <v>1673</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -51197,7 +51661,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1664</v>
+        <v>1674</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -51211,7 +51675,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1665</v>
+        <v>1675</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -51225,7 +51689,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1666</v>
+        <v>1676</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -51239,7 +51703,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>1667</v>
+        <v>1677</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -51253,7 +51717,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>1668</v>
+        <v>1678</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -51267,7 +51731,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1669</v>
+        <v>1679</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -51281,7 +51745,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1670</v>
+        <v>1680</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
@@ -51295,7 +51759,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1671</v>
+        <v>1681</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -51309,7 +51773,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1672</v>
+        <v>1682</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -51323,7 +51787,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1673</v>
+        <v>1683</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -51337,7 +51801,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1674</v>
+        <v>1684</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -51351,7 +51815,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1675</v>
+        <v>1685</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -51365,7 +51829,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1676</v>
+        <v>1686</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -51379,7 +51843,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1677</v>
+        <v>1687</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -51393,7 +51857,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1678</v>
+        <v>1688</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -51407,7 +51871,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>1679</v>
+        <v>1689</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -51421,7 +51885,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1680</v>
+        <v>1690</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
@@ -51435,7 +51899,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1681</v>
+        <v>1691</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -51449,7 +51913,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1682</v>
+        <v>1692</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
@@ -51463,7 +51927,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1683</v>
+        <v>1693</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -51477,7 +51941,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1684</v>
+        <v>1694</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -51491,7 +51955,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1685</v>
+        <v>1695</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -51505,7 +51969,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1686</v>
+        <v>1696</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -51519,7 +51983,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>1687</v>
+        <v>1697</v>
       </c>
       <c r="C71" s="17">
         <v>1</v>
@@ -51533,7 +51997,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>1688</v>
+        <v>1698</v>
       </c>
       <c r="C72" s="17">
         <v>1</v>
@@ -51547,7 +52011,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>1689</v>
+        <v>1699</v>
       </c>
       <c r="C73" s="17">
         <v>1</v>
@@ -51561,7 +52025,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>1690</v>
+        <v>1700</v>
       </c>
       <c r="C74" s="17">
         <v>1</v>
@@ -51575,7 +52039,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>1691</v>
+        <v>1701</v>
       </c>
       <c r="C75" s="17">
         <v>1</v>
@@ -51589,7 +52053,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>1692</v>
+        <v>1702</v>
       </c>
       <c r="C76" s="17">
         <v>1</v>
@@ -51603,7 +52067,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>1693</v>
+        <v>1703</v>
       </c>
       <c r="C77" s="17">
         <v>1</v>
@@ -51617,7 +52081,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>1694</v>
+        <v>1704</v>
       </c>
       <c r="C78" s="17">
         <v>1</v>
@@ -51631,7 +52095,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>1695</v>
+        <v>1705</v>
       </c>
       <c r="C79" s="17">
         <v>1</v>
@@ -51645,7 +52109,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>1696</v>
+        <v>1706</v>
       </c>
       <c r="C80" s="17">
         <v>1</v>
@@ -51659,7 +52123,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>1697</v>
+        <v>1707</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -51673,7 +52137,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>1698</v>
+        <v>1708</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
@@ -51687,7 +52151,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>1699</v>
+        <v>1709</v>
       </c>
       <c r="C83" s="2">
         <v>1</v>
@@ -51701,7 +52165,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>1700</v>
+        <v>1710</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
@@ -51715,7 +52179,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>1701</v>
+        <v>1711</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -51767,7 +52231,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="90" customHeight="1" spans="1:29">
       <c r="A1" s="1" t="s">
-        <v>1702</v>
+        <v>1712</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -51779,19 +52243,19 @@
         <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1703</v>
+        <v>1713</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1704</v>
+        <v>1714</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1707</v>
+        <v>1717</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>31</v>
@@ -51806,7 +52270,7 @@
         <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1708</v>
+        <v>1718</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>39</v>
@@ -51851,7 +52315,7 @@
         <v>52</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>1709</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="1" spans="1:26">
@@ -51871,7 +52335,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="G2" s="12">
         <v>480</v>
@@ -51898,22 +52362,22 @@
         <v>3</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>1711</v>
+        <v>1721</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>1712</v>
+        <v>1722</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="T2" s="12" t="s">
         <v>61</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>1714</v>
+        <v>1724</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="Y2" s="12">
         <v>1</v>
@@ -51939,7 +52403,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="G3" s="12">
         <v>1200</v>
@@ -51969,19 +52433,19 @@
         <v>127</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>1716</v>
+        <v>1726</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="T3" s="12" t="s">
         <v>66</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>1717</v>
+        <v>1727</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="Y3" s="12">
         <v>1</v>
@@ -52007,7 +52471,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="G4" s="12">
         <v>2400</v>
@@ -52034,22 +52498,22 @@
         <v>5</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>1718</v>
+        <v>1728</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>1719</v>
+        <v>1729</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="T4" s="12" t="s">
         <v>70</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>1720</v>
+        <v>1730</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="Y4" s="12">
         <v>1</v>
@@ -52075,7 +52539,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="G5" s="12">
         <v>4000</v>
@@ -52102,22 +52566,22 @@
         <v>6</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>1721</v>
+        <v>1731</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>1722</v>
+        <v>1732</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="T5" s="12" t="s">
         <v>74</v>
       </c>
       <c r="U5" s="15" t="s">
-        <v>1723</v>
+        <v>1733</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="Y5" s="12">
         <v>1</v>
@@ -52143,7 +52607,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="G6" s="12">
         <v>7840</v>
@@ -52170,22 +52634,22 @@
         <v>7</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>1724</v>
+        <v>1734</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>1725</v>
+        <v>1735</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="T6" s="12" t="s">
         <v>78</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1726</v>
+        <v>1736</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="Y6" s="12">
         <v>1</v>
@@ -52211,7 +52675,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="G7" s="12">
         <v>39840</v>
@@ -52238,22 +52702,22 @@
         <v>9</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>1727</v>
+        <v>1737</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>1728</v>
+        <v>1738</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="T7" s="12" t="s">
         <v>82</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>1729</v>
+        <v>1739</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="Y7" s="12">
         <v>1</v>
@@ -52276,7 +52740,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="G8" s="12">
         <v>120</v>
@@ -52303,22 +52767,22 @@
         <v>0</v>
       </c>
       <c r="P8" s="15" t="s">
-        <v>1730</v>
+        <v>1740</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>1731</v>
+        <v>1741</v>
       </c>
       <c r="S8" s="15" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="T8" s="12" t="s">
         <v>61</v>
       </c>
       <c r="U8" s="15" t="s">
-        <v>1714</v>
+        <v>1724</v>
       </c>
       <c r="V8" s="12" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="Y8" s="12">
         <v>1</v>
@@ -52342,7 +52806,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>1732</v>
+        <v>1742</v>
       </c>
       <c r="G9" s="13">
         <v>5000</v>
@@ -52370,10 +52834,10 @@
         <v>2</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>1733</v>
+        <v>1743</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>1734</v>
+        <v>1744</v>
       </c>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
@@ -52381,10 +52845,10 @@
         <v>5000</v>
       </c>
       <c r="U9" s="13" t="s">
-        <v>1723</v>
+        <v>1733</v>
       </c>
       <c r="V9" s="13" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
@@ -52397,7 +52861,7 @@
       <c r="AA9" s="13"/>
       <c r="AB9" s="13"/>
       <c r="AC9" s="16" t="s">
-        <v>1735</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="10" s="12" customFormat="1" spans="1:29">
@@ -52415,7 +52879,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>1732</v>
+        <v>1742</v>
       </c>
       <c r="G10" s="13">
         <v>1000</v>
@@ -52443,10 +52907,10 @@
         <v>1</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>1736</v>
+        <v>1746</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>1737</v>
+        <v>1747</v>
       </c>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
@@ -52454,10 +52918,10 @@
         <v>1000</v>
       </c>
       <c r="U10" s="13" t="s">
-        <v>1717</v>
+        <v>1727</v>
       </c>
       <c r="V10" s="13" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
@@ -52470,7 +52934,7 @@
       <c r="AA10" s="13"/>
       <c r="AB10" s="13"/>
       <c r="AC10" s="16" t="s">
-        <v>1738</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="11" s="12" customFormat="1" spans="1:26">
@@ -52487,7 +52951,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="G11" s="12">
         <v>1200</v>
@@ -52517,19 +52981,19 @@
         <v>127</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>1716</v>
+        <v>1726</v>
       </c>
       <c r="S11" s="15" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="T11" s="15" t="s">
         <v>66</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>1717</v>
+        <v>1727</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="Y11" s="12">
         <v>1</v>
@@ -52555,7 +53019,7 @@
         <v>107</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="G12" s="12">
         <v>120000</v>
@@ -52582,22 +53046,22 @@
         <v>9</v>
       </c>
       <c r="P12" s="15" t="s">
-        <v>1739</v>
+        <v>1749</v>
       </c>
       <c r="Q12" s="15" t="s">
-        <v>1740</v>
+        <v>1750</v>
       </c>
       <c r="S12" s="15" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="T12" s="12" t="s">
         <v>86</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>1741</v>
+        <v>1751</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="Y12" s="12">
         <v>1</v>
@@ -52623,7 +53087,7 @@
         <v>108</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="G13" s="12">
         <v>79840</v>
@@ -52650,22 +53114,22 @@
         <v>10</v>
       </c>
       <c r="P13" s="15" t="s">
-        <v>1742</v>
+        <v>1752</v>
       </c>
       <c r="Q13" s="15" t="s">
-        <v>1743</v>
+        <v>1753</v>
       </c>
       <c r="S13" s="15" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>1744</v>
+        <v>1754</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>1741</v>
+        <v>1751</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="Y13" s="12">
         <v>1</v>
@@ -52691,7 +53155,7 @@
         <v>110</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="G14" s="12">
         <v>199840</v>
@@ -52718,22 +53182,22 @@
         <v>11</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>1745</v>
+        <v>1755</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>1746</v>
+        <v>1756</v>
       </c>
       <c r="S14" s="15" t="s">
-        <v>1747</v>
+        <v>1757</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>1748</v>
+        <v>1758</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>1749</v>
+        <v>1759</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="Y14" s="12">
         <v>1</v>
@@ -52757,7 +53221,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>1732</v>
+        <v>1742</v>
       </c>
       <c r="G15" s="13">
         <v>100</v>
@@ -52787,10 +53251,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>1750</v>
+        <v>1760</v>
       </c>
       <c r="Q15" s="16" t="s">
-        <v>1751</v>
+        <v>1761</v>
       </c>
       <c r="R15" s="13"/>
       <c r="S15" s="16"/>
@@ -52798,10 +53262,10 @@
         <v>100</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>1714</v>
+        <v>1724</v>
       </c>
       <c r="V15" s="13" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
@@ -52814,7 +53278,7 @@
       <c r="AA15" s="13"/>
       <c r="AB15" s="13"/>
       <c r="AC15" s="16" t="s">
-        <v>1752</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="16" s="12" customFormat="1" spans="1:26">
@@ -52834,7 +53298,7 @@
         <v>101</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="G16" s="12">
         <v>2000</v>
@@ -52861,23 +53325,23 @@
         <v>3</v>
       </c>
       <c r="P16" s="15" t="s">
-        <v>1753</v>
+        <v>1763</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="15" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="T16" s="12" t="s">
         <v>101</v>
       </c>
       <c r="U16" s="15" t="s">
-        <v>1714</v>
+        <v>1724</v>
       </c>
       <c r="V16" s="12" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -52902,7 +53366,7 @@
         <v>102</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="G17" s="12">
         <v>6700</v>
@@ -52929,23 +53393,23 @@
         <v>4</v>
       </c>
       <c r="P17" s="15" t="s">
-        <v>1755</v>
+        <v>1765</v>
       </c>
       <c r="Q17" s="15" t="s">
-        <v>1756</v>
+        <v>1766</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="15" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="T17" s="12" t="s">
         <v>105</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>1720</v>
+        <v>1730</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -52970,7 +53434,7 @@
         <v>103</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="G18" s="12">
         <v>13200</v>
@@ -52997,23 +53461,23 @@
         <v>5</v>
       </c>
       <c r="P18" s="15" t="s">
-        <v>1757</v>
+        <v>1767</v>
       </c>
       <c r="Q18" s="15" t="s">
-        <v>1758</v>
+        <v>1768</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" s="15" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="T18" s="12" t="s">
         <v>109</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>1726</v>
+        <v>1736</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -53038,7 +53502,7 @@
         <v>104</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="G19" s="12">
         <v>20400</v>
@@ -53065,23 +53529,23 @@
         <v>6</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>1759</v>
+        <v>1769</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>1760</v>
+        <v>1770</v>
       </c>
       <c r="R19" s="2"/>
       <c r="S19" s="15" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="T19" s="12" t="s">
         <v>114</v>
       </c>
       <c r="U19" s="15" t="s">
-        <v>1761</v>
+        <v>1771</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -53106,7 +53570,7 @@
         <v>105</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="G20" s="12">
         <v>66</v>
@@ -53133,22 +53597,22 @@
         <v>7</v>
       </c>
       <c r="P20" s="15" t="s">
-        <v>1762</v>
+        <v>1772</v>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>1763</v>
+        <v>1773</v>
       </c>
       <c r="S20" s="15" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="T20" s="12" t="s">
         <v>120</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>1761</v>
+        <v>1771</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="Y20" s="12">
         <v>1</v>
@@ -53172,7 +53636,7 @@
         <v>101</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="G21" s="12">
         <v>200</v>
@@ -53203,20 +53667,20 @@
         <v>890</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>1764</v>
+        <v>1774</v>
       </c>
       <c r="R21" s="12"/>
       <c r="S21" s="15" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="T21" s="12" t="s">
         <v>124</v>
       </c>
       <c r="U21" s="15" t="s">
-        <v>1714</v>
+        <v>1724</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
@@ -53245,7 +53709,7 @@
         <v>104</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>1732</v>
+        <v>1742</v>
       </c>
       <c r="G22" s="13">
         <v>5000</v>
@@ -53273,10 +53737,10 @@
         <v>2</v>
       </c>
       <c r="P22" s="16" t="s">
-        <v>1733</v>
+        <v>1743</v>
       </c>
       <c r="Q22" s="16" t="s">
-        <v>1734</v>
+        <v>1744</v>
       </c>
       <c r="R22" s="13"/>
       <c r="S22" s="16"/>
@@ -53284,10 +53748,10 @@
         <v>5000</v>
       </c>
       <c r="U22" s="16" t="s">
-        <v>1723</v>
+        <v>1733</v>
       </c>
       <c r="V22" s="13" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="W22" s="13"/>
       <c r="X22" s="13"/>
@@ -53316,7 +53780,7 @@
         <v>102</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>1732</v>
+        <v>1742</v>
       </c>
       <c r="G23" s="13">
         <v>1000</v>
@@ -53344,10 +53808,10 @@
         <v>1</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>1736</v>
+        <v>1746</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>1737</v>
+        <v>1747</v>
       </c>
       <c r="R23" s="13"/>
       <c r="S23" s="16"/>
@@ -53355,10 +53819,10 @@
         <v>1000</v>
       </c>
       <c r="U23" s="16" t="s">
-        <v>1714</v>
+        <v>1724</v>
       </c>
       <c r="V23" s="13" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="W23" s="13"/>
       <c r="X23" s="13"/>
@@ -53380,14 +53844,14 @@
         <v>109</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>1765</v>
+        <v>1775</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
         <v>101</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>1732</v>
+        <v>1742</v>
       </c>
       <c r="G24" s="13">
         <v>100</v>
@@ -53417,10 +53881,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="16" t="s">
-        <v>1750</v>
+        <v>1760</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>1751</v>
+        <v>1761</v>
       </c>
       <c r="R24" s="13"/>
       <c r="S24" s="16"/>
@@ -53428,10 +53892,10 @@
         <v>100</v>
       </c>
       <c r="U24" s="16" t="s">
-        <v>1714</v>
+        <v>1724</v>
       </c>
       <c r="V24" s="13" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="W24" s="13"/>
       <c r="X24" s="13"/>
@@ -53444,7 +53908,7 @@
       <c r="AA24" s="13"/>
       <c r="AB24" s="13"/>
       <c r="AC24" s="16" t="s">
-        <v>1752</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="25" s="12" customFormat="1" spans="1:26">
@@ -53464,7 +53928,7 @@
         <v>111</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="G25" s="12">
         <v>15840</v>
@@ -53491,22 +53955,22 @@
         <v>8</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>1766</v>
+        <v>1776</v>
       </c>
       <c r="Q25" s="15" t="s">
-        <v>1767</v>
+        <v>1777</v>
       </c>
       <c r="S25" s="15" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="T25" s="15" t="s">
-        <v>1768</v>
+        <v>1778</v>
       </c>
       <c r="U25" s="15" t="s">
-        <v>1761</v>
+        <v>1771</v>
       </c>
       <c r="V25" s="12" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="Y25" s="12">
         <v>1</v>
@@ -53569,13 +54033,13 @@
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1704</v>
+        <v>1714</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1769</v>
+        <v>1779</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>31</v>
@@ -53587,16 +54051,16 @@
         <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1770</v>
+        <v>1780</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1771</v>
+        <v>1781</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1772</v>
+        <v>1782</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1773</v>
+        <v>1783</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>38</v>
@@ -53637,7 +54101,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1774</v>
+        <v>1784</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -53649,7 +54113,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1775</v>
+        <v>1785</v>
       </c>
       <c r="L2" s="2">
         <v>54</v>
@@ -53658,7 +54122,7 @@
         <v>999999</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1776</v>
+        <v>1786</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -53667,22 +54131,22 @@
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1777</v>
+        <v>1787</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1778</v>
+        <v>1788</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1779</v>
+        <v>1789</v>
       </c>
       <c r="T2" s="2">
         <v>60000</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1780</v>
+        <v>1790</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:23">
@@ -53693,7 +54157,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1774</v>
+        <v>1784</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -53705,7 +54169,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1775</v>
+        <v>1785</v>
       </c>
       <c r="L3" s="2">
         <v>54</v>
@@ -53714,7 +54178,7 @@
         <v>999999</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1781</v>
+        <v>1791</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -53723,22 +54187,22 @@
         <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1777</v>
+        <v>1787</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1782</v>
+        <v>1792</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1779</v>
+        <v>1789</v>
       </c>
       <c r="T3" s="2">
         <v>500000</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1780</v>
+        <v>1790</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="W3" s="2">
         <v>8.3</v>
@@ -53752,7 +54216,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1783</v>
+        <v>1793</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -53777,19 +54241,19 @@
         <v>4</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>1784</v>
+        <v>1794</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>1785</v>
+        <v>1795</v>
       </c>
       <c r="T4" s="2">
         <v>15000</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>1786</v>
+        <v>1796</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:22">
@@ -53800,7 +54264,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1787</v>
+        <v>1797</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -53827,10 +54291,10 @@
         <v>100000</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>1788</v>
+        <v>1798</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:22">
@@ -53841,7 +54305,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1789</v>
+        <v>1799</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -53868,10 +54332,10 @@
         <v>100000</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1788</v>
+        <v>1798</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:23">
@@ -53882,7 +54346,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1774</v>
+        <v>1784</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -53894,7 +54358,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1790</v>
+        <v>1800</v>
       </c>
       <c r="L7" s="2">
         <v>56</v>
@@ -53903,7 +54367,7 @@
         <v>999999</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>1781</v>
+        <v>1791</v>
       </c>
       <c r="O7" s="6">
         <v>0</v>
@@ -53912,22 +54376,22 @@
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>1791</v>
+        <v>1801</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>1782</v>
+        <v>1792</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>1779</v>
+        <v>1789</v>
       </c>
       <c r="T7" s="2">
         <v>500000</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>1792</v>
+        <v>1802</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="W7" s="2">
         <v>8.3</v>
@@ -53941,10 +54405,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1793</v>
+        <v>1803</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="F8" s="2">
         <v>100</v>
@@ -53956,7 +54420,7 @@
         <v>125</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1794</v>
+        <v>1804</v>
       </c>
       <c r="L8" s="2">
         <v>57</v>
@@ -53971,22 +54435,22 @@
         <v>5</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>1795</v>
+        <v>1805</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>1796</v>
+        <v>1806</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>1779</v>
+        <v>1789</v>
       </c>
       <c r="T8" s="2">
         <v>100</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>1797</v>
+        <v>1807</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:22">
@@ -53997,10 +54461,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1798</v>
+        <v>1808</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="F9" s="2">
         <v>1000</v>
@@ -54015,16 +54479,16 @@
         <v>6</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>1799</v>
+        <v>1809</v>
       </c>
       <c r="T9" s="2">
         <v>1000</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>1800</v>
+        <v>1810</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:22">
@@ -54035,10 +54499,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1798</v>
+        <v>1808</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="F10" s="2">
         <v>5800</v>
@@ -54053,16 +54517,16 @@
         <v>7</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>1801</v>
+        <v>1811</v>
       </c>
       <c r="T10" s="2">
         <v>5800</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>1800</v>
+        <v>1810</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:22">
@@ -54073,10 +54537,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1798</v>
+        <v>1808</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="F11" s="2">
         <v>8800</v>
@@ -54091,16 +54555,16 @@
         <v>8</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>1802</v>
+        <v>1812</v>
       </c>
       <c r="T11" s="2">
         <v>8800</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>1800</v>
+        <v>1810</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:22">
@@ -54111,10 +54575,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1798</v>
+        <v>1808</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="F12" s="2">
         <v>18800</v>
@@ -54129,16 +54593,16 @@
         <v>9</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>1803</v>
+        <v>1813</v>
       </c>
       <c r="T12" s="2">
         <v>18800</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>1800</v>
+        <v>1810</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:23">
@@ -54149,7 +54613,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1804</v>
+        <v>1814</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -54173,16 +54637,16 @@
         <v>0</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>1805</v>
+        <v>1815</v>
       </c>
       <c r="T13" s="2">
         <v>70000</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>1806</v>
+        <v>1816</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="W13" s="2">
         <v>7</v>
@@ -54196,7 +54660,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1804</v>
+        <v>1814</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -54220,16 +54684,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>1807</v>
+        <v>1817</v>
       </c>
       <c r="T14" s="2">
         <v>180000</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>1806</v>
+        <v>1816</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="W14" s="2">
         <v>6</v>
@@ -54243,10 +54707,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1804</v>
+        <v>1814</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1732</v>
+        <v>1742</v>
       </c>
       <c r="F15" s="2">
         <v>1500</v>
@@ -54267,16 +54731,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>1808</v>
+        <v>1818</v>
       </c>
       <c r="T15" s="2">
         <v>1500</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>1806</v>
+        <v>1816</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="W15" s="2">
         <v>3</v>
@@ -54290,10 +54754,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1809</v>
+        <v>1819</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1732</v>
+        <v>1742</v>
       </c>
       <c r="F16" s="3">
         <v>200</v>
@@ -54309,13 +54773,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>1810</v>
+        <v>1820</v>
       </c>
       <c r="T16" s="3">
         <v>200</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:22">
@@ -54326,10 +54790,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1809</v>
+        <v>1819</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1732</v>
+        <v>1742</v>
       </c>
       <c r="F17" s="3">
         <v>2000</v>
@@ -54345,13 +54809,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>1811</v>
+        <v>1821</v>
       </c>
       <c r="T17" s="3">
         <v>2000</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:22">
@@ -54362,7 +54826,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1809</v>
+        <v>1819</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
@@ -54381,13 +54845,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>1810</v>
+        <v>1820</v>
       </c>
       <c r="T18" s="3">
         <v>20000</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:22">
@@ -54398,7 +54862,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1809</v>
+        <v>1819</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>14</v>
@@ -54417,13 +54881,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>1811</v>
+        <v>1821</v>
       </c>
       <c r="T19" s="3">
         <v>200000</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:22">
@@ -54434,7 +54898,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1812</v>
+        <v>1822</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>14</v>
@@ -54452,16 +54916,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>1813</v>
+        <v>1823</v>
       </c>
       <c r="T20" s="4">
         <v>300000</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1814</v>
+        <v>1824</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:22">
@@ -54472,7 +54936,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1815</v>
+        <v>1825</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>14</v>
@@ -54490,16 +54954,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>1816</v>
+        <v>1826</v>
       </c>
       <c r="T21" s="4">
         <v>300000</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1817</v>
+        <v>1827</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/shoping_config_vivo.xlsx
+++ b/config_Release/shoping_config_vivo.xlsx
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5048" uniqueCount="1828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5132" uniqueCount="1848">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5812,6 +5812,66 @@
   </si>
   <si>
     <t>"180万金币","10万小游戏币","水滴*5"</t>
+  </si>
+  <si>
+    <t>话费礼包</t>
+  </si>
+  <si>
+    <t>"60万金币","28话费碎片"</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei"</t>
+  </si>
+  <si>
+    <t>600000,28,</t>
+  </si>
+  <si>
+    <t>"100万金币","48话费碎片"</t>
+  </si>
+  <si>
+    <t>1000000,48,</t>
+  </si>
+  <si>
+    <t>"180万金币","98话费碎片"</t>
+  </si>
+  <si>
+    <t>1800000,98,</t>
+  </si>
+  <si>
+    <t>"180万金币","58话费碎片"</t>
+  </si>
+  <si>
+    <t>1800000,58,</t>
+  </si>
+  <si>
+    <t>"300万金币","98话费碎片"</t>
+  </si>
+  <si>
+    <t>3000000,98,</t>
+  </si>
+  <si>
+    <t>"480万金币","168话费碎片"</t>
+  </si>
+  <si>
+    <t>4800000,168,</t>
+  </si>
+  <si>
+    <t>"980万金币","338话费碎片"</t>
+  </si>
+  <si>
+    <t>9800000,338,</t>
+  </si>
+  <si>
+    <t>"1980万金币","688话费碎片"</t>
+  </si>
+  <si>
+    <t>19800000,688,</t>
+  </si>
+  <si>
+    <t>"4980万金币","1688话费碎片"</t>
+  </si>
+  <si>
+    <t>49800000,1688,</t>
   </si>
   <si>
     <t>id|不能重复</t>
@@ -6710,9 +6770,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -6754,7 +6814,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -6771,21 +6830,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -6793,7 +6853,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6808,52 +6876,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6867,9 +6897,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6883,11 +6921,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6977,7 +7037,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6989,7 +7061,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7001,13 +7097,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7019,25 +7133,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7049,85 +7181,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7167,17 +7227,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -7189,6 +7238,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7219,33 +7283,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7264,6 +7306,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7272,10 +7332,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7284,133 +7344,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10160,14 +10220,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN634"/>
+  <dimension ref="A1:AN646"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H614" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="AK624" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J628" sqref="J628:J634"/>
+      <selection pane="bottomRight" activeCell="AU646" sqref="AU646"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -48611,8 +48671,8 @@
       <c r="B599" s="28">
         <v>10515</v>
       </c>
-      <c r="F599" s="28">
-        <v>1</v>
+      <c r="F599" s="21">
+        <v>0</v>
       </c>
       <c r="G599" s="28" t="s">
         <v>1394</v>
@@ -48679,8 +48739,8 @@
       <c r="B600" s="28">
         <v>10516</v>
       </c>
-      <c r="F600" s="28">
-        <v>1</v>
+      <c r="F600" s="21">
+        <v>0</v>
       </c>
       <c r="G600" s="28" t="s">
         <v>1394</v>
@@ -48747,8 +48807,8 @@
       <c r="B601" s="28">
         <v>10517</v>
       </c>
-      <c r="F601" s="28">
-        <v>1</v>
+      <c r="F601" s="21">
+        <v>0</v>
       </c>
       <c r="G601" s="28" t="s">
         <v>1394</v>
@@ -48815,8 +48875,8 @@
       <c r="B602" s="28">
         <v>10518</v>
       </c>
-      <c r="F602" s="28">
-        <v>1</v>
+      <c r="F602" s="21">
+        <v>0</v>
       </c>
       <c r="G602" s="28" t="s">
         <v>1394</v>
@@ -48883,8 +48943,8 @@
       <c r="B603" s="28">
         <v>10519</v>
       </c>
-      <c r="F603" s="28">
-        <v>1</v>
+      <c r="F603" s="21">
+        <v>0</v>
       </c>
       <c r="G603" s="28" t="s">
         <v>1394</v>
@@ -48951,8 +49011,8 @@
       <c r="B604" s="28">
         <v>10520</v>
       </c>
-      <c r="F604" s="28">
-        <v>1</v>
+      <c r="F604" s="21">
+        <v>0</v>
       </c>
       <c r="G604" s="28" t="s">
         <v>1394</v>
@@ -49019,8 +49079,8 @@
       <c r="B605" s="28">
         <v>10521</v>
       </c>
-      <c r="F605" s="28">
-        <v>1</v>
+      <c r="F605" s="21">
+        <v>0</v>
       </c>
       <c r="G605" s="28" t="s">
         <v>1394</v>
@@ -49087,8 +49147,8 @@
       <c r="B606" s="28">
         <v>10522</v>
       </c>
-      <c r="F606" s="28">
-        <v>1</v>
+      <c r="F606" s="21">
+        <v>0</v>
       </c>
       <c r="G606" s="28" t="s">
         <v>1394</v>
@@ -49155,8 +49215,8 @@
       <c r="B607" s="28">
         <v>10523</v>
       </c>
-      <c r="F607" s="28">
-        <v>1</v>
+      <c r="F607" s="21">
+        <v>0</v>
       </c>
       <c r="G607" s="28" t="s">
         <v>1394</v>
@@ -49223,8 +49283,8 @@
       <c r="B608" s="28">
         <v>10524</v>
       </c>
-      <c r="F608" s="28">
-        <v>1</v>
+      <c r="F608" s="21">
+        <v>0</v>
       </c>
       <c r="G608" s="28" t="s">
         <v>1394</v>
@@ -49291,8 +49351,8 @@
       <c r="B609" s="28">
         <v>10525</v>
       </c>
-      <c r="F609" s="28">
-        <v>1</v>
+      <c r="F609" s="21">
+        <v>0</v>
       </c>
       <c r="G609" s="28" t="s">
         <v>1394</v>
@@ -49359,8 +49419,8 @@
       <c r="B610" s="28">
         <v>10526</v>
       </c>
-      <c r="F610" s="28">
-        <v>1</v>
+      <c r="F610" s="21">
+        <v>0</v>
       </c>
       <c r="G610" s="28" t="s">
         <v>1394</v>
@@ -49427,8 +49487,8 @@
       <c r="B611" s="29">
         <v>10527</v>
       </c>
-      <c r="F611" s="29">
-        <v>1</v>
+      <c r="F611" s="21">
+        <v>0</v>
       </c>
       <c r="G611" s="29" t="s">
         <v>1579</v>
@@ -49489,8 +49549,8 @@
       <c r="B612" s="29">
         <v>10528</v>
       </c>
-      <c r="F612" s="29">
-        <v>1</v>
+      <c r="F612" s="21">
+        <v>0</v>
       </c>
       <c r="G612" s="29" t="s">
         <v>1579</v>
@@ -49551,8 +49611,8 @@
       <c r="B613" s="29">
         <v>10529</v>
       </c>
-      <c r="F613" s="29">
-        <v>1</v>
+      <c r="F613" s="21">
+        <v>0</v>
       </c>
       <c r="G613" s="29" t="s">
         <v>1579</v>
@@ -49613,8 +49673,8 @@
       <c r="B614" s="29">
         <v>10530</v>
       </c>
-      <c r="F614" s="29">
-        <v>1</v>
+      <c r="F614" s="21">
+        <v>0</v>
       </c>
       <c r="G614" s="29" t="s">
         <v>1579</v>
@@ -49675,8 +49735,8 @@
       <c r="B615" s="29">
         <v>10531</v>
       </c>
-      <c r="F615" s="29">
-        <v>1</v>
+      <c r="F615" s="21">
+        <v>0</v>
       </c>
       <c r="G615" s="29" t="s">
         <v>1579</v>
@@ -49737,8 +49797,8 @@
       <c r="B616" s="29">
         <v>10532</v>
       </c>
-      <c r="F616" s="29">
-        <v>1</v>
+      <c r="F616" s="21">
+        <v>0</v>
       </c>
       <c r="G616" s="29" t="s">
         <v>1579</v>
@@ -49799,7 +49859,7 @@
       <c r="B617" s="29">
         <v>10533</v>
       </c>
-      <c r="F617" s="29">
+      <c r="F617" s="21">
         <v>0</v>
       </c>
       <c r="G617" s="29" t="s">
@@ -49864,7 +49924,7 @@
       <c r="B618" s="29">
         <v>10534</v>
       </c>
-      <c r="F618" s="29">
+      <c r="F618" s="21">
         <v>0</v>
       </c>
       <c r="G618" s="29" t="s">
@@ -49929,8 +49989,8 @@
       <c r="B619" s="29">
         <v>10535</v>
       </c>
-      <c r="F619" s="29">
-        <v>1</v>
+      <c r="F619" s="21">
+        <v>0</v>
       </c>
       <c r="G619" s="29" t="s">
         <v>1594</v>
@@ -49997,8 +50057,8 @@
       <c r="B620" s="29">
         <v>10536</v>
       </c>
-      <c r="F620" s="29">
-        <v>1</v>
+      <c r="F620" s="21">
+        <v>0</v>
       </c>
       <c r="G620" s="29" t="s">
         <v>1594</v>
@@ -50065,8 +50125,8 @@
       <c r="B621" s="29">
         <v>10537</v>
       </c>
-      <c r="F621" s="29">
-        <v>1</v>
+      <c r="F621" s="21">
+        <v>0</v>
       </c>
       <c r="G621" s="29" t="s">
         <v>1594</v>
@@ -50133,8 +50193,8 @@
       <c r="B622" s="29">
         <v>10538</v>
       </c>
-      <c r="F622" s="29">
-        <v>1</v>
+      <c r="F622" s="21">
+        <v>0</v>
       </c>
       <c r="G622" s="29" t="s">
         <v>1594</v>
@@ -50201,8 +50261,8 @@
       <c r="B623" s="29">
         <v>10539</v>
       </c>
-      <c r="F623" s="29">
-        <v>1</v>
+      <c r="F623" s="21">
+        <v>0</v>
       </c>
       <c r="G623" s="29" t="s">
         <v>1594</v>
@@ -50269,8 +50329,8 @@
       <c r="B624" s="29">
         <v>10540</v>
       </c>
-      <c r="F624" s="29">
-        <v>1</v>
+      <c r="F624" s="21">
+        <v>0</v>
       </c>
       <c r="G624" s="29" t="s">
         <v>1594</v>
@@ -50337,8 +50397,8 @@
       <c r="B625" s="29">
         <v>10541</v>
       </c>
-      <c r="F625" s="29">
-        <v>1</v>
+      <c r="F625" s="21">
+        <v>0</v>
       </c>
       <c r="G625" s="29" t="s">
         <v>1594</v>
@@ -50405,8 +50465,8 @@
       <c r="B626" s="29">
         <v>10542</v>
       </c>
-      <c r="F626" s="29">
-        <v>1</v>
+      <c r="F626" s="21">
+        <v>0</v>
       </c>
       <c r="G626" s="29" t="s">
         <v>1594</v>
@@ -50473,8 +50533,8 @@
       <c r="B627" s="29">
         <v>10543</v>
       </c>
-      <c r="F627" s="29">
-        <v>1</v>
+      <c r="F627" s="21">
+        <v>0</v>
       </c>
       <c r="G627" s="29" t="s">
         <v>1594</v>
@@ -50541,8 +50601,8 @@
       <c r="B628" s="29">
         <v>10544</v>
       </c>
-      <c r="F628" s="29">
-        <v>1</v>
+      <c r="F628" s="21">
+        <v>0</v>
       </c>
       <c r="G628" s="29" t="s">
         <v>1115</v>
@@ -50603,8 +50663,8 @@
       <c r="B629" s="29">
         <v>10545</v>
       </c>
-      <c r="F629" s="29">
-        <v>1</v>
+      <c r="F629" s="21">
+        <v>0</v>
       </c>
       <c r="G629" s="29" t="s">
         <v>1119</v>
@@ -50665,8 +50725,8 @@
       <c r="B630" s="29">
         <v>10546</v>
       </c>
-      <c r="F630" s="29">
-        <v>1</v>
+      <c r="F630" s="21">
+        <v>0</v>
       </c>
       <c r="G630" s="29" t="s">
         <v>1122</v>
@@ -50727,8 +50787,8 @@
       <c r="B631" s="29">
         <v>10547</v>
       </c>
-      <c r="F631" s="29">
-        <v>1</v>
+      <c r="F631" s="21">
+        <v>0</v>
       </c>
       <c r="G631" s="29" t="s">
         <v>1126</v>
@@ -50789,8 +50849,8 @@
       <c r="B632" s="29">
         <v>10548</v>
       </c>
-      <c r="F632" s="29">
-        <v>1</v>
+      <c r="F632" s="21">
+        <v>0</v>
       </c>
       <c r="G632" s="29" t="s">
         <v>1129</v>
@@ -50851,8 +50911,8 @@
       <c r="B633" s="29">
         <v>10549</v>
       </c>
-      <c r="F633" s="29">
-        <v>1</v>
+      <c r="F633" s="21">
+        <v>0</v>
       </c>
       <c r="G633" s="29" t="s">
         <v>1132</v>
@@ -50913,8 +50973,8 @@
       <c r="B634" s="29">
         <v>10550</v>
       </c>
-      <c r="F634" s="29">
-        <v>1</v>
+      <c r="F634" s="21">
+        <v>0</v>
       </c>
       <c r="G634" s="29" t="s">
         <v>1136</v>
@@ -50965,6 +51025,870 @@
         <v>1</v>
       </c>
       <c r="AM634" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635" spans="1:39">
+      <c r="A635" s="21">
+        <v>634</v>
+      </c>
+      <c r="B635" s="29">
+        <v>10551</v>
+      </c>
+      <c r="F635" s="29">
+        <v>1</v>
+      </c>
+      <c r="G635" s="29" t="s">
+        <v>1624</v>
+      </c>
+      <c r="H635" s="29"/>
+      <c r="I635" s="28" t="s">
+        <v>1546</v>
+      </c>
+      <c r="J635" s="29" t="s">
+        <v>1625</v>
+      </c>
+      <c r="K635" s="29"/>
+      <c r="L635" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M635" s="28">
+        <v>0</v>
+      </c>
+      <c r="N635" s="28">
+        <v>0</v>
+      </c>
+      <c r="O635" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P635" s="29">
+        <v>600</v>
+      </c>
+      <c r="Q635" s="29" t="s">
+        <v>1626</v>
+      </c>
+      <c r="R635" s="53" t="s">
+        <v>1627</v>
+      </c>
+      <c r="S635" s="29"/>
+      <c r="W635" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X635" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y635" s="29">
+        <v>1621900800</v>
+      </c>
+      <c r="Z635" s="29">
+        <v>1622476799</v>
+      </c>
+      <c r="AA635" s="29">
+        <v>80</v>
+      </c>
+      <c r="AB635" s="29"/>
+      <c r="AH635" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI635" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL635" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM635" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:39">
+      <c r="A636" s="21">
+        <v>635</v>
+      </c>
+      <c r="B636" s="29">
+        <v>10552</v>
+      </c>
+      <c r="F636" s="29">
+        <v>1</v>
+      </c>
+      <c r="G636" s="29" t="s">
+        <v>1624</v>
+      </c>
+      <c r="H636" s="29"/>
+      <c r="I636" s="28" t="s">
+        <v>1546</v>
+      </c>
+      <c r="J636" s="29" t="s">
+        <v>1628</v>
+      </c>
+      <c r="K636" s="29"/>
+      <c r="L636" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M636" s="28">
+        <v>0</v>
+      </c>
+      <c r="N636" s="28">
+        <v>0</v>
+      </c>
+      <c r="O636" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P636" s="29">
+        <v>1000</v>
+      </c>
+      <c r="Q636" s="29" t="s">
+        <v>1626</v>
+      </c>
+      <c r="R636" s="53" t="s">
+        <v>1629</v>
+      </c>
+      <c r="S636" s="29"/>
+      <c r="W636" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X636" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y636" s="29">
+        <v>1621900800</v>
+      </c>
+      <c r="Z636" s="29">
+        <v>1622476799</v>
+      </c>
+      <c r="AA636" s="29">
+        <v>80</v>
+      </c>
+      <c r="AB636" s="29"/>
+      <c r="AH636" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI636" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL636" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM636" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:39">
+      <c r="A637" s="21">
+        <v>636</v>
+      </c>
+      <c r="B637" s="29">
+        <v>10553</v>
+      </c>
+      <c r="F637" s="29">
+        <v>1</v>
+      </c>
+      <c r="G637" s="29" t="s">
+        <v>1624</v>
+      </c>
+      <c r="H637" s="29"/>
+      <c r="I637" s="28" t="s">
+        <v>1546</v>
+      </c>
+      <c r="J637" s="29" t="s">
+        <v>1630</v>
+      </c>
+      <c r="K637" s="29"/>
+      <c r="L637" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M637" s="28">
+        <v>0</v>
+      </c>
+      <c r="N637" s="28">
+        <v>0</v>
+      </c>
+      <c r="O637" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P637" s="29">
+        <v>1800</v>
+      </c>
+      <c r="Q637" s="29" t="s">
+        <v>1626</v>
+      </c>
+      <c r="R637" s="53" t="s">
+        <v>1631</v>
+      </c>
+      <c r="S637" s="29"/>
+      <c r="W637" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X637" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y637" s="29">
+        <v>1621900800</v>
+      </c>
+      <c r="Z637" s="29">
+        <v>1622476799</v>
+      </c>
+      <c r="AA637" s="29">
+        <v>80</v>
+      </c>
+      <c r="AB637" s="29"/>
+      <c r="AH637" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI637" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL637" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM637" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:39">
+      <c r="A638" s="21">
+        <v>637</v>
+      </c>
+      <c r="B638" s="29">
+        <v>10554</v>
+      </c>
+      <c r="F638" s="29">
+        <v>1</v>
+      </c>
+      <c r="G638" s="29" t="s">
+        <v>1624</v>
+      </c>
+      <c r="H638" s="29"/>
+      <c r="I638" s="28" t="s">
+        <v>1553</v>
+      </c>
+      <c r="J638" s="29" t="s">
+        <v>1632</v>
+      </c>
+      <c r="K638" s="29"/>
+      <c r="L638" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M638" s="28">
+        <v>0</v>
+      </c>
+      <c r="N638" s="28">
+        <v>0</v>
+      </c>
+      <c r="O638" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P638" s="29">
+        <v>1800</v>
+      </c>
+      <c r="Q638" s="29" t="s">
+        <v>1626</v>
+      </c>
+      <c r="R638" s="53" t="s">
+        <v>1633</v>
+      </c>
+      <c r="S638" s="29"/>
+      <c r="W638" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X638" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y638" s="29">
+        <v>1621900800</v>
+      </c>
+      <c r="Z638" s="29">
+        <v>1622476799</v>
+      </c>
+      <c r="AA638" s="29">
+        <v>81</v>
+      </c>
+      <c r="AB638" s="29"/>
+      <c r="AH638" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI638" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL638" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM638" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:39">
+      <c r="A639" s="21">
+        <v>638</v>
+      </c>
+      <c r="B639" s="29">
+        <v>10555</v>
+      </c>
+      <c r="F639" s="29">
+        <v>1</v>
+      </c>
+      <c r="G639" s="29" t="s">
+        <v>1624</v>
+      </c>
+      <c r="H639" s="29"/>
+      <c r="I639" s="28" t="s">
+        <v>1553</v>
+      </c>
+      <c r="J639" s="29" t="s">
+        <v>1634</v>
+      </c>
+      <c r="K639" s="29"/>
+      <c r="L639" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M639" s="28">
+        <v>0</v>
+      </c>
+      <c r="N639" s="28">
+        <v>0</v>
+      </c>
+      <c r="O639" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P639" s="29">
+        <v>3000</v>
+      </c>
+      <c r="Q639" s="29" t="s">
+        <v>1626</v>
+      </c>
+      <c r="R639" s="53" t="s">
+        <v>1635</v>
+      </c>
+      <c r="S639" s="29"/>
+      <c r="W639" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X639" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y639" s="29">
+        <v>1621900800</v>
+      </c>
+      <c r="Z639" s="29">
+        <v>1622476799</v>
+      </c>
+      <c r="AA639" s="29">
+        <v>81</v>
+      </c>
+      <c r="AB639" s="29"/>
+      <c r="AH639" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI639" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL639" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM639" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640" spans="1:39">
+      <c r="A640" s="21">
+        <v>639</v>
+      </c>
+      <c r="B640" s="29">
+        <v>10556</v>
+      </c>
+      <c r="F640" s="29">
+        <v>1</v>
+      </c>
+      <c r="G640" s="29" t="s">
+        <v>1624</v>
+      </c>
+      <c r="H640" s="29"/>
+      <c r="I640" s="28" t="s">
+        <v>1553</v>
+      </c>
+      <c r="J640" s="29" t="s">
+        <v>1636</v>
+      </c>
+      <c r="K640" s="29"/>
+      <c r="L640" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M640" s="28">
+        <v>0</v>
+      </c>
+      <c r="N640" s="28">
+        <v>0</v>
+      </c>
+      <c r="O640" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P640" s="29">
+        <v>4800</v>
+      </c>
+      <c r="Q640" s="29" t="s">
+        <v>1626</v>
+      </c>
+      <c r="R640" s="53" t="s">
+        <v>1637</v>
+      </c>
+      <c r="S640" s="29"/>
+      <c r="W640" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X640" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y640" s="29">
+        <v>1621900800</v>
+      </c>
+      <c r="Z640" s="29">
+        <v>1622476799</v>
+      </c>
+      <c r="AA640" s="29">
+        <v>81</v>
+      </c>
+      <c r="AB640" s="29"/>
+      <c r="AH640" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI640" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL640" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM640" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" spans="1:39">
+      <c r="A641" s="21">
+        <v>640</v>
+      </c>
+      <c r="B641" s="29">
+        <v>10557</v>
+      </c>
+      <c r="F641" s="29">
+        <v>1</v>
+      </c>
+      <c r="G641" s="29" t="s">
+        <v>1624</v>
+      </c>
+      <c r="H641" s="29"/>
+      <c r="I641" s="28" t="s">
+        <v>1560</v>
+      </c>
+      <c r="J641" s="29" t="s">
+        <v>1636</v>
+      </c>
+      <c r="K641" s="29"/>
+      <c r="L641" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M641" s="28">
+        <v>0</v>
+      </c>
+      <c r="N641" s="28">
+        <v>0</v>
+      </c>
+      <c r="O641" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P641" s="29">
+        <v>4800</v>
+      </c>
+      <c r="Q641" s="29" t="s">
+        <v>1626</v>
+      </c>
+      <c r="R641" s="53" t="s">
+        <v>1637</v>
+      </c>
+      <c r="S641" s="29"/>
+      <c r="W641" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X641" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y641" s="29">
+        <v>1621900800</v>
+      </c>
+      <c r="Z641" s="29">
+        <v>1622476799</v>
+      </c>
+      <c r="AA641" s="29">
+        <v>82</v>
+      </c>
+      <c r="AB641" s="29"/>
+      <c r="AH641" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI641" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL641" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM641" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" spans="1:39">
+      <c r="A642" s="21">
+        <v>641</v>
+      </c>
+      <c r="B642" s="29">
+        <v>10558</v>
+      </c>
+      <c r="F642" s="29">
+        <v>1</v>
+      </c>
+      <c r="G642" s="29" t="s">
+        <v>1624</v>
+      </c>
+      <c r="H642" s="29"/>
+      <c r="I642" s="28" t="s">
+        <v>1560</v>
+      </c>
+      <c r="J642" s="29" t="s">
+        <v>1638</v>
+      </c>
+      <c r="K642" s="29"/>
+      <c r="L642" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M642" s="28">
+        <v>0</v>
+      </c>
+      <c r="N642" s="28">
+        <v>0</v>
+      </c>
+      <c r="O642" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P642" s="29">
+        <v>9800</v>
+      </c>
+      <c r="Q642" s="29" t="s">
+        <v>1626</v>
+      </c>
+      <c r="R642" s="53" t="s">
+        <v>1639</v>
+      </c>
+      <c r="S642" s="29"/>
+      <c r="W642" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X642" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y642" s="29">
+        <v>1621900800</v>
+      </c>
+      <c r="Z642" s="29">
+        <v>1622476799</v>
+      </c>
+      <c r="AA642" s="29">
+        <v>82</v>
+      </c>
+      <c r="AB642" s="29"/>
+      <c r="AH642" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI642" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL642" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM642" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" spans="1:39">
+      <c r="A643" s="21">
+        <v>642</v>
+      </c>
+      <c r="B643" s="29">
+        <v>10559</v>
+      </c>
+      <c r="F643" s="29">
+        <v>1</v>
+      </c>
+      <c r="G643" s="29" t="s">
+        <v>1624</v>
+      </c>
+      <c r="H643" s="29"/>
+      <c r="I643" s="28" t="s">
+        <v>1560</v>
+      </c>
+      <c r="J643" s="29" t="s">
+        <v>1640</v>
+      </c>
+      <c r="K643" s="29"/>
+      <c r="L643" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M643" s="28">
+        <v>0</v>
+      </c>
+      <c r="N643" s="28">
+        <v>0</v>
+      </c>
+      <c r="O643" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P643" s="29">
+        <v>19800</v>
+      </c>
+      <c r="Q643" s="29" t="s">
+        <v>1626</v>
+      </c>
+      <c r="R643" s="53" t="s">
+        <v>1641</v>
+      </c>
+      <c r="S643" s="29"/>
+      <c r="W643" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X643" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y643" s="29">
+        <v>1621900800</v>
+      </c>
+      <c r="Z643" s="29">
+        <v>1622476799</v>
+      </c>
+      <c r="AA643" s="29">
+        <v>82</v>
+      </c>
+      <c r="AB643" s="29"/>
+      <c r="AH643" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI643" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL643" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM643" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644" spans="1:39">
+      <c r="A644" s="21">
+        <v>643</v>
+      </c>
+      <c r="B644" s="29">
+        <v>10560</v>
+      </c>
+      <c r="F644" s="29">
+        <v>1</v>
+      </c>
+      <c r="G644" s="29" t="s">
+        <v>1624</v>
+      </c>
+      <c r="H644" s="29"/>
+      <c r="I644" s="28" t="s">
+        <v>1449</v>
+      </c>
+      <c r="J644" s="29" t="s">
+        <v>1638</v>
+      </c>
+      <c r="K644" s="29"/>
+      <c r="L644" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M644" s="28">
+        <v>0</v>
+      </c>
+      <c r="N644" s="28">
+        <v>0</v>
+      </c>
+      <c r="O644" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P644" s="29">
+        <v>9800</v>
+      </c>
+      <c r="Q644" s="29" t="s">
+        <v>1626</v>
+      </c>
+      <c r="R644" s="53" t="s">
+        <v>1639</v>
+      </c>
+      <c r="S644" s="29"/>
+      <c r="W644" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X644" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y644" s="29">
+        <v>1621900800</v>
+      </c>
+      <c r="Z644" s="29">
+        <v>1622476799</v>
+      </c>
+      <c r="AA644" s="29">
+        <v>83</v>
+      </c>
+      <c r="AB644" s="29"/>
+      <c r="AH644" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI644" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL644" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM644" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:39">
+      <c r="A645" s="21">
+        <v>644</v>
+      </c>
+      <c r="B645" s="29">
+        <v>10561</v>
+      </c>
+      <c r="F645" s="29">
+        <v>1</v>
+      </c>
+      <c r="G645" s="29" t="s">
+        <v>1624</v>
+      </c>
+      <c r="H645" s="29"/>
+      <c r="I645" s="28" t="s">
+        <v>1449</v>
+      </c>
+      <c r="J645" s="29" t="s">
+        <v>1640</v>
+      </c>
+      <c r="K645" s="29"/>
+      <c r="L645" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M645" s="28">
+        <v>0</v>
+      </c>
+      <c r="N645" s="28">
+        <v>0</v>
+      </c>
+      <c r="O645" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P645" s="29">
+        <v>19800</v>
+      </c>
+      <c r="Q645" s="29" t="s">
+        <v>1626</v>
+      </c>
+      <c r="R645" s="53" t="s">
+        <v>1641</v>
+      </c>
+      <c r="S645" s="29"/>
+      <c r="W645" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X645" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y645" s="29">
+        <v>1621900800</v>
+      </c>
+      <c r="Z645" s="29">
+        <v>1622476799</v>
+      </c>
+      <c r="AA645" s="29">
+        <v>83</v>
+      </c>
+      <c r="AB645" s="29"/>
+      <c r="AH645" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI645" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL645" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM645" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" spans="1:39">
+      <c r="A646" s="21">
+        <v>645</v>
+      </c>
+      <c r="B646" s="29">
+        <v>10562</v>
+      </c>
+      <c r="F646" s="29">
+        <v>1</v>
+      </c>
+      <c r="G646" s="29" t="s">
+        <v>1624</v>
+      </c>
+      <c r="H646" s="29"/>
+      <c r="I646" s="28" t="s">
+        <v>1449</v>
+      </c>
+      <c r="J646" s="29" t="s">
+        <v>1642</v>
+      </c>
+      <c r="K646" s="29"/>
+      <c r="L646" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M646" s="28">
+        <v>0</v>
+      </c>
+      <c r="N646" s="28">
+        <v>0</v>
+      </c>
+      <c r="O646" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P646" s="29">
+        <v>49800</v>
+      </c>
+      <c r="Q646" s="29" t="s">
+        <v>1626</v>
+      </c>
+      <c r="R646" s="53" t="s">
+        <v>1643</v>
+      </c>
+      <c r="S646" s="29"/>
+      <c r="W646" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X646" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y646" s="29">
+        <v>1621900800</v>
+      </c>
+      <c r="Z646" s="29">
+        <v>1622476799</v>
+      </c>
+      <c r="AA646" s="29">
+        <v>83</v>
+      </c>
+      <c r="AB646" s="29"/>
+      <c r="AH646" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI646" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL646" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM646" s="29">
         <v>1</v>
       </c>
     </row>
@@ -50994,19 +51918,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="58.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1624</v>
+        <v>1644</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1625</v>
+        <v>1645</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1626</v>
+        <v>1646</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1627</v>
+        <v>1647</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1628</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="2" ht="57.75" customHeight="1" spans="1:5">
@@ -51014,7 +51938,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1629</v>
+        <v>1649</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -51023,7 +51947,7 @@
         <v>3600</v>
       </c>
       <c r="E2" t="s">
-        <v>1630</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="3" ht="78.75" customHeight="1" spans="1:4">
@@ -51031,7 +51955,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>1631</v>
+        <v>1651</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -51045,7 +51969,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>1632</v>
+        <v>1652</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -51059,7 +51983,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>1633</v>
+        <v>1653</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -51073,7 +51997,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>1634</v>
+        <v>1654</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -51087,7 +52011,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1635</v>
+        <v>1655</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -51101,7 +52025,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1636</v>
+        <v>1656</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -51115,7 +52039,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1637</v>
+        <v>1657</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -51129,7 +52053,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1638</v>
+        <v>1658</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -51143,7 +52067,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1639</v>
+        <v>1659</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -51157,7 +52081,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>1634</v>
+        <v>1654</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -51171,7 +52095,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>1635</v>
+        <v>1655</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -51185,7 +52109,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>1640</v>
+        <v>1660</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -51199,7 +52123,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>1641</v>
+        <v>1661</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -51213,7 +52137,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>1642</v>
+        <v>1662</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -51227,7 +52151,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>1643</v>
+        <v>1663</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -51241,7 +52165,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>1644</v>
+        <v>1664</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -51255,7 +52179,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>1645</v>
+        <v>1665</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -51269,7 +52193,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>1646</v>
+        <v>1666</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -51283,7 +52207,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
@@ -51297,7 +52221,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>1648</v>
+        <v>1668</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
@@ -51311,7 +52235,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1649</v>
+        <v>1669</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
@@ -51325,7 +52249,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>1650</v>
+        <v>1670</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
@@ -51339,7 +52263,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1651</v>
+        <v>1671</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
@@ -51353,7 +52277,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>1652</v>
+        <v>1672</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -51367,7 +52291,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1653</v>
+        <v>1673</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -51381,7 +52305,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1654</v>
+        <v>1674</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -51395,7 +52319,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1655</v>
+        <v>1675</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -51409,7 +52333,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1656</v>
+        <v>1676</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -51423,7 +52347,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1657</v>
+        <v>1677</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -51437,7 +52361,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1658</v>
+        <v>1678</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -51451,7 +52375,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1659</v>
+        <v>1679</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -51465,7 +52389,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1660</v>
+        <v>1680</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -51479,7 +52403,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1661</v>
+        <v>1681</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -51493,7 +52417,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1662</v>
+        <v>1682</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -51507,7 +52431,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1663</v>
+        <v>1683</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -51521,7 +52445,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1664</v>
+        <v>1684</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -51535,7 +52459,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1665</v>
+        <v>1685</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -51549,7 +52473,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1666</v>
+        <v>1686</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -51563,7 +52487,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1667</v>
+        <v>1687</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -51577,7 +52501,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1668</v>
+        <v>1688</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -51591,7 +52515,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1669</v>
+        <v>1689</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -51605,7 +52529,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1670</v>
+        <v>1690</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -51619,7 +52543,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1671</v>
+        <v>1691</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -51633,7 +52557,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>1672</v>
+        <v>1692</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -51647,7 +52571,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>1673</v>
+        <v>1693</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -51661,7 +52585,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1674</v>
+        <v>1694</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -51675,7 +52599,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1675</v>
+        <v>1695</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -51689,7 +52613,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1676</v>
+        <v>1696</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -51703,7 +52627,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>1677</v>
+        <v>1697</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -51717,7 +52641,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>1678</v>
+        <v>1698</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -51731,7 +52655,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1679</v>
+        <v>1699</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -51745,7 +52669,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1680</v>
+        <v>1700</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
@@ -51759,7 +52683,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1681</v>
+        <v>1701</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -51773,7 +52697,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1682</v>
+        <v>1702</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -51787,7 +52711,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1683</v>
+        <v>1703</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -51801,7 +52725,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1684</v>
+        <v>1704</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -51815,7 +52739,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1685</v>
+        <v>1705</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -51829,7 +52753,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1686</v>
+        <v>1706</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -51843,7 +52767,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1687</v>
+        <v>1707</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -51857,7 +52781,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1688</v>
+        <v>1708</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -51871,7 +52795,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>1689</v>
+        <v>1709</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -51885,7 +52809,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1690</v>
+        <v>1710</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
@@ -51899,7 +52823,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1691</v>
+        <v>1711</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -51913,7 +52837,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1692</v>
+        <v>1712</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
@@ -51927,7 +52851,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1693</v>
+        <v>1713</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -51941,7 +52865,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1694</v>
+        <v>1714</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -51955,7 +52879,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1695</v>
+        <v>1715</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -51969,7 +52893,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1696</v>
+        <v>1716</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -51983,7 +52907,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>1697</v>
+        <v>1717</v>
       </c>
       <c r="C71" s="17">
         <v>1</v>
@@ -51997,7 +52921,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>1698</v>
+        <v>1718</v>
       </c>
       <c r="C72" s="17">
         <v>1</v>
@@ -52011,7 +52935,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>1699</v>
+        <v>1719</v>
       </c>
       <c r="C73" s="17">
         <v>1</v>
@@ -52025,7 +52949,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>1700</v>
+        <v>1720</v>
       </c>
       <c r="C74" s="17">
         <v>1</v>
@@ -52039,7 +52963,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>1701</v>
+        <v>1721</v>
       </c>
       <c r="C75" s="17">
         <v>1</v>
@@ -52053,7 +52977,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>1702</v>
+        <v>1722</v>
       </c>
       <c r="C76" s="17">
         <v>1</v>
@@ -52067,7 +52991,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>1703</v>
+        <v>1723</v>
       </c>
       <c r="C77" s="17">
         <v>1</v>
@@ -52081,7 +53005,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>1704</v>
+        <v>1724</v>
       </c>
       <c r="C78" s="17">
         <v>1</v>
@@ -52095,7 +53019,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>1705</v>
+        <v>1725</v>
       </c>
       <c r="C79" s="17">
         <v>1</v>
@@ -52109,7 +53033,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>1706</v>
+        <v>1726</v>
       </c>
       <c r="C80" s="17">
         <v>1</v>
@@ -52123,7 +53047,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>1707</v>
+        <v>1727</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -52137,7 +53061,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>1708</v>
+        <v>1728</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
@@ -52151,7 +53075,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>1709</v>
+        <v>1729</v>
       </c>
       <c r="C83" s="2">
         <v>1</v>
@@ -52165,7 +53089,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>1710</v>
+        <v>1730</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
@@ -52179,7 +53103,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>1711</v>
+        <v>1731</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -52231,7 +53155,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="90" customHeight="1" spans="1:29">
       <c r="A1" s="1" t="s">
-        <v>1712</v>
+        <v>1732</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -52243,19 +53167,19 @@
         <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1713</v>
+        <v>1733</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1714</v>
+        <v>1734</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1716</v>
+        <v>1736</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1717</v>
+        <v>1737</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>31</v>
@@ -52270,7 +53194,7 @@
         <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1718</v>
+        <v>1738</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>39</v>
@@ -52315,7 +53239,7 @@
         <v>52</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>1719</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="1" spans="1:26">
@@ -52335,7 +53259,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="G2" s="12">
         <v>480</v>
@@ -52362,22 +53286,22 @@
         <v>3</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>1721</v>
+        <v>1741</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>1722</v>
+        <v>1742</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="T2" s="12" t="s">
         <v>61</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>1724</v>
+        <v>1744</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="Y2" s="12">
         <v>1</v>
@@ -52403,7 +53327,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="G3" s="12">
         <v>1200</v>
@@ -52433,19 +53357,19 @@
         <v>127</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>1726</v>
+        <v>1746</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="T3" s="12" t="s">
         <v>66</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>1727</v>
+        <v>1747</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="Y3" s="12">
         <v>1</v>
@@ -52471,7 +53395,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="G4" s="12">
         <v>2400</v>
@@ -52498,22 +53422,22 @@
         <v>5</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>1728</v>
+        <v>1748</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>1729</v>
+        <v>1749</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="T4" s="12" t="s">
         <v>70</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>1730</v>
+        <v>1750</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="Y4" s="12">
         <v>1</v>
@@ -52539,7 +53463,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="G5" s="12">
         <v>4000</v>
@@ -52566,22 +53490,22 @@
         <v>6</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>1731</v>
+        <v>1751</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>1732</v>
+        <v>1752</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="T5" s="12" t="s">
         <v>74</v>
       </c>
       <c r="U5" s="15" t="s">
-        <v>1733</v>
+        <v>1753</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="Y5" s="12">
         <v>1</v>
@@ -52607,7 +53531,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="G6" s="12">
         <v>7840</v>
@@ -52634,22 +53558,22 @@
         <v>7</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>1734</v>
+        <v>1754</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>1735</v>
+        <v>1755</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="T6" s="12" t="s">
         <v>78</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1736</v>
+        <v>1756</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="Y6" s="12">
         <v>1</v>
@@ -52675,7 +53599,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="G7" s="12">
         <v>39840</v>
@@ -52702,22 +53626,22 @@
         <v>9</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>1737</v>
+        <v>1757</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>1738</v>
+        <v>1758</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="T7" s="12" t="s">
         <v>82</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>1739</v>
+        <v>1759</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="Y7" s="12">
         <v>1</v>
@@ -52740,7 +53664,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="G8" s="12">
         <v>120</v>
@@ -52767,22 +53691,22 @@
         <v>0</v>
       </c>
       <c r="P8" s="15" t="s">
-        <v>1740</v>
+        <v>1760</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>1741</v>
+        <v>1761</v>
       </c>
       <c r="S8" s="15" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="T8" s="12" t="s">
         <v>61</v>
       </c>
       <c r="U8" s="15" t="s">
-        <v>1724</v>
+        <v>1744</v>
       </c>
       <c r="V8" s="12" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="Y8" s="12">
         <v>1</v>
@@ -52806,7 +53730,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>1742</v>
+        <v>1762</v>
       </c>
       <c r="G9" s="13">
         <v>5000</v>
@@ -52834,10 +53758,10 @@
         <v>2</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>1743</v>
+        <v>1763</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>1744</v>
+        <v>1764</v>
       </c>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
@@ -52845,10 +53769,10 @@
         <v>5000</v>
       </c>
       <c r="U9" s="13" t="s">
-        <v>1733</v>
+        <v>1753</v>
       </c>
       <c r="V9" s="13" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
@@ -52861,7 +53785,7 @@
       <c r="AA9" s="13"/>
       <c r="AB9" s="13"/>
       <c r="AC9" s="16" t="s">
-        <v>1745</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="10" s="12" customFormat="1" spans="1:29">
@@ -52879,7 +53803,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>1742</v>
+        <v>1762</v>
       </c>
       <c r="G10" s="13">
         <v>1000</v>
@@ -52907,10 +53831,10 @@
         <v>1</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>1747</v>
+        <v>1767</v>
       </c>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
@@ -52918,10 +53842,10 @@
         <v>1000</v>
       </c>
       <c r="U10" s="13" t="s">
-        <v>1727</v>
+        <v>1747</v>
       </c>
       <c r="V10" s="13" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
@@ -52934,7 +53858,7 @@
       <c r="AA10" s="13"/>
       <c r="AB10" s="13"/>
       <c r="AC10" s="16" t="s">
-        <v>1748</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="11" s="12" customFormat="1" spans="1:26">
@@ -52951,7 +53875,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="G11" s="12">
         <v>1200</v>
@@ -52981,19 +53905,19 @@
         <v>127</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>1726</v>
+        <v>1746</v>
       </c>
       <c r="S11" s="15" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="T11" s="15" t="s">
         <v>66</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>1727</v>
+        <v>1747</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="Y11" s="12">
         <v>1</v>
@@ -53019,7 +53943,7 @@
         <v>107</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="G12" s="12">
         <v>120000</v>
@@ -53046,22 +53970,22 @@
         <v>9</v>
       </c>
       <c r="P12" s="15" t="s">
-        <v>1749</v>
+        <v>1769</v>
       </c>
       <c r="Q12" s="15" t="s">
-        <v>1750</v>
+        <v>1770</v>
       </c>
       <c r="S12" s="15" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="T12" s="12" t="s">
         <v>86</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>1751</v>
+        <v>1771</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="Y12" s="12">
         <v>1</v>
@@ -53087,7 +54011,7 @@
         <v>108</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="G13" s="12">
         <v>79840</v>
@@ -53114,22 +54038,22 @@
         <v>10</v>
       </c>
       <c r="P13" s="15" t="s">
-        <v>1752</v>
+        <v>1772</v>
       </c>
       <c r="Q13" s="15" t="s">
-        <v>1753</v>
+        <v>1773</v>
       </c>
       <c r="S13" s="15" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>1754</v>
+        <v>1774</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>1751</v>
+        <v>1771</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="Y13" s="12">
         <v>1</v>
@@ -53155,7 +54079,7 @@
         <v>110</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="G14" s="12">
         <v>199840</v>
@@ -53182,22 +54106,22 @@
         <v>11</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>1755</v>
+        <v>1775</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>1756</v>
+        <v>1776</v>
       </c>
       <c r="S14" s="15" t="s">
-        <v>1757</v>
+        <v>1777</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>1758</v>
+        <v>1778</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>1759</v>
+        <v>1779</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="Y14" s="12">
         <v>1</v>
@@ -53221,7 +54145,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>1742</v>
+        <v>1762</v>
       </c>
       <c r="G15" s="13">
         <v>100</v>
@@ -53251,10 +54175,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>1760</v>
+        <v>1780</v>
       </c>
       <c r="Q15" s="16" t="s">
-        <v>1761</v>
+        <v>1781</v>
       </c>
       <c r="R15" s="13"/>
       <c r="S15" s="16"/>
@@ -53262,10 +54186,10 @@
         <v>100</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>1724</v>
+        <v>1744</v>
       </c>
       <c r="V15" s="13" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
@@ -53278,7 +54202,7 @@
       <c r="AA15" s="13"/>
       <c r="AB15" s="13"/>
       <c r="AC15" s="16" t="s">
-        <v>1762</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="16" s="12" customFormat="1" spans="1:26">
@@ -53298,7 +54222,7 @@
         <v>101</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="G16" s="12">
         <v>2000</v>
@@ -53325,23 +54249,23 @@
         <v>3</v>
       </c>
       <c r="P16" s="15" t="s">
-        <v>1763</v>
+        <v>1783</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>1764</v>
+        <v>1784</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="15" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="T16" s="12" t="s">
         <v>101</v>
       </c>
       <c r="U16" s="15" t="s">
-        <v>1724</v>
+        <v>1744</v>
       </c>
       <c r="V16" s="12" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -53366,7 +54290,7 @@
         <v>102</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="G17" s="12">
         <v>6700</v>
@@ -53393,23 +54317,23 @@
         <v>4</v>
       </c>
       <c r="P17" s="15" t="s">
-        <v>1765</v>
+        <v>1785</v>
       </c>
       <c r="Q17" s="15" t="s">
-        <v>1766</v>
+        <v>1786</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="15" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="T17" s="12" t="s">
         <v>105</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>1730</v>
+        <v>1750</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -53434,7 +54358,7 @@
         <v>103</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="G18" s="12">
         <v>13200</v>
@@ -53461,23 +54385,23 @@
         <v>5</v>
       </c>
       <c r="P18" s="15" t="s">
-        <v>1767</v>
+        <v>1787</v>
       </c>
       <c r="Q18" s="15" t="s">
-        <v>1768</v>
+        <v>1788</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" s="15" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="T18" s="12" t="s">
         <v>109</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>1736</v>
+        <v>1756</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -53502,7 +54426,7 @@
         <v>104</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="G19" s="12">
         <v>20400</v>
@@ -53529,23 +54453,23 @@
         <v>6</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>1769</v>
+        <v>1789</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>1770</v>
+        <v>1790</v>
       </c>
       <c r="R19" s="2"/>
       <c r="S19" s="15" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="T19" s="12" t="s">
         <v>114</v>
       </c>
       <c r="U19" s="15" t="s">
-        <v>1771</v>
+        <v>1791</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -53570,7 +54494,7 @@
         <v>105</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="G20" s="12">
         <v>66</v>
@@ -53597,22 +54521,22 @@
         <v>7</v>
       </c>
       <c r="P20" s="15" t="s">
-        <v>1772</v>
+        <v>1792</v>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>1773</v>
+        <v>1793</v>
       </c>
       <c r="S20" s="15" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="T20" s="12" t="s">
         <v>120</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>1771</v>
+        <v>1791</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="Y20" s="12">
         <v>1</v>
@@ -53636,7 +54560,7 @@
         <v>101</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="G21" s="12">
         <v>200</v>
@@ -53667,20 +54591,20 @@
         <v>890</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>1774</v>
+        <v>1794</v>
       </c>
       <c r="R21" s="12"/>
       <c r="S21" s="15" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="T21" s="12" t="s">
         <v>124</v>
       </c>
       <c r="U21" s="15" t="s">
-        <v>1724</v>
+        <v>1744</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
@@ -53709,7 +54633,7 @@
         <v>104</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>1742</v>
+        <v>1762</v>
       </c>
       <c r="G22" s="13">
         <v>5000</v>
@@ -53737,10 +54661,10 @@
         <v>2</v>
       </c>
       <c r="P22" s="16" t="s">
-        <v>1743</v>
+        <v>1763</v>
       </c>
       <c r="Q22" s="16" t="s">
-        <v>1744</v>
+        <v>1764</v>
       </c>
       <c r="R22" s="13"/>
       <c r="S22" s="16"/>
@@ -53748,10 +54672,10 @@
         <v>5000</v>
       </c>
       <c r="U22" s="16" t="s">
-        <v>1733</v>
+        <v>1753</v>
       </c>
       <c r="V22" s="13" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="W22" s="13"/>
       <c r="X22" s="13"/>
@@ -53780,7 +54704,7 @@
         <v>102</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>1742</v>
+        <v>1762</v>
       </c>
       <c r="G23" s="13">
         <v>1000</v>
@@ -53808,10 +54732,10 @@
         <v>1</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>1746</v>
+        <v>1766</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>1747</v>
+        <v>1767</v>
       </c>
       <c r="R23" s="13"/>
       <c r="S23" s="16"/>
@@ -53819,10 +54743,10 @@
         <v>1000</v>
       </c>
       <c r="U23" s="16" t="s">
-        <v>1724</v>
+        <v>1744</v>
       </c>
       <c r="V23" s="13" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="W23" s="13"/>
       <c r="X23" s="13"/>
@@ -53844,14 +54768,14 @@
         <v>109</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>1775</v>
+        <v>1795</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
         <v>101</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>1742</v>
+        <v>1762</v>
       </c>
       <c r="G24" s="13">
         <v>100</v>
@@ -53881,10 +54805,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="16" t="s">
-        <v>1760</v>
+        <v>1780</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>1761</v>
+        <v>1781</v>
       </c>
       <c r="R24" s="13"/>
       <c r="S24" s="16"/>
@@ -53892,10 +54816,10 @@
         <v>100</v>
       </c>
       <c r="U24" s="16" t="s">
-        <v>1724</v>
+        <v>1744</v>
       </c>
       <c r="V24" s="13" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="W24" s="13"/>
       <c r="X24" s="13"/>
@@ -53908,7 +54832,7 @@
       <c r="AA24" s="13"/>
       <c r="AB24" s="13"/>
       <c r="AC24" s="16" t="s">
-        <v>1762</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="25" s="12" customFormat="1" spans="1:26">
@@ -53928,7 +54852,7 @@
         <v>111</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="G25" s="12">
         <v>15840</v>
@@ -53955,22 +54879,22 @@
         <v>8</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>1776</v>
+        <v>1796</v>
       </c>
       <c r="Q25" s="15" t="s">
-        <v>1777</v>
+        <v>1797</v>
       </c>
       <c r="S25" s="15" t="s">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="T25" s="15" t="s">
-        <v>1778</v>
+        <v>1798</v>
       </c>
       <c r="U25" s="15" t="s">
-        <v>1771</v>
+        <v>1791</v>
       </c>
       <c r="V25" s="12" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="Y25" s="12">
         <v>1</v>
@@ -54033,13 +54957,13 @@
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1714</v>
+        <v>1734</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1715</v>
+        <v>1735</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1779</v>
+        <v>1799</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>31</v>
@@ -54051,16 +54975,16 @@
         <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1780</v>
+        <v>1800</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1781</v>
+        <v>1801</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1782</v>
+        <v>1802</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1783</v>
+        <v>1803</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>38</v>
@@ -54101,7 +55025,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1784</v>
+        <v>1804</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -54113,7 +55037,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1785</v>
+        <v>1805</v>
       </c>
       <c r="L2" s="2">
         <v>54</v>
@@ -54122,7 +55046,7 @@
         <v>999999</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1786</v>
+        <v>1806</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -54131,22 +55055,22 @@
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1787</v>
+        <v>1807</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1788</v>
+        <v>1808</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1789</v>
+        <v>1809</v>
       </c>
       <c r="T2" s="2">
         <v>60000</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1790</v>
+        <v>1810</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:23">
@@ -54157,7 +55081,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1784</v>
+        <v>1804</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -54169,7 +55093,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1785</v>
+        <v>1805</v>
       </c>
       <c r="L3" s="2">
         <v>54</v>
@@ -54178,7 +55102,7 @@
         <v>999999</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1791</v>
+        <v>1811</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -54187,22 +55111,22 @@
         <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1787</v>
+        <v>1807</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1792</v>
+        <v>1812</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1789</v>
+        <v>1809</v>
       </c>
       <c r="T3" s="2">
         <v>500000</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1790</v>
+        <v>1810</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="W3" s="2">
         <v>8.3</v>
@@ -54216,7 +55140,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1793</v>
+        <v>1813</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -54241,19 +55165,19 @@
         <v>4</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>1794</v>
+        <v>1814</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>1795</v>
+        <v>1815</v>
       </c>
       <c r="T4" s="2">
         <v>15000</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>1796</v>
+        <v>1816</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:22">
@@ -54264,7 +55188,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1797</v>
+        <v>1817</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -54291,10 +55215,10 @@
         <v>100000</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>1798</v>
+        <v>1818</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:22">
@@ -54305,7 +55229,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1799</v>
+        <v>1819</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -54332,10 +55256,10 @@
         <v>100000</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1798</v>
+        <v>1818</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:23">
@@ -54346,7 +55270,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1784</v>
+        <v>1804</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -54358,7 +55282,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1800</v>
+        <v>1820</v>
       </c>
       <c r="L7" s="2">
         <v>56</v>
@@ -54367,7 +55291,7 @@
         <v>999999</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>1791</v>
+        <v>1811</v>
       </c>
       <c r="O7" s="6">
         <v>0</v>
@@ -54376,22 +55300,22 @@
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>1801</v>
+        <v>1821</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>1792</v>
+        <v>1812</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>1789</v>
+        <v>1809</v>
       </c>
       <c r="T7" s="2">
         <v>500000</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>1802</v>
+        <v>1822</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="W7" s="2">
         <v>8.3</v>
@@ -54405,10 +55329,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1803</v>
+        <v>1823</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="F8" s="2">
         <v>100</v>
@@ -54420,7 +55344,7 @@
         <v>125</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1804</v>
+        <v>1824</v>
       </c>
       <c r="L8" s="2">
         <v>57</v>
@@ -54435,22 +55359,22 @@
         <v>5</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>1805</v>
+        <v>1825</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>1806</v>
+        <v>1826</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>1789</v>
+        <v>1809</v>
       </c>
       <c r="T8" s="2">
         <v>100</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>1807</v>
+        <v>1827</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:22">
@@ -54461,10 +55385,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1808</v>
+        <v>1828</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="F9" s="2">
         <v>1000</v>
@@ -54479,16 +55403,16 @@
         <v>6</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>1809</v>
+        <v>1829</v>
       </c>
       <c r="T9" s="2">
         <v>1000</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>1810</v>
+        <v>1830</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:22">
@@ -54499,10 +55423,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1808</v>
+        <v>1828</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="F10" s="2">
         <v>5800</v>
@@ -54517,16 +55441,16 @@
         <v>7</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>1811</v>
+        <v>1831</v>
       </c>
       <c r="T10" s="2">
         <v>5800</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>1810</v>
+        <v>1830</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:22">
@@ -54537,10 +55461,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1808</v>
+        <v>1828</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="F11" s="2">
         <v>8800</v>
@@ -54555,16 +55479,16 @@
         <v>8</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>1812</v>
+        <v>1832</v>
       </c>
       <c r="T11" s="2">
         <v>8800</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>1810</v>
+        <v>1830</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:22">
@@ -54575,10 +55499,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1808</v>
+        <v>1828</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="F12" s="2">
         <v>18800</v>
@@ -54593,16 +55517,16 @@
         <v>9</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>1813</v>
+        <v>1833</v>
       </c>
       <c r="T12" s="2">
         <v>18800</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>1810</v>
+        <v>1830</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:23">
@@ -54613,7 +55537,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1814</v>
+        <v>1834</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -54637,16 +55561,16 @@
         <v>0</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>1815</v>
+        <v>1835</v>
       </c>
       <c r="T13" s="2">
         <v>70000</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>1816</v>
+        <v>1836</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="W13" s="2">
         <v>7</v>
@@ -54660,7 +55584,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1814</v>
+        <v>1834</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -54684,16 +55608,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>1817</v>
+        <v>1837</v>
       </c>
       <c r="T14" s="2">
         <v>180000</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>1816</v>
+        <v>1836</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="W14" s="2">
         <v>6</v>
@@ -54707,10 +55631,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1814</v>
+        <v>1834</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1742</v>
+        <v>1762</v>
       </c>
       <c r="F15" s="2">
         <v>1500</v>
@@ -54731,16 +55655,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>1818</v>
+        <v>1838</v>
       </c>
       <c r="T15" s="2">
         <v>1500</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>1816</v>
+        <v>1836</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
       <c r="W15" s="2">
         <v>3</v>
@@ -54754,10 +55678,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1819</v>
+        <v>1839</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1742</v>
+        <v>1762</v>
       </c>
       <c r="F16" s="3">
         <v>200</v>
@@ -54773,13 +55697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>1820</v>
+        <v>1840</v>
       </c>
       <c r="T16" s="3">
         <v>200</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:22">
@@ -54790,10 +55714,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1819</v>
+        <v>1839</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1742</v>
+        <v>1762</v>
       </c>
       <c r="F17" s="3">
         <v>2000</v>
@@ -54809,13 +55733,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>1821</v>
+        <v>1841</v>
       </c>
       <c r="T17" s="3">
         <v>2000</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:22">
@@ -54826,7 +55750,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1819</v>
+        <v>1839</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
@@ -54845,13 +55769,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>1820</v>
+        <v>1840</v>
       </c>
       <c r="T18" s="3">
         <v>20000</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:22">
@@ -54862,7 +55786,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1819</v>
+        <v>1839</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>14</v>
@@ -54881,13 +55805,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>1821</v>
+        <v>1841</v>
       </c>
       <c r="T19" s="3">
         <v>200000</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:22">
@@ -54898,7 +55822,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1822</v>
+        <v>1842</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>14</v>
@@ -54916,16 +55840,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>1823</v>
+        <v>1843</v>
       </c>
       <c r="T20" s="4">
         <v>300000</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1824</v>
+        <v>1844</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:22">
@@ -54936,7 +55860,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1825</v>
+        <v>1845</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>14</v>
@@ -54954,16 +55878,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>1826</v>
+        <v>1846</v>
       </c>
       <c r="T21" s="4">
         <v>300000</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1827</v>
+        <v>1847</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>1725</v>
+        <v>1745</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/shoping_config_vivo.xlsx
+++ b/config_Release/shoping_config_vivo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5132" uniqueCount="1848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5180" uniqueCount="1856">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5872,6 +5872,30 @@
   </si>
   <si>
     <t>49800000,1688,</t>
+  </si>
+  <si>
+    <t>海王礼包</t>
+  </si>
+  <si>
+    <t>"500万金币","海王炮台(30天)"</t>
+  </si>
+  <si>
+    <t>"jing_bi","gun_barrel_13",</t>
+  </si>
+  <si>
+    <t>5000000,2592000</t>
+  </si>
+  <si>
+    <t>2505600,1,0</t>
+  </si>
+  <si>
+    <t>海王礼包至尊版</t>
+  </si>
+  <si>
+    <t>"980万金币","海王炮台(30天)"</t>
+  </si>
+  <si>
+    <t>9800000,2592000</t>
   </si>
   <si>
     <t>id|不能重复</t>
@@ -6770,10 +6794,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -6807,6 +6831,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -6815,7 +6855,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6830,30 +6870,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6867,16 +6899,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6890,7 +6922,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -6907,7 +6939,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6921,33 +6960,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7037,7 +7061,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7049,13 +7085,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7067,7 +7097,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7079,67 +7109,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7157,7 +7145,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7169,19 +7163,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7227,6 +7251,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -7242,21 +7275,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -7268,6 +7286,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7292,35 +7325,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7332,10 +7356,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7344,139 +7368,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7643,6 +7667,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -8052,7 +8079,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="63" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1"/>
@@ -8064,7 +8091,7 @@
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="60" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -8094,7 +8121,7 @@
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="60" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -8124,10 +8151,10 @@
       <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="62" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -8360,13 +8387,13 @@
       <c r="L2" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="63" t="s">
+      <c r="M2" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="57">
+      <c r="O2" s="58">
         <v>1</v>
       </c>
       <c r="P2" s="14">
@@ -8397,10 +8424,10 @@
       <c r="Y2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="Z2" s="58" t="s">
+      <c r="Z2" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="AA2" s="58" t="s">
+      <c r="AA2" s="59" t="s">
         <v>63</v>
       </c>
       <c r="AD2" s="12">
@@ -8443,13 +8470,13 @@
       <c r="L3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="63" t="s">
+      <c r="M3" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="57">
+      <c r="O3" s="58">
         <v>1</v>
       </c>
       <c r="P3" s="14">
@@ -8526,13 +8553,13 @@
       <c r="L4" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="63" t="s">
+      <c r="M4" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="57">
+      <c r="O4" s="58">
         <v>1</v>
       </c>
       <c r="P4" s="14">
@@ -8611,13 +8638,13 @@
       <c r="L5" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="63" t="s">
+      <c r="M5" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="57">
+      <c r="O5" s="58">
         <v>1</v>
       </c>
       <c r="P5" s="14">
@@ -8696,13 +8723,13 @@
       <c r="L6" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="63" t="s">
+      <c r="M6" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="57">
+      <c r="O6" s="58">
         <v>1</v>
       </c>
       <c r="P6" s="14">
@@ -8781,7 +8808,7 @@
       <c r="L7" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="M7" s="63" t="s">
+      <c r="M7" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N7" s="12" t="s">
@@ -8864,13 +8891,13 @@
       <c r="L8" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="M8" s="63" t="s">
+      <c r="M8" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="57">
+      <c r="O8" s="58">
         <v>1</v>
       </c>
       <c r="P8" s="14">
@@ -8949,13 +8976,13 @@
       <c r="L9" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="63" t="s">
+      <c r="M9" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="57">
+      <c r="O9" s="58">
         <v>1</v>
       </c>
       <c r="P9" s="14">
@@ -9033,13 +9060,13 @@
       <c r="L10" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="M10" s="63" t="s">
+      <c r="M10" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="57">
+      <c r="O10" s="58">
         <v>1</v>
       </c>
       <c r="P10" s="12">
@@ -9117,7 +9144,7 @@
       <c r="L11" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="M11" s="63" t="s">
+      <c r="M11" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N11" s="14" t="s">
@@ -9199,7 +9226,7 @@
       <c r="L12" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="63" t="s">
+      <c r="M12" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N12" s="14" t="s">
@@ -9281,7 +9308,7 @@
       <c r="L13" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="M13" s="63" t="s">
+      <c r="M13" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N13" s="14" t="s">
@@ -9363,7 +9390,7 @@
       <c r="L14" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="M14" s="63" t="s">
+      <c r="M14" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N14" s="14" t="s">
@@ -9445,7 +9472,7 @@
       <c r="L15" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="M15" s="63" t="s">
+      <c r="M15" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N15" s="14" t="s">
@@ -9521,7 +9548,7 @@
       <c r="J16" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="K16" s="58" t="s">
+      <c r="K16" s="59" t="s">
         <v>122</v>
       </c>
       <c r="L16" s="14" t="s">
@@ -9551,7 +9578,7 @@
       <c r="T16" s="12">
         <v>0</v>
       </c>
-      <c r="U16" s="58" t="s">
+      <c r="U16" s="59" t="s">
         <v>123</v>
       </c>
       <c r="V16" s="14">
@@ -9584,7 +9611,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="12"/>
-      <c r="E17" s="56"/>
+      <c r="E17" s="57"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="14" t="s">
@@ -9626,10 +9653,10 @@
       <c r="T17" s="12">
         <v>1</v>
       </c>
-      <c r="U17" s="58" t="s">
+      <c r="U17" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="V17" s="58" t="s">
+      <c r="V17" s="59" t="s">
         <v>127</v>
       </c>
       <c r="X17" s="14" t="s">
@@ -9659,7 +9686,7 @@
         <v>23</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="E18" s="56"/>
+      <c r="E18" s="57"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="14" t="s">
@@ -9701,10 +9728,10 @@
       <c r="T18" s="12">
         <v>2</v>
       </c>
-      <c r="U18" s="58" t="s">
+      <c r="U18" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="V18" s="58" t="s">
+      <c r="V18" s="59" t="s">
         <v>130</v>
       </c>
       <c r="X18" s="14" t="s">
@@ -9734,7 +9761,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="12"/>
-      <c r="E19" s="56"/>
+      <c r="E19" s="57"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="14" t="s">
@@ -9776,10 +9803,10 @@
       <c r="T19" s="12">
         <v>3</v>
       </c>
-      <c r="U19" s="58" t="s">
+      <c r="U19" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="V19" s="58" t="s">
+      <c r="V19" s="59" t="s">
         <v>132</v>
       </c>
       <c r="X19" s="14" t="s">
@@ -9809,7 +9836,7 @@
         <v>25</v>
       </c>
       <c r="C20" s="12"/>
-      <c r="E20" s="56"/>
+      <c r="E20" s="57"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="14" t="s">
@@ -9851,10 +9878,10 @@
       <c r="T20" s="12">
         <v>4</v>
       </c>
-      <c r="U20" s="58" t="s">
+      <c r="U20" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="V20" s="58" t="s">
+      <c r="V20" s="59" t="s">
         <v>134</v>
       </c>
       <c r="X20" s="14" t="s">
@@ -9884,7 +9911,7 @@
         <v>26</v>
       </c>
       <c r="C21" s="12"/>
-      <c r="E21" s="56"/>
+      <c r="E21" s="57"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="14" t="s">
@@ -9926,10 +9953,10 @@
       <c r="T21" s="12">
         <v>5</v>
       </c>
-      <c r="U21" s="58" t="s">
+      <c r="U21" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="V21" s="58" t="s">
+      <c r="V21" s="59" t="s">
         <v>136</v>
       </c>
       <c r="X21" s="14" t="s">
@@ -9959,7 +9986,7 @@
         <v>27</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="E22" s="56"/>
+      <c r="E22" s="57"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="14" t="s">
@@ -10001,10 +10028,10 @@
       <c r="T22" s="12">
         <v>6</v>
       </c>
-      <c r="U22" s="58" t="s">
+      <c r="U22" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="V22" s="58" t="s">
+      <c r="V22" s="59" t="s">
         <v>138</v>
       </c>
       <c r="X22" s="14" t="s">
@@ -10034,7 +10061,7 @@
         <v>34</v>
       </c>
       <c r="C23" s="12"/>
-      <c r="E23" s="56"/>
+      <c r="E23" s="57"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="14" t="s">
@@ -10076,10 +10103,10 @@
       <c r="T23" s="12">
         <v>7</v>
       </c>
-      <c r="U23" s="58" t="s">
+      <c r="U23" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="V23" s="58" t="s">
+      <c r="V23" s="59" t="s">
         <v>141</v>
       </c>
       <c r="X23" s="14" t="s">
@@ -10114,7 +10141,7 @@
       <c r="D24" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="56"/>
+      <c r="E24" s="57"/>
       <c r="F24" s="12">
         <v>10189</v>
       </c>
@@ -10130,7 +10157,7 @@
       <c r="J24" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="K24" s="58" t="s">
+      <c r="K24" s="59" t="s">
         <v>142</v>
       </c>
       <c r="L24" s="14" t="s">
@@ -10160,16 +10187,16 @@
       <c r="T24" s="12">
         <v>6</v>
       </c>
-      <c r="U24" s="58" t="s">
+      <c r="U24" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="V24" s="58" t="s">
+      <c r="V24" s="59" t="s">
         <v>143</v>
       </c>
       <c r="X24" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="Y24" s="58" t="s">
+      <c r="Y24" s="59" t="s">
         <v>144</v>
       </c>
       <c r="Z24" s="12" t="s">
@@ -10186,28 +10213,28 @@
       </c>
     </row>
     <row r="25" spans="5:5">
-      <c r="E25" s="56"/>
+      <c r="E25" s="57"/>
     </row>
     <row r="26" spans="5:5">
-      <c r="E26" s="56"/>
+      <c r="E26" s="57"/>
     </row>
     <row r="27" spans="5:5">
-      <c r="E27" s="56"/>
+      <c r="E27" s="57"/>
     </row>
     <row r="28" spans="5:5">
-      <c r="E28" s="56"/>
+      <c r="E28" s="57"/>
     </row>
     <row r="29" spans="5:5">
-      <c r="E29" s="56"/>
+      <c r="E29" s="57"/>
     </row>
     <row r="30" spans="5:5">
-      <c r="E30" s="56"/>
+      <c r="E30" s="57"/>
     </row>
     <row r="31" spans="5:5">
-      <c r="E31" s="56"/>
+      <c r="E31" s="57"/>
     </row>
     <row r="32" spans="5:5">
-      <c r="E32" s="56"/>
+      <c r="E32" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10220,14 +10247,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN646"/>
+  <dimension ref="A1:AN654"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="AK624" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="J624" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AU646" sqref="AU646"/>
+      <selection pane="bottomRight" activeCell="A649" sqref="$A649:$XFD654"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -10424,7 +10451,7 @@
       <c r="Q2" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="R2" s="64" t="s">
+      <c r="R2" s="65" t="s">
         <v>172</v>
       </c>
       <c r="S2" s="32"/>
@@ -10482,7 +10509,7 @@
       <c r="Q3" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="R3" s="64" t="s">
+      <c r="R3" s="65" t="s">
         <v>175</v>
       </c>
       <c r="S3" s="32"/>
@@ -10540,7 +10567,7 @@
       <c r="Q4" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="65" t="s">
         <v>177</v>
       </c>
       <c r="S4" s="32"/>
@@ -10581,7 +10608,7 @@
       <c r="G5" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="J5" s="64" t="s">
+      <c r="J5" s="65" t="s">
         <v>179</v>
       </c>
       <c r="K5" s="32"/>
@@ -10603,7 +10630,7 @@
       <c r="Q5" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="R5" s="64" t="s">
+      <c r="R5" s="65" t="s">
         <v>180</v>
       </c>
       <c r="S5" s="32"/>
@@ -10612,7 +10639,7 @@
       <c r="W5" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="X5" s="64" t="s">
+      <c r="X5" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y5" s="32">
@@ -10722,7 +10749,7 @@
       <c r="Q7" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="R7" s="64" t="s">
+      <c r="R7" s="65" t="s">
         <v>190</v>
       </c>
       <c r="S7" s="32"/>
@@ -11821,7 +11848,7 @@
       <c r="W26" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X26" s="64" t="s">
+      <c r="X26" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y26" s="21">
@@ -11876,7 +11903,7 @@
       <c r="W27" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X27" s="64" t="s">
+      <c r="X27" s="65" t="s">
         <v>248</v>
       </c>
       <c r="Y27" s="21">
@@ -11931,7 +11958,7 @@
       <c r="W28" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X28" s="64" t="s">
+      <c r="X28" s="65" t="s">
         <v>250</v>
       </c>
       <c r="Y28" s="21">
@@ -11986,7 +12013,7 @@
       <c r="W29" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X29" s="64" t="s">
+      <c r="X29" s="65" t="s">
         <v>252</v>
       </c>
       <c r="Y29" s="21">
@@ -12041,7 +12068,7 @@
       <c r="W30" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X30" s="64" t="s">
+      <c r="X30" s="65" t="s">
         <v>254</v>
       </c>
       <c r="Y30" s="21">
@@ -12096,7 +12123,7 @@
       <c r="W31" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X31" s="64" t="s">
+      <c r="X31" s="65" t="s">
         <v>257</v>
       </c>
       <c r="Y31" s="21">
@@ -12151,7 +12178,7 @@
       <c r="W32" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X32" s="64" t="s">
+      <c r="X32" s="65" t="s">
         <v>259</v>
       </c>
       <c r="Y32" s="21">
@@ -12206,7 +12233,7 @@
       <c r="W33" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X33" s="64" t="s">
+      <c r="X33" s="65" t="s">
         <v>261</v>
       </c>
       <c r="Y33" s="21">
@@ -12261,7 +12288,7 @@
       <c r="W34" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X34" s="64" t="s">
+      <c r="X34" s="65" t="s">
         <v>263</v>
       </c>
       <c r="Y34" s="21">
@@ -12316,7 +12343,7 @@
       <c r="W35" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X35" s="64" t="s">
+      <c r="X35" s="65" t="s">
         <v>265</v>
       </c>
       <c r="Y35" s="21">
@@ -12371,7 +12398,7 @@
       <c r="W36" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X36" s="64" t="s">
+      <c r="X36" s="65" t="s">
         <v>267</v>
       </c>
       <c r="Y36" s="21">
@@ -12426,7 +12453,7 @@
       <c r="W37" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X37" s="64" t="s">
+      <c r="X37" s="65" t="s">
         <v>269</v>
       </c>
       <c r="Y37" s="21">
@@ -12481,7 +12508,7 @@
       <c r="W38" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X38" s="64" t="s">
+      <c r="X38" s="65" t="s">
         <v>271</v>
       </c>
       <c r="Y38" s="21">
@@ -12536,7 +12563,7 @@
       <c r="W39" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X39" s="64" t="s">
+      <c r="X39" s="65" t="s">
         <v>273</v>
       </c>
       <c r="Y39" s="21">
@@ -12591,7 +12618,7 @@
       <c r="W40" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X40" s="64" t="s">
+      <c r="X40" s="65" t="s">
         <v>275</v>
       </c>
       <c r="Y40" s="21">
@@ -12646,7 +12673,7 @@
       <c r="W41" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X41" s="64" t="s">
+      <c r="X41" s="65" t="s">
         <v>277</v>
       </c>
       <c r="Y41" s="21">
@@ -12701,7 +12728,7 @@
       <c r="W42" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X42" s="64" t="s">
+      <c r="X42" s="65" t="s">
         <v>280</v>
       </c>
       <c r="Y42" s="21">
@@ -12756,7 +12783,7 @@
       <c r="W43" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X43" s="64" t="s">
+      <c r="X43" s="65" t="s">
         <v>282</v>
       </c>
       <c r="Y43" s="21">
@@ -12811,7 +12838,7 @@
       <c r="W44" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X44" s="64" t="s">
+      <c r="X44" s="65" t="s">
         <v>285</v>
       </c>
       <c r="Y44" s="21">
@@ -12866,7 +12893,7 @@
       <c r="W45" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X45" s="64" t="s">
+      <c r="X45" s="65" t="s">
         <v>287</v>
       </c>
       <c r="Y45" s="21">
@@ -12921,7 +12948,7 @@
       <c r="W46" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X46" s="64" t="s">
+      <c r="X46" s="65" t="s">
         <v>289</v>
       </c>
       <c r="Y46" s="21">
@@ -12976,7 +13003,7 @@
       <c r="W47" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X47" s="64" t="s">
+      <c r="X47" s="65" t="s">
         <v>291</v>
       </c>
       <c r="Y47" s="21">
@@ -13031,7 +13058,7 @@
       <c r="W48" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X48" s="64" t="s">
+      <c r="X48" s="65" t="s">
         <v>293</v>
       </c>
       <c r="Y48" s="21">
@@ -13086,7 +13113,7 @@
       <c r="W49" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X49" s="64" t="s">
+      <c r="X49" s="65" t="s">
         <v>296</v>
       </c>
       <c r="Y49" s="21">
@@ -13141,7 +13168,7 @@
       <c r="W50" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X50" s="64" t="s">
+      <c r="X50" s="65" t="s">
         <v>298</v>
       </c>
       <c r="Y50" s="21">
@@ -13192,7 +13219,7 @@
       <c r="Q51" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="R51" s="64" t="s">
+      <c r="R51" s="65" t="s">
         <v>301</v>
       </c>
       <c r="S51" s="32"/>
@@ -13252,7 +13279,7 @@
       <c r="Q52" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="R52" s="64" t="s">
+      <c r="R52" s="65" t="s">
         <v>301</v>
       </c>
       <c r="S52" s="32"/>
@@ -13312,7 +13339,7 @@
       <c r="Q53" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="R53" s="64" t="s">
+      <c r="R53" s="65" t="s">
         <v>301</v>
       </c>
       <c r="S53" s="32"/>
@@ -13605,7 +13632,7 @@
       <c r="W58" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X58" s="64" t="s">
+      <c r="X58" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y58" s="21">
@@ -13660,7 +13687,7 @@
       <c r="W59" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X59" s="64" t="s">
+      <c r="X59" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y59" s="21">
@@ -13715,7 +13742,7 @@
       <c r="W60" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X60" s="64" t="s">
+      <c r="X60" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y60" s="21">
@@ -13770,7 +13797,7 @@
       <c r="W61" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X61" s="64" t="s">
+      <c r="X61" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y61" s="21">
@@ -13825,7 +13852,7 @@
       <c r="W62" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X62" s="64" t="s">
+      <c r="X62" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y62" s="21">
@@ -13880,7 +13907,7 @@
       <c r="W63" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X63" s="64" t="s">
+      <c r="X63" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y63" s="21">
@@ -13935,7 +13962,7 @@
       <c r="W64" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X64" s="64" t="s">
+      <c r="X64" s="65" t="s">
         <v>273</v>
       </c>
       <c r="Y64" s="21">
@@ -13990,7 +14017,7 @@
       <c r="W65" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X65" s="64" t="s">
+      <c r="X65" s="65" t="s">
         <v>273</v>
       </c>
       <c r="Y65" s="21">
@@ -14043,7 +14070,7 @@
       <c r="W66" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="X66" s="64" t="s">
+      <c r="X66" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y66" s="32">
@@ -14111,7 +14138,7 @@
       <c r="W67" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="X67" s="65" t="s">
+      <c r="X67" s="66" t="s">
         <v>182</v>
       </c>
       <c r="Y67" s="33">
@@ -14170,7 +14197,7 @@
       <c r="W68" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="X68" s="65" t="s">
+      <c r="X68" s="66" t="s">
         <v>182</v>
       </c>
       <c r="Y68" s="33">
@@ -14229,7 +14256,7 @@
       <c r="W69" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="X69" s="65" t="s">
+      <c r="X69" s="66" t="s">
         <v>182</v>
       </c>
       <c r="Y69" s="33">
@@ -14288,7 +14315,7 @@
       <c r="W70" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="X70" s="65" t="s">
+      <c r="X70" s="66" t="s">
         <v>182</v>
       </c>
       <c r="Y70" s="33">
@@ -14347,7 +14374,7 @@
       <c r="W71" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="X71" s="65" t="s">
+      <c r="X71" s="66" t="s">
         <v>182</v>
       </c>
       <c r="Y71" s="33">
@@ -14400,7 +14427,7 @@
       <c r="W72" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="X72" s="64" t="s">
+      <c r="X72" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y72" s="32">
@@ -14468,7 +14495,7 @@
       <c r="W73" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X73" s="64" t="s">
+      <c r="X73" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y73" s="32">
@@ -14527,7 +14554,7 @@
       <c r="W74" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X74" s="64" t="s">
+      <c r="X74" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y74" s="32">
@@ -14586,7 +14613,7 @@
       <c r="W75" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X75" s="64" t="s">
+      <c r="X75" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y75" s="32">
@@ -14645,7 +14672,7 @@
       <c r="W76" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X76" s="64" t="s">
+      <c r="X76" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y76" s="32">
@@ -14701,7 +14728,7 @@
       <c r="W77" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="X77" s="66" t="s">
+      <c r="X77" s="67" t="s">
         <v>182</v>
       </c>
       <c r="Y77" s="35">
@@ -14766,7 +14793,7 @@
       <c r="W78" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="X78" s="66" t="s">
+      <c r="X78" s="67" t="s">
         <v>182</v>
       </c>
       <c r="Y78" s="35">
@@ -14831,7 +14858,7 @@
       <c r="W79" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X79" s="64" t="s">
+      <c r="X79" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y79" s="32">
@@ -14896,7 +14923,7 @@
       <c r="W80" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X80" s="64" t="s">
+      <c r="X80" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y80" s="32">
@@ -14964,7 +14991,7 @@
       <c r="W81" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="X81" s="66" t="s">
+      <c r="X81" s="67" t="s">
         <v>182</v>
       </c>
       <c r="Y81" s="35">
@@ -15029,7 +15056,7 @@
       <c r="W82" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X82" s="64" t="s">
+      <c r="X82" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y82" s="32">
@@ -15197,7 +15224,7 @@
       <c r="W85" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="X85" s="64" t="s">
+      <c r="X85" s="65" t="s">
         <v>248</v>
       </c>
       <c r="Y85" s="21">
@@ -15692,7 +15719,7 @@
       <c r="W94" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="X94" s="65" t="s">
+      <c r="X94" s="66" t="s">
         <v>182</v>
       </c>
       <c r="Y94" s="23">
@@ -17729,7 +17756,7 @@
       <c r="W128" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="X128" s="65" t="s">
+      <c r="X128" s="66" t="s">
         <v>182</v>
       </c>
       <c r="Y128" s="33">
@@ -17788,7 +17815,7 @@
       <c r="W129" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="X129" s="65" t="s">
+      <c r="X129" s="66" t="s">
         <v>182</v>
       </c>
       <c r="Y129" s="33">
@@ -27091,7 +27118,7 @@
       <c r="W273" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="X273" s="65" t="s">
+      <c r="X273" s="66" t="s">
         <v>182</v>
       </c>
       <c r="Y273" s="33">
@@ -36511,7 +36538,7 @@
       <c r="W414" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="X414" s="65" t="s">
+      <c r="X414" s="66" t="s">
         <v>182</v>
       </c>
       <c r="Y414" s="33">
@@ -36570,7 +36597,7 @@
       <c r="W415" s="21" t="s">
         <v>795</v>
       </c>
-      <c r="X415" s="64" t="s">
+      <c r="X415" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y415" s="21">
@@ -36638,7 +36665,7 @@
       <c r="W416" s="21" t="s">
         <v>795</v>
       </c>
-      <c r="X416" s="64" t="s">
+      <c r="X416" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y416" s="21">
@@ -36706,7 +36733,7 @@
       <c r="W417" s="21" t="s">
         <v>795</v>
       </c>
-      <c r="X417" s="64" t="s">
+      <c r="X417" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y417" s="21">
@@ -36774,7 +36801,7 @@
       <c r="W418" s="21" t="s">
         <v>795</v>
       </c>
-      <c r="X418" s="64" t="s">
+      <c r="X418" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y418" s="21">
@@ -36842,7 +36869,7 @@
       <c r="W419" s="21" t="s">
         <v>795</v>
       </c>
-      <c r="X419" s="64" t="s">
+      <c r="X419" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y419" s="21">
@@ -36910,7 +36937,7 @@
       <c r="W420" s="21" t="s">
         <v>795</v>
       </c>
-      <c r="X420" s="64" t="s">
+      <c r="X420" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y420" s="21">
@@ -42711,7 +42738,7 @@
       <c r="W509" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="X509" s="67" t="s">
+      <c r="X509" s="68" t="s">
         <v>182</v>
       </c>
       <c r="Y509" s="49">
@@ -42771,7 +42798,7 @@
       <c r="W510" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="X510" s="67" t="s">
+      <c r="X510" s="68" t="s">
         <v>182</v>
       </c>
       <c r="Y510" s="49">
@@ -42831,7 +42858,7 @@
       <c r="W511" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="X511" s="67" t="s">
+      <c r="X511" s="68" t="s">
         <v>182</v>
       </c>
       <c r="Y511" s="49">
@@ -51041,14 +51068,12 @@
       <c r="G635" s="29" t="s">
         <v>1624</v>
       </c>
-      <c r="H635" s="29"/>
       <c r="I635" s="28" t="s">
         <v>1546</v>
       </c>
       <c r="J635" s="29" t="s">
         <v>1625</v>
       </c>
-      <c r="K635" s="29"/>
       <c r="L635" s="28">
         <v>-31</v>
       </c>
@@ -51070,7 +51095,6 @@
       <c r="R635" s="53" t="s">
         <v>1627</v>
       </c>
-      <c r="S635" s="29"/>
       <c r="W635" s="28" t="s">
         <v>481</v>
       </c>
@@ -51086,7 +51110,6 @@
       <c r="AA635" s="29">
         <v>80</v>
       </c>
-      <c r="AB635" s="29"/>
       <c r="AH635" s="29">
         <v>1</v>
       </c>
@@ -51113,14 +51136,12 @@
       <c r="G636" s="29" t="s">
         <v>1624</v>
       </c>
-      <c r="H636" s="29"/>
       <c r="I636" s="28" t="s">
         <v>1546</v>
       </c>
       <c r="J636" s="29" t="s">
         <v>1628</v>
       </c>
-      <c r="K636" s="29"/>
       <c r="L636" s="28">
         <v>-31</v>
       </c>
@@ -51142,7 +51163,6 @@
       <c r="R636" s="53" t="s">
         <v>1629</v>
       </c>
-      <c r="S636" s="29"/>
       <c r="W636" s="28" t="s">
         <v>481</v>
       </c>
@@ -51158,7 +51178,6 @@
       <c r="AA636" s="29">
         <v>80</v>
       </c>
-      <c r="AB636" s="29"/>
       <c r="AH636" s="29">
         <v>1</v>
       </c>
@@ -51185,14 +51204,12 @@
       <c r="G637" s="29" t="s">
         <v>1624</v>
       </c>
-      <c r="H637" s="29"/>
       <c r="I637" s="28" t="s">
         <v>1546</v>
       </c>
       <c r="J637" s="29" t="s">
         <v>1630</v>
       </c>
-      <c r="K637" s="29"/>
       <c r="L637" s="28">
         <v>-31</v>
       </c>
@@ -51214,7 +51231,6 @@
       <c r="R637" s="53" t="s">
         <v>1631</v>
       </c>
-      <c r="S637" s="29"/>
       <c r="W637" s="28" t="s">
         <v>481</v>
       </c>
@@ -51230,7 +51246,6 @@
       <c r="AA637" s="29">
         <v>80</v>
       </c>
-      <c r="AB637" s="29"/>
       <c r="AH637" s="29">
         <v>1</v>
       </c>
@@ -51257,14 +51272,12 @@
       <c r="G638" s="29" t="s">
         <v>1624</v>
       </c>
-      <c r="H638" s="29"/>
       <c r="I638" s="28" t="s">
         <v>1553</v>
       </c>
       <c r="J638" s="29" t="s">
         <v>1632</v>
       </c>
-      <c r="K638" s="29"/>
       <c r="L638" s="28">
         <v>-31</v>
       </c>
@@ -51286,7 +51299,6 @@
       <c r="R638" s="53" t="s">
         <v>1633</v>
       </c>
-      <c r="S638" s="29"/>
       <c r="W638" s="28" t="s">
         <v>481</v>
       </c>
@@ -51302,7 +51314,6 @@
       <c r="AA638" s="29">
         <v>81</v>
       </c>
-      <c r="AB638" s="29"/>
       <c r="AH638" s="29">
         <v>1</v>
       </c>
@@ -51329,14 +51340,12 @@
       <c r="G639" s="29" t="s">
         <v>1624</v>
       </c>
-      <c r="H639" s="29"/>
       <c r="I639" s="28" t="s">
         <v>1553</v>
       </c>
       <c r="J639" s="29" t="s">
         <v>1634</v>
       </c>
-      <c r="K639" s="29"/>
       <c r="L639" s="28">
         <v>-31</v>
       </c>
@@ -51358,7 +51367,6 @@
       <c r="R639" s="53" t="s">
         <v>1635</v>
       </c>
-      <c r="S639" s="29"/>
       <c r="W639" s="28" t="s">
         <v>481</v>
       </c>
@@ -51374,7 +51382,6 @@
       <c r="AA639" s="29">
         <v>81</v>
       </c>
-      <c r="AB639" s="29"/>
       <c r="AH639" s="29">
         <v>1</v>
       </c>
@@ -51401,14 +51408,12 @@
       <c r="G640" s="29" t="s">
         <v>1624</v>
       </c>
-      <c r="H640" s="29"/>
       <c r="I640" s="28" t="s">
         <v>1553</v>
       </c>
       <c r="J640" s="29" t="s">
         <v>1636</v>
       </c>
-      <c r="K640" s="29"/>
       <c r="L640" s="28">
         <v>-31</v>
       </c>
@@ -51430,7 +51435,6 @@
       <c r="R640" s="53" t="s">
         <v>1637</v>
       </c>
-      <c r="S640" s="29"/>
       <c r="W640" s="28" t="s">
         <v>481</v>
       </c>
@@ -51446,7 +51450,6 @@
       <c r="AA640" s="29">
         <v>81</v>
       </c>
-      <c r="AB640" s="29"/>
       <c r="AH640" s="29">
         <v>1</v>
       </c>
@@ -51473,14 +51476,12 @@
       <c r="G641" s="29" t="s">
         <v>1624</v>
       </c>
-      <c r="H641" s="29"/>
       <c r="I641" s="28" t="s">
         <v>1560</v>
       </c>
       <c r="J641" s="29" t="s">
         <v>1636</v>
       </c>
-      <c r="K641" s="29"/>
       <c r="L641" s="28">
         <v>-31</v>
       </c>
@@ -51502,7 +51503,6 @@
       <c r="R641" s="53" t="s">
         <v>1637</v>
       </c>
-      <c r="S641" s="29"/>
       <c r="W641" s="28" t="s">
         <v>481</v>
       </c>
@@ -51518,7 +51518,6 @@
       <c r="AA641" s="29">
         <v>82</v>
       </c>
-      <c r="AB641" s="29"/>
       <c r="AH641" s="29">
         <v>1</v>
       </c>
@@ -51545,14 +51544,12 @@
       <c r="G642" s="29" t="s">
         <v>1624</v>
       </c>
-      <c r="H642" s="29"/>
       <c r="I642" s="28" t="s">
         <v>1560</v>
       </c>
       <c r="J642" s="29" t="s">
         <v>1638</v>
       </c>
-      <c r="K642" s="29"/>
       <c r="L642" s="28">
         <v>-31</v>
       </c>
@@ -51574,7 +51571,6 @@
       <c r="R642" s="53" t="s">
         <v>1639</v>
       </c>
-      <c r="S642" s="29"/>
       <c r="W642" s="28" t="s">
         <v>481</v>
       </c>
@@ -51590,7 +51586,6 @@
       <c r="AA642" s="29">
         <v>82</v>
       </c>
-      <c r="AB642" s="29"/>
       <c r="AH642" s="29">
         <v>1</v>
       </c>
@@ -51617,14 +51612,12 @@
       <c r="G643" s="29" t="s">
         <v>1624</v>
       </c>
-      <c r="H643" s="29"/>
       <c r="I643" s="28" t="s">
         <v>1560</v>
       </c>
       <c r="J643" s="29" t="s">
         <v>1640</v>
       </c>
-      <c r="K643" s="29"/>
       <c r="L643" s="28">
         <v>-31</v>
       </c>
@@ -51646,7 +51639,6 @@
       <c r="R643" s="53" t="s">
         <v>1641</v>
       </c>
-      <c r="S643" s="29"/>
       <c r="W643" s="28" t="s">
         <v>481</v>
       </c>
@@ -51662,7 +51654,6 @@
       <c r="AA643" s="29">
         <v>82</v>
       </c>
-      <c r="AB643" s="29"/>
       <c r="AH643" s="29">
         <v>1</v>
       </c>
@@ -51689,14 +51680,12 @@
       <c r="G644" s="29" t="s">
         <v>1624</v>
       </c>
-      <c r="H644" s="29"/>
       <c r="I644" s="28" t="s">
         <v>1449</v>
       </c>
       <c r="J644" s="29" t="s">
         <v>1638</v>
       </c>
-      <c r="K644" s="29"/>
       <c r="L644" s="28">
         <v>-31</v>
       </c>
@@ -51718,7 +51707,6 @@
       <c r="R644" s="53" t="s">
         <v>1639</v>
       </c>
-      <c r="S644" s="29"/>
       <c r="W644" s="28" t="s">
         <v>481</v>
       </c>
@@ -51734,7 +51722,6 @@
       <c r="AA644" s="29">
         <v>83</v>
       </c>
-      <c r="AB644" s="29"/>
       <c r="AH644" s="29">
         <v>1</v>
       </c>
@@ -51761,14 +51748,12 @@
       <c r="G645" s="29" t="s">
         <v>1624</v>
       </c>
-      <c r="H645" s="29"/>
       <c r="I645" s="28" t="s">
         <v>1449</v>
       </c>
       <c r="J645" s="29" t="s">
         <v>1640</v>
       </c>
-      <c r="K645" s="29"/>
       <c r="L645" s="28">
         <v>-31</v>
       </c>
@@ -51790,7 +51775,6 @@
       <c r="R645" s="53" t="s">
         <v>1641</v>
       </c>
-      <c r="S645" s="29"/>
       <c r="W645" s="28" t="s">
         <v>481</v>
       </c>
@@ -51806,7 +51790,6 @@
       <c r="AA645" s="29">
         <v>83</v>
       </c>
-      <c r="AB645" s="29"/>
       <c r="AH645" s="29">
         <v>1</v>
       </c>
@@ -51833,14 +51816,12 @@
       <c r="G646" s="29" t="s">
         <v>1624</v>
       </c>
-      <c r="H646" s="29"/>
       <c r="I646" s="28" t="s">
         <v>1449</v>
       </c>
       <c r="J646" s="29" t="s">
         <v>1642</v>
       </c>
-      <c r="K646" s="29"/>
       <c r="L646" s="28">
         <v>-31</v>
       </c>
@@ -51862,7 +51843,6 @@
       <c r="R646" s="53" t="s">
         <v>1643</v>
       </c>
-      <c r="S646" s="29"/>
       <c r="W646" s="28" t="s">
         <v>481</v>
       </c>
@@ -51878,7 +51858,6 @@
       <c r="AA646" s="29">
         <v>83</v>
       </c>
-      <c r="AB646" s="29"/>
       <c r="AH646" s="29">
         <v>1</v>
       </c>
@@ -51889,6 +51868,502 @@
         <v>1</v>
       </c>
       <c r="AM646" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647" s="24" customFormat="1" spans="1:39">
+      <c r="A647" s="24">
+        <v>646</v>
+      </c>
+      <c r="B647" s="24">
+        <v>10563</v>
+      </c>
+      <c r="F647" s="24">
+        <v>1</v>
+      </c>
+      <c r="G647" s="24" t="s">
+        <v>1644</v>
+      </c>
+      <c r="J647" s="24" t="s">
+        <v>1645</v>
+      </c>
+      <c r="L647" s="24">
+        <v>-31</v>
+      </c>
+      <c r="M647" s="24">
+        <v>0</v>
+      </c>
+      <c r="N647" s="24">
+        <v>0</v>
+      </c>
+      <c r="O647" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="P647" s="24">
+        <v>19800</v>
+      </c>
+      <c r="Q647" s="24" t="s">
+        <v>1646</v>
+      </c>
+      <c r="R647" s="56" t="s">
+        <v>1647</v>
+      </c>
+      <c r="W647" s="24" t="s">
+        <v>1648</v>
+      </c>
+      <c r="X647" s="24">
+        <v>99999999</v>
+      </c>
+      <c r="Y647" s="24">
+        <v>1620576000</v>
+      </c>
+      <c r="Z647" s="24">
+        <v>2552233600</v>
+      </c>
+      <c r="AH647" s="24">
+        <v>1</v>
+      </c>
+      <c r="AI647" s="24">
+        <v>1</v>
+      </c>
+      <c r="AL647" s="24">
+        <v>1</v>
+      </c>
+      <c r="AM647" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" s="24" customFormat="1" spans="1:39">
+      <c r="A648" s="24">
+        <v>647</v>
+      </c>
+      <c r="B648" s="24">
+        <v>10564</v>
+      </c>
+      <c r="F648" s="24">
+        <v>1</v>
+      </c>
+      <c r="G648" s="24" t="s">
+        <v>1649</v>
+      </c>
+      <c r="J648" s="24" t="s">
+        <v>1650</v>
+      </c>
+      <c r="L648" s="24">
+        <v>-31</v>
+      </c>
+      <c r="M648" s="24">
+        <v>0</v>
+      </c>
+      <c r="N648" s="24">
+        <v>0</v>
+      </c>
+      <c r="O648" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="P648" s="24">
+        <v>69800</v>
+      </c>
+      <c r="Q648" s="24" t="s">
+        <v>1646</v>
+      </c>
+      <c r="R648" s="56" t="s">
+        <v>1651</v>
+      </c>
+      <c r="W648" s="24" t="s">
+        <v>1648</v>
+      </c>
+      <c r="X648" s="24">
+        <v>99999999</v>
+      </c>
+      <c r="Y648" s="24">
+        <v>1620576000</v>
+      </c>
+      <c r="Z648" s="24">
+        <v>2552233600</v>
+      </c>
+      <c r="AH648" s="24">
+        <v>1</v>
+      </c>
+      <c r="AI648" s="24">
+        <v>1</v>
+      </c>
+      <c r="AL648" s="24">
+        <v>1</v>
+      </c>
+      <c r="AM648" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649" spans="1:39">
+      <c r="A649" s="21">
+        <v>648</v>
+      </c>
+      <c r="B649" s="29">
+        <v>10565</v>
+      </c>
+      <c r="F649" s="29">
+        <v>1</v>
+      </c>
+      <c r="G649" s="29" t="s">
+        <v>1394</v>
+      </c>
+      <c r="J649" s="28" t="s">
+        <v>1580</v>
+      </c>
+      <c r="L649" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M649" s="28">
+        <v>0</v>
+      </c>
+      <c r="N649" s="28">
+        <v>0</v>
+      </c>
+      <c r="O649" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P649" s="29">
+        <v>49800</v>
+      </c>
+      <c r="Q649" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R649" s="53" t="s">
+        <v>1582</v>
+      </c>
+      <c r="W649" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X649" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y649" s="29">
+        <v>1622505600</v>
+      </c>
+      <c r="Z649" s="29">
+        <v>1623081599</v>
+      </c>
+      <c r="AH649" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI649" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL649" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM649" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" spans="1:39">
+      <c r="A650" s="21">
+        <v>649</v>
+      </c>
+      <c r="B650" s="29">
+        <v>10566</v>
+      </c>
+      <c r="F650" s="29">
+        <v>1</v>
+      </c>
+      <c r="G650" s="29" t="s">
+        <v>1394</v>
+      </c>
+      <c r="J650" s="28" t="s">
+        <v>1583</v>
+      </c>
+      <c r="L650" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M650" s="28">
+        <v>0</v>
+      </c>
+      <c r="N650" s="28">
+        <v>0</v>
+      </c>
+      <c r="O650" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P650" s="29">
+        <v>19800</v>
+      </c>
+      <c r="Q650" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R650" s="53" t="s">
+        <v>1584</v>
+      </c>
+      <c r="W650" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X650" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y650" s="29">
+        <v>1622505600</v>
+      </c>
+      <c r="Z650" s="29">
+        <v>1623081599</v>
+      </c>
+      <c r="AH650" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI650" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL650" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM650" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651" spans="1:39">
+      <c r="A651" s="21">
+        <v>650</v>
+      </c>
+      <c r="B651" s="29">
+        <v>10567</v>
+      </c>
+      <c r="F651" s="29">
+        <v>1</v>
+      </c>
+      <c r="G651" s="29" t="s">
+        <v>1394</v>
+      </c>
+      <c r="J651" s="28" t="s">
+        <v>1585</v>
+      </c>
+      <c r="L651" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M651" s="28">
+        <v>0</v>
+      </c>
+      <c r="N651" s="28">
+        <v>0</v>
+      </c>
+      <c r="O651" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P651" s="29">
+        <v>9800</v>
+      </c>
+      <c r="Q651" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R651" s="53" t="s">
+        <v>1586</v>
+      </c>
+      <c r="W651" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X651" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y651" s="29">
+        <v>1622505600</v>
+      </c>
+      <c r="Z651" s="29">
+        <v>1623081599</v>
+      </c>
+      <c r="AH651" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI651" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL651" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM651" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652" spans="1:39">
+      <c r="A652" s="21">
+        <v>651</v>
+      </c>
+      <c r="B652" s="29">
+        <v>10568</v>
+      </c>
+      <c r="F652" s="29">
+        <v>1</v>
+      </c>
+      <c r="G652" s="29" t="s">
+        <v>1394</v>
+      </c>
+      <c r="J652" s="28" t="s">
+        <v>1587</v>
+      </c>
+      <c r="L652" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M652" s="28">
+        <v>0</v>
+      </c>
+      <c r="N652" s="28">
+        <v>0</v>
+      </c>
+      <c r="O652" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P652" s="29">
+        <v>4800</v>
+      </c>
+      <c r="Q652" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R652" s="53" t="s">
+        <v>1588</v>
+      </c>
+      <c r="W652" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X652" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y652" s="29">
+        <v>1622505600</v>
+      </c>
+      <c r="Z652" s="29">
+        <v>1623081599</v>
+      </c>
+      <c r="AH652" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI652" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL652" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM652" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653" spans="1:39">
+      <c r="A653" s="21">
+        <v>652</v>
+      </c>
+      <c r="B653" s="29">
+        <v>10569</v>
+      </c>
+      <c r="F653" s="29">
+        <v>1</v>
+      </c>
+      <c r="G653" s="29" t="s">
+        <v>1394</v>
+      </c>
+      <c r="J653" s="28" t="s">
+        <v>1589</v>
+      </c>
+      <c r="L653" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M653" s="28">
+        <v>0</v>
+      </c>
+      <c r="N653" s="28">
+        <v>0</v>
+      </c>
+      <c r="O653" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P653" s="29">
+        <v>2000</v>
+      </c>
+      <c r="Q653" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R653" s="53" t="s">
+        <v>1590</v>
+      </c>
+      <c r="W653" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X653" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y653" s="29">
+        <v>1622505600</v>
+      </c>
+      <c r="Z653" s="29">
+        <v>1623081599</v>
+      </c>
+      <c r="AH653" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI653" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL653" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM653" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654" spans="1:39">
+      <c r="A654" s="21">
+        <v>653</v>
+      </c>
+      <c r="B654" s="29">
+        <v>10570</v>
+      </c>
+      <c r="F654" s="29">
+        <v>1</v>
+      </c>
+      <c r="G654" s="29" t="s">
+        <v>1394</v>
+      </c>
+      <c r="J654" s="28" t="s">
+        <v>1591</v>
+      </c>
+      <c r="L654" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M654" s="28">
+        <v>0</v>
+      </c>
+      <c r="N654" s="28">
+        <v>0</v>
+      </c>
+      <c r="O654" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P654" s="29">
+        <v>600</v>
+      </c>
+      <c r="Q654" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R654" s="53" t="s">
+        <v>1592</v>
+      </c>
+      <c r="W654" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X654" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y654" s="29">
+        <v>1622505600</v>
+      </c>
+      <c r="Z654" s="29">
+        <v>1623081599</v>
+      </c>
+      <c r="AH654" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI654" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL654" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM654" s="29">
         <v>1</v>
       </c>
     </row>
@@ -51918,19 +52393,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="58.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1644</v>
+        <v>1652</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1645</v>
+        <v>1653</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1646</v>
+        <v>1654</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1647</v>
+        <v>1655</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1648</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="2" ht="57.75" customHeight="1" spans="1:5">
@@ -51938,7 +52413,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1649</v>
+        <v>1657</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -51947,7 +52422,7 @@
         <v>3600</v>
       </c>
       <c r="E2" t="s">
-        <v>1650</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="3" ht="78.75" customHeight="1" spans="1:4">
@@ -51955,7 +52430,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>1651</v>
+        <v>1659</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -51969,7 +52444,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>1652</v>
+        <v>1660</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -51983,7 +52458,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>1653</v>
+        <v>1661</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -51997,7 +52472,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>1654</v>
+        <v>1662</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -52011,7 +52486,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1655</v>
+        <v>1663</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -52025,7 +52500,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1656</v>
+        <v>1664</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -52039,7 +52514,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1657</v>
+        <v>1665</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -52053,7 +52528,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1658</v>
+        <v>1666</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -52067,7 +52542,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1659</v>
+        <v>1667</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -52081,7 +52556,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>1654</v>
+        <v>1662</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -52095,7 +52570,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>1655</v>
+        <v>1663</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -52109,7 +52584,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>1660</v>
+        <v>1668</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -52123,7 +52598,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>1661</v>
+        <v>1669</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -52137,7 +52612,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>1662</v>
+        <v>1670</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -52151,7 +52626,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>1663</v>
+        <v>1671</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -52165,7 +52640,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>1664</v>
+        <v>1672</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -52179,7 +52654,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>1665</v>
+        <v>1673</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -52193,7 +52668,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>1666</v>
+        <v>1674</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -52207,7 +52682,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>1667</v>
+        <v>1675</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
@@ -52221,7 +52696,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>1668</v>
+        <v>1676</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
@@ -52235,7 +52710,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1669</v>
+        <v>1677</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
@@ -52249,7 +52724,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>1670</v>
+        <v>1678</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
@@ -52263,7 +52738,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1671</v>
+        <v>1679</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
@@ -52277,7 +52752,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>1672</v>
+        <v>1680</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -52291,7 +52766,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1673</v>
+        <v>1681</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -52305,7 +52780,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1674</v>
+        <v>1682</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -52319,7 +52794,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1675</v>
+        <v>1683</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -52333,7 +52808,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1676</v>
+        <v>1684</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -52347,7 +52822,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1677</v>
+        <v>1685</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -52361,7 +52836,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1678</v>
+        <v>1686</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -52375,7 +52850,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1679</v>
+        <v>1687</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -52389,7 +52864,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -52403,7 +52878,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -52417,7 +52892,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -52431,7 +52906,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -52445,7 +52920,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1684</v>
+        <v>1692</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -52459,7 +52934,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -52473,7 +52948,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1686</v>
+        <v>1694</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -52487,7 +52962,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1687</v>
+        <v>1695</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -52501,7 +52976,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1688</v>
+        <v>1696</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -52515,7 +52990,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1689</v>
+        <v>1697</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -52529,7 +53004,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1690</v>
+        <v>1698</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -52543,7 +53018,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1691</v>
+        <v>1699</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -52557,7 +53032,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>1692</v>
+        <v>1700</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -52571,7 +53046,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>1693</v>
+        <v>1701</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -52585,7 +53060,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1694</v>
+        <v>1702</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -52599,7 +53074,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1695</v>
+        <v>1703</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -52613,7 +53088,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1696</v>
+        <v>1704</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -52627,7 +53102,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>1697</v>
+        <v>1705</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -52641,7 +53116,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>1698</v>
+        <v>1706</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -52655,7 +53130,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1699</v>
+        <v>1707</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -52669,7 +53144,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1700</v>
+        <v>1708</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
@@ -52683,7 +53158,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1701</v>
+        <v>1709</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -52697,7 +53172,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1702</v>
+        <v>1710</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -52711,7 +53186,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1703</v>
+        <v>1711</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -52725,7 +53200,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1704</v>
+        <v>1712</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -52739,7 +53214,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1705</v>
+        <v>1713</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -52753,7 +53228,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1706</v>
+        <v>1714</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -52767,7 +53242,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1707</v>
+        <v>1715</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -52781,7 +53256,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1708</v>
+        <v>1716</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -52795,7 +53270,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>1709</v>
+        <v>1717</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -52809,7 +53284,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1710</v>
+        <v>1718</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
@@ -52823,7 +53298,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1711</v>
+        <v>1719</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -52837,7 +53312,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1712</v>
+        <v>1720</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
@@ -52851,7 +53326,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1713</v>
+        <v>1721</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -52865,7 +53340,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1714</v>
+        <v>1722</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -52879,7 +53354,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1715</v>
+        <v>1723</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -52893,7 +53368,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1716</v>
+        <v>1724</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -52907,7 +53382,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>1717</v>
+        <v>1725</v>
       </c>
       <c r="C71" s="17">
         <v>1</v>
@@ -52921,7 +53396,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>1718</v>
+        <v>1726</v>
       </c>
       <c r="C72" s="17">
         <v>1</v>
@@ -52935,7 +53410,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>1719</v>
+        <v>1727</v>
       </c>
       <c r="C73" s="17">
         <v>1</v>
@@ -52949,7 +53424,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>1720</v>
+        <v>1728</v>
       </c>
       <c r="C74" s="17">
         <v>1</v>
@@ -52963,7 +53438,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>1721</v>
+        <v>1729</v>
       </c>
       <c r="C75" s="17">
         <v>1</v>
@@ -52977,7 +53452,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>1722</v>
+        <v>1730</v>
       </c>
       <c r="C76" s="17">
         <v>1</v>
@@ -52991,7 +53466,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>1723</v>
+        <v>1731</v>
       </c>
       <c r="C77" s="17">
         <v>1</v>
@@ -53005,7 +53480,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>1724</v>
+        <v>1732</v>
       </c>
       <c r="C78" s="17">
         <v>1</v>
@@ -53019,7 +53494,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>1725</v>
+        <v>1733</v>
       </c>
       <c r="C79" s="17">
         <v>1</v>
@@ -53033,7 +53508,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>1726</v>
+        <v>1734</v>
       </c>
       <c r="C80" s="17">
         <v>1</v>
@@ -53047,7 +53522,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>1727</v>
+        <v>1735</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -53061,7 +53536,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>1728</v>
+        <v>1736</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
@@ -53075,7 +53550,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>1729</v>
+        <v>1737</v>
       </c>
       <c r="C83" s="2">
         <v>1</v>
@@ -53089,7 +53564,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>1730</v>
+        <v>1738</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
@@ -53103,7 +53578,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>1731</v>
+        <v>1739</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -53155,7 +53630,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="90" customHeight="1" spans="1:29">
       <c r="A1" s="1" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -53167,19 +53642,19 @@
         <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1733</v>
+        <v>1741</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1735</v>
+        <v>1743</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1737</v>
+        <v>1745</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>31</v>
@@ -53194,7 +53669,7 @@
         <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1738</v>
+        <v>1746</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>39</v>
@@ -53239,7 +53714,7 @@
         <v>52</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>1739</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="1" spans="1:26">
@@ -53259,7 +53734,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G2" s="12">
         <v>480</v>
@@ -53286,22 +53761,22 @@
         <v>3</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>1741</v>
+        <v>1749</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>1742</v>
+        <v>1750</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T2" s="12" t="s">
         <v>61</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>1744</v>
+        <v>1752</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="Y2" s="12">
         <v>1</v>
@@ -53327,7 +53802,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G3" s="12">
         <v>1200</v>
@@ -53357,19 +53832,19 @@
         <v>127</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T3" s="12" t="s">
         <v>66</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="Y3" s="12">
         <v>1</v>
@@ -53395,7 +53870,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G4" s="12">
         <v>2400</v>
@@ -53422,22 +53897,22 @@
         <v>5</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T4" s="12" t="s">
         <v>70</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>1750</v>
+        <v>1758</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="Y4" s="12">
         <v>1</v>
@@ -53463,7 +53938,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G5" s="12">
         <v>4000</v>
@@ -53490,22 +53965,22 @@
         <v>6</v>
       </c>
       <c r="P5" s="15" t="s">
+        <v>1759</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>1760</v>
+      </c>
+      <c r="S5" s="15" t="s">
         <v>1751</v>
-      </c>
-      <c r="Q5" s="15" t="s">
-        <v>1752</v>
-      </c>
-      <c r="S5" s="15" t="s">
-        <v>1743</v>
       </c>
       <c r="T5" s="12" t="s">
         <v>74</v>
       </c>
       <c r="U5" s="15" t="s">
+        <v>1761</v>
+      </c>
+      <c r="V5" s="12" t="s">
         <v>1753</v>
-      </c>
-      <c r="V5" s="12" t="s">
-        <v>1745</v>
       </c>
       <c r="Y5" s="12">
         <v>1</v>
@@ -53531,7 +54006,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G6" s="12">
         <v>7840</v>
@@ -53558,22 +54033,22 @@
         <v>7</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T6" s="12" t="s">
         <v>78</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="Y6" s="12">
         <v>1</v>
@@ -53599,7 +54074,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G7" s="12">
         <v>39840</v>
@@ -53626,22 +54101,22 @@
         <v>9</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>1757</v>
+        <v>1765</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>1758</v>
+        <v>1766</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T7" s="12" t="s">
         <v>82</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>1759</v>
+        <v>1767</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="Y7" s="12">
         <v>1</v>
@@ -53664,7 +54139,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G8" s="12">
         <v>120</v>
@@ -53691,22 +54166,22 @@
         <v>0</v>
       </c>
       <c r="P8" s="15" t="s">
-        <v>1760</v>
+        <v>1768</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>1761</v>
+        <v>1769</v>
       </c>
       <c r="S8" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T8" s="12" t="s">
         <v>61</v>
       </c>
       <c r="U8" s="15" t="s">
-        <v>1744</v>
+        <v>1752</v>
       </c>
       <c r="V8" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="Y8" s="12">
         <v>1</v>
@@ -53730,7 +54205,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>1762</v>
+        <v>1770</v>
       </c>
       <c r="G9" s="13">
         <v>5000</v>
@@ -53758,10 +54233,10 @@
         <v>2</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>1763</v>
+        <v>1771</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>1764</v>
+        <v>1772</v>
       </c>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
@@ -53769,10 +54244,10 @@
         <v>5000</v>
       </c>
       <c r="U9" s="13" t="s">
+        <v>1761</v>
+      </c>
+      <c r="V9" s="13" t="s">
         <v>1753</v>
-      </c>
-      <c r="V9" s="13" t="s">
-        <v>1745</v>
       </c>
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
@@ -53785,7 +54260,7 @@
       <c r="AA9" s="13"/>
       <c r="AB9" s="13"/>
       <c r="AC9" s="16" t="s">
-        <v>1765</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="10" s="12" customFormat="1" spans="1:29">
@@ -53803,7 +54278,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>1762</v>
+        <v>1770</v>
       </c>
       <c r="G10" s="13">
         <v>1000</v>
@@ -53831,10 +54306,10 @@
         <v>1</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>1766</v>
+        <v>1774</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>1767</v>
+        <v>1775</v>
       </c>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
@@ -53842,10 +54317,10 @@
         <v>1000</v>
       </c>
       <c r="U10" s="13" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="V10" s="13" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
@@ -53858,7 +54333,7 @@
       <c r="AA10" s="13"/>
       <c r="AB10" s="13"/>
       <c r="AC10" s="16" t="s">
-        <v>1768</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="11" s="12" customFormat="1" spans="1:26">
@@ -53875,7 +54350,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G11" s="12">
         <v>1200</v>
@@ -53905,19 +54380,19 @@
         <v>127</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
       <c r="S11" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T11" s="15" t="s">
         <v>66</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="Y11" s="12">
         <v>1</v>
@@ -53943,7 +54418,7 @@
         <v>107</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G12" s="12">
         <v>120000</v>
@@ -53970,22 +54445,22 @@
         <v>9</v>
       </c>
       <c r="P12" s="15" t="s">
-        <v>1769</v>
+        <v>1777</v>
       </c>
       <c r="Q12" s="15" t="s">
-        <v>1770</v>
+        <v>1778</v>
       </c>
       <c r="S12" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T12" s="12" t="s">
         <v>86</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>1771</v>
+        <v>1779</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="Y12" s="12">
         <v>1</v>
@@ -54011,7 +54486,7 @@
         <v>108</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G13" s="12">
         <v>79840</v>
@@ -54038,22 +54513,22 @@
         <v>10</v>
       </c>
       <c r="P13" s="15" t="s">
-        <v>1772</v>
+        <v>1780</v>
       </c>
       <c r="Q13" s="15" t="s">
-        <v>1773</v>
+        <v>1781</v>
       </c>
       <c r="S13" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>1774</v>
+        <v>1782</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>1771</v>
+        <v>1779</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="Y13" s="12">
         <v>1</v>
@@ -54079,7 +54554,7 @@
         <v>110</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G14" s="12">
         <v>199840</v>
@@ -54106,22 +54581,22 @@
         <v>11</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>1775</v>
+        <v>1783</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>1776</v>
+        <v>1784</v>
       </c>
       <c r="S14" s="15" t="s">
-        <v>1777</v>
+        <v>1785</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>1778</v>
+        <v>1786</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>1779</v>
+        <v>1787</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="Y14" s="12">
         <v>1</v>
@@ -54145,7 +54620,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>1762</v>
+        <v>1770</v>
       </c>
       <c r="G15" s="13">
         <v>100</v>
@@ -54175,10 +54650,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>1780</v>
+        <v>1788</v>
       </c>
       <c r="Q15" s="16" t="s">
-        <v>1781</v>
+        <v>1789</v>
       </c>
       <c r="R15" s="13"/>
       <c r="S15" s="16"/>
@@ -54186,10 +54661,10 @@
         <v>100</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>1744</v>
+        <v>1752</v>
       </c>
       <c r="V15" s="13" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
@@ -54202,7 +54677,7 @@
       <c r="AA15" s="13"/>
       <c r="AB15" s="13"/>
       <c r="AC15" s="16" t="s">
-        <v>1782</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="16" s="12" customFormat="1" spans="1:26">
@@ -54222,7 +54697,7 @@
         <v>101</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G16" s="12">
         <v>2000</v>
@@ -54249,23 +54724,23 @@
         <v>3</v>
       </c>
       <c r="P16" s="15" t="s">
-        <v>1783</v>
+        <v>1791</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>1784</v>
+        <v>1792</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T16" s="12" t="s">
         <v>101</v>
       </c>
       <c r="U16" s="15" t="s">
-        <v>1744</v>
+        <v>1752</v>
       </c>
       <c r="V16" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -54290,7 +54765,7 @@
         <v>102</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G17" s="12">
         <v>6700</v>
@@ -54317,23 +54792,23 @@
         <v>4</v>
       </c>
       <c r="P17" s="15" t="s">
-        <v>1785</v>
+        <v>1793</v>
       </c>
       <c r="Q17" s="15" t="s">
-        <v>1786</v>
+        <v>1794</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T17" s="12" t="s">
         <v>105</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>1750</v>
+        <v>1758</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -54358,7 +54833,7 @@
         <v>103</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G18" s="12">
         <v>13200</v>
@@ -54385,23 +54860,23 @@
         <v>5</v>
       </c>
       <c r="P18" s="15" t="s">
-        <v>1787</v>
+        <v>1795</v>
       </c>
       <c r="Q18" s="15" t="s">
-        <v>1788</v>
+        <v>1796</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T18" s="12" t="s">
         <v>109</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -54426,7 +54901,7 @@
         <v>104</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G19" s="12">
         <v>20400</v>
@@ -54453,23 +54928,23 @@
         <v>6</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>1789</v>
+        <v>1797</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>1790</v>
+        <v>1798</v>
       </c>
       <c r="R19" s="2"/>
       <c r="S19" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T19" s="12" t="s">
         <v>114</v>
       </c>
       <c r="U19" s="15" t="s">
-        <v>1791</v>
+        <v>1799</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -54494,7 +54969,7 @@
         <v>105</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G20" s="12">
         <v>66</v>
@@ -54521,22 +54996,22 @@
         <v>7</v>
       </c>
       <c r="P20" s="15" t="s">
-        <v>1792</v>
+        <v>1800</v>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>1793</v>
+        <v>1801</v>
       </c>
       <c r="S20" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T20" s="12" t="s">
         <v>120</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>1791</v>
+        <v>1799</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="Y20" s="12">
         <v>1</v>
@@ -54560,7 +55035,7 @@
         <v>101</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G21" s="12">
         <v>200</v>
@@ -54591,20 +55066,20 @@
         <v>890</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>1794</v>
+        <v>1802</v>
       </c>
       <c r="R21" s="12"/>
       <c r="S21" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T21" s="12" t="s">
         <v>124</v>
       </c>
       <c r="U21" s="15" t="s">
-        <v>1744</v>
+        <v>1752</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
@@ -54633,7 +55108,7 @@
         <v>104</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>1762</v>
+        <v>1770</v>
       </c>
       <c r="G22" s="13">
         <v>5000</v>
@@ -54661,10 +55136,10 @@
         <v>2</v>
       </c>
       <c r="P22" s="16" t="s">
-        <v>1763</v>
+        <v>1771</v>
       </c>
       <c r="Q22" s="16" t="s">
-        <v>1764</v>
+        <v>1772</v>
       </c>
       <c r="R22" s="13"/>
       <c r="S22" s="16"/>
@@ -54672,10 +55147,10 @@
         <v>5000</v>
       </c>
       <c r="U22" s="16" t="s">
+        <v>1761</v>
+      </c>
+      <c r="V22" s="13" t="s">
         <v>1753</v>
-      </c>
-      <c r="V22" s="13" t="s">
-        <v>1745</v>
       </c>
       <c r="W22" s="13"/>
       <c r="X22" s="13"/>
@@ -54704,7 +55179,7 @@
         <v>102</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>1762</v>
+        <v>1770</v>
       </c>
       <c r="G23" s="13">
         <v>1000</v>
@@ -54732,10 +55207,10 @@
         <v>1</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>1766</v>
+        <v>1774</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>1767</v>
+        <v>1775</v>
       </c>
       <c r="R23" s="13"/>
       <c r="S23" s="16"/>
@@ -54743,10 +55218,10 @@
         <v>1000</v>
       </c>
       <c r="U23" s="16" t="s">
-        <v>1744</v>
+        <v>1752</v>
       </c>
       <c r="V23" s="13" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W23" s="13"/>
       <c r="X23" s="13"/>
@@ -54768,14 +55243,14 @@
         <v>109</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>1795</v>
+        <v>1803</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
         <v>101</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>1762</v>
+        <v>1770</v>
       </c>
       <c r="G24" s="13">
         <v>100</v>
@@ -54805,10 +55280,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="16" t="s">
-        <v>1780</v>
+        <v>1788</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>1781</v>
+        <v>1789</v>
       </c>
       <c r="R24" s="13"/>
       <c r="S24" s="16"/>
@@ -54816,10 +55291,10 @@
         <v>100</v>
       </c>
       <c r="U24" s="16" t="s">
-        <v>1744</v>
+        <v>1752</v>
       </c>
       <c r="V24" s="13" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W24" s="13"/>
       <c r="X24" s="13"/>
@@ -54832,7 +55307,7 @@
       <c r="AA24" s="13"/>
       <c r="AB24" s="13"/>
       <c r="AC24" s="16" t="s">
-        <v>1782</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="25" s="12" customFormat="1" spans="1:26">
@@ -54852,7 +55327,7 @@
         <v>111</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G25" s="12">
         <v>15840</v>
@@ -54879,22 +55354,22 @@
         <v>8</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>1796</v>
+        <v>1804</v>
       </c>
       <c r="Q25" s="15" t="s">
-        <v>1797</v>
+        <v>1805</v>
       </c>
       <c r="S25" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T25" s="15" t="s">
-        <v>1798</v>
+        <v>1806</v>
       </c>
       <c r="U25" s="15" t="s">
-        <v>1791</v>
+        <v>1799</v>
       </c>
       <c r="V25" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="Y25" s="12">
         <v>1</v>
@@ -54957,13 +55432,13 @@
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1735</v>
+        <v>1743</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1799</v>
+        <v>1807</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>31</v>
@@ -54975,16 +55450,16 @@
         <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1800</v>
+        <v>1808</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1801</v>
+        <v>1809</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1803</v>
+        <v>1811</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>38</v>
@@ -55025,7 +55500,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -55037,7 +55512,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1805</v>
+        <v>1813</v>
       </c>
       <c r="L2" s="2">
         <v>54</v>
@@ -55046,7 +55521,7 @@
         <v>999999</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1806</v>
+        <v>1814</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -55055,22 +55530,22 @@
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1808</v>
+        <v>1816</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1809</v>
+        <v>1817</v>
       </c>
       <c r="T2" s="2">
         <v>60000</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1810</v>
+        <v>1818</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:23">
@@ -55081,7 +55556,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -55093,7 +55568,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1805</v>
+        <v>1813</v>
       </c>
       <c r="L3" s="2">
         <v>54</v>
@@ -55102,7 +55577,7 @@
         <v>999999</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1811</v>
+        <v>1819</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -55111,22 +55586,22 @@
         <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1812</v>
+        <v>1820</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1809</v>
+        <v>1817</v>
       </c>
       <c r="T3" s="2">
         <v>500000</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1810</v>
+        <v>1818</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W3" s="2">
         <v>8.3</v>
@@ -55140,7 +55615,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1813</v>
+        <v>1821</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -55151,7 +55626,7 @@
       <c r="G4" s="2">
         <v>1</v>
       </c>
-      <c r="H4" s="68" t="s">
+      <c r="H4" s="69" t="s">
         <v>57</v>
       </c>
       <c r="I4" s="5">
@@ -55165,19 +55640,19 @@
         <v>4</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>1814</v>
+        <v>1822</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>1815</v>
+        <v>1823</v>
       </c>
       <c r="T4" s="2">
         <v>15000</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>1816</v>
+        <v>1824</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:22">
@@ -55188,7 +55663,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1817</v>
+        <v>1825</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -55199,7 +55674,7 @@
       <c r="G5" s="2">
         <v>1</v>
       </c>
-      <c r="H5" s="68" t="s">
+      <c r="H5" s="69" t="s">
         <v>57</v>
       </c>
       <c r="L5" s="2">
@@ -55215,10 +55690,10 @@
         <v>100000</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>1818</v>
+        <v>1826</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:22">
@@ -55229,7 +55704,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1819</v>
+        <v>1827</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -55240,7 +55715,7 @@
       <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="68" t="s">
+      <c r="H6" s="69" t="s">
         <v>57</v>
       </c>
       <c r="L6" s="2">
@@ -55256,10 +55731,10 @@
         <v>100000</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1818</v>
+        <v>1826</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:23">
@@ -55270,7 +55745,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -55282,7 +55757,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1820</v>
+        <v>1828</v>
       </c>
       <c r="L7" s="2">
         <v>56</v>
@@ -55291,7 +55766,7 @@
         <v>999999</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>1811</v>
+        <v>1819</v>
       </c>
       <c r="O7" s="6">
         <v>0</v>
@@ -55300,22 +55775,22 @@
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>1821</v>
+        <v>1829</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>1812</v>
+        <v>1820</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>1809</v>
+        <v>1817</v>
       </c>
       <c r="T7" s="2">
         <v>500000</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W7" s="2">
         <v>8.3</v>
@@ -55329,10 +55804,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1823</v>
+        <v>1831</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="F8" s="2">
         <v>100</v>
@@ -55344,7 +55819,7 @@
         <v>125</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1824</v>
+        <v>1832</v>
       </c>
       <c r="L8" s="2">
         <v>57</v>
@@ -55359,22 +55834,22 @@
         <v>5</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>1825</v>
+        <v>1833</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>1826</v>
+        <v>1834</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>1809</v>
+        <v>1817</v>
       </c>
       <c r="T8" s="2">
         <v>100</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:22">
@@ -55385,10 +55860,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1828</v>
+        <v>1836</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="F9" s="2">
         <v>1000</v>
@@ -55403,16 +55878,16 @@
         <v>6</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>1829</v>
+        <v>1837</v>
       </c>
       <c r="T9" s="2">
         <v>1000</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:22">
@@ -55423,10 +55898,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1828</v>
+        <v>1836</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="F10" s="2">
         <v>5800</v>
@@ -55441,16 +55916,16 @@
         <v>7</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>1831</v>
+        <v>1839</v>
       </c>
       <c r="T10" s="2">
         <v>5800</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:22">
@@ -55461,10 +55936,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1828</v>
+        <v>1836</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="F11" s="2">
         <v>8800</v>
@@ -55479,16 +55954,16 @@
         <v>8</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>1832</v>
+        <v>1840</v>
       </c>
       <c r="T11" s="2">
         <v>8800</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:22">
@@ -55499,10 +55974,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1828</v>
+        <v>1836</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="F12" s="2">
         <v>18800</v>
@@ -55517,16 +55992,16 @@
         <v>9</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>1833</v>
+        <v>1841</v>
       </c>
       <c r="T12" s="2">
         <v>18800</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:23">
@@ -55537,7 +56012,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1834</v>
+        <v>1842</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -55561,16 +56036,16 @@
         <v>0</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>1835</v>
+        <v>1843</v>
       </c>
       <c r="T13" s="2">
         <v>70000</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>1836</v>
+        <v>1844</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W13" s="2">
         <v>7</v>
@@ -55584,7 +56059,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1834</v>
+        <v>1842</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -55608,16 +56083,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>1837</v>
+        <v>1845</v>
       </c>
       <c r="T14" s="2">
         <v>180000</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>1836</v>
+        <v>1844</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W14" s="2">
         <v>6</v>
@@ -55631,10 +56106,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1834</v>
+        <v>1842</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1762</v>
+        <v>1770</v>
       </c>
       <c r="F15" s="2">
         <v>1500</v>
@@ -55655,16 +56130,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>1838</v>
+        <v>1846</v>
       </c>
       <c r="T15" s="2">
         <v>1500</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>1836</v>
+        <v>1844</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W15" s="2">
         <v>3</v>
@@ -55678,10 +56153,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1839</v>
+        <v>1847</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1762</v>
+        <v>1770</v>
       </c>
       <c r="F16" s="3">
         <v>200</v>
@@ -55697,13 +56172,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>1840</v>
+        <v>1848</v>
       </c>
       <c r="T16" s="3">
         <v>200</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:22">
@@ -55714,10 +56189,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1839</v>
+        <v>1847</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1762</v>
+        <v>1770</v>
       </c>
       <c r="F17" s="3">
         <v>2000</v>
@@ -55733,13 +56208,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>1841</v>
+        <v>1849</v>
       </c>
       <c r="T17" s="3">
         <v>2000</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:22">
@@ -55750,7 +56225,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1839</v>
+        <v>1847</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
@@ -55769,13 +56244,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>1840</v>
+        <v>1848</v>
       </c>
       <c r="T18" s="3">
         <v>20000</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:22">
@@ -55786,7 +56261,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1839</v>
+        <v>1847</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>14</v>
@@ -55805,13 +56280,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>1841</v>
+        <v>1849</v>
       </c>
       <c r="T19" s="3">
         <v>200000</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:22">
@@ -55822,7 +56297,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1842</v>
+        <v>1850</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>14</v>
@@ -55840,16 +56315,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>1843</v>
+        <v>1851</v>
       </c>
       <c r="T20" s="4">
         <v>300000</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1844</v>
+        <v>1852</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:22">
@@ -55860,7 +56335,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1845</v>
+        <v>1853</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>14</v>
@@ -55878,16 +56353,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>1846</v>
+        <v>1854</v>
       </c>
       <c r="T21" s="4">
         <v>300000</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1847</v>
+        <v>1855</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/shoping_config_vivo.xlsx
+++ b/config_Release/shoping_config_vivo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5180" uniqueCount="1856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5222" uniqueCount="1856">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6794,10 +6794,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -6831,11 +6831,40 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6848,14 +6877,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6870,14 +6907,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6899,23 +6936,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6930,8 +6952,16 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6942,36 +6972,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7061,7 +7061,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7073,25 +7151,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7103,79 +7169,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7193,7 +7199,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7205,13 +7211,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7253,9 +7253,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7271,6 +7297,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7308,43 +7343,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7356,10 +7356,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7368,133 +7368,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10247,14 +10247,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN654"/>
+  <dimension ref="A1:AN661"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="J624" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="J621" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A649" sqref="$A649:$XFD654"/>
+      <selection pane="bottomRight" activeCell="K638" sqref="K638"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -51062,8 +51062,8 @@
       <c r="B635" s="29">
         <v>10551</v>
       </c>
-      <c r="F635" s="29">
-        <v>1</v>
+      <c r="F635" s="21">
+        <v>0</v>
       </c>
       <c r="G635" s="29" t="s">
         <v>1624</v>
@@ -51130,8 +51130,8 @@
       <c r="B636" s="29">
         <v>10552</v>
       </c>
-      <c r="F636" s="29">
-        <v>1</v>
+      <c r="F636" s="21">
+        <v>0</v>
       </c>
       <c r="G636" s="29" t="s">
         <v>1624</v>
@@ -51198,8 +51198,8 @@
       <c r="B637" s="29">
         <v>10553</v>
       </c>
-      <c r="F637" s="29">
-        <v>1</v>
+      <c r="F637" s="21">
+        <v>0</v>
       </c>
       <c r="G637" s="29" t="s">
         <v>1624</v>
@@ -51266,8 +51266,8 @@
       <c r="B638" s="29">
         <v>10554</v>
       </c>
-      <c r="F638" s="29">
-        <v>1</v>
+      <c r="F638" s="21">
+        <v>0</v>
       </c>
       <c r="G638" s="29" t="s">
         <v>1624</v>
@@ -51334,8 +51334,8 @@
       <c r="B639" s="29">
         <v>10555</v>
       </c>
-      <c r="F639" s="29">
-        <v>1</v>
+      <c r="F639" s="21">
+        <v>0</v>
       </c>
       <c r="G639" s="29" t="s">
         <v>1624</v>
@@ -51402,8 +51402,8 @@
       <c r="B640" s="29">
         <v>10556</v>
       </c>
-      <c r="F640" s="29">
-        <v>1</v>
+      <c r="F640" s="21">
+        <v>0</v>
       </c>
       <c r="G640" s="29" t="s">
         <v>1624</v>
@@ -51470,8 +51470,8 @@
       <c r="B641" s="29">
         <v>10557</v>
       </c>
-      <c r="F641" s="29">
-        <v>1</v>
+      <c r="F641" s="21">
+        <v>0</v>
       </c>
       <c r="G641" s="29" t="s">
         <v>1624</v>
@@ -51538,8 +51538,8 @@
       <c r="B642" s="29">
         <v>10558</v>
       </c>
-      <c r="F642" s="29">
-        <v>1</v>
+      <c r="F642" s="21">
+        <v>0</v>
       </c>
       <c r="G642" s="29" t="s">
         <v>1624</v>
@@ -51606,8 +51606,8 @@
       <c r="B643" s="29">
         <v>10559</v>
       </c>
-      <c r="F643" s="29">
-        <v>1</v>
+      <c r="F643" s="21">
+        <v>0</v>
       </c>
       <c r="G643" s="29" t="s">
         <v>1624</v>
@@ -51674,8 +51674,8 @@
       <c r="B644" s="29">
         <v>10560</v>
       </c>
-      <c r="F644" s="29">
-        <v>1</v>
+      <c r="F644" s="21">
+        <v>0</v>
       </c>
       <c r="G644" s="29" t="s">
         <v>1624</v>
@@ -51742,8 +51742,8 @@
       <c r="B645" s="29">
         <v>10561</v>
       </c>
-      <c r="F645" s="29">
-        <v>1</v>
+      <c r="F645" s="21">
+        <v>0</v>
       </c>
       <c r="G645" s="29" t="s">
         <v>1624</v>
@@ -51810,8 +51810,8 @@
       <c r="B646" s="29">
         <v>10562</v>
       </c>
-      <c r="F646" s="29">
-        <v>1</v>
+      <c r="F646" s="21">
+        <v>0</v>
       </c>
       <c r="G646" s="29" t="s">
         <v>1624</v>
@@ -52002,8 +52002,8 @@
       <c r="B649" s="29">
         <v>10565</v>
       </c>
-      <c r="F649" s="29">
-        <v>1</v>
+      <c r="F649" s="21">
+        <v>0</v>
       </c>
       <c r="G649" s="29" t="s">
         <v>1394</v>
@@ -52064,8 +52064,8 @@
       <c r="B650" s="29">
         <v>10566</v>
       </c>
-      <c r="F650" s="29">
-        <v>1</v>
+      <c r="F650" s="21">
+        <v>0</v>
       </c>
       <c r="G650" s="29" t="s">
         <v>1394</v>
@@ -52126,8 +52126,8 @@
       <c r="B651" s="29">
         <v>10567</v>
       </c>
-      <c r="F651" s="29">
-        <v>1</v>
+      <c r="F651" s="21">
+        <v>0</v>
       </c>
       <c r="G651" s="29" t="s">
         <v>1394</v>
@@ -52188,8 +52188,8 @@
       <c r="B652" s="29">
         <v>10568</v>
       </c>
-      <c r="F652" s="29">
-        <v>1</v>
+      <c r="F652" s="21">
+        <v>0</v>
       </c>
       <c r="G652" s="29" t="s">
         <v>1394</v>
@@ -52250,8 +52250,8 @@
       <c r="B653" s="29">
         <v>10569</v>
       </c>
-      <c r="F653" s="29">
-        <v>1</v>
+      <c r="F653" s="21">
+        <v>0</v>
       </c>
       <c r="G653" s="29" t="s">
         <v>1394</v>
@@ -52312,8 +52312,8 @@
       <c r="B654" s="29">
         <v>10570</v>
       </c>
-      <c r="F654" s="29">
-        <v>1</v>
+      <c r="F654" s="21">
+        <v>0</v>
       </c>
       <c r="G654" s="29" t="s">
         <v>1394</v>
@@ -52364,6 +52364,440 @@
         <v>1</v>
       </c>
       <c r="AM654" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655" spans="1:39">
+      <c r="A655" s="21">
+        <v>654</v>
+      </c>
+      <c r="B655" s="29">
+        <v>10571</v>
+      </c>
+      <c r="F655" s="29">
+        <v>1</v>
+      </c>
+      <c r="G655" s="29" t="s">
+        <v>1115</v>
+      </c>
+      <c r="J655" s="29" t="s">
+        <v>1614</v>
+      </c>
+      <c r="L655" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M655" s="28">
+        <v>0</v>
+      </c>
+      <c r="N655" s="28">
+        <v>0</v>
+      </c>
+      <c r="O655" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P655" s="29">
+        <v>99800</v>
+      </c>
+      <c r="Q655" s="29" t="s">
+        <v>1615</v>
+      </c>
+      <c r="R655" s="53" t="s">
+        <v>1138</v>
+      </c>
+      <c r="W655" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X655" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y655" s="29">
+        <v>1623110400</v>
+      </c>
+      <c r="Z655" s="29">
+        <v>1623686399</v>
+      </c>
+      <c r="AH655" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI655" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL655" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM655" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656" spans="1:39">
+      <c r="A656" s="21">
+        <v>655</v>
+      </c>
+      <c r="B656" s="29">
+        <v>10572</v>
+      </c>
+      <c r="F656" s="29">
+        <v>1</v>
+      </c>
+      <c r="G656" s="29" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J656" s="29" t="s">
+        <v>1616</v>
+      </c>
+      <c r="L656" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M656" s="28">
+        <v>0</v>
+      </c>
+      <c r="N656" s="28">
+        <v>0</v>
+      </c>
+      <c r="O656" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P656" s="29">
+        <v>49800</v>
+      </c>
+      <c r="Q656" s="29" t="s">
+        <v>1615</v>
+      </c>
+      <c r="R656" s="53" t="s">
+        <v>1135</v>
+      </c>
+      <c r="W656" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X656" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y656" s="29">
+        <v>1623110400</v>
+      </c>
+      <c r="Z656" s="29">
+        <v>1623686399</v>
+      </c>
+      <c r="AH656" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI656" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL656" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM656" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" spans="1:39">
+      <c r="A657" s="21">
+        <v>656</v>
+      </c>
+      <c r="B657" s="29">
+        <v>10573</v>
+      </c>
+      <c r="F657" s="29">
+        <v>1</v>
+      </c>
+      <c r="G657" s="29" t="s">
+        <v>1122</v>
+      </c>
+      <c r="J657" s="29" t="s">
+        <v>1617</v>
+      </c>
+      <c r="L657" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M657" s="28">
+        <v>0</v>
+      </c>
+      <c r="N657" s="28">
+        <v>0</v>
+      </c>
+      <c r="O657" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P657" s="29">
+        <v>29800</v>
+      </c>
+      <c r="Q657" s="29" t="s">
+        <v>1618</v>
+      </c>
+      <c r="R657" s="53" t="s">
+        <v>1131</v>
+      </c>
+      <c r="W657" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X657" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y657" s="29">
+        <v>1623110400</v>
+      </c>
+      <c r="Z657" s="29">
+        <v>1623686399</v>
+      </c>
+      <c r="AH657" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI657" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL657" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM657" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658" spans="1:39">
+      <c r="A658" s="21">
+        <v>657</v>
+      </c>
+      <c r="B658" s="29">
+        <v>10574</v>
+      </c>
+      <c r="F658" s="29">
+        <v>1</v>
+      </c>
+      <c r="G658" s="29" t="s">
+        <v>1126</v>
+      </c>
+      <c r="J658" s="29" t="s">
+        <v>1619</v>
+      </c>
+      <c r="L658" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M658" s="28">
+        <v>0</v>
+      </c>
+      <c r="N658" s="28">
+        <v>0</v>
+      </c>
+      <c r="O658" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P658" s="29">
+        <v>19800</v>
+      </c>
+      <c r="Q658" s="29" t="s">
+        <v>1618</v>
+      </c>
+      <c r="R658" s="53" t="s">
+        <v>1128</v>
+      </c>
+      <c r="W658" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X658" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y658" s="29">
+        <v>1623110400</v>
+      </c>
+      <c r="Z658" s="29">
+        <v>1623686399</v>
+      </c>
+      <c r="AH658" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI658" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL658" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM658" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:39">
+      <c r="A659" s="21">
+        <v>658</v>
+      </c>
+      <c r="B659" s="29">
+        <v>10575</v>
+      </c>
+      <c r="F659" s="29">
+        <v>1</v>
+      </c>
+      <c r="G659" s="29" t="s">
+        <v>1129</v>
+      </c>
+      <c r="J659" s="29" t="s">
+        <v>1620</v>
+      </c>
+      <c r="L659" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M659" s="28">
+        <v>0</v>
+      </c>
+      <c r="N659" s="28">
+        <v>0</v>
+      </c>
+      <c r="O659" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P659" s="29">
+        <v>9800</v>
+      </c>
+      <c r="Q659" s="29" t="s">
+        <v>1618</v>
+      </c>
+      <c r="R659" s="53" t="s">
+        <v>1125</v>
+      </c>
+      <c r="W659" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X659" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y659" s="29">
+        <v>1623110400</v>
+      </c>
+      <c r="Z659" s="29">
+        <v>1623686399</v>
+      </c>
+      <c r="AH659" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI659" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL659" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM659" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:39">
+      <c r="A660" s="21">
+        <v>659</v>
+      </c>
+      <c r="B660" s="29">
+        <v>10576</v>
+      </c>
+      <c r="F660" s="29">
+        <v>1</v>
+      </c>
+      <c r="G660" s="29" t="s">
+        <v>1132</v>
+      </c>
+      <c r="J660" s="29" t="s">
+        <v>1621</v>
+      </c>
+      <c r="L660" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M660" s="28">
+        <v>0</v>
+      </c>
+      <c r="N660" s="28">
+        <v>0</v>
+      </c>
+      <c r="O660" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P660" s="29">
+        <v>4800</v>
+      </c>
+      <c r="Q660" s="29" t="s">
+        <v>1622</v>
+      </c>
+      <c r="R660" s="53" t="s">
+        <v>1121</v>
+      </c>
+      <c r="W660" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X660" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y660" s="29">
+        <v>1623110400</v>
+      </c>
+      <c r="Z660" s="29">
+        <v>1623686399</v>
+      </c>
+      <c r="AH660" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI660" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL660" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM660" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:39">
+      <c r="A661" s="21">
+        <v>660</v>
+      </c>
+      <c r="B661" s="29">
+        <v>10577</v>
+      </c>
+      <c r="F661" s="29">
+        <v>1</v>
+      </c>
+      <c r="G661" s="29" t="s">
+        <v>1136</v>
+      </c>
+      <c r="J661" s="29" t="s">
+        <v>1623</v>
+      </c>
+      <c r="L661" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M661" s="28">
+        <v>0</v>
+      </c>
+      <c r="N661" s="28">
+        <v>0</v>
+      </c>
+      <c r="O661" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P661" s="29">
+        <v>1800</v>
+      </c>
+      <c r="Q661" s="29" t="s">
+        <v>1622</v>
+      </c>
+      <c r="R661" s="53" t="s">
+        <v>1118</v>
+      </c>
+      <c r="W661" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X661" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y661" s="29">
+        <v>1623110400</v>
+      </c>
+      <c r="Z661" s="29">
+        <v>1623686399</v>
+      </c>
+      <c r="AH661" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI661" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL661" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM661" s="29">
         <v>1</v>
       </c>
     </row>

--- a/config_Release/shoping_config_vivo.xlsx
+++ b/config_Release/shoping_config_vivo.xlsx
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5222" uniqueCount="1856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5285" uniqueCount="1856">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6794,10 +6794,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -6831,11 +6831,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6854,7 +6862,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6869,30 +6960,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6903,75 +6972,6 @@
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7061,13 +7061,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7085,55 +7175,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7145,67 +7205,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7253,10 +7253,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -7267,21 +7265,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7301,11 +7284,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7325,16 +7314,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -7356,10 +7356,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7368,7 +7368,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7377,7 +7377,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7386,64 +7386,67 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7452,49 +7455,46 @@
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10247,14 +10247,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN661"/>
+  <dimension ref="A1:AN670"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="J621" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="J651" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K638" sqref="K638"/>
+      <selection pane="bottomRight" activeCell="F680" sqref="F680"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -52798,6 +52798,618 @@
         <v>1</v>
       </c>
       <c r="AM661" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" spans="1:39">
+      <c r="A662" s="21">
+        <v>661</v>
+      </c>
+      <c r="B662" s="29">
+        <v>10578</v>
+      </c>
+      <c r="F662" s="29">
+        <v>1</v>
+      </c>
+      <c r="G662" s="29" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I662" s="28" t="s">
+        <v>1595</v>
+      </c>
+      <c r="J662" s="29" t="s">
+        <v>1596</v>
+      </c>
+      <c r="L662" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M662" s="28">
+        <v>0</v>
+      </c>
+      <c r="N662" s="28">
+        <v>0</v>
+      </c>
+      <c r="O662" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P662" s="29">
+        <v>1800</v>
+      </c>
+      <c r="Q662" s="29" t="s">
+        <v>1597</v>
+      </c>
+      <c r="R662" s="53" t="s">
+        <v>1074</v>
+      </c>
+      <c r="W662" s="28" t="s">
+        <v>795</v>
+      </c>
+      <c r="X662" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y662" s="29">
+        <v>1623715200</v>
+      </c>
+      <c r="Z662" s="29">
+        <v>1624291199</v>
+      </c>
+      <c r="AA662" s="29">
+        <v>44</v>
+      </c>
+      <c r="AH662" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI662" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL662" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM662" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" spans="1:39">
+      <c r="A663" s="21">
+        <v>662</v>
+      </c>
+      <c r="B663" s="29">
+        <v>10579</v>
+      </c>
+      <c r="F663" s="29">
+        <v>1</v>
+      </c>
+      <c r="G663" s="29" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I663" s="28" t="s">
+        <v>1595</v>
+      </c>
+      <c r="J663" s="29" t="s">
+        <v>1598</v>
+      </c>
+      <c r="L663" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M663" s="28">
+        <v>0</v>
+      </c>
+      <c r="N663" s="28">
+        <v>0</v>
+      </c>
+      <c r="O663" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P663" s="29">
+        <v>3000</v>
+      </c>
+      <c r="Q663" s="29" t="s">
+        <v>1599</v>
+      </c>
+      <c r="R663" s="53" t="s">
+        <v>1078</v>
+      </c>
+      <c r="W663" s="28" t="s">
+        <v>795</v>
+      </c>
+      <c r="X663" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y663" s="29">
+        <v>1623715200</v>
+      </c>
+      <c r="Z663" s="29">
+        <v>1624291199</v>
+      </c>
+      <c r="AA663" s="29">
+        <v>44</v>
+      </c>
+      <c r="AH663" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI663" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL663" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM663" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664" spans="1:39">
+      <c r="A664" s="21">
+        <v>663</v>
+      </c>
+      <c r="B664" s="29">
+        <v>10580</v>
+      </c>
+      <c r="F664" s="29">
+        <v>1</v>
+      </c>
+      <c r="G664" s="29" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I664" s="28" t="s">
+        <v>1595</v>
+      </c>
+      <c r="J664" s="29" t="s">
+        <v>1600</v>
+      </c>
+      <c r="L664" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M664" s="28">
+        <v>0</v>
+      </c>
+      <c r="N664" s="28">
+        <v>0</v>
+      </c>
+      <c r="O664" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P664" s="29">
+        <v>4800</v>
+      </c>
+      <c r="Q664" s="29" t="s">
+        <v>1601</v>
+      </c>
+      <c r="R664" s="53" t="s">
+        <v>1082</v>
+      </c>
+      <c r="W664" s="28" t="s">
+        <v>795</v>
+      </c>
+      <c r="X664" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y664" s="29">
+        <v>1623715200</v>
+      </c>
+      <c r="Z664" s="29">
+        <v>1624291199</v>
+      </c>
+      <c r="AA664" s="29">
+        <v>44</v>
+      </c>
+      <c r="AH664" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI664" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL664" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM664" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:39">
+      <c r="A665" s="21">
+        <v>664</v>
+      </c>
+      <c r="B665" s="29">
+        <v>10581</v>
+      </c>
+      <c r="F665" s="29">
+        <v>1</v>
+      </c>
+      <c r="G665" s="29" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I665" s="28" t="s">
+        <v>1560</v>
+      </c>
+      <c r="J665" s="29" t="s">
+        <v>1602</v>
+      </c>
+      <c r="L665" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M665" s="28">
+        <v>0</v>
+      </c>
+      <c r="N665" s="28">
+        <v>0</v>
+      </c>
+      <c r="O665" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P665" s="29">
+        <v>4800</v>
+      </c>
+      <c r="Q665" s="29" t="s">
+        <v>1603</v>
+      </c>
+      <c r="R665" s="53" t="s">
+        <v>1082</v>
+      </c>
+      <c r="W665" s="28" t="s">
+        <v>795</v>
+      </c>
+      <c r="X665" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y665" s="29">
+        <v>1623715200</v>
+      </c>
+      <c r="Z665" s="29">
+        <v>1624291199</v>
+      </c>
+      <c r="AA665" s="29">
+        <v>45</v>
+      </c>
+      <c r="AH665" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI665" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL665" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM665" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666" spans="1:39">
+      <c r="A666" s="21">
+        <v>665</v>
+      </c>
+      <c r="B666" s="29">
+        <v>10582</v>
+      </c>
+      <c r="F666" s="29">
+        <v>1</v>
+      </c>
+      <c r="G666" s="29" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I666" s="28" t="s">
+        <v>1560</v>
+      </c>
+      <c r="J666" s="29" t="s">
+        <v>1604</v>
+      </c>
+      <c r="L666" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M666" s="28">
+        <v>0</v>
+      </c>
+      <c r="N666" s="28">
+        <v>0</v>
+      </c>
+      <c r="O666" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P666" s="29">
+        <v>9800</v>
+      </c>
+      <c r="Q666" s="29" t="s">
+        <v>1605</v>
+      </c>
+      <c r="R666" s="53" t="s">
+        <v>1087</v>
+      </c>
+      <c r="W666" s="28" t="s">
+        <v>795</v>
+      </c>
+      <c r="X666" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y666" s="29">
+        <v>1623715200</v>
+      </c>
+      <c r="Z666" s="29">
+        <v>1624291199</v>
+      </c>
+      <c r="AA666" s="29">
+        <v>45</v>
+      </c>
+      <c r="AH666" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI666" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL666" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM666" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667" spans="1:39">
+      <c r="A667" s="21">
+        <v>666</v>
+      </c>
+      <c r="B667" s="29">
+        <v>10583</v>
+      </c>
+      <c r="F667" s="29">
+        <v>1</v>
+      </c>
+      <c r="G667" s="29" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I667" s="28" t="s">
+        <v>1560</v>
+      </c>
+      <c r="J667" s="29" t="s">
+        <v>1606</v>
+      </c>
+      <c r="L667" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M667" s="28">
+        <v>0</v>
+      </c>
+      <c r="N667" s="28">
+        <v>0</v>
+      </c>
+      <c r="O667" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P667" s="29">
+        <v>19800</v>
+      </c>
+      <c r="Q667" s="29" t="s">
+        <v>1607</v>
+      </c>
+      <c r="R667" s="53" t="s">
+        <v>1090</v>
+      </c>
+      <c r="W667" s="28" t="s">
+        <v>795</v>
+      </c>
+      <c r="X667" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y667" s="29">
+        <v>1623715200</v>
+      </c>
+      <c r="Z667" s="29">
+        <v>1624291199</v>
+      </c>
+      <c r="AA667" s="29">
+        <v>45</v>
+      </c>
+      <c r="AH667" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI667" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL667" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM667" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668" spans="1:39">
+      <c r="A668" s="21">
+        <v>667</v>
+      </c>
+      <c r="B668" s="29">
+        <v>10584</v>
+      </c>
+      <c r="F668" s="29">
+        <v>1</v>
+      </c>
+      <c r="G668" s="29" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I668" s="28" t="s">
+        <v>1449</v>
+      </c>
+      <c r="J668" s="29" t="s">
+        <v>1608</v>
+      </c>
+      <c r="L668" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M668" s="28">
+        <v>0</v>
+      </c>
+      <c r="N668" s="28">
+        <v>0</v>
+      </c>
+      <c r="O668" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P668" s="29">
+        <v>9800</v>
+      </c>
+      <c r="Q668" s="29" t="s">
+        <v>1609</v>
+      </c>
+      <c r="R668" s="53" t="s">
+        <v>1087</v>
+      </c>
+      <c r="W668" s="28" t="s">
+        <v>795</v>
+      </c>
+      <c r="X668" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y668" s="29">
+        <v>1623715200</v>
+      </c>
+      <c r="Z668" s="29">
+        <v>1624291199</v>
+      </c>
+      <c r="AA668" s="29">
+        <v>46</v>
+      </c>
+      <c r="AH668" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI668" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL668" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM668" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669" spans="1:39">
+      <c r="A669" s="21">
+        <v>668</v>
+      </c>
+      <c r="B669" s="29">
+        <v>10585</v>
+      </c>
+      <c r="F669" s="29">
+        <v>1</v>
+      </c>
+      <c r="G669" s="29" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I669" s="28" t="s">
+        <v>1449</v>
+      </c>
+      <c r="J669" s="29" t="s">
+        <v>1610</v>
+      </c>
+      <c r="L669" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M669" s="28">
+        <v>0</v>
+      </c>
+      <c r="N669" s="28">
+        <v>0</v>
+      </c>
+      <c r="O669" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P669" s="29">
+        <v>19800</v>
+      </c>
+      <c r="Q669" s="29" t="s">
+        <v>1611</v>
+      </c>
+      <c r="R669" s="53" t="s">
+        <v>1090</v>
+      </c>
+      <c r="W669" s="28" t="s">
+        <v>795</v>
+      </c>
+      <c r="X669" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y669" s="29">
+        <v>1623715200</v>
+      </c>
+      <c r="Z669" s="29">
+        <v>1624291199</v>
+      </c>
+      <c r="AA669" s="29">
+        <v>46</v>
+      </c>
+      <c r="AH669" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI669" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL669" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM669" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670" spans="1:39">
+      <c r="A670" s="21">
+        <v>669</v>
+      </c>
+      <c r="B670" s="29">
+        <v>10586</v>
+      </c>
+      <c r="F670" s="29">
+        <v>1</v>
+      </c>
+      <c r="G670" s="29" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I670" s="28" t="s">
+        <v>1449</v>
+      </c>
+      <c r="J670" s="29" t="s">
+        <v>1612</v>
+      </c>
+      <c r="L670" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M670" s="28">
+        <v>0</v>
+      </c>
+      <c r="N670" s="28">
+        <v>0</v>
+      </c>
+      <c r="O670" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P670" s="29">
+        <v>49800</v>
+      </c>
+      <c r="Q670" s="29" t="s">
+        <v>1613</v>
+      </c>
+      <c r="R670" s="53" t="s">
+        <v>1097</v>
+      </c>
+      <c r="W670" s="28" t="s">
+        <v>795</v>
+      </c>
+      <c r="X670" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y670" s="29">
+        <v>1623715200</v>
+      </c>
+      <c r="Z670" s="29">
+        <v>1624291199</v>
+      </c>
+      <c r="AA670" s="29">
+        <v>46</v>
+      </c>
+      <c r="AH670" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI670" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL670" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM670" s="29">
         <v>1</v>
       </c>
     </row>

--- a/config_Release/shoping_config_vivo.xlsx
+++ b/config_Release/shoping_config_vivo.xlsx
@@ -6794,9 +6794,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -6832,23 +6832,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6862,21 +6847,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6884,6 +6863,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -6899,7 +6909,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6912,9 +6922,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6928,24 +6937,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6959,9 +6952,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6969,9 +6961,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7061,7 +7061,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7073,121 +7145,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7205,13 +7169,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7251,39 +7251,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -7314,6 +7281,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -7325,17 +7331,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7356,10 +7356,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7368,133 +7368,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10250,11 +10250,11 @@
   <dimension ref="A1:AN670"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="J651" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="V639" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F680" sqref="F680"/>
+      <selection pane="bottomRight" activeCell="V669" sqref="V669"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -51063,7 +51063,7 @@
         <v>10551</v>
       </c>
       <c r="F635" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G635" s="29" t="s">
         <v>1624</v>
@@ -51102,10 +51102,10 @@
         <v>99999999</v>
       </c>
       <c r="Y635" s="29">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z635" s="29">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA635" s="29">
         <v>80</v>
@@ -51131,7 +51131,7 @@
         <v>10552</v>
       </c>
       <c r="F636" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G636" s="29" t="s">
         <v>1624</v>
@@ -51170,10 +51170,10 @@
         <v>99999999</v>
       </c>
       <c r="Y636" s="29">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z636" s="29">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA636" s="29">
         <v>80</v>
@@ -51199,7 +51199,7 @@
         <v>10553</v>
       </c>
       <c r="F637" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G637" s="29" t="s">
         <v>1624</v>
@@ -51238,10 +51238,10 @@
         <v>99999999</v>
       </c>
       <c r="Y637" s="29">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z637" s="29">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA637" s="29">
         <v>80</v>
@@ -51267,7 +51267,7 @@
         <v>10554</v>
       </c>
       <c r="F638" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G638" s="29" t="s">
         <v>1624</v>
@@ -51306,10 +51306,10 @@
         <v>99999999</v>
       </c>
       <c r="Y638" s="29">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z638" s="29">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA638" s="29">
         <v>81</v>
@@ -51335,7 +51335,7 @@
         <v>10555</v>
       </c>
       <c r="F639" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G639" s="29" t="s">
         <v>1624</v>
@@ -51374,10 +51374,10 @@
         <v>99999999</v>
       </c>
       <c r="Y639" s="29">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z639" s="29">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA639" s="29">
         <v>81</v>
@@ -51403,7 +51403,7 @@
         <v>10556</v>
       </c>
       <c r="F640" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G640" s="29" t="s">
         <v>1624</v>
@@ -51442,10 +51442,10 @@
         <v>99999999</v>
       </c>
       <c r="Y640" s="29">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z640" s="29">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA640" s="29">
         <v>81</v>
@@ -51471,7 +51471,7 @@
         <v>10557</v>
       </c>
       <c r="F641" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G641" s="29" t="s">
         <v>1624</v>
@@ -51510,10 +51510,10 @@
         <v>99999999</v>
       </c>
       <c r="Y641" s="29">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z641" s="29">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA641" s="29">
         <v>82</v>
@@ -51539,7 +51539,7 @@
         <v>10558</v>
       </c>
       <c r="F642" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G642" s="29" t="s">
         <v>1624</v>
@@ -51578,10 +51578,10 @@
         <v>99999999</v>
       </c>
       <c r="Y642" s="29">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z642" s="29">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA642" s="29">
         <v>82</v>
@@ -51607,7 +51607,7 @@
         <v>10559</v>
       </c>
       <c r="F643" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G643" s="29" t="s">
         <v>1624</v>
@@ -51646,10 +51646,10 @@
         <v>99999999</v>
       </c>
       <c r="Y643" s="29">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z643" s="29">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA643" s="29">
         <v>82</v>
@@ -51675,7 +51675,7 @@
         <v>10560</v>
       </c>
       <c r="F644" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G644" s="29" t="s">
         <v>1624</v>
@@ -51714,10 +51714,10 @@
         <v>99999999</v>
       </c>
       <c r="Y644" s="29">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z644" s="29">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA644" s="29">
         <v>83</v>
@@ -51743,7 +51743,7 @@
         <v>10561</v>
       </c>
       <c r="F645" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G645" s="29" t="s">
         <v>1624</v>
@@ -51782,10 +51782,10 @@
         <v>99999999</v>
       </c>
       <c r="Y645" s="29">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z645" s="29">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA645" s="29">
         <v>83</v>
@@ -51811,7 +51811,7 @@
         <v>10562</v>
       </c>
       <c r="F646" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G646" s="29" t="s">
         <v>1624</v>
@@ -51850,10 +51850,10 @@
         <v>99999999</v>
       </c>
       <c r="Y646" s="29">
-        <v>1621900800</v>
+        <v>1624320000</v>
       </c>
       <c r="Z646" s="29">
-        <v>1622476799</v>
+        <v>1624895999</v>
       </c>
       <c r="AA646" s="29">
         <v>83</v>
@@ -52374,8 +52374,8 @@
       <c r="B655" s="29">
         <v>10571</v>
       </c>
-      <c r="F655" s="29">
-        <v>1</v>
+      <c r="F655" s="21">
+        <v>0</v>
       </c>
       <c r="G655" s="29" t="s">
         <v>1115</v>
@@ -52436,8 +52436,8 @@
       <c r="B656" s="29">
         <v>10572</v>
       </c>
-      <c r="F656" s="29">
-        <v>1</v>
+      <c r="F656" s="21">
+        <v>0</v>
       </c>
       <c r="G656" s="29" t="s">
         <v>1119</v>
@@ -52498,8 +52498,8 @@
       <c r="B657" s="29">
         <v>10573</v>
       </c>
-      <c r="F657" s="29">
-        <v>1</v>
+      <c r="F657" s="21">
+        <v>0</v>
       </c>
       <c r="G657" s="29" t="s">
         <v>1122</v>
@@ -52560,8 +52560,8 @@
       <c r="B658" s="29">
         <v>10574</v>
       </c>
-      <c r="F658" s="29">
-        <v>1</v>
+      <c r="F658" s="21">
+        <v>0</v>
       </c>
       <c r="G658" s="29" t="s">
         <v>1126</v>
@@ -52622,8 +52622,8 @@
       <c r="B659" s="29">
         <v>10575</v>
       </c>
-      <c r="F659" s="29">
-        <v>1</v>
+      <c r="F659" s="21">
+        <v>0</v>
       </c>
       <c r="G659" s="29" t="s">
         <v>1129</v>
@@ -52684,8 +52684,8 @@
       <c r="B660" s="29">
         <v>10576</v>
       </c>
-      <c r="F660" s="29">
-        <v>1</v>
+      <c r="F660" s="21">
+        <v>0</v>
       </c>
       <c r="G660" s="29" t="s">
         <v>1132</v>
@@ -52746,8 +52746,8 @@
       <c r="B661" s="29">
         <v>10577</v>
       </c>
-      <c r="F661" s="29">
-        <v>1</v>
+      <c r="F661" s="21">
+        <v>0</v>
       </c>
       <c r="G661" s="29" t="s">
         <v>1136</v>
@@ -52808,8 +52808,8 @@
       <c r="B662" s="29">
         <v>10578</v>
       </c>
-      <c r="F662" s="29">
-        <v>1</v>
+      <c r="F662" s="21">
+        <v>0</v>
       </c>
       <c r="G662" s="29" t="s">
         <v>1594</v>
@@ -52876,8 +52876,8 @@
       <c r="B663" s="29">
         <v>10579</v>
       </c>
-      <c r="F663" s="29">
-        <v>1</v>
+      <c r="F663" s="21">
+        <v>0</v>
       </c>
       <c r="G663" s="29" t="s">
         <v>1594</v>
@@ -52944,8 +52944,8 @@
       <c r="B664" s="29">
         <v>10580</v>
       </c>
-      <c r="F664" s="29">
-        <v>1</v>
+      <c r="F664" s="21">
+        <v>0</v>
       </c>
       <c r="G664" s="29" t="s">
         <v>1594</v>
@@ -53012,8 +53012,8 @@
       <c r="B665" s="29">
         <v>10581</v>
       </c>
-      <c r="F665" s="29">
-        <v>1</v>
+      <c r="F665" s="21">
+        <v>0</v>
       </c>
       <c r="G665" s="29" t="s">
         <v>1594</v>
@@ -53080,8 +53080,8 @@
       <c r="B666" s="29">
         <v>10582</v>
       </c>
-      <c r="F666" s="29">
-        <v>1</v>
+      <c r="F666" s="21">
+        <v>0</v>
       </c>
       <c r="G666" s="29" t="s">
         <v>1594</v>
@@ -53148,8 +53148,8 @@
       <c r="B667" s="29">
         <v>10583</v>
       </c>
-      <c r="F667" s="29">
-        <v>1</v>
+      <c r="F667" s="21">
+        <v>0</v>
       </c>
       <c r="G667" s="29" t="s">
         <v>1594</v>
@@ -53216,8 +53216,8 @@
       <c r="B668" s="29">
         <v>10584</v>
       </c>
-      <c r="F668" s="29">
-        <v>1</v>
+      <c r="F668" s="21">
+        <v>0</v>
       </c>
       <c r="G668" s="29" t="s">
         <v>1594</v>
@@ -53284,8 +53284,8 @@
       <c r="B669" s="29">
         <v>10585</v>
       </c>
-      <c r="F669" s="29">
-        <v>1</v>
+      <c r="F669" s="21">
+        <v>0</v>
       </c>
       <c r="G669" s="29" t="s">
         <v>1594</v>
@@ -53352,8 +53352,8 @@
       <c r="B670" s="29">
         <v>10586</v>
       </c>
-      <c r="F670" s="29">
-        <v>1</v>
+      <c r="F670" s="21">
+        <v>0</v>
       </c>
       <c r="G670" s="29" t="s">
         <v>1594</v>

--- a/config_Release/shoping_config_vivo.xlsx
+++ b/config_Release/shoping_config_vivo.xlsx
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5285" uniqueCount="1856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5405" uniqueCount="1859">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5896,6 +5896,15 @@
   </si>
   <si>
     <t>9800000,2592000</t>
+  </si>
+  <si>
+    <t>盛夏礼包</t>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin"</t>
+  </si>
+  <si>
+    <t>消暑礼包</t>
   </si>
   <si>
     <t>id|不能重复</t>
@@ -6794,9 +6803,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -6832,8 +6841,46 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6853,9 +6900,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6869,89 +6945,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -6967,11 +6961,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7061,49 +7070,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7121,7 +7100,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7133,7 +7118,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7145,49 +7202,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7199,13 +7214,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7252,21 +7261,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -7281,16 +7275,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -7307,6 +7301,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7331,11 +7334,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7356,10 +7365,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7368,133 +7377,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10247,14 +10256,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN670"/>
+  <dimension ref="A1:AN688"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V639" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="V660" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V669" sqref="V669"/>
+      <selection pane="bottomRight" activeCell="A683" sqref="$A683:$XFD688"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -52374,8 +52383,8 @@
       <c r="B655" s="29">
         <v>10571</v>
       </c>
-      <c r="F655" s="21">
-        <v>0</v>
+      <c r="F655" s="29">
+        <v>1</v>
       </c>
       <c r="G655" s="29" t="s">
         <v>1115</v>
@@ -52436,8 +52445,8 @@
       <c r="B656" s="29">
         <v>10572</v>
       </c>
-      <c r="F656" s="21">
-        <v>0</v>
+      <c r="F656" s="29">
+        <v>1</v>
       </c>
       <c r="G656" s="29" t="s">
         <v>1119</v>
@@ -52498,8 +52507,8 @@
       <c r="B657" s="29">
         <v>10573</v>
       </c>
-      <c r="F657" s="21">
-        <v>0</v>
+      <c r="F657" s="29">
+        <v>1</v>
       </c>
       <c r="G657" s="29" t="s">
         <v>1122</v>
@@ -52560,8 +52569,8 @@
       <c r="B658" s="29">
         <v>10574</v>
       </c>
-      <c r="F658" s="21">
-        <v>0</v>
+      <c r="F658" s="29">
+        <v>1</v>
       </c>
       <c r="G658" s="29" t="s">
         <v>1126</v>
@@ -52622,8 +52631,8 @@
       <c r="B659" s="29">
         <v>10575</v>
       </c>
-      <c r="F659" s="21">
-        <v>0</v>
+      <c r="F659" s="29">
+        <v>1</v>
       </c>
       <c r="G659" s="29" t="s">
         <v>1129</v>
@@ -52684,8 +52693,8 @@
       <c r="B660" s="29">
         <v>10576</v>
       </c>
-      <c r="F660" s="21">
-        <v>0</v>
+      <c r="F660" s="29">
+        <v>1</v>
       </c>
       <c r="G660" s="29" t="s">
         <v>1132</v>
@@ -52746,8 +52755,8 @@
       <c r="B661" s="29">
         <v>10577</v>
       </c>
-      <c r="F661" s="21">
-        <v>0</v>
+      <c r="F661" s="29">
+        <v>1</v>
       </c>
       <c r="G661" s="29" t="s">
         <v>1136</v>
@@ -52808,8 +52817,8 @@
       <c r="B662" s="29">
         <v>10578</v>
       </c>
-      <c r="F662" s="21">
-        <v>0</v>
+      <c r="F662" s="29">
+        <v>1</v>
       </c>
       <c r="G662" s="29" t="s">
         <v>1594</v>
@@ -52876,8 +52885,8 @@
       <c r="B663" s="29">
         <v>10579</v>
       </c>
-      <c r="F663" s="21">
-        <v>0</v>
+      <c r="F663" s="29">
+        <v>1</v>
       </c>
       <c r="G663" s="29" t="s">
         <v>1594</v>
@@ -52944,8 +52953,8 @@
       <c r="B664" s="29">
         <v>10580</v>
       </c>
-      <c r="F664" s="21">
-        <v>0</v>
+      <c r="F664" s="29">
+        <v>1</v>
       </c>
       <c r="G664" s="29" t="s">
         <v>1594</v>
@@ -53012,8 +53021,8 @@
       <c r="B665" s="29">
         <v>10581</v>
       </c>
-      <c r="F665" s="21">
-        <v>0</v>
+      <c r="F665" s="29">
+        <v>1</v>
       </c>
       <c r="G665" s="29" t="s">
         <v>1594</v>
@@ -53080,8 +53089,8 @@
       <c r="B666" s="29">
         <v>10582</v>
       </c>
-      <c r="F666" s="21">
-        <v>0</v>
+      <c r="F666" s="29">
+        <v>1</v>
       </c>
       <c r="G666" s="29" t="s">
         <v>1594</v>
@@ -53148,8 +53157,8 @@
       <c r="B667" s="29">
         <v>10583</v>
       </c>
-      <c r="F667" s="21">
-        <v>0</v>
+      <c r="F667" s="29">
+        <v>1</v>
       </c>
       <c r="G667" s="29" t="s">
         <v>1594</v>
@@ -53216,8 +53225,8 @@
       <c r="B668" s="29">
         <v>10584</v>
       </c>
-      <c r="F668" s="21">
-        <v>0</v>
+      <c r="F668" s="29">
+        <v>1</v>
       </c>
       <c r="G668" s="29" t="s">
         <v>1594</v>
@@ -53284,8 +53293,8 @@
       <c r="B669" s="29">
         <v>10585</v>
       </c>
-      <c r="F669" s="21">
-        <v>0</v>
+      <c r="F669" s="29">
+        <v>1</v>
       </c>
       <c r="G669" s="29" t="s">
         <v>1594</v>
@@ -53352,8 +53361,8 @@
       <c r="B670" s="29">
         <v>10586</v>
       </c>
-      <c r="F670" s="21">
-        <v>0</v>
+      <c r="F670" s="29">
+        <v>1</v>
       </c>
       <c r="G670" s="29" t="s">
         <v>1594</v>
@@ -53410,6 +53419,1212 @@
         <v>1</v>
       </c>
       <c r="AM670" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:39">
+      <c r="A671" s="21">
+        <v>670</v>
+      </c>
+      <c r="B671" s="29">
+        <v>10587</v>
+      </c>
+      <c r="F671" s="21">
+        <v>1</v>
+      </c>
+      <c r="G671" s="29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I671" s="28" t="s">
+        <v>1546</v>
+      </c>
+      <c r="J671" s="28" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L671" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M671" s="28">
+        <v>0</v>
+      </c>
+      <c r="N671" s="28">
+        <v>0</v>
+      </c>
+      <c r="O671" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P671" s="29">
+        <v>600</v>
+      </c>
+      <c r="Q671" s="29" t="s">
+        <v>1653</v>
+      </c>
+      <c r="R671" s="53" t="s">
+        <v>1568</v>
+      </c>
+      <c r="W671" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X671" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y671" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z671" s="29">
+        <v>1625500799</v>
+      </c>
+      <c r="AA671" s="28">
+        <v>80</v>
+      </c>
+      <c r="AH671" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI671" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL671" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM671" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:39">
+      <c r="A672" s="21">
+        <v>671</v>
+      </c>
+      <c r="B672" s="29">
+        <v>10588</v>
+      </c>
+      <c r="F672" s="21">
+        <v>1</v>
+      </c>
+      <c r="G672" s="29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I672" s="28" t="s">
+        <v>1546</v>
+      </c>
+      <c r="J672" s="28" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L672" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M672" s="28">
+        <v>0</v>
+      </c>
+      <c r="N672" s="28">
+        <v>0</v>
+      </c>
+      <c r="O672" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P672" s="29">
+        <v>1000</v>
+      </c>
+      <c r="Q672" s="29" t="s">
+        <v>1653</v>
+      </c>
+      <c r="R672" s="53" t="s">
+        <v>1570</v>
+      </c>
+      <c r="W672" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X672" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y672" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z672" s="29">
+        <v>1625500799</v>
+      </c>
+      <c r="AA672" s="28">
+        <v>80</v>
+      </c>
+      <c r="AH672" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI672" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL672" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM672" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" spans="1:39">
+      <c r="A673" s="21">
+        <v>672</v>
+      </c>
+      <c r="B673" s="29">
+        <v>10589</v>
+      </c>
+      <c r="F673" s="21">
+        <v>1</v>
+      </c>
+      <c r="G673" s="29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I673" s="28" t="s">
+        <v>1546</v>
+      </c>
+      <c r="J673" s="28" t="s">
+        <v>1571</v>
+      </c>
+      <c r="L673" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M673" s="28">
+        <v>0</v>
+      </c>
+      <c r="N673" s="28">
+        <v>0</v>
+      </c>
+      <c r="O673" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P673" s="29">
+        <v>1800</v>
+      </c>
+      <c r="Q673" s="29" t="s">
+        <v>1653</v>
+      </c>
+      <c r="R673" s="53" t="s">
+        <v>1572</v>
+      </c>
+      <c r="W673" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X673" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y673" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z673" s="29">
+        <v>1625500799</v>
+      </c>
+      <c r="AA673" s="28">
+        <v>80</v>
+      </c>
+      <c r="AH673" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI673" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL673" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM673" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:39">
+      <c r="A674" s="21">
+        <v>673</v>
+      </c>
+      <c r="B674" s="29">
+        <v>10590</v>
+      </c>
+      <c r="F674" s="21">
+        <v>1</v>
+      </c>
+      <c r="G674" s="29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I674" s="28" t="s">
+        <v>1553</v>
+      </c>
+      <c r="J674" s="28" t="s">
+        <v>1573</v>
+      </c>
+      <c r="L674" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M674" s="28">
+        <v>0</v>
+      </c>
+      <c r="N674" s="28">
+        <v>0</v>
+      </c>
+      <c r="O674" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P674" s="29">
+        <v>1800</v>
+      </c>
+      <c r="Q674" s="29" t="s">
+        <v>1653</v>
+      </c>
+      <c r="R674" s="53" t="s">
+        <v>1555</v>
+      </c>
+      <c r="W674" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X674" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y674" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z674" s="29">
+        <v>1625500799</v>
+      </c>
+      <c r="AA674" s="28">
+        <v>81</v>
+      </c>
+      <c r="AH674" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI674" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL674" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM674" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:39">
+      <c r="A675" s="21">
+        <v>674</v>
+      </c>
+      <c r="B675" s="29">
+        <v>10591</v>
+      </c>
+      <c r="F675" s="21">
+        <v>1</v>
+      </c>
+      <c r="G675" s="29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I675" s="28" t="s">
+        <v>1553</v>
+      </c>
+      <c r="J675" s="28" t="s">
+        <v>1574</v>
+      </c>
+      <c r="L675" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M675" s="28">
+        <v>0</v>
+      </c>
+      <c r="N675" s="28">
+        <v>0</v>
+      </c>
+      <c r="O675" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P675" s="29">
+        <v>3000</v>
+      </c>
+      <c r="Q675" s="29" t="s">
+        <v>1653</v>
+      </c>
+      <c r="R675" s="53" t="s">
+        <v>1557</v>
+      </c>
+      <c r="W675" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X675" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y675" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z675" s="29">
+        <v>1625500799</v>
+      </c>
+      <c r="AA675" s="28">
+        <v>81</v>
+      </c>
+      <c r="AH675" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI675" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL675" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM675" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:39">
+      <c r="A676" s="21">
+        <v>675</v>
+      </c>
+      <c r="B676" s="29">
+        <v>10592</v>
+      </c>
+      <c r="F676" s="21">
+        <v>1</v>
+      </c>
+      <c r="G676" s="29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I676" s="28" t="s">
+        <v>1553</v>
+      </c>
+      <c r="J676" s="28" t="s">
+        <v>1575</v>
+      </c>
+      <c r="L676" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M676" s="28">
+        <v>0</v>
+      </c>
+      <c r="N676" s="28">
+        <v>0</v>
+      </c>
+      <c r="O676" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P676" s="29">
+        <v>4800</v>
+      </c>
+      <c r="Q676" s="29" t="s">
+        <v>1653</v>
+      </c>
+      <c r="R676" s="53" t="s">
+        <v>1559</v>
+      </c>
+      <c r="W676" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X676" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y676" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z676" s="29">
+        <v>1625500799</v>
+      </c>
+      <c r="AA676" s="28">
+        <v>81</v>
+      </c>
+      <c r="AH676" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI676" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL676" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM676" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:39">
+      <c r="A677" s="21">
+        <v>676</v>
+      </c>
+      <c r="B677" s="29">
+        <v>10593</v>
+      </c>
+      <c r="F677" s="21">
+        <v>1</v>
+      </c>
+      <c r="G677" s="29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I677" s="28" t="s">
+        <v>1560</v>
+      </c>
+      <c r="J677" s="28" t="s">
+        <v>1575</v>
+      </c>
+      <c r="L677" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M677" s="28">
+        <v>0</v>
+      </c>
+      <c r="N677" s="28">
+        <v>0</v>
+      </c>
+      <c r="O677" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P677" s="29">
+        <v>4800</v>
+      </c>
+      <c r="Q677" s="29" t="s">
+        <v>1653</v>
+      </c>
+      <c r="R677" s="53" t="s">
+        <v>1559</v>
+      </c>
+      <c r="W677" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X677" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y677" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z677" s="29">
+        <v>1625500799</v>
+      </c>
+      <c r="AA677" s="28">
+        <v>82</v>
+      </c>
+      <c r="AH677" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI677" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL677" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM677" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:39">
+      <c r="A678" s="21">
+        <v>677</v>
+      </c>
+      <c r="B678" s="29">
+        <v>10594</v>
+      </c>
+      <c r="F678" s="21">
+        <v>1</v>
+      </c>
+      <c r="G678" s="29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I678" s="28" t="s">
+        <v>1560</v>
+      </c>
+      <c r="J678" s="28" t="s">
+        <v>1576</v>
+      </c>
+      <c r="L678" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M678" s="28">
+        <v>0</v>
+      </c>
+      <c r="N678" s="28">
+        <v>0</v>
+      </c>
+      <c r="O678" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P678" s="29">
+        <v>9800</v>
+      </c>
+      <c r="Q678" s="29" t="s">
+        <v>1653</v>
+      </c>
+      <c r="R678" s="53" t="s">
+        <v>1562</v>
+      </c>
+      <c r="W678" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X678" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y678" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z678" s="29">
+        <v>1625500799</v>
+      </c>
+      <c r="AA678" s="28">
+        <v>82</v>
+      </c>
+      <c r="AH678" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI678" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL678" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM678" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:39">
+      <c r="A679" s="21">
+        <v>678</v>
+      </c>
+      <c r="B679" s="29">
+        <v>10595</v>
+      </c>
+      <c r="F679" s="21">
+        <v>1</v>
+      </c>
+      <c r="G679" s="29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I679" s="28" t="s">
+        <v>1560</v>
+      </c>
+      <c r="J679" s="28" t="s">
+        <v>1577</v>
+      </c>
+      <c r="L679" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M679" s="28">
+        <v>0</v>
+      </c>
+      <c r="N679" s="28">
+        <v>0</v>
+      </c>
+      <c r="O679" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P679" s="29">
+        <v>19800</v>
+      </c>
+      <c r="Q679" s="29" t="s">
+        <v>1653</v>
+      </c>
+      <c r="R679" s="53" t="s">
+        <v>1564</v>
+      </c>
+      <c r="W679" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X679" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y679" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z679" s="29">
+        <v>1625500799</v>
+      </c>
+      <c r="AA679" s="28">
+        <v>82</v>
+      </c>
+      <c r="AH679" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI679" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL679" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM679" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:39">
+      <c r="A680" s="21">
+        <v>679</v>
+      </c>
+      <c r="B680" s="29">
+        <v>10596</v>
+      </c>
+      <c r="F680" s="21">
+        <v>1</v>
+      </c>
+      <c r="G680" s="29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I680" s="28" t="s">
+        <v>1449</v>
+      </c>
+      <c r="J680" s="28" t="s">
+        <v>1576</v>
+      </c>
+      <c r="L680" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M680" s="28">
+        <v>0</v>
+      </c>
+      <c r="N680" s="28">
+        <v>0</v>
+      </c>
+      <c r="O680" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P680" s="29">
+        <v>9800</v>
+      </c>
+      <c r="Q680" s="29" t="s">
+        <v>1653</v>
+      </c>
+      <c r="R680" s="53" t="s">
+        <v>1562</v>
+      </c>
+      <c r="W680" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X680" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y680" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z680" s="29">
+        <v>1625500799</v>
+      </c>
+      <c r="AA680" s="28">
+        <v>83</v>
+      </c>
+      <c r="AH680" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI680" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL680" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM680" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:39">
+      <c r="A681" s="21">
+        <v>680</v>
+      </c>
+      <c r="B681" s="29">
+        <v>10597</v>
+      </c>
+      <c r="F681" s="21">
+        <v>1</v>
+      </c>
+      <c r="G681" s="29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I681" s="28" t="s">
+        <v>1449</v>
+      </c>
+      <c r="J681" s="28" t="s">
+        <v>1577</v>
+      </c>
+      <c r="L681" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M681" s="28">
+        <v>0</v>
+      </c>
+      <c r="N681" s="28">
+        <v>0</v>
+      </c>
+      <c r="O681" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P681" s="29">
+        <v>19800</v>
+      </c>
+      <c r="Q681" s="29" t="s">
+        <v>1653</v>
+      </c>
+      <c r="R681" s="53" t="s">
+        <v>1564</v>
+      </c>
+      <c r="W681" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X681" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y681" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z681" s="29">
+        <v>1625500799</v>
+      </c>
+      <c r="AA681" s="28">
+        <v>83</v>
+      </c>
+      <c r="AH681" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI681" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL681" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM681" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:39">
+      <c r="A682" s="21">
+        <v>681</v>
+      </c>
+      <c r="B682" s="29">
+        <v>10598</v>
+      </c>
+      <c r="F682" s="21">
+        <v>1</v>
+      </c>
+      <c r="G682" s="29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I682" s="28" t="s">
+        <v>1449</v>
+      </c>
+      <c r="J682" s="28" t="s">
+        <v>1578</v>
+      </c>
+      <c r="L682" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M682" s="28">
+        <v>0</v>
+      </c>
+      <c r="N682" s="28">
+        <v>0</v>
+      </c>
+      <c r="O682" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P682" s="29">
+        <v>49800</v>
+      </c>
+      <c r="Q682" s="29" t="s">
+        <v>1653</v>
+      </c>
+      <c r="R682" s="53" t="s">
+        <v>1566</v>
+      </c>
+      <c r="W682" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="X682" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y682" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z682" s="29">
+        <v>1625500799</v>
+      </c>
+      <c r="AA682" s="28">
+        <v>83</v>
+      </c>
+      <c r="AH682" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI682" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL682" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM682" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683" spans="1:39">
+      <c r="A683" s="21">
+        <v>682</v>
+      </c>
+      <c r="B683" s="29">
+        <v>10599</v>
+      </c>
+      <c r="F683" s="21">
+        <v>1</v>
+      </c>
+      <c r="G683" s="29" t="s">
+        <v>1654</v>
+      </c>
+      <c r="J683" s="28" t="s">
+        <v>1580</v>
+      </c>
+      <c r="L683" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M683" s="28">
+        <v>0</v>
+      </c>
+      <c r="N683" s="28">
+        <v>0</v>
+      </c>
+      <c r="O683" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P683" s="29">
+        <v>49800</v>
+      </c>
+      <c r="Q683" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R683" s="53" t="s">
+        <v>1582</v>
+      </c>
+      <c r="W683" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X683" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y683" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z683" s="29">
+        <v>1627315199</v>
+      </c>
+      <c r="AA683" s="29">
+        <v>69</v>
+      </c>
+      <c r="AH683" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI683" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL683" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM683" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:39">
+      <c r="A684" s="21">
+        <v>683</v>
+      </c>
+      <c r="B684" s="29">
+        <v>10600</v>
+      </c>
+      <c r="F684" s="21">
+        <v>1</v>
+      </c>
+      <c r="G684" s="29" t="s">
+        <v>1654</v>
+      </c>
+      <c r="J684" s="28" t="s">
+        <v>1583</v>
+      </c>
+      <c r="L684" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M684" s="28">
+        <v>0</v>
+      </c>
+      <c r="N684" s="28">
+        <v>0</v>
+      </c>
+      <c r="O684" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P684" s="29">
+        <v>19800</v>
+      </c>
+      <c r="Q684" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R684" s="53" t="s">
+        <v>1584</v>
+      </c>
+      <c r="W684" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X684" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y684" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z684" s="29">
+        <v>1627315199</v>
+      </c>
+      <c r="AA684" s="29">
+        <v>69</v>
+      </c>
+      <c r="AH684" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI684" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL684" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM684" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:39">
+      <c r="A685" s="21">
+        <v>684</v>
+      </c>
+      <c r="B685" s="29">
+        <v>10601</v>
+      </c>
+      <c r="F685" s="21">
+        <v>1</v>
+      </c>
+      <c r="G685" s="29" t="s">
+        <v>1654</v>
+      </c>
+      <c r="J685" s="28" t="s">
+        <v>1585</v>
+      </c>
+      <c r="L685" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M685" s="28">
+        <v>0</v>
+      </c>
+      <c r="N685" s="28">
+        <v>0</v>
+      </c>
+      <c r="O685" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P685" s="29">
+        <v>9800</v>
+      </c>
+      <c r="Q685" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R685" s="53" t="s">
+        <v>1586</v>
+      </c>
+      <c r="W685" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X685" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y685" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z685" s="29">
+        <v>1627315199</v>
+      </c>
+      <c r="AA685" s="29">
+        <v>69</v>
+      </c>
+      <c r="AH685" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI685" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL685" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM685" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" spans="1:39">
+      <c r="A686" s="21">
+        <v>685</v>
+      </c>
+      <c r="B686" s="29">
+        <v>10602</v>
+      </c>
+      <c r="F686" s="21">
+        <v>1</v>
+      </c>
+      <c r="G686" s="29" t="s">
+        <v>1654</v>
+      </c>
+      <c r="J686" s="28" t="s">
+        <v>1587</v>
+      </c>
+      <c r="L686" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M686" s="28">
+        <v>0</v>
+      </c>
+      <c r="N686" s="28">
+        <v>0</v>
+      </c>
+      <c r="O686" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P686" s="29">
+        <v>4800</v>
+      </c>
+      <c r="Q686" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R686" s="53" t="s">
+        <v>1588</v>
+      </c>
+      <c r="W686" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X686" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y686" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z686" s="29">
+        <v>1627315199</v>
+      </c>
+      <c r="AA686" s="29">
+        <v>69</v>
+      </c>
+      <c r="AH686" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI686" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL686" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM686" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:39">
+      <c r="A687" s="21">
+        <v>686</v>
+      </c>
+      <c r="B687" s="29">
+        <v>10603</v>
+      </c>
+      <c r="F687" s="21">
+        <v>1</v>
+      </c>
+      <c r="G687" s="29" t="s">
+        <v>1654</v>
+      </c>
+      <c r="J687" s="28" t="s">
+        <v>1589</v>
+      </c>
+      <c r="L687" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M687" s="28">
+        <v>0</v>
+      </c>
+      <c r="N687" s="28">
+        <v>0</v>
+      </c>
+      <c r="O687" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P687" s="29">
+        <v>2000</v>
+      </c>
+      <c r="Q687" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R687" s="53" t="s">
+        <v>1590</v>
+      </c>
+      <c r="W687" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X687" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y687" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z687" s="29">
+        <v>1627315199</v>
+      </c>
+      <c r="AA687" s="29">
+        <v>69</v>
+      </c>
+      <c r="AH687" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI687" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL687" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM687" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" spans="1:39">
+      <c r="A688" s="21">
+        <v>687</v>
+      </c>
+      <c r="B688" s="29">
+        <v>10604</v>
+      </c>
+      <c r="F688" s="21">
+        <v>1</v>
+      </c>
+      <c r="G688" s="29" t="s">
+        <v>1654</v>
+      </c>
+      <c r="J688" s="28" t="s">
+        <v>1591</v>
+      </c>
+      <c r="L688" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M688" s="28">
+        <v>0</v>
+      </c>
+      <c r="N688" s="28">
+        <v>0</v>
+      </c>
+      <c r="O688" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P688" s="29">
+        <v>600</v>
+      </c>
+      <c r="Q688" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R688" s="53" t="s">
+        <v>1592</v>
+      </c>
+      <c r="W688" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X688" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y688" s="29">
+        <v>1624924800</v>
+      </c>
+      <c r="Z688" s="29">
+        <v>1627315199</v>
+      </c>
+      <c r="AA688" s="29">
+        <v>69</v>
+      </c>
+      <c r="AH688" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI688" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL688" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM688" s="29">
         <v>1</v>
       </c>
     </row>
@@ -53439,19 +54654,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="58.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1652</v>
+        <v>1655</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1653</v>
+        <v>1656</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1654</v>
+        <v>1657</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1655</v>
+        <v>1658</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1656</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="2" ht="57.75" customHeight="1" spans="1:5">
@@ -53459,7 +54674,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1657</v>
+        <v>1660</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -53468,7 +54683,7 @@
         <v>3600</v>
       </c>
       <c r="E2" t="s">
-        <v>1658</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="3" ht="78.75" customHeight="1" spans="1:4">
@@ -53476,7 +54691,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>1659</v>
+        <v>1662</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -53490,7 +54705,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>1660</v>
+        <v>1663</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -53504,7 +54719,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>1661</v>
+        <v>1664</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -53518,7 +54733,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>1662</v>
+        <v>1665</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -53532,7 +54747,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1663</v>
+        <v>1666</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -53546,7 +54761,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1664</v>
+        <v>1667</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -53560,7 +54775,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1665</v>
+        <v>1668</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -53574,7 +54789,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1666</v>
+        <v>1669</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -53588,7 +54803,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1667</v>
+        <v>1670</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -53602,7 +54817,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>1662</v>
+        <v>1665</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -53616,7 +54831,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>1663</v>
+        <v>1666</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -53630,7 +54845,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -53644,7 +54859,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>1669</v>
+        <v>1672</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -53658,7 +54873,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>1670</v>
+        <v>1673</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -53672,7 +54887,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>1671</v>
+        <v>1674</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -53686,7 +54901,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>1672</v>
+        <v>1675</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -53700,7 +54915,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>1673</v>
+        <v>1676</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -53714,7 +54929,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>1674</v>
+        <v>1677</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -53728,7 +54943,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>1675</v>
+        <v>1678</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
@@ -53742,7 +54957,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>1676</v>
+        <v>1679</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
@@ -53756,7 +54971,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1677</v>
+        <v>1680</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
@@ -53770,7 +54985,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>1678</v>
+        <v>1681</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
@@ -53784,7 +54999,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1679</v>
+        <v>1682</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
@@ -53798,7 +55013,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>1680</v>
+        <v>1683</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -53812,7 +55027,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1681</v>
+        <v>1684</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -53826,7 +55041,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1682</v>
+        <v>1685</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -53840,7 +55055,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1683</v>
+        <v>1686</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -53854,7 +55069,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1684</v>
+        <v>1687</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -53868,7 +55083,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1685</v>
+        <v>1688</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -53882,7 +55097,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1686</v>
+        <v>1689</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -53896,7 +55111,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1687</v>
+        <v>1690</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -53910,7 +55125,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1688</v>
+        <v>1691</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -53924,7 +55139,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1689</v>
+        <v>1692</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -53938,7 +55153,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1690</v>
+        <v>1693</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -53952,7 +55167,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1691</v>
+        <v>1694</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -53966,7 +55181,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1692</v>
+        <v>1695</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -53980,7 +55195,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1693</v>
+        <v>1696</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -53994,7 +55209,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1694</v>
+        <v>1697</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -54008,7 +55223,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1695</v>
+        <v>1698</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -54022,7 +55237,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1696</v>
+        <v>1699</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -54036,7 +55251,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1697</v>
+        <v>1700</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -54050,7 +55265,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1698</v>
+        <v>1701</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -54064,7 +55279,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1699</v>
+        <v>1702</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -54078,7 +55293,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>1700</v>
+        <v>1703</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -54092,7 +55307,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>1701</v>
+        <v>1704</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -54106,7 +55321,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1702</v>
+        <v>1705</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -54120,7 +55335,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1703</v>
+        <v>1706</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -54134,7 +55349,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1704</v>
+        <v>1707</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -54148,7 +55363,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>1705</v>
+        <v>1708</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -54162,7 +55377,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>1706</v>
+        <v>1709</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -54176,7 +55391,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1707</v>
+        <v>1710</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -54190,7 +55405,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1708</v>
+        <v>1711</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
@@ -54204,7 +55419,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1709</v>
+        <v>1712</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -54218,7 +55433,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1710</v>
+        <v>1713</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -54232,7 +55447,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1711</v>
+        <v>1714</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -54246,7 +55461,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1712</v>
+        <v>1715</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -54260,7 +55475,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1713</v>
+        <v>1716</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -54274,7 +55489,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1714</v>
+        <v>1717</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -54288,7 +55503,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1715</v>
+        <v>1718</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -54302,7 +55517,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1716</v>
+        <v>1719</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -54316,7 +55531,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -54330,7 +55545,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1718</v>
+        <v>1721</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
@@ -54344,7 +55559,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1719</v>
+        <v>1722</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -54358,7 +55573,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1720</v>
+        <v>1723</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
@@ -54372,7 +55587,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1721</v>
+        <v>1724</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -54386,7 +55601,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1722</v>
+        <v>1725</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -54400,7 +55615,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1723</v>
+        <v>1726</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -54414,7 +55629,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1724</v>
+        <v>1727</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -54428,7 +55643,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>1725</v>
+        <v>1728</v>
       </c>
       <c r="C71" s="17">
         <v>1</v>
@@ -54442,7 +55657,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>1726</v>
+        <v>1729</v>
       </c>
       <c r="C72" s="17">
         <v>1</v>
@@ -54456,7 +55671,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="C73" s="17">
         <v>1</v>
@@ -54470,7 +55685,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>1728</v>
+        <v>1731</v>
       </c>
       <c r="C74" s="17">
         <v>1</v>
@@ -54484,7 +55699,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>1729</v>
+        <v>1732</v>
       </c>
       <c r="C75" s="17">
         <v>1</v>
@@ -54498,7 +55713,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>1730</v>
+        <v>1733</v>
       </c>
       <c r="C76" s="17">
         <v>1</v>
@@ -54512,7 +55727,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>1731</v>
+        <v>1734</v>
       </c>
       <c r="C77" s="17">
         <v>1</v>
@@ -54526,7 +55741,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>1732</v>
+        <v>1735</v>
       </c>
       <c r="C78" s="17">
         <v>1</v>
@@ -54540,7 +55755,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>1733</v>
+        <v>1736</v>
       </c>
       <c r="C79" s="17">
         <v>1</v>
@@ -54554,7 +55769,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>1734</v>
+        <v>1737</v>
       </c>
       <c r="C80" s="17">
         <v>1</v>
@@ -54568,7 +55783,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>1735</v>
+        <v>1738</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -54582,7 +55797,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>1736</v>
+        <v>1739</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
@@ -54596,7 +55811,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>1737</v>
+        <v>1740</v>
       </c>
       <c r="C83" s="2">
         <v>1</v>
@@ -54610,7 +55825,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>1738</v>
+        <v>1741</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
@@ -54624,7 +55839,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -54676,7 +55891,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="90" customHeight="1" spans="1:29">
       <c r="A1" s="1" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -54688,19 +55903,19 @@
         <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>31</v>
@@ -54715,7 +55930,7 @@
         <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1746</v>
+        <v>1749</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>39</v>
@@ -54760,7 +55975,7 @@
         <v>52</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>1747</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="1" spans="1:26">
@@ -54780,7 +55995,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="G2" s="12">
         <v>480</v>
@@ -54807,22 +56022,22 @@
         <v>3</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="T2" s="12" t="s">
         <v>61</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="Y2" s="12">
         <v>1</v>
@@ -54848,7 +56063,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="G3" s="12">
         <v>1200</v>
@@ -54878,19 +56093,19 @@
         <v>127</v>
       </c>
       <c r="Q3" s="15" t="s">
+        <v>1757</v>
+      </c>
+      <c r="S3" s="15" t="s">
         <v>1754</v>
-      </c>
-      <c r="S3" s="15" t="s">
-        <v>1751</v>
       </c>
       <c r="T3" s="12" t="s">
         <v>66</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="Y3" s="12">
         <v>1</v>
@@ -54916,7 +56131,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="G4" s="12">
         <v>2400</v>
@@ -54943,22 +56158,22 @@
         <v>5</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="T4" s="12" t="s">
         <v>70</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>1758</v>
+        <v>1761</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="Y4" s="12">
         <v>1</v>
@@ -54984,7 +56199,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="G5" s="12">
         <v>4000</v>
@@ -55011,22 +56226,22 @@
         <v>6</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>1760</v>
+        <v>1763</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="T5" s="12" t="s">
         <v>74</v>
       </c>
       <c r="U5" s="15" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="Y5" s="12">
         <v>1</v>
@@ -55052,7 +56267,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="G6" s="12">
         <v>7840</v>
@@ -55079,22 +56294,22 @@
         <v>7</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>1763</v>
+        <v>1766</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="T6" s="12" t="s">
         <v>78</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="Y6" s="12">
         <v>1</v>
@@ -55120,7 +56335,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="G7" s="12">
         <v>39840</v>
@@ -55147,22 +56362,22 @@
         <v>9</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>1765</v>
+        <v>1768</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>1766</v>
+        <v>1769</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="T7" s="12" t="s">
         <v>82</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>1767</v>
+        <v>1770</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="Y7" s="12">
         <v>1</v>
@@ -55185,7 +56400,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="G8" s="12">
         <v>120</v>
@@ -55212,22 +56427,22 @@
         <v>0</v>
       </c>
       <c r="P8" s="15" t="s">
-        <v>1768</v>
+        <v>1771</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>1769</v>
+        <v>1772</v>
       </c>
       <c r="S8" s="15" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="T8" s="12" t="s">
         <v>61</v>
       </c>
       <c r="U8" s="15" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="V8" s="12" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="Y8" s="12">
         <v>1</v>
@@ -55251,7 +56466,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="G9" s="13">
         <v>5000</v>
@@ -55279,10 +56494,10 @@
         <v>2</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>1771</v>
+        <v>1774</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>1772</v>
+        <v>1775</v>
       </c>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
@@ -55290,10 +56505,10 @@
         <v>5000</v>
       </c>
       <c r="U9" s="13" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="V9" s="13" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
@@ -55306,7 +56521,7 @@
       <c r="AA9" s="13"/>
       <c r="AB9" s="13"/>
       <c r="AC9" s="16" t="s">
-        <v>1773</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="10" s="12" customFormat="1" spans="1:29">
@@ -55324,7 +56539,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="G10" s="13">
         <v>1000</v>
@@ -55352,10 +56567,10 @@
         <v>1</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>1774</v>
+        <v>1777</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>1775</v>
+        <v>1778</v>
       </c>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
@@ -55363,10 +56578,10 @@
         <v>1000</v>
       </c>
       <c r="U10" s="13" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
       <c r="V10" s="13" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
@@ -55379,7 +56594,7 @@
       <c r="AA10" s="13"/>
       <c r="AB10" s="13"/>
       <c r="AC10" s="16" t="s">
-        <v>1776</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="11" s="12" customFormat="1" spans="1:26">
@@ -55396,7 +56611,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="G11" s="12">
         <v>1200</v>
@@ -55426,19 +56641,19 @@
         <v>127</v>
       </c>
       <c r="Q11" s="15" t="s">
+        <v>1757</v>
+      </c>
+      <c r="S11" s="15" t="s">
         <v>1754</v>
-      </c>
-      <c r="S11" s="15" t="s">
-        <v>1751</v>
       </c>
       <c r="T11" s="15" t="s">
         <v>66</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="Y11" s="12">
         <v>1</v>
@@ -55464,7 +56679,7 @@
         <v>107</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="G12" s="12">
         <v>120000</v>
@@ -55491,22 +56706,22 @@
         <v>9</v>
       </c>
       <c r="P12" s="15" t="s">
-        <v>1777</v>
+        <v>1780</v>
       </c>
       <c r="Q12" s="15" t="s">
-        <v>1778</v>
+        <v>1781</v>
       </c>
       <c r="S12" s="15" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="T12" s="12" t="s">
         <v>86</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>1779</v>
+        <v>1782</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="Y12" s="12">
         <v>1</v>
@@ -55532,7 +56747,7 @@
         <v>108</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="G13" s="12">
         <v>79840</v>
@@ -55559,22 +56774,22 @@
         <v>10</v>
       </c>
       <c r="P13" s="15" t="s">
-        <v>1780</v>
+        <v>1783</v>
       </c>
       <c r="Q13" s="15" t="s">
-        <v>1781</v>
+        <v>1784</v>
       </c>
       <c r="S13" s="15" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="T13" s="12" t="s">
+        <v>1785</v>
+      </c>
+      <c r="U13" s="12" t="s">
         <v>1782</v>
       </c>
-      <c r="U13" s="12" t="s">
-        <v>1779</v>
-      </c>
       <c r="V13" s="12" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="Y13" s="12">
         <v>1</v>
@@ -55600,7 +56815,7 @@
         <v>110</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="G14" s="12">
         <v>199840</v>
@@ -55627,22 +56842,22 @@
         <v>11</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>1783</v>
+        <v>1786</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>1784</v>
+        <v>1787</v>
       </c>
       <c r="S14" s="15" t="s">
-        <v>1785</v>
+        <v>1788</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>1786</v>
+        <v>1789</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>1787</v>
+        <v>1790</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="Y14" s="12">
         <v>1</v>
@@ -55666,7 +56881,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="G15" s="13">
         <v>100</v>
@@ -55696,10 +56911,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>1788</v>
+        <v>1791</v>
       </c>
       <c r="Q15" s="16" t="s">
-        <v>1789</v>
+        <v>1792</v>
       </c>
       <c r="R15" s="13"/>
       <c r="S15" s="16"/>
@@ -55707,10 +56922,10 @@
         <v>100</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="V15" s="13" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
@@ -55723,7 +56938,7 @@
       <c r="AA15" s="13"/>
       <c r="AB15" s="13"/>
       <c r="AC15" s="16" t="s">
-        <v>1790</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="16" s="12" customFormat="1" spans="1:26">
@@ -55743,7 +56958,7 @@
         <v>101</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="G16" s="12">
         <v>2000</v>
@@ -55770,23 +56985,23 @@
         <v>3</v>
       </c>
       <c r="P16" s="15" t="s">
-        <v>1791</v>
+        <v>1794</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>1792</v>
+        <v>1795</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="15" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="T16" s="12" t="s">
         <v>101</v>
       </c>
       <c r="U16" s="15" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="V16" s="12" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -55811,7 +57026,7 @@
         <v>102</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="G17" s="12">
         <v>6700</v>
@@ -55838,23 +57053,23 @@
         <v>4</v>
       </c>
       <c r="P17" s="15" t="s">
-        <v>1793</v>
+        <v>1796</v>
       </c>
       <c r="Q17" s="15" t="s">
-        <v>1794</v>
+        <v>1797</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="15" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="T17" s="12" t="s">
         <v>105</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>1758</v>
+        <v>1761</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -55879,7 +57094,7 @@
         <v>103</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="G18" s="12">
         <v>13200</v>
@@ -55906,23 +57121,23 @@
         <v>5</v>
       </c>
       <c r="P18" s="15" t="s">
-        <v>1795</v>
+        <v>1798</v>
       </c>
       <c r="Q18" s="15" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" s="15" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="T18" s="12" t="s">
         <v>109</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -55947,7 +57162,7 @@
         <v>104</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="G19" s="12">
         <v>20400</v>
@@ -55974,23 +57189,23 @@
         <v>6</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
       <c r="R19" s="2"/>
       <c r="S19" s="15" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="T19" s="12" t="s">
         <v>114</v>
       </c>
       <c r="U19" s="15" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -56015,7 +57230,7 @@
         <v>105</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="G20" s="12">
         <v>66</v>
@@ -56042,22 +57257,22 @@
         <v>7</v>
       </c>
       <c r="P20" s="15" t="s">
-        <v>1800</v>
+        <v>1803</v>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>1801</v>
+        <v>1804</v>
       </c>
       <c r="S20" s="15" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="T20" s="12" t="s">
         <v>120</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="Y20" s="12">
         <v>1</v>
@@ -56081,7 +57296,7 @@
         <v>101</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="G21" s="12">
         <v>200</v>
@@ -56112,20 +57327,20 @@
         <v>890</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
       <c r="R21" s="12"/>
       <c r="S21" s="15" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="T21" s="12" t="s">
         <v>124</v>
       </c>
       <c r="U21" s="15" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
@@ -56154,7 +57369,7 @@
         <v>104</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="G22" s="13">
         <v>5000</v>
@@ -56182,10 +57397,10 @@
         <v>2</v>
       </c>
       <c r="P22" s="16" t="s">
-        <v>1771</v>
+        <v>1774</v>
       </c>
       <c r="Q22" s="16" t="s">
-        <v>1772</v>
+        <v>1775</v>
       </c>
       <c r="R22" s="13"/>
       <c r="S22" s="16"/>
@@ -56193,10 +57408,10 @@
         <v>5000</v>
       </c>
       <c r="U22" s="16" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="V22" s="13" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="W22" s="13"/>
       <c r="X22" s="13"/>
@@ -56225,7 +57440,7 @@
         <v>102</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="G23" s="13">
         <v>1000</v>
@@ -56253,10 +57468,10 @@
         <v>1</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>1774</v>
+        <v>1777</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>1775</v>
+        <v>1778</v>
       </c>
       <c r="R23" s="13"/>
       <c r="S23" s="16"/>
@@ -56264,10 +57479,10 @@
         <v>1000</v>
       </c>
       <c r="U23" s="16" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="V23" s="13" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="W23" s="13"/>
       <c r="X23" s="13"/>
@@ -56289,14 +57504,14 @@
         <v>109</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>1803</v>
+        <v>1806</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
         <v>101</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="G24" s="13">
         <v>100</v>
@@ -56326,10 +57541,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="16" t="s">
-        <v>1788</v>
+        <v>1791</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>1789</v>
+        <v>1792</v>
       </c>
       <c r="R24" s="13"/>
       <c r="S24" s="16"/>
@@ -56337,10 +57552,10 @@
         <v>100</v>
       </c>
       <c r="U24" s="16" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="V24" s="13" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="W24" s="13"/>
       <c r="X24" s="13"/>
@@ -56353,7 +57568,7 @@
       <c r="AA24" s="13"/>
       <c r="AB24" s="13"/>
       <c r="AC24" s="16" t="s">
-        <v>1790</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="25" s="12" customFormat="1" spans="1:26">
@@ -56373,7 +57588,7 @@
         <v>111</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="G25" s="12">
         <v>15840</v>
@@ -56400,22 +57615,22 @@
         <v>8</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
       <c r="Q25" s="15" t="s">
-        <v>1805</v>
+        <v>1808</v>
       </c>
       <c r="S25" s="15" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="T25" s="15" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="U25" s="15" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
       <c r="V25" s="12" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="Y25" s="12">
         <v>1</v>
@@ -56478,13 +57693,13 @@
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1807</v>
+        <v>1810</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>31</v>
@@ -56496,16 +57711,16 @@
         <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1808</v>
+        <v>1811</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1809</v>
+        <v>1812</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1810</v>
+        <v>1813</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1811</v>
+        <v>1814</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>38</v>
@@ -56546,7 +57761,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1812</v>
+        <v>1815</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -56558,7 +57773,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1813</v>
+        <v>1816</v>
       </c>
       <c r="L2" s="2">
         <v>54</v>
@@ -56567,7 +57782,7 @@
         <v>999999</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1814</v>
+        <v>1817</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -56576,22 +57791,22 @@
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1815</v>
+        <v>1818</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1816</v>
+        <v>1819</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1817</v>
+        <v>1820</v>
       </c>
       <c r="T2" s="2">
         <v>60000</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1818</v>
+        <v>1821</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:23">
@@ -56602,7 +57817,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1812</v>
+        <v>1815</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -56614,7 +57829,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1813</v>
+        <v>1816</v>
       </c>
       <c r="L3" s="2">
         <v>54</v>
@@ -56623,7 +57838,7 @@
         <v>999999</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1819</v>
+        <v>1822</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -56632,22 +57847,22 @@
         <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1815</v>
+        <v>1818</v>
       </c>
       <c r="R3" s="2" t="s">
+        <v>1823</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>1820</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>1817</v>
       </c>
       <c r="T3" s="2">
         <v>500000</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1818</v>
+        <v>1821</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="W3" s="2">
         <v>8.3</v>
@@ -56661,7 +57876,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1821</v>
+        <v>1824</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -56686,19 +57901,19 @@
         <v>4</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>1822</v>
+        <v>1825</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>1823</v>
+        <v>1826</v>
       </c>
       <c r="T4" s="2">
         <v>15000</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>1824</v>
+        <v>1827</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:22">
@@ -56709,7 +57924,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1825</v>
+        <v>1828</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -56736,10 +57951,10 @@
         <v>100000</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>1826</v>
+        <v>1829</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:22">
@@ -56750,7 +57965,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1827</v>
+        <v>1830</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -56777,10 +57992,10 @@
         <v>100000</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1826</v>
+        <v>1829</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:23">
@@ -56791,7 +58006,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1812</v>
+        <v>1815</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -56803,7 +58018,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1828</v>
+        <v>1831</v>
       </c>
       <c r="L7" s="2">
         <v>56</v>
@@ -56812,7 +58027,7 @@
         <v>999999</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>1819</v>
+        <v>1822</v>
       </c>
       <c r="O7" s="6">
         <v>0</v>
@@ -56821,22 +58036,22 @@
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>1829</v>
+        <v>1832</v>
       </c>
       <c r="R7" s="2" t="s">
+        <v>1823</v>
+      </c>
+      <c r="S7" s="2" t="s">
         <v>1820</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>1817</v>
       </c>
       <c r="T7" s="2">
         <v>500000</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>1830</v>
+        <v>1833</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="W7" s="2">
         <v>8.3</v>
@@ -56850,10 +58065,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1831</v>
+        <v>1834</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="F8" s="2">
         <v>100</v>
@@ -56865,7 +58080,7 @@
         <v>125</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1832</v>
+        <v>1835</v>
       </c>
       <c r="L8" s="2">
         <v>57</v>
@@ -56880,22 +58095,22 @@
         <v>5</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>1833</v>
+        <v>1836</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>1834</v>
+        <v>1837</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>1817</v>
+        <v>1820</v>
       </c>
       <c r="T8" s="2">
         <v>100</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>1835</v>
+        <v>1838</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:22">
@@ -56906,10 +58121,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1836</v>
+        <v>1839</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="F9" s="2">
         <v>1000</v>
@@ -56924,16 +58139,16 @@
         <v>6</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>1837</v>
+        <v>1840</v>
       </c>
       <c r="T9" s="2">
         <v>1000</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>1838</v>
+        <v>1841</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:22">
@@ -56944,10 +58159,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1836</v>
+        <v>1839</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="F10" s="2">
         <v>5800</v>
@@ -56962,16 +58177,16 @@
         <v>7</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>1839</v>
+        <v>1842</v>
       </c>
       <c r="T10" s="2">
         <v>5800</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>1838</v>
+        <v>1841</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:22">
@@ -56982,10 +58197,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1836</v>
+        <v>1839</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="F11" s="2">
         <v>8800</v>
@@ -57000,16 +58215,16 @@
         <v>8</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>1840</v>
+        <v>1843</v>
       </c>
       <c r="T11" s="2">
         <v>8800</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>1838</v>
+        <v>1841</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:22">
@@ -57020,10 +58235,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1836</v>
+        <v>1839</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="F12" s="2">
         <v>18800</v>
@@ -57038,16 +58253,16 @@
         <v>9</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>1841</v>
+        <v>1844</v>
       </c>
       <c r="T12" s="2">
         <v>18800</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>1838</v>
+        <v>1841</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:23">
@@ -57058,7 +58273,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1842</v>
+        <v>1845</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -57082,16 +58297,16 @@
         <v>0</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>1843</v>
+        <v>1846</v>
       </c>
       <c r="T13" s="2">
         <v>70000</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>1844</v>
+        <v>1847</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="W13" s="2">
         <v>7</v>
@@ -57105,7 +58320,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1842</v>
+        <v>1845</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -57129,16 +58344,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>1845</v>
+        <v>1848</v>
       </c>
       <c r="T14" s="2">
         <v>180000</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>1844</v>
+        <v>1847</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="W14" s="2">
         <v>6</v>
@@ -57152,10 +58367,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1842</v>
+        <v>1845</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="F15" s="2">
         <v>1500</v>
@@ -57176,16 +58391,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>1846</v>
+        <v>1849</v>
       </c>
       <c r="T15" s="2">
         <v>1500</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>1844</v>
+        <v>1847</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="W15" s="2">
         <v>3</v>
@@ -57199,10 +58414,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1847</v>
+        <v>1850</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="F16" s="3">
         <v>200</v>
@@ -57218,13 +58433,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>1848</v>
+        <v>1851</v>
       </c>
       <c r="T16" s="3">
         <v>200</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:22">
@@ -57235,10 +58450,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1847</v>
+        <v>1850</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="F17" s="3">
         <v>2000</v>
@@ -57254,13 +58469,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>1849</v>
+        <v>1852</v>
       </c>
       <c r="T17" s="3">
         <v>2000</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:22">
@@ -57271,7 +58486,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1847</v>
+        <v>1850</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
@@ -57290,13 +58505,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>1848</v>
+        <v>1851</v>
       </c>
       <c r="T18" s="3">
         <v>20000</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:22">
@@ -57307,7 +58522,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1847</v>
+        <v>1850</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>14</v>
@@ -57326,13 +58541,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>1849</v>
+        <v>1852</v>
       </c>
       <c r="T19" s="3">
         <v>200000</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:22">
@@ -57343,7 +58558,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1850</v>
+        <v>1853</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>14</v>
@@ -57361,16 +58576,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>1851</v>
+        <v>1854</v>
       </c>
       <c r="T20" s="4">
         <v>300000</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:22">
@@ -57381,7 +58596,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1853</v>
+        <v>1856</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>14</v>
@@ -57399,16 +58614,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>1854</v>
+        <v>1857</v>
       </c>
       <c r="T21" s="4">
         <v>300000</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1855</v>
+        <v>1858</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/shoping_config_vivo.xlsx
+++ b/config_Release/shoping_config_vivo.xlsx
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5405" uniqueCount="1859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5441" uniqueCount="1867">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5905,6 +5905,30 @@
   </si>
   <si>
     <t>消暑礼包</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_qdlb_cjq_cjj",</t>
+  </si>
+  <si>
+    <t>抽奖礼包</t>
+  </si>
+  <si>
+    <t>"5000万金币","100万小游戏币","啤酒盖*50",</t>
+  </si>
+  <si>
+    <t>"1980万金币","40万小游戏币","啤酒盖*30",</t>
+  </si>
+  <si>
+    <t>"980万金币","18万小游戏币","啤酒盖*15",</t>
+  </si>
+  <si>
+    <t>"480万金币","8万小游戏币","啤酒盖*8",</t>
+  </si>
+  <si>
+    <t>"200万金币","2万小游戏币","啤酒盖*4",</t>
+  </si>
+  <si>
+    <t>"60万金币","5000小游戏币","啤酒盖*1",</t>
   </si>
   <si>
     <t>id|不能重复</t>
@@ -6803,10 +6827,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -6840,6 +6864,111 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -6856,114 +6985,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6977,8 +7000,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7070,7 +7094,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7082,7 +7172,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7094,61 +7226,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7160,67 +7244,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7260,32 +7284,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7307,29 +7319,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7365,10 +7389,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7377,133 +7401,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10256,14 +10280,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN688"/>
+  <dimension ref="A1:AN694"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V660" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="Q666" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A683" sqref="$A683:$XFD688"/>
+      <selection pane="bottomRight" activeCell="Q686" sqref="Q686"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -54270,7 +54294,7 @@
         <v>49800</v>
       </c>
       <c r="Q683" s="28" t="s">
-        <v>1581</v>
+        <v>1655</v>
       </c>
       <c r="R683" s="53" t="s">
         <v>1582</v>
@@ -54335,7 +54359,7 @@
         <v>19800</v>
       </c>
       <c r="Q684" s="28" t="s">
-        <v>1581</v>
+        <v>1655</v>
       </c>
       <c r="R684" s="53" t="s">
         <v>1584</v>
@@ -54400,7 +54424,7 @@
         <v>9800</v>
       </c>
       <c r="Q685" s="28" t="s">
-        <v>1581</v>
+        <v>1655</v>
       </c>
       <c r="R685" s="53" t="s">
         <v>1586</v>
@@ -54465,7 +54489,7 @@
         <v>4800</v>
       </c>
       <c r="Q686" s="28" t="s">
-        <v>1581</v>
+        <v>1655</v>
       </c>
       <c r="R686" s="53" t="s">
         <v>1588</v>
@@ -54530,7 +54554,7 @@
         <v>2000</v>
       </c>
       <c r="Q687" s="28" t="s">
-        <v>1581</v>
+        <v>1655</v>
       </c>
       <c r="R687" s="53" t="s">
         <v>1590</v>
@@ -54595,7 +54619,7 @@
         <v>600</v>
       </c>
       <c r="Q688" s="28" t="s">
-        <v>1581</v>
+        <v>1655</v>
       </c>
       <c r="R688" s="53" t="s">
         <v>1592</v>
@@ -54625,6 +54649,396 @@
         <v>1</v>
       </c>
       <c r="AM688" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:39">
+      <c r="A689" s="21">
+        <v>688</v>
+      </c>
+      <c r="B689" s="29">
+        <v>10605</v>
+      </c>
+      <c r="F689" s="21">
+        <v>1</v>
+      </c>
+      <c r="G689" s="29" t="s">
+        <v>1656</v>
+      </c>
+      <c r="J689" s="28" t="s">
+        <v>1657</v>
+      </c>
+      <c r="L689" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M689" s="28">
+        <v>0</v>
+      </c>
+      <c r="N689" s="28">
+        <v>0</v>
+      </c>
+      <c r="O689" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P689" s="29">
+        <v>49800</v>
+      </c>
+      <c r="Q689" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R689" s="53" t="s">
+        <v>1582</v>
+      </c>
+      <c r="W689" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X689" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y689" s="29">
+        <v>1625529600</v>
+      </c>
+      <c r="Z689" s="29">
+        <v>1626105599</v>
+      </c>
+      <c r="AA689" s="29">
+        <v>68</v>
+      </c>
+      <c r="AH689" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI689" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL689" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM689" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:39">
+      <c r="A690" s="21">
+        <v>689</v>
+      </c>
+      <c r="B690" s="29">
+        <v>10606</v>
+      </c>
+      <c r="F690" s="21">
+        <v>1</v>
+      </c>
+      <c r="G690" s="29" t="s">
+        <v>1656</v>
+      </c>
+      <c r="J690" s="28" t="s">
+        <v>1658</v>
+      </c>
+      <c r="L690" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M690" s="28">
+        <v>0</v>
+      </c>
+      <c r="N690" s="28">
+        <v>0</v>
+      </c>
+      <c r="O690" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P690" s="29">
+        <v>19800</v>
+      </c>
+      <c r="Q690" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R690" s="53" t="s">
+        <v>1584</v>
+      </c>
+      <c r="W690" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X690" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y690" s="29">
+        <v>1625529600</v>
+      </c>
+      <c r="Z690" s="29">
+        <v>1626105599</v>
+      </c>
+      <c r="AA690" s="29">
+        <v>68</v>
+      </c>
+      <c r="AH690" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI690" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL690" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM690" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:39">
+      <c r="A691" s="21">
+        <v>690</v>
+      </c>
+      <c r="B691" s="29">
+        <v>10607</v>
+      </c>
+      <c r="F691" s="21">
+        <v>1</v>
+      </c>
+      <c r="G691" s="29" t="s">
+        <v>1656</v>
+      </c>
+      <c r="J691" s="28" t="s">
+        <v>1659</v>
+      </c>
+      <c r="L691" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M691" s="28">
+        <v>0</v>
+      </c>
+      <c r="N691" s="28">
+        <v>0</v>
+      </c>
+      <c r="O691" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P691" s="29">
+        <v>9800</v>
+      </c>
+      <c r="Q691" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R691" s="53" t="s">
+        <v>1586</v>
+      </c>
+      <c r="W691" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X691" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y691" s="29">
+        <v>1625529600</v>
+      </c>
+      <c r="Z691" s="29">
+        <v>1626105599</v>
+      </c>
+      <c r="AA691" s="29">
+        <v>68</v>
+      </c>
+      <c r="AH691" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI691" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL691" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM691" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:39">
+      <c r="A692" s="21">
+        <v>691</v>
+      </c>
+      <c r="B692" s="29">
+        <v>10608</v>
+      </c>
+      <c r="F692" s="21">
+        <v>1</v>
+      </c>
+      <c r="G692" s="29" t="s">
+        <v>1656</v>
+      </c>
+      <c r="J692" s="28" t="s">
+        <v>1660</v>
+      </c>
+      <c r="L692" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M692" s="28">
+        <v>0</v>
+      </c>
+      <c r="N692" s="28">
+        <v>0</v>
+      </c>
+      <c r="O692" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P692" s="29">
+        <v>4800</v>
+      </c>
+      <c r="Q692" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R692" s="53" t="s">
+        <v>1588</v>
+      </c>
+      <c r="W692" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X692" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y692" s="29">
+        <v>1625529600</v>
+      </c>
+      <c r="Z692" s="29">
+        <v>1626105599</v>
+      </c>
+      <c r="AA692" s="29">
+        <v>68</v>
+      </c>
+      <c r="AH692" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI692" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL692" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM692" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:39">
+      <c r="A693" s="21">
+        <v>692</v>
+      </c>
+      <c r="B693" s="29">
+        <v>10609</v>
+      </c>
+      <c r="F693" s="21">
+        <v>1</v>
+      </c>
+      <c r="G693" s="29" t="s">
+        <v>1656</v>
+      </c>
+      <c r="J693" s="28" t="s">
+        <v>1661</v>
+      </c>
+      <c r="L693" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M693" s="28">
+        <v>0</v>
+      </c>
+      <c r="N693" s="28">
+        <v>0</v>
+      </c>
+      <c r="O693" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P693" s="29">
+        <v>2000</v>
+      </c>
+      <c r="Q693" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R693" s="53" t="s">
+        <v>1590</v>
+      </c>
+      <c r="W693" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X693" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y693" s="29">
+        <v>1625529600</v>
+      </c>
+      <c r="Z693" s="29">
+        <v>1626105599</v>
+      </c>
+      <c r="AA693" s="29">
+        <v>68</v>
+      </c>
+      <c r="AH693" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI693" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL693" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM693" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:39">
+      <c r="A694" s="21">
+        <v>693</v>
+      </c>
+      <c r="B694" s="29">
+        <v>10610</v>
+      </c>
+      <c r="F694" s="21">
+        <v>1</v>
+      </c>
+      <c r="G694" s="29" t="s">
+        <v>1656</v>
+      </c>
+      <c r="J694" s="28" t="s">
+        <v>1662</v>
+      </c>
+      <c r="L694" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M694" s="28">
+        <v>0</v>
+      </c>
+      <c r="N694" s="28">
+        <v>0</v>
+      </c>
+      <c r="O694" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P694" s="29">
+        <v>600</v>
+      </c>
+      <c r="Q694" s="28" t="s">
+        <v>1581</v>
+      </c>
+      <c r="R694" s="53" t="s">
+        <v>1592</v>
+      </c>
+      <c r="W694" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="X694" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y694" s="29">
+        <v>1625529600</v>
+      </c>
+      <c r="Z694" s="29">
+        <v>1626105599</v>
+      </c>
+      <c r="AA694" s="29">
+        <v>68</v>
+      </c>
+      <c r="AH694" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI694" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL694" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM694" s="29">
         <v>1</v>
       </c>
     </row>
@@ -54654,19 +55068,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="58.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1655</v>
+        <v>1663</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1656</v>
+        <v>1664</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1657</v>
+        <v>1665</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1658</v>
+        <v>1666</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1659</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="2" ht="57.75" customHeight="1" spans="1:5">
@@ -54674,7 +55088,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1660</v>
+        <v>1668</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -54683,7 +55097,7 @@
         <v>3600</v>
       </c>
       <c r="E2" t="s">
-        <v>1661</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="3" ht="78.75" customHeight="1" spans="1:4">
@@ -54691,7 +55105,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>1662</v>
+        <v>1670</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -54705,7 +55119,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>1663</v>
+        <v>1671</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -54719,7 +55133,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>1664</v>
+        <v>1672</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -54733,7 +55147,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>1665</v>
+        <v>1673</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -54747,7 +55161,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1666</v>
+        <v>1674</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -54761,7 +55175,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1667</v>
+        <v>1675</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -54775,7 +55189,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1668</v>
+        <v>1676</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -54789,7 +55203,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1669</v>
+        <v>1677</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -54803,7 +55217,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1670</v>
+        <v>1678</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -54817,7 +55231,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>1665</v>
+        <v>1673</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -54831,7 +55245,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>1666</v>
+        <v>1674</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -54845,7 +55259,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>1671</v>
+        <v>1679</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -54859,7 +55273,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>1672</v>
+        <v>1680</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -54873,7 +55287,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>1673</v>
+        <v>1681</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -54887,7 +55301,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>1674</v>
+        <v>1682</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -54901,7 +55315,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>1675</v>
+        <v>1683</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -54915,7 +55329,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>1676</v>
+        <v>1684</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -54929,7 +55343,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>1677</v>
+        <v>1685</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -54943,7 +55357,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>1678</v>
+        <v>1686</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
@@ -54957,7 +55371,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>1679</v>
+        <v>1687</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
@@ -54971,7 +55385,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
@@ -54985,7 +55399,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
@@ -54999,7 +55413,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
@@ -55013,7 +55427,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -55027,7 +55441,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1684</v>
+        <v>1692</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -55041,7 +55455,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -55055,7 +55469,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1686</v>
+        <v>1694</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -55069,7 +55483,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1687</v>
+        <v>1695</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -55083,7 +55497,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1688</v>
+        <v>1696</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -55097,7 +55511,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1689</v>
+        <v>1697</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -55111,7 +55525,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1690</v>
+        <v>1698</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -55125,7 +55539,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1691</v>
+        <v>1699</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -55139,7 +55553,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1692</v>
+        <v>1700</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -55153,7 +55567,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1693</v>
+        <v>1701</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -55167,7 +55581,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1694</v>
+        <v>1702</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -55181,7 +55595,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1695</v>
+        <v>1703</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -55195,7 +55609,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1696</v>
+        <v>1704</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -55209,7 +55623,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1697</v>
+        <v>1705</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -55223,7 +55637,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1698</v>
+        <v>1706</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -55237,7 +55651,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1699</v>
+        <v>1707</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -55251,7 +55665,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1700</v>
+        <v>1708</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -55265,7 +55679,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1701</v>
+        <v>1709</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -55279,7 +55693,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1702</v>
+        <v>1710</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -55293,7 +55707,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>1703</v>
+        <v>1711</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -55307,7 +55721,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>1704</v>
+        <v>1712</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -55321,7 +55735,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1705</v>
+        <v>1713</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -55335,7 +55749,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1706</v>
+        <v>1714</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -55349,7 +55763,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1707</v>
+        <v>1715</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -55363,7 +55777,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>1708</v>
+        <v>1716</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -55377,7 +55791,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>1709</v>
+        <v>1717</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -55391,7 +55805,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1710</v>
+        <v>1718</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -55405,7 +55819,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1711</v>
+        <v>1719</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
@@ -55419,7 +55833,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1712</v>
+        <v>1720</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -55433,7 +55847,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1713</v>
+        <v>1721</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -55447,7 +55861,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1714</v>
+        <v>1722</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -55461,7 +55875,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1715</v>
+        <v>1723</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -55475,7 +55889,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1716</v>
+        <v>1724</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -55489,7 +55903,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1717</v>
+        <v>1725</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -55503,7 +55917,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1718</v>
+        <v>1726</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -55517,7 +55931,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1719</v>
+        <v>1727</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -55531,7 +55945,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>1720</v>
+        <v>1728</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -55545,7 +55959,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1721</v>
+        <v>1729</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
@@ -55559,7 +55973,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1722</v>
+        <v>1730</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -55573,7 +55987,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1723</v>
+        <v>1731</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
@@ -55587,7 +56001,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1724</v>
+        <v>1732</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -55601,7 +56015,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1725</v>
+        <v>1733</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -55615,7 +56029,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1726</v>
+        <v>1734</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -55629,7 +56043,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1727</v>
+        <v>1735</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -55643,7 +56057,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>1728</v>
+        <v>1736</v>
       </c>
       <c r="C71" s="17">
         <v>1</v>
@@ -55657,7 +56071,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>1729</v>
+        <v>1737</v>
       </c>
       <c r="C72" s="17">
         <v>1</v>
@@ -55671,7 +56085,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>1730</v>
+        <v>1738</v>
       </c>
       <c r="C73" s="17">
         <v>1</v>
@@ -55685,7 +56099,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>1731</v>
+        <v>1739</v>
       </c>
       <c r="C74" s="17">
         <v>1</v>
@@ -55699,7 +56113,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="C75" s="17">
         <v>1</v>
@@ -55713,7 +56127,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>1733</v>
+        <v>1741</v>
       </c>
       <c r="C76" s="17">
         <v>1</v>
@@ -55727,7 +56141,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="C77" s="17">
         <v>1</v>
@@ -55741,7 +56155,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>1735</v>
+        <v>1743</v>
       </c>
       <c r="C78" s="17">
         <v>1</v>
@@ -55755,7 +56169,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="C79" s="17">
         <v>1</v>
@@ -55769,7 +56183,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>1737</v>
+        <v>1745</v>
       </c>
       <c r="C80" s="17">
         <v>1</v>
@@ -55783,7 +56197,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>1738</v>
+        <v>1746</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -55797,7 +56211,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>1739</v>
+        <v>1747</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
@@ -55811,7 +56225,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="C83" s="2">
         <v>1</v>
@@ -55825,7 +56239,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>1741</v>
+        <v>1749</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
@@ -55839,7 +56253,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>1742</v>
+        <v>1750</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -55891,7 +56305,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="90" customHeight="1" spans="1:29">
       <c r="A1" s="1" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -55903,19 +56317,19 @@
         <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1744</v>
+        <v>1752</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>31</v>
@@ -55930,7 +56344,7 @@
         <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>39</v>
@@ -55975,7 +56389,7 @@
         <v>52</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>1750</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="1" spans="1:26">
@@ -55995,7 +56409,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="G2" s="12">
         <v>480</v>
@@ -56022,22 +56436,22 @@
         <v>3</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>1752</v>
+        <v>1760</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>1753</v>
+        <v>1761</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="T2" s="12" t="s">
         <v>61</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="Y2" s="12">
         <v>1</v>
@@ -56063,7 +56477,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="G3" s="12">
         <v>1200</v>
@@ -56093,19 +56507,19 @@
         <v>127</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>1757</v>
+        <v>1765</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="T3" s="12" t="s">
         <v>66</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>1758</v>
+        <v>1766</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="Y3" s="12">
         <v>1</v>
@@ -56131,7 +56545,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="G4" s="12">
         <v>2400</v>
@@ -56158,22 +56572,22 @@
         <v>5</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>1759</v>
+        <v>1767</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>1760</v>
+        <v>1768</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="T4" s="12" t="s">
         <v>70</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>1761</v>
+        <v>1769</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="Y4" s="12">
         <v>1</v>
@@ -56199,7 +56613,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="G5" s="12">
         <v>4000</v>
@@ -56226,22 +56640,22 @@
         <v>6</v>
       </c>
       <c r="P5" s="15" t="s">
+        <v>1770</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>1771</v>
+      </c>
+      <c r="S5" s="15" t="s">
         <v>1762</v>
-      </c>
-      <c r="Q5" s="15" t="s">
-        <v>1763</v>
-      </c>
-      <c r="S5" s="15" t="s">
-        <v>1754</v>
       </c>
       <c r="T5" s="12" t="s">
         <v>74</v>
       </c>
       <c r="U5" s="15" t="s">
+        <v>1772</v>
+      </c>
+      <c r="V5" s="12" t="s">
         <v>1764</v>
-      </c>
-      <c r="V5" s="12" t="s">
-        <v>1756</v>
       </c>
       <c r="Y5" s="12">
         <v>1</v>
@@ -56267,7 +56681,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="G6" s="12">
         <v>7840</v>
@@ -56294,22 +56708,22 @@
         <v>7</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>1765</v>
+        <v>1773</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>1766</v>
+        <v>1774</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="T6" s="12" t="s">
         <v>78</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1767</v>
+        <v>1775</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="Y6" s="12">
         <v>1</v>
@@ -56335,7 +56749,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="G7" s="12">
         <v>39840</v>
@@ -56362,22 +56776,22 @@
         <v>9</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>1768</v>
+        <v>1776</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>1769</v>
+        <v>1777</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="T7" s="12" t="s">
         <v>82</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>1770</v>
+        <v>1778</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="Y7" s="12">
         <v>1</v>
@@ -56400,7 +56814,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="G8" s="12">
         <v>120</v>
@@ -56427,22 +56841,22 @@
         <v>0</v>
       </c>
       <c r="P8" s="15" t="s">
-        <v>1771</v>
+        <v>1779</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>1772</v>
+        <v>1780</v>
       </c>
       <c r="S8" s="15" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="T8" s="12" t="s">
         <v>61</v>
       </c>
       <c r="U8" s="15" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="V8" s="12" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="Y8" s="12">
         <v>1</v>
@@ -56466,7 +56880,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>1773</v>
+        <v>1781</v>
       </c>
       <c r="G9" s="13">
         <v>5000</v>
@@ -56494,10 +56908,10 @@
         <v>2</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>1774</v>
+        <v>1782</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>1775</v>
+        <v>1783</v>
       </c>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
@@ -56505,10 +56919,10 @@
         <v>5000</v>
       </c>
       <c r="U9" s="13" t="s">
+        <v>1772</v>
+      </c>
+      <c r="V9" s="13" t="s">
         <v>1764</v>
-      </c>
-      <c r="V9" s="13" t="s">
-        <v>1756</v>
       </c>
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
@@ -56521,7 +56935,7 @@
       <c r="AA9" s="13"/>
       <c r="AB9" s="13"/>
       <c r="AC9" s="16" t="s">
-        <v>1776</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="10" s="12" customFormat="1" spans="1:29">
@@ -56539,7 +56953,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>1773</v>
+        <v>1781</v>
       </c>
       <c r="G10" s="13">
         <v>1000</v>
@@ -56567,10 +56981,10 @@
         <v>1</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>1777</v>
+        <v>1785</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>1778</v>
+        <v>1786</v>
       </c>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
@@ -56578,10 +56992,10 @@
         <v>1000</v>
       </c>
       <c r="U10" s="13" t="s">
-        <v>1758</v>
+        <v>1766</v>
       </c>
       <c r="V10" s="13" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
@@ -56594,7 +57008,7 @@
       <c r="AA10" s="13"/>
       <c r="AB10" s="13"/>
       <c r="AC10" s="16" t="s">
-        <v>1779</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="11" s="12" customFormat="1" spans="1:26">
@@ -56611,7 +57025,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="G11" s="12">
         <v>1200</v>
@@ -56641,19 +57055,19 @@
         <v>127</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>1757</v>
+        <v>1765</v>
       </c>
       <c r="S11" s="15" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="T11" s="15" t="s">
         <v>66</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>1758</v>
+        <v>1766</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="Y11" s="12">
         <v>1</v>
@@ -56679,7 +57093,7 @@
         <v>107</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="G12" s="12">
         <v>120000</v>
@@ -56706,22 +57120,22 @@
         <v>9</v>
       </c>
       <c r="P12" s="15" t="s">
-        <v>1780</v>
+        <v>1788</v>
       </c>
       <c r="Q12" s="15" t="s">
-        <v>1781</v>
+        <v>1789</v>
       </c>
       <c r="S12" s="15" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="T12" s="12" t="s">
         <v>86</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>1782</v>
+        <v>1790</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="Y12" s="12">
         <v>1</v>
@@ -56747,7 +57161,7 @@
         <v>108</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="G13" s="12">
         <v>79840</v>
@@ -56774,22 +57188,22 @@
         <v>10</v>
       </c>
       <c r="P13" s="15" t="s">
-        <v>1783</v>
+        <v>1791</v>
       </c>
       <c r="Q13" s="15" t="s">
-        <v>1784</v>
+        <v>1792</v>
       </c>
       <c r="S13" s="15" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>1785</v>
+        <v>1793</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>1782</v>
+        <v>1790</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="Y13" s="12">
         <v>1</v>
@@ -56815,7 +57229,7 @@
         <v>110</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="G14" s="12">
         <v>199840</v>
@@ -56842,22 +57256,22 @@
         <v>11</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>1786</v>
+        <v>1794</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>1787</v>
+        <v>1795</v>
       </c>
       <c r="S14" s="15" t="s">
-        <v>1788</v>
+        <v>1796</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>1789</v>
+        <v>1797</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>1790</v>
+        <v>1798</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="Y14" s="12">
         <v>1</v>
@@ -56881,7 +57295,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>1773</v>
+        <v>1781</v>
       </c>
       <c r="G15" s="13">
         <v>100</v>
@@ -56911,10 +57325,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>1791</v>
+        <v>1799</v>
       </c>
       <c r="Q15" s="16" t="s">
-        <v>1792</v>
+        <v>1800</v>
       </c>
       <c r="R15" s="13"/>
       <c r="S15" s="16"/>
@@ -56922,10 +57336,10 @@
         <v>100</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="V15" s="13" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
@@ -56938,7 +57352,7 @@
       <c r="AA15" s="13"/>
       <c r="AB15" s="13"/>
       <c r="AC15" s="16" t="s">
-        <v>1793</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="16" s="12" customFormat="1" spans="1:26">
@@ -56958,7 +57372,7 @@
         <v>101</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="G16" s="12">
         <v>2000</v>
@@ -56985,23 +57399,23 @@
         <v>3</v>
       </c>
       <c r="P16" s="15" t="s">
-        <v>1794</v>
+        <v>1802</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>1795</v>
+        <v>1803</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="15" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="T16" s="12" t="s">
         <v>101</v>
       </c>
       <c r="U16" s="15" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="V16" s="12" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -57026,7 +57440,7 @@
         <v>102</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="G17" s="12">
         <v>6700</v>
@@ -57053,23 +57467,23 @@
         <v>4</v>
       </c>
       <c r="P17" s="15" t="s">
-        <v>1796</v>
+        <v>1804</v>
       </c>
       <c r="Q17" s="15" t="s">
-        <v>1797</v>
+        <v>1805</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="15" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="T17" s="12" t="s">
         <v>105</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>1761</v>
+        <v>1769</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -57094,7 +57508,7 @@
         <v>103</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="G18" s="12">
         <v>13200</v>
@@ -57121,23 +57535,23 @@
         <v>5</v>
       </c>
       <c r="P18" s="15" t="s">
-        <v>1798</v>
+        <v>1806</v>
       </c>
       <c r="Q18" s="15" t="s">
-        <v>1799</v>
+        <v>1807</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" s="15" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="T18" s="12" t="s">
         <v>109</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>1767</v>
+        <v>1775</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -57162,7 +57576,7 @@
         <v>104</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="G19" s="12">
         <v>20400</v>
@@ -57189,23 +57603,23 @@
         <v>6</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>1800</v>
+        <v>1808</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>1801</v>
+        <v>1809</v>
       </c>
       <c r="R19" s="2"/>
       <c r="S19" s="15" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="T19" s="12" t="s">
         <v>114</v>
       </c>
       <c r="U19" s="15" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -57230,7 +57644,7 @@
         <v>105</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="G20" s="12">
         <v>66</v>
@@ -57257,22 +57671,22 @@
         <v>7</v>
       </c>
       <c r="P20" s="15" t="s">
-        <v>1803</v>
+        <v>1811</v>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="S20" s="15" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="T20" s="12" t="s">
         <v>120</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="Y20" s="12">
         <v>1</v>
@@ -57296,7 +57710,7 @@
         <v>101</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="G21" s="12">
         <v>200</v>
@@ -57327,20 +57741,20 @@
         <v>890</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>1805</v>
+        <v>1813</v>
       </c>
       <c r="R21" s="12"/>
       <c r="S21" s="15" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="T21" s="12" t="s">
         <v>124</v>
       </c>
       <c r="U21" s="15" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
@@ -57369,7 +57783,7 @@
         <v>104</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>1773</v>
+        <v>1781</v>
       </c>
       <c r="G22" s="13">
         <v>5000</v>
@@ -57397,10 +57811,10 @@
         <v>2</v>
       </c>
       <c r="P22" s="16" t="s">
-        <v>1774</v>
+        <v>1782</v>
       </c>
       <c r="Q22" s="16" t="s">
-        <v>1775</v>
+        <v>1783</v>
       </c>
       <c r="R22" s="13"/>
       <c r="S22" s="16"/>
@@ -57408,10 +57822,10 @@
         <v>5000</v>
       </c>
       <c r="U22" s="16" t="s">
+        <v>1772</v>
+      </c>
+      <c r="V22" s="13" t="s">
         <v>1764</v>
-      </c>
-      <c r="V22" s="13" t="s">
-        <v>1756</v>
       </c>
       <c r="W22" s="13"/>
       <c r="X22" s="13"/>
@@ -57440,7 +57854,7 @@
         <v>102</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>1773</v>
+        <v>1781</v>
       </c>
       <c r="G23" s="13">
         <v>1000</v>
@@ -57468,10 +57882,10 @@
         <v>1</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>1777</v>
+        <v>1785</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>1778</v>
+        <v>1786</v>
       </c>
       <c r="R23" s="13"/>
       <c r="S23" s="16"/>
@@ -57479,10 +57893,10 @@
         <v>1000</v>
       </c>
       <c r="U23" s="16" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="V23" s="13" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="W23" s="13"/>
       <c r="X23" s="13"/>
@@ -57504,14 +57918,14 @@
         <v>109</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>1806</v>
+        <v>1814</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
         <v>101</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>1773</v>
+        <v>1781</v>
       </c>
       <c r="G24" s="13">
         <v>100</v>
@@ -57541,10 +57955,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="16" t="s">
-        <v>1791</v>
+        <v>1799</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>1792</v>
+        <v>1800</v>
       </c>
       <c r="R24" s="13"/>
       <c r="S24" s="16"/>
@@ -57552,10 +57966,10 @@
         <v>100</v>
       </c>
       <c r="U24" s="16" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="V24" s="13" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="W24" s="13"/>
       <c r="X24" s="13"/>
@@ -57568,7 +57982,7 @@
       <c r="AA24" s="13"/>
       <c r="AB24" s="13"/>
       <c r="AC24" s="16" t="s">
-        <v>1793</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="25" s="12" customFormat="1" spans="1:26">
@@ -57588,7 +58002,7 @@
         <v>111</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="G25" s="12">
         <v>15840</v>
@@ -57615,22 +58029,22 @@
         <v>8</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="Q25" s="15" t="s">
-        <v>1808</v>
+        <v>1816</v>
       </c>
       <c r="S25" s="15" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="T25" s="15" t="s">
-        <v>1809</v>
+        <v>1817</v>
       </c>
       <c r="U25" s="15" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="V25" s="12" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="Y25" s="12">
         <v>1</v>
@@ -57693,13 +58107,13 @@
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1810</v>
+        <v>1818</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>31</v>
@@ -57711,16 +58125,16 @@
         <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1811</v>
+        <v>1819</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1812</v>
+        <v>1820</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1813</v>
+        <v>1821</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1814</v>
+        <v>1822</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>38</v>
@@ -57761,7 +58175,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1815</v>
+        <v>1823</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -57773,7 +58187,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1816</v>
+        <v>1824</v>
       </c>
       <c r="L2" s="2">
         <v>54</v>
@@ -57782,7 +58196,7 @@
         <v>999999</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1817</v>
+        <v>1825</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -57791,22 +58205,22 @@
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1818</v>
+        <v>1826</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1819</v>
+        <v>1827</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1820</v>
+        <v>1828</v>
       </c>
       <c r="T2" s="2">
         <v>60000</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1821</v>
+        <v>1829</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:23">
@@ -57817,7 +58231,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1815</v>
+        <v>1823</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -57829,7 +58243,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1816</v>
+        <v>1824</v>
       </c>
       <c r="L3" s="2">
         <v>54</v>
@@ -57838,7 +58252,7 @@
         <v>999999</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -57847,22 +58261,22 @@
         <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1818</v>
+        <v>1826</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1823</v>
+        <v>1831</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1820</v>
+        <v>1828</v>
       </c>
       <c r="T3" s="2">
         <v>500000</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1821</v>
+        <v>1829</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="W3" s="2">
         <v>8.3</v>
@@ -57876,7 +58290,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1824</v>
+        <v>1832</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -57901,19 +58315,19 @@
         <v>4</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>1825</v>
+        <v>1833</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>1826</v>
+        <v>1834</v>
       </c>
       <c r="T4" s="2">
         <v>15000</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:22">
@@ -57924,7 +58338,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1828</v>
+        <v>1836</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -57951,10 +58365,10 @@
         <v>100000</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>1829</v>
+        <v>1837</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:22">
@@ -57965,7 +58379,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -57992,10 +58406,10 @@
         <v>100000</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1829</v>
+        <v>1837</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:23">
@@ -58006,7 +58420,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1815</v>
+        <v>1823</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -58018,7 +58432,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1831</v>
+        <v>1839</v>
       </c>
       <c r="L7" s="2">
         <v>56</v>
@@ -58027,7 +58441,7 @@
         <v>999999</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="O7" s="6">
         <v>0</v>
@@ -58036,22 +58450,22 @@
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>1832</v>
+        <v>1840</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>1823</v>
+        <v>1831</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>1820</v>
+        <v>1828</v>
       </c>
       <c r="T7" s="2">
         <v>500000</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>1833</v>
+        <v>1841</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="W7" s="2">
         <v>8.3</v>
@@ -58065,10 +58479,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1834</v>
+        <v>1842</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="F8" s="2">
         <v>100</v>
@@ -58080,7 +58494,7 @@
         <v>125</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1835</v>
+        <v>1843</v>
       </c>
       <c r="L8" s="2">
         <v>57</v>
@@ -58095,22 +58509,22 @@
         <v>5</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>1836</v>
+        <v>1844</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>1837</v>
+        <v>1845</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>1820</v>
+        <v>1828</v>
       </c>
       <c r="T8" s="2">
         <v>100</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>1838</v>
+        <v>1846</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:22">
@@ -58121,10 +58535,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1839</v>
+        <v>1847</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="F9" s="2">
         <v>1000</v>
@@ -58139,16 +58553,16 @@
         <v>6</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>1840</v>
+        <v>1848</v>
       </c>
       <c r="T9" s="2">
         <v>1000</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>1841</v>
+        <v>1849</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:22">
@@ -58159,10 +58573,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1839</v>
+        <v>1847</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="F10" s="2">
         <v>5800</v>
@@ -58177,16 +58591,16 @@
         <v>7</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>1842</v>
+        <v>1850</v>
       </c>
       <c r="T10" s="2">
         <v>5800</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>1841</v>
+        <v>1849</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:22">
@@ -58197,10 +58611,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1839</v>
+        <v>1847</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="F11" s="2">
         <v>8800</v>
@@ -58215,16 +58629,16 @@
         <v>8</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>1843</v>
+        <v>1851</v>
       </c>
       <c r="T11" s="2">
         <v>8800</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>1841</v>
+        <v>1849</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:22">
@@ -58235,10 +58649,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1839</v>
+        <v>1847</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="F12" s="2">
         <v>18800</v>
@@ -58253,16 +58667,16 @@
         <v>9</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>1844</v>
+        <v>1852</v>
       </c>
       <c r="T12" s="2">
         <v>18800</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>1841</v>
+        <v>1849</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:23">
@@ -58273,7 +58687,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1845</v>
+        <v>1853</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -58297,16 +58711,16 @@
         <v>0</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>1846</v>
+        <v>1854</v>
       </c>
       <c r="T13" s="2">
         <v>70000</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>1847</v>
+        <v>1855</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="W13" s="2">
         <v>7</v>
@@ -58320,7 +58734,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1845</v>
+        <v>1853</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -58344,16 +58758,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>1848</v>
+        <v>1856</v>
       </c>
       <c r="T14" s="2">
         <v>180000</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>1847</v>
+        <v>1855</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="W14" s="2">
         <v>6</v>
@@ -58367,10 +58781,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1845</v>
+        <v>1853</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1773</v>
+        <v>1781</v>
       </c>
       <c r="F15" s="2">
         <v>1500</v>
@@ -58391,16 +58805,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>1849</v>
+        <v>1857</v>
       </c>
       <c r="T15" s="2">
         <v>1500</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>1847</v>
+        <v>1855</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="W15" s="2">
         <v>3</v>
@@ -58414,10 +58828,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1850</v>
+        <v>1858</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1773</v>
+        <v>1781</v>
       </c>
       <c r="F16" s="3">
         <v>200</v>
@@ -58433,13 +58847,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="T16" s="3">
         <v>200</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:22">
@@ -58450,10 +58864,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1850</v>
+        <v>1858</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1773</v>
+        <v>1781</v>
       </c>
       <c r="F17" s="3">
         <v>2000</v>
@@ -58469,13 +58883,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>1852</v>
+        <v>1860</v>
       </c>
       <c r="T17" s="3">
         <v>2000</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:22">
@@ -58486,7 +58900,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1850</v>
+        <v>1858</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
@@ -58505,13 +58919,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="T18" s="3">
         <v>20000</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:22">
@@ -58522,7 +58936,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1850</v>
+        <v>1858</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>14</v>
@@ -58541,13 +58955,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>1852</v>
+        <v>1860</v>
       </c>
       <c r="T19" s="3">
         <v>200000</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:22">
@@ -58558,7 +58972,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1853</v>
+        <v>1861</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>14</v>
@@ -58576,16 +58990,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>1854</v>
+        <v>1862</v>
       </c>
       <c r="T20" s="4">
         <v>300000</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1855</v>
+        <v>1863</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:22">
@@ -58596,7 +59010,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1856</v>
+        <v>1864</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>14</v>
@@ -58614,16 +59028,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>1857</v>
+        <v>1865</v>
       </c>
       <c r="T21" s="4">
         <v>300000</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1858</v>
+        <v>1866</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/shoping_config_vivo.xlsx
+++ b/config_Release/shoping_config_vivo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_7.27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5494" uniqueCount="1894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5542" uniqueCount="1935">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7166,6 +7166,170 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "first_deposit_gift" }</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖礼包冲金鸡</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖礼包非冲金鸡</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>十全十美</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>福袋礼包模板</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>百年好合</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>花好月圆</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>比翼双飞</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>海枯石烂</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>两情相悦</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>一见钟情</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷霆幻影</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_bg_light1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪耀风暴</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币使者</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_bg_light1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>核能风暴</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_6</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>死灵之光</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_7</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>神龙之力</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p6</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_bed_2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿芒</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_xy_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_bed_3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒霜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_ss_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_bed_4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>金焰</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_cs_1</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -7245,7 +7409,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7330,6 +7494,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -7373,7 +7543,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7601,6 +7771,30 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -10094,11 +10288,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO697"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W627" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="W675" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA642" sqref="AA642"/>
+      <selection pane="bottomRight" activeCell="W660" sqref="W660"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -52331,437 +52525,467 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A655" s="21">
+    <row r="655" spans="1:40" s="77" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A655" s="77">
         <v>654</v>
       </c>
-      <c r="B655" s="31">
+      <c r="B655" s="77">
         <v>10571</v>
       </c>
-      <c r="F655" s="21">
-        <v>0</v>
-      </c>
-      <c r="G655" s="31" t="s">
-        <v>1116</v>
-      </c>
-      <c r="K655" s="31" t="s">
+      <c r="F655" s="77">
+        <v>1</v>
+      </c>
+      <c r="G655" s="77" t="s">
+        <v>1896</v>
+      </c>
+      <c r="H655" s="79" t="s">
+        <v>1897</v>
+      </c>
+      <c r="K655" s="77" t="s">
         <v>1615</v>
       </c>
-      <c r="M655" s="28">
+      <c r="M655" s="77">
         <v>-31</v>
       </c>
-      <c r="N655" s="28">
-        <v>0</v>
-      </c>
-      <c r="O655" s="28">
-        <v>0</v>
-      </c>
-      <c r="P655" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q655" s="31">
+      <c r="N655" s="77">
+        <v>0</v>
+      </c>
+      <c r="O655" s="77">
+        <v>0</v>
+      </c>
+      <c r="P655" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q655" s="77">
         <v>99800</v>
       </c>
-      <c r="R655" s="31" t="s">
+      <c r="R655" s="77" t="s">
         <v>1616</v>
       </c>
-      <c r="S655" s="55" t="s">
+      <c r="S655" s="78" t="s">
         <v>1139</v>
       </c>
-      <c r="X655" s="28" t="s">
+      <c r="X655" s="77" t="s">
         <v>482</v>
       </c>
-      <c r="Y655" s="28">
+      <c r="Y655" s="77">
         <v>99999999</v>
       </c>
-      <c r="Z655" s="31">
-        <v>1623110400</v>
-      </c>
-      <c r="AA655" s="31">
-        <v>1623686399</v>
-      </c>
-      <c r="AI655" s="31">
-        <v>1</v>
-      </c>
-      <c r="AJ655" s="31">
-        <v>1</v>
-      </c>
-      <c r="AM655" s="31">
-        <v>1</v>
-      </c>
-      <c r="AN655" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="656" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A656" s="21">
+      <c r="Z655" s="77">
+        <v>1627948800</v>
+      </c>
+      <c r="AA655" s="77">
+        <v>1630339199</v>
+      </c>
+      <c r="AB655" s="77">
+        <v>69</v>
+      </c>
+      <c r="AI655" s="77">
+        <v>1</v>
+      </c>
+      <c r="AJ655" s="77">
+        <v>1</v>
+      </c>
+      <c r="AM655" s="77">
+        <v>1</v>
+      </c>
+      <c r="AN655" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656" spans="1:40" s="77" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A656" s="77">
         <v>655</v>
       </c>
-      <c r="B656" s="31">
+      <c r="B656" s="77">
         <v>10572</v>
       </c>
-      <c r="F656" s="21">
-        <v>0</v>
-      </c>
-      <c r="G656" s="31" t="s">
-        <v>1120</v>
-      </c>
-      <c r="K656" s="31" t="s">
+      <c r="F656" s="77">
+        <v>1</v>
+      </c>
+      <c r="G656" s="77" t="s">
+        <v>1898</v>
+      </c>
+      <c r="H656" s="79"/>
+      <c r="K656" s="77" t="s">
         <v>1617</v>
       </c>
-      <c r="M656" s="28">
+      <c r="M656" s="77">
         <v>-31</v>
       </c>
-      <c r="N656" s="28">
-        <v>0</v>
-      </c>
-      <c r="O656" s="28">
-        <v>0</v>
-      </c>
-      <c r="P656" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q656" s="31">
+      <c r="N656" s="77">
+        <v>0</v>
+      </c>
+      <c r="O656" s="77">
+        <v>0</v>
+      </c>
+      <c r="P656" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q656" s="77">
         <v>49800</v>
       </c>
-      <c r="R656" s="31" t="s">
+      <c r="R656" s="77" t="s">
         <v>1616</v>
       </c>
-      <c r="S656" s="55" t="s">
+      <c r="S656" s="78" t="s">
         <v>1136</v>
       </c>
-      <c r="X656" s="28" t="s">
+      <c r="X656" s="77" t="s">
         <v>482</v>
       </c>
-      <c r="Y656" s="28">
+      <c r="Y656" s="77">
         <v>99999999</v>
       </c>
-      <c r="Z656" s="31">
-        <v>1623110400</v>
-      </c>
-      <c r="AA656" s="31">
-        <v>1623686399</v>
-      </c>
-      <c r="AI656" s="31">
-        <v>1</v>
-      </c>
-      <c r="AJ656" s="31">
-        <v>1</v>
-      </c>
-      <c r="AM656" s="31">
-        <v>1</v>
-      </c>
-      <c r="AN656" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="657" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A657" s="21">
+      <c r="Z656" s="77">
+        <v>1627948800</v>
+      </c>
+      <c r="AA656" s="77">
+        <v>1630339199</v>
+      </c>
+      <c r="AB656" s="77">
+        <v>69</v>
+      </c>
+      <c r="AI656" s="77">
+        <v>1</v>
+      </c>
+      <c r="AJ656" s="77">
+        <v>1</v>
+      </c>
+      <c r="AM656" s="77">
+        <v>1</v>
+      </c>
+      <c r="AN656" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" spans="1:40" s="77" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A657" s="77">
         <v>656</v>
       </c>
-      <c r="B657" s="31">
+      <c r="B657" s="77">
         <v>10573</v>
       </c>
-      <c r="F657" s="21">
-        <v>0</v>
-      </c>
-      <c r="G657" s="31" t="s">
-        <v>1123</v>
-      </c>
-      <c r="K657" s="31" t="s">
+      <c r="F657" s="77">
+        <v>1</v>
+      </c>
+      <c r="G657" s="77" t="s">
+        <v>1899</v>
+      </c>
+      <c r="H657" s="79"/>
+      <c r="K657" s="77" t="s">
         <v>1618</v>
       </c>
-      <c r="M657" s="28">
+      <c r="M657" s="77">
         <v>-31</v>
       </c>
-      <c r="N657" s="28">
-        <v>0</v>
-      </c>
-      <c r="O657" s="28">
-        <v>0</v>
-      </c>
-      <c r="P657" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q657" s="31">
+      <c r="N657" s="77">
+        <v>0</v>
+      </c>
+      <c r="O657" s="77">
+        <v>0</v>
+      </c>
+      <c r="P657" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q657" s="77">
         <v>29800</v>
       </c>
-      <c r="R657" s="31" t="s">
+      <c r="R657" s="77" t="s">
         <v>1619</v>
       </c>
-      <c r="S657" s="55" t="s">
+      <c r="S657" s="78" t="s">
         <v>1132</v>
       </c>
-      <c r="X657" s="28" t="s">
+      <c r="X657" s="77" t="s">
         <v>482</v>
       </c>
-      <c r="Y657" s="28">
+      <c r="Y657" s="77">
         <v>99999999</v>
       </c>
-      <c r="Z657" s="31">
-        <v>1623110400</v>
-      </c>
-      <c r="AA657" s="31">
-        <v>1623686399</v>
-      </c>
-      <c r="AI657" s="31">
-        <v>1</v>
-      </c>
-      <c r="AJ657" s="31">
-        <v>1</v>
-      </c>
-      <c r="AM657" s="31">
-        <v>1</v>
-      </c>
-      <c r="AN657" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="658" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A658" s="21">
+      <c r="Z657" s="77">
+        <v>1627948800</v>
+      </c>
+      <c r="AA657" s="77">
+        <v>1630339199</v>
+      </c>
+      <c r="AB657" s="77">
+        <v>69</v>
+      </c>
+      <c r="AI657" s="77">
+        <v>1</v>
+      </c>
+      <c r="AJ657" s="77">
+        <v>1</v>
+      </c>
+      <c r="AM657" s="77">
+        <v>1</v>
+      </c>
+      <c r="AN657" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658" spans="1:40" s="77" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A658" s="77">
         <v>657</v>
       </c>
-      <c r="B658" s="31">
+      <c r="B658" s="77">
         <v>10574</v>
       </c>
-      <c r="F658" s="21">
-        <v>0</v>
-      </c>
-      <c r="G658" s="31" t="s">
-        <v>1127</v>
-      </c>
-      <c r="K658" s="31" t="s">
+      <c r="F658" s="77">
+        <v>1</v>
+      </c>
+      <c r="G658" s="77" t="s">
+        <v>1900</v>
+      </c>
+      <c r="H658" s="79"/>
+      <c r="K658" s="77" t="s">
         <v>1620</v>
       </c>
-      <c r="M658" s="28">
+      <c r="M658" s="77">
         <v>-31</v>
       </c>
-      <c r="N658" s="28">
-        <v>0</v>
-      </c>
-      <c r="O658" s="28">
-        <v>0</v>
-      </c>
-      <c r="P658" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q658" s="31">
+      <c r="N658" s="77">
+        <v>0</v>
+      </c>
+      <c r="O658" s="77">
+        <v>0</v>
+      </c>
+      <c r="P658" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q658" s="77">
         <v>19800</v>
       </c>
-      <c r="R658" s="31" t="s">
+      <c r="R658" s="77" t="s">
         <v>1619</v>
       </c>
-      <c r="S658" s="55" t="s">
+      <c r="S658" s="78" t="s">
         <v>1129</v>
       </c>
-      <c r="X658" s="28" t="s">
+      <c r="X658" s="77" t="s">
         <v>482</v>
       </c>
-      <c r="Y658" s="28">
+      <c r="Y658" s="77">
         <v>99999999</v>
       </c>
-      <c r="Z658" s="31">
-        <v>1623110400</v>
-      </c>
-      <c r="AA658" s="31">
-        <v>1623686399</v>
-      </c>
-      <c r="AI658" s="31">
-        <v>1</v>
-      </c>
-      <c r="AJ658" s="31">
-        <v>1</v>
-      </c>
-      <c r="AM658" s="31">
-        <v>1</v>
-      </c>
-      <c r="AN658" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="659" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A659" s="21">
+      <c r="Z658" s="77">
+        <v>1627948800</v>
+      </c>
+      <c r="AA658" s="77">
+        <v>1630339199</v>
+      </c>
+      <c r="AB658" s="77">
+        <v>69</v>
+      </c>
+      <c r="AI658" s="77">
+        <v>1</v>
+      </c>
+      <c r="AJ658" s="77">
+        <v>1</v>
+      </c>
+      <c r="AM658" s="77">
+        <v>1</v>
+      </c>
+      <c r="AN658" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:40" s="77" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A659" s="77">
         <v>658</v>
       </c>
-      <c r="B659" s="31">
+      <c r="B659" s="77">
         <v>10575</v>
       </c>
-      <c r="F659" s="21">
-        <v>0</v>
-      </c>
-      <c r="G659" s="31" t="s">
-        <v>1130</v>
-      </c>
-      <c r="K659" s="31" t="s">
+      <c r="F659" s="77">
+        <v>1</v>
+      </c>
+      <c r="G659" s="77" t="s">
+        <v>1901</v>
+      </c>
+      <c r="H659" s="79"/>
+      <c r="K659" s="77" t="s">
         <v>1621</v>
       </c>
-      <c r="M659" s="28">
+      <c r="M659" s="77">
         <v>-31</v>
       </c>
-      <c r="N659" s="28">
-        <v>0</v>
-      </c>
-      <c r="O659" s="28">
-        <v>0</v>
-      </c>
-      <c r="P659" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q659" s="31">
+      <c r="N659" s="77">
+        <v>0</v>
+      </c>
+      <c r="O659" s="77">
+        <v>0</v>
+      </c>
+      <c r="P659" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q659" s="77">
         <v>9800</v>
       </c>
-      <c r="R659" s="31" t="s">
+      <c r="R659" s="77" t="s">
         <v>1619</v>
       </c>
-      <c r="S659" s="55" t="s">
+      <c r="S659" s="78" t="s">
         <v>1126</v>
       </c>
-      <c r="X659" s="28" t="s">
+      <c r="X659" s="77" t="s">
         <v>482</v>
       </c>
-      <c r="Y659" s="28">
+      <c r="Y659" s="77">
         <v>99999999</v>
       </c>
-      <c r="Z659" s="31">
-        <v>1623110400</v>
-      </c>
-      <c r="AA659" s="31">
-        <v>1623686399</v>
-      </c>
-      <c r="AI659" s="31">
-        <v>1</v>
-      </c>
-      <c r="AJ659" s="31">
-        <v>1</v>
-      </c>
-      <c r="AM659" s="31">
-        <v>1</v>
-      </c>
-      <c r="AN659" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="660" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A660" s="21">
+      <c r="Z659" s="77">
+        <v>1627948800</v>
+      </c>
+      <c r="AA659" s="77">
+        <v>1630339199</v>
+      </c>
+      <c r="AB659" s="77">
+        <v>69</v>
+      </c>
+      <c r="AI659" s="77">
+        <v>1</v>
+      </c>
+      <c r="AJ659" s="77">
+        <v>1</v>
+      </c>
+      <c r="AM659" s="77">
+        <v>1</v>
+      </c>
+      <c r="AN659" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:40" s="77" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A660" s="77">
         <v>659</v>
       </c>
-      <c r="B660" s="31">
+      <c r="B660" s="77">
         <v>10576</v>
       </c>
-      <c r="F660" s="21">
-        <v>0</v>
-      </c>
-      <c r="G660" s="31" t="s">
-        <v>1133</v>
-      </c>
-      <c r="K660" s="31" t="s">
+      <c r="F660" s="77">
+        <v>1</v>
+      </c>
+      <c r="G660" s="77" t="s">
+        <v>1902</v>
+      </c>
+      <c r="H660" s="79"/>
+      <c r="K660" s="77" t="s">
         <v>1622</v>
       </c>
-      <c r="M660" s="28">
+      <c r="M660" s="77">
         <v>-31</v>
       </c>
-      <c r="N660" s="28">
-        <v>0</v>
-      </c>
-      <c r="O660" s="28">
-        <v>0</v>
-      </c>
-      <c r="P660" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q660" s="31">
+      <c r="N660" s="77">
+        <v>0</v>
+      </c>
+      <c r="O660" s="77">
+        <v>0</v>
+      </c>
+      <c r="P660" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q660" s="77">
         <v>4800</v>
       </c>
-      <c r="R660" s="31" t="s">
+      <c r="R660" s="77" t="s">
         <v>1623</v>
       </c>
-      <c r="S660" s="55" t="s">
+      <c r="S660" s="78" t="s">
         <v>1122</v>
       </c>
-      <c r="X660" s="28" t="s">
+      <c r="X660" s="77" t="s">
         <v>482</v>
       </c>
-      <c r="Y660" s="28">
+      <c r="Y660" s="77">
         <v>99999999</v>
       </c>
-      <c r="Z660" s="31">
-        <v>1623110400</v>
-      </c>
-      <c r="AA660" s="31">
-        <v>1623686399</v>
-      </c>
-      <c r="AI660" s="31">
-        <v>1</v>
-      </c>
-      <c r="AJ660" s="31">
-        <v>1</v>
-      </c>
-      <c r="AM660" s="31">
-        <v>1</v>
-      </c>
-      <c r="AN660" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="661" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A661" s="21">
+      <c r="Z660" s="77">
+        <v>1627948800</v>
+      </c>
+      <c r="AA660" s="77">
+        <v>1630339199</v>
+      </c>
+      <c r="AB660" s="77">
+        <v>69</v>
+      </c>
+      <c r="AI660" s="77">
+        <v>1</v>
+      </c>
+      <c r="AJ660" s="77">
+        <v>1</v>
+      </c>
+      <c r="AM660" s="77">
+        <v>1</v>
+      </c>
+      <c r="AN660" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:40" s="77" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A661" s="77">
         <v>660</v>
       </c>
-      <c r="B661" s="31">
+      <c r="B661" s="77">
         <v>10577</v>
       </c>
-      <c r="F661" s="21">
-        <v>0</v>
-      </c>
-      <c r="G661" s="31" t="s">
-        <v>1137</v>
-      </c>
-      <c r="K661" s="31" t="s">
+      <c r="F661" s="77">
+        <v>1</v>
+      </c>
+      <c r="G661" s="77" t="s">
+        <v>1903</v>
+      </c>
+      <c r="H661" s="79"/>
+      <c r="K661" s="77" t="s">
         <v>1624</v>
       </c>
-      <c r="M661" s="28">
+      <c r="M661" s="77">
         <v>-31</v>
       </c>
-      <c r="N661" s="28">
-        <v>0</v>
-      </c>
-      <c r="O661" s="28">
-        <v>0</v>
-      </c>
-      <c r="P661" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q661" s="31">
+      <c r="N661" s="77">
+        <v>0</v>
+      </c>
+      <c r="O661" s="77">
+        <v>0</v>
+      </c>
+      <c r="P661" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q661" s="77">
         <v>1800</v>
       </c>
-      <c r="R661" s="31" t="s">
+      <c r="R661" s="77" t="s">
         <v>1623</v>
       </c>
-      <c r="S661" s="55" t="s">
+      <c r="S661" s="78" t="s">
         <v>1119</v>
       </c>
-      <c r="X661" s="28" t="s">
+      <c r="X661" s="77" t="s">
         <v>482</v>
       </c>
-      <c r="Y661" s="28">
+      <c r="Y661" s="77">
         <v>99999999</v>
       </c>
-      <c r="Z661" s="31">
-        <v>1623110400</v>
-      </c>
-      <c r="AA661" s="31">
-        <v>1623686399</v>
-      </c>
-      <c r="AI661" s="31">
-        <v>1</v>
-      </c>
-      <c r="AJ661" s="31">
-        <v>1</v>
-      </c>
-      <c r="AM661" s="31">
-        <v>1</v>
-      </c>
-      <c r="AN661" s="31">
+      <c r="Z661" s="77">
+        <v>1627948800</v>
+      </c>
+      <c r="AA661" s="77">
+        <v>1630339199</v>
+      </c>
+      <c r="AB661" s="77">
+        <v>69</v>
+      </c>
+      <c r="AI661" s="77">
+        <v>1</v>
+      </c>
+      <c r="AJ661" s="77">
+        <v>1</v>
+      </c>
+      <c r="AM661" s="77">
+        <v>1</v>
+      </c>
+      <c r="AN661" s="77">
         <v>1</v>
       </c>
     </row>
@@ -54256,783 +54480,799 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A683" s="21">
+    <row r="683" spans="1:40" s="76" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A683" s="76">
         <v>682</v>
       </c>
-      <c r="B683" s="31">
+      <c r="B683" s="76">
         <v>10599</v>
       </c>
-      <c r="F683" s="21">
-        <v>0</v>
-      </c>
-      <c r="G683" s="31" t="s">
+      <c r="F683" s="76">
+        <v>0</v>
+      </c>
+      <c r="G683" s="76" t="s">
         <v>1657</v>
       </c>
-      <c r="K683" s="28" t="s">
+      <c r="H683" s="79" t="s">
+        <v>1894</v>
+      </c>
+      <c r="K683" s="76" t="s">
         <v>1581</v>
       </c>
-      <c r="M683" s="28">
+      <c r="M683" s="76">
         <v>-31</v>
       </c>
-      <c r="N683" s="28">
-        <v>0</v>
-      </c>
-      <c r="O683" s="28">
-        <v>0</v>
-      </c>
-      <c r="P683" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q683" s="31">
+      <c r="N683" s="76">
+        <v>0</v>
+      </c>
+      <c r="O683" s="76">
+        <v>0</v>
+      </c>
+      <c r="P683" s="76" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q683" s="76">
         <v>49800</v>
       </c>
-      <c r="R683" s="28" t="s">
+      <c r="R683" s="76" t="s">
         <v>1658</v>
       </c>
-      <c r="S683" s="55" t="s">
+      <c r="S683" s="78" t="s">
         <v>1583</v>
       </c>
-      <c r="X683" s="21" t="s">
+      <c r="X683" s="76" t="s">
         <v>1311</v>
       </c>
-      <c r="Y683" s="28">
+      <c r="Y683" s="76">
         <v>99999999</v>
       </c>
-      <c r="Z683" s="31">
+      <c r="Z683" s="76">
         <v>1624924800</v>
       </c>
-      <c r="AA683" s=